--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2DFE3F-823B-4E67-8F73-C46319708E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E695A9D7-A360-45A8-8D34-5B3DE2E77DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2477" windowWidth="24129" windowHeight="14743" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="3763" yWindow="351" windowWidth="24094" windowHeight="17083" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="989">
   <si>
     <t>Level</t>
   </si>
@@ -2922,6 +2922,99 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>COOKIE</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>cookie.spr</t>
+  </si>
+  <si>
+    <t>COOKIE_XMAS</t>
+  </si>
+  <si>
+    <t>cookie_xmas.spr</t>
+  </si>
+  <si>
+    <t>CRUISER</t>
+  </si>
+  <si>
+    <t>Cruiser</t>
+  </si>
+  <si>
+    <t>cruiser.spr</t>
+  </si>
+  <si>
+    <t>CHEPET</t>
+  </si>
+  <si>
+    <t>Chepet</t>
+  </si>
+  <si>
+    <t>chepet.spr</t>
+  </si>
+  <si>
+    <t>GOBLINE_XMAS</t>
+  </si>
+  <si>
+    <t>Festive Goblin</t>
+  </si>
+  <si>
+    <t>gobline_xmas.spr</t>
+  </si>
+  <si>
+    <t>GARM</t>
+  </si>
+  <si>
+    <t>Garm</t>
+  </si>
+  <si>
+    <t>Normal,Elite</t>
+  </si>
+  <si>
+    <t>garm.spr</t>
+  </si>
+  <si>
+    <t>GARM_BABY</t>
+  </si>
+  <si>
+    <t>Baby Garm</t>
+  </si>
+  <si>
+    <t>garm_baby.spr</t>
+  </si>
+  <si>
+    <t>KNIGHT_OF_WINDSTORM</t>
+  </si>
+  <si>
+    <t>Stormy Knight</t>
+  </si>
+  <si>
+    <t>knight_of_windstorm.spr</t>
+  </si>
+  <si>
+    <t>MYSTCASE</t>
+  </si>
+  <si>
+    <t>Mystcase</t>
+  </si>
+  <si>
+    <t>mystcase.spr</t>
+  </si>
+  <si>
+    <t>WRAITH_DEAD</t>
+  </si>
+  <si>
+    <t>wraith_dead.spr</t>
+  </si>
+  <si>
+    <t>Wraith Dead</t>
+  </si>
+  <si>
+    <t>Elite,Undead</t>
   </si>
 </sst>
 </file>
@@ -3311,13 +3404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
-  <dimension ref="A1:AI258"/>
+  <dimension ref="A1:AI268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomRight" activeCell="AC268" sqref="AC268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -30962,6 +31055,1076 @@
         <v>1</v>
       </c>
     </row>
+    <row r="259" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>4256</v>
+      </c>
+      <c r="B259" t="s">
+        <v>958</v>
+      </c>
+      <c r="C259" t="s">
+        <v>959</v>
+      </c>
+      <c r="D259">
+        <v>25</v>
+      </c>
+      <c r="E259">
+        <v>100</v>
+      </c>
+      <c r="F259">
+        <v>100</v>
+      </c>
+      <c r="G259">
+        <v>100</v>
+      </c>
+      <c r="H259">
+        <v>100</v>
+      </c>
+      <c r="I259">
+        <v>100</v>
+      </c>
+      <c r="J259">
+        <v>100</v>
+      </c>
+      <c r="K259">
+        <v>100</v>
+      </c>
+      <c r="L259">
+        <v>100</v>
+      </c>
+      <c r="M259">
+        <v>10</v>
+      </c>
+      <c r="N259">
+        <v>1</v>
+      </c>
+      <c r="O259">
+        <v>100</v>
+      </c>
+      <c r="P259">
+        <v>100</v>
+      </c>
+      <c r="Q259">
+        <v>100</v>
+      </c>
+      <c r="R259">
+        <v>100</v>
+      </c>
+      <c r="S259">
+        <v>10</v>
+      </c>
+      <c r="T259">
+        <v>12</v>
+      </c>
+      <c r="U259" t="s">
+        <v>56</v>
+      </c>
+      <c r="V259" t="s">
+        <v>172</v>
+      </c>
+      <c r="W259" t="s">
+        <v>63</v>
+      </c>
+      <c r="X259">
+        <v>1036</v>
+      </c>
+      <c r="Y259">
+        <v>240</v>
+      </c>
+      <c r="Z259">
+        <v>936</v>
+      </c>
+      <c r="AA259">
+        <v>200</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE259">
+        <v>111</v>
+      </c>
+      <c r="AF259" t="s">
+        <v>960</v>
+      </c>
+      <c r="AG259">
+        <v>0</v>
+      </c>
+      <c r="AH259">
+        <v>0.5</v>
+      </c>
+      <c r="AI259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>4257</v>
+      </c>
+      <c r="B260" t="s">
+        <v>961</v>
+      </c>
+      <c r="C260" t="s">
+        <v>959</v>
+      </c>
+      <c r="D260">
+        <v>28</v>
+      </c>
+      <c r="E260">
+        <v>100</v>
+      </c>
+      <c r="F260">
+        <v>100</v>
+      </c>
+      <c r="G260">
+        <v>100</v>
+      </c>
+      <c r="H260">
+        <v>100</v>
+      </c>
+      <c r="I260">
+        <v>100</v>
+      </c>
+      <c r="J260">
+        <v>100</v>
+      </c>
+      <c r="K260">
+        <v>100</v>
+      </c>
+      <c r="L260">
+        <v>100</v>
+      </c>
+      <c r="M260">
+        <v>10</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260">
+        <v>100</v>
+      </c>
+      <c r="P260">
+        <v>100</v>
+      </c>
+      <c r="Q260">
+        <v>100</v>
+      </c>
+      <c r="R260">
+        <v>100</v>
+      </c>
+      <c r="S260">
+        <v>10</v>
+      </c>
+      <c r="T260">
+        <v>12</v>
+      </c>
+      <c r="U260" t="s">
+        <v>56</v>
+      </c>
+      <c r="V260" t="s">
+        <v>172</v>
+      </c>
+      <c r="W260" t="s">
+        <v>603</v>
+      </c>
+      <c r="X260">
+        <v>1248</v>
+      </c>
+      <c r="Y260">
+        <v>240</v>
+      </c>
+      <c r="Z260">
+        <v>1248</v>
+      </c>
+      <c r="AA260">
+        <v>400</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE260">
+        <v>350</v>
+      </c>
+      <c r="AF260" t="s">
+        <v>962</v>
+      </c>
+      <c r="AG260">
+        <v>0</v>
+      </c>
+      <c r="AH260">
+        <v>0.5</v>
+      </c>
+      <c r="AI260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>4258</v>
+      </c>
+      <c r="B261" t="s">
+        <v>963</v>
+      </c>
+      <c r="C261" t="s">
+        <v>964</v>
+      </c>
+      <c r="D261">
+        <v>35</v>
+      </c>
+      <c r="E261">
+        <v>100</v>
+      </c>
+      <c r="F261">
+        <v>100</v>
+      </c>
+      <c r="G261">
+        <v>100</v>
+      </c>
+      <c r="H261">
+        <v>100</v>
+      </c>
+      <c r="I261">
+        <v>100</v>
+      </c>
+      <c r="J261">
+        <v>100</v>
+      </c>
+      <c r="K261">
+        <v>100</v>
+      </c>
+      <c r="L261">
+        <v>100</v>
+      </c>
+      <c r="M261">
+        <v>10</v>
+      </c>
+      <c r="N261">
+        <v>7</v>
+      </c>
+      <c r="O261">
+        <v>100</v>
+      </c>
+      <c r="P261">
+        <v>100</v>
+      </c>
+      <c r="Q261">
+        <v>100</v>
+      </c>
+      <c r="R261">
+        <v>100</v>
+      </c>
+      <c r="S261">
+        <v>10</v>
+      </c>
+      <c r="T261">
+        <v>12</v>
+      </c>
+      <c r="U261" t="s">
+        <v>39</v>
+      </c>
+      <c r="V261" t="s">
+        <v>50</v>
+      </c>
+      <c r="W261" t="s">
+        <v>63</v>
+      </c>
+      <c r="X261">
+        <v>1296</v>
+      </c>
+      <c r="Y261">
+        <v>432</v>
+      </c>
+      <c r="Z261">
+        <v>1296</v>
+      </c>
+      <c r="AA261">
+        <v>400</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>592</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE261">
+        <v>1000</v>
+      </c>
+      <c r="AF261" t="s">
+        <v>965</v>
+      </c>
+      <c r="AG261">
+        <v>0</v>
+      </c>
+      <c r="AH261">
+        <v>0.5</v>
+      </c>
+      <c r="AI261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>4259</v>
+      </c>
+      <c r="B262" t="s">
+        <v>966</v>
+      </c>
+      <c r="C262" t="s">
+        <v>967</v>
+      </c>
+      <c r="D262">
+        <v>42</v>
+      </c>
+      <c r="E262">
+        <v>100</v>
+      </c>
+      <c r="F262">
+        <v>100</v>
+      </c>
+      <c r="G262">
+        <v>100</v>
+      </c>
+      <c r="H262">
+        <v>100</v>
+      </c>
+      <c r="I262">
+        <v>100</v>
+      </c>
+      <c r="J262">
+        <v>100</v>
+      </c>
+      <c r="K262">
+        <v>100</v>
+      </c>
+      <c r="L262">
+        <v>100</v>
+      </c>
+      <c r="M262">
+        <v>10</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262">
+        <v>100</v>
+      </c>
+      <c r="P262">
+        <v>100</v>
+      </c>
+      <c r="Q262">
+        <v>100</v>
+      </c>
+      <c r="R262">
+        <v>100</v>
+      </c>
+      <c r="S262">
+        <v>10</v>
+      </c>
+      <c r="T262">
+        <v>12</v>
+      </c>
+      <c r="U262" t="s">
+        <v>39</v>
+      </c>
+      <c r="V262" t="s">
+        <v>172</v>
+      </c>
+      <c r="W262" t="s">
+        <v>111</v>
+      </c>
+      <c r="X262">
+        <v>672</v>
+      </c>
+      <c r="Y262">
+        <v>288</v>
+      </c>
+      <c r="Z262">
+        <v>672</v>
+      </c>
+      <c r="AA262">
+        <v>400</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD262" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE262">
+        <v>350</v>
+      </c>
+      <c r="AF262" t="s">
+        <v>968</v>
+      </c>
+      <c r="AG262">
+        <v>0</v>
+      </c>
+      <c r="AH262">
+        <v>0.5</v>
+      </c>
+      <c r="AI262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>4260</v>
+      </c>
+      <c r="B263" t="s">
+        <v>969</v>
+      </c>
+      <c r="C263" t="s">
+        <v>970</v>
+      </c>
+      <c r="D263">
+        <v>25</v>
+      </c>
+      <c r="E263">
+        <v>100</v>
+      </c>
+      <c r="F263">
+        <v>100</v>
+      </c>
+      <c r="G263">
+        <v>100</v>
+      </c>
+      <c r="H263">
+        <v>100</v>
+      </c>
+      <c r="I263">
+        <v>100</v>
+      </c>
+      <c r="J263">
+        <v>100</v>
+      </c>
+      <c r="K263">
+        <v>100</v>
+      </c>
+      <c r="L263">
+        <v>100</v>
+      </c>
+      <c r="M263">
+        <v>10</v>
+      </c>
+      <c r="N263">
+        <v>1</v>
+      </c>
+      <c r="O263">
+        <v>100</v>
+      </c>
+      <c r="P263">
+        <v>100</v>
+      </c>
+      <c r="Q263">
+        <v>100</v>
+      </c>
+      <c r="R263">
+        <v>100</v>
+      </c>
+      <c r="S263">
+        <v>10</v>
+      </c>
+      <c r="T263">
+        <v>12</v>
+      </c>
+      <c r="U263" t="s">
+        <v>39</v>
+      </c>
+      <c r="V263" t="s">
+        <v>172</v>
+      </c>
+      <c r="W263" t="s">
+        <v>81</v>
+      </c>
+      <c r="X263">
+        <v>1120</v>
+      </c>
+      <c r="Y263">
+        <v>240</v>
+      </c>
+      <c r="Z263">
+        <v>620</v>
+      </c>
+      <c r="AA263">
+        <v>100</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE263">
+        <v>400</v>
+      </c>
+      <c r="AF263" t="s">
+        <v>971</v>
+      </c>
+      <c r="AG263">
+        <v>0</v>
+      </c>
+      <c r="AH263">
+        <v>0.5</v>
+      </c>
+      <c r="AI263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>4261</v>
+      </c>
+      <c r="B264" t="s">
+        <v>972</v>
+      </c>
+      <c r="C264" t="s">
+        <v>973</v>
+      </c>
+      <c r="D264">
+        <v>73</v>
+      </c>
+      <c r="E264">
+        <v>100</v>
+      </c>
+      <c r="F264">
+        <v>100</v>
+      </c>
+      <c r="G264">
+        <v>100</v>
+      </c>
+      <c r="H264">
+        <v>100</v>
+      </c>
+      <c r="I264">
+        <v>100</v>
+      </c>
+      <c r="J264">
+        <v>100</v>
+      </c>
+      <c r="K264">
+        <v>100</v>
+      </c>
+      <c r="L264">
+        <v>100</v>
+      </c>
+      <c r="M264">
+        <v>10</v>
+      </c>
+      <c r="N264">
+        <v>3</v>
+      </c>
+      <c r="O264">
+        <v>100</v>
+      </c>
+      <c r="P264">
+        <v>100</v>
+      </c>
+      <c r="Q264">
+        <v>100</v>
+      </c>
+      <c r="R264">
+        <v>100</v>
+      </c>
+      <c r="S264">
+        <v>10</v>
+      </c>
+      <c r="T264">
+        <v>12</v>
+      </c>
+      <c r="U264" t="s">
+        <v>156</v>
+      </c>
+      <c r="V264" t="s">
+        <v>62</v>
+      </c>
+      <c r="W264" t="s">
+        <v>599</v>
+      </c>
+      <c r="X264">
+        <v>608</v>
+      </c>
+      <c r="Y264">
+        <v>336</v>
+      </c>
+      <c r="Z264">
+        <v>408</v>
+      </c>
+      <c r="AA264">
+        <v>400</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>974</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE264">
+        <v>325</v>
+      </c>
+      <c r="AF264" t="s">
+        <v>975</v>
+      </c>
+      <c r="AG264">
+        <v>0</v>
+      </c>
+      <c r="AH264">
+        <v>0.5</v>
+      </c>
+      <c r="AI264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>4262</v>
+      </c>
+      <c r="B265" t="s">
+        <v>976</v>
+      </c>
+      <c r="C265" t="s">
+        <v>977</v>
+      </c>
+      <c r="D265">
+        <v>61</v>
+      </c>
+      <c r="E265">
+        <v>100</v>
+      </c>
+      <c r="F265">
+        <v>100</v>
+      </c>
+      <c r="G265">
+        <v>100</v>
+      </c>
+      <c r="H265">
+        <v>100</v>
+      </c>
+      <c r="I265">
+        <v>100</v>
+      </c>
+      <c r="J265">
+        <v>100</v>
+      </c>
+      <c r="K265">
+        <v>100</v>
+      </c>
+      <c r="L265">
+        <v>100</v>
+      </c>
+      <c r="M265">
+        <v>10</v>
+      </c>
+      <c r="N265">
+        <v>1</v>
+      </c>
+      <c r="O265">
+        <v>100</v>
+      </c>
+      <c r="P265">
+        <v>100</v>
+      </c>
+      <c r="Q265">
+        <v>100</v>
+      </c>
+      <c r="R265">
+        <v>100</v>
+      </c>
+      <c r="S265">
+        <v>10</v>
+      </c>
+      <c r="T265">
+        <v>12</v>
+      </c>
+      <c r="U265" t="s">
+        <v>39</v>
+      </c>
+      <c r="V265" t="s">
+        <v>62</v>
+      </c>
+      <c r="W265" t="s">
+        <v>220</v>
+      </c>
+      <c r="X265">
+        <v>879</v>
+      </c>
+      <c r="Y265">
+        <v>576</v>
+      </c>
+      <c r="Z265">
+        <v>672</v>
+      </c>
+      <c r="AA265">
+        <v>450</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC265" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD265" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE265">
+        <v>300</v>
+      </c>
+      <c r="AF265" t="s">
+        <v>978</v>
+      </c>
+      <c r="AG265">
+        <v>0</v>
+      </c>
+      <c r="AH265">
+        <v>0.5</v>
+      </c>
+      <c r="AI265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>4263</v>
+      </c>
+      <c r="B266" t="s">
+        <v>979</v>
+      </c>
+      <c r="C266" t="s">
+        <v>980</v>
+      </c>
+      <c r="D266">
+        <v>77</v>
+      </c>
+      <c r="E266">
+        <v>100</v>
+      </c>
+      <c r="F266">
+        <v>100</v>
+      </c>
+      <c r="G266">
+        <v>100</v>
+      </c>
+      <c r="H266">
+        <v>100</v>
+      </c>
+      <c r="I266">
+        <v>100</v>
+      </c>
+      <c r="J266">
+        <v>100</v>
+      </c>
+      <c r="K266">
+        <v>100</v>
+      </c>
+      <c r="L266">
+        <v>100</v>
+      </c>
+      <c r="M266">
+        <v>10</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266">
+        <v>100</v>
+      </c>
+      <c r="P266">
+        <v>100</v>
+      </c>
+      <c r="Q266">
+        <v>100</v>
+      </c>
+      <c r="R266">
+        <v>100</v>
+      </c>
+      <c r="S266">
+        <v>10</v>
+      </c>
+      <c r="T266">
+        <v>12</v>
+      </c>
+      <c r="U266" t="s">
+        <v>156</v>
+      </c>
+      <c r="V266" t="s">
+        <v>50</v>
+      </c>
+      <c r="W266" t="s">
+        <v>373</v>
+      </c>
+      <c r="X266">
+        <v>468</v>
+      </c>
+      <c r="Y266">
+        <v>288</v>
+      </c>
+      <c r="Z266">
+        <v>468</v>
+      </c>
+      <c r="AA266">
+        <v>200</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE266">
+        <v>259</v>
+      </c>
+      <c r="AF266" t="s">
+        <v>981</v>
+      </c>
+      <c r="AG266">
+        <v>0</v>
+      </c>
+      <c r="AH266">
+        <v>0.5</v>
+      </c>
+      <c r="AI266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A267">
+        <v>4264</v>
+      </c>
+      <c r="B267" t="s">
+        <v>982</v>
+      </c>
+      <c r="C267" t="s">
+        <v>983</v>
+      </c>
+      <c r="D267">
+        <v>38</v>
+      </c>
+      <c r="E267">
+        <v>100</v>
+      </c>
+      <c r="F267">
+        <v>100</v>
+      </c>
+      <c r="G267">
+        <v>100</v>
+      </c>
+      <c r="H267">
+        <v>100</v>
+      </c>
+      <c r="I267">
+        <v>100</v>
+      </c>
+      <c r="J267">
+        <v>100</v>
+      </c>
+      <c r="K267">
+        <v>100</v>
+      </c>
+      <c r="L267">
+        <v>100</v>
+      </c>
+      <c r="M267">
+        <v>10</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267">
+        <v>100</v>
+      </c>
+      <c r="P267">
+        <v>100</v>
+      </c>
+      <c r="Q267">
+        <v>100</v>
+      </c>
+      <c r="R267">
+        <v>100</v>
+      </c>
+      <c r="S267">
+        <v>10</v>
+      </c>
+      <c r="T267">
+        <v>12</v>
+      </c>
+      <c r="U267" t="s">
+        <v>39</v>
+      </c>
+      <c r="V267" t="s">
+        <v>50</v>
+      </c>
+      <c r="W267" t="s">
+        <v>63</v>
+      </c>
+      <c r="X267">
+        <v>1248</v>
+      </c>
+      <c r="Y267">
+        <v>432</v>
+      </c>
+      <c r="Z267">
+        <v>1248</v>
+      </c>
+      <c r="AA267">
+        <v>400</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE267">
+        <v>450</v>
+      </c>
+      <c r="AF267" t="s">
+        <v>984</v>
+      </c>
+      <c r="AG267">
+        <v>0</v>
+      </c>
+      <c r="AH267">
+        <v>0.5</v>
+      </c>
+      <c r="AI267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>4265</v>
+      </c>
+      <c r="B268" t="s">
+        <v>985</v>
+      </c>
+      <c r="C268" t="s">
+        <v>987</v>
+      </c>
+      <c r="D268">
+        <v>74</v>
+      </c>
+      <c r="E268">
+        <v>100</v>
+      </c>
+      <c r="F268">
+        <v>100</v>
+      </c>
+      <c r="G268">
+        <v>100</v>
+      </c>
+      <c r="H268">
+        <v>100</v>
+      </c>
+      <c r="I268">
+        <v>100</v>
+      </c>
+      <c r="J268">
+        <v>100</v>
+      </c>
+      <c r="K268">
+        <v>100</v>
+      </c>
+      <c r="L268">
+        <v>100</v>
+      </c>
+      <c r="M268">
+        <v>10</v>
+      </c>
+      <c r="N268">
+        <v>2</v>
+      </c>
+      <c r="O268">
+        <v>100</v>
+      </c>
+      <c r="P268">
+        <v>100</v>
+      </c>
+      <c r="Q268">
+        <v>100</v>
+      </c>
+      <c r="R268">
+        <v>100</v>
+      </c>
+      <c r="S268">
+        <v>10</v>
+      </c>
+      <c r="T268">
+        <v>12</v>
+      </c>
+      <c r="U268" t="s">
+        <v>156</v>
+      </c>
+      <c r="V268" t="s">
+        <v>450</v>
+      </c>
+      <c r="W268" t="s">
+        <v>477</v>
+      </c>
+      <c r="X268">
+        <v>1816</v>
+      </c>
+      <c r="Y268">
+        <v>240</v>
+      </c>
+      <c r="Z268">
+        <v>576</v>
+      </c>
+      <c r="AA268">
+        <v>175</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE268">
+        <v>850</v>
+      </c>
+      <c r="AF268" t="s">
+        <v>986</v>
+      </c>
+      <c r="AG268">
+        <v>0</v>
+      </c>
+      <c r="AH268">
+        <v>0.5</v>
+      </c>
+      <c r="AI268">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI179">
     <sortCondition ref="D2:D179"/>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E695A9D7-A360-45A8-8D34-5B3DE2E77DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83316D-1843-41C7-87EF-CB415F337456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3763" yWindow="351" windowWidth="24094" windowHeight="17083" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="2571" yWindow="2674" windowWidth="27798" windowHeight="14726" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="1045">
   <si>
     <t>Level</t>
   </si>
@@ -3015,6 +3015,174 @@
   </si>
   <si>
     <t>Elite,Undead</t>
+  </si>
+  <si>
+    <t>SHELLFISH</t>
+  </si>
+  <si>
+    <t>ALLIGATOR</t>
+  </si>
+  <si>
+    <t>ASTER</t>
+  </si>
+  <si>
+    <t>CRAB</t>
+  </si>
+  <si>
+    <t>RAGGLER</t>
+  </si>
+  <si>
+    <t>MOBSTER</t>
+  </si>
+  <si>
+    <t>FUR_SEAL</t>
+  </si>
+  <si>
+    <t>GALAPAGO</t>
+  </si>
+  <si>
+    <t>MUTANT_DRAGON</t>
+  </si>
+  <si>
+    <t>SEE_OTTER</t>
+  </si>
+  <si>
+    <t>GRYPHON</t>
+  </si>
+  <si>
+    <t>MEDUSA</t>
+  </si>
+  <si>
+    <t>NERAID</t>
+  </si>
+  <si>
+    <t>TRI_JOINT</t>
+  </si>
+  <si>
+    <t>STALACTIC_GOLEM</t>
+  </si>
+  <si>
+    <t>MEGALODON</t>
+  </si>
+  <si>
+    <t>MEGALITH</t>
+  </si>
+  <si>
+    <t>TAO_GUNKA</t>
+  </si>
+  <si>
+    <t>Shellfish</t>
+  </si>
+  <si>
+    <t>Alligator</t>
+  </si>
+  <si>
+    <t>Aster</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Raggler</t>
+  </si>
+  <si>
+    <t>Mobster</t>
+  </si>
+  <si>
+    <t>Galapago</t>
+  </si>
+  <si>
+    <t>Gryphon</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Neraid</t>
+  </si>
+  <si>
+    <t>Megalodon</t>
+  </si>
+  <si>
+    <t>Megalith</t>
+  </si>
+  <si>
+    <t>Mutant Dragon</t>
+  </si>
+  <si>
+    <t>Fur Seal</t>
+  </si>
+  <si>
+    <t>See Otter</t>
+  </si>
+  <si>
+    <t>Tri Joint</t>
+  </si>
+  <si>
+    <t>Stalactic Golem</t>
+  </si>
+  <si>
+    <t>Tao Gunka</t>
+  </si>
+  <si>
+    <t>shellfish.spr</t>
+  </si>
+  <si>
+    <t>alligator.spr</t>
+  </si>
+  <si>
+    <t>aster.spr</t>
+  </si>
+  <si>
+    <t>crab.spr</t>
+  </si>
+  <si>
+    <t>raggler.spr</t>
+  </si>
+  <si>
+    <t>mobster.spr</t>
+  </si>
+  <si>
+    <t>fur_seal.spr</t>
+  </si>
+  <si>
+    <t>galapago.spr</t>
+  </si>
+  <si>
+    <t>mutant_dragon.spr</t>
+  </si>
+  <si>
+    <t>see_otter.spr</t>
+  </si>
+  <si>
+    <t>gryphon.spr</t>
+  </si>
+  <si>
+    <t>medusa.spr</t>
+  </si>
+  <si>
+    <t>Demon,Strong</t>
+  </si>
+  <si>
+    <t>neraid.spr</t>
+  </si>
+  <si>
+    <t>tri_joint.spr</t>
+  </si>
+  <si>
+    <t>stalactic_golem.spr</t>
+  </si>
+  <si>
+    <t>megalith.spr</t>
+  </si>
+  <si>
+    <t>megalodon.spr</t>
+  </si>
+  <si>
+    <t>tao_gunka.spr</t>
+  </si>
+  <si>
+    <t>Demon,Golem,WorldBoss</t>
   </si>
 </sst>
 </file>
@@ -3404,13 +3572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
-  <dimension ref="A1:AI268"/>
+  <dimension ref="A1:AI286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C236" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC268" sqref="AC268"/>
+      <selection pane="bottomRight" activeCell="AC287" sqref="AC287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3440,7 +3608,7 @@
     <col min="26" max="26" width="10.4609375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7.23046875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.3046875" customWidth="1"/>
+    <col min="29" max="29" width="22.4609375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.765625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17.15234375" customWidth="1"/>
     <col min="32" max="32" width="22.84375" bestFit="1" customWidth="1"/>
@@ -32122,6 +32290,1932 @@
         <v>0.5</v>
       </c>
       <c r="AI268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>4266</v>
+      </c>
+      <c r="B269" t="s">
+        <v>989</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D269">
+        <v>15</v>
+      </c>
+      <c r="E269">
+        <v>100</v>
+      </c>
+      <c r="F269">
+        <v>100</v>
+      </c>
+      <c r="G269">
+        <v>100</v>
+      </c>
+      <c r="H269">
+        <v>100</v>
+      </c>
+      <c r="I269">
+        <v>100</v>
+      </c>
+      <c r="J269">
+        <v>100</v>
+      </c>
+      <c r="K269">
+        <v>100</v>
+      </c>
+      <c r="L269">
+        <v>100</v>
+      </c>
+      <c r="M269">
+        <v>10</v>
+      </c>
+      <c r="N269">
+        <v>1</v>
+      </c>
+      <c r="O269">
+        <v>100</v>
+      </c>
+      <c r="P269">
+        <v>100</v>
+      </c>
+      <c r="Q269">
+        <v>100</v>
+      </c>
+      <c r="R269">
+        <v>100</v>
+      </c>
+      <c r="S269">
+        <v>10</v>
+      </c>
+      <c r="T269">
+        <v>12</v>
+      </c>
+      <c r="U269" t="s">
+        <v>56</v>
+      </c>
+      <c r="V269" t="s">
+        <v>392</v>
+      </c>
+      <c r="W269" t="s">
+        <v>41</v>
+      </c>
+      <c r="X269">
+        <v>864</v>
+      </c>
+      <c r="Y269">
+        <v>384</v>
+      </c>
+      <c r="Z269">
+        <v>864</v>
+      </c>
+      <c r="AA269">
+        <v>200</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE269">
+        <v>481</v>
+      </c>
+      <c r="AF269" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AG269">
+        <v>0</v>
+      </c>
+      <c r="AH269">
+        <v>0.5</v>
+      </c>
+      <c r="AI269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>4267</v>
+      </c>
+      <c r="B270" t="s">
+        <v>990</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D270">
+        <v>42</v>
+      </c>
+      <c r="E270">
+        <v>100</v>
+      </c>
+      <c r="F270">
+        <v>100</v>
+      </c>
+      <c r="G270">
+        <v>100</v>
+      </c>
+      <c r="H270">
+        <v>100</v>
+      </c>
+      <c r="I270">
+        <v>100</v>
+      </c>
+      <c r="J270">
+        <v>100</v>
+      </c>
+      <c r="K270">
+        <v>100</v>
+      </c>
+      <c r="L270">
+        <v>100</v>
+      </c>
+      <c r="M270">
+        <v>10</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270">
+        <v>100</v>
+      </c>
+      <c r="P270">
+        <v>100</v>
+      </c>
+      <c r="Q270">
+        <v>100</v>
+      </c>
+      <c r="R270">
+        <v>100</v>
+      </c>
+      <c r="S270">
+        <v>10</v>
+      </c>
+      <c r="T270">
+        <v>12</v>
+      </c>
+      <c r="U270" t="s">
+        <v>39</v>
+      </c>
+      <c r="V270" t="s">
+        <v>62</v>
+      </c>
+      <c r="W270" t="s">
+        <v>41</v>
+      </c>
+      <c r="X270">
+        <v>1100</v>
+      </c>
+      <c r="Y270">
+        <v>480</v>
+      </c>
+      <c r="Z270">
+        <v>900</v>
+      </c>
+      <c r="AA270">
+        <v>200</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD270" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE270">
+        <v>558</v>
+      </c>
+      <c r="AF270" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AG270">
+        <v>0</v>
+      </c>
+      <c r="AH270">
+        <v>0.5</v>
+      </c>
+      <c r="AI270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>4268</v>
+      </c>
+      <c r="B271" t="s">
+        <v>991</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D271">
+        <v>18</v>
+      </c>
+      <c r="E271">
+        <v>100</v>
+      </c>
+      <c r="F271">
+        <v>100</v>
+      </c>
+      <c r="G271">
+        <v>100</v>
+      </c>
+      <c r="H271">
+        <v>100</v>
+      </c>
+      <c r="I271">
+        <v>100</v>
+      </c>
+      <c r="J271">
+        <v>100</v>
+      </c>
+      <c r="K271">
+        <v>100</v>
+      </c>
+      <c r="L271">
+        <v>100</v>
+      </c>
+      <c r="M271">
+        <v>10</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271">
+        <v>100</v>
+      </c>
+      <c r="P271">
+        <v>100</v>
+      </c>
+      <c r="Q271">
+        <v>100</v>
+      </c>
+      <c r="R271">
+        <v>100</v>
+      </c>
+      <c r="S271">
+        <v>10</v>
+      </c>
+      <c r="T271">
+        <v>12</v>
+      </c>
+      <c r="U271" t="s">
+        <v>56</v>
+      </c>
+      <c r="V271" t="s">
+        <v>392</v>
+      </c>
+      <c r="W271" t="s">
+        <v>58</v>
+      </c>
+      <c r="X271">
+        <v>1264</v>
+      </c>
+      <c r="Y271">
+        <v>216</v>
+      </c>
+      <c r="Z271">
+        <v>864</v>
+      </c>
+      <c r="AA271">
+        <v>400</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE271">
+        <v>350</v>
+      </c>
+      <c r="AF271" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AG271">
+        <v>0</v>
+      </c>
+      <c r="AH271">
+        <v>0.5</v>
+      </c>
+      <c r="AI271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>4269</v>
+      </c>
+      <c r="B272" t="s">
+        <v>992</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D272">
+        <v>20</v>
+      </c>
+      <c r="E272">
+        <v>100</v>
+      </c>
+      <c r="F272">
+        <v>100</v>
+      </c>
+      <c r="G272">
+        <v>100</v>
+      </c>
+      <c r="H272">
+        <v>100</v>
+      </c>
+      <c r="I272">
+        <v>100</v>
+      </c>
+      <c r="J272">
+        <v>100</v>
+      </c>
+      <c r="K272">
+        <v>100</v>
+      </c>
+      <c r="L272">
+        <v>100</v>
+      </c>
+      <c r="M272">
+        <v>10</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272">
+        <v>100</v>
+      </c>
+      <c r="P272">
+        <v>100</v>
+      </c>
+      <c r="Q272">
+        <v>100</v>
+      </c>
+      <c r="R272">
+        <v>100</v>
+      </c>
+      <c r="S272">
+        <v>7</v>
+      </c>
+      <c r="T272">
+        <v>12</v>
+      </c>
+      <c r="U272" t="s">
+        <v>56</v>
+      </c>
+      <c r="V272" t="s">
+        <v>392</v>
+      </c>
+      <c r="W272" t="s">
+        <v>41</v>
+      </c>
+      <c r="X272">
+        <v>992</v>
+      </c>
+      <c r="Y272">
+        <v>360</v>
+      </c>
+      <c r="Z272">
+        <v>792</v>
+      </c>
+      <c r="AA272">
+        <v>200</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD272" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE272">
+        <v>296</v>
+      </c>
+      <c r="AF272" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AG272">
+        <v>0</v>
+      </c>
+      <c r="AH272">
+        <v>0.5</v>
+      </c>
+      <c r="AI272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A273">
+        <v>4270</v>
+      </c>
+      <c r="B273" t="s">
+        <v>993</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D273">
+        <v>21</v>
+      </c>
+      <c r="E273">
+        <v>100</v>
+      </c>
+      <c r="F273">
+        <v>100</v>
+      </c>
+      <c r="G273">
+        <v>100</v>
+      </c>
+      <c r="H273">
+        <v>100</v>
+      </c>
+      <c r="I273">
+        <v>100</v>
+      </c>
+      <c r="J273">
+        <v>100</v>
+      </c>
+      <c r="K273">
+        <v>100</v>
+      </c>
+      <c r="L273">
+        <v>100</v>
+      </c>
+      <c r="M273">
+        <v>10</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273">
+        <v>100</v>
+      </c>
+      <c r="P273">
+        <v>100</v>
+      </c>
+      <c r="Q273">
+        <v>100</v>
+      </c>
+      <c r="R273">
+        <v>100</v>
+      </c>
+      <c r="S273">
+        <v>10</v>
+      </c>
+      <c r="T273">
+        <v>12</v>
+      </c>
+      <c r="U273" t="s">
+        <v>56</v>
+      </c>
+      <c r="V273" t="s">
+        <v>62</v>
+      </c>
+      <c r="W273" t="s">
+        <v>81</v>
+      </c>
+      <c r="X273">
+        <v>1000</v>
+      </c>
+      <c r="Y273">
+        <v>384</v>
+      </c>
+      <c r="Z273">
+        <v>900</v>
+      </c>
+      <c r="AA273">
+        <v>200</v>
+      </c>
+      <c r="AB273" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD273" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE273">
+        <v>259</v>
+      </c>
+      <c r="AF273" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AG273">
+        <v>0</v>
+      </c>
+      <c r="AH273">
+        <v>0.5</v>
+      </c>
+      <c r="AI273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A274">
+        <v>4271</v>
+      </c>
+      <c r="B274" t="s">
+        <v>994</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D274">
+        <v>61</v>
+      </c>
+      <c r="E274">
+        <v>100</v>
+      </c>
+      <c r="F274">
+        <v>100</v>
+      </c>
+      <c r="G274">
+        <v>100</v>
+      </c>
+      <c r="H274">
+        <v>100</v>
+      </c>
+      <c r="I274">
+        <v>100</v>
+      </c>
+      <c r="J274">
+        <v>100</v>
+      </c>
+      <c r="K274">
+        <v>100</v>
+      </c>
+      <c r="L274">
+        <v>100</v>
+      </c>
+      <c r="M274">
+        <v>10</v>
+      </c>
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274">
+        <v>100</v>
+      </c>
+      <c r="P274">
+        <v>100</v>
+      </c>
+      <c r="Q274">
+        <v>100</v>
+      </c>
+      <c r="R274">
+        <v>100</v>
+      </c>
+      <c r="S274">
+        <v>10</v>
+      </c>
+      <c r="T274">
+        <v>12</v>
+      </c>
+      <c r="U274" t="s">
+        <v>39</v>
+      </c>
+      <c r="V274" t="s">
+        <v>172</v>
+      </c>
+      <c r="W274" t="s">
+        <v>51</v>
+      </c>
+      <c r="X274">
+        <v>1100</v>
+      </c>
+      <c r="Y274">
+        <v>580</v>
+      </c>
+      <c r="Z274">
+        <v>560</v>
+      </c>
+      <c r="AA274">
+        <v>250</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD274" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE274">
+        <v>700</v>
+      </c>
+      <c r="AF274" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AG274">
+        <v>0</v>
+      </c>
+      <c r="AH274">
+        <v>0.5</v>
+      </c>
+      <c r="AI274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A275">
+        <v>4272</v>
+      </c>
+      <c r="B275" t="s">
+        <v>995</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D275">
+        <v>63</v>
+      </c>
+      <c r="E275">
+        <v>100</v>
+      </c>
+      <c r="F275">
+        <v>100</v>
+      </c>
+      <c r="G275">
+        <v>100</v>
+      </c>
+      <c r="H275">
+        <v>100</v>
+      </c>
+      <c r="I275">
+        <v>100</v>
+      </c>
+      <c r="J275">
+        <v>100</v>
+      </c>
+      <c r="K275">
+        <v>100</v>
+      </c>
+      <c r="L275">
+        <v>100</v>
+      </c>
+      <c r="M275">
+        <v>10</v>
+      </c>
+      <c r="N275">
+        <v>1</v>
+      </c>
+      <c r="O275">
+        <v>100</v>
+      </c>
+      <c r="P275">
+        <v>100</v>
+      </c>
+      <c r="Q275">
+        <v>100</v>
+      </c>
+      <c r="R275">
+        <v>100</v>
+      </c>
+      <c r="S275">
+        <v>10</v>
+      </c>
+      <c r="T275">
+        <v>12</v>
+      </c>
+      <c r="U275" t="s">
+        <v>39</v>
+      </c>
+      <c r="V275" t="s">
+        <v>62</v>
+      </c>
+      <c r="W275" t="s">
+        <v>41</v>
+      </c>
+      <c r="X275">
+        <v>1612</v>
+      </c>
+      <c r="Y275">
+        <v>583</v>
+      </c>
+      <c r="Z275">
+        <v>622</v>
+      </c>
+      <c r="AA275">
+        <v>200</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>956</v>
+      </c>
+      <c r="AD275" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE275">
+        <v>600</v>
+      </c>
+      <c r="AF275" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AG275">
+        <v>0</v>
+      </c>
+      <c r="AH275">
+        <v>0.5</v>
+      </c>
+      <c r="AI275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A276">
+        <v>4273</v>
+      </c>
+      <c r="B276" t="s">
+        <v>996</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D276">
+        <v>61</v>
+      </c>
+      <c r="E276">
+        <v>100</v>
+      </c>
+      <c r="F276">
+        <v>100</v>
+      </c>
+      <c r="G276">
+        <v>100</v>
+      </c>
+      <c r="H276">
+        <v>100</v>
+      </c>
+      <c r="I276">
+        <v>100</v>
+      </c>
+      <c r="J276">
+        <v>100</v>
+      </c>
+      <c r="K276">
+        <v>100</v>
+      </c>
+      <c r="L276">
+        <v>100</v>
+      </c>
+      <c r="M276">
+        <v>10</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276">
+        <v>100</v>
+      </c>
+      <c r="P276">
+        <v>100</v>
+      </c>
+      <c r="Q276">
+        <v>100</v>
+      </c>
+      <c r="R276">
+        <v>100</v>
+      </c>
+      <c r="S276">
+        <v>10</v>
+      </c>
+      <c r="T276">
+        <v>12</v>
+      </c>
+      <c r="U276" t="s">
+        <v>56</v>
+      </c>
+      <c r="V276" t="s">
+        <v>62</v>
+      </c>
+      <c r="W276" t="s">
+        <v>58</v>
+      </c>
+      <c r="X276">
+        <v>1430</v>
+      </c>
+      <c r="Y276">
+        <v>1080</v>
+      </c>
+      <c r="Z276">
+        <v>1080</v>
+      </c>
+      <c r="AA276">
+        <v>165</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD276" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE276">
+        <v>496</v>
+      </c>
+      <c r="AF276" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AG276">
+        <v>0</v>
+      </c>
+      <c r="AH276">
+        <v>0.5</v>
+      </c>
+      <c r="AI276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A277">
+        <v>4274</v>
+      </c>
+      <c r="B277" t="s">
+        <v>997</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D277">
+        <v>65</v>
+      </c>
+      <c r="E277">
+        <v>100</v>
+      </c>
+      <c r="F277">
+        <v>100</v>
+      </c>
+      <c r="G277">
+        <v>100</v>
+      </c>
+      <c r="H277">
+        <v>100</v>
+      </c>
+      <c r="I277">
+        <v>100</v>
+      </c>
+      <c r="J277">
+        <v>100</v>
+      </c>
+      <c r="K277">
+        <v>100</v>
+      </c>
+      <c r="L277">
+        <v>100</v>
+      </c>
+      <c r="M277">
+        <v>10</v>
+      </c>
+      <c r="N277">
+        <v>4</v>
+      </c>
+      <c r="O277">
+        <v>100</v>
+      </c>
+      <c r="P277">
+        <v>100</v>
+      </c>
+      <c r="Q277">
+        <v>100</v>
+      </c>
+      <c r="R277">
+        <v>100</v>
+      </c>
+      <c r="S277">
+        <v>10</v>
+      </c>
+      <c r="T277">
+        <v>12</v>
+      </c>
+      <c r="U277" t="s">
+        <v>156</v>
+      </c>
+      <c r="V277" t="s">
+        <v>354</v>
+      </c>
+      <c r="W277" t="s">
+        <v>246</v>
+      </c>
+      <c r="X277">
+        <v>1280</v>
+      </c>
+      <c r="Y277">
+        <v>240</v>
+      </c>
+      <c r="Z277">
+        <v>1080</v>
+      </c>
+      <c r="AA277">
+        <v>250</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC277" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE277">
+        <v>925</v>
+      </c>
+      <c r="AF277" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AG277">
+        <v>0</v>
+      </c>
+      <c r="AH277">
+        <v>0.5</v>
+      </c>
+      <c r="AI277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A278">
+        <v>4275</v>
+      </c>
+      <c r="B278" t="s">
+        <v>998</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D278">
+        <v>59</v>
+      </c>
+      <c r="E278">
+        <v>100</v>
+      </c>
+      <c r="F278">
+        <v>100</v>
+      </c>
+      <c r="G278">
+        <v>100</v>
+      </c>
+      <c r="H278">
+        <v>100</v>
+      </c>
+      <c r="I278">
+        <v>100</v>
+      </c>
+      <c r="J278">
+        <v>100</v>
+      </c>
+      <c r="K278">
+        <v>100</v>
+      </c>
+      <c r="L278">
+        <v>100</v>
+      </c>
+      <c r="M278">
+        <v>10</v>
+      </c>
+      <c r="N278">
+        <v>1</v>
+      </c>
+      <c r="O278">
+        <v>100</v>
+      </c>
+      <c r="P278">
+        <v>100</v>
+      </c>
+      <c r="Q278">
+        <v>100</v>
+      </c>
+      <c r="R278">
+        <v>100</v>
+      </c>
+      <c r="S278">
+        <v>10</v>
+      </c>
+      <c r="T278">
+        <v>12</v>
+      </c>
+      <c r="U278" t="s">
+        <v>39</v>
+      </c>
+      <c r="V278" t="s">
+        <v>62</v>
+      </c>
+      <c r="W278" t="s">
+        <v>496</v>
+      </c>
+      <c r="X278">
+        <v>1132</v>
+      </c>
+      <c r="Y278">
+        <v>532</v>
+      </c>
+      <c r="Z278">
+        <v>583</v>
+      </c>
+      <c r="AA278">
+        <v>190</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>956</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE278">
+        <v>450</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AG278">
+        <v>0</v>
+      </c>
+      <c r="AH278">
+        <v>0.5</v>
+      </c>
+      <c r="AI278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A279">
+        <v>4276</v>
+      </c>
+      <c r="B279" t="s">
+        <v>999</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D279">
+        <v>72</v>
+      </c>
+      <c r="E279">
+        <v>100</v>
+      </c>
+      <c r="F279">
+        <v>100</v>
+      </c>
+      <c r="G279">
+        <v>100</v>
+      </c>
+      <c r="H279">
+        <v>100</v>
+      </c>
+      <c r="I279">
+        <v>100</v>
+      </c>
+      <c r="J279">
+        <v>100</v>
+      </c>
+      <c r="K279">
+        <v>100</v>
+      </c>
+      <c r="L279">
+        <v>100</v>
+      </c>
+      <c r="M279">
+        <v>10</v>
+      </c>
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="O279">
+        <v>100</v>
+      </c>
+      <c r="P279">
+        <v>100</v>
+      </c>
+      <c r="Q279">
+        <v>100</v>
+      </c>
+      <c r="R279">
+        <v>100</v>
+      </c>
+      <c r="S279">
+        <v>10</v>
+      </c>
+      <c r="T279">
+        <v>12</v>
+      </c>
+      <c r="U279" t="s">
+        <v>156</v>
+      </c>
+      <c r="V279" t="s">
+        <v>62</v>
+      </c>
+      <c r="W279" t="s">
+        <v>373</v>
+      </c>
+      <c r="X279">
+        <v>704</v>
+      </c>
+      <c r="Y279">
+        <v>432</v>
+      </c>
+      <c r="Z279">
+        <v>504</v>
+      </c>
+      <c r="AA279">
+        <v>100</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE279">
+        <v>296</v>
+      </c>
+      <c r="AF279" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AG279">
+        <v>0</v>
+      </c>
+      <c r="AH279">
+        <v>0.5</v>
+      </c>
+      <c r="AI279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A280">
+        <v>4277</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D280">
+        <v>79</v>
+      </c>
+      <c r="E280">
+        <v>100</v>
+      </c>
+      <c r="F280">
+        <v>100</v>
+      </c>
+      <c r="G280">
+        <v>100</v>
+      </c>
+      <c r="H280">
+        <v>100</v>
+      </c>
+      <c r="I280">
+        <v>100</v>
+      </c>
+      <c r="J280">
+        <v>100</v>
+      </c>
+      <c r="K280">
+        <v>100</v>
+      </c>
+      <c r="L280">
+        <v>100</v>
+      </c>
+      <c r="M280">
+        <v>10</v>
+      </c>
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280">
+        <v>100</v>
+      </c>
+      <c r="P280">
+        <v>100</v>
+      </c>
+      <c r="Q280">
+        <v>100</v>
+      </c>
+      <c r="R280">
+        <v>100</v>
+      </c>
+      <c r="S280">
+        <v>10</v>
+      </c>
+      <c r="T280">
+        <v>12</v>
+      </c>
+      <c r="U280" t="s">
+        <v>39</v>
+      </c>
+      <c r="V280" t="s">
+        <v>76</v>
+      </c>
+      <c r="W280" t="s">
+        <v>598</v>
+      </c>
+      <c r="X280">
+        <v>1720</v>
+      </c>
+      <c r="Y280">
+        <v>360</v>
+      </c>
+      <c r="Z280">
+        <v>1320</v>
+      </c>
+      <c r="AA280">
+        <v>180</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE280">
+        <v>1000</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AG280">
+        <v>0</v>
+      </c>
+      <c r="AH280">
+        <v>0.5</v>
+      </c>
+      <c r="AI280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A281">
+        <v>4278</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D281">
+        <v>40</v>
+      </c>
+      <c r="E281">
+        <v>100</v>
+      </c>
+      <c r="F281">
+        <v>100</v>
+      </c>
+      <c r="G281">
+        <v>100</v>
+      </c>
+      <c r="H281">
+        <v>100</v>
+      </c>
+      <c r="I281">
+        <v>100</v>
+      </c>
+      <c r="J281">
+        <v>100</v>
+      </c>
+      <c r="K281">
+        <v>100</v>
+      </c>
+      <c r="L281">
+        <v>100</v>
+      </c>
+      <c r="M281">
+        <v>10</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281">
+        <v>100</v>
+      </c>
+      <c r="P281">
+        <v>100</v>
+      </c>
+      <c r="Q281">
+        <v>100</v>
+      </c>
+      <c r="R281">
+        <v>100</v>
+      </c>
+      <c r="S281">
+        <v>10</v>
+      </c>
+      <c r="T281">
+        <v>12</v>
+      </c>
+      <c r="U281" t="s">
+        <v>56</v>
+      </c>
+      <c r="V281" t="s">
+        <v>62</v>
+      </c>
+      <c r="W281" t="s">
+        <v>58</v>
+      </c>
+      <c r="X281">
+        <v>776</v>
+      </c>
+      <c r="Y281">
+        <v>288</v>
+      </c>
+      <c r="Z281">
+        <v>576</v>
+      </c>
+      <c r="AA281">
+        <v>200</v>
+      </c>
+      <c r="AB281" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE281">
+        <v>400</v>
+      </c>
+      <c r="AF281" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AG281">
+        <v>0</v>
+      </c>
+      <c r="AH281">
+        <v>0.5</v>
+      </c>
+      <c r="AI281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A282">
+        <v>4279</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D282">
+        <v>32</v>
+      </c>
+      <c r="E282">
+        <v>100</v>
+      </c>
+      <c r="F282">
+        <v>100</v>
+      </c>
+      <c r="G282">
+        <v>100</v>
+      </c>
+      <c r="H282">
+        <v>100</v>
+      </c>
+      <c r="I282">
+        <v>100</v>
+      </c>
+      <c r="J282">
+        <v>100</v>
+      </c>
+      <c r="K282">
+        <v>100</v>
+      </c>
+      <c r="L282">
+        <v>100</v>
+      </c>
+      <c r="M282">
+        <v>10</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282">
+        <v>100</v>
+      </c>
+      <c r="P282">
+        <v>100</v>
+      </c>
+      <c r="Q282">
+        <v>100</v>
+      </c>
+      <c r="R282">
+        <v>100</v>
+      </c>
+      <c r="S282">
+        <v>10</v>
+      </c>
+      <c r="T282">
+        <v>12</v>
+      </c>
+      <c r="U282" t="s">
+        <v>56</v>
+      </c>
+      <c r="V282" t="s">
+        <v>57</v>
+      </c>
+      <c r="W282" t="s">
+        <v>58</v>
+      </c>
+      <c r="X282">
+        <v>860</v>
+      </c>
+      <c r="Y282">
+        <v>624</v>
+      </c>
+      <c r="Z282">
+        <v>660</v>
+      </c>
+      <c r="AA282">
+        <v>200</v>
+      </c>
+      <c r="AB282" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC282" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE282">
+        <v>682</v>
+      </c>
+      <c r="AF282" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AG282">
+        <v>0</v>
+      </c>
+      <c r="AH282">
+        <v>0.5</v>
+      </c>
+      <c r="AI282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A283">
+        <v>4280</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D283">
+        <v>60</v>
+      </c>
+      <c r="E283">
+        <v>100</v>
+      </c>
+      <c r="F283">
+        <v>100</v>
+      </c>
+      <c r="G283">
+        <v>100</v>
+      </c>
+      <c r="H283">
+        <v>100</v>
+      </c>
+      <c r="I283">
+        <v>100</v>
+      </c>
+      <c r="J283">
+        <v>100</v>
+      </c>
+      <c r="K283">
+        <v>100</v>
+      </c>
+      <c r="L283">
+        <v>100</v>
+      </c>
+      <c r="M283">
+        <v>10</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283">
+        <v>100</v>
+      </c>
+      <c r="P283">
+        <v>100</v>
+      </c>
+      <c r="Q283">
+        <v>100</v>
+      </c>
+      <c r="R283">
+        <v>100</v>
+      </c>
+      <c r="S283">
+        <v>10</v>
+      </c>
+      <c r="T283">
+        <v>12</v>
+      </c>
+      <c r="U283" t="s">
+        <v>156</v>
+      </c>
+      <c r="V283" t="s">
+        <v>50</v>
+      </c>
+      <c r="W283" t="s">
+        <v>541</v>
+      </c>
+      <c r="X283">
+        <v>1264</v>
+      </c>
+      <c r="Y283">
+        <v>288</v>
+      </c>
+      <c r="Z283">
+        <v>864</v>
+      </c>
+      <c r="AA283">
+        <v>200</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE283">
+        <v>900</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AG283">
+        <v>0</v>
+      </c>
+      <c r="AH283">
+        <v>0.5</v>
+      </c>
+      <c r="AI283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>4281</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D284">
+        <v>24</v>
+      </c>
+      <c r="E284">
+        <v>100</v>
+      </c>
+      <c r="F284">
+        <v>100</v>
+      </c>
+      <c r="G284">
+        <v>100</v>
+      </c>
+      <c r="H284">
+        <v>100</v>
+      </c>
+      <c r="I284">
+        <v>100</v>
+      </c>
+      <c r="J284">
+        <v>100</v>
+      </c>
+      <c r="K284">
+        <v>100</v>
+      </c>
+      <c r="L284">
+        <v>100</v>
+      </c>
+      <c r="M284">
+        <v>10</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284">
+        <v>100</v>
+      </c>
+      <c r="P284">
+        <v>100</v>
+      </c>
+      <c r="Q284">
+        <v>100</v>
+      </c>
+      <c r="R284">
+        <v>100</v>
+      </c>
+      <c r="S284">
+        <v>10</v>
+      </c>
+      <c r="T284">
+        <v>12</v>
+      </c>
+      <c r="U284" t="s">
+        <v>39</v>
+      </c>
+      <c r="V284" t="s">
+        <v>450</v>
+      </c>
+      <c r="W284" t="s">
+        <v>458</v>
+      </c>
+      <c r="X284">
+        <v>2492</v>
+      </c>
+      <c r="Y284">
+        <v>432</v>
+      </c>
+      <c r="Z284">
+        <v>792</v>
+      </c>
+      <c r="AA284">
+        <v>200</v>
+      </c>
+      <c r="AB284" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD284" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE284">
+        <v>725</v>
+      </c>
+      <c r="AF284" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AG284">
+        <v>0</v>
+      </c>
+      <c r="AH284">
+        <v>0.5</v>
+      </c>
+      <c r="AI284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>4282</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D285">
+        <v>45</v>
+      </c>
+      <c r="E285">
+        <v>100</v>
+      </c>
+      <c r="F285">
+        <v>100</v>
+      </c>
+      <c r="G285">
+        <v>100</v>
+      </c>
+      <c r="H285">
+        <v>100</v>
+      </c>
+      <c r="I285">
+        <v>100</v>
+      </c>
+      <c r="J285">
+        <v>100</v>
+      </c>
+      <c r="K285">
+        <v>100</v>
+      </c>
+      <c r="L285">
+        <v>100</v>
+      </c>
+      <c r="M285">
+        <v>10</v>
+      </c>
+      <c r="N285">
+        <v>9</v>
+      </c>
+      <c r="O285">
+        <v>100</v>
+      </c>
+      <c r="P285">
+        <v>100</v>
+      </c>
+      <c r="Q285">
+        <v>100</v>
+      </c>
+      <c r="R285">
+        <v>100</v>
+      </c>
+      <c r="S285">
+        <v>10</v>
+      </c>
+      <c r="T285">
+        <v>12</v>
+      </c>
+      <c r="U285" t="s">
+        <v>156</v>
+      </c>
+      <c r="V285" t="s">
+        <v>50</v>
+      </c>
+      <c r="W285" t="s">
+        <v>541</v>
+      </c>
+      <c r="X285">
+        <v>1332</v>
+      </c>
+      <c r="Y285">
+        <v>672</v>
+      </c>
+      <c r="Z285">
+        <v>1332</v>
+      </c>
+      <c r="AA285">
+        <v>200</v>
+      </c>
+      <c r="AB285" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC285" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD285" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE285">
+        <v>962</v>
+      </c>
+      <c r="AF285" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AG285">
+        <v>0</v>
+      </c>
+      <c r="AH285">
+        <v>0.5</v>
+      </c>
+      <c r="AI285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>4283</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D286">
+        <v>70</v>
+      </c>
+      <c r="E286">
+        <v>100</v>
+      </c>
+      <c r="F286">
+        <v>100</v>
+      </c>
+      <c r="G286">
+        <v>100</v>
+      </c>
+      <c r="H286">
+        <v>100</v>
+      </c>
+      <c r="I286">
+        <v>100</v>
+      </c>
+      <c r="J286">
+        <v>100</v>
+      </c>
+      <c r="K286">
+        <v>100</v>
+      </c>
+      <c r="L286">
+        <v>100</v>
+      </c>
+      <c r="M286">
+        <v>10</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286">
+        <v>100</v>
+      </c>
+      <c r="P286">
+        <v>100</v>
+      </c>
+      <c r="Q286">
+        <v>100</v>
+      </c>
+      <c r="R286">
+        <v>100</v>
+      </c>
+      <c r="S286">
+        <v>10</v>
+      </c>
+      <c r="T286">
+        <v>12</v>
+      </c>
+      <c r="U286" t="s">
+        <v>156</v>
+      </c>
+      <c r="V286" t="s">
+        <v>76</v>
+      </c>
+      <c r="W286" t="s">
+        <v>63</v>
+      </c>
+      <c r="X286">
+        <v>1020</v>
+      </c>
+      <c r="Y286">
+        <v>144</v>
+      </c>
+      <c r="Z286">
+        <v>288</v>
+      </c>
+      <c r="AA286">
+        <v>150</v>
+      </c>
+      <c r="AB286" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC286" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AD286" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE286">
+        <v>400</v>
+      </c>
+      <c r="AF286" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AG286">
+        <v>0</v>
+      </c>
+      <c r="AH286">
+        <v>0.5</v>
+      </c>
+      <c r="AI286">
         <v>1</v>
       </c>
     </row>
@@ -33490,11 +35584,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -34120,87 +36214,87 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>826</v>
+        <v>302</v>
       </c>
       <c r="B15">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D15">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E15">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G15">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H15">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="I15">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J15">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K15">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L15">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>826</v>
       </c>
       <c r="B16">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C16">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L16">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M16">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -34208,75 +36302,75 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>689</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="C17">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D17">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E17">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F17">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G17">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H17">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I17">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J17">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K17">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L17">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M17">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>689</v>
       </c>
       <c r="B18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C18">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D18">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F18">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G18">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H18">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I18">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J18">
         <v>130</v>
@@ -34285,56 +36379,100 @@
         <v>130</v>
       </c>
       <c r="L18">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="M18">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>140</v>
+      </c>
+      <c r="E19">
+        <v>140</v>
+      </c>
+      <c r="F19">
+        <v>140</v>
+      </c>
+      <c r="G19">
+        <v>140</v>
+      </c>
+      <c r="H19">
+        <v>140</v>
+      </c>
+      <c r="I19">
+        <v>140</v>
+      </c>
+      <c r="J19">
+        <v>130</v>
+      </c>
+      <c r="K19">
+        <v>130</v>
+      </c>
+      <c r="L19">
+        <v>1200</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>5000</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>230</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>180</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>180</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>180</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>180</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>180</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>180</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>140</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>140</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>5000</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>5000</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>5</v>
       </c>
     </row>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83316D-1843-41C7-87EF-CB415F337456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEFC7A2-F64C-4130-856F-8F90FBA85FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2571" yWindow="2674" windowWidth="27798" windowHeight="14726" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="377" yWindow="377" windowWidth="29494" windowHeight="16594" activeTab="1" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="1045">
   <si>
     <t>Level</t>
   </si>
@@ -3574,11 +3574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
   <dimension ref="A1:AI286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC287" sqref="AC287"/>
+      <selection pane="bottomRight" activeCell="AC173" sqref="AC173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5554,7 +5554,7 @@
         <v>123</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -9085,7 +9085,7 @@
         <v>70</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -12263,7 +12263,7 @@
         <v>42</v>
       </c>
       <c r="AC81" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="AD81" t="s">
         <v>43</v>
@@ -18484,7 +18484,7 @@
         <v>0</v>
       </c>
       <c r="AH139">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI139">
         <v>1</v>
@@ -22107,7 +22107,7 @@
         <v>42</v>
       </c>
       <c r="AC173" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AD173" t="s">
         <v>43</v>
@@ -22214,7 +22214,7 @@
         <v>42</v>
       </c>
       <c r="AC174" t="s">
-        <v>42</v>
+        <v>588</v>
       </c>
       <c r="AD174" t="s">
         <v>72</v>
@@ -22321,7 +22321,7 @@
         <v>42</v>
       </c>
       <c r="AC175" t="s">
-        <v>18</v>
+        <v>828</v>
       </c>
       <c r="AD175" t="s">
         <v>72</v>
@@ -22749,7 +22749,7 @@
         <v>42</v>
       </c>
       <c r="AC179" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="AD179" t="s">
         <v>72</v>
@@ -22856,7 +22856,7 @@
         <v>42</v>
       </c>
       <c r="AC180" t="s">
-        <v>42</v>
+        <v>450</v>
       </c>
       <c r="AD180" t="s">
         <v>72</v>
@@ -26295,7 +26295,7 @@
         <v>0</v>
       </c>
       <c r="AH212">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI212">
         <v>1</v>
@@ -26509,7 +26509,7 @@
         <v>0</v>
       </c>
       <c r="AH214">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI214">
         <v>1</v>
@@ -26830,7 +26830,7 @@
         <v>0</v>
       </c>
       <c r="AH217">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI217">
         <v>1</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="AH218">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI218">
         <v>1</v>
@@ -27365,7 +27365,7 @@
         <v>0</v>
       </c>
       <c r="AH222">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI222">
         <v>1</v>
@@ -30283,7 +30283,7 @@
         <v>100</v>
       </c>
       <c r="H250">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I250">
         <v>100</v>
@@ -30304,13 +30304,13 @@
         <v>1</v>
       </c>
       <c r="O250">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="P250">
         <v>100</v>
       </c>
       <c r="Q250">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R250">
         <v>100</v>
@@ -31859,7 +31859,7 @@
         <v>0</v>
       </c>
       <c r="AH264">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI264">
         <v>1</v>
@@ -31951,7 +31951,7 @@
         <v>42</v>
       </c>
       <c r="AC265" t="s">
-        <v>42</v>
+        <v>826</v>
       </c>
       <c r="AD265" t="s">
         <v>72</v>
@@ -32394,7 +32394,7 @@
         <v>0</v>
       </c>
       <c r="AH269">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AI269">
         <v>1</v>
@@ -32486,7 +32486,7 @@
         <v>42</v>
       </c>
       <c r="AC270" t="s">
-        <v>42</v>
+        <v>588</v>
       </c>
       <c r="AD270" t="s">
         <v>43</v>
@@ -33892,7 +33892,7 @@
         <v>0</v>
       </c>
       <c r="AH283">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI283">
         <v>1</v>
@@ -34091,7 +34091,7 @@
         <v>42</v>
       </c>
       <c r="AC285" t="s">
-        <v>42</v>
+        <v>592</v>
       </c>
       <c r="AD285" t="s">
         <v>131</v>
@@ -34106,7 +34106,7 @@
         <v>0</v>
       </c>
       <c r="AH285">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AI285">
         <v>1</v>
@@ -35584,11 +35584,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -35818,43 +35818,43 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>591</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L6">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -35862,43 +35862,43 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>591</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>80</v>
       </c>
       <c r="F7">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="L7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -35906,43 +35906,43 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
         <v>80</v>
       </c>
-      <c r="C8">
-        <v>105</v>
-      </c>
-      <c r="D8">
+      <c r="F8">
+        <v>112</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
         <v>80</v>
       </c>
-      <c r="E8">
-        <v>130</v>
-      </c>
-      <c r="F8">
-        <v>85</v>
-      </c>
-      <c r="G8">
-        <v>85</v>
-      </c>
-      <c r="H8">
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
         <v>120</v>
       </c>
-      <c r="I8">
-        <v>72</v>
-      </c>
-      <c r="J8">
-        <v>110</v>
-      </c>
       <c r="K8">
+        <v>120</v>
+      </c>
+      <c r="L8">
         <v>90</v>
       </c>
-      <c r="L8">
-        <v>94</v>
-      </c>
       <c r="M8">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -35950,43 +35950,43 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C9">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>130</v>
+      </c>
+      <c r="F9">
+        <v>85</v>
+      </c>
+      <c r="G9">
+        <v>85</v>
+      </c>
+      <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
+      </c>
+      <c r="J9">
         <v>110</v>
       </c>
-      <c r="D9">
-        <v>110</v>
-      </c>
-      <c r="E9">
-        <v>98</v>
-      </c>
-      <c r="F9">
+      <c r="K9">
         <v>90</v>
       </c>
-      <c r="G9">
-        <v>120</v>
-      </c>
-      <c r="H9">
-        <v>102</v>
-      </c>
-      <c r="I9">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>95</v>
-      </c>
-      <c r="K9">
-        <v>95</v>
-      </c>
       <c r="L9">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -35994,43 +35994,43 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>596</v>
+        <v>76</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E10">
+        <v>98</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
         <v>120</v>
       </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>150</v>
-      </c>
       <c r="H10">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I10">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K10">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -36038,43 +36038,43 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>596</v>
       </c>
       <c r="B11">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F11">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J11">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="L11">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -36082,43 +36082,43 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="E12">
         <v>90</v>
       </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
       <c r="F12">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H12">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I12">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="L12">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -36126,43 +36126,43 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>228</v>
       </c>
       <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>110</v>
+      </c>
+      <c r="G13">
         <v>130</v>
       </c>
-      <c r="C13">
+      <c r="H13">
         <v>110</v>
       </c>
-      <c r="D13">
+      <c r="I13">
         <v>130</v>
       </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>120</v>
-      </c>
-      <c r="G13">
-        <v>70</v>
-      </c>
-      <c r="H13">
+      <c r="J13">
         <v>90</v>
       </c>
-      <c r="I13">
-        <v>80</v>
-      </c>
-      <c r="J13">
-        <v>80</v>
-      </c>
       <c r="K13">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L13">
+        <v>105</v>
+      </c>
+      <c r="M13">
         <v>110</v>
-      </c>
-      <c r="M13">
-        <v>90</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -36170,43 +36170,43 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>856</v>
+        <v>588</v>
       </c>
       <c r="B14">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C14">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>130</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
         <v>120</v>
       </c>
-      <c r="D14">
-        <v>110</v>
-      </c>
-      <c r="E14">
+      <c r="G14">
         <v>70</v>
-      </c>
-      <c r="F14">
-        <v>130</v>
-      </c>
-      <c r="G14">
-        <v>90</v>
       </c>
       <c r="H14">
         <v>90</v>
       </c>
       <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>80</v>
+      </c>
+      <c r="L14">
+        <v>110</v>
+      </c>
+      <c r="M14">
         <v>90</v>
-      </c>
-      <c r="J14">
-        <v>130</v>
-      </c>
-      <c r="K14">
-        <v>110</v>
-      </c>
-      <c r="L14">
-        <v>135</v>
-      </c>
-      <c r="M14">
-        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -36214,25 +36214,25 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>856</v>
       </c>
       <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15">
         <v>130</v>
       </c>
-      <c r="C15">
-        <v>110</v>
-      </c>
-      <c r="D15">
-        <v>120</v>
-      </c>
-      <c r="E15">
-        <v>60</v>
-      </c>
-      <c r="F15">
-        <v>150</v>
-      </c>
       <c r="G15">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H15">
         <v>90</v>
@@ -36241,16 +36241,16 @@
         <v>90</v>
       </c>
       <c r="J15">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K15">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L15">
+        <v>135</v>
+      </c>
+      <c r="M15">
         <v>125</v>
-      </c>
-      <c r="M15">
-        <v>135</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -36258,87 +36258,87 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>826</v>
+        <v>302</v>
       </c>
       <c r="B16">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C16">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E16">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F16">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G16">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H16">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="I16">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J16">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K16">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L16">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>826</v>
       </c>
       <c r="B17">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C17">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L17">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M17">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -36346,75 +36346,75 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>689</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="C18">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L18">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M18">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>689</v>
       </c>
       <c r="B19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D19">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F19">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G19">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H19">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I19">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J19">
         <v>130</v>
@@ -36423,56 +36423,100 @@
         <v>130</v>
       </c>
       <c r="L19">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="M19">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2000</v>
+      </c>
+      <c r="C20">
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <v>140</v>
+      </c>
+      <c r="E20">
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>140</v>
+      </c>
+      <c r="G20">
+        <v>140</v>
+      </c>
+      <c r="H20">
+        <v>140</v>
+      </c>
+      <c r="I20">
+        <v>140</v>
+      </c>
+      <c r="J20">
+        <v>130</v>
+      </c>
+      <c r="K20">
+        <v>130</v>
+      </c>
+      <c r="L20">
+        <v>1200</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>5000</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>230</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>180</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>180</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>180</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>180</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>180</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>180</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>140</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>140</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>5000</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>5000</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>5</v>
       </c>
     </row>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEFC7A2-F64C-4130-856F-8F90FBA85FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7BBFBE-10D4-4DE3-A1D3-528A1A4D06D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="377" yWindow="377" windowWidth="29494" windowHeight="16594" activeTab="1" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="1046">
   <si>
     <t>Level</t>
   </si>
@@ -3183,6 +3183,9 @@
   </si>
   <si>
     <t>Demon,Golem,WorldBoss</t>
+  </si>
+  <si>
+    <t>Golem,Elite</t>
   </si>
 </sst>
 </file>
@@ -3575,10 +3578,10 @@
   <dimension ref="A1:AI286"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC173" sqref="AC173"/>
+      <selection pane="bottomRight" activeCell="AC259" sqref="AC259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -14082,7 +14085,7 @@
         <v>42</v>
       </c>
       <c r="AC98" t="s">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="AD98" t="s">
         <v>72</v>
@@ -14189,7 +14192,7 @@
         <v>42</v>
       </c>
       <c r="AC99" t="s">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="AD99" t="s">
         <v>72</v>
@@ -15615,7 +15618,7 @@
         <v>38</v>
       </c>
       <c r="E113">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F113">
         <v>100</v>
@@ -15624,19 +15627,19 @@
         <v>100</v>
       </c>
       <c r="H113">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I113">
         <v>100</v>
       </c>
       <c r="J113">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K113">
         <v>100</v>
       </c>
       <c r="L113">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M113">
         <v>10</v>
@@ -15645,7 +15648,7 @@
         <v>1</v>
       </c>
       <c r="O113">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P113">
         <v>100</v>
@@ -15654,7 +15657,7 @@
         <v>100</v>
       </c>
       <c r="R113">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S113">
         <v>10</v>
@@ -16650,7 +16653,7 @@
         <v>42</v>
       </c>
       <c r="AC122" t="s">
-        <v>42</v>
+        <v>826</v>
       </c>
       <c r="AD122" t="s">
         <v>72</v>
@@ -18041,7 +18044,7 @@
         <v>42</v>
       </c>
       <c r="AC135" t="s">
-        <v>42</v>
+        <v>588</v>
       </c>
       <c r="AD135" t="s">
         <v>72</v>
@@ -18516,7 +18519,7 @@
         <v>100</v>
       </c>
       <c r="I140">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J140">
         <v>100</v>
@@ -18525,7 +18528,7 @@
         <v>100</v>
       </c>
       <c r="L140">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M140">
         <v>10</v>
@@ -19004,7 +19007,7 @@
         <v>42</v>
       </c>
       <c r="AC144" t="s">
-        <v>42</v>
+        <v>1045</v>
       </c>
       <c r="AD144" t="s">
         <v>72</v>
@@ -19684,7 +19687,7 @@
         <v>100</v>
       </c>
       <c r="F151">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G151">
         <v>100</v>
@@ -19791,7 +19794,7 @@
         <v>100</v>
       </c>
       <c r="F152">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G152">
         <v>100</v>
@@ -20430,7 +20433,7 @@
         <v>59</v>
       </c>
       <c r="E158">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F158">
         <v>100</v>
@@ -20442,16 +20445,16 @@
         <v>100</v>
       </c>
       <c r="I158">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J158">
         <v>100</v>
       </c>
       <c r="K158">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L158">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M158">
         <v>10</v>
@@ -20460,16 +20463,16 @@
         <v>1</v>
       </c>
       <c r="O158">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P158">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q158">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R158">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S158">
         <v>10</v>
@@ -20537,16 +20540,16 @@
         <v>44</v>
       </c>
       <c r="E159">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F159">
         <v>100</v>
       </c>
       <c r="G159">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H159">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I159">
         <v>100</v>
@@ -20555,7 +20558,7 @@
         <v>100</v>
       </c>
       <c r="K159">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L159">
         <v>100</v>
@@ -20567,16 +20570,16 @@
         <v>1</v>
       </c>
       <c r="O159">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P159">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q159">
         <v>100</v>
       </c>
       <c r="R159">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S159">
         <v>10</v>
@@ -20757,7 +20760,7 @@
         <v>100</v>
       </c>
       <c r="G161">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H161">
         <v>100</v>
@@ -20790,7 +20793,7 @@
         <v>100</v>
       </c>
       <c r="R161">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="S161">
         <v>10</v>
@@ -21286,7 +21289,7 @@
         <v>60</v>
       </c>
       <c r="E166">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F166">
         <v>100</v>
@@ -21307,7 +21310,7 @@
         <v>100</v>
       </c>
       <c r="L166">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M166">
         <v>10</v>
@@ -21316,16 +21319,16 @@
         <v>1</v>
       </c>
       <c r="O166">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P166">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q166">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R166">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="S166">
         <v>10</v>
@@ -28741,7 +28744,7 @@
         <v>42</v>
       </c>
       <c r="AC235" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AD235" t="s">
         <v>43</v>
@@ -29597,7 +29600,7 @@
         <v>42</v>
       </c>
       <c r="AC243" t="s">
-        <v>42</v>
+        <v>588</v>
       </c>
       <c r="AD243" t="s">
         <v>94</v>
@@ -29811,7 +29814,7 @@
         <v>42</v>
       </c>
       <c r="AC245" t="s">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="AD245" t="s">
         <v>72</v>
@@ -29918,7 +29921,7 @@
         <v>42</v>
       </c>
       <c r="AC246" t="s">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="AD246" t="s">
         <v>72</v>
@@ -30453,7 +30456,7 @@
         <v>42</v>
       </c>
       <c r="AC251" t="s">
-        <v>42</v>
+        <v>588</v>
       </c>
       <c r="AD251" t="s">
         <v>94</v>
@@ -30560,7 +30563,7 @@
         <v>42</v>
       </c>
       <c r="AC252" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="AD252" t="s">
         <v>72</v>
@@ -30667,7 +30670,7 @@
         <v>42</v>
       </c>
       <c r="AC253" t="s">
-        <v>42</v>
+        <v>588</v>
       </c>
       <c r="AD253" t="s">
         <v>72</v>
@@ -35584,11 +35587,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -36214,43 +36217,43 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>856</v>
+        <v>354</v>
       </c>
       <c r="B15">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C15">
         <v>120</v>
       </c>
       <c r="D15">
+        <v>120</v>
+      </c>
+      <c r="E15">
         <v>110</v>
       </c>
-      <c r="E15">
-        <v>70</v>
-      </c>
       <c r="F15">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G15">
         <v>90</v>
       </c>
       <c r="H15">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I15">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J15">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K15">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L15">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -36258,25 +36261,25 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>856</v>
       </c>
       <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>110</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16">
         <v>130</v>
       </c>
-      <c r="C16">
-        <v>110</v>
-      </c>
-      <c r="D16">
-        <v>120</v>
-      </c>
-      <c r="E16">
-        <v>60</v>
-      </c>
-      <c r="F16">
-        <v>150</v>
-      </c>
       <c r="G16">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16">
         <v>90</v>
@@ -36285,16 +36288,16 @@
         <v>90</v>
       </c>
       <c r="J16">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K16">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L16">
+        <v>135</v>
+      </c>
+      <c r="M16">
         <v>125</v>
-      </c>
-      <c r="M16">
-        <v>135</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -36302,87 +36305,87 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>826</v>
+        <v>302</v>
       </c>
       <c r="B17">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C17">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E17">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G17">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H17">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="I17">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J17">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K17">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L17">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="M17">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>826</v>
       </c>
       <c r="B18">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C18">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E18">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F18">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G18">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H18">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I18">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J18">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K18">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L18">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M18">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -36390,75 +36393,75 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>689</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="C19">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L19">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M19">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>689</v>
       </c>
       <c r="B20">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D20">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E20">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G20">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H20">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I20">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J20">
         <v>130</v>
@@ -36467,56 +36470,100 @@
         <v>130</v>
       </c>
       <c r="L20">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="M20">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>140</v>
+      </c>
+      <c r="E21">
+        <v>140</v>
+      </c>
+      <c r="F21">
+        <v>140</v>
+      </c>
+      <c r="G21">
+        <v>140</v>
+      </c>
+      <c r="H21">
+        <v>140</v>
+      </c>
+      <c r="I21">
+        <v>140</v>
+      </c>
+      <c r="J21">
+        <v>130</v>
+      </c>
+      <c r="K21">
+        <v>130</v>
+      </c>
+      <c r="L21">
+        <v>1200</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>5000</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>230</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>180</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>180</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>180</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>180</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>180</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>180</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>140</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>140</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>5000</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>5000</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>5</v>
       </c>
     </row>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7BBFBE-10D4-4DE3-A1D3-528A1A4D06D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6239883E-C4C3-46ED-8BF9-BAB92769CE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="377" windowWidth="29494" windowHeight="16594" activeTab="1" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="3651" yWindow="677" windowWidth="22252" windowHeight="16740" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="WeaponClass" sheetId="13" r:id="rId9"/>
     <sheet name="JobWeaponClass" sheetId="14" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="BaseMonStatTable">StatCharts!$A:$H</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1046">
   <si>
     <t>Level</t>
   </si>
@@ -3239,7 +3240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3247,11 +3248,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3261,6 +3271,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3577,11 +3589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
   <dimension ref="A1:AI286"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C228" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC259" sqref="AC259"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -34367,7 +34379,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -35578,6 +35590,743 @@
       <c r="R22">
         <f t="shared" si="12"/>
         <v>1964.5109400004289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA1E1B-7E76-4F6C-9799-F663030F0908}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J1:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A2-1,0)</f>
+        <v>0.10717734625362932</v>
+      </c>
+      <c r="C2" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A2-1,0)</f>
+        <v>35.15004828475508</v>
+      </c>
+      <c r="D2" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A2-1,0)</f>
+        <v>8.5717734625362922</v>
+      </c>
+      <c r="E2" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A2-1,0)</f>
+        <v>0.79200000000000159</v>
+      </c>
+      <c r="F2" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A2-1,0)</f>
+        <v>7.5757575757575601</v>
+      </c>
+      <c r="G2">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A2-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A2-1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A3-1,0)</f>
+        <v>0.1414213562373095</v>
+      </c>
+      <c r="C3" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A3-1,0)</f>
+        <v>91.989949493661172</v>
+      </c>
+      <c r="D3" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A3-1,0)</f>
+        <v>18.914213562373096</v>
+      </c>
+      <c r="E3" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A3-1,0)</f>
+        <v>2.3280000000000012</v>
+      </c>
+      <c r="F3" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A3-1,0)</f>
+        <v>12.886597938144323</v>
+      </c>
+      <c r="G3">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A3-1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A3-1,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A4-1,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A4-1,0)</f>
+        <v>163.79999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A4-1,0)</f>
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A4-1,0)</f>
+        <v>4.1579999999999995</v>
+      </c>
+      <c r="F4" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A4-1,0)</f>
+        <v>49.302549302549309</v>
+      </c>
+      <c r="G4">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A4-1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A4-1,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A5-1,0)</f>
+        <v>0.28284271247461901</v>
+      </c>
+      <c r="C5" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A5-1,0)</f>
+        <v>236.939696961967</v>
+      </c>
+      <c r="D5" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A5-1,0)</f>
+        <v>45.328427124746192</v>
+      </c>
+      <c r="E5" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A5-1,0)</f>
+        <v>5.8880000000000017</v>
+      </c>
+      <c r="F5" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A5-1,0)</f>
+        <v>115.48913043478258</v>
+      </c>
+      <c r="G5">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A5-1,0)</f>
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A5-1,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A6-1,0)</f>
+        <v>1.4</v>
+      </c>
+      <c r="C6" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A6-1,0)</f>
+        <v>340.2</v>
+      </c>
+      <c r="D6" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A6-1,0)</f>
+        <v>69</v>
+      </c>
+      <c r="E6" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A6-1,0)</f>
+        <v>7.517999999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A6-1,0)</f>
+        <v>213.48762968874706</v>
+      </c>
+      <c r="G6">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A6-1,0)</f>
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A6-1,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A7-1,0)</f>
+        <v>1.565685424949238</v>
+      </c>
+      <c r="C7" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A7-1,0)</f>
+        <v>425.79898987322332</v>
+      </c>
+      <c r="D7" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A7-1,0)</f>
+        <v>83.156854249492383</v>
+      </c>
+      <c r="E7" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A7-1,0)</f>
+        <v>9.048</v>
+      </c>
+      <c r="F7" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A7-1,0)</f>
+        <v>345.93280282935456</v>
+      </c>
+      <c r="G7">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A7-1,0)</f>
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A7-1,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A8-1,0)</f>
+        <v>4.8</v>
+      </c>
+      <c r="C8" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A8-1,0)</f>
+        <v>642.59999999999991</v>
+      </c>
+      <c r="D8" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A8-1,0)</f>
+        <v>128</v>
+      </c>
+      <c r="E8" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A8-1,0)</f>
+        <v>10.478000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A8-1,0)</f>
+        <v>515.84271807596861</v>
+      </c>
+      <c r="G8">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A8-1,0)</f>
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A8-1,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A9-1,0)</f>
+        <v>5.1313708498984756</v>
+      </c>
+      <c r="C9" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A9-1,0)</f>
+        <v>762.43717164502527</v>
+      </c>
+      <c r="D9" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A9-1,0)</f>
+        <v>143.81370849898474</v>
+      </c>
+      <c r="E9" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A9-1,0)</f>
+        <v>11.808</v>
+      </c>
+      <c r="F9" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A9-1,0)</f>
+        <v>726.6260162601626</v>
+      </c>
+      <c r="G9">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A9-1,0)</f>
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A9-1,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A10-1,0)</f>
+        <v>8.6</v>
+      </c>
+      <c r="C10" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A10-1,0)</f>
+        <v>1062.5999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A10-1,0)</f>
+        <v>191</v>
+      </c>
+      <c r="E10" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A10-1,0)</f>
+        <v>13.037999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A10-1,0)</f>
+        <v>982.12916091425075</v>
+      </c>
+      <c r="G10">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A10-1,0)</f>
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A10-1,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A11-1,0)</f>
+        <v>9.2627416997969512</v>
+      </c>
+      <c r="C11" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A11-1,0)</f>
+        <v>1234.5527270872078</v>
+      </c>
+      <c r="D11" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A11-1,0)</f>
+        <v>210.1274169979695</v>
+      </c>
+      <c r="E11" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A11-1,0)</f>
+        <v>14.167999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A11-1,0)</f>
+        <v>1286.7024280067758</v>
+      </c>
+      <c r="G11">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A11-1,0)</f>
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A11-1,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A12-1,0)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A12-1,0)</f>
+        <v>1435</v>
+      </c>
+      <c r="D12" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A12-1,0)</f>
+        <v>232</v>
+      </c>
+      <c r="E12" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A12-1,0)</f>
+        <v>15.198</v>
+      </c>
+      <c r="F12" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A12-1,0)</f>
+        <v>1645.2822739834189</v>
+      </c>
+      <c r="G12">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A12-1,0)</f>
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A12-1,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A13-1,0)</f>
+        <v>11.525483399593904</v>
+      </c>
+      <c r="C13" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A13-1,0)</f>
+        <v>1678.4622217687304</v>
+      </c>
+      <c r="D13" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A13-1,0)</f>
+        <v>257.75483399593907</v>
+      </c>
+      <c r="E13" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A13-1,0)</f>
+        <v>16.128</v>
+      </c>
+      <c r="F13" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A13-1,0)</f>
+        <v>2063.4920634920636</v>
+      </c>
+      <c r="G13">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A13-1,0)</f>
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A13-1,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A14-1,0)</f>
+        <v>27.4</v>
+      </c>
+      <c r="C14" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A14-1,0)</f>
+        <v>3162.6</v>
+      </c>
+      <c r="D14" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A14-1,0)</f>
+        <v>429</v>
+      </c>
+      <c r="E14" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A14-1,0)</f>
+        <v>16.957999999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A14-1,0)</f>
+        <v>2547.7650666352165</v>
+      </c>
+      <c r="G14">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A14-1,0)</f>
+        <v>49</v>
+      </c>
+      <c r="H14">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A14-1,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A15-1,0)</f>
+        <v>30.050966799187805</v>
+      </c>
+      <c r="C15" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A15-1,0)</f>
+        <v>3665.6379787260898</v>
+      </c>
+      <c r="D15" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A15-1,0)</f>
+        <v>468.00966799187802</v>
+      </c>
+      <c r="E15" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A15-1,0)</f>
+        <v>17.688000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A15-1,0)</f>
+        <v>3105.4952510176386</v>
+      </c>
+      <c r="G15">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A15-1,0)</f>
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A15-1,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A16-1,0)</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C16" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A16-1,0)</f>
+        <v>4313.3999999999996</v>
+      </c>
+      <c r="D16" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A16-1,0)</f>
+        <v>518</v>
+      </c>
+      <c r="E16" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A16-1,0)</f>
+        <v>18.317999999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A16-1,0)</f>
+        <v>3745.2232776503988</v>
+      </c>
+      <c r="G16">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A16-1,0)</f>
+        <v>57</v>
+      </c>
+      <c r="H16">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A16-1,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A17-1,0)</f>
+        <v>39.101933598375609</v>
+      </c>
+      <c r="C17" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A17-1,0)</f>
+        <v>5176.7030278294387</v>
+      </c>
+      <c r="D17" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A17-1,0)</f>
+        <v>583.51933598375604</v>
+      </c>
+      <c r="E17" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A17-1,0)</f>
+        <v>18.847999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A17-1,0)</f>
+        <v>4476.8675721561976</v>
+      </c>
+      <c r="G17">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A17-1,0)</f>
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A17-1,0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A18-1,0)</f>
+        <v>53.6</v>
+      </c>
+      <c r="C18" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A18-1,0)</f>
+        <v>7144.2</v>
+      </c>
+      <c r="D18" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A18-1,0)</f>
+        <v>741</v>
+      </c>
+      <c r="E18" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A18-1,0)</f>
+        <v>19.277999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A18-1,0)</f>
+        <v>5312.0136943666357</v>
+      </c>
+      <c r="G18">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A18-1,0)</f>
+        <v>65</v>
+      </c>
+      <c r="H18">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A18-1,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A19-1,0)</f>
+        <v>64.203867196751233</v>
+      </c>
+      <c r="C19" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A19-1,0)</f>
+        <v>8851.2601964133974</v>
+      </c>
+      <c r="D19" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A19-1,0)</f>
+        <v>859.5386719675123</v>
+      </c>
+      <c r="E19" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A19-1,0)</f>
+        <v>19.608000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A19-1,0)</f>
+        <v>9396.2668298653607</v>
+      </c>
+      <c r="G19">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A19-1,0)</f>
+        <v>69</v>
+      </c>
+      <c r="H19">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A19-1,0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A20-1,0)</f>
+        <v>94.2</v>
+      </c>
+      <c r="C20" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A20-1,0)</f>
+        <v>13150.199999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A20-1,0)</f>
+        <v>1172</v>
+      </c>
+      <c r="E20" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A20-1,0)</f>
+        <v>19.838000000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A20-1,0)</f>
+        <v>14699.314447020868</v>
+      </c>
+      <c r="G20">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A20-1,0)</f>
+        <v>73</v>
+      </c>
+      <c r="H20">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A20-1,0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A21-1,0)</f>
+        <v>115.40773439350247</v>
+      </c>
+      <c r="C21" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A21-1,0)</f>
+        <v>16700.228674335827</v>
+      </c>
+      <c r="D21" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A21-1,0)</f>
+        <v>1396.5773439350246</v>
+      </c>
+      <c r="E21" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A21-1,0)</f>
+        <v>19.968</v>
+      </c>
+      <c r="F21" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A21-1,0)</f>
+        <v>21468.95032051282</v>
+      </c>
+      <c r="G21">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A21-1,0)</f>
+        <v>77</v>
+      </c>
+      <c r="H21">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A21-1,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1">
+        <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A22-1,0)</f>
+        <v>138.54257833336908</v>
+      </c>
+      <c r="C22" s="1">
+        <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A22-1,0)</f>
+        <v>20609.001357004952</v>
+      </c>
+      <c r="D22" s="1">
+        <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A22-1,0)</f>
+        <v>1637.9257833336908</v>
+      </c>
+      <c r="E22" s="1">
+        <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A22-1,0)</f>
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A22-1,0)</f>
+        <v>28138.9</v>
+      </c>
+      <c r="G22">
+        <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A22-1,0)</f>
+        <v>80</v>
+      </c>
+      <c r="H22">
+        <f ca="1">OFFSET(StatCharts!H$2,Sheet2!$A22-1,0)</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -35589,9 +36338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -36578,7 +37327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -38275,7 +39024,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -38744,10 +39493,10 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -42062,7 +42811,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -42197,8 +42946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CCB73E-E5CD-449F-AA09-CCF4B08E4898}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6239883E-C4C3-46ED-8BF9-BAB92769CE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F9E13-866A-4351-B5FA-D19957F018FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3651" yWindow="677" windowWidth="22252" windowHeight="16740" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="27917" windowHeight="13200" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="1063">
   <si>
     <t>Level</t>
   </si>
@@ -3187,6 +3187,57 @@
   </si>
   <si>
     <t>Golem,Elite</t>
+  </si>
+  <si>
+    <t>TARGET_DUMMY</t>
+  </si>
+  <si>
+    <t>Target Dummy</t>
+  </si>
+  <si>
+    <t>barricade.spr</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Hp#100000</t>
+  </si>
+  <si>
+    <t>constant.spr</t>
+  </si>
+  <si>
+    <t>Test Drone</t>
+  </si>
+  <si>
+    <t>TEST_DRONE</t>
+  </si>
+  <si>
+    <t>AiHyperPacifist</t>
+  </si>
+  <si>
+    <t>RANDGRIS</t>
+  </si>
+  <si>
+    <t>randgris.spr</t>
+  </si>
+  <si>
+    <t>Valkyrie Randgris</t>
+  </si>
+  <si>
+    <t>Angel,WorldBoss</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
+    <t>VALKYRIE</t>
+  </si>
+  <si>
+    <t>g_randgris.spr</t>
+  </si>
+  <si>
+    <t>Angel,Elite2</t>
   </si>
 </sst>
 </file>
@@ -3268,11 +3319,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3291,9 +3342,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3331,7 +3382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3437,7 +3488,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3579,7 +3630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3587,13 +3638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
-  <dimension ref="A1:AI286"/>
+  <dimension ref="A1:AJ290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3630,9 +3681,10 @@
     <col min="33" max="33" width="11.23046875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.84375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -3738,8 +3790,11 @@
       <c r="AI1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AJ1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>4000</v>
       </c>
@@ -3846,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -3953,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4001</v>
       </c>
@@ -4060,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4002</v>
       </c>
@@ -4167,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4003</v>
       </c>
@@ -4247,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="AB6" t="s">
         <v>42</v>
@@ -4274,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4004</v>
       </c>
@@ -4381,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>4005</v>
       </c>
@@ -4488,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4006</v>
       </c>
@@ -4595,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>4007</v>
       </c>
@@ -4702,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>4008</v>
       </c>
@@ -4782,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="AB11" t="s">
         <v>42</v>
@@ -4809,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4009</v>
       </c>
@@ -4916,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>4010</v>
       </c>
@@ -5023,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4011</v>
       </c>
@@ -5130,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4012</v>
       </c>
@@ -5237,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4013</v>
       </c>
@@ -5367,16 +5422,16 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -5388,16 +5443,16 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q17">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R17">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -5801,7 +5856,7 @@
         <v>100</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K21">
         <v>100</v>
@@ -5852,7 +5907,7 @@
         <v>768</v>
       </c>
       <c r="AA21">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="AB21" t="s">
         <v>42</v>
@@ -6006,16 +6061,16 @@
         <v>100</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K23">
         <v>100</v>
@@ -6220,16 +6275,16 @@
         <v>100</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I25">
         <v>100</v>
       </c>
       <c r="J25">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K25">
         <v>100</v>
@@ -6601,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="AA28">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="AB28" t="s">
         <v>42</v>
@@ -6972,7 +7027,7 @@
         <v>100</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I32">
         <v>100</v>
@@ -6984,7 +7039,7 @@
         <v>100</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M32">
         <v>10</v>
@@ -6993,16 +7048,16 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="P32">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R32">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="S32">
         <v>10</v>
@@ -10346,7 +10401,7 @@
         <v>1152</v>
       </c>
       <c r="AA63">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="AB63" t="s">
         <v>42</v>
@@ -14305,7 +14360,7 @@
         <v>432</v>
       </c>
       <c r="AA100">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="AB100" t="s">
         <v>42</v>
@@ -17351,16 +17406,16 @@
         <v>100</v>
       </c>
       <c r="H129">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I129">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J129">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K129">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L129">
         <v>100</v>
@@ -17372,16 +17427,16 @@
         <v>1</v>
       </c>
       <c r="O129">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P129">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q129">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R129">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S129">
         <v>10</v>
@@ -18692,7 +18747,7 @@
         <v>2016</v>
       </c>
       <c r="AA141">
-        <v>170</v>
+        <v>-1</v>
       </c>
       <c r="AB141" t="s">
         <v>71</v>
@@ -19227,7 +19282,7 @@
         <v>432</v>
       </c>
       <c r="AA146">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="AB146" t="s">
         <v>42</v>
@@ -32736,7 +32791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>4270</v>
       </c>
@@ -32843,7 +32898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>4271</v>
       </c>
@@ -32950,7 +33005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>4272</v>
       </c>
@@ -33057,7 +33112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>4273</v>
       </c>
@@ -33164,7 +33219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>4274</v>
       </c>
@@ -33271,7 +33326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>4275</v>
       </c>
@@ -33378,7 +33433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>4276</v>
       </c>
@@ -33485,7 +33540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>4277</v>
       </c>
@@ -33592,7 +33647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>4278</v>
       </c>
@@ -33699,7 +33754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>4279</v>
       </c>
@@ -33806,7 +33861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>4280</v>
       </c>
@@ -33913,7 +33968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>4281</v>
       </c>
@@ -34020,7 +34075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>4282</v>
       </c>
@@ -34100,7 +34155,7 @@
         <v>1332</v>
       </c>
       <c r="AA285">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="AB285" t="s">
         <v>42</v>
@@ -34127,7 +34182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>4283</v>
       </c>
@@ -34231,6 +34286,440 @@
         <v>0.5</v>
       </c>
       <c r="AI286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>4284</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D287">
+        <v>50</v>
+      </c>
+      <c r="E287">
+        <v>100</v>
+      </c>
+      <c r="F287">
+        <v>100</v>
+      </c>
+      <c r="G287">
+        <v>100</v>
+      </c>
+      <c r="H287">
+        <v>100</v>
+      </c>
+      <c r="I287">
+        <v>100</v>
+      </c>
+      <c r="J287">
+        <v>100</v>
+      </c>
+      <c r="K287">
+        <v>100</v>
+      </c>
+      <c r="L287">
+        <v>100</v>
+      </c>
+      <c r="M287">
+        <v>10</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+      <c r="O287">
+        <v>100</v>
+      </c>
+      <c r="P287">
+        <v>100</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>0</v>
+      </c>
+      <c r="S287">
+        <v>10</v>
+      </c>
+      <c r="T287">
+        <v>12</v>
+      </c>
+      <c r="U287" t="s">
+        <v>56</v>
+      </c>
+      <c r="V287" t="s">
+        <v>50</v>
+      </c>
+      <c r="W287" t="s">
+        <v>541</v>
+      </c>
+      <c r="X287">
+        <v>1001</v>
+      </c>
+      <c r="Y287">
+        <v>1</v>
+      </c>
+      <c r="Z287">
+        <v>1000</v>
+      </c>
+      <c r="AA287">
+        <v>-1</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>587</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE287">
+        <v>1</v>
+      </c>
+      <c r="AF287" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AG287">
+        <v>0</v>
+      </c>
+      <c r="AH287">
+        <v>-1</v>
+      </c>
+      <c r="AI287">
+        <v>1</v>
+      </c>
+      <c r="AJ287" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="288" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>4285</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D288">
+        <v>50</v>
+      </c>
+      <c r="E288">
+        <v>100</v>
+      </c>
+      <c r="F288">
+        <v>100</v>
+      </c>
+      <c r="G288">
+        <v>100</v>
+      </c>
+      <c r="H288">
+        <v>100</v>
+      </c>
+      <c r="I288">
+        <v>100</v>
+      </c>
+      <c r="J288">
+        <v>100</v>
+      </c>
+      <c r="K288">
+        <v>100</v>
+      </c>
+      <c r="L288">
+        <v>100</v>
+      </c>
+      <c r="M288">
+        <v>10</v>
+      </c>
+      <c r="N288">
+        <v>1</v>
+      </c>
+      <c r="O288">
+        <v>100</v>
+      </c>
+      <c r="P288">
+        <v>100</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>0</v>
+      </c>
+      <c r="S288">
+        <v>10</v>
+      </c>
+      <c r="T288">
+        <v>12</v>
+      </c>
+      <c r="U288" t="s">
+        <v>56</v>
+      </c>
+      <c r="V288" t="s">
+        <v>50</v>
+      </c>
+      <c r="W288" t="s">
+        <v>575</v>
+      </c>
+      <c r="X288">
+        <v>1000</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>1000</v>
+      </c>
+      <c r="AA288">
+        <v>150</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD288" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AE288">
+        <v>1</v>
+      </c>
+      <c r="AF288" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AG288">
+        <v>0</v>
+      </c>
+      <c r="AH288">
+        <v>0.5</v>
+      </c>
+      <c r="AI288">
+        <v>1</v>
+      </c>
+      <c r="AJ288" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="289" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>4286</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D289">
+        <v>99</v>
+      </c>
+      <c r="E289">
+        <v>100</v>
+      </c>
+      <c r="F289">
+        <v>100</v>
+      </c>
+      <c r="G289">
+        <v>100</v>
+      </c>
+      <c r="H289">
+        <v>100</v>
+      </c>
+      <c r="I289">
+        <v>100</v>
+      </c>
+      <c r="J289">
+        <v>100</v>
+      </c>
+      <c r="K289">
+        <v>100</v>
+      </c>
+      <c r="L289">
+        <v>100</v>
+      </c>
+      <c r="M289">
+        <v>10</v>
+      </c>
+      <c r="N289">
+        <v>3</v>
+      </c>
+      <c r="O289">
+        <v>100</v>
+      </c>
+      <c r="P289">
+        <v>100</v>
+      </c>
+      <c r="Q289">
+        <v>100</v>
+      </c>
+      <c r="R289">
+        <v>100</v>
+      </c>
+      <c r="S289">
+        <v>10</v>
+      </c>
+      <c r="T289">
+        <v>12</v>
+      </c>
+      <c r="U289" t="s">
+        <v>156</v>
+      </c>
+      <c r="V289" t="s">
+        <v>228</v>
+      </c>
+      <c r="W289" t="s">
+        <v>229</v>
+      </c>
+      <c r="X289">
+        <v>576</v>
+      </c>
+      <c r="Y289">
+        <v>480</v>
+      </c>
+      <c r="Z289">
+        <v>576</v>
+      </c>
+      <c r="AA289">
+        <v>100</v>
+      </c>
+      <c r="AB289" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE289">
+        <v>525</v>
+      </c>
+      <c r="AF289" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AG289">
+        <v>0</v>
+      </c>
+      <c r="AH289">
+        <v>0.5</v>
+      </c>
+      <c r="AI289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>4287</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D290">
+        <v>99</v>
+      </c>
+      <c r="E290">
+        <v>100</v>
+      </c>
+      <c r="F290">
+        <v>100</v>
+      </c>
+      <c r="G290">
+        <v>100</v>
+      </c>
+      <c r="H290">
+        <v>100</v>
+      </c>
+      <c r="I290">
+        <v>100</v>
+      </c>
+      <c r="J290">
+        <v>100</v>
+      </c>
+      <c r="K290">
+        <v>100</v>
+      </c>
+      <c r="L290">
+        <v>90</v>
+      </c>
+      <c r="M290">
+        <v>10</v>
+      </c>
+      <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290">
+        <v>100</v>
+      </c>
+      <c r="P290">
+        <v>100</v>
+      </c>
+      <c r="Q290">
+        <v>100</v>
+      </c>
+      <c r="R290">
+        <v>100</v>
+      </c>
+      <c r="S290">
+        <v>10</v>
+      </c>
+      <c r="T290">
+        <v>12</v>
+      </c>
+      <c r="U290" t="s">
+        <v>156</v>
+      </c>
+      <c r="V290" t="s">
+        <v>228</v>
+      </c>
+      <c r="W290" t="s">
+        <v>229</v>
+      </c>
+      <c r="X290">
+        <v>576</v>
+      </c>
+      <c r="Y290">
+        <v>480</v>
+      </c>
+      <c r="Z290">
+        <v>576</v>
+      </c>
+      <c r="AA290">
+        <v>100</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE290">
+        <v>525</v>
+      </c>
+      <c r="AF290" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AG290">
+        <v>0</v>
+      </c>
+      <c r="AH290">
+        <v>0.5</v>
+      </c>
+      <c r="AI290">
         <v>1</v>
       </c>
     </row>
@@ -34247,7 +34736,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -35611,28 +36100,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36340,7 +36829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="E8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -39024,7 +39513,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -39493,10 +39982,10 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -45445,7 +45934,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:S10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -45454,21 +45943,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -46015,7 +46504,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:B14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1928F0A-0C17-4BA0-B91C-C0FBE7E7713A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E911FF2-4999-4EA3-9D4A-163CE4375039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1191" yWindow="2074" windowWidth="27918" windowHeight="13200" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1098">
   <si>
     <t>Id</t>
   </si>
@@ -3080,6 +3080,78 @@
     <t>shinobi.spr</t>
   </si>
   <si>
+    <t>KAPHA</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>kapha.spr</t>
+  </si>
+  <si>
+    <t>KARAKASA</t>
+  </si>
+  <si>
+    <t>Karakasa</t>
+  </si>
+  <si>
+    <t>karakasa.spr</t>
+  </si>
+  <si>
+    <t>TENGU</t>
+  </si>
+  <si>
+    <t>Sake Tengu</t>
+  </si>
+  <si>
+    <t>tengu.spr</t>
+  </si>
+  <si>
+    <t>ANTIQUE_FIRELOCK</t>
+  </si>
+  <si>
+    <t>Firelock Soldier</t>
+  </si>
+  <si>
+    <t>antique_firelock.spr</t>
+  </si>
+  <si>
+    <t>INCANTATION_SAMURAI</t>
+  </si>
+  <si>
+    <t>Samurai Specter</t>
+  </si>
+  <si>
+    <t>incantation_samurai.spr</t>
+  </si>
+  <si>
+    <t>MIYABI_NINGYO</t>
+  </si>
+  <si>
+    <t>Miyabi Doll</t>
+  </si>
+  <si>
+    <t>miyabi_ningyo.spr</t>
+  </si>
+  <si>
+    <t>THE_PAPER</t>
+  </si>
+  <si>
+    <t>Ittan-Momen</t>
+  </si>
+  <si>
+    <t>the_paper.spr</t>
+  </si>
+  <si>
+    <t>POISON_TOAD</t>
+  </si>
+  <si>
+    <t>Poison Toad</t>
+  </si>
+  <si>
+    <t>poison_toad.spr</t>
+  </si>
+  <si>
     <t>Mdef</t>
   </si>
   <si>
@@ -3269,92 +3341,20 @@
     <t>Assets/Sprites/Weapons/Swordsman/Female/검사_여_1207.spr</t>
   </si>
   <si>
-    <t>KAPHA</t>
-  </si>
-  <si>
-    <t>kapha.spr</t>
-  </si>
-  <si>
-    <t>KARAKASA</t>
-  </si>
-  <si>
-    <t>karakasa.spr</t>
-  </si>
-  <si>
-    <t>TENGU</t>
-  </si>
-  <si>
-    <t>tengu.spr</t>
-  </si>
-  <si>
-    <t>ANTIQUE_FIRELOCK</t>
-  </si>
-  <si>
-    <t>antique_firelock.spr</t>
-  </si>
-  <si>
-    <t>INCANTATION_SAMURAI</t>
-  </si>
-  <si>
-    <t>incantation_samurai.spr</t>
-  </si>
-  <si>
-    <t>MIYABI_NINGYO</t>
-  </si>
-  <si>
-    <t>miyabi_ningyo.spr</t>
-  </si>
-  <si>
-    <t>THE_PAPER</t>
-  </si>
-  <si>
-    <t>the_paper.spr</t>
-  </si>
-  <si>
-    <t>Kappa</t>
-  </si>
-  <si>
-    <t>Karakasa</t>
-  </si>
-  <si>
-    <t>Firelock Soldier</t>
-  </si>
-  <si>
-    <t>Ittan-Momen</t>
-  </si>
-  <si>
-    <t>Samurai Specter</t>
-  </si>
-  <si>
-    <t>Sake Tengu</t>
-  </si>
-  <si>
-    <t>POISON_TOAD</t>
-  </si>
-  <si>
-    <t>poison_toad.spr</t>
-  </si>
-  <si>
-    <t>Poison Toad</t>
-  </si>
-  <si>
-    <t>Miyabi Doll</t>
+    <t>Small,Brute</t>
+  </si>
+  <si>
+    <t>Undead,Buff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3787,11 +3787,11 @@
   <dimension ref="A1:AJ300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M226" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D214" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="AE244" sqref="AE244"/>
+      <selection pane="bottomRight" activeCell="Q231" sqref="Q231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5210,7 +5210,7 @@
         <v>59</v>
       </c>
       <c r="AE13">
-        <v>960</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s">
         <v>86</v>
@@ -5531,7 +5531,7 @@
         <v>59</v>
       </c>
       <c r="AE16">
-        <v>960</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s">
         <v>96</v>
@@ -5959,7 +5959,7 @@
         <v>59</v>
       </c>
       <c r="AE20">
-        <v>2016</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s">
         <v>110</v>
@@ -8099,7 +8099,7 @@
         <v>99</v>
       </c>
       <c r="AE40">
-        <v>864</v>
+        <v>324</v>
       </c>
       <c r="AF40" t="s">
         <v>182</v>
@@ -8420,7 +8420,7 @@
         <v>99</v>
       </c>
       <c r="AE43">
-        <v>672</v>
+        <v>603</v>
       </c>
       <c r="AF43" t="s">
         <v>193</v>
@@ -8527,7 +8527,7 @@
         <v>59</v>
       </c>
       <c r="AE44">
-        <v>960</v>
+        <v>166</v>
       </c>
       <c r="AF44" t="s">
         <v>196</v>
@@ -10453,7 +10453,7 @@
         <v>99</v>
       </c>
       <c r="AE62">
-        <v>672</v>
+        <v>336</v>
       </c>
       <c r="AF62" t="s">
         <v>264</v>
@@ -12084,7 +12084,7 @@
         <v>317</v>
       </c>
       <c r="D78">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -15482,7 +15482,7 @@
         <v>59</v>
       </c>
       <c r="AE109">
-        <v>960</v>
+        <v>166</v>
       </c>
       <c r="AF109" t="s">
         <v>416</v>
@@ -15910,7 +15910,7 @@
         <v>42</v>
       </c>
       <c r="AE113">
-        <v>840</v>
+        <v>562</v>
       </c>
       <c r="AF113" t="s">
         <v>429</v>
@@ -20511,7 +20511,7 @@
         <v>59</v>
       </c>
       <c r="AE156">
-        <v>960</v>
+        <v>166</v>
       </c>
       <c r="AF156" t="s">
         <v>574</v>
@@ -20618,7 +20618,7 @@
         <v>99</v>
       </c>
       <c r="AE157">
-        <v>1152</v>
+        <v>900</v>
       </c>
       <c r="AF157" t="s">
         <v>577</v>
@@ -21682,13 +21682,13 @@
         <v>41</v>
       </c>
       <c r="AC167" t="s">
-        <v>41</v>
+        <v>1096</v>
       </c>
       <c r="AD167" t="s">
         <v>99</v>
       </c>
       <c r="AE167">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="AF167" t="s">
         <v>608</v>
@@ -22249,7 +22249,7 @@
         <v>626</v>
       </c>
       <c r="D173">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E173">
         <v>100</v>
@@ -22544,7 +22544,7 @@
         <v>99</v>
       </c>
       <c r="AE175">
-        <v>1152</v>
+        <v>1080</v>
       </c>
       <c r="AF175" t="s">
         <v>633</v>
@@ -27038,7 +27038,7 @@
         <v>99</v>
       </c>
       <c r="AE217">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AF217" t="s">
         <v>768</v>
@@ -27573,7 +27573,7 @@
         <v>99</v>
       </c>
       <c r="AE222">
-        <v>1152</v>
+        <v>660</v>
       </c>
       <c r="AF222" t="s">
         <v>785</v>
@@ -28455,7 +28455,7 @@
         <v>814</v>
       </c>
       <c r="D231">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E231">
         <v>100</v>
@@ -28470,7 +28470,7 @@
         <v>100</v>
       </c>
       <c r="I231">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J231">
         <v>100</v>
@@ -28479,7 +28479,7 @@
         <v>100</v>
       </c>
       <c r="L231">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M231">
         <v>5</v>
@@ -28494,7 +28494,7 @@
         <v>100</v>
       </c>
       <c r="Q231">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R231">
         <v>100</v>
@@ -28530,7 +28530,7 @@
         <v>41</v>
       </c>
       <c r="AC231" t="s">
-        <v>470</v>
+        <v>1097</v>
       </c>
       <c r="AD231" t="s">
         <v>99</v>
@@ -28562,7 +28562,7 @@
         <v>817</v>
       </c>
       <c r="D232">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E232">
         <v>100</v>
@@ -28637,7 +28637,7 @@
         <v>41</v>
       </c>
       <c r="AC232" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AD232" t="s">
         <v>99</v>
@@ -29392,7 +29392,7 @@
         <v>99</v>
       </c>
       <c r="AE239">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="AF239" t="s">
         <v>840</v>
@@ -35069,7 +35069,7 @@
         <v>99</v>
       </c>
       <c r="AE292">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="AF292" t="s">
         <v>1008</v>
@@ -35089,10 +35089,10 @@
         <v>4290</v>
       </c>
       <c r="B293" t="s">
-        <v>1072</v>
+        <v>1009</v>
       </c>
       <c r="C293" t="s">
-        <v>1086</v>
+        <v>1010</v>
       </c>
       <c r="D293">
         <v>41</v>
@@ -35179,7 +35179,7 @@
         <v>576</v>
       </c>
       <c r="AF293" t="s">
-        <v>1073</v>
+        <v>1011</v>
       </c>
       <c r="AG293">
         <v>0</v>
@@ -35196,10 +35196,10 @@
         <v>4291</v>
       </c>
       <c r="B294" t="s">
-        <v>1074</v>
+        <v>1012</v>
       </c>
       <c r="C294" t="s">
-        <v>1087</v>
+        <v>1013</v>
       </c>
       <c r="D294">
         <v>30</v>
@@ -35286,7 +35286,7 @@
         <v>432</v>
       </c>
       <c r="AF294" t="s">
-        <v>1075</v>
+        <v>1014</v>
       </c>
       <c r="AG294">
         <v>0</v>
@@ -35303,10 +35303,10 @@
         <v>4292</v>
       </c>
       <c r="B295" t="s">
-        <v>1076</v>
+        <v>1015</v>
       </c>
       <c r="C295" t="s">
-        <v>1091</v>
+        <v>1016</v>
       </c>
       <c r="D295">
         <v>65</v>
@@ -35393,7 +35393,7 @@
         <v>624</v>
       </c>
       <c r="AF295" t="s">
-        <v>1077</v>
+        <v>1017</v>
       </c>
       <c r="AG295">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>4293</v>
       </c>
       <c r="B296" t="s">
-        <v>1078</v>
+        <v>1018</v>
       </c>
       <c r="C296" t="s">
-        <v>1088</v>
+        <v>1019</v>
       </c>
       <c r="D296">
         <v>47</v>
@@ -35500,7 +35500,7 @@
         <v>480</v>
       </c>
       <c r="AF296" t="s">
-        <v>1079</v>
+        <v>1020</v>
       </c>
       <c r="AG296">
         <v>0</v>
@@ -35517,10 +35517,10 @@
         <v>4294</v>
       </c>
       <c r="B297" t="s">
-        <v>1080</v>
+        <v>1021</v>
       </c>
       <c r="C297" t="s">
-        <v>1090</v>
+        <v>1022</v>
       </c>
       <c r="D297">
         <v>71</v>
@@ -35604,10 +35604,10 @@
         <v>99</v>
       </c>
       <c r="AE297">
-        <v>768</v>
+        <v>425</v>
       </c>
       <c r="AF297" t="s">
-        <v>1081</v>
+        <v>1023</v>
       </c>
       <c r="AG297">
         <v>0</v>
@@ -35624,10 +35624,10 @@
         <v>4295</v>
       </c>
       <c r="B298" t="s">
-        <v>1082</v>
+        <v>1024</v>
       </c>
       <c r="C298" t="s">
-        <v>1095</v>
+        <v>1025</v>
       </c>
       <c r="D298">
         <v>33</v>
@@ -35714,7 +35714,7 @@
         <v>672</v>
       </c>
       <c r="AF298" t="s">
-        <v>1083</v>
+        <v>1026</v>
       </c>
       <c r="AG298">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>4296</v>
       </c>
       <c r="B299" t="s">
-        <v>1084</v>
+        <v>1027</v>
       </c>
       <c r="C299" t="s">
-        <v>1089</v>
+        <v>1028</v>
       </c>
       <c r="D299">
         <v>56</v>
@@ -35821,7 +35821,7 @@
         <v>540</v>
       </c>
       <c r="AF299" t="s">
-        <v>1085</v>
+        <v>1029</v>
       </c>
       <c r="AG299">
         <v>0</v>
@@ -35838,10 +35838,10 @@
         <v>4297</v>
       </c>
       <c r="B300" t="s">
-        <v>1092</v>
+        <v>1030</v>
       </c>
       <c r="C300" t="s">
-        <v>1094</v>
+        <v>1031</v>
       </c>
       <c r="D300">
         <v>46</v>
@@ -35928,7 +35928,7 @@
         <v>624</v>
       </c>
       <c r="AF300" t="s">
-        <v>1093</v>
+        <v>1032</v>
       </c>
       <c r="AG300">
         <v>0</v>
@@ -35944,7 +35944,6 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI179">
     <sortCondition ref="D2:D179"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -35972,30 +35971,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1010</v>
+        <v>1034</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>1064</v>
+        <v>1088</v>
       </c>
       <c r="D1" t="s">
-        <v>1065</v>
+        <v>1089</v>
       </c>
       <c r="E1" t="s">
-        <v>1024</v>
+        <v>1048</v>
       </c>
       <c r="F1" t="s">
-        <v>1025</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>1063</v>
       </c>
       <c r="B2" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -36006,10 +36005,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1039</v>
+        <v>1063</v>
       </c>
       <c r="B3" t="s">
-        <v>1027</v>
+        <v>1051</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -36018,18 +36017,18 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>1066</v>
+        <v>1090</v>
       </c>
       <c r="F3" t="s">
-        <v>1067</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1039</v>
+        <v>1063</v>
       </c>
       <c r="B4" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -36038,18 +36037,18 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>1068</v>
+        <v>1092</v>
       </c>
       <c r="F4" t="s">
-        <v>1069</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1042</v>
+        <v>1066</v>
       </c>
       <c r="B5" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -36060,10 +36059,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1042</v>
+        <v>1066</v>
       </c>
       <c r="B6" t="s">
-        <v>1027</v>
+        <v>1051</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -36072,10 +36071,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>1070</v>
+        <v>1094</v>
       </c>
       <c r="F6" t="s">
-        <v>1071</v>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -36099,7 +36098,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -37325,7 +37324,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -37334,13 +37333,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1016</v>
+        <v>1040</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>14</v>
@@ -38090,21 +38089,21 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1010</v>
+        <v>1034</v>
       </c>
       <c r="N1" t="s">
-        <v>1011</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -38324,7 +38323,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>1013</v>
+        <v>1037</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -39162,13 +39161,13 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1010</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -40116,7 +40115,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>1014</v>
+        <v>1038</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -40862,13 +40861,13 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1010</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -41310,7 +41309,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -41319,13 +41318,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1016</v>
+        <v>1040</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -44616,18 +44615,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1018</v>
+        <v>1042</v>
       </c>
       <c r="B1" t="s">
-        <v>1019</v>
+        <v>1043</v>
       </c>
       <c r="C1" t="s">
-        <v>1020</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1021</v>
+        <v>1045</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -44726,7 +44725,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="B11">
         <v>7.4999999999999997E-2</v>
@@ -47253,7 +47252,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="G1" s="8" t="s">
-        <v>1022</v>
+        <v>1046</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -47279,52 +47278,52 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1023</v>
+        <v>1047</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1024</v>
+        <v>1048</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1025</v>
+        <v>1049</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1027</v>
+        <v>1051</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>1030</v>
+        <v>1054</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1031</v>
+        <v>1055</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1034</v>
+        <v>1058</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>1037</v>
+        <v>1061</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>1038</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
@@ -47332,7 +47331,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1039</v>
+        <v>1063</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -47341,10 +47340,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1040</v>
+        <v>1064</v>
       </c>
       <c r="F3" t="s">
-        <v>1041</v>
+        <v>1065</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -47391,7 +47390,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1042</v>
+        <v>1066</v>
       </c>
       <c r="C4">
         <v>1.6</v>
@@ -47400,10 +47399,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>1043</v>
+        <v>1067</v>
       </c>
       <c r="F4" t="s">
-        <v>1044</v>
+        <v>1068</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -47450,7 +47449,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1045</v>
+        <v>1069</v>
       </c>
       <c r="C5">
         <v>1.1499999999999999</v>
@@ -47459,10 +47458,10 @@
         <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>1046</v>
+        <v>1070</v>
       </c>
       <c r="F5" t="s">
-        <v>1047</v>
+        <v>1071</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -47509,7 +47508,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>1048</v>
+        <v>1072</v>
       </c>
       <c r="C6">
         <v>1.1000000000000001</v>
@@ -47518,10 +47517,10 @@
         <v>1.8</v>
       </c>
       <c r="E6" t="s">
-        <v>1049</v>
+        <v>1073</v>
       </c>
       <c r="F6" t="s">
-        <v>1050</v>
+        <v>1074</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -47568,7 +47567,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>1051</v>
+        <v>1075</v>
       </c>
       <c r="C7">
         <v>1.2</v>
@@ -47577,10 +47576,10 @@
         <v>1.6</v>
       </c>
       <c r="E7" t="s">
-        <v>1052</v>
+        <v>1076</v>
       </c>
       <c r="F7" t="s">
-        <v>1053</v>
+        <v>1077</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -47627,7 +47626,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>1054</v>
+        <v>1078</v>
       </c>
       <c r="C8">
         <v>1.3</v>
@@ -47636,10 +47635,10 @@
         <v>1.3</v>
       </c>
       <c r="E8" t="s">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="F8" t="s">
-        <v>1056</v>
+        <v>1080</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -47686,7 +47685,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>1057</v>
+        <v>1081</v>
       </c>
       <c r="C9">
         <v>1.4</v>
@@ -47695,10 +47694,10 @@
         <v>1.4</v>
       </c>
       <c r="E9" t="s">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="F9" t="s">
-        <v>1059</v>
+        <v>1083</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -47745,7 +47744,7 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>1060</v>
+        <v>1084</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -47754,10 +47753,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>1061</v>
+        <v>1085</v>
       </c>
       <c r="F10" t="s">
-        <v>1062</v>
+        <v>1086</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -47826,7 +47825,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1063</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -47834,7 +47833,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -47842,7 +47841,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1027</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -47850,7 +47849,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -47858,7 +47857,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -47866,7 +47865,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1030</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -47874,7 +47873,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1031</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -47882,7 +47881,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -47890,7 +47889,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -47898,7 +47897,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1034</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -47906,7 +47905,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -47914,7 +47913,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1036</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -47922,7 +47921,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1037</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -47930,7 +47929,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1038</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A408D0-40F3-4509-BFAF-FC40EBED44AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23214C7-82EB-49CF-9DCD-2C1DCCA85CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3583" yWindow="2923" windowWidth="27797" windowHeight="13903" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="1108">
   <si>
     <t>Id</t>
   </si>
@@ -3366,6 +3366,15 @@
   </si>
   <si>
     <t>V3</t>
+  </si>
+  <si>
+    <t>Golem,Ranged</t>
+  </si>
+  <si>
+    <t>MOONLIGHT_CLONE</t>
+  </si>
+  <si>
+    <t>Color#FFFFFF80</t>
   </si>
 </sst>
 </file>
@@ -3805,13 +3814,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
-  <dimension ref="A1:AJ300"/>
+  <dimension ref="A1:AJ301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q296" sqref="Q296"/>
+      <selection pane="bottomRight" activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3848,7 +3857,7 @@
     <col min="33" max="33" width="13.3828125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.84375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.4">
@@ -4403,7 +4412,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -25268,7 +25277,7 @@
         <v>28</v>
       </c>
       <c r="E201">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F201">
         <v>100</v>
@@ -25277,19 +25286,19 @@
         <v>100</v>
       </c>
       <c r="H201">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I201">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J201">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K201">
         <v>100</v>
       </c>
       <c r="L201">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M201">
         <v>5</v>
@@ -25298,10 +25307,10 @@
         <v>1</v>
       </c>
       <c r="O201">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P201">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q201">
         <v>100</v>
@@ -25340,7 +25349,7 @@
         <v>41</v>
       </c>
       <c r="AC201" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD201" t="s">
         <v>59</v>
@@ -34328,7 +34337,7 @@
         <v>41</v>
       </c>
       <c r="AC285" t="s">
-        <v>188</v>
+        <v>1105</v>
       </c>
       <c r="AD285" t="s">
         <v>115</v>
@@ -34640,7 +34649,7 @@
         <v>1000</v>
       </c>
       <c r="Y288">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Z288">
         <v>1000</v>
@@ -34676,7 +34685,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>4286</v>
       </c>
@@ -34783,7 +34792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>4287</v>
       </c>
@@ -34890,7 +34899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>4288</v>
       </c>
@@ -34997,7 +35006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>4289</v>
       </c>
@@ -35104,7 +35113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>4290</v>
       </c>
@@ -35211,7 +35220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>4291</v>
       </c>
@@ -35318,7 +35327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>4292</v>
       </c>
@@ -35425,7 +35434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>4293</v>
       </c>
@@ -35460,7 +35469,7 @@
         <v>100</v>
       </c>
       <c r="L296">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M296">
         <v>10</v>
@@ -35475,10 +35484,10 @@
         <v>100</v>
       </c>
       <c r="Q296">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="R296">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="S296">
         <v>10</v>
@@ -35532,7 +35541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>4294</v>
       </c>
@@ -35639,7 +35648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>4295</v>
       </c>
@@ -35746,7 +35755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>4296</v>
       </c>
@@ -35853,7 +35862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>4297</v>
       </c>
@@ -35958,6 +35967,116 @@
       </c>
       <c r="AI300">
         <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A301">
+        <v>4298</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C301" t="s">
+        <v>566</v>
+      </c>
+      <c r="D301">
+        <v>67</v>
+      </c>
+      <c r="E301">
+        <v>15</v>
+      </c>
+      <c r="F301">
+        <v>100</v>
+      </c>
+      <c r="G301">
+        <v>80</v>
+      </c>
+      <c r="H301">
+        <v>100</v>
+      </c>
+      <c r="I301">
+        <v>100</v>
+      </c>
+      <c r="J301">
+        <v>100</v>
+      </c>
+      <c r="K301">
+        <v>130</v>
+      </c>
+      <c r="L301">
+        <v>80</v>
+      </c>
+      <c r="M301">
+        <v>10</v>
+      </c>
+      <c r="N301">
+        <v>1</v>
+      </c>
+      <c r="O301">
+        <v>100</v>
+      </c>
+      <c r="P301">
+        <v>100</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>0</v>
+      </c>
+      <c r="S301">
+        <v>10</v>
+      </c>
+      <c r="T301">
+        <v>12</v>
+      </c>
+      <c r="U301" t="s">
+        <v>38</v>
+      </c>
+      <c r="V301" t="s">
+        <v>219</v>
+      </c>
+      <c r="W301" t="s">
+        <v>274</v>
+      </c>
+      <c r="X301">
+        <v>1276</v>
+      </c>
+      <c r="Y301">
+        <v>288</v>
+      </c>
+      <c r="Z301">
+        <v>576</v>
+      </c>
+      <c r="AA301">
+        <v>150</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD301" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE301">
+        <v>180</v>
+      </c>
+      <c r="AF301" t="s">
+        <v>568</v>
+      </c>
+      <c r="AG301">
+        <v>0</v>
+      </c>
+      <c r="AH301">
+        <v>0.5</v>
+      </c>
+      <c r="AI301">
+        <v>1</v>
+      </c>
+      <c r="AJ301" t="s">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -38069,7 +38188,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -38214,7 +38333,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="C4">
         <v>10</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23214C7-82EB-49CF-9DCD-2C1DCCA85CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD45C8-8EDC-43BC-B534-8954001128FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -3374,7 +3374,7 @@
     <t>MOONLIGHT_CLONE</t>
   </si>
   <si>
-    <t>Color#FFFFFF80</t>
+    <t>Color#FFFFFFAA</t>
   </si>
 </sst>
 </file>
@@ -3817,10 +3817,10 @@
   <dimension ref="A1:AJ301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A301" sqref="A301"/>
+      <selection pane="bottomRight" activeCell="AJ302" sqref="AJ302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD45C8-8EDC-43BC-B534-8954001128FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CDA93-0B70-417C-B2F2-D3CC1CA427E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="1109">
   <si>
     <t>Id</t>
   </si>
@@ -3375,6 +3375,9 @@
   </si>
   <si>
     <t>Color#FFFFFFAA</t>
+  </si>
+  <si>
+    <t>Plant,Buff</t>
   </si>
 </sst>
 </file>
@@ -3817,10 +3820,10 @@
   <dimension ref="A1:AJ301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ302" sqref="AJ302"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9447,7 +9450,7 @@
         <v>100</v>
       </c>
       <c r="G53">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -18923,7 +18926,7 @@
         <v>2016</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="AB141" t="s">
         <v>119</v>
@@ -30199,16 +30202,16 @@
         <v>56</v>
       </c>
       <c r="E247">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F247">
         <v>100</v>
       </c>
       <c r="G247">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H247">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I247">
         <v>100</v>
@@ -30217,7 +30220,7 @@
         <v>100</v>
       </c>
       <c r="K247">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L247">
         <v>100</v>
@@ -30229,16 +30232,16 @@
         <v>3</v>
       </c>
       <c r="O247">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P247">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q247">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R247">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="S247">
         <v>10</v>
@@ -30271,7 +30274,7 @@
         <v>41</v>
       </c>
       <c r="AC247" t="s">
-        <v>39</v>
+        <v>1108</v>
       </c>
       <c r="AD247" t="s">
         <v>115</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CDA93-0B70-417C-B2F2-D3CC1CA427E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810BA49F-5F5D-43DD-9A27-DC71B9F75010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -3820,10 +3820,10 @@
   <dimension ref="A1:AJ301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomRight" activeCell="N161" sqref="N161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21000,22 +21000,22 @@
         <v>64</v>
       </c>
       <c r="E161">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F161">
         <v>100</v>
       </c>
       <c r="G161">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="H161">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I161">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J161">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K161">
         <v>100</v>
@@ -21033,7 +21033,7 @@
         <v>100</v>
       </c>
       <c r="P161">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q161">
         <v>100</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810BA49F-5F5D-43DD-9A27-DC71B9F75010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E5D14-C1BE-4D6A-BEA9-40FF37E16889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -3137,9 +3137,6 @@
     <t>THE_PAPER</t>
   </si>
   <si>
-    <t>Ittan-Momen</t>
-  </si>
-  <si>
     <t>the_paper.spr</t>
   </si>
   <si>
@@ -3378,6 +3375,9 @@
   </si>
   <si>
     <t>Plant,Buff</t>
+  </si>
+  <si>
+    <t>The Paper</t>
   </si>
 </sst>
 </file>
@@ -3820,10 +3820,10 @@
   <dimension ref="A1:AJ301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N161" sqref="N161"/>
+      <selection pane="bottomRight" activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5022,7 +5022,7 @@
         <v>41</v>
       </c>
       <c r="AC11" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AD11" t="s">
         <v>59</v>
@@ -11121,7 +11121,7 @@
         <v>41</v>
       </c>
       <c r="AC68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AD68" t="s">
         <v>99</v>
@@ -21006,7 +21006,7 @@
         <v>100</v>
       </c>
       <c r="G161">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="H161">
         <v>90</v>
@@ -21030,16 +21030,16 @@
         <v>3</v>
       </c>
       <c r="O161">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P161">
         <v>110</v>
       </c>
       <c r="Q161">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R161">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="S161">
         <v>10</v>
@@ -21714,7 +21714,7 @@
         <v>41</v>
       </c>
       <c r="AC167" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AD167" t="s">
         <v>99</v>
@@ -28562,7 +28562,7 @@
         <v>41</v>
       </c>
       <c r="AC231" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AD231" t="s">
         <v>99</v>
@@ -30274,7 +30274,7 @@
         <v>41</v>
       </c>
       <c r="AC247" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD247" t="s">
         <v>115</v>
@@ -34340,7 +34340,7 @@
         <v>41</v>
       </c>
       <c r="AC285" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AD285" t="s">
         <v>115</v>
@@ -35766,7 +35766,7 @@
         <v>1027</v>
       </c>
       <c r="C299" t="s">
-        <v>1028</v>
+        <v>1108</v>
       </c>
       <c r="D299">
         <v>56</v>
@@ -35853,7 +35853,7 @@
         <v>540</v>
       </c>
       <c r="AF299" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AG299">
         <v>0</v>
@@ -35870,10 +35870,10 @@
         <v>4297</v>
       </c>
       <c r="B300" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C300" t="s">
         <v>1030</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1031</v>
       </c>
       <c r="D300">
         <v>46</v>
@@ -35960,7 +35960,7 @@
         <v>624</v>
       </c>
       <c r="AF300" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AG300">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>4298</v>
       </c>
       <c r="B301" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C301" t="s">
         <v>566</v>
@@ -36079,7 +36079,7 @@
         <v>1</v>
       </c>
       <c r="AJ301" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -36113,30 +36113,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
       <c r="C1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1" t="s">
         <v>1088</v>
       </c>
-      <c r="D1" t="s">
-        <v>1089</v>
-      </c>
       <c r="E1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F1" t="s">
         <v>1048</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -36147,10 +36147,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -36159,18 +36159,18 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F3" t="s">
         <v>1090</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -36179,18 +36179,18 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F4" t="s">
         <v>1092</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -36201,10 +36201,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -36213,10 +36213,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F6" t="s">
         <v>1094</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -36240,7 +36240,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -37466,7 +37466,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -37475,13 +37475,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>14</v>
@@ -38231,21 +38231,21 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N1" t="s">
         <v>1034</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -38465,7 +38465,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -39303,13 +39303,13 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -40257,7 +40257,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -41003,13 +41003,13 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -41452,7 +41452,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -41461,13 +41461,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -45160,21 +45160,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1" t="s">
         <v>1042</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1043</v>
       </c>
-      <c r="C1" t="s">
-        <v>1044</v>
-      </c>
       <c r="E1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B2">
         <v>0.05</v>
@@ -45309,7 +45309,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B11">
         <v>7.4999999999999997E-2</v>
@@ -45351,19 +45351,19 @@
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O1" t="s">
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Q1" t="s">
         <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
@@ -51704,7 +51704,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.4">
       <c r="L106" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -51727,7 +51727,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="G1" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -51753,52 +51753,52 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>1061</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
@@ -51806,19 +51806,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>1063</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1064</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1065</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -51865,7 +51865,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C4">
         <v>1.6</v>
@@ -51874,10 +51874,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F4" t="s">
         <v>1067</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1068</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -51924,7 +51924,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C5">
         <v>1.1499999999999999</v>
@@ -51933,10 +51933,10 @@
         <v>1.5</v>
       </c>
       <c r="E5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F5" t="s">
         <v>1070</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1071</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -51983,7 +51983,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C6">
         <v>1.1000000000000001</v>
@@ -51992,10 +51992,10 @@
         <v>1.8</v>
       </c>
       <c r="E6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F6" t="s">
         <v>1073</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1074</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -52042,7 +52042,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C7">
         <v>1.2</v>
@@ -52051,10 +52051,10 @@
         <v>1.6</v>
       </c>
       <c r="E7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F7" t="s">
         <v>1076</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1077</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -52101,7 +52101,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C8">
         <v>1.3</v>
@@ -52110,10 +52110,10 @@
         <v>1.3</v>
       </c>
       <c r="E8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F8" t="s">
         <v>1079</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1080</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -52160,7 +52160,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C9">
         <v>1.4</v>
@@ -52169,10 +52169,10 @@
         <v>1.4</v>
       </c>
       <c r="E9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F9" t="s">
         <v>1082</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1083</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -52219,19 +52219,19 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>1084</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>1085</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1086</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -52300,7 +52300,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -52308,7 +52308,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -52316,7 +52316,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -52324,7 +52324,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -52332,7 +52332,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -52340,7 +52340,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -52348,7 +52348,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -52356,7 +52356,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -52364,7 +52364,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -52372,7 +52372,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -52380,7 +52380,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -52388,7 +52388,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -52396,7 +52396,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -52404,7 +52404,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E5D14-C1BE-4D6A-BEA9-40FF37E16889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5DB7D6-1A1B-49DF-80F0-4BF738D60E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="1111">
   <si>
     <t>Id</t>
   </si>
@@ -3378,6 +3378,12 @@
   </si>
   <si>
     <t>The Paper</t>
+  </si>
+  <si>
+    <t>AiAggressiveAssist</t>
+  </si>
+  <si>
+    <t>Brute,Buff</t>
   </si>
 </sst>
 </file>
@@ -3820,10 +3826,10 @@
   <dimension ref="A1:AJ301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C299" sqref="C299"/>
+      <selection pane="bottomRight" activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6017,7 +6023,7 @@
         <v>112</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -6231,7 +6237,7 @@
         <v>123</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -6338,7 +6344,7 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -6552,7 +6558,7 @@
         <v>133</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -6659,7 +6665,7 @@
         <v>136</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -6980,7 +6986,7 @@
         <v>147</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -7087,7 +7093,7 @@
         <v>150</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -7194,7 +7200,7 @@
         <v>153</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -7408,7 +7414,7 @@
         <v>159</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -7515,7 +7521,7 @@
         <v>163</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>90</v>
@@ -7622,7 +7628,7 @@
         <v>166</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -7729,7 +7735,7 @@
         <v>169</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>140</v>
@@ -7836,7 +7842,7 @@
         <v>172</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>110</v>
@@ -7943,7 +7949,7 @@
         <v>175</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -8050,7 +8056,7 @@
         <v>179</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -8264,7 +8270,7 @@
         <v>187</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -8371,7 +8377,7 @@
         <v>191</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -8585,7 +8591,7 @@
         <v>198</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E45">
         <v>120</v>
@@ -9052,7 +9058,7 @@
         <v>90</v>
       </c>
       <c r="Q49">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R49">
         <v>100</v>
@@ -9762,7 +9768,7 @@
         <v>242</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -9774,16 +9780,16 @@
         <v>100</v>
       </c>
       <c r="H56">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J56">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K56">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L56">
         <v>100</v>
@@ -9795,16 +9801,16 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P56">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="Q56">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R56">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S56">
         <v>10</v>
@@ -10265,7 +10271,7 @@
         <v>41</v>
       </c>
       <c r="AC60" t="s">
-        <v>275</v>
+        <v>1110</v>
       </c>
       <c r="AD60" t="s">
         <v>42</v>
@@ -10297,10 +10303,10 @@
         <v>259</v>
       </c>
       <c r="D61">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E61">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F61">
         <v>100</v>
@@ -10312,16 +10318,16 @@
         <v>105</v>
       </c>
       <c r="I61">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J61">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L61">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M61">
         <v>10</v>
@@ -10330,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P61">
         <v>90</v>
@@ -11412,7 +11418,7 @@
         <v>100</v>
       </c>
       <c r="S71">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T71">
         <v>12</v>
@@ -11445,7 +11451,7 @@
         <v>48</v>
       </c>
       <c r="AD71" t="s">
-        <v>99</v>
+        <v>1109</v>
       </c>
       <c r="AE71">
         <v>384</v>
@@ -13739,13 +13745,13 @@
         <v>130</v>
       </c>
       <c r="J93">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K93">
         <v>100</v>
       </c>
       <c r="L93">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M93">
         <v>10</v>
@@ -13760,7 +13766,7 @@
         <v>100</v>
       </c>
       <c r="Q93">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R93">
         <v>100</v>
@@ -15005,7 +15011,7 @@
         <v>403</v>
       </c>
       <c r="D105">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -18123,16 +18129,16 @@
         <v>30</v>
       </c>
       <c r="I134">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J134">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K134">
         <v>130</v>
       </c>
       <c r="L134">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="M134">
         <v>65</v>
@@ -19285,7 +19291,7 @@
         <v>537</v>
       </c>
       <c r="D145">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E145">
         <v>120</v>
@@ -19294,7 +19300,7 @@
         <v>120</v>
       </c>
       <c r="G145">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H145">
         <v>110</v>
@@ -19309,7 +19315,7 @@
         <v>100</v>
       </c>
       <c r="L145">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M145">
         <v>15</v>
@@ -19318,10 +19324,10 @@
         <v>1</v>
       </c>
       <c r="O145">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P145">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q145">
         <v>112</v>
@@ -19499,7 +19505,7 @@
         <v>543</v>
       </c>
       <c r="D147">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E147">
         <v>100</v>
@@ -19508,13 +19514,13 @@
         <v>100</v>
       </c>
       <c r="G147">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H147">
         <v>90</v>
       </c>
       <c r="I147">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J147">
         <v>100</v>
@@ -19523,7 +19529,7 @@
         <v>100</v>
       </c>
       <c r="L147">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M147">
         <v>10</v>
@@ -19532,10 +19538,10 @@
         <v>1</v>
       </c>
       <c r="O147">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P147">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Q147">
         <v>100</v>
@@ -21764,7 +21770,7 @@
         <v>90</v>
       </c>
       <c r="J168">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K168">
         <v>400</v>
@@ -24109,7 +24115,7 @@
         <v>100</v>
       </c>
       <c r="G190">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H190">
         <v>100</v>
@@ -24424,7 +24430,7 @@
         <v>21</v>
       </c>
       <c r="E193">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F193">
         <v>100</v>
@@ -24436,7 +24442,7 @@
         <v>100</v>
       </c>
       <c r="I193">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J193">
         <v>100</v>
@@ -24543,7 +24549,7 @@
         <v>100</v>
       </c>
       <c r="I194">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J194">
         <v>100</v>
@@ -24650,7 +24656,7 @@
         <v>100</v>
       </c>
       <c r="I195">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J195">
         <v>100</v>
@@ -24757,7 +24763,7 @@
         <v>100</v>
       </c>
       <c r="I196">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J196">
         <v>100</v>
@@ -24864,7 +24870,7 @@
         <v>100</v>
       </c>
       <c r="I197">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J197">
         <v>100</v>
@@ -24959,7 +24965,7 @@
         <v>31</v>
       </c>
       <c r="E198">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F198">
         <v>100</v>
@@ -24971,7 +24977,7 @@
         <v>100</v>
       </c>
       <c r="I198">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J198">
         <v>100</v>
@@ -25138,7 +25144,7 @@
         <v>41</v>
       </c>
       <c r="AC199" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AD199" t="s">
         <v>99</v>
@@ -25173,7 +25179,7 @@
         <v>26</v>
       </c>
       <c r="E200">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F200">
         <v>100</v>
@@ -25185,7 +25191,7 @@
         <v>100</v>
       </c>
       <c r="I200">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J200">
         <v>100</v>
@@ -25277,10 +25283,10 @@
         <v>713</v>
       </c>
       <c r="D201">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E201">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F201">
         <v>100</v>
@@ -25316,10 +25322,10 @@
         <v>50</v>
       </c>
       <c r="Q201">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R201">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="S201">
         <v>10</v>
@@ -25387,7 +25393,7 @@
         <v>36</v>
       </c>
       <c r="E202">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F202">
         <v>100</v>
@@ -25396,10 +25402,10 @@
         <v>100</v>
       </c>
       <c r="H202">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I202">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J202">
         <v>100</v>
@@ -25417,13 +25423,13 @@
         <v>1</v>
       </c>
       <c r="O202">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P202">
         <v>100</v>
       </c>
       <c r="Q202">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R202">
         <v>100</v>
@@ -25494,7 +25500,7 @@
         <v>30</v>
       </c>
       <c r="E203">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F203">
         <v>100</v>
@@ -25506,7 +25512,7 @@
         <v>100</v>
       </c>
       <c r="I203">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J203">
         <v>100</v>
@@ -25812,7 +25818,7 @@
         <v>729</v>
       </c>
       <c r="D206">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E206">
         <v>100</v>
@@ -25919,7 +25925,7 @@
         <v>732</v>
       </c>
       <c r="D207">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E207">
         <v>100</v>
@@ -26133,7 +26139,7 @@
         <v>738</v>
       </c>
       <c r="D209">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E209">
         <v>200</v>
@@ -26240,7 +26246,7 @@
         <v>741</v>
       </c>
       <c r="D210">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E210">
         <v>100</v>
@@ -26347,7 +26353,7 @@
         <v>744</v>
       </c>
       <c r="D211">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E211">
         <v>90</v>
@@ -26454,7 +26460,7 @@
         <v>748</v>
       </c>
       <c r="D212">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E212">
         <v>100</v>
@@ -26775,7 +26781,7 @@
         <v>760</v>
       </c>
       <c r="D215">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E215">
         <v>100</v>
@@ -34916,7 +34922,7 @@
         <v>43</v>
       </c>
       <c r="E291">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F291">
         <v>100</v>
@@ -34937,7 +34943,7 @@
         <v>100</v>
       </c>
       <c r="L291">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M291">
         <v>10</v>
@@ -34946,19 +34952,19 @@
         <v>1</v>
       </c>
       <c r="O291">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P291">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="R291">
         <v>100</v>
       </c>
       <c r="S291">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T291">
         <v>12</v>
@@ -34991,7 +34997,7 @@
         <v>48</v>
       </c>
       <c r="AD291" t="s">
-        <v>42</v>
+        <v>1109</v>
       </c>
       <c r="AE291">
         <v>384</v>
@@ -36007,7 +36013,7 @@
         <v>130</v>
       </c>
       <c r="L301">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="M301">
         <v>10</v>
@@ -38191,7 +38197,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5DB7D6-1A1B-49DF-80F0-4BF738D60E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21379F70-835E-4F75-BEEF-EA9D3511E6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" activeTab="1" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1113">
   <si>
     <t>Id</t>
   </si>
@@ -3384,6 +3384,12 @@
   </si>
   <si>
     <t>Brute,Buff</t>
+  </si>
+  <si>
+    <t>ExpSteps</t>
+  </si>
+  <si>
+    <t>Exp2</t>
   </si>
 </sst>
 </file>
@@ -3825,11 +3831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
   <dimension ref="A1:AJ301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D176" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D199" sqref="D199"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4014,7 +4020,7 @@
         <v>80</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -4228,7 +4234,7 @@
         <v>90</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -4335,7 +4341,7 @@
         <v>100</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -37548,7 +37554,7 @@
       </c>
       <c r="F3" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A3-1,0)</f>
-        <v>6.0137457044673512</v>
+        <v>6.4432989690721616</v>
       </c>
       <c r="G3">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A3-1,0)</f>
@@ -37581,7 +37587,7 @@
       </c>
       <c r="F4" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A4-1,0)</f>
-        <v>23.809523809523814</v>
+        <v>24.050024050024053</v>
       </c>
       <c r="G4">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A4-1,0)</f>
@@ -37610,11 +37616,11 @@
       </c>
       <c r="E5" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A5-1,0)</f>
-        <v>5.8880000000000017</v>
+        <v>7.5546666666666686</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A5-1,0)</f>
-        <v>67.255434782608674</v>
+        <v>52.550300035298257</v>
       </c>
       <c r="G5">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A5-1,0)</f>
@@ -37643,11 +37649,11 @@
       </c>
       <c r="E6" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A6-1,0)</f>
-        <v>7.517999999999998</v>
+        <v>10.851333333333331</v>
       </c>
       <c r="F6" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A6-1,0)</f>
-        <v>167.19872306464489</v>
+        <v>116.02260858880632</v>
       </c>
       <c r="G6">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A6-1,0)</f>
@@ -37676,11 +37682,11 @@
       </c>
       <c r="E7" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A7-1,0)</f>
-        <v>9.048</v>
+        <v>14.048</v>
       </c>
       <c r="F7" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A7-1,0)</f>
-        <v>330.4597701149425</v>
+        <v>212.98405466970388</v>
       </c>
       <c r="G7">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A7-1,0)</f>
@@ -37709,11 +37715,11 @@
       </c>
       <c r="E8" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A8-1,0)</f>
-        <v>10.478000000000002</v>
+        <v>17.144666666666669</v>
       </c>
       <c r="F8" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A8-1,0)</f>
-        <v>644.58866195838891</v>
+        <v>394.17505929929609</v>
       </c>
       <c r="G8">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A8-1,0)</f>
@@ -37742,11 +37748,11 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A9-1,0)</f>
-        <v>13.474666666666666</v>
+        <v>20.141333333333336</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A9-1,0)</f>
-        <v>954.68038788838317</v>
+        <v>638.93486032040244</v>
       </c>
       <c r="G9">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A9-1,0)</f>
@@ -37775,11 +37781,11 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A10-1,0)</f>
-        <v>16.371333333333332</v>
+        <v>23.037999999999997</v>
       </c>
       <c r="F10" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A10-1,0)</f>
-        <v>1489.3716659201043</v>
+        <v>1058.5554301588681</v>
       </c>
       <c r="G10">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A10-1,0)</f>
@@ -37808,11 +37814,11 @@
       </c>
       <c r="E11" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A11-1,0)</f>
-        <v>19.167999999999999</v>
+        <v>25.834666666666664</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A11-1,0)</f>
-        <v>2134.2341402337229</v>
+        <v>1583.7634186622629</v>
       </c>
       <c r="G11">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A11-1,0)</f>
@@ -37841,11 +37847,11 @@
       </c>
       <c r="E12" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A12-1,0)</f>
-        <v>21.864666666666668</v>
+        <v>28.531333333333336</v>
       </c>
       <c r="F12" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A12-1,0)</f>
-        <v>3176.5405372442601</v>
+        <v>2434.5514872537792</v>
       </c>
       <c r="G12">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A12-1,0)</f>
@@ -37874,11 +37880,11 @@
       </c>
       <c r="E13" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A13-1,0)</f>
-        <v>24.461333333333336</v>
+        <v>31.128</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A13-1,0)</f>
-        <v>4380.0964787964676</v>
+        <v>3442.302749935749</v>
       </c>
       <c r="G13">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A13-1,0)</f>
@@ -37907,11 +37913,11 @@
       </c>
       <c r="E14" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A14-1,0)</f>
-        <v>26.957999999999998</v>
+        <v>33.62466666666667</v>
       </c>
       <c r="F14" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A14-1,0)</f>
-        <v>6246.1235996735668</v>
+        <v>5007.8712056625091</v>
       </c>
       <c r="G14">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A14-1,0)</f>
@@ -37940,11 +37946,11 @@
       </c>
       <c r="E15" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A15-1,0)</f>
-        <v>29.354666666666667</v>
+        <v>36.021333333333331</v>
       </c>
       <c r="F15" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A15-1,0)</f>
-        <v>8329.7147529069771</v>
+        <v>6788.4216760438267</v>
       </c>
       <c r="G15">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A15-1,0)</f>
@@ -37973,11 +37979,11 @@
       </c>
       <c r="E16" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A16-1,0)</f>
-        <v>31.651333333333334</v>
+        <v>38.317999999999998</v>
       </c>
       <c r="F16" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A16-1,0)</f>
-        <v>11460.433473050109</v>
+        <v>9466.8302103450078</v>
       </c>
       <c r="G16">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A16-1,0)</f>
@@ -38006,11 +38012,11 @@
       </c>
       <c r="E17" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A17-1,0)</f>
-        <v>33.847999999999999</v>
+        <v>40.51466666666667</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A17-1,0)</f>
-        <v>14865.368707161428</v>
+        <v>12419.675179358914</v>
       </c>
       <c r="G17">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A17-1,0)</f>
@@ -38039,11 +38045,11 @@
       </c>
       <c r="E18" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A18-1,0)</f>
-        <v>35.944666666666663</v>
+        <v>42.611333333333334</v>
       </c>
       <c r="F18" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A18-1,0)</f>
-        <v>19855.546488120632</v>
+        <v>16749.393745013065</v>
       </c>
       <c r="G18">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A18-1,0)</f>
@@ -38072,11 +38078,11 @@
       </c>
       <c r="E19" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A19-1,0)</f>
-        <v>37.941333333333333</v>
+        <v>44.608000000000004</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A19-1,0)</f>
-        <v>28394.073306156875</v>
+        <v>24151.093974175034</v>
       </c>
       <c r="G19">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A19-1,0)</f>
@@ -38105,11 +38111,11 @@
       </c>
       <c r="E20" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A20-1,0)</f>
-        <v>39.838000000000001</v>
+        <v>46.504666666666665</v>
       </c>
       <c r="F20" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A20-1,0)</f>
-        <v>44230.985491239517</v>
+        <v>37890.54145103717</v>
       </c>
       <c r="G20">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A20-1,0)</f>
@@ -38138,11 +38144,11 @@
       </c>
       <c r="E21" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A21-1,0)</f>
-        <v>41.634666666666668</v>
+        <v>48.301333333333332</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A21-1,0)</f>
-        <v>66029.686799461982</v>
+        <v>56916.461933417988</v>
       </c>
       <c r="G21">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A21-1,0)</f>
@@ -38171,11 +38177,11 @@
       </c>
       <c r="E22" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A22-1,0)</f>
-        <v>43</v>
+        <v>49.666666666666671</v>
       </c>
       <c r="F22" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A22-1,0)</f>
-        <v>89747.441860465115</v>
+        <v>77701.288590604017</v>
       </c>
       <c r="G22">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A22-1,0)</f>
@@ -38195,9 +38201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -39120,10 +39126,10 @@
         <v>120</v>
       </c>
       <c r="L21">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M21">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -39164,10 +39170,10 @@
         <v>130</v>
       </c>
       <c r="L22">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="M22">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N22">
         <v>3</v>
@@ -39208,10 +39214,10 @@
         <v>130</v>
       </c>
       <c r="L23">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="M23">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -39252,10 +39258,10 @@
         <v>140</v>
       </c>
       <c r="L24">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M24">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="N24">
         <v>5</v>
@@ -41441,7 +41447,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -41479,7 +41485,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -41499,7 +41505,7 @@
         <v>8.5717734625362922</v>
       </c>
       <c r="E2" s="1">
-        <f>(1-POWER(1-((A2+1)/100),2))*20+MAX(0,(A2-30)/3)</f>
+        <f>(1-POWER(1-((A2+1)/100),2))*20+MAX(0,(A2-10)/3)</f>
         <v>0.79200000000000159</v>
       </c>
       <c r="F2" s="1">
@@ -41536,12 +41542,12 @@
         <v>11.148698354997036</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E66" si="3">(1-POWER(1-((A3+1)/100),2))*20+MAX(0,(A3-30)/3)</f>
+        <f t="shared" ref="E3:E66" si="3">(1-POWER(1-((A3+1)/100),2))*20+MAX(0,(A3-10)/3)</f>
         <v>1.1820000000000008</v>
       </c>
       <c r="F3" s="1">
         <f>VLOOKUP(A3,Exp!Q3:R101,2)/E3</f>
-        <v>4.2301184433164103</v>
+        <v>5.076142131979692</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="4">FLOOR(A3*0.8,1)+1</f>
@@ -41553,7 +41559,7 @@
       </c>
       <c r="J3" s="1">
         <f>VLOOKUP(A3,Exp!M3:N101,2)/E3</f>
-        <v>6.7681895093062554</v>
+        <v>7.614213197969538</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -41590,7 +41596,7 @@
       </c>
       <c r="J4" s="1">
         <f>VLOOKUP(A4,Exp!M4:N102,2)/E4</f>
-        <v>7.015306122448977</v>
+        <v>7.6530612244897931</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -41615,7 +41621,7 @@
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(A5,Exp!Q5:R103,2)/E5</f>
-        <v>4.6153846153846141</v>
+        <v>5.1282051282051269</v>
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
@@ -41627,7 +41633,7 @@
       </c>
       <c r="J5" s="1">
         <f>VLOOKUP(A5,Exp!M5:N103,2)/E5</f>
-        <v>8.2051282051282026</v>
+        <v>8.7179487179487154</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -41652,7 +41658,7 @@
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP(A6,Exp!Q6:R104,2)/E6</f>
-        <v>6.0137457044673512</v>
+        <v>6.4432989690721616</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
@@ -41664,7 +41670,7 @@
       </c>
       <c r="J6" s="1">
         <f>VLOOKUP(A6,Exp!M6:N104,2)/E6</f>
-        <v>9.4501718213058368</v>
+        <v>9.879725085910648</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -41701,7 +41707,7 @@
       </c>
       <c r="J7" s="1">
         <f>VLOOKUP(A7,Exp!M7:N105,2)/E7</f>
-        <v>12.583271650629154</v>
+        <v>12.953367875647658</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -41800,7 +41806,7 @@
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(A10,Exp!Q10:R108,2)/E10</f>
-        <v>17.105263157894743</v>
+        <v>17.368421052631582</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
@@ -41837,7 +41843,7 @@
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(A11,Exp!Q11:R109,2)/E11</f>
-        <v>23.809523809523814</v>
+        <v>24.050024050024053</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
@@ -41849,7 +41855,7 @@
       </c>
       <c r="J11" s="1">
         <f>VLOOKUP(A11,Exp!M11:N109,2)/E11</f>
-        <v>59.163059163059174</v>
+        <v>59.403559403559413</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -41870,11 +41876,11 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
-        <v>4.5120000000000005</v>
+        <v>4.8453333333333335</v>
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP(A12,Exp!Q12:R110,2)/E12</f>
-        <v>29.920212765957444</v>
+        <v>28.06824435883324</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
@@ -41886,7 +41892,7 @@
       </c>
       <c r="J12" s="1">
         <f>VLOOKUP(A12,Exp!M12:N110,2)/E12</f>
-        <v>69.370567375886523</v>
+        <v>64.804623004953214</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -41907,11 +41913,11 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
-        <v>4.8620000000000001</v>
+        <v>5.5286666666666671</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(A13,Exp!Q13:R111,2)/E13</f>
-        <v>36.816125051419171</v>
+        <v>32.557578680815141</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
@@ -41923,7 +41929,7 @@
       </c>
       <c r="J13" s="1">
         <f>VLOOKUP(A13,Exp!M13:N111,2)/E13</f>
-        <v>80.008227067050598</v>
+        <v>70.541420475099471</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -41944,11 +41950,11 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="3"/>
-        <v>5.208000000000002</v>
+        <v>6.208000000000002</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(A14,Exp!Q14:R112,2)/E14</f>
-        <v>45.122887864823333</v>
+        <v>38.015463917525764</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
@@ -41960,7 +41966,7 @@
       </c>
       <c r="J14" s="1">
         <f>VLOOKUP(A14,Exp!M14:N112,2)/E14</f>
-        <v>91.397849462365556</v>
+        <v>76.83634020618554</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -41981,11 +41987,11 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="3"/>
-        <v>5.5500000000000016</v>
+        <v>6.8833333333333346</v>
       </c>
       <c r="F15" s="1">
         <f>VLOOKUP(A15,Exp!Q15:R113,2)/E15</f>
-        <v>56.036036036036023</v>
+        <v>45.326876513317181</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
@@ -41997,7 +42003,7 @@
       </c>
       <c r="J15" s="1">
         <f>VLOOKUP(A15,Exp!M15:N113,2)/E15</f>
-        <v>103.06306306306303</v>
+        <v>83.244552058111367</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -42018,11 +42024,11 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="3"/>
-        <v>5.8880000000000017</v>
+        <v>7.5546666666666686</v>
       </c>
       <c r="F16" s="1">
         <f>VLOOKUP(A16,Exp!Q16:R114,2)/E16</f>
-        <v>67.255434782608674</v>
+        <v>52.550300035298257</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
@@ -42034,7 +42040,7 @@
       </c>
       <c r="J16" s="1">
         <f>VLOOKUP(A16,Exp!M16:N114,2)/E16</f>
-        <v>115.48913043478258</v>
+        <v>90.142957995058225</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -42055,11 +42061,11 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="3"/>
-        <v>6.2220000000000013</v>
+        <v>8.2220000000000013</v>
       </c>
       <c r="F17" s="1">
         <f>VLOOKUP(A17,Exp!Q17:R115,2)/E17</f>
-        <v>79.556412729026022</v>
+        <v>60.325954755533921</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
@@ -42071,7 +42077,7 @@
       </c>
       <c r="J17" s="1">
         <f>VLOOKUP(A17,Exp!M17:N115,2)/E17</f>
-        <v>128.09386049501765</v>
+        <v>97.056677207492072</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -42092,11 +42098,11 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="3"/>
-        <v>6.5519999999999978</v>
+        <v>8.8853333333333318</v>
       </c>
       <c r="F18" s="1">
         <f>VLOOKUP(A18,Exp!Q18:R116,2)/E18</f>
-        <v>93.559218559218593</v>
+        <v>69.102641056422584</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
@@ -42108,7 +42114,7 @@
       </c>
       <c r="J18" s="1">
         <f>VLOOKUP(A18,Exp!M18:N116,2)/E18</f>
-        <v>141.17826617826623</v>
+        <v>104.21668667466989</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -42129,11 +42135,11 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="3"/>
-        <v>6.8779999999999974</v>
+        <v>9.5446666666666644</v>
       </c>
       <c r="F19" s="1">
         <f>VLOOKUP(A19,Exp!Q19:R117,2)/E19</f>
-        <v>110.35184646699626</v>
+        <v>79.62561989243558</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
@@ -42145,7 +42151,7 @@
       </c>
       <c r="J19" s="1">
         <f>VLOOKUP(A19,Exp!M19:N117,2)/E19</f>
-        <v>154.84152369874968</v>
+        <v>111.58063840189986</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -42166,11 +42172,11 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="3"/>
-        <v>7.1999999999999975</v>
+        <v>10.199999999999998</v>
       </c>
       <c r="F20" s="1">
         <f>VLOOKUP(A20,Exp!Q20:R118,2)/E20</f>
-        <v>127.91666666666671</v>
+        <v>90.490196078431396</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
@@ -42182,7 +42188,7 @@
       </c>
       <c r="J20" s="1">
         <f>VLOOKUP(A20,Exp!M20:N118,2)/E20</f>
-        <v>168.61111111111117</v>
+        <v>119.11764705882356</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -42203,11 +42209,11 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="3"/>
-        <v>7.517999999999998</v>
+        <v>10.851333333333331</v>
       </c>
       <c r="F21" s="1">
         <f>VLOOKUP(A21,Exp!Q21:R119,2)/E21</f>
-        <v>167.19872306464489</v>
+        <v>116.02260858880632</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
@@ -42219,7 +42225,7 @@
       </c>
       <c r="J21" s="1">
         <f>VLOOKUP(A21,Exp!M21:N119,2)/E21</f>
-        <v>332.93429103484976</v>
+        <v>230.84720771640971</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -42240,11 +42246,11 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>7.831999999999999</v>
+        <v>11.498666666666665</v>
       </c>
       <c r="F22" s="1">
         <f>VLOOKUP(A22,Exp!Q22:R120,2)/E22</f>
-        <v>191.01123595505621</v>
+        <v>130.27597402597405</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
@@ -42256,7 +42262,7 @@
       </c>
       <c r="J22" s="1">
         <f>VLOOKUP(A22,Exp!M22:N120,2)/E22</f>
-        <v>359.55056179775283</v>
+        <v>244.89795918367349</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -42277,11 +42283,11 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="3"/>
-        <v>8.1419999999999995</v>
+        <v>12.141999999999999</v>
       </c>
       <c r="F23" s="1">
         <f>VLOOKUP(A23,Exp!Q23:R121,2)/E23</f>
-        <v>218.00540407762222</v>
+        <v>146.35150716521167</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
@@ -42293,7 +42299,7 @@
       </c>
       <c r="J23" s="1">
         <f>VLOOKUP(A23,Exp!M23:N121,2)/E23</f>
-        <v>386.51436993367724</v>
+        <v>259.34771866249383</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -42314,11 +42320,11 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="3"/>
-        <v>8.4480000000000004</v>
+        <v>12.781333333333333</v>
       </c>
       <c r="F24" s="1">
         <f>VLOOKUP(A24,Exp!Q24:R122,2)/E24</f>
-        <v>246.56723484848484</v>
+        <v>163.20675985812645</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
@@ -42330,7 +42336,7 @@
       </c>
       <c r="J24" s="1">
         <f>VLOOKUP(A24,Exp!M24:N122,2)/E24</f>
-        <v>414.53598484848482</v>
+        <v>274.14980179428335</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
@@ -42351,11 +42357,11 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>8.75</v>
+        <v>13.416666666666668</v>
       </c>
       <c r="F25" s="1">
         <f>VLOOKUP(A25,Exp!Q25:R123,2)/E25</f>
-        <v>294.62857142857143</v>
+        <v>192.3726708074534</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
@@ -42367,7 +42373,7 @@
       </c>
       <c r="J25" s="1">
         <f>VLOOKUP(A25,Exp!M25:N123,2)/E25</f>
-        <v>442.85714285714283</v>
+        <v>288.96894409937886</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
@@ -42388,11 +42394,11 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="3"/>
-        <v>9.048</v>
+        <v>14.048</v>
       </c>
       <c r="F26" s="1">
         <f>VLOOKUP(A26,Exp!Q26:R124,2)/E26</f>
-        <v>330.4597701149425</v>
+        <v>212.98405466970388</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
@@ -42404,7 +42410,7 @@
       </c>
       <c r="J26" s="1">
         <f>VLOOKUP(A26,Exp!M26:N124,2)/E26</f>
-        <v>472.14854111405833</v>
+        <v>304.10022779043283</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
@@ -42425,11 +42431,11 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="3"/>
-        <v>9.3420000000000023</v>
+        <v>14.675333333333334</v>
       </c>
       <c r="F27" s="1">
         <f>VLOOKUP(A27,Exp!Q27:R125,2)/E27</f>
-        <v>369.94219653179181</v>
+        <v>235.63348930177619</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
@@ -42441,7 +42447,7 @@
       </c>
       <c r="J27" s="1">
         <f>VLOOKUP(A27,Exp!M27:N125,2)/E27</f>
-        <v>501.71269535431372</v>
+        <v>319.37945759324032</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -42462,11 +42468,11 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="3"/>
-        <v>9.6320000000000014</v>
+        <v>15.298666666666669</v>
       </c>
       <c r="F28" s="1">
         <f>VLOOKUP(A28,Exp!Q28:R126,2)/E28</f>
-        <v>411.5448504983388</v>
+        <v>259.30364301899942</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
@@ -42478,7 +42484,7 @@
       </c>
       <c r="J28" s="1">
         <f>VLOOKUP(A28,Exp!M28:N126,2)/E28</f>
-        <v>531.76910299003316</v>
+        <v>334.8657835105455</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -42499,11 +42505,11 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="3"/>
-        <v>9.9179999999999993</v>
+        <v>15.917999999999999</v>
       </c>
       <c r="F29" s="1">
         <f>VLOOKUP(A29,Exp!Q29:R127,2)/E29</f>
-        <v>471.26436781609198</v>
+        <v>293.81831888428195</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
@@ -42515,7 +42521,7 @@
       </c>
       <c r="J29" s="1">
         <f>VLOOKUP(A29,Exp!M29:N127,2)/E29</f>
-        <v>562.41177656785646</v>
+        <v>350.5465510742556</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
@@ -42536,11 +42542,11 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="3"/>
-        <v>10.199999999999999</v>
+        <v>16.533333333333331</v>
       </c>
       <c r="F30" s="1">
         <f>VLOOKUP(A30,Exp!Q30:R128,2)/E30</f>
-        <v>521.27450980392166</v>
+        <v>321.71370967741939</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
@@ -42552,7 +42558,7 @@
       </c>
       <c r="J30" s="1">
         <f>VLOOKUP(A30,Exp!M30:N128,2)/E30</f>
-        <v>593.82352941176475</v>
+        <v>366.35080645161293</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
@@ -42573,11 +42579,11 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="3"/>
-        <v>10.478000000000002</v>
+        <v>17.144666666666669</v>
       </c>
       <c r="F31" s="1">
         <f>VLOOKUP(A31,Exp!Q31:R129,2)/E31</f>
-        <v>644.58866195838891</v>
+        <v>394.17505929929609</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
@@ -42589,7 +42595,7 @@
       </c>
       <c r="J31" s="1">
         <f>VLOOKUP(A31,Exp!M31:N129,2)/E31</f>
-        <v>972.3229623974039</v>
+        <v>594.4122564840377</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
@@ -42610,11 +42616,11 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="3"/>
-        <v>11.085333333333336</v>
+        <v>17.752000000000002</v>
       </c>
       <c r="F32" s="1">
         <f>VLOOKUP(A32,Exp!Q32:R130,2)/E32</f>
-        <v>686.31224440702408</v>
+        <v>428.79675529517795</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
@@ -42626,7 +42632,7 @@
       </c>
       <c r="J32" s="1">
         <f>VLOOKUP(A32,Exp!M32:N130,2)/E32</f>
-        <v>992.03151311041586</v>
+        <v>619.64849031095082</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
@@ -42647,11 +42653,11 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="3"/>
-        <v>11.688666666666668</v>
+        <v>18.355333333333334</v>
       </c>
       <c r="F33" s="1">
         <f>VLOOKUP(A33,Exp!Q33:R131,2)/E33</f>
-        <v>743.11298693891513</v>
+        <v>473.43188174190971</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
@@ -42663,7 +42669,7 @@
       </c>
       <c r="J33" s="1">
         <f>VLOOKUP(A33,Exp!M33:N131,2)/E33</f>
-        <v>1012.6903553299492</v>
+        <v>645.04412886354555</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
@@ -42684,11 +42690,11 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="3"/>
-        <v>12.288000000000002</v>
+        <v>18.954666666666668</v>
       </c>
       <c r="F34" s="1">
         <f>VLOOKUP(A34,Exp!Q34:R132,2)/E34</f>
-        <v>790.93424479166652</v>
+        <v>512.90799099606079</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
@@ -42700,7 +42706,7 @@
       </c>
       <c r="J34" s="1">
         <f>VLOOKUP(A34,Exp!M34:N132,2)/E34</f>
-        <v>1034.4238281249998</v>
+        <v>670.70554305008432</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
@@ -42721,11 +42727,11 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="3"/>
-        <v>12.883333333333331</v>
+        <v>19.549999999999997</v>
       </c>
       <c r="F35" s="1">
         <f>VLOOKUP(A35,Exp!Q35:R133,2)/E35</f>
-        <v>898.13712807244519</v>
+        <v>592.07161125319703</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
@@ -42737,7 +42743,7 @@
       </c>
       <c r="J35" s="1">
         <f>VLOOKUP(A35,Exp!M35:N133,2)/E35</f>
-        <v>1056.7917205692111</v>
+        <v>696.57289002557559</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
@@ -42758,11 +42764,11 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="3"/>
-        <v>13.474666666666666</v>
+        <v>20.141333333333336</v>
       </c>
       <c r="F36" s="1">
         <f>VLOOKUP(A36,Exp!Q36:R134,2)/E36</f>
-        <v>954.68038788838317</v>
+        <v>638.93486032040244</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
@@ -42774,7 +42780,7 @@
       </c>
       <c r="J36" s="1">
         <f>VLOOKUP(A36,Exp!M36:N134,2)/E36</f>
-        <v>1080.3235701563428</v>
+        <v>722.89156626506019</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
@@ -42795,11 +42801,11 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" si="3"/>
-        <v>14.061999999999999</v>
+        <v>20.728666666666665</v>
       </c>
       <c r="F37" s="1">
         <f>VLOOKUP(A37,Exp!Q37:R135,2)/E37</f>
-        <v>1024.3208647418576</v>
+        <v>695.12430450583736</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
@@ -42811,7 +42817,7 @@
       </c>
       <c r="J37" s="1">
         <f>VLOOKUP(A37,Exp!M37:N135,2)/E37</f>
-        <v>1104.3948229270375</v>
+        <v>749.20400090052431</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
@@ -42832,11 +42838,11 @@
       </c>
       <c r="E38" s="1">
         <f t="shared" si="3"/>
-        <v>14.645333333333332</v>
+        <v>21.311999999999998</v>
       </c>
       <c r="F38" s="1">
         <f>VLOOKUP(A38,Exp!Q38:R136,2)/E38</f>
-        <v>1087.4453750910416</v>
+        <v>747.46621621621625</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
@@ -42848,7 +42854,7 @@
       </c>
       <c r="J38" s="1">
         <f>VLOOKUP(A38,Exp!M38:N136,2)/E38</f>
-        <v>1128.9603058994903</v>
+        <v>775.9478228228229</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
@@ -42869,11 +42875,11 @@
       </c>
       <c r="E39" s="1">
         <f t="shared" si="3"/>
-        <v>15.224666666666666</v>
+        <v>21.891333333333336</v>
       </c>
       <c r="F39" s="1">
         <f>VLOOKUP(A39,Exp!Q39:R137,2)/E39</f>
-        <v>1201.4712965801114</v>
+        <v>835.76453390991855</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
@@ -42885,7 +42891,7 @@
       </c>
       <c r="J39" s="1">
         <f>VLOOKUP(A39,Exp!M39:N137,2)/E39</f>
-        <v>1154.3109865569033</v>
+        <v>802.7834455035478</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
@@ -42906,11 +42912,11 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" si="3"/>
-        <v>15.8</v>
+        <v>22.466666666666669</v>
       </c>
       <c r="F40" s="1">
         <f>VLOOKUP(A40,Exp!Q40:R138,2)/E40</f>
-        <v>1273.6708860759493</v>
+        <v>895.994065281899</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
@@ -42922,7 +42928,7 @@
       </c>
       <c r="J40" s="1">
         <f>VLOOKUP(A40,Exp!M40:N138,2)/E40</f>
-        <v>1179.9367088607594</v>
+        <v>829.940652818991</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
@@ -42943,11 +42949,11 @@
       </c>
       <c r="E41" s="1">
         <f t="shared" si="3"/>
-        <v>16.371333333333332</v>
+        <v>23.037999999999997</v>
       </c>
       <c r="F41" s="1">
         <f>VLOOKUP(A41,Exp!Q41:R139,2)/E41</f>
-        <v>1489.3716659201043</v>
+        <v>1058.5554301588681</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
@@ -42959,7 +42965,7 @@
       </c>
       <c r="J41" s="1">
         <f>VLOOKUP(A41,Exp!M41:N139,2)/E41</f>
-        <v>1699.0063932890826</v>
+        <v>1207.3530688427816</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
@@ -42980,11 +42986,11 @@
       </c>
       <c r="E42" s="1">
         <f t="shared" si="3"/>
-        <v>16.938666666666666</v>
+        <v>23.605333333333334</v>
       </c>
       <c r="F42" s="1">
         <f>VLOOKUP(A42,Exp!Q42:R140,2)/E42</f>
-        <v>1574.9763853904283</v>
+        <v>1130.3801400813375</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
@@ -42996,7 +43002,7 @@
       </c>
       <c r="J42" s="1">
         <f>VLOOKUP(A42,Exp!M42:N140,2)/E42</f>
-        <v>1736.6183879093198</v>
+        <v>1246.3285133303207</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
@@ -43017,11 +43023,11 @@
       </c>
       <c r="E43" s="1">
         <f t="shared" si="3"/>
-        <v>17.501999999999999</v>
+        <v>24.168666666666667</v>
       </c>
       <c r="F43" s="1">
         <f>VLOOKUP(A43,Exp!Q43:R141,2)/E43</f>
-        <v>1705.8050508513313</v>
+        <v>1235.5253358342759</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
@@ -43033,7 +43039,7 @@
       </c>
       <c r="J43" s="1">
         <f>VLOOKUP(A43,Exp!M43:N141,2)/E43</f>
-        <v>1774.9400068563593</v>
+        <v>1285.5074062836179</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
@@ -43054,11 +43060,11 @@
       </c>
       <c r="E44" s="1">
         <f t="shared" si="3"/>
-        <v>18.06133333333333</v>
+        <v>24.727999999999998</v>
       </c>
       <c r="F44" s="1">
         <f>VLOOKUP(A44,Exp!Q44:R142,2)/E44</f>
-        <v>1801.5281263841728</v>
+        <v>1316.1193788417988</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
@@ -43070,7 +43076,7 @@
       </c>
       <c r="J44" s="1">
         <f>VLOOKUP(A44,Exp!M44:N142,2)/E44</f>
-        <v>1813.8749446331024</v>
+        <v>1325.0161759948237</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
@@ -43091,11 +43097,11 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="3"/>
-        <v>18.616666666666667</v>
+        <v>25.283333333333331</v>
       </c>
       <c r="F45" s="1">
         <f>VLOOKUP(A45,Exp!Q45:R143,2)/E45</f>
-        <v>2024.2614145031334</v>
+        <v>1490.7053394858274</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
@@ -43107,7 +43113,7 @@
       </c>
       <c r="J45" s="1">
         <f>VLOOKUP(A45,Exp!M45:N143,2)/E45</f>
-        <v>1853.5004476275737</v>
+        <v>1364.7725774555045</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
@@ -43128,11 +43134,11 @@
       </c>
       <c r="E46" s="1">
         <f t="shared" si="3"/>
-        <v>19.167999999999999</v>
+        <v>25.834666666666664</v>
       </c>
       <c r="F46" s="1">
         <f>VLOOKUP(A46,Exp!Q46:R144,2)/E46</f>
-        <v>2134.2341402337229</v>
+        <v>1583.7634186622629</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
@@ -43144,7 +43150,7 @@
       </c>
       <c r="J46" s="1">
         <f>VLOOKUP(A46,Exp!M46:N144,2)/E46</f>
-        <v>1893.6769616026711</v>
+        <v>1405.1661849710983</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
@@ -43165,11 +43171,11 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="3"/>
-        <v>19.715333333333334</v>
+        <v>26.381999999999998</v>
       </c>
       <c r="F47" s="1">
         <f>VLOOKUP(A47,Exp!Q47:R145,2)/E47</f>
-        <v>2285.2263889358537</v>
+        <v>1708.0585247517247</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
@@ -43181,7 +43187,7 @@
       </c>
       <c r="J47" s="1">
         <f>VLOOKUP(A47,Exp!M47:N145,2)/E47</f>
-        <v>1934.1798261928109</v>
+        <v>1445.56894852551</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
@@ -43202,11 +43208,11 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="3"/>
-        <v>20.258666666666667</v>
+        <v>26.925333333333334</v>
       </c>
       <c r="F48" s="1">
         <f>VLOOKUP(A48,Exp!Q48:R146,2)/E48</f>
-        <v>2406.2294326707911</v>
+        <v>1810.7111023076161</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
@@ -43218,7 +43224,7 @@
       </c>
       <c r="J48" s="1">
         <f>VLOOKUP(A48,Exp!M48:N146,2)/E48</f>
-        <v>1975.5001974463605</v>
+        <v>1486.3697137763691</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
@@ -43239,11 +43245,11 @@
       </c>
       <c r="E49" s="1">
         <f t="shared" si="3"/>
-        <v>20.798000000000002</v>
+        <v>27.464666666666666</v>
       </c>
       <c r="F49" s="1">
         <f>VLOOKUP(A49,Exp!Q49:R147,2)/E49</f>
-        <v>2641.8405615924607</v>
+        <v>2000.7160715586087</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
@@ -43255,7 +43261,7 @@
       </c>
       <c r="J49" s="1">
         <f>VLOOKUP(A49,Exp!M49:N147,2)/E49</f>
-        <v>2017.1170304837001</v>
+        <v>1527.4898657669248</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
@@ -43276,11 +43282,11 @@
       </c>
       <c r="E50" s="1">
         <f t="shared" si="3"/>
-        <v>21.333333333333332</v>
+        <v>28</v>
       </c>
       <c r="F50" s="1">
         <f>VLOOKUP(A50,Exp!Q50:R148,2)/E50</f>
-        <v>2777.859375</v>
+        <v>2116.6785714285716</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
@@ -43292,7 +43298,7 @@
       </c>
       <c r="J50" s="1">
         <f>VLOOKUP(A50,Exp!M50:N148,2)/E50</f>
-        <v>2059.265625</v>
+        <v>1568.9642857142858</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
@@ -43313,11 +43319,11 @@
       </c>
       <c r="E51" s="1">
         <f t="shared" si="3"/>
-        <v>21.864666666666668</v>
+        <v>28.531333333333336</v>
       </c>
       <c r="F51" s="1">
         <f>VLOOKUP(A51,Exp!Q51:R149,2)/E51</f>
-        <v>3176.5405372442601</v>
+        <v>2434.5514872537792</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
@@ -43329,7 +43335,7 @@
       </c>
       <c r="J51" s="1">
         <f>VLOOKUP(A51,Exp!M51:N149,2)/E51</f>
-        <v>2775.9398725493184</v>
+        <v>2127.3103254901043</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
@@ -43350,11 +43356,11 @@
       </c>
       <c r="E52" s="1">
         <f t="shared" si="3"/>
-        <v>22.392000000000003</v>
+        <v>29.058666666666667</v>
       </c>
       <c r="F52" s="1">
         <f>VLOOKUP(A52,Exp!Q52:R150,2)/E52</f>
-        <v>3333.6459449803497</v>
+        <v>2569.1474717812243</v>
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
@@ -43366,7 +43372,7 @@
       </c>
       <c r="J52" s="1">
         <f>VLOOKUP(A52,Exp!M52:N150,2)/E52</f>
-        <v>2832.7081100392993</v>
+        <v>2182.9976140222079</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
@@ -43387,11 +43393,11 @@
       </c>
       <c r="E53" s="1">
         <f t="shared" si="3"/>
-        <v>22.915333333333333</v>
+        <v>29.582000000000001</v>
       </c>
       <c r="F53" s="1">
         <f>VLOOKUP(A53,Exp!Q53:R151,2)/E53</f>
-        <v>3596.1074098856661</v>
+        <v>2785.8156987357174</v>
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
@@ -43403,7 +43409,7 @@
       </c>
       <c r="J53" s="1">
         <f>VLOOKUP(A53,Exp!M53:N151,2)/E53</f>
-        <v>2890.3354376981933</v>
+        <v>2238.9628828341561</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
@@ -43424,11 +43430,11 @@
       </c>
       <c r="E54" s="1">
         <f t="shared" si="3"/>
-        <v>23.434666666666669</v>
+        <v>30.101333333333336</v>
       </c>
       <c r="F54" s="1">
         <f>VLOOKUP(A54,Exp!Q54:R152,2)/E54</f>
-        <v>3769.6290395994533</v>
+        <v>2935.0194897236001</v>
       </c>
       <c r="G54">
         <f t="shared" si="4"/>
@@ -43440,7 +43446,7 @@
       </c>
       <c r="J54" s="1">
         <f>VLOOKUP(A54,Exp!M54:N152,2)/E54</f>
-        <v>2948.3670914883928</v>
+        <v>2295.5793763288448</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
@@ -43461,11 +43467,11 @@
       </c>
       <c r="E55" s="1">
         <f t="shared" si="3"/>
-        <v>23.950000000000003</v>
+        <v>30.616666666666667</v>
       </c>
       <c r="F55" s="1">
         <f>VLOOKUP(A55,Exp!Q55:R153,2)/E55</f>
-        <v>4184.1336116910225</v>
+        <v>3273.3478497550354</v>
       </c>
       <c r="G55">
         <f t="shared" si="4"/>
@@ -43477,7 +43483,7 @@
       </c>
       <c r="J55" s="1">
         <f>VLOOKUP(A55,Exp!M55:N153,2)/E55</f>
-        <v>3007.0146137787051</v>
+        <v>2352.4442025040826</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
@@ -43498,11 +43504,11 @@
       </c>
       <c r="E56" s="1">
         <f t="shared" si="3"/>
-        <v>24.461333333333336</v>
+        <v>31.128</v>
       </c>
       <c r="F56" s="1">
         <f>VLOOKUP(A56,Exp!Q56:R154,2)/E56</f>
-        <v>4380.0964787964676</v>
+        <v>3442.302749935749</v>
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
@@ -43514,7 +43520,7 @@
       </c>
       <c r="J56" s="1">
         <f>VLOOKUP(A56,Exp!M56:N154,2)/E56</f>
-        <v>3066.5131363785017</v>
+        <v>2409.7597018761244</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
@@ -43535,11 +43541,11 @@
       </c>
       <c r="E57" s="1">
         <f t="shared" si="3"/>
-        <v>24.968666666666664</v>
+        <v>31.635333333333335</v>
       </c>
       <c r="F57" s="1">
         <f>VLOOKUP(A57,Exp!Q57:R155,2)/E57</f>
-        <v>4673.8979520999656</v>
+        <v>3689.0712915937875</v>
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
@@ -43551,7 +43557,7 @@
       </c>
       <c r="J57" s="1">
         <f>VLOOKUP(A57,Exp!M57:N155,2)/E57</f>
-        <v>3126.3583691560093</v>
+        <v>2467.5257623332559</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
@@ -43572,11 +43578,11 @@
       </c>
       <c r="E58" s="1">
         <f t="shared" si="3"/>
-        <v>25.472000000000001</v>
+        <v>32.138666666666666</v>
       </c>
       <c r="F58" s="1">
         <f>VLOOKUP(A58,Exp!Q58:R156,2)/E58</f>
-        <v>4887.5235552763816</v>
+        <v>3873.9628277464321</v>
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
@@ -43588,7 +43594,7 @@
       </c>
       <c r="J58" s="1">
         <f>VLOOKUP(A58,Exp!M58:N156,2)/E58</f>
-        <v>3186.7933417085424</v>
+        <v>2525.7426153335546</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
@@ -43609,11 +43615,11 @@
       </c>
       <c r="E59" s="1">
         <f t="shared" si="3"/>
-        <v>25.971333333333334</v>
+        <v>32.637999999999998</v>
       </c>
       <c r="F59" s="1">
         <f>VLOOKUP(A59,Exp!Q59:R157,2)/E59</f>
-        <v>5324.6014836871418</v>
+        <v>4237.3613579263438</v>
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
@@ -43625,7 +43631,7 @@
       </c>
       <c r="J59" s="1">
         <f>VLOOKUP(A59,Exp!M59:N157,2)/E59</f>
-        <v>3247.6576738455219</v>
+        <v>2584.4414486181754</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
@@ -43646,11 +43652,11 @@
       </c>
       <c r="E60" s="1">
         <f t="shared" si="3"/>
-        <v>26.466666666666669</v>
+        <v>33.133333333333333</v>
       </c>
       <c r="F60" s="1">
         <f>VLOOKUP(A60,Exp!Q60:R158,2)/E60</f>
-        <v>5561.9773299748103</v>
+        <v>4443.1690140845067</v>
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
@@ -43662,7 +43668,7 @@
       </c>
       <c r="J60" s="1">
         <f>VLOOKUP(A60,Exp!M60:N158,2)/E60</f>
-        <v>3309.2569269521409</v>
+        <v>2643.4104627766601</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
@@ -43683,11 +43689,11 @@
       </c>
       <c r="E61" s="1">
         <f t="shared" si="3"/>
-        <v>26.957999999999998</v>
+        <v>33.62466666666667</v>
       </c>
       <c r="F61" s="1">
         <f>VLOOKUP(A61,Exp!Q61:R159,2)/E61</f>
-        <v>6246.1235996735668</v>
+        <v>5007.8712056625091</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
@@ -43699,7 +43705,7 @@
       </c>
       <c r="J61" s="1">
         <f>VLOOKUP(A61,Exp!M61:N159,2)/E61</f>
-        <v>4258.6245270420659</v>
+        <v>3414.279199793802</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
@@ -43720,11 +43726,11 @@
       </c>
       <c r="E62" s="1">
         <f t="shared" si="3"/>
-        <v>27.445333333333338</v>
+        <v>34.112000000000002</v>
       </c>
       <c r="F62" s="1">
         <f>VLOOKUP(A62,Exp!Q62:R160,2)/E62</f>
-        <v>6515.1695491643986</v>
+        <v>5242.2021575984991</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
@@ -43736,7 +43742,7 @@
       </c>
       <c r="J62" s="1">
         <f>VLOOKUP(A62,Exp!M62:N160,2)/E62</f>
-        <v>4337.677322191993</v>
+        <v>3490.1500938086301</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
@@ -43757,11 +43763,11 @@
       </c>
       <c r="E63" s="1">
         <f t="shared" si="3"/>
-        <v>27.928666666666665</v>
+        <v>34.595333333333329</v>
       </c>
       <c r="F63" s="1">
         <f>VLOOKUP(A63,Exp!Q63:R161,2)/E63</f>
-        <v>6993.6385553672453</v>
+        <v>5646.2817721079919</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
@@ -43773,7 +43779,7 @@
       </c>
       <c r="J63" s="1">
         <f>VLOOKUP(A63,Exp!M63:N161,2)/E63</f>
-        <v>4417.7189506600153</v>
+        <v>3566.4058736245743</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
@@ -43794,11 +43800,11 @@
       </c>
       <c r="E64" s="1">
         <f t="shared" si="3"/>
-        <v>28.408000000000001</v>
+        <v>35.074666666666673</v>
       </c>
       <c r="F64" s="1">
         <f>VLOOKUP(A64,Exp!Q64:R162,2)/E64</f>
-        <v>7288.2638693325816</v>
+        <v>5903.3205352391078</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
@@ -43810,7 +43816,7 @@
       </c>
       <c r="J64" s="1">
         <f>VLOOKUP(A64,Exp!M64:N162,2)/E64</f>
-        <v>4498.2047310616726</v>
+        <v>3643.3988443701051</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
@@ -43831,11 +43837,11 @@
       </c>
       <c r="E65" s="1">
         <f t="shared" si="3"/>
-        <v>28.883333333333333</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="F65" s="1">
         <f>VLOOKUP(A65,Exp!Q65:R163,2)/E65</f>
-        <v>8001.5002885170225</v>
+        <v>6501.181434599157</v>
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
@@ -43847,7 +43853,7 @@
       </c>
       <c r="J65" s="1">
         <f>VLOOKUP(A65,Exp!M65:N163,2)/E65</f>
-        <v>4579.422965954991</v>
+        <v>3720.8438818565405</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
@@ -43868,11 +43874,11 @@
       </c>
       <c r="E66" s="1">
         <f t="shared" si="3"/>
-        <v>29.354666666666667</v>
+        <v>36.021333333333331</v>
       </c>
       <c r="F66" s="1">
         <f>VLOOKUP(A66,Exp!Q66:R164,2)/E66</f>
-        <v>8329.7147529069771</v>
+        <v>6788.4216760438267</v>
       </c>
       <c r="G66">
         <f t="shared" si="4"/>
@@ -43884,7 +43890,7 @@
       </c>
       <c r="J66" s="1">
         <f>VLOOKUP(A66,Exp!M66:N164,2)/E66</f>
-        <v>4661.5756722383721</v>
+        <v>3798.8321735267991</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
@@ -43904,12 +43910,12 @@
         <v>477.00586025666547</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E100" si="10">(1-POWER(1-((A67+1)/100),2))*20+MAX(0,(A67-30)/3)</f>
-        <v>29.821999999999999</v>
+        <f t="shared" ref="E67:E100" si="10">(1-POWER(1-((A67+1)/100),2))*20+MAX(0,(A67-10)/3)</f>
+        <v>36.488666666666667</v>
       </c>
       <c r="F67" s="1">
         <f>VLOOKUP(A67,Exp!Q67:R165,2)/E67</f>
-        <v>8855.6099523841458</v>
+        <v>7237.9734346737796</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G100" si="11">FLOOR(A67*0.8,1)+1</f>
@@ -43921,7 +43927,7 @@
       </c>
       <c r="J67" s="1">
         <f>VLOOKUP(A67,Exp!M67:N165,2)/E67</f>
-        <v>4744.2492119911476</v>
+        <v>3877.4505325854602</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
@@ -43942,11 +43948,11 @@
       </c>
       <c r="E68" s="1">
         <f t="shared" si="10"/>
-        <v>30.285333333333334</v>
+        <v>36.951999999999998</v>
       </c>
       <c r="F68" s="1">
         <f>VLOOKUP(A68,Exp!Q68:R166,2)/E68</f>
-        <v>9211.3234128731183</v>
+        <v>7549.7943277765753</v>
       </c>
       <c r="G68">
         <f t="shared" si="11"/>
@@ -43958,7 +43964,7 @@
       </c>
       <c r="J68" s="1">
         <f>VLOOKUP(A68,Exp!M68:N166,2)/E68</f>
-        <v>4827.6173285198556</v>
+        <v>3956.6464602727865</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
@@ -43979,11 +43985,11 @@
       </c>
       <c r="E69" s="1">
         <f t="shared" si="10"/>
-        <v>30.744666666666667</v>
+        <v>37.411333333333332</v>
       </c>
       <c r="F69" s="1">
         <f>VLOOKUP(A69,Exp!Q69:R167,2)/E69</f>
-        <v>9961.8904091766599</v>
+        <v>8186.9041466935159</v>
       </c>
       <c r="G69">
         <f t="shared" si="11"/>
@@ -43995,7 +44001,7 @@
       </c>
       <c r="J69" s="1">
         <f>VLOOKUP(A69,Exp!M69:N167,2)/E69</f>
-        <v>4911.7136847583324</v>
+        <v>4036.4506299338882</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
@@ -44016,11 +44022,11 @@
       </c>
       <c r="E70" s="1">
         <f t="shared" si="10"/>
-        <v>31.2</v>
+        <v>37.866666666666667</v>
       </c>
       <c r="F70" s="1">
         <f>VLOOKUP(A70,Exp!Q70:R168,2)/E70</f>
-        <v>10352.98076923077</v>
+        <v>8530.6690140845076</v>
       </c>
       <c r="G70">
         <f t="shared" si="11"/>
@@ -44032,7 +44038,7 @@
       </c>
       <c r="J70" s="1">
         <f>VLOOKUP(A70,Exp!M70:N168,2)/E70</f>
-        <v>4996.3141025641025</v>
+        <v>4116.8397887323945</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
@@ -44053,11 +44059,11 @@
       </c>
       <c r="E71" s="1">
         <f t="shared" si="10"/>
-        <v>31.651333333333334</v>
+        <v>38.317999999999998</v>
       </c>
       <c r="F71" s="1">
         <f>VLOOKUP(A71,Exp!Q71:R169,2)/E71</f>
-        <v>11460.433473050109</v>
+        <v>9466.8302103450078</v>
       </c>
       <c r="G71">
         <f t="shared" si="11"/>
@@ -44069,7 +44075,7 @@
       </c>
       <c r="J71" s="1">
         <f>VLOOKUP(A71,Exp!M71:N169,2)/E71</f>
-        <v>6214.0194199296502</v>
+        <v>5132.8879377838093</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
@@ -44090,11 +44096,11 @@
       </c>
       <c r="E72" s="1">
         <f t="shared" si="10"/>
-        <v>32.098666666666666</v>
+        <v>38.765333333333331</v>
       </c>
       <c r="F72" s="1">
         <f>VLOOKUP(A72,Exp!Q72:R170,2)/E72</f>
-        <v>11897.628146548142</v>
+        <v>9851.9467565522464</v>
       </c>
       <c r="G72">
         <f t="shared" si="11"/>
@@ -44106,7 +44112,7 @@
       </c>
       <c r="J72" s="1">
         <f>VLOOKUP(A72,Exp!M72:N170,2)/E72</f>
-        <v>6319.2344437982883</v>
+        <v>5232.6907202311349</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
@@ -44127,11 +44133,11 @@
       </c>
       <c r="E73" s="1">
         <f t="shared" si="10"/>
-        <v>32.542000000000002</v>
+        <v>39.208666666666673</v>
       </c>
       <c r="F73" s="1">
         <f>VLOOKUP(A73,Exp!Q73:R171,2)/E73</f>
-        <v>12710.097719869706</v>
+        <v>10549.198306496861</v>
       </c>
       <c r="G73">
         <f t="shared" si="11"/>
@@ -44143,7 +44149,7 @@
       </c>
       <c r="J73" s="1">
         <f>VLOOKUP(A73,Exp!M73:N171,2)/E73</f>
-        <v>6425.603835043943</v>
+        <v>5333.0556169554338</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
@@ -44164,11 +44170,11 @@
       </c>
       <c r="E74" s="1">
         <f t="shared" si="10"/>
-        <v>32.981333333333332</v>
+        <v>39.647999999999996</v>
       </c>
       <c r="F74" s="1">
         <f>VLOOKUP(A74,Exp!Q74:R172,2)/E74</f>
-        <v>13185.337160413972</v>
+        <v>10968.724778046813</v>
       </c>
       <c r="G74">
         <f t="shared" si="11"/>
@@ -44180,7 +44186,7 @@
       </c>
       <c r="J74" s="1">
         <f>VLOOKUP(A74,Exp!M74:N172,2)/E74</f>
-        <v>6532.6043014230272</v>
+        <v>5434.3724778046817</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
@@ -44201,11 +44207,11 @@
       </c>
       <c r="E75" s="1">
         <f t="shared" si="10"/>
-        <v>33.416666666666664</v>
+        <v>40.083333333333329</v>
       </c>
       <c r="F75" s="1">
         <f>VLOOKUP(A75,Exp!Q75:R173,2)/E75</f>
-        <v>14341.286783042395</v>
+        <v>11956.365904365906</v>
       </c>
       <c r="G75">
         <f t="shared" si="11"/>
@@ -44217,7 +44223,7 @@
       </c>
       <c r="J75" s="1">
         <f>VLOOKUP(A75,Exp!M75:N173,2)/E75</f>
-        <v>6640.7281795511226</v>
+        <v>5536.2411642411653</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
@@ -44238,11 +44244,11 @@
       </c>
       <c r="E76" s="1">
         <f t="shared" si="10"/>
-        <v>33.847999999999999</v>
+        <v>40.51466666666667</v>
       </c>
       <c r="F76" s="1">
         <f>VLOOKUP(A76,Exp!Q76:R174,2)/E76</f>
-        <v>14865.368707161428</v>
+        <v>12419.675179358914</v>
       </c>
       <c r="G76">
         <f t="shared" si="11"/>
@@ -44254,7 +44260,7 @@
       </c>
       <c r="J76" s="1">
         <f>VLOOKUP(A76,Exp!M76:N174,2)/E76</f>
-        <v>6749.7636492554957</v>
+        <v>5639.0936615546625</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
@@ -44275,11 +44281,11 @@
       </c>
       <c r="E77" s="1">
         <f t="shared" si="10"/>
-        <v>34.275333333333336</v>
+        <v>40.942</v>
       </c>
       <c r="F77" s="1">
         <f>VLOOKUP(A77,Exp!Q77:R175,2)/E77</f>
-        <v>15747.738898722111</v>
+        <v>13183.674466318205</v>
       </c>
       <c r="G77">
         <f t="shared" si="11"/>
@@ -44291,7 +44297,7 @@
       </c>
       <c r="J77" s="1">
         <f>VLOOKUP(A77,Exp!M77:N175,2)/E77</f>
-        <v>6859.4810651002663</v>
+        <v>5742.5382248058231</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
@@ -44312,11 +44318,11 @@
       </c>
       <c r="E78" s="1">
         <f t="shared" si="10"/>
-        <v>34.698666666666668</v>
+        <v>41.365333333333332</v>
       </c>
       <c r="F78" s="1">
         <f>VLOOKUP(A78,Exp!Q78:R176,2)/E78</f>
-        <v>16312.471180448816</v>
+        <v>13684.018824136154</v>
       </c>
       <c r="G78">
         <f t="shared" si="11"/>
@@ -44328,7 +44334,7 @@
       </c>
       <c r="J78" s="1">
         <f>VLOOKUP(A78,Exp!M78:N176,2)/E78</f>
-        <v>6970.0660928373809</v>
+        <v>5846.9249613202683</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
@@ -44349,11 +44355,11 @@
       </c>
       <c r="E79" s="1">
         <f t="shared" si="10"/>
-        <v>35.117999999999995</v>
+        <v>41.784666666666666</v>
       </c>
       <c r="F79" s="1">
         <f>VLOOKUP(A79,Exp!Q79:R177,2)/E79</f>
-        <v>17527.250982402191</v>
+        <v>14731.121464013913</v>
       </c>
       <c r="G79">
         <f t="shared" si="11"/>
@@ -44365,7 +44371,7 @@
       </c>
       <c r="J79" s="1">
         <f>VLOOKUP(A79,Exp!M79:N177,2)/E79</f>
-        <v>7081.8383734836843</v>
+        <v>5951.9440943248719</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
@@ -44386,11 +44392,11 @@
       </c>
       <c r="E80" s="1">
         <f t="shared" si="10"/>
-        <v>35.533333333333331</v>
+        <v>42.2</v>
       </c>
       <c r="F80" s="1">
         <f>VLOOKUP(A80,Exp!Q80:R178,2)/E80</f>
-        <v>18143.555347091933</v>
+        <v>15277.654028436018</v>
       </c>
       <c r="G80">
         <f t="shared" si="11"/>
@@ -44402,7 +44408,7 @@
       </c>
       <c r="J80" s="1">
         <f>VLOOKUP(A80,Exp!M80:N178,2)/E80</f>
-        <v>7194.2589118198875</v>
+        <v>6057.7251184834122</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
@@ -44423,11 +44429,11 @@
       </c>
       <c r="E81" s="1">
         <f t="shared" si="10"/>
-        <v>35.944666666666663</v>
+        <v>42.611333333333334</v>
       </c>
       <c r="F81" s="1">
         <f>VLOOKUP(A81,Exp!Q81:R179,2)/E81</f>
-        <v>19855.546488120632</v>
+        <v>16749.393745013065</v>
       </c>
       <c r="G81">
         <f t="shared" si="11"/>
@@ -44439,7 +44445,7 @@
       </c>
       <c r="J81" s="1">
         <f>VLOOKUP(A81,Exp!M81:N179,2)/E81</f>
-        <v>8717.3433239979986</v>
+        <v>7353.7008933460584</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
@@ -44460,11 +44466,11 @@
       </c>
       <c r="E82" s="1">
         <f t="shared" si="10"/>
-        <v>36.352000000000004</v>
+        <v>43.018666666666668</v>
       </c>
       <c r="F82" s="1">
         <f>VLOOKUP(A82,Exp!Q82:R180,2)/E82</f>
-        <v>21033.395686619715</v>
+        <v>17774.35376890652</v>
       </c>
       <c r="G82">
         <f t="shared" si="11"/>
@@ -44476,7 +44482,7 @@
       </c>
       <c r="J82" s="1">
         <f>VLOOKUP(A82,Exp!M82:N180,2)/E82</f>
-        <v>9739.1615316901407</v>
+        <v>8229.8692040664519</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
@@ -44497,11 +44503,11 @@
       </c>
       <c r="E83" s="1">
         <f t="shared" si="10"/>
-        <v>36.755333333333333</v>
+        <v>43.421999999999997</v>
       </c>
       <c r="F83" s="1">
         <f>VLOOKUP(A83,Exp!Q83:R181,2)/E83</f>
-        <v>22860.818384633523</v>
+        <v>19351.227488369954</v>
       </c>
       <c r="G83">
         <f t="shared" si="11"/>
@@ -44513,7 +44519,7 @@
       </c>
       <c r="J83" s="1">
         <f>VLOOKUP(A83,Exp!M83:N181,2)/E83</f>
-        <v>10789.590626303665</v>
+        <v>9133.043157846254</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
@@ -44534,11 +44540,11 @@
       </c>
       <c r="E84" s="1">
         <f t="shared" si="10"/>
-        <v>37.154666666666671</v>
+        <v>43.821333333333328</v>
       </c>
       <c r="F84" s="1">
         <f>VLOOKUP(A84,Exp!Q84:R182,2)/E84</f>
-        <v>24145.984353692671</v>
+        <v>20472.950769792493</v>
       </c>
       <c r="G84">
         <f t="shared" si="11"/>
@@ -44550,7 +44556,7 @@
       </c>
       <c r="J84" s="1">
         <f>VLOOKUP(A84,Exp!M84:N182,2)/E84</f>
-        <v>11868.845546544175</v>
+        <v>10063.203614677785</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
@@ -44571,11 +44577,11 @@
       </c>
       <c r="E85" s="1">
         <f t="shared" si="10"/>
-        <v>37.549999999999997</v>
+        <v>44.216666666666669</v>
       </c>
       <c r="F85" s="1">
         <f>VLOOKUP(A85,Exp!Q85:R183,2)/E85</f>
-        <v>26509.853528628497</v>
+        <v>22513.185073501696</v>
       </c>
       <c r="G85">
         <f t="shared" si="11"/>
@@ -44587,7 +44593,7 @@
       </c>
       <c r="J85" s="1">
         <f>VLOOKUP(A85,Exp!M85:N183,2)/E85</f>
-        <v>12977.57656458056</v>
+        <v>11020.912174896343</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
@@ -44608,11 +44614,11 @@
       </c>
       <c r="E86" s="1">
         <f t="shared" si="10"/>
-        <v>37.941333333333333</v>
+        <v>44.608000000000004</v>
       </c>
       <c r="F86" s="1">
         <f>VLOOKUP(A86,Exp!Q86:R184,2)/E86</f>
-        <v>28394.073306156875</v>
+        <v>24151.093974175034</v>
       </c>
       <c r="G86">
         <f t="shared" si="11"/>
@@ -44624,7 +44630,7 @@
       </c>
       <c r="J86" s="1">
         <f>VLOOKUP(A86,Exp!M86:N184,2)/E86</f>
-        <v>14115.792802923812</v>
+        <v>12006.187230989955</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
@@ -44645,11 +44651,11 @@
       </c>
       <c r="E87" s="1">
         <f t="shared" si="10"/>
-        <v>38.328666666666663</v>
+        <v>44.995333333333335</v>
       </c>
       <c r="F87" s="1">
         <f>VLOOKUP(A87,Exp!Q87:R185,2)/E87</f>
-        <v>30933.009235906982</v>
+        <v>26350.15483087135</v>
       </c>
       <c r="G87">
         <f t="shared" si="11"/>
@@ -44661,7 +44667,7 @@
       </c>
       <c r="J87" s="1">
         <f>VLOOKUP(A87,Exp!M87:N185,2)/E87</f>
-        <v>15283.938914302613</v>
+        <v>13019.416828411835</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
@@ -44682,11 +44688,11 @@
       </c>
       <c r="E88" s="1">
         <f t="shared" si="10"/>
-        <v>38.712000000000003</v>
+        <v>45.378666666666668</v>
       </c>
       <c r="F88" s="1">
         <f>VLOOKUP(A88,Exp!Q88:R186,2)/E88</f>
-        <v>32985.22421988014</v>
+        <v>28139.654463183873</v>
       </c>
       <c r="G88">
         <f t="shared" si="11"/>
@@ -44698,7 +44704,7 @@
       </c>
       <c r="J88" s="1">
         <f>VLOOKUP(A88,Exp!M88:N186,2)/E88</f>
-        <v>16482.69270510436</v>
+        <v>14061.188811188811</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
@@ -44719,11 +44725,11 @@
       </c>
       <c r="E89" s="1">
         <f t="shared" si="10"/>
-        <v>39.091333333333331</v>
+        <v>45.757999999999996</v>
       </c>
       <c r="F89" s="1">
         <f>VLOOKUP(A89,Exp!Q89:R187,2)/E89</f>
-        <v>36106.724423145795</v>
+        <v>30846.474933344991</v>
       </c>
       <c r="G89">
         <f t="shared" si="11"/>
@@ -44735,7 +44741,7 @@
       </c>
       <c r="J89" s="1">
         <f>VLOOKUP(A89,Exp!M89:N187,2)/E89</f>
-        <v>17712.084520012962</v>
+        <v>15131.539840027976</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
@@ -44756,11 +44762,11 @@
       </c>
       <c r="E90" s="1">
         <f t="shared" si="10"/>
-        <v>39.466666666666669</v>
+        <v>46.133333333333333</v>
       </c>
       <c r="F90" s="1">
         <f>VLOOKUP(A90,Exp!Q90:R188,2)/E90</f>
-        <v>38802.592905405407</v>
+        <v>33195.780346820808</v>
       </c>
       <c r="G90">
         <f t="shared" si="11"/>
@@ -44772,7 +44778,7 @@
       </c>
       <c r="J90" s="1">
         <f>VLOOKUP(A90,Exp!M90:N188,2)/E90</f>
-        <v>18972.51689189189</v>
+        <v>16230.823699421966</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
@@ -44793,11 +44799,11 @@
       </c>
       <c r="E91" s="1">
         <f t="shared" si="10"/>
-        <v>39.838000000000001</v>
+        <v>46.504666666666665</v>
       </c>
       <c r="F91" s="1">
         <f>VLOOKUP(A91,Exp!Q91:R189,2)/E91</f>
-        <v>44230.985491239517</v>
+        <v>37890.54145103717</v>
       </c>
       <c r="G91">
         <f t="shared" si="11"/>
@@ -44809,7 +44815,7 @@
       </c>
       <c r="J91" s="1">
         <f>VLOOKUP(A91,Exp!M91:N189,2)/E91</f>
-        <v>23709.874993724585</v>
+        <v>20310.95087231389</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
@@ -44830,11 +44836,11 @@
       </c>
       <c r="E92" s="1">
         <f t="shared" si="10"/>
-        <v>40.205333333333328</v>
+        <v>46.872</v>
       </c>
       <c r="F92" s="1">
         <f>VLOOKUP(A92,Exp!Q92:R190,2)/E92</f>
-        <v>47319.841480400617</v>
+        <v>40589.84041645332</v>
       </c>
       <c r="G92">
         <f t="shared" si="11"/>
@@ -44846,7 +44852,7 @@
       </c>
       <c r="J92" s="1">
         <f>VLOOKUP(A92,Exp!M92:N190,2)/E92</f>
-        <v>25258.713603502027</v>
+        <v>21666.133299197816</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
@@ -44867,11 +44873,11 @@
       </c>
       <c r="E93" s="1">
         <f t="shared" si="10"/>
-        <v>40.568666666666672</v>
+        <v>47.23533333333333</v>
       </c>
       <c r="F93" s="1">
         <f>VLOOKUP(A93,Exp!Q93:R191,2)/E93</f>
-        <v>51482.219446863746</v>
+        <v>44216.412854783848</v>
       </c>
       <c r="G93">
         <f t="shared" si="11"/>
@@ -44883,7 +44889,7 @@
       </c>
       <c r="J93" s="1">
         <f>VLOOKUP(A93,Exp!M93:N191,2)/E93</f>
-        <v>26845.299327888515</v>
+        <v>23056.426686237704</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
@@ -44904,11 +44910,11 @@
       </c>
       <c r="E94" s="1">
         <f t="shared" si="10"/>
-        <v>40.927999999999997</v>
+        <v>47.594666666666669</v>
       </c>
       <c r="F94" s="1">
         <f>VLOOKUP(A94,Exp!Q94:R192,2)/E94</f>
-        <v>55279.466379984369</v>
+        <v>47537.006947557151</v>
       </c>
       <c r="G94">
         <f t="shared" si="11"/>
@@ -44920,7 +44926,7 @@
       </c>
       <c r="J94" s="1">
         <f>VLOOKUP(A94,Exp!M94:N192,2)/E94</f>
-        <v>28469.947224394058</v>
+        <v>24482.343960107573</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
@@ -44941,11 +44947,11 @@
       </c>
       <c r="E95" s="1">
         <f t="shared" si="10"/>
-        <v>41.283333333333331</v>
+        <v>47.95</v>
       </c>
       <c r="F95" s="1">
         <f>VLOOKUP(A95,Exp!Q95:R193,2)/E95</f>
-        <v>61759.232943076306</v>
+        <v>53172.888425443169</v>
       </c>
       <c r="G95">
         <f t="shared" si="11"/>
@@ -44957,7 +44963,7 @@
       </c>
       <c r="J95" s="1">
         <f>VLOOKUP(A95,Exp!M95:N193,2)/E95</f>
-        <v>30133.467904723457</v>
+        <v>25943.899895724713</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
@@ -44978,11 +44984,11 @@
       </c>
       <c r="E96" s="1">
         <f t="shared" si="10"/>
-        <v>41.634666666666668</v>
+        <v>48.301333333333332</v>
       </c>
       <c r="F96" s="1">
         <f>VLOOKUP(A96,Exp!Q96:R194,2)/E96</f>
-        <v>66029.686799461982</v>
+        <v>56916.461933417988</v>
       </c>
       <c r="G96">
         <f t="shared" si="11"/>
@@ -44994,7 +45000,7 @@
       </c>
       <c r="J96" s="1">
         <f>VLOOKUP(A96,Exp!M96:N194,2)/E96</f>
-        <v>31835.921988086851</v>
+        <v>27441.851156627836</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
@@ -45015,11 +45021,11 @@
       </c>
       <c r="E97" s="1">
         <f t="shared" si="10"/>
-        <v>41.981999999999999</v>
+        <v>48.648666666666671</v>
       </c>
       <c r="F97" s="1">
         <f>VLOOKUP(A97,Exp!Q97:R195,2)/E97</f>
-        <v>71384.998332618736</v>
+        <v>61603.024406287252</v>
       </c>
       <c r="G97">
         <f t="shared" si="11"/>
@@ -45031,7 +45037,7 @@
       </c>
       <c r="J97" s="1">
         <f>VLOOKUP(A97,Exp!M97:N195,2)/E97</f>
-        <v>33577.866704778236</v>
+        <v>28976.703712331957</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
@@ -45052,11 +45058,11 @@
       </c>
       <c r="E98" s="1">
         <f t="shared" si="10"/>
-        <v>42.325333333333333</v>
+        <v>48.992000000000004</v>
       </c>
       <c r="F98" s="1">
         <f>VLOOKUP(A98,Exp!Q98:R196,2)/E98</f>
-        <v>76437.177104334682</v>
+        <v>66036.475342913123</v>
       </c>
       <c r="G98">
         <f t="shared" si="11"/>
@@ -45068,7 +45074,7 @@
       </c>
       <c r="J98" s="1">
         <f>VLOOKUP(A98,Exp!M98:N196,2)/E98</f>
-        <v>35360.217678931454</v>
+        <v>30548.518125408227</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
@@ -45089,11 +45095,11 @@
       </c>
       <c r="E99" s="1">
         <f t="shared" si="10"/>
-        <v>42.664666666666669</v>
+        <v>49.331333333333333</v>
       </c>
       <c r="F99" s="1">
         <f>VLOOKUP(A99,Exp!Q99:R197,2)/E99</f>
-        <v>84134.912574026908</v>
+        <v>72765.132370231222</v>
       </c>
       <c r="G99">
         <f t="shared" si="11"/>
@@ -45105,7 +45111,7 @@
       </c>
       <c r="J99" s="1">
         <f>VLOOKUP(A99,Exp!M99:N197,2)/E99</f>
-        <v>37182.969514195975</v>
+        <v>32158.040190818545</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.4">
@@ -45126,11 +45132,11 @@
       </c>
       <c r="E100" s="1">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>49.666666666666671</v>
       </c>
       <c r="F100" s="1">
         <f>VLOOKUP(A100,Exp!Q100:R198,2)/E100</f>
-        <v>89747.441860465115</v>
+        <v>77701.288590604017</v>
       </c>
       <c r="G100">
         <f t="shared" si="11"/>
@@ -45142,7 +45148,7 @@
       </c>
       <c r="J100" s="1">
         <f>VLOOKUP(A100,Exp!M100:N198,2)/E100</f>
-        <v>39046.511627906977</v>
+        <v>33805.590604026846</v>
       </c>
     </row>
   </sheetData>
@@ -45155,8 +45161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9631E2C1-4055-4D2E-B48B-FCFAFC268422}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -45338,7 +45344,7 @@
   <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -45353,6 +45359,9 @@
       <c r="B1" t="s">
         <v>16</v>
       </c>
+      <c r="E1" t="s">
+        <v>1111</v>
+      </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
@@ -45377,7 +45386,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>ROUNDDOWN(A2*A2*MAX(1,A2/10 +A2/10)*MAX(1,(A2-70)/10),0)+5</f>
+        <f>ROUNDDOWN(A2*A2*MAX(1,A2/10 +A2/10)*MAX(1,(A2-80)/10),0)+5</f>
         <v>6</v>
       </c>
       <c r="C2">
@@ -45441,8 +45450,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">ROUNDDOWN(A3*A3*MAX(1,A3/10 +A3/10)*MAX(1,(A3-70)/10),0)+5</f>
-        <v>9</v>
+        <f t="shared" ref="B3:B66" si="0">ROUNDDOWN(A3*A3*MAX(1,A3/10 +A3/10)*MAX(1,(A3-70)/10),0)+6</f>
+        <v>10</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="1">A3/30+0.5</f>
@@ -45450,7 +45459,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="2">ROUND(B3/C3,0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="3">1+((ROUNDDOWN(A3/10,0))^1.4)</f>
@@ -45458,15 +45467,15 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="4">ROUND(D3*E3,0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="5">FLOOR(B3*(100-A3)/100+F3*A3/100,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="6">G3+8</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="7">((A3/2)*(A3/2))+A3*ROUND(A3/10,0)+7+A3</f>
@@ -45481,7 +45490,7 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="9">FLOOR(MAX(F3,D3)/2,1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -45494,7 +45503,7 @@
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R66" si="10">FLOOR(H3/3,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T3">
         <v>5</v>
@@ -45506,7 +45515,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
@@ -45514,7 +45523,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
@@ -45522,15 +45531,15 @@
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <f t="shared" si="7"/>
@@ -45545,7 +45554,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -45570,7 +45579,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -45578,7 +45587,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
@@ -45586,15 +45595,15 @@
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <f t="shared" si="7"/>
@@ -45609,7 +45618,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -45622,7 +45631,7 @@
       </c>
       <c r="R5">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>9</v>
@@ -45634,7 +45643,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -45642,7 +45651,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
@@ -45650,15 +45659,15 @@
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <f>G6+H2</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <f t="shared" si="7"/>
@@ -45673,7 +45682,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -45686,7 +45695,7 @@
       </c>
       <c r="R6">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T6">
         <v>14</v>
@@ -45698,7 +45707,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -45706,7 +45715,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
@@ -45714,15 +45723,15 @@
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H70" si="11">G7+H3</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J7">
         <f t="shared" si="7"/>
@@ -45737,7 +45746,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -45762,7 +45771,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -45770,7 +45779,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
@@ -45778,15 +45787,15 @@
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8">
         <f t="shared" si="11"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J8">
         <f t="shared" si="7"/>
@@ -45826,7 +45835,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -45834,7 +45843,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
@@ -45842,15 +45851,15 @@
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H9">
         <f t="shared" si="11"/>
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
@@ -45890,7 +45899,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -45898,7 +45907,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
@@ -45906,15 +45915,15 @@
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10">
         <f t="shared" si="11"/>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J10">
         <f t="shared" si="7"/>
@@ -45942,7 +45951,7 @@
       </c>
       <c r="R10">
         <f t="shared" si="10"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T10">
         <v>65</v>
@@ -45954,7 +45963,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -45962,7 +45971,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
@@ -45970,15 +45979,15 @@
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H11">
         <f t="shared" si="11"/>
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J11">
         <f t="shared" si="7"/>
@@ -45993,7 +46002,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="9"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O11">
         <v>10</v>
@@ -46006,7 +46015,7 @@
       </c>
       <c r="R11">
         <f t="shared" si="10"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T11">
         <v>99</v>
@@ -46018,7 +46027,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -46026,7 +46035,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
@@ -46034,15 +46043,15 @@
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H12">
         <f t="shared" si="11"/>
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J12">
         <f t="shared" si="7"/>
@@ -46057,7 +46066,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="9"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O12">
         <v>11</v>
@@ -46070,7 +46079,7 @@
       </c>
       <c r="R12">
         <f t="shared" si="10"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T12">
         <v>135</v>
@@ -46082,7 +46091,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -46090,7 +46099,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
@@ -46098,15 +46107,15 @@
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H13">
         <f t="shared" si="11"/>
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="J13">
         <f t="shared" si="7"/>
@@ -46121,7 +46130,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="9"/>
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O13">
         <v>12</v>
@@ -46134,7 +46143,7 @@
       </c>
       <c r="R13">
         <f t="shared" si="10"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T13">
         <v>179</v>
@@ -46146,7 +46155,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -46154,7 +46163,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
@@ -46162,15 +46171,15 @@
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H14">
         <f t="shared" si="11"/>
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="J14">
         <f t="shared" si="7"/>
@@ -46185,7 +46194,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="9"/>
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O14">
         <v>13</v>
@@ -46198,7 +46207,7 @@
       </c>
       <c r="R14">
         <f t="shared" si="10"/>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T14">
         <v>235</v>
@@ -46210,7 +46219,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -46218,7 +46227,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
@@ -46226,15 +46235,15 @@
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H15">
         <f t="shared" si="11"/>
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="J15">
         <f t="shared" si="7"/>
@@ -46249,7 +46258,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="9"/>
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O15">
         <v>14</v>
@@ -46262,7 +46271,7 @@
       </c>
       <c r="R15">
         <f t="shared" si="10"/>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T15">
         <v>311</v>
@@ -46274,7 +46283,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -46282,7 +46291,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
@@ -46290,15 +46299,15 @@
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H16">
         <f t="shared" si="11"/>
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="J16">
         <f t="shared" si="7"/>
@@ -46313,7 +46322,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="9"/>
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O16">
         <v>15</v>
@@ -46326,7 +46335,7 @@
       </c>
       <c r="R16">
         <f t="shared" si="10"/>
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T16">
         <v>396</v>
@@ -46338,7 +46347,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -46346,7 +46355,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
@@ -46354,15 +46363,15 @@
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H17">
         <f t="shared" si="11"/>
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="J17">
         <f t="shared" si="7"/>
@@ -46377,7 +46386,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="9"/>
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="O17">
         <v>16</v>
@@ -46390,7 +46399,7 @@
       </c>
       <c r="R17">
         <f t="shared" si="10"/>
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T17">
         <v>495</v>
@@ -46402,7 +46411,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -46410,7 +46419,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
@@ -46418,15 +46427,15 @@
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H18">
         <f t="shared" si="11"/>
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="J18">
         <f t="shared" si="7"/>
@@ -46441,7 +46450,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="9"/>
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="O18">
         <v>17</v>
@@ -46454,7 +46463,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="10"/>
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="T18">
         <v>613</v>
@@ -46466,7 +46475,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -46486,11 +46495,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H19">
         <f t="shared" si="11"/>
-        <v>2277</v>
+        <v>2282</v>
       </c>
       <c r="J19">
         <f t="shared" si="7"/>
@@ -46518,7 +46527,7 @@
       </c>
       <c r="R19">
         <f t="shared" si="10"/>
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="T19">
         <v>759</v>
@@ -46529,8 +46538,8 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>1376</v>
+        <f>ROUNDDOWN(A20*A20*MAX(1,A20/10 +A20/10)*MAX(1,(A20-70)/10),0)+6</f>
+        <v>1377</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -46538,7 +46547,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
@@ -46546,15 +46555,15 @@
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="H20">
         <f t="shared" si="11"/>
-        <v>2763</v>
+        <v>2769</v>
       </c>
       <c r="J20">
         <f t="shared" si="7"/>
@@ -46569,7 +46578,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="9"/>
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O20">
         <v>19</v>
@@ -46582,7 +46591,7 @@
       </c>
       <c r="R20">
         <f t="shared" si="10"/>
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="T20">
         <v>921</v>
@@ -46594,7 +46603,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -46602,7 +46611,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
@@ -46610,15 +46619,15 @@
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>5007</v>
+        <v>5011</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="H21">
         <f t="shared" si="11"/>
-        <v>3771</v>
+        <v>3777</v>
       </c>
       <c r="J21">
         <f t="shared" si="7"/>
@@ -46633,7 +46642,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="9"/>
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="O21">
         <v>20</v>
@@ -46646,7 +46655,7 @@
       </c>
       <c r="R21">
         <f t="shared" si="10"/>
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="T21">
         <v>1257</v>
@@ -46658,7 +46667,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -46678,11 +46687,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="H22">
         <f t="shared" si="11"/>
-        <v>4489</v>
+        <v>4494</v>
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
@@ -46710,7 +46719,7 @@
       </c>
       <c r="R22">
         <f t="shared" si="10"/>
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="T22">
         <v>1496</v>
@@ -46722,7 +46731,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -46730,7 +46739,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
@@ -46738,15 +46747,15 @@
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>6295</v>
+        <v>6299</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="H23">
         <f t="shared" si="11"/>
-        <v>5326</v>
+        <v>5333</v>
       </c>
       <c r="J23">
         <f t="shared" si="7"/>
@@ -46761,7 +46770,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="9"/>
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="O23">
         <v>22</v>
@@ -46774,7 +46783,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="10"/>
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="T23">
         <v>1775</v>
@@ -46786,7 +46795,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -46794,7 +46803,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
@@ -46802,15 +46811,15 @@
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>7005</v>
+        <v>7009</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="H24">
         <f t="shared" si="11"/>
-        <v>6251</v>
+        <v>6259</v>
       </c>
       <c r="J24">
         <f>((A24/2)*(A24/2))+A24*ROUND(A24/10,0)+7+A24</f>
@@ -46825,7 +46834,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="9"/>
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="O24">
         <v>23</v>
@@ -46838,7 +46847,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="10"/>
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="T24">
         <v>2083</v>
@@ -46850,7 +46859,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -46858,7 +46867,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
@@ -46866,15 +46875,15 @@
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>7751</v>
+        <v>7755</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>3964</v>
+        <v>3966</v>
       </c>
       <c r="H25">
         <f t="shared" si="11"/>
-        <v>7735</v>
+        <v>7743</v>
       </c>
       <c r="J25">
         <f t="shared" si="7"/>
@@ -46889,7 +46898,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="9"/>
-        <v>3875</v>
+        <v>3877</v>
       </c>
       <c r="O25">
         <v>24</v>
@@ -46902,7 +46911,7 @@
       </c>
       <c r="R25">
         <f>FLOOR(H25/3,1)</f>
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="T25">
         <v>2578</v>
@@ -46914,7 +46923,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -46934,11 +46943,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="H26">
         <f t="shared" si="11"/>
-        <v>8972</v>
+        <v>8978</v>
       </c>
       <c r="J26">
         <f t="shared" si="7"/>
@@ -46966,7 +46975,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="10"/>
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="T26">
         <v>2990</v>
@@ -46978,7 +46987,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -47002,7 +47011,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="11"/>
-        <v>10368</v>
+        <v>10375</v>
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
@@ -47030,7 +47039,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="10"/>
-        <v>3456</v>
+        <v>3458</v>
       </c>
       <c r="T27">
         <v>3456</v>
@@ -47042,7 +47051,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -47050,7 +47059,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
@@ -47058,15 +47067,15 @@
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>10244</v>
+        <v>10247</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>5642</v>
+        <v>5644</v>
       </c>
       <c r="H28">
         <f t="shared" si="11"/>
-        <v>11893</v>
+        <v>11903</v>
       </c>
       <c r="J28">
         <f t="shared" si="7"/>
@@ -47081,7 +47090,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="9"/>
-        <v>5122</v>
+        <v>5123</v>
       </c>
       <c r="O28">
         <v>27</v>
@@ -47094,7 +47103,7 @@
       </c>
       <c r="R28">
         <f t="shared" si="10"/>
-        <v>3964</v>
+        <v>3967</v>
       </c>
       <c r="T28">
         <v>3964</v>
@@ -47106,7 +47115,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -47114,7 +47123,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
@@ -47122,15 +47131,15 @@
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>11157</v>
+        <v>11161</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>6288</v>
+        <v>6290</v>
       </c>
       <c r="H29">
         <f t="shared" si="11"/>
-        <v>14023</v>
+        <v>14033</v>
       </c>
       <c r="J29">
         <f t="shared" si="7"/>
@@ -47145,7 +47154,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="9"/>
-        <v>5578</v>
+        <v>5580</v>
       </c>
       <c r="O29">
         <v>28</v>
@@ -47158,7 +47167,7 @@
       </c>
       <c r="R29">
         <f t="shared" si="10"/>
-        <v>4674</v>
+        <v>4677</v>
       </c>
       <c r="T29">
         <v>4674</v>
@@ -47170,7 +47179,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>4882</v>
+        <v>4883</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -47194,7 +47203,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="11"/>
-        <v>15951</v>
+        <v>15957</v>
       </c>
       <c r="J30">
         <f t="shared" si="7"/>
@@ -47222,7 +47231,7 @@
       </c>
       <c r="R30">
         <f t="shared" si="10"/>
-        <v>5317</v>
+        <v>5319</v>
       </c>
       <c r="T30">
         <v>5317</v>
@@ -47234,7 +47243,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>5405</v>
+        <v>5406</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -47242,7 +47251,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
@@ -47250,15 +47259,15 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>20377</v>
+        <v>20383</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>9896</v>
+        <v>9899</v>
       </c>
       <c r="H31">
         <f t="shared" si="11"/>
-        <v>20264</v>
+        <v>20274</v>
       </c>
       <c r="J31">
         <f t="shared" si="7"/>
@@ -47273,7 +47282,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="9"/>
-        <v>10188</v>
+        <v>10191</v>
       </c>
       <c r="O31">
         <v>30</v>
@@ -47286,7 +47295,7 @@
       </c>
       <c r="R31">
         <f t="shared" si="10"/>
-        <v>6754</v>
+        <v>6758</v>
       </c>
       <c r="T31">
         <v>6754</v>
@@ -47298,7 +47307,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>5963</v>
+        <v>5964</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -47306,7 +47315,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
@@ -47314,15 +47323,15 @@
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>21994</v>
+        <v>22000</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>10932</v>
+        <v>10935</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
-        <v>22825</v>
+        <v>22838</v>
       </c>
       <c r="J32">
         <f t="shared" si="7"/>
@@ -47337,7 +47346,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="9"/>
-        <v>10997</v>
+        <v>11000</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -47350,7 +47359,7 @@
       </c>
       <c r="R32">
         <f t="shared" si="10"/>
-        <v>7608</v>
+        <v>7612</v>
       </c>
       <c r="T32">
         <v>7608</v>
@@ -47362,7 +47371,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>6558</v>
+        <v>6559</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -47370,7 +47379,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
@@ -47378,15 +47387,15 @@
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>23674</v>
+        <v>23680</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>12035</v>
+        <v>12037</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
-        <v>26058</v>
+        <v>26070</v>
       </c>
       <c r="J33">
         <f t="shared" si="7"/>
@@ -47401,7 +47410,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="9"/>
-        <v>11837</v>
+        <v>11840</v>
       </c>
       <c r="O33">
         <v>32</v>
@@ -47414,7 +47423,7 @@
       </c>
       <c r="R33">
         <f t="shared" si="10"/>
-        <v>8686</v>
+        <v>8690</v>
       </c>
       <c r="T33">
         <v>8686</v>
@@ -47426,7 +47435,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>7192</v>
+        <v>7193</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -47434,7 +47443,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
@@ -47442,15 +47451,15 @@
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>25422</v>
+        <v>25427</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>13207</v>
+        <v>13210</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
-        <v>29158</v>
+        <v>29167</v>
       </c>
       <c r="J34">
         <f t="shared" si="7"/>
@@ -47465,7 +47474,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="9"/>
-        <v>12711</v>
+        <v>12713</v>
       </c>
       <c r="O34">
         <v>33</v>
@@ -47478,7 +47487,7 @@
       </c>
       <c r="R34">
         <f t="shared" si="10"/>
-        <v>9719</v>
+        <v>9722</v>
       </c>
       <c r="T34">
         <v>9719</v>
@@ -47490,7 +47499,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>7865</v>
+        <v>7866</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -47498,7 +47507,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>4815</v>
+        <v>4816</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
@@ -47506,15 +47515,15 @@
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>27231</v>
+        <v>27237</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>14449</v>
+        <v>14452</v>
       </c>
       <c r="H35">
         <f t="shared" si="11"/>
-        <v>34713</v>
+        <v>34726</v>
       </c>
       <c r="J35">
         <f t="shared" si="7"/>
@@ -47529,7 +47538,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="9"/>
-        <v>13615</v>
+        <v>13618</v>
       </c>
       <c r="O35">
         <v>34</v>
@@ -47542,7 +47551,7 @@
       </c>
       <c r="R35">
         <f t="shared" si="10"/>
-        <v>11571</v>
+        <v>11575</v>
       </c>
       <c r="T35">
         <v>11571</v>
@@ -47554,7 +47563,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>8580</v>
+        <v>8581</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -47562,7 +47571,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>5148</v>
+        <v>5149</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
@@ -47570,15 +47579,15 @@
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>29115</v>
+        <v>29120</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>15767</v>
+        <v>15769</v>
       </c>
       <c r="H36">
         <f t="shared" si="11"/>
-        <v>38592</v>
+        <v>38607</v>
       </c>
       <c r="J36">
         <f t="shared" si="7"/>
@@ -47593,7 +47602,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="9"/>
-        <v>14557</v>
+        <v>14560</v>
       </c>
       <c r="O36">
         <v>35</v>
@@ -47606,7 +47615,7 @@
       </c>
       <c r="R36">
         <f t="shared" si="10"/>
-        <v>12864</v>
+        <v>12869</v>
       </c>
       <c r="T36">
         <v>12864</v>
@@ -47618,7 +47627,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>9336</v>
+        <v>9337</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -47638,11 +47647,11 @@
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>17156</v>
+        <v>17157</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
-        <v>43214</v>
+        <v>43227</v>
       </c>
       <c r="J37">
         <f t="shared" si="7"/>
@@ -47670,7 +47679,7 @@
       </c>
       <c r="R37">
         <f t="shared" si="10"/>
-        <v>14404</v>
+        <v>14409</v>
       </c>
       <c r="T37">
         <v>14404</v>
@@ -47682,7 +47691,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>10135</v>
+        <v>10136</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -47690,7 +47699,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>5847</v>
+        <v>5848</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
@@ -47698,15 +47707,15 @@
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>33068</v>
+        <v>33074</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>18620</v>
+        <v>18623</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
-        <v>47778</v>
+        <v>47790</v>
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
@@ -47721,7 +47730,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="9"/>
-        <v>16534</v>
+        <v>16537</v>
       </c>
       <c r="O38">
         <v>37</v>
@@ -47734,7 +47743,7 @@
       </c>
       <c r="R38">
         <f t="shared" si="10"/>
-        <v>15926</v>
+        <v>15930</v>
       </c>
       <c r="T38">
         <v>15926</v>
@@ -47746,7 +47755,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>10979</v>
+        <v>10980</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -47766,11 +47775,11 @@
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>20163</v>
+        <v>20164</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
-        <v>54876</v>
+        <v>54890</v>
       </c>
       <c r="J39">
         <f t="shared" si="7"/>
@@ -47798,7 +47807,7 @@
       </c>
       <c r="R39">
         <f t="shared" si="10"/>
-        <v>18292</v>
+        <v>18296</v>
       </c>
       <c r="T39">
         <v>18292</v>
@@ -47810,7 +47819,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>11868</v>
+        <v>11869</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -47818,7 +47827,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>6593</v>
+        <v>6594</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
@@ -47826,15 +47835,15 @@
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>37287</v>
+        <v>37293</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>21781</v>
+        <v>21784</v>
       </c>
       <c r="H40">
         <f t="shared" si="11"/>
-        <v>60373</v>
+        <v>60391</v>
       </c>
       <c r="J40">
         <f t="shared" si="7"/>
@@ -47849,7 +47858,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="9"/>
-        <v>18643</v>
+        <v>18646</v>
       </c>
       <c r="O40">
         <v>39</v>
@@ -47862,7 +47871,7 @@
       </c>
       <c r="R40">
         <f t="shared" si="10"/>
-        <v>20124</v>
+        <v>20130</v>
       </c>
       <c r="T40">
         <v>20124</v>
@@ -47874,7 +47883,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>12805</v>
+        <v>12806</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -47894,11 +47903,11 @@
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
-        <v>29935</v>
+        <v>29936</v>
       </c>
       <c r="H41">
         <f t="shared" si="11"/>
-        <v>73149</v>
+        <v>73163</v>
       </c>
       <c r="J41">
         <f t="shared" si="7"/>
@@ -47926,7 +47935,7 @@
       </c>
       <c r="R41">
         <f t="shared" si="10"/>
-        <v>24383</v>
+        <v>24387</v>
       </c>
       <c r="T41">
         <v>24383</v>
@@ -47938,7 +47947,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>13789</v>
+        <v>13790</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -47946,7 +47955,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>7387</v>
+        <v>7388</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
@@ -47954,15 +47963,15 @@
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>58833</v>
+        <v>58841</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>32257</v>
+        <v>32260</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
-        <v>80035</v>
+        <v>80050</v>
       </c>
       <c r="J42">
         <f t="shared" si="7"/>
@@ -47977,7 +47986,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="9"/>
-        <v>29416</v>
+        <v>29420</v>
       </c>
       <c r="O42">
         <v>41</v>
@@ -47990,7 +47999,7 @@
       </c>
       <c r="R42">
         <f t="shared" si="10"/>
-        <v>26678</v>
+        <v>26683</v>
       </c>
       <c r="T42">
         <v>26678</v>
@@ -48002,7 +48011,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>14822</v>
+        <v>14823</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -48010,7 +48019,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>7801</v>
+        <v>7802</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
@@ -48018,15 +48027,15 @@
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>62130</v>
+        <v>62138</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>34691</v>
+        <v>34695</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
-        <v>89567</v>
+        <v>89585</v>
       </c>
       <c r="J43">
         <f t="shared" si="7"/>
@@ -48041,7 +48050,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="9"/>
-        <v>31065</v>
+        <v>31069</v>
       </c>
       <c r="O43">
         <v>42</v>
@@ -48054,7 +48063,7 @@
       </c>
       <c r="R43">
         <f t="shared" si="10"/>
-        <v>29855</v>
+        <v>29861</v>
       </c>
       <c r="T43">
         <v>29855</v>
@@ -48066,7 +48075,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>15906</v>
+        <v>15907</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -48074,7 +48083,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>8227</v>
+        <v>8228</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
@@ -48082,15 +48091,15 @@
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>65523</v>
+        <v>65531</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>37241</v>
+        <v>37245</v>
       </c>
       <c r="H44">
         <f t="shared" si="11"/>
-        <v>97614</v>
+        <v>97636</v>
       </c>
       <c r="J44">
         <f t="shared" si="7"/>
@@ -48105,7 +48114,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="9"/>
-        <v>32761</v>
+        <v>32765</v>
       </c>
       <c r="O44">
         <v>43</v>
@@ -48118,7 +48127,7 @@
       </c>
       <c r="R44">
         <f t="shared" si="10"/>
-        <v>32538</v>
+        <v>32545</v>
       </c>
       <c r="T44">
         <v>32538</v>
@@ -48130,7 +48139,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>17041</v>
+        <v>17042</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -48154,7 +48163,7 @@
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
-        <v>113057</v>
+        <v>113071</v>
       </c>
       <c r="J45">
         <f t="shared" si="7"/>
@@ -48182,7 +48191,7 @@
       </c>
       <c r="R45">
         <f t="shared" si="10"/>
-        <v>37685</v>
+        <v>37690</v>
       </c>
       <c r="T45">
         <v>37685</v>
@@ -48194,7 +48203,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>18230</v>
+        <v>18231</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -48202,7 +48211,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>9115</v>
+        <v>9116</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
@@ -48210,15 +48219,15 @@
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>72596</v>
+        <v>72604</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>42694</v>
+        <v>42698</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
-        <v>122729</v>
+        <v>122748</v>
       </c>
       <c r="J46">
         <f t="shared" si="7"/>
@@ -48233,7 +48242,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="9"/>
-        <v>36298</v>
+        <v>36302</v>
       </c>
       <c r="O46">
         <v>45</v>
@@ -48246,7 +48255,7 @@
       </c>
       <c r="R46">
         <f t="shared" si="10"/>
-        <v>40909</v>
+        <v>40916</v>
       </c>
       <c r="T46">
         <v>40909</v>
@@ -48258,7 +48267,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>19472</v>
+        <v>19473</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -48266,7 +48275,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>9576</v>
+        <v>9577</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
@@ -48274,15 +48283,15 @@
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>76267</v>
+        <v>76275</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>45597</v>
+        <v>45601</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
-        <v>135164</v>
+        <v>135186</v>
       </c>
       <c r="J47">
         <f t="shared" si="7"/>
@@ -48297,7 +48306,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="9"/>
-        <v>38133</v>
+        <v>38137</v>
       </c>
       <c r="O47">
         <v>46</v>
@@ -48310,7 +48319,7 @@
       </c>
       <c r="R47">
         <f t="shared" si="10"/>
-        <v>45054</v>
+        <v>45062</v>
       </c>
       <c r="T47">
         <v>45054</v>
@@ -48322,7 +48331,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>20769</v>
+        <v>20770</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -48346,7 +48355,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
-        <v>146241</v>
+        <v>146263</v>
       </c>
       <c r="J48">
         <f t="shared" si="7"/>
@@ -48374,7 +48383,7 @@
       </c>
       <c r="R48">
         <f t="shared" si="10"/>
-        <v>48747</v>
+        <v>48754</v>
       </c>
       <c r="T48">
         <v>48747</v>
@@ -48386,7 +48395,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>22123</v>
+        <v>22124</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -48410,7 +48419,7 @@
       </c>
       <c r="H49">
         <f t="shared" si="11"/>
-        <v>164835</v>
+        <v>164849</v>
       </c>
       <c r="J49">
         <f t="shared" si="7"/>
@@ -48438,7 +48447,7 @@
       </c>
       <c r="R49">
         <f t="shared" si="10"/>
-        <v>54945</v>
+        <v>54949</v>
       </c>
       <c r="T49">
         <v>54945</v>
@@ -48450,7 +48459,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>23534</v>
+        <v>23535</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -48474,7 +48483,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
-        <v>177784</v>
+        <v>177803</v>
       </c>
       <c r="J50">
         <f t="shared" si="7"/>
@@ -48502,7 +48511,7 @@
       </c>
       <c r="R50">
         <f t="shared" si="10"/>
-        <v>59261</v>
+        <v>59267</v>
       </c>
       <c r="T50">
         <v>59261</v>
@@ -48514,7 +48523,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>25005</v>
+        <v>25006</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -48538,7 +48547,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="11"/>
-        <v>208362</v>
+        <v>208384</v>
       </c>
       <c r="J51">
         <f t="shared" si="7"/>
@@ -48566,7 +48575,7 @@
       </c>
       <c r="R51">
         <f t="shared" si="10"/>
-        <v>69454</v>
+        <v>69461</v>
       </c>
       <c r="T51">
         <v>69454</v>
@@ -48578,7 +48587,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>26535</v>
+        <v>26536</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -48586,7 +48595,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>12061</v>
+        <v>12062</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
@@ -48594,15 +48603,15 @@
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>126861</v>
+        <v>126871</v>
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
-        <v>77701</v>
+        <v>77706</v>
       </c>
       <c r="H52">
         <f t="shared" si="11"/>
-        <v>223942</v>
+        <v>223969</v>
       </c>
       <c r="J52">
         <f t="shared" si="7"/>
@@ -48617,7 +48626,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="9"/>
-        <v>63430</v>
+        <v>63435</v>
       </c>
       <c r="O52">
         <v>51</v>
@@ -48630,7 +48639,7 @@
       </c>
       <c r="R52">
         <f t="shared" si="10"/>
-        <v>74647</v>
+        <v>74656</v>
       </c>
       <c r="T52">
         <v>74647</v>
@@ -48642,7 +48651,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>28126</v>
+        <v>28127</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -48666,7 +48675,7 @@
       </c>
       <c r="H53">
         <f t="shared" si="11"/>
-        <v>247218</v>
+        <v>247232</v>
       </c>
       <c r="J53">
         <f t="shared" si="7"/>
@@ -48694,7 +48703,7 @@
       </c>
       <c r="R53">
         <f t="shared" si="10"/>
-        <v>82406</v>
+        <v>82410</v>
       </c>
       <c r="T53">
         <v>82406</v>
@@ -48706,7 +48715,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>29780</v>
+        <v>29781</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -48714,7 +48723,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>13138</v>
+        <v>13139</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
@@ -48722,15 +48731,15 @@
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>138189</v>
+        <v>138200</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>87236</v>
+        <v>87243</v>
       </c>
       <c r="H54">
         <f t="shared" si="11"/>
-        <v>265020</v>
+        <v>265046</v>
       </c>
       <c r="J54">
         <f t="shared" si="7"/>
@@ -48745,7 +48754,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="9"/>
-        <v>69094</v>
+        <v>69100</v>
       </c>
       <c r="O54">
         <v>53</v>
@@ -48758,7 +48767,7 @@
       </c>
       <c r="R54">
         <f t="shared" si="10"/>
-        <v>88340</v>
+        <v>88348</v>
       </c>
       <c r="T54">
         <v>88340</v>
@@ -48770,7 +48779,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>31497</v>
+        <v>31498</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -48778,7 +48787,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>13694</v>
+        <v>13695</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
@@ -48786,15 +48795,15 @@
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>144037</v>
+        <v>144048</v>
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
-        <v>92268</v>
+        <v>92275</v>
       </c>
       <c r="H55">
         <f t="shared" si="11"/>
-        <v>300630</v>
+        <v>300659</v>
       </c>
       <c r="J55">
         <f t="shared" si="7"/>
@@ -48809,7 +48818,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="9"/>
-        <v>72018</v>
+        <v>72024</v>
       </c>
       <c r="O55">
         <v>54</v>
@@ -48822,7 +48831,7 @@
       </c>
       <c r="R55">
         <f t="shared" si="10"/>
-        <v>100210</v>
+        <v>100219</v>
       </c>
       <c r="T55">
         <v>100210</v>
@@ -48834,7 +48843,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>33280</v>
+        <v>33281</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -48858,7 +48867,7 @@
       </c>
       <c r="H56">
         <f t="shared" si="11"/>
-        <v>321430</v>
+        <v>321457</v>
       </c>
       <c r="J56">
         <f t="shared" si="7"/>
@@ -48886,7 +48895,7 @@
       </c>
       <c r="R56">
         <f t="shared" si="10"/>
-        <v>107143</v>
+        <v>107152</v>
       </c>
       <c r="T56">
         <v>107143</v>
@@ -48898,7 +48907,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>35128</v>
+        <v>35129</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -48922,7 +48931,7 @@
       </c>
       <c r="H57">
         <f t="shared" si="11"/>
-        <v>350103</v>
+        <v>350117</v>
       </c>
       <c r="J57">
         <f t="shared" si="7"/>
@@ -48950,7 +48959,7 @@
       </c>
       <c r="R57">
         <f t="shared" si="10"/>
-        <v>116701</v>
+        <v>116705</v>
       </c>
       <c r="T57">
         <v>116701</v>
@@ -48962,7 +48971,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>37043</v>
+        <v>37044</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -48986,7 +48995,7 @@
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
-        <v>373487</v>
+        <v>373513</v>
       </c>
       <c r="J58">
         <f t="shared" si="7"/>
@@ -49014,7 +49023,7 @@
       </c>
       <c r="R58">
         <f t="shared" si="10"/>
-        <v>124495</v>
+        <v>124504</v>
       </c>
       <c r="T58">
         <v>124495</v>
@@ -49026,7 +49035,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>39027</v>
+        <v>39028</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -49034,7 +49043,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>16038</v>
+        <v>16039</v>
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
@@ -49042,15 +49051,15 @@
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>168692</v>
+        <v>168703</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
-        <v>114232</v>
+        <v>114239</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
-        <v>414862</v>
+        <v>414898</v>
       </c>
       <c r="J59">
         <f t="shared" si="7"/>
@@ -49065,7 +49074,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="9"/>
-        <v>84346</v>
+        <v>84351</v>
       </c>
       <c r="O59">
         <v>58</v>
@@ -49078,7 +49087,7 @@
       </c>
       <c r="R59">
         <f t="shared" si="10"/>
-        <v>138287</v>
+        <v>138299</v>
       </c>
       <c r="T59">
         <v>138287</v>
@@ -49090,7 +49099,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>41080</v>
+        <v>41081</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -49110,11 +49119,11 @@
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>120193</v>
+        <v>120194</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
-        <v>441623</v>
+        <v>441651</v>
       </c>
       <c r="J60">
         <f t="shared" si="7"/>
@@ -49142,7 +49151,7 @@
       </c>
       <c r="R60">
         <f t="shared" si="10"/>
-        <v>147207</v>
+        <v>147217</v>
       </c>
       <c r="T60">
         <v>147207</v>
@@ -49154,7 +49163,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>43205</v>
+        <v>43206</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -49178,7 +49187,7 @@
       </c>
       <c r="H61">
         <f t="shared" si="11"/>
-        <v>505150</v>
+        <v>505164</v>
       </c>
       <c r="J61">
         <f t="shared" si="7"/>
@@ -49206,7 +49215,7 @@
       </c>
       <c r="R61">
         <f t="shared" si="10"/>
-        <v>168383</v>
+        <v>168388</v>
       </c>
       <c r="T61">
         <v>168383</v>
@@ -49218,7 +49227,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -49226,7 +49235,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>17921</v>
+        <v>17922</v>
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
@@ -49234,15 +49243,15 @@
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>238099</v>
+        <v>238112</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>162946</v>
+        <v>162955</v>
       </c>
       <c r="H62">
         <f t="shared" si="11"/>
-        <v>536433</v>
+        <v>536468</v>
       </c>
       <c r="J62">
         <f t="shared" si="7"/>
@@ -49257,7 +49266,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="9"/>
-        <v>119049</v>
+        <v>119056</v>
       </c>
       <c r="O62">
         <v>61</v>
@@ -49270,7 +49279,7 @@
       </c>
       <c r="R62">
         <f t="shared" si="10"/>
-        <v>178811</v>
+        <v>178822</v>
       </c>
       <c r="T62">
         <v>178811</v>
@@ -49282,7 +49291,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>47670</v>
+        <v>47671</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -49306,7 +49315,7 @@
       </c>
       <c r="H63">
         <f t="shared" si="11"/>
-        <v>585969</v>
+        <v>586005</v>
       </c>
       <c r="J63">
         <f t="shared" si="7"/>
@@ -49334,7 +49343,7 @@
       </c>
       <c r="R63">
         <f t="shared" si="10"/>
-        <v>195323</v>
+        <v>195335</v>
       </c>
       <c r="T63">
         <v>195323</v>
@@ -49346,7 +49355,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>50014</v>
+        <v>50015</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -49354,7 +49363,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>19236</v>
+        <v>19237</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
@@ -49362,15 +49371,15 @@
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>255570</v>
+        <v>255583</v>
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>179514</v>
+        <v>179522</v>
       </c>
       <c r="H64">
         <f t="shared" si="11"/>
-        <v>621137</v>
+        <v>621173</v>
       </c>
       <c r="J64">
         <f t="shared" si="7"/>
@@ -49385,7 +49394,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="9"/>
-        <v>127785</v>
+        <v>127791</v>
       </c>
       <c r="O64">
         <v>63</v>
@@ -49398,7 +49407,7 @@
       </c>
       <c r="R64">
         <f t="shared" si="10"/>
-        <v>207045</v>
+        <v>207057</v>
       </c>
       <c r="T64">
         <v>207045</v>
@@ -49410,7 +49419,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>52433</v>
+        <v>52434</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -49418,7 +49427,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>19911</v>
+        <v>19912</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
@@ -49426,15 +49435,15 @@
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>264538</v>
+        <v>264552</v>
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>188180</v>
+        <v>188189</v>
       </c>
       <c r="H65">
         <f t="shared" si="11"/>
-        <v>693330</v>
+        <v>693353</v>
       </c>
       <c r="J65">
         <f t="shared" si="7"/>
@@ -49449,7 +49458,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="9"/>
-        <v>132269</v>
+        <v>132276</v>
       </c>
       <c r="O65">
         <v>64</v>
@@ -49462,7 +49471,7 @@
       </c>
       <c r="R65">
         <f t="shared" si="10"/>
-        <v>231110</v>
+        <v>231117</v>
       </c>
       <c r="T65">
         <v>231110</v>
@@ -49474,7 +49483,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>54930</v>
+        <v>54931</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -49494,11 +49503,11 @@
       </c>
       <c r="G66">
         <f t="shared" si="5"/>
-        <v>197116</v>
+        <v>197117</v>
       </c>
       <c r="H66">
         <f t="shared" si="11"/>
-        <v>733549</v>
+        <v>733585</v>
       </c>
       <c r="J66">
         <f t="shared" si="7"/>
@@ -49526,7 +49535,7 @@
       </c>
       <c r="R66">
         <f t="shared" si="10"/>
-        <v>244516</v>
+        <v>244528</v>
       </c>
       <c r="T66">
         <v>244516</v>
@@ -49537,8 +49546,8 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B100" si="12">ROUNDDOWN(A67*A67*MAX(1,A67/10 +A67/10)*MAX(1,(A67-70)/10),0)+5</f>
-        <v>57504</v>
+        <f t="shared" ref="B67:B100" si="12">ROUNDDOWN(A67*A67*MAX(1,A67/10 +A67/10)*MAX(1,(A67-70)/10),0)+6</f>
+        <v>57505</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" si="13">A67/30+0.5</f>
@@ -49558,11 +49567,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G100" si="17">FLOOR(B67*(100-A67)/100+F67*A67/100,1)</f>
-        <v>206308</v>
+        <v>206309</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
-        <v>792277</v>
+        <v>792314</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J100" si="18">((A67/2)*(A67/2))+A67*ROUND(A67/10,0)+7+A67</f>
@@ -49590,7 +49599,7 @@
       </c>
       <c r="R67">
         <f t="shared" ref="R67:R100" si="21">FLOOR(H67/3,1)</f>
-        <v>264092</v>
+        <v>264104</v>
       </c>
       <c r="T67">
         <v>264092</v>
@@ -49602,7 +49611,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="12"/>
-        <v>60157</v>
+        <v>60158</v>
       </c>
       <c r="C68">
         <f t="shared" si="13"/>
@@ -49622,11 +49631,11 @@
       </c>
       <c r="G68">
         <f t="shared" si="17"/>
-        <v>215767</v>
+        <v>215768</v>
       </c>
       <c r="H68">
         <f t="shared" si="11"/>
-        <v>836904</v>
+        <v>836941</v>
       </c>
       <c r="J68">
         <f t="shared" si="18"/>
@@ -49654,7 +49663,7 @@
       </c>
       <c r="R68">
         <f t="shared" si="21"/>
-        <v>278968</v>
+        <v>278980</v>
       </c>
       <c r="T68">
         <v>278968</v>
@@ -49666,7 +49675,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="12"/>
-        <v>62891</v>
+        <v>62892</v>
       </c>
       <c r="C69">
         <f t="shared" si="13"/>
@@ -49690,7 +49699,7 @@
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
-        <v>918827</v>
+        <v>918850</v>
       </c>
       <c r="J69">
         <f t="shared" si="18"/>
@@ -49718,7 +49727,7 @@
       </c>
       <c r="R69">
         <f t="shared" si="21"/>
-        <v>306275</v>
+        <v>306283</v>
       </c>
       <c r="T69">
         <v>306275</v>
@@ -49730,7 +49739,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="12"/>
-        <v>65706</v>
+        <v>65707</v>
       </c>
       <c r="C70">
         <f t="shared" si="13"/>
@@ -49738,7 +49747,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="14"/>
-        <v>23466</v>
+        <v>23467</v>
       </c>
       <c r="E70">
         <f t="shared" si="15"/>
@@ -49746,15 +49755,15 @@
       </c>
       <c r="F70">
         <f t="shared" si="16"/>
-        <v>311770</v>
+        <v>311783</v>
       </c>
       <c r="G70">
         <f t="shared" si="17"/>
-        <v>235490</v>
+        <v>235499</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
-        <v>969039</v>
+        <v>969084</v>
       </c>
       <c r="J70">
         <f t="shared" si="18"/>
@@ -49769,7 +49778,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="20"/>
-        <v>155885</v>
+        <v>155891</v>
       </c>
       <c r="O70">
         <v>69</v>
@@ -49782,7 +49791,7 @@
       </c>
       <c r="R70">
         <f t="shared" si="21"/>
-        <v>323013</v>
+        <v>323028</v>
       </c>
       <c r="T70">
         <v>323013</v>
@@ -49794,7 +49803,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="12"/>
-        <v>68605</v>
+        <v>68606</v>
       </c>
       <c r="C71">
         <f t="shared" si="13"/>
@@ -49818,7 +49827,7 @@
       </c>
       <c r="H71">
         <f t="shared" ref="H71:H100" si="22">G71+H67</f>
-        <v>1088214</v>
+        <v>1088251</v>
       </c>
       <c r="J71">
         <f t="shared" si="18"/>
@@ -49846,7 +49855,7 @@
       </c>
       <c r="R71">
         <f t="shared" si="21"/>
-        <v>362738</v>
+        <v>362750</v>
       </c>
       <c r="T71">
         <v>362738</v>
@@ -49858,7 +49867,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="12"/>
-        <v>71587</v>
+        <v>71588</v>
       </c>
       <c r="C72">
         <f t="shared" si="13"/>
@@ -49866,7 +49875,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="14"/>
-        <v>24972</v>
+        <v>24973</v>
       </c>
       <c r="E72">
         <f t="shared" si="15"/>
@@ -49874,15 +49883,15 @@
       </c>
       <c r="F72">
         <f t="shared" si="16"/>
-        <v>405679</v>
+        <v>405695</v>
       </c>
       <c r="G72">
         <f t="shared" si="17"/>
-        <v>308792</v>
+        <v>308803</v>
       </c>
       <c r="H72">
         <f t="shared" si="22"/>
-        <v>1145696</v>
+        <v>1145744</v>
       </c>
       <c r="J72">
         <f t="shared" si="18"/>
@@ -49897,7 +49906,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="20"/>
-        <v>202839</v>
+        <v>202847</v>
       </c>
       <c r="O72">
         <v>71</v>
@@ -49910,7 +49919,7 @@
       </c>
       <c r="R72">
         <f t="shared" si="21"/>
-        <v>381898</v>
+        <v>381914</v>
       </c>
       <c r="T72">
         <v>381898</v>
@@ -49922,7 +49931,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="12"/>
-        <v>74654</v>
+        <v>74655</v>
       </c>
       <c r="C73">
         <f t="shared" si="13"/>
@@ -49946,7 +49955,7 @@
       </c>
       <c r="H73">
         <f t="shared" si="22"/>
-        <v>1240837</v>
+        <v>1240860</v>
       </c>
       <c r="J73">
         <f t="shared" si="18"/>
@@ -49974,7 +49983,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="21"/>
-        <v>413612</v>
+        <v>413620</v>
       </c>
       <c r="T73">
         <v>413612</v>
@@ -49986,7 +49995,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="12"/>
-        <v>77808</v>
+        <v>77809</v>
       </c>
       <c r="C74">
         <f t="shared" si="13"/>
@@ -49994,7 +50003,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="14"/>
-        <v>26525</v>
+        <v>26526</v>
       </c>
       <c r="E74">
         <f t="shared" si="15"/>
@@ -50002,15 +50011,15 @@
       </c>
       <c r="F74">
         <f t="shared" si="16"/>
-        <v>430908</v>
+        <v>430924</v>
       </c>
       <c r="G74">
         <f t="shared" si="17"/>
-        <v>335571</v>
+        <v>335582</v>
       </c>
       <c r="H74">
         <f t="shared" si="22"/>
-        <v>1304610</v>
+        <v>1304666</v>
       </c>
       <c r="J74">
         <f t="shared" si="18"/>
@@ -50025,7 +50034,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="20"/>
-        <v>215454</v>
+        <v>215462</v>
       </c>
       <c r="O74">
         <v>73</v>
@@ -50038,7 +50047,7 @@
       </c>
       <c r="R74">
         <f t="shared" si="21"/>
-        <v>434870</v>
+        <v>434888</v>
       </c>
       <c r="T74">
         <v>434870</v>
@@ -50050,7 +50059,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="12"/>
-        <v>81049</v>
+        <v>81050</v>
       </c>
       <c r="C75">
         <f t="shared" si="13"/>
@@ -50070,11 +50079,11 @@
       </c>
       <c r="G75">
         <f t="shared" si="17"/>
-        <v>349501</v>
+        <v>349502</v>
       </c>
       <c r="H75">
         <f t="shared" si="22"/>
-        <v>1437715</v>
+        <v>1437753</v>
       </c>
       <c r="J75">
         <f t="shared" si="18"/>
@@ -50102,7 +50111,7 @@
       </c>
       <c r="R75">
         <f t="shared" si="21"/>
-        <v>479238</v>
+        <v>479251</v>
       </c>
       <c r="T75">
         <v>479238</v>
@@ -50114,7 +50123,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="12"/>
-        <v>84380</v>
+        <v>84381</v>
       </c>
       <c r="C76">
         <f t="shared" si="13"/>
@@ -50134,11 +50143,11 @@
       </c>
       <c r="G76">
         <f t="shared" si="17"/>
-        <v>363794</v>
+        <v>363795</v>
       </c>
       <c r="H76">
         <f t="shared" si="22"/>
-        <v>1509490</v>
+        <v>1509539</v>
       </c>
       <c r="J76">
         <f t="shared" si="18"/>
@@ -50166,7 +50175,7 @@
       </c>
       <c r="R76">
         <f t="shared" si="21"/>
-        <v>503163</v>
+        <v>503179</v>
       </c>
       <c r="T76">
         <v>503163</v>
@@ -50178,7 +50187,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="12"/>
-        <v>87800</v>
+        <v>87801</v>
       </c>
       <c r="C77">
         <f t="shared" si="13"/>
@@ -50202,7 +50211,7 @@
       </c>
       <c r="H77">
         <f t="shared" si="22"/>
-        <v>1619277</v>
+        <v>1619300</v>
       </c>
       <c r="J77">
         <f t="shared" si="18"/>
@@ -50230,7 +50239,7 @@
       </c>
       <c r="R77">
         <f t="shared" si="21"/>
-        <v>539759</v>
+        <v>539766</v>
       </c>
       <c r="T77">
         <v>539759</v>
@@ -50242,7 +50251,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="12"/>
-        <v>91311</v>
+        <v>91312</v>
       </c>
       <c r="C78">
         <f t="shared" si="13"/>
@@ -50250,7 +50259,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="14"/>
-        <v>29775</v>
+        <v>29776</v>
       </c>
       <c r="E78">
         <f t="shared" si="15"/>
@@ -50258,15 +50267,15 @@
       </c>
       <c r="F78">
         <f t="shared" si="16"/>
-        <v>483705</v>
+        <v>483721</v>
       </c>
       <c r="G78">
         <f t="shared" si="17"/>
-        <v>393454</v>
+        <v>393466</v>
       </c>
       <c r="H78">
         <f t="shared" si="22"/>
-        <v>1698064</v>
+        <v>1698132</v>
       </c>
       <c r="J78">
         <f t="shared" si="18"/>
@@ -50281,7 +50290,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="20"/>
-        <v>241852</v>
+        <v>241860</v>
       </c>
       <c r="O78">
         <v>77</v>
@@ -50294,7 +50303,7 @@
       </c>
       <c r="R78">
         <f t="shared" si="21"/>
-        <v>566021</v>
+        <v>566044</v>
       </c>
       <c r="T78">
         <v>566021</v>
@@ -50306,7 +50315,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="12"/>
-        <v>94915</v>
+        <v>94916</v>
       </c>
       <c r="C79">
         <f t="shared" si="13"/>
@@ -50330,7 +50339,7 @@
       </c>
       <c r="H79">
         <f t="shared" si="22"/>
-        <v>1846568</v>
+        <v>1846606</v>
       </c>
       <c r="J79">
         <f t="shared" si="18"/>
@@ -50358,7 +50367,7 @@
       </c>
       <c r="R79">
         <f t="shared" si="21"/>
-        <v>615522</v>
+        <v>615535</v>
       </c>
       <c r="T79">
         <v>615522</v>
@@ -50370,7 +50379,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="12"/>
-        <v>98612</v>
+        <v>98613</v>
       </c>
       <c r="C80">
         <f t="shared" si="13"/>
@@ -50394,7 +50403,7 @@
       </c>
       <c r="H80">
         <f t="shared" si="22"/>
-        <v>1934104</v>
+        <v>1934153</v>
       </c>
       <c r="J80">
         <f t="shared" si="18"/>
@@ -50422,7 +50431,7 @@
       </c>
       <c r="R80">
         <f t="shared" si="21"/>
-        <v>644701</v>
+        <v>644717</v>
       </c>
       <c r="T80">
         <v>644701</v>
@@ -50434,7 +50443,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="12"/>
-        <v>102405</v>
+        <v>102406</v>
       </c>
       <c r="C81">
         <f t="shared" si="13"/>
@@ -50442,7 +50451,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="14"/>
-        <v>32338</v>
+        <v>32339</v>
       </c>
       <c r="E81">
         <f t="shared" si="15"/>
@@ -50450,15 +50459,15 @@
       </c>
       <c r="F81">
         <f t="shared" si="16"/>
-        <v>626684</v>
+        <v>626703</v>
       </c>
       <c r="G81">
         <f t="shared" si="17"/>
-        <v>521828</v>
+        <v>521843</v>
       </c>
       <c r="H81">
         <f t="shared" si="22"/>
-        <v>2141105</v>
+        <v>2141143</v>
       </c>
       <c r="J81">
         <f t="shared" si="18"/>
@@ -50473,7 +50482,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="20"/>
-        <v>313342</v>
+        <v>313351</v>
       </c>
       <c r="O81">
         <v>80</v>
@@ -50486,7 +50495,7 @@
       </c>
       <c r="R81">
         <f t="shared" si="21"/>
-        <v>713701</v>
+        <v>713714</v>
       </c>
       <c r="T81">
         <v>713701</v>
@@ -50498,7 +50507,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="12"/>
-        <v>116922</v>
+        <v>116923</v>
       </c>
       <c r="C82">
         <f t="shared" si="13"/>
@@ -50522,7 +50531,7 @@
       </c>
       <c r="H82">
         <f t="shared" si="22"/>
-        <v>2293820</v>
+        <v>2293888</v>
       </c>
       <c r="J82">
         <f t="shared" si="18"/>
@@ -50550,7 +50559,7 @@
       </c>
       <c r="R82">
         <f t="shared" si="21"/>
-        <v>764606</v>
+        <v>764629</v>
       </c>
       <c r="T82">
         <v>764606</v>
@@ -50562,7 +50571,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="12"/>
-        <v>132333</v>
+        <v>132334</v>
       </c>
       <c r="C83">
         <f t="shared" si="13"/>
@@ -50586,7 +50595,7 @@
       </c>
       <c r="H83">
         <f t="shared" si="22"/>
-        <v>2520771</v>
+        <v>2520809</v>
       </c>
       <c r="J83">
         <f t="shared" si="18"/>
@@ -50614,7 +50623,7 @@
       </c>
       <c r="R83">
         <f t="shared" si="21"/>
-        <v>840257</v>
+        <v>840269</v>
       </c>
       <c r="T83">
         <v>840257</v>
@@ -50626,7 +50635,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="12"/>
-        <v>148669</v>
+        <v>148670</v>
       </c>
       <c r="C84">
         <f t="shared" si="13"/>
@@ -50650,7 +50659,7 @@
       </c>
       <c r="H84">
         <f t="shared" si="22"/>
-        <v>2691409</v>
+        <v>2691458</v>
       </c>
       <c r="J84">
         <f t="shared" si="18"/>
@@ -50678,7 +50687,7 @@
       </c>
       <c r="R84">
         <f t="shared" si="21"/>
-        <v>897136</v>
+        <v>897152</v>
       </c>
       <c r="T84">
         <v>897136</v>
@@ -50690,7 +50699,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="12"/>
-        <v>165962</v>
+        <v>165963</v>
       </c>
       <c r="C85">
         <f t="shared" si="13"/>
@@ -50714,7 +50723,7 @@
       </c>
       <c r="H85">
         <f t="shared" si="22"/>
-        <v>2986337</v>
+        <v>2986375</v>
       </c>
       <c r="J85">
         <f t="shared" si="18"/>
@@ -50742,7 +50751,7 @@
       </c>
       <c r="R85">
         <f t="shared" si="21"/>
-        <v>995445</v>
+        <v>995458</v>
       </c>
       <c r="T85">
         <v>995445</v>
@@ -50754,7 +50763,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="12"/>
-        <v>184242</v>
+        <v>184243</v>
       </c>
       <c r="C86">
         <f t="shared" si="13"/>
@@ -50778,7 +50787,7 @@
       </c>
       <c r="H86">
         <f t="shared" si="22"/>
-        <v>3231929</v>
+        <v>3231997</v>
       </c>
       <c r="J86">
         <f t="shared" si="18"/>
@@ -50806,7 +50815,7 @@
       </c>
       <c r="R86">
         <f t="shared" si="21"/>
-        <v>1077309</v>
+        <v>1077332</v>
       </c>
       <c r="T86">
         <v>1077309</v>
@@ -50818,7 +50827,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="12"/>
-        <v>203542</v>
+        <v>203543</v>
       </c>
       <c r="C87">
         <f t="shared" si="13"/>
@@ -50842,7 +50851,7 @@
       </c>
       <c r="H87">
         <f t="shared" si="22"/>
-        <v>3556865</v>
+        <v>3556903</v>
       </c>
       <c r="J87">
         <f t="shared" si="18"/>
@@ -50870,7 +50879,7 @@
       </c>
       <c r="R87">
         <f t="shared" si="21"/>
-        <v>1185621</v>
+        <v>1185634</v>
       </c>
       <c r="T87">
         <v>1185621</v>
@@ -50882,7 +50891,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="12"/>
-        <v>223896</v>
+        <v>223897</v>
       </c>
       <c r="C88">
         <f t="shared" si="13"/>
@@ -50906,7 +50915,7 @@
       </c>
       <c r="H88">
         <f t="shared" si="22"/>
-        <v>3830772</v>
+        <v>3830821</v>
       </c>
       <c r="J88">
         <f t="shared" si="18"/>
@@ -50934,7 +50943,7 @@
       </c>
       <c r="R88">
         <f t="shared" si="21"/>
-        <v>1276924</v>
+        <v>1276940</v>
       </c>
       <c r="T88">
         <v>1276924</v>
@@ -50946,7 +50955,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="12"/>
-        <v>245334</v>
+        <v>245335</v>
       </c>
       <c r="C89">
         <f t="shared" si="13"/>
@@ -50970,7 +50979,7 @@
       </c>
       <c r="H89">
         <f t="shared" si="22"/>
-        <v>4234381</v>
+        <v>4234419</v>
       </c>
       <c r="J89">
         <f t="shared" si="18"/>
@@ -50998,7 +51007,7 @@
       </c>
       <c r="R89">
         <f t="shared" si="21"/>
-        <v>1411460</v>
+        <v>1411473</v>
       </c>
       <c r="T89">
         <v>1411460</v>
@@ -51010,7 +51019,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="12"/>
-        <v>267893</v>
+        <v>267894</v>
       </c>
       <c r="C90">
         <f t="shared" si="13"/>
@@ -51034,7 +51043,7 @@
       </c>
       <c r="H90">
         <f t="shared" si="22"/>
-        <v>4594229</v>
+        <v>4594297</v>
       </c>
       <c r="J90">
         <f t="shared" si="18"/>
@@ -51062,7 +51071,7 @@
       </c>
       <c r="R90">
         <f t="shared" si="21"/>
-        <v>1531409</v>
+        <v>1531432</v>
       </c>
       <c r="T90">
         <v>1531409</v>
@@ -51074,7 +51083,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="12"/>
-        <v>291605</v>
+        <v>291606</v>
       </c>
       <c r="C91">
         <f t="shared" si="13"/>
@@ -51098,7 +51107,7 @@
       </c>
       <c r="H91">
         <f t="shared" si="22"/>
-        <v>5286223</v>
+        <v>5286261</v>
       </c>
       <c r="J91">
         <f t="shared" si="18"/>
@@ -51126,7 +51135,7 @@
       </c>
       <c r="R91">
         <f t="shared" si="21"/>
-        <v>1762074</v>
+        <v>1762087</v>
       </c>
       <c r="T91">
         <v>1762074</v>
@@ -51138,7 +51147,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="12"/>
-        <v>316504</v>
+        <v>316505</v>
       </c>
       <c r="C92">
         <f t="shared" si="13"/>
@@ -51158,11 +51167,11 @@
       </c>
       <c r="G92">
         <f t="shared" si="17"/>
-        <v>1876759</v>
+        <v>1876760</v>
       </c>
       <c r="H92">
         <f t="shared" si="22"/>
-        <v>5707531</v>
+        <v>5707581</v>
       </c>
       <c r="J92">
         <f t="shared" si="18"/>
@@ -51190,7 +51199,7 @@
       </c>
       <c r="R92">
         <f t="shared" si="21"/>
-        <v>1902510</v>
+        <v>1902527</v>
       </c>
       <c r="T92">
         <v>1902510</v>
@@ -51202,7 +51211,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="12"/>
-        <v>342627</v>
+        <v>342628</v>
       </c>
       <c r="C93">
         <f t="shared" si="13"/>
@@ -51226,7 +51235,7 @@
       </c>
       <c r="H93">
         <f t="shared" si="22"/>
-        <v>6265695</v>
+        <v>6265733</v>
       </c>
       <c r="J93">
         <f t="shared" si="18"/>
@@ -51254,7 +51263,7 @@
       </c>
       <c r="R93">
         <f t="shared" si="21"/>
-        <v>2088565</v>
+        <v>2088577</v>
       </c>
       <c r="T93">
         <v>2088565</v>
@@ -51266,7 +51275,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="12"/>
-        <v>370009</v>
+        <v>370010</v>
       </c>
       <c r="C94">
         <f t="shared" si="13"/>
@@ -51274,7 +51283,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="14"/>
-        <v>102780</v>
+        <v>102781</v>
       </c>
       <c r="E94">
         <f t="shared" si="15"/>
@@ -51282,15 +51291,15 @@
       </c>
       <c r="F94">
         <f t="shared" si="16"/>
-        <v>2330436</v>
+        <v>2330459</v>
       </c>
       <c r="G94">
         <f t="shared" si="17"/>
-        <v>2193206</v>
+        <v>2193227</v>
       </c>
       <c r="H94">
         <f t="shared" si="22"/>
-        <v>6787435</v>
+        <v>6787524</v>
       </c>
       <c r="J94">
         <f t="shared" si="18"/>
@@ -51305,7 +51314,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="20"/>
-        <v>1165218</v>
+        <v>1165229</v>
       </c>
       <c r="O94">
         <v>93</v>
@@ -51318,7 +51327,7 @@
       </c>
       <c r="R94">
         <f t="shared" si="21"/>
-        <v>2262478</v>
+        <v>2262508</v>
       </c>
       <c r="T94">
         <v>2262478</v>
@@ -51330,7 +51339,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="12"/>
-        <v>398685</v>
+        <v>398686</v>
       </c>
       <c r="C95">
         <f t="shared" si="13"/>
@@ -51354,7 +51363,7 @@
       </c>
       <c r="H95">
         <f t="shared" si="22"/>
-        <v>7648882</v>
+        <v>7648920</v>
       </c>
       <c r="J95">
         <f t="shared" si="18"/>
@@ -51382,7 +51391,7 @@
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>2549627</v>
+        <v>2549640</v>
       </c>
       <c r="T95">
         <v>2549627</v>
@@ -51394,7 +51403,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="12"/>
-        <v>428692</v>
+        <v>428693</v>
       </c>
       <c r="C96">
         <f t="shared" si="13"/>
@@ -51418,7 +51427,7 @@
       </c>
       <c r="H96">
         <f t="shared" si="22"/>
-        <v>8247373</v>
+        <v>8247423</v>
       </c>
       <c r="J96">
         <f t="shared" si="18"/>
@@ -51446,7 +51455,7 @@
       </c>
       <c r="R96">
         <f t="shared" si="21"/>
-        <v>2749124</v>
+        <v>2749141</v>
       </c>
       <c r="T96">
         <v>2749124</v>
@@ -51458,7 +51467,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="12"/>
-        <v>460067</v>
+        <v>460068</v>
       </c>
       <c r="C97">
         <f t="shared" si="13"/>
@@ -51466,7 +51475,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="14"/>
-        <v>124342</v>
+        <v>124343</v>
       </c>
       <c r="E97">
         <f t="shared" si="15"/>
@@ -51474,15 +51483,15 @@
       </c>
       <c r="F97">
         <f t="shared" si="16"/>
-        <v>2819333</v>
+        <v>2819356</v>
       </c>
       <c r="G97">
         <f t="shared" si="17"/>
-        <v>2724962</v>
+        <v>2724984</v>
       </c>
       <c r="H97">
         <f t="shared" si="22"/>
-        <v>8990657</v>
+        <v>8990717</v>
       </c>
       <c r="J97">
         <f t="shared" si="18"/>
@@ -51497,7 +51506,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="20"/>
-        <v>1409666</v>
+        <v>1409678</v>
       </c>
       <c r="O97">
         <v>96</v>
@@ -51510,7 +51519,7 @@
       </c>
       <c r="R97">
         <f t="shared" si="21"/>
-        <v>2996885</v>
+        <v>2996905</v>
       </c>
       <c r="T97">
         <v>2996885</v>
@@ -51522,7 +51531,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="12"/>
-        <v>492848</v>
+        <v>492849</v>
       </c>
       <c r="C98">
         <f t="shared" si="13"/>
@@ -51546,7 +51555,7 @@
       </c>
       <c r="H98">
         <f t="shared" si="22"/>
-        <v>9705688</v>
+        <v>9705777</v>
       </c>
       <c r="J98">
         <f t="shared" si="18"/>
@@ -51574,7 +51583,7 @@
       </c>
       <c r="R98">
         <f t="shared" si="21"/>
-        <v>3235229</v>
+        <v>3235259</v>
       </c>
       <c r="T98">
         <v>3235229</v>
@@ -51586,7 +51595,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="12"/>
-        <v>527072</v>
+        <v>527073</v>
       </c>
       <c r="C99">
         <f t="shared" si="13"/>
@@ -51610,7 +51619,7 @@
       </c>
       <c r="H99">
         <f t="shared" si="22"/>
-        <v>10768766</v>
+        <v>10768804</v>
       </c>
       <c r="J99">
         <f t="shared" si="18"/>
@@ -51638,7 +51647,7 @@
       </c>
       <c r="R99">
         <f t="shared" si="21"/>
-        <v>3589588</v>
+        <v>3589601</v>
       </c>
       <c r="T99">
         <v>3589588</v>
@@ -51650,7 +51659,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="12"/>
-        <v>562778</v>
+        <v>562779</v>
       </c>
       <c r="C100">
         <f t="shared" si="13"/>
@@ -51658,7 +51667,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="14"/>
-        <v>148099</v>
+        <v>148100</v>
       </c>
       <c r="E100">
         <f t="shared" si="15"/>
@@ -51666,15 +51675,15 @@
       </c>
       <c r="F100">
         <f t="shared" si="16"/>
-        <v>3358000</v>
+        <v>3358023</v>
       </c>
       <c r="G100">
         <f t="shared" si="17"/>
-        <v>3330047</v>
+        <v>3330070</v>
       </c>
       <c r="H100">
         <f t="shared" si="22"/>
-        <v>11577420</v>
+        <v>11577493</v>
       </c>
       <c r="J100">
         <f t="shared" si="18"/>
@@ -51689,7 +51698,7 @@
       </c>
       <c r="N100">
         <f t="shared" si="20"/>
-        <v>1679000</v>
+        <v>1679011</v>
       </c>
       <c r="O100">
         <v>99</v>
@@ -51702,7 +51711,7 @@
       </c>
       <c r="R100">
         <f t="shared" si="21"/>
-        <v>3859140</v>
+        <v>3859164</v>
       </c>
       <c r="T100">
         <v>3859140</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21379F70-835E-4F75-BEEF-EA9D3511E6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BC761-858B-4782-AB49-38CD0523DBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" activeTab="1" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="4560" yWindow="3729" windowWidth="24686" windowHeight="13054" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="1119">
   <si>
     <t>Id</t>
   </si>
@@ -3390,6 +3390,24 @@
   </si>
   <si>
     <t>Exp2</t>
+  </si>
+  <si>
+    <t>Exp3</t>
+  </si>
+  <si>
+    <t>GTB_EGG</t>
+  </si>
+  <si>
+    <t>GTB_SUMMON</t>
+  </si>
+  <si>
+    <t>Angry Thief Bug</t>
+  </si>
+  <si>
+    <t>Elite,Insect</t>
+  </si>
+  <si>
+    <t>Color#FF6F6FFF</t>
   </si>
 </sst>
 </file>
@@ -3829,13 +3847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
-  <dimension ref="A1:AJ301"/>
+  <dimension ref="A1:AJ303"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="E303" sqref="E303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11165,7 +11183,7 @@
         <v>289</v>
       </c>
       <c r="D69">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E69">
         <v>300</v>
@@ -11189,7 +11207,7 @@
         <v>100</v>
       </c>
       <c r="L69">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M69">
         <v>10</v>
@@ -11204,10 +11222,10 @@
         <v>100</v>
       </c>
       <c r="Q69">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="R69">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="S69">
         <v>10</v>
@@ -36092,6 +36110,223 @@
       </c>
       <c r="AJ301" t="s">
         <v>1106</v>
+      </c>
+    </row>
+    <row r="302" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A302">
+        <v>4299</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C302" t="s">
+        <v>77</v>
+      </c>
+      <c r="D302">
+        <v>31</v>
+      </c>
+      <c r="E302">
+        <v>100</v>
+      </c>
+      <c r="F302">
+        <v>100</v>
+      </c>
+      <c r="G302">
+        <v>100</v>
+      </c>
+      <c r="H302">
+        <v>100</v>
+      </c>
+      <c r="I302">
+        <v>100</v>
+      </c>
+      <c r="J302">
+        <v>100</v>
+      </c>
+      <c r="K302">
+        <v>100</v>
+      </c>
+      <c r="L302">
+        <v>100</v>
+      </c>
+      <c r="M302">
+        <v>10</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <v>100</v>
+      </c>
+      <c r="P302">
+        <v>100</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>0</v>
+      </c>
+      <c r="S302">
+        <v>1</v>
+      </c>
+      <c r="T302">
+        <v>1</v>
+      </c>
+      <c r="U302" t="s">
+        <v>47</v>
+      </c>
+      <c r="V302" t="s">
+        <v>48</v>
+      </c>
+      <c r="W302" t="s">
+        <v>78</v>
+      </c>
+      <c r="X302">
+        <v>701</v>
+      </c>
+      <c r="Y302">
+        <v>1</v>
+      </c>
+      <c r="Z302">
+        <v>1</v>
+      </c>
+      <c r="AA302">
+        <v>-1</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AD302" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE302">
+        <v>288</v>
+      </c>
+      <c r="AF302" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG302">
+        <v>0</v>
+      </c>
+      <c r="AH302">
+        <v>-1</v>
+      </c>
+      <c r="AI302">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>4300</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D303">
+        <v>31</v>
+      </c>
+      <c r="E303">
+        <v>100</v>
+      </c>
+      <c r="F303">
+        <v>100</v>
+      </c>
+      <c r="G303">
+        <v>100</v>
+      </c>
+      <c r="H303">
+        <v>100</v>
+      </c>
+      <c r="I303">
+        <v>100</v>
+      </c>
+      <c r="J303">
+        <v>100</v>
+      </c>
+      <c r="K303">
+        <v>100</v>
+      </c>
+      <c r="L303">
+        <v>100</v>
+      </c>
+      <c r="M303">
+        <v>10</v>
+      </c>
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303">
+        <v>100</v>
+      </c>
+      <c r="P303">
+        <v>100</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <v>0</v>
+      </c>
+      <c r="S303">
+        <v>12</v>
+      </c>
+      <c r="T303">
+        <v>12</v>
+      </c>
+      <c r="U303" t="s">
+        <v>38</v>
+      </c>
+      <c r="V303" t="s">
+        <v>48</v>
+      </c>
+      <c r="W303" t="s">
+        <v>78</v>
+      </c>
+      <c r="X303">
+        <v>500</v>
+      </c>
+      <c r="Y303">
+        <v>288</v>
+      </c>
+      <c r="Z303">
+        <v>288</v>
+      </c>
+      <c r="AA303">
+        <v>120</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AD303" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE303">
+        <v>504</v>
+      </c>
+      <c r="AF303" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG303">
+        <v>0</v>
+      </c>
+      <c r="AH303">
+        <v>0.5</v>
+      </c>
+      <c r="AI303">
+        <v>0.7</v>
+      </c>
+      <c r="AJ303" t="s">
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -38201,7 +38436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
@@ -41441,13 +41676,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A7D354-8BFA-4CB0-A7D9-2F2F96892950}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -41459,7 +41694,7 @@
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -41485,10 +41720,16 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -41505,11 +41746,11 @@
         <v>8.5717734625362922</v>
       </c>
       <c r="E2" s="1">
-        <f>(1-POWER(1-((A2+1)/100),2))*20+MAX(0,(A2-10)/3)</f>
+        <f>(1-POWER(1-((A2+1)/100),2))*20+MAX(0,(A2-10)/3)*N2</f>
         <v>0.79200000000000159</v>
       </c>
       <c r="F2" s="1">
-        <f>VLOOKUP(A2,Exp!Q2:R100,2)/E2</f>
+        <f>VLOOKUP($A2,Exp!$Q2:$R100,2)/$E2</f>
         <v>5.0505050505050404</v>
       </c>
       <c r="G2">
@@ -41521,11 +41762,23 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
+        <f>VLOOKUP($A2,Exp!$Q2:$R100,2)/$E2</f>
+        <v>5.0505050505050404</v>
+      </c>
+      <c r="K2" s="1">
         <f>VLOOKUP(A2,Exp!M2:N100,2)/E2</f>
         <v>6.3131313131313007</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L2">
+        <f>VLOOKUP($A2,Exp!$Q2:$R100,2)/($E2*N2)</f>
+        <v>5.0505050505050404</v>
+      </c>
+      <c r="N2">
+        <f>MAX(1,1+(1-POWER(1-(A2-10)/200,3)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -41546,7 +41799,7 @@
         <v>1.1820000000000008</v>
       </c>
       <c r="F3" s="1">
-        <f>VLOOKUP(A3,Exp!Q3:R101,2)/E3</f>
+        <f>VLOOKUP($A3,Exp!$Q3:$R101,2)/$E3</f>
         <v>5.076142131979692</v>
       </c>
       <c r="G3">
@@ -41558,11 +41811,23 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
+        <f>VLOOKUP($A3,Exp!$Q3:$R101,2)/$E3</f>
+        <v>5.076142131979692</v>
+      </c>
+      <c r="K3" s="1">
         <f>VLOOKUP(A3,Exp!M3:N101,2)/E3</f>
         <v>7.614213197969538</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L3">
+        <f>VLOOKUP($A3,Exp!$Q3:$R101,2)/($E3*N3)</f>
+        <v>5.076142131979692</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="6">MAX(1,1+(1-POWER(1-(A3-10)/200,3)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -41583,7 +41848,7 @@
         <v>1.5680000000000005</v>
       </c>
       <c r="F4" s="1">
-        <f>VLOOKUP(A4,Exp!Q4:R102,2)/E4</f>
+        <f>VLOOKUP($A4,Exp!$Q4:$R102,2)/$E4</f>
         <v>4.4642857142857126</v>
       </c>
       <c r="G4">
@@ -41595,11 +41860,23 @@
         <v>2</v>
       </c>
       <c r="J4" s="1">
+        <f>VLOOKUP($A4,Exp!$Q4:$R102,2)/$E4</f>
+        <v>4.4642857142857126</v>
+      </c>
+      <c r="K4" s="1">
         <f>VLOOKUP(A4,Exp!M4:N102,2)/E4</f>
         <v>7.6530612244897931</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L4">
+        <f>VLOOKUP($A4,Exp!$Q4:$R102,2)/($E4*N4)</f>
+        <v>4.4642857142857126</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -41620,7 +41897,7 @@
         <v>1.9500000000000006</v>
       </c>
       <c r="F5" s="1">
-        <f>VLOOKUP(A5,Exp!Q5:R103,2)/E5</f>
+        <f>VLOOKUP($A5,Exp!$Q5:$R103,2)/$E5</f>
         <v>5.1282051282051269</v>
       </c>
       <c r="G5">
@@ -41632,11 +41909,23 @@
         <v>2</v>
       </c>
       <c r="J5" s="1">
+        <f>VLOOKUP($A5,Exp!$Q5:$R103,2)/$E5</f>
+        <v>5.1282051282051269</v>
+      </c>
+      <c r="K5" s="1">
         <f>VLOOKUP(A5,Exp!M5:N103,2)/E5</f>
         <v>8.7179487179487154</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L5">
+        <f>VLOOKUP($A5,Exp!$Q5:$R103,2)/($E5*N5)</f>
+        <v>5.1282051282051269</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -41657,7 +41946,7 @@
         <v>2.3280000000000012</v>
       </c>
       <c r="F6" s="1">
-        <f>VLOOKUP(A6,Exp!Q6:R104,2)/E6</f>
+        <f>VLOOKUP($A6,Exp!$Q6:$R104,2)/$E6</f>
         <v>6.4432989690721616</v>
       </c>
       <c r="G6">
@@ -41669,11 +41958,23 @@
         <v>2</v>
       </c>
       <c r="J6" s="1">
+        <f>VLOOKUP($A6,Exp!$Q6:$R104,2)/$E6</f>
+        <v>6.4432989690721616</v>
+      </c>
+      <c r="K6" s="1">
         <f>VLOOKUP(A6,Exp!M6:N104,2)/E6</f>
         <v>9.879725085910648</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L6">
+        <f>VLOOKUP($A6,Exp!$Q6:$R104,2)/($E6*N6)</f>
+        <v>6.4432989690721616</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -41694,7 +41995,7 @@
         <v>2.7020000000000022</v>
       </c>
       <c r="F7" s="1">
-        <f>VLOOKUP(A7,Exp!Q7:R105,2)/E7</f>
+        <f>VLOOKUP($A7,Exp!$Q7:$R105,2)/$E7</f>
         <v>8.1421169504070985</v>
       </c>
       <c r="G7">
@@ -41706,11 +42007,23 @@
         <v>3</v>
       </c>
       <c r="J7" s="1">
+        <f>VLOOKUP($A7,Exp!$Q7:$R105,2)/$E7</f>
+        <v>8.1421169504070985</v>
+      </c>
+      <c r="K7" s="1">
         <f>VLOOKUP(A7,Exp!M7:N105,2)/E7</f>
         <v>12.953367875647658</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L7">
+        <f>VLOOKUP($A7,Exp!$Q7:$R105,2)/($E7*N7)</f>
+        <v>8.1421169504070985</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -41731,7 +42044,7 @@
         <v>3.0719999999999992</v>
       </c>
       <c r="F8" s="1">
-        <f>VLOOKUP(A8,Exp!Q8:R106,2)/E8</f>
+        <f>VLOOKUP($A8,Exp!$Q8:$R106,2)/$E8</f>
         <v>10.41666666666667</v>
       </c>
       <c r="G8">
@@ -41743,11 +42056,23 @@
         <v>3</v>
       </c>
       <c r="J8" s="1">
+        <f>VLOOKUP($A8,Exp!$Q8:$R106,2)/$E8</f>
+        <v>10.41666666666667</v>
+      </c>
+      <c r="K8" s="1">
         <f>VLOOKUP(A8,Exp!M8:N106,2)/E8</f>
         <v>16.276041666666671</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L8">
+        <f>VLOOKUP($A8,Exp!$Q8:$R106,2)/($E8*N8)</f>
+        <v>10.41666666666667</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -41768,7 +42093,7 @@
         <v>3.4379999999999988</v>
       </c>
       <c r="F9" s="1">
-        <f>VLOOKUP(A9,Exp!Q9:R107,2)/E9</f>
+        <f>VLOOKUP($A9,Exp!$Q9:$R107,2)/$E9</f>
         <v>13.379872018615478</v>
       </c>
       <c r="G9">
@@ -41780,11 +42105,23 @@
         <v>3</v>
       </c>
       <c r="J9" s="1">
+        <f>VLOOKUP($A9,Exp!$Q9:$R107,2)/$E9</f>
+        <v>13.379872018615478</v>
+      </c>
+      <c r="K9" s="1">
         <f>VLOOKUP(A9,Exp!M9:N107,2)/E9</f>
         <v>20.360674810936597</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L9">
+        <f>VLOOKUP($A9,Exp!$Q9:$R107,2)/($E9*N9)</f>
+        <v>13.379872018615478</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -41805,7 +42142,7 @@
         <v>3.7999999999999989</v>
       </c>
       <c r="F10" s="1">
-        <f>VLOOKUP(A10,Exp!Q10:R108,2)/E10</f>
+        <f>VLOOKUP($A10,Exp!$Q10:$R108,2)/$E10</f>
         <v>17.368421052631582</v>
       </c>
       <c r="G10">
@@ -41817,11 +42154,23 @@
         <v>4</v>
       </c>
       <c r="J10" s="1">
+        <f>VLOOKUP($A10,Exp!$Q10:$R108,2)/$E10</f>
+        <v>17.368421052631582</v>
+      </c>
+      <c r="K10" s="1">
         <f>VLOOKUP(A10,Exp!M10:N108,2)/E10</f>
         <v>24.736842105263165</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L10">
+        <f>VLOOKUP($A10,Exp!$Q10:$R108,2)/($E10*N10)</f>
+        <v>17.368421052631582</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -41842,7 +42191,7 @@
         <v>4.1579999999999995</v>
       </c>
       <c r="F11" s="1">
-        <f>VLOOKUP(A11,Exp!Q11:R109,2)/E11</f>
+        <f>VLOOKUP($A11,Exp!$Q11:$R109,2)/$E11</f>
         <v>24.050024050024053</v>
       </c>
       <c r="G11">
@@ -41854,11 +42203,23 @@
         <v>4</v>
       </c>
       <c r="J11" s="1">
+        <f>VLOOKUP($A11,Exp!$Q11:$R109,2)/$E11</f>
+        <v>24.050024050024053</v>
+      </c>
+      <c r="K11" s="1">
         <f>VLOOKUP(A11,Exp!M11:N109,2)/E11</f>
         <v>59.403559403559413</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L11">
+        <f>VLOOKUP($A11,Exp!$Q11:$R109,2)/($E11*N11)</f>
+        <v>24.050024050024053</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -41879,7 +42240,7 @@
         <v>4.8453333333333335</v>
       </c>
       <c r="F12" s="1">
-        <f>VLOOKUP(A12,Exp!Q12:R110,2)/E12</f>
+        <f>VLOOKUP($A12,Exp!$Q12:$R110,2)/$E12</f>
         <v>28.06824435883324</v>
       </c>
       <c r="G12">
@@ -41891,11 +42252,23 @@
         <v>4</v>
       </c>
       <c r="J12" s="1">
+        <f>VLOOKUP($A12,Exp!$Q12:$R110,2)/$E12</f>
+        <v>28.06824435883324</v>
+      </c>
+      <c r="K12" s="1">
         <f>VLOOKUP(A12,Exp!M12:N110,2)/E12</f>
         <v>64.804623004953214</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L12">
+        <f>VLOOKUP($A12,Exp!$Q12:$R110,2)/($E12*N12)</f>
+        <v>27.655482820797484</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>1.014925125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -41916,7 +42289,7 @@
         <v>5.5286666666666671</v>
       </c>
       <c r="F13" s="1">
-        <f>VLOOKUP(A13,Exp!Q13:R111,2)/E13</f>
+        <f>VLOOKUP($A13,Exp!$Q13:$R111,2)/$E13</f>
         <v>32.557578680815141</v>
       </c>
       <c r="G13">
@@ -41928,11 +42301,23 @@
         <v>5</v>
       </c>
       <c r="J13" s="1">
+        <f>VLOOKUP($A13,Exp!$Q13:$R111,2)/$E13</f>
+        <v>32.557578680815141</v>
+      </c>
+      <c r="K13" s="1">
         <f>VLOOKUP(A13,Exp!M13:N111,2)/E13</f>
         <v>70.541420475099471</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L13">
+        <f>VLOOKUP($A13,Exp!$Q13:$R111,2)/($E13*N13)</f>
+        <v>31.618478258072134</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>1.0297010000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -41953,7 +42338,7 @@
         <v>6.208000000000002</v>
       </c>
       <c r="F14" s="1">
-        <f>VLOOKUP(A14,Exp!Q14:R112,2)/E14</f>
+        <f>VLOOKUP($A14,Exp!$Q14:$R112,2)/$E14</f>
         <v>38.015463917525764</v>
       </c>
       <c r="G14">
@@ -41965,11 +42350,23 @@
         <v>5</v>
       </c>
       <c r="J14" s="1">
+        <f>VLOOKUP($A14,Exp!$Q14:$R112,2)/$E14</f>
+        <v>38.015463917525764</v>
+      </c>
+      <c r="K14" s="1">
         <f>VLOOKUP(A14,Exp!M14:N112,2)/E14</f>
         <v>76.83634020618554</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L14">
+        <f>VLOOKUP($A14,Exp!$Q14:$R112,2)/($E14*N14)</f>
+        <v>36.401829948866187</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>1.0443283750000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -41990,7 +42387,7 @@
         <v>6.8833333333333346</v>
       </c>
       <c r="F15" s="1">
-        <f>VLOOKUP(A15,Exp!Q15:R113,2)/E15</f>
+        <f>VLOOKUP($A15,Exp!$Q15:$R113,2)/$E15</f>
         <v>45.326876513317181</v>
       </c>
       <c r="G15">
@@ -42002,11 +42399,23 @@
         <v>5</v>
       </c>
       <c r="J15" s="1">
+        <f>VLOOKUP($A15,Exp!$Q15:$R113,2)/$E15</f>
+        <v>45.326876513317181</v>
+      </c>
+      <c r="K15" s="1">
         <f>VLOOKUP(A15,Exp!M15:N113,2)/E15</f>
         <v>83.244552058111367</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L15">
+        <f>VLOOKUP($A15,Exp!$Q15:$R113,2)/($E15*N15)</f>
+        <v>42.809344577408915</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>1.058808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -42027,7 +42436,7 @@
         <v>7.5546666666666686</v>
       </c>
       <c r="F16" s="1">
-        <f>VLOOKUP(A16,Exp!Q16:R114,2)/E16</f>
+        <f>VLOOKUP($A16,Exp!$Q16:$R114,2)/$E16</f>
         <v>52.550300035298257</v>
       </c>
       <c r="G16">
@@ -42039,11 +42448,23 @@
         <v>6</v>
       </c>
       <c r="J16" s="1">
+        <f>VLOOKUP($A16,Exp!$Q16:$R114,2)/$E16</f>
+        <v>52.550300035298257</v>
+      </c>
+      <c r="K16" s="1">
         <f>VLOOKUP(A16,Exp!M16:N114,2)/E16</f>
         <v>90.142957995058225</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L16">
+        <f>VLOOKUP($A16,Exp!$Q16:$R114,2)/($E16*N16)</f>
+        <v>48.968698799654746</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>1.0731406250000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -42064,7 +42485,7 @@
         <v>8.2220000000000013</v>
       </c>
       <c r="F17" s="1">
-        <f>VLOOKUP(A17,Exp!Q17:R115,2)/E17</f>
+        <f>VLOOKUP($A17,Exp!$Q17:$R115,2)/$E17</f>
         <v>60.325954755533921</v>
       </c>
       <c r="G17">
@@ -42076,11 +42497,23 @@
         <v>6</v>
       </c>
       <c r="J17" s="1">
+        <f>VLOOKUP($A17,Exp!$Q17:$R115,2)/$E17</f>
+        <v>60.325954755533921</v>
+      </c>
+      <c r="K17" s="1">
         <f>VLOOKUP(A17,Exp!M17:N115,2)/E17</f>
         <v>97.056677207492072</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L17">
+        <f>VLOOKUP($A17,Exp!$Q17:$R115,2)/($E17*N17)</f>
+        <v>55.480968241875644</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>1.0873270000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -42101,7 +42534,7 @@
         <v>8.8853333333333318</v>
       </c>
       <c r="F18" s="1">
-        <f>VLOOKUP(A18,Exp!Q18:R116,2)/E18</f>
+        <f>VLOOKUP($A18,Exp!$Q18:$R116,2)/$E18</f>
         <v>69.102641056422584</v>
       </c>
       <c r="G18">
@@ -42113,11 +42546,23 @@
         <v>6</v>
       </c>
       <c r="J18" s="1">
+        <f>VLOOKUP($A18,Exp!$Q18:$R116,2)/$E18</f>
+        <v>69.102641056422584</v>
+      </c>
+      <c r="K18" s="1">
         <f>VLOOKUP(A18,Exp!M18:N116,2)/E18</f>
         <v>104.21668667466989</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L18">
+        <f>VLOOKUP($A18,Exp!$Q18:$R116,2)/($E18*N18)</f>
+        <v>62.742560978022496</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>1.1013678750000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -42138,7 +42583,7 @@
         <v>9.5446666666666644</v>
       </c>
       <c r="F19" s="1">
-        <f>VLOOKUP(A19,Exp!Q19:R117,2)/E19</f>
+        <f>VLOOKUP($A19,Exp!$Q19:$R117,2)/$E19</f>
         <v>79.62561989243558</v>
       </c>
       <c r="G19">
@@ -42150,11 +42595,23 @@
         <v>7</v>
       </c>
       <c r="J19" s="1">
+        <f>VLOOKUP($A19,Exp!$Q19:$R117,2)/$E19</f>
+        <v>79.62561989243558</v>
+      </c>
+      <c r="K19" s="1">
         <f>VLOOKUP(A19,Exp!M19:N117,2)/E19</f>
         <v>111.58063840189986</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L19">
+        <f>VLOOKUP($A19,Exp!$Q19:$R117,2)/($E19*N19)</f>
+        <v>71.396207438270736</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>1.115264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -42175,7 +42632,7 @@
         <v>10.199999999999998</v>
       </c>
       <c r="F20" s="1">
-        <f>VLOOKUP(A20,Exp!Q20:R118,2)/E20</f>
+        <f>VLOOKUP($A20,Exp!$Q20:$R118,2)/$E20</f>
         <v>90.490196078431396</v>
       </c>
       <c r="G20">
@@ -42187,11 +42644,23 @@
         <v>7</v>
       </c>
       <c r="J20" s="1">
+        <f>VLOOKUP($A20,Exp!$Q20:$R118,2)/$E20</f>
+        <v>90.490196078431396</v>
+      </c>
+      <c r="K20" s="1">
         <f>VLOOKUP(A20,Exp!M20:N118,2)/E20</f>
         <v>119.11764705882356</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L20">
+        <f>VLOOKUP($A20,Exp!$Q20:$R118,2)/($E20*N20)</f>
+        <v>80.149604664354442</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>1.1290161250000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -42212,7 +42681,7 @@
         <v>10.851333333333331</v>
       </c>
       <c r="F21" s="1">
-        <f>VLOOKUP(A21,Exp!Q21:R119,2)/E21</f>
+        <f>VLOOKUP($A21,Exp!$Q21:$R119,2)/$E21</f>
         <v>116.02260858880632</v>
       </c>
       <c r="G21">
@@ -42224,11 +42693,23 @@
         <v>7</v>
       </c>
       <c r="J21" s="1">
+        <f>VLOOKUP($A21,Exp!$Q21:$R119,2)/$E21</f>
+        <v>116.02260858880632</v>
+      </c>
+      <c r="K21" s="1">
         <f>VLOOKUP(A21,Exp!M21:N119,2)/E21</f>
         <v>230.84720771640971</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L21">
+        <f>VLOOKUP($A21,Exp!$Q21:$R119,2)/($E21*N21)</f>
+        <v>101.54040791056234</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>1.1426250000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -42249,7 +42730,7 @@
         <v>11.498666666666665</v>
       </c>
       <c r="F22" s="1">
-        <f>VLOOKUP(A22,Exp!Q22:R120,2)/E22</f>
+        <f>VLOOKUP($A22,Exp!$Q22:$R120,2)/$E22</f>
         <v>130.27597402597405</v>
       </c>
       <c r="G22">
@@ -42261,11 +42742,23 @@
         <v>8</v>
       </c>
       <c r="J22" s="1">
+        <f>VLOOKUP($A22,Exp!$Q22:$R120,2)/$E22</f>
+        <v>130.27597402597405</v>
+      </c>
+      <c r="K22" s="1">
         <f>VLOOKUP(A22,Exp!M22:N120,2)/E22</f>
         <v>244.89795918367349</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L22">
+        <f>VLOOKUP($A22,Exp!$Q22:$R120,2)/($E22*N22)</f>
+        <v>112.68657205056482</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>1.1560913749999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -42286,7 +42779,7 @@
         <v>12.141999999999999</v>
       </c>
       <c r="F23" s="1">
-        <f>VLOOKUP(A23,Exp!Q23:R121,2)/E23</f>
+        <f>VLOOKUP($A23,Exp!$Q23:$R121,2)/$E23</f>
         <v>146.35150716521167</v>
       </c>
       <c r="G23">
@@ -42298,11 +42791,23 @@
         <v>8</v>
       </c>
       <c r="J23" s="1">
+        <f>VLOOKUP($A23,Exp!$Q23:$R121,2)/$E23</f>
+        <v>146.35150716521167</v>
+      </c>
+      <c r="K23" s="1">
         <f>VLOOKUP(A23,Exp!M23:N121,2)/E23</f>
         <v>259.34771866249383</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L23">
+        <f>VLOOKUP($A23,Exp!$Q23:$R121,2)/($E23*N23)</f>
+        <v>125.14922590866865</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>1.169416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -42323,7 +42828,7 @@
         <v>12.781333333333333</v>
       </c>
       <c r="F24" s="1">
-        <f>VLOOKUP(A24,Exp!Q24:R122,2)/E24</f>
+        <f>VLOOKUP($A24,Exp!$Q24:$R122,2)/$E24</f>
         <v>163.20675985812645</v>
       </c>
       <c r="G24">
@@ -42335,11 +42840,23 @@
         <v>8</v>
       </c>
       <c r="J24" s="1">
+        <f>VLOOKUP($A24,Exp!$Q24:$R122,2)/$E24</f>
+        <v>163.20675985812645</v>
+      </c>
+      <c r="K24" s="1">
         <f>VLOOKUP(A24,Exp!M24:N122,2)/E24</f>
         <v>274.14980179428335</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L24">
+        <f>VLOOKUP($A24,Exp!$Q24:$R122,2)/($E24*N24)</f>
+        <v>138.00677457353873</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>1.1825996249999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -42360,7 +42877,7 @@
         <v>13.416666666666668</v>
       </c>
       <c r="F25" s="1">
-        <f>VLOOKUP(A25,Exp!Q25:R123,2)/E25</f>
+        <f>VLOOKUP($A25,Exp!$Q25:$R123,2)/$E25</f>
         <v>192.3726708074534</v>
       </c>
       <c r="G25">
@@ -42372,11 +42889,23 @@
         <v>9</v>
       </c>
       <c r="J25" s="1">
+        <f>VLOOKUP($A25,Exp!$Q25:$R123,2)/$E25</f>
+        <v>192.3726708074534</v>
+      </c>
+      <c r="K25" s="1">
         <f>VLOOKUP(A25,Exp!M25:N123,2)/E25</f>
         <v>288.96894409937886</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L25">
+        <f>VLOOKUP($A25,Exp!$Q25:$R123,2)/($E25*N25)</f>
+        <v>160.89474099497374</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>1.195643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -42397,7 +42926,7 @@
         <v>14.048</v>
       </c>
       <c r="F26" s="1">
-        <f>VLOOKUP(A26,Exp!Q26:R124,2)/E26</f>
+        <f>VLOOKUP($A26,Exp!$Q26:$R124,2)/$E26</f>
         <v>212.98405466970388</v>
       </c>
       <c r="G26">
@@ -42409,11 +42938,23 @@
         <v>9</v>
       </c>
       <c r="J26" s="1">
+        <f>VLOOKUP($A26,Exp!$Q26:$R124,2)/$E26</f>
+        <v>212.98405466970388</v>
+      </c>
+      <c r="K26" s="1">
         <f>VLOOKUP(A26,Exp!M26:N124,2)/E26</f>
         <v>304.10022779043283</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L26">
+        <f>VLOOKUP($A26,Exp!$Q26:$R124,2)/($E26*N26)</f>
+        <v>176.23152156982235</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>1.2085468749999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -42422,7 +42963,7 @@
         <v>1.6062866266041591</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ref="C27:C90" si="6">(A27*20+A27*B27*2+30)*0.7</f>
+        <f t="shared" ref="C27:C90" si="7">(A27*20+A27*B27*2+30)*0.7</f>
         <v>443.46883320839135</v>
       </c>
       <c r="D27" s="1">
@@ -42434,7 +42975,7 @@
         <v>14.675333333333334</v>
       </c>
       <c r="F27" s="1">
-        <f>VLOOKUP(A27,Exp!Q27:R125,2)/E27</f>
+        <f>VLOOKUP($A27,Exp!$Q27:$R125,2)/$E27</f>
         <v>235.63348930177619</v>
       </c>
       <c r="G27">
@@ -42446,11 +42987,23 @@
         <v>9</v>
       </c>
       <c r="J27" s="1">
+        <f>VLOOKUP($A27,Exp!$Q27:$R125,2)/$E27</f>
+        <v>235.63348930177619</v>
+      </c>
+      <c r="K27" s="1">
         <f>VLOOKUP(A27,Exp!M27:N125,2)/E27</f>
         <v>319.37945759324032</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L27">
+        <f>VLOOKUP($A27,Exp!$Q27:$R125,2)/($E27*N27)</f>
+        <v>192.93472044962812</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>1.221312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -42459,7 +43012,7 @@
         <v>1.6498019170849885</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>461.36251246581253</v>
       </c>
       <c r="D28" s="1">
@@ -42471,7 +43024,7 @@
         <v>15.298666666666669</v>
       </c>
       <c r="F28" s="1">
-        <f>VLOOKUP(A28,Exp!Q28:R126,2)/E28</f>
+        <f>VLOOKUP($A28,Exp!$Q28:$R126,2)/$E28</f>
         <v>259.30364301899942</v>
       </c>
       <c r="G28">
@@ -42483,11 +43036,23 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
+        <f>VLOOKUP($A28,Exp!$Q28:$R126,2)/$E28</f>
+        <v>259.30364301899942</v>
+      </c>
+      <c r="K28" s="1">
         <f>VLOOKUP(A28,Exp!M28:N126,2)/E28</f>
         <v>334.8657835105455</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L28">
+        <f>VLOOKUP($A28,Exp!$Q28:$R126,2)/($E28*N28)</f>
+        <v>210.14297850309222</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>1.233939125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -42496,7 +43061,7 @@
         <v>1.6964404506368993</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>479.50046566496644</v>
       </c>
       <c r="D29" s="1">
@@ -42508,7 +43073,7 @@
         <v>15.917999999999999</v>
       </c>
       <c r="F29" s="1">
-        <f>VLOOKUP(A29,Exp!Q29:R127,2)/E29</f>
+        <f>VLOOKUP($A29,Exp!$Q29:$R127,2)/$E29</f>
         <v>293.81831888428195</v>
       </c>
       <c r="G29">
@@ -42520,11 +43085,23 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
+        <f>VLOOKUP($A29,Exp!$Q29:$R127,2)/$E29</f>
+        <v>293.81831888428195</v>
+      </c>
+      <c r="K29" s="1">
         <f>VLOOKUP(A29,Exp!M29:N127,2)/E29</f>
         <v>350.5465510742556</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L29">
+        <f>VLOOKUP($A29,Exp!$Q29:$R127,2)/($E29*N29)</f>
+        <v>235.72808309521196</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>1.246429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -42533,7 +43110,7 @@
         <v>1.7464263932294457</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>497.90491156511547</v>
       </c>
       <c r="D30" s="1">
@@ -42545,7 +43122,7 @@
         <v>16.533333333333331</v>
       </c>
       <c r="F30" s="1">
-        <f>VLOOKUP(A30,Exp!Q30:R128,2)/E30</f>
+        <f>VLOOKUP($A30,Exp!$Q30:$R128,2)/$E30</f>
         <v>321.71370967741939</v>
       </c>
       <c r="G30">
@@ -42557,11 +43134,23 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
+        <f>VLOOKUP($A30,Exp!$Q30:$R128,2)/$E30</f>
+        <v>321.71370967741939</v>
+      </c>
+      <c r="K30" s="1">
         <f>VLOOKUP(A30,Exp!M30:N128,2)/E30</f>
         <v>366.35080645161293</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L30">
+        <f>VLOOKUP($A30,Exp!$Q30:$R128,2)/($E30*N30)</f>
+        <v>255.57532109346494</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>1.258782375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -42570,7 +43159,7 @@
         <v>4.8</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>642.59999999999991</v>
       </c>
       <c r="D31" s="1">
@@ -42582,7 +43171,7 @@
         <v>17.144666666666669</v>
       </c>
       <c r="F31" s="1">
-        <f>VLOOKUP(A31,Exp!Q31:R129,2)/E31</f>
+        <f>VLOOKUP($A31,Exp!$Q31:$R129,2)/$E31</f>
         <v>394.17505929929609</v>
       </c>
       <c r="G31">
@@ -42594,11 +43183,23 @@
         <v>11</v>
       </c>
       <c r="J31" s="1">
+        <f>VLOOKUP($A31,Exp!$Q31:$R129,2)/$E31</f>
+        <v>394.17505929929609</v>
+      </c>
+      <c r="K31" s="1">
         <f>VLOOKUP(A31,Exp!M31:N129,2)/E31</f>
         <v>594.4122564840377</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L31">
+        <f>VLOOKUP($A31,Exp!$Q31:$R129,2)/($E31*N31)</f>
+        <v>310.12986569574832</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>1.2709999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -42607,7 +43208,7 @@
         <v>4.8574187700290343</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>665.81197461926001</v>
       </c>
       <c r="D32" s="1">
@@ -42619,7 +43220,7 @@
         <v>17.752000000000002</v>
       </c>
       <c r="F32" s="1">
-        <f>VLOOKUP(A32,Exp!Q32:R130,2)/E32</f>
+        <f>VLOOKUP($A32,Exp!$Q32:$R130,2)/$E32</f>
         <v>428.79675529517795</v>
       </c>
       <c r="G32">
@@ -42631,11 +43232,23 @@
         <v>11</v>
       </c>
       <c r="J32" s="1">
+        <f>VLOOKUP($A32,Exp!$Q32:$R130,2)/$E32</f>
+        <v>428.79675529517795</v>
+      </c>
+      <c r="K32" s="1">
         <f>VLOOKUP(A32,Exp!M32:N130,2)/E32</f>
         <v>619.64849031095082</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L32">
+        <f>VLOOKUP($A32,Exp!$Q32:$R130,2)/($E32*N32)</f>
+        <v>334.19262870555821</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>1.283082625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -42644,7 +43257,7 @@
         <v>4.9189586839976283</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>689.36934904309373</v>
       </c>
       <c r="D33" s="1">
@@ -42656,7 +43269,7 @@
         <v>18.355333333333334</v>
       </c>
       <c r="F33" s="1">
-        <f>VLOOKUP(A33,Exp!Q33:R131,2)/E33</f>
+        <f>VLOOKUP($A33,Exp!$Q33:$R131,2)/$E33</f>
         <v>473.43188174190971</v>
       </c>
       <c r="G33">
@@ -42668,11 +43281,23 @@
         <v>11</v>
       </c>
       <c r="J33" s="1">
+        <f>VLOOKUP($A33,Exp!$Q33:$R131,2)/$E33</f>
+        <v>473.43188174190971</v>
+      </c>
+      <c r="K33" s="1">
         <f>VLOOKUP(A33,Exp!M33:N131,2)/E33</f>
         <v>645.04412886354555</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L33">
+        <f>VLOOKUP($A33,Exp!$Q33:$R131,2)/($E33*N33)</f>
+        <v>365.57571343227283</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>1.2950309999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -42681,7 +43306,7 @@
         <v>4.9849155306759325</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>713.30309751722803</v>
       </c>
       <c r="D34" s="1">
@@ -42693,7 +43318,7 @@
         <v>18.954666666666668</v>
       </c>
       <c r="F34" s="1">
-        <f>VLOOKUP(A34,Exp!Q34:R132,2)/E34</f>
+        <f>VLOOKUP($A34,Exp!$Q34:$R132,2)/$E34</f>
         <v>512.90799099606079</v>
       </c>
       <c r="G34">
@@ -42705,11 +43330,23 @@
         <v>12</v>
       </c>
       <c r="J34" s="1">
+        <f>VLOOKUP($A34,Exp!$Q34:$R132,2)/$E34</f>
+        <v>512.90799099606079</v>
+      </c>
+      <c r="K34" s="1">
         <f>VLOOKUP(A34,Exp!M34:N132,2)/E34</f>
         <v>670.70554305008432</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L34">
+        <f>VLOOKUP($A34,Exp!$Q34:$R132,2)/($E34*N34)</f>
+        <v>392.47779773269798</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>1.306845875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -42718,11 +43355,11 @@
         <v>5.0556063286183157</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>737.64686124223181</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D66" si="7">(5+A35*2.5+10*B35)*MIN(A35/20*0.4+0.6,1)</f>
+        <f t="shared" ref="D35:D66" si="8">(5+A35*2.5+10*B35)*MIN(A35/20*0.4+0.6,1)</f>
         <v>140.55606328618316</v>
       </c>
       <c r="E35" s="1">
@@ -42730,7 +43367,7 @@
         <v>19.549999999999997</v>
       </c>
       <c r="F35" s="1">
-        <f>VLOOKUP(A35,Exp!Q35:R133,2)/E35</f>
+        <f>VLOOKUP($A35,Exp!$Q35:$R133,2)/$E35</f>
         <v>592.07161125319703</v>
       </c>
       <c r="G35">
@@ -42742,11 +43379,23 @@
         <v>12</v>
       </c>
       <c r="J35" s="1">
+        <f>VLOOKUP($A35,Exp!$Q35:$R133,2)/$E35</f>
+        <v>592.07161125319703</v>
+      </c>
+      <c r="K35" s="1">
         <f>VLOOKUP(A35,Exp!M35:N133,2)/E35</f>
         <v>696.57289002557559</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L35">
+        <f>VLOOKUP($A35,Exp!$Q35:$R133,2)/($E35*N35)</f>
+        <v>449.03984689987391</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>1.3185280000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -42755,11 +43404,11 @@
         <v>5.1313708498984756</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>762.43717164502527</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>143.81370849898474</v>
       </c>
       <c r="E36" s="1">
@@ -42767,7 +43416,7 @@
         <v>20.141333333333336</v>
       </c>
       <c r="F36" s="1">
-        <f>VLOOKUP(A36,Exp!Q36:R134,2)/E36</f>
+        <f>VLOOKUP($A36,Exp!$Q36:$R134,2)/$E36</f>
         <v>638.93486032040244</v>
       </c>
       <c r="G36">
@@ -42779,11 +43428,23 @@
         <v>12</v>
       </c>
       <c r="J36" s="1">
+        <f>VLOOKUP($A36,Exp!$Q36:$R134,2)/$E36</f>
+        <v>638.93486032040244</v>
+      </c>
+      <c r="K36" s="1">
         <f>VLOOKUP(A36,Exp!M36:N134,2)/E36</f>
         <v>722.89156626506019</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L36">
+        <f>VLOOKUP($A36,Exp!$Q36:$R134,2)/($E36*N36)</f>
+        <v>480.37393316306321</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>1.330078125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -42792,11 +43453,11 @@
         <v>5.2125732532083182</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>787.71369196169928</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>147.12573253208319</v>
       </c>
       <c r="E37" s="1">
@@ -42804,7 +43465,7 @@
         <v>20.728666666666665</v>
       </c>
       <c r="F37" s="1">
-        <f>VLOOKUP(A37,Exp!Q37:R135,2)/E37</f>
+        <f>VLOOKUP($A37,Exp!$Q37:$R135,2)/$E37</f>
         <v>695.12430450583736</v>
       </c>
       <c r="G37">
@@ -42816,11 +43477,23 @@
         <v>13</v>
       </c>
       <c r="J37" s="1">
+        <f>VLOOKUP($A37,Exp!$Q37:$R135,2)/$E37</f>
+        <v>695.12430450583736</v>
+      </c>
+      <c r="K37" s="1">
         <f>VLOOKUP(A37,Exp!M37:N135,2)/E37</f>
         <v>749.20400090052431</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L37">
+        <f>VLOOKUP($A37,Exp!$Q37:$R135,2)/($E37*N37)</f>
+        <v>518.17059934225529</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>1.3414969999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -42829,11 +43502,11 @@
         <v>5.2996038341699769</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>813.51947861000474</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>150.49603834169977</v>
       </c>
       <c r="E38" s="1">
@@ -42841,7 +43514,7 @@
         <v>21.311999999999998</v>
       </c>
       <c r="F38" s="1">
-        <f>VLOOKUP(A38,Exp!Q38:R136,2)/E38</f>
+        <f>VLOOKUP($A38,Exp!$Q38:$R136,2)/$E38</f>
         <v>747.46621621621625</v>
       </c>
       <c r="G38">
@@ -42853,11 +43526,23 @@
         <v>13</v>
       </c>
       <c r="J38" s="1">
+        <f>VLOOKUP($A38,Exp!$Q38:$R136,2)/$E38</f>
+        <v>747.46621621621625</v>
+      </c>
+      <c r="K38" s="1">
         <f>VLOOKUP(A38,Exp!M38:N136,2)/E38</f>
         <v>775.9478228228229</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L38">
+        <f>VLOOKUP($A38,Exp!$Q38:$R136,2)/($E38*N38)</f>
+        <v>552.53865840781759</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>1.3527853749999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -42866,11 +43551,11 @@
         <v>5.3928809012737986</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>839.9012639477661</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>153.92880901273799</v>
       </c>
       <c r="E39" s="1">
@@ -42878,7 +43563,7 @@
         <v>21.891333333333336</v>
       </c>
       <c r="F39" s="1">
-        <f>VLOOKUP(A39,Exp!Q39:R137,2)/E39</f>
+        <f>VLOOKUP($A39,Exp!$Q39:$R137,2)/$E39</f>
         <v>835.76453390991855</v>
       </c>
       <c r="G39">
@@ -42890,11 +43575,23 @@
         <v>13</v>
       </c>
       <c r="J39" s="1">
+        <f>VLOOKUP($A39,Exp!$Q39:$R137,2)/$E39</f>
+        <v>835.76453390991855</v>
+      </c>
+      <c r="K39" s="1">
         <f>VLOOKUP(A39,Exp!M39:N137,2)/E39</f>
         <v>802.7834455035478</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L39">
+        <f>VLOOKUP($A39,Exp!$Q39:$R137,2)/($E39*N39)</f>
+        <v>612.75575383587488</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>1.363944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -42903,11 +43600,11 @@
         <v>5.4928527864588919</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>866.9097621406554</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>157.42852786458892</v>
       </c>
       <c r="E40" s="1">
@@ -42915,7 +43612,7 @@
         <v>22.466666666666669</v>
       </c>
       <c r="F40" s="1">
-        <f>VLOOKUP(A40,Exp!Q40:R138,2)/E40</f>
+        <f>VLOOKUP($A40,Exp!$Q40:$R138,2)/$E40</f>
         <v>895.994065281899</v>
       </c>
       <c r="G40">
@@ -42927,11 +43624,23 @@
         <v>14</v>
       </c>
       <c r="J40" s="1">
+        <f>VLOOKUP($A40,Exp!$Q40:$R138,2)/$E40</f>
+        <v>895.994065281899</v>
+      </c>
+      <c r="K40" s="1">
         <f>VLOOKUP(A40,Exp!M40:N138,2)/E40</f>
         <v>829.940652818991</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L40">
+        <f>VLOOKUP($A40,Exp!$Q40:$R138,2)/($E40*N40)</f>
+        <v>651.64454720496849</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>1.374973625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -42940,11 +43649,11 @@
         <v>8.6</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1062.5999999999999</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
       <c r="E41" s="1">
@@ -42952,7 +43661,7 @@
         <v>23.037999999999997</v>
       </c>
       <c r="F41" s="1">
-        <f>VLOOKUP(A41,Exp!Q41:R139,2)/E41</f>
+        <f>VLOOKUP($A41,Exp!$Q41:$R139,2)/$E41</f>
         <v>1058.5554301588681</v>
       </c>
       <c r="G41">
@@ -42964,11 +43673,23 @@
         <v>14</v>
       </c>
       <c r="J41" s="1">
+        <f>VLOOKUP($A41,Exp!$Q41:$R139,2)/$E41</f>
+        <v>1058.5554301588681</v>
+      </c>
+      <c r="K41" s="1">
         <f>VLOOKUP(A41,Exp!M41:N139,2)/E41</f>
         <v>1207.3530688427816</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L41">
+        <f>VLOOKUP($A41,Exp!$Q41:$R139,2)/($E41*N41)</f>
+        <v>763.81739345818926</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>1.385875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -42977,11 +43698,11 @@
         <v>8.7148375400580687</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1095.2316747993332</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>194.64837540058068</v>
       </c>
       <c r="E42" s="1">
@@ -42989,7 +43710,7 @@
         <v>23.605333333333334</v>
       </c>
       <c r="F42" s="1">
-        <f>VLOOKUP(A42,Exp!Q42:R140,2)/E42</f>
+        <f>VLOOKUP($A42,Exp!$Q42:$R140,2)/$E42</f>
         <v>1130.3801400813375</v>
       </c>
       <c r="G42">
@@ -43001,11 +43722,23 @@
         <v>14</v>
       </c>
       <c r="J42" s="1">
+        <f>VLOOKUP($A42,Exp!$Q42:$R140,2)/$E42</f>
+        <v>1130.3801400813375</v>
+      </c>
+      <c r="K42" s="1">
         <f>VLOOKUP(A42,Exp!M42:N140,2)/E42</f>
         <v>1246.3285133303207</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L42">
+        <f>VLOOKUP($A42,Exp!$Q42:$R140,2)/($E42*N42)</f>
+        <v>809.35169913865241</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>1.3966488750000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -43014,11 +43747,11 @@
         <v>8.8379173679952565</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1128.6695412381209</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>198.37917367995257</v>
       </c>
       <c r="E43" s="1">
@@ -43026,7 +43759,7 @@
         <v>24.168666666666667</v>
       </c>
       <c r="F43" s="1">
-        <f>VLOOKUP(A43,Exp!Q43:R141,2)/E43</f>
+        <f>VLOOKUP($A43,Exp!$Q43:$R141,2)/$E43</f>
         <v>1235.5253358342759</v>
       </c>
       <c r="G43">
@@ -43038,11 +43771,23 @@
         <v>15</v>
       </c>
       <c r="J43" s="1">
+        <f>VLOOKUP($A43,Exp!$Q43:$R141,2)/$E43</f>
+        <v>1235.5253358342759</v>
+      </c>
+      <c r="K43" s="1">
         <f>VLOOKUP(A43,Exp!M43:N141,2)/E43</f>
         <v>1285.5074062836179</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L43">
+        <f>VLOOKUP($A43,Exp!$Q43:$R141,2)/($E43*N43)</f>
+        <v>877.94276103554319</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>1.4072960000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -43051,11 +43796,11 @@
         <v>8.9698310613518668</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1162.9838298933821</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>202.19831061351869</v>
       </c>
       <c r="E44" s="1">
@@ -43063,7 +43808,7 @@
         <v>24.727999999999998</v>
       </c>
       <c r="F44" s="1">
-        <f>VLOOKUP(A44,Exp!Q44:R142,2)/E44</f>
+        <f>VLOOKUP($A44,Exp!$Q44:$R142,2)/$E44</f>
         <v>1316.1193788417988</v>
       </c>
       <c r="G44">
@@ -43075,11 +43820,23 @@
         <v>15</v>
       </c>
       <c r="J44" s="1">
+        <f>VLOOKUP($A44,Exp!$Q44:$R142,2)/$E44</f>
+        <v>1316.1193788417988</v>
+      </c>
+      <c r="K44" s="1">
         <f>VLOOKUP(A44,Exp!M44:N142,2)/E44</f>
         <v>1325.0161759948237</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L44">
+        <f>VLOOKUP($A44,Exp!$Q44:$R142,2)/($E44*N44)</f>
+        <v>928.27160543839454</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>1.417817125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -43088,11 +43845,11 @@
         <v>9.1112126572366314</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1198.2506996857765</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>206.11212657236632</v>
       </c>
       <c r="E45" s="1">
@@ -43100,7 +43857,7 @@
         <v>25.283333333333331</v>
       </c>
       <c r="F45" s="1">
-        <f>VLOOKUP(A45,Exp!Q45:R143,2)/E45</f>
+        <f>VLOOKUP($A45,Exp!$Q45:$R143,2)/$E45</f>
         <v>1490.7053394858274</v>
       </c>
       <c r="G45">
@@ -43112,11 +43869,23 @@
         <v>15</v>
       </c>
       <c r="J45" s="1">
+        <f>VLOOKUP($A45,Exp!$Q45:$R143,2)/$E45</f>
+        <v>1490.7053394858274</v>
+      </c>
+      <c r="K45" s="1">
         <f>VLOOKUP(A45,Exp!M45:N143,2)/E45</f>
         <v>1364.7725774555045</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L45">
+        <f>VLOOKUP($A45,Exp!$Q45:$R143,2)/($E45*N45)</f>
+        <v>1043.7556159241146</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>1.428213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -43125,11 +43894,11 @@
         <v>9.2627416997969512</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1234.5527270872078</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>210.1274169979695</v>
       </c>
       <c r="E46" s="1">
@@ -43137,7 +43906,7 @@
         <v>25.834666666666664</v>
       </c>
       <c r="F46" s="1">
-        <f>VLOOKUP(A46,Exp!Q46:R144,2)/E46</f>
+        <f>VLOOKUP($A46,Exp!$Q46:$R144,2)/$E46</f>
         <v>1583.7634186622629</v>
       </c>
       <c r="G46">
@@ -43149,11 +43918,23 @@
         <v>16</v>
       </c>
       <c r="J46" s="1">
+        <f>VLOOKUP($A46,Exp!$Q46:$R144,2)/$E46</f>
+        <v>1583.7634186622629</v>
+      </c>
+      <c r="K46" s="1">
         <f>VLOOKUP(A46,Exp!M46:N144,2)/E46</f>
         <v>1405.1661849710983</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L46">
+        <f>VLOOKUP($A46,Exp!$Q46:$R144,2)/($E46*N46)</f>
+        <v>1100.9945232545629</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>1.438484375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -43162,11 +43943,11 @@
         <v>9.4251465064166347</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1271.9794350132313</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>214.25146506416635</v>
       </c>
       <c r="E47" s="1">
@@ -43174,7 +43955,7 @@
         <v>26.381999999999998</v>
       </c>
       <c r="F47" s="1">
-        <f>VLOOKUP(A47,Exp!Q47:R145,2)/E47</f>
+        <f>VLOOKUP($A47,Exp!$Q47:$R145,2)/$E47</f>
         <v>1708.0585247517247</v>
       </c>
       <c r="G47">
@@ -43186,11 +43967,23 @@
         <v>16</v>
       </c>
       <c r="J47" s="1">
+        <f>VLOOKUP($A47,Exp!$Q47:$R145,2)/$E47</f>
+        <v>1708.0585247517247</v>
+      </c>
+      <c r="K47" s="1">
         <f>VLOOKUP(A47,Exp!M47:N145,2)/E47</f>
         <v>1445.56894852551</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L47">
+        <f>VLOOKUP($A47,Exp!$Q47:$R145,2)/($E47*N47)</f>
+        <v>1179.0838009596121</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>1.4486319999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -43199,11 +43992,11 @@
         <v>9.5992076683399539</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1310.6278645767688</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>218.49207668339955</v>
       </c>
       <c r="E48" s="1">
@@ -43211,7 +44004,7 @@
         <v>26.925333333333334</v>
       </c>
       <c r="F48" s="1">
-        <f>VLOOKUP(A48,Exp!Q48:R146,2)/E48</f>
+        <f>VLOOKUP($A48,Exp!$Q48:$R146,2)/$E48</f>
         <v>1810.7111023076161</v>
       </c>
       <c r="G48">
@@ -43223,11 +44016,23 @@
         <v>16</v>
       </c>
       <c r="J48" s="1">
+        <f>VLOOKUP($A48,Exp!$Q48:$R146,2)/$E48</f>
+        <v>1810.7111023076161</v>
+      </c>
+      <c r="K48" s="1">
         <f>VLOOKUP(A48,Exp!M48:N146,2)/E48</f>
         <v>1486.3697137763691</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L48">
+        <f>VLOOKUP($A48,Exp!$Q48:$R146,2)/($E48*N48)</f>
+        <v>1241.3552794219927</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>1.4586566250000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -43236,11 +44041,11 @@
         <v>9.7857618025475972</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1350.6031931311984</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>222.85761802547597</v>
       </c>
       <c r="E49" s="1">
@@ -43248,7 +44053,7 @@
         <v>27.464666666666666</v>
       </c>
       <c r="F49" s="1">
-        <f>VLOOKUP(A49,Exp!Q49:R147,2)/E49</f>
+        <f>VLOOKUP($A49,Exp!$Q49:$R147,2)/$E49</f>
         <v>2000.7160715586087</v>
       </c>
       <c r="G49">
@@ -43260,11 +44065,23 @@
         <v>17</v>
       </c>
       <c r="J49" s="1">
+        <f>VLOOKUP($A49,Exp!$Q49:$R147,2)/$E49</f>
+        <v>2000.7160715586087</v>
+      </c>
+      <c r="K49" s="1">
         <f>VLOOKUP(A49,Exp!M49:N147,2)/E49</f>
         <v>1527.4898657669248</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L49">
+        <f>VLOOKUP($A49,Exp!$Q49:$R147,2)/($E49*N49)</f>
+        <v>1362.3668314031704</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>1.4685589999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -43273,11 +44090,11 @@
         <v>9.9857055729177837</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1392.01940230216</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>227.35705572917783</v>
       </c>
       <c r="E50" s="1">
@@ -43285,7 +44102,7 @@
         <v>28</v>
       </c>
       <c r="F50" s="1">
-        <f>VLOOKUP(A50,Exp!Q50:R148,2)/E50</f>
+        <f>VLOOKUP($A50,Exp!$Q50:$R148,2)/$E50</f>
         <v>2116.6785714285716</v>
       </c>
       <c r="G50">
@@ -43297,11 +44114,23 @@
         <v>17</v>
       </c>
       <c r="J50" s="1">
+        <f>VLOOKUP($A50,Exp!$Q50:$R148,2)/$E50</f>
+        <v>2116.6785714285716</v>
+      </c>
+      <c r="K50" s="1">
         <f>VLOOKUP(A50,Exp!M50:N148,2)/E50</f>
         <v>1568.9642857142858</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L50">
+        <f>VLOOKUP($A50,Exp!$Q50:$R148,2)/($E50*N50)</f>
+        <v>1431.7942762847895</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>1.4783398750000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -43310,11 +44139,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1435</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>232</v>
       </c>
       <c r="E51" s="1">
@@ -43322,7 +44151,7 @@
         <v>28.531333333333336</v>
       </c>
       <c r="F51" s="1">
-        <f>VLOOKUP(A51,Exp!Q51:R149,2)/E51</f>
+        <f>VLOOKUP($A51,Exp!$Q51:$R149,2)/$E51</f>
         <v>2434.5514872537792</v>
       </c>
       <c r="G51">
@@ -43334,11 +44163,23 @@
         <v>17</v>
       </c>
       <c r="J51" s="1">
+        <f>VLOOKUP($A51,Exp!$Q51:$R149,2)/$E51</f>
+        <v>2434.5514872537792</v>
+      </c>
+      <c r="K51" s="1">
         <f>VLOOKUP(A51,Exp!M51:N149,2)/E51</f>
         <v>2127.3103254901043</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L51">
+        <f>VLOOKUP($A51,Exp!$Q51:$R149,2)/($E51*N51)</f>
+        <v>1636.1233113264645</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>1.488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -43347,11 +44188,11 @@
         <v>10.429675080116137</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1479.678800720292</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>236.79675080116138</v>
       </c>
       <c r="E52" s="1">
@@ -43359,7 +44200,7 @@
         <v>29.058666666666667</v>
       </c>
       <c r="F52" s="1">
-        <f>VLOOKUP(A52,Exp!Q52:R150,2)/E52</f>
+        <f>VLOOKUP($A52,Exp!$Q52:$R150,2)/$E52</f>
         <v>2569.1474717812243</v>
       </c>
       <c r="G52">
@@ -43371,11 +44212,23 @@
         <v>18</v>
       </c>
       <c r="J52" s="1">
+        <f>VLOOKUP($A52,Exp!$Q52:$R150,2)/$E52</f>
+        <v>2569.1474717812243</v>
+      </c>
+      <c r="K52" s="1">
         <f>VLOOKUP(A52,Exp!M52:N150,2)/E52</f>
         <v>2182.9976140222079</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L52">
+        <f>VLOOKUP($A52,Exp!$Q52:$R150,2)/($E52*N52)</f>
+        <v>1715.5783867769312</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="6"/>
+        <v>1.497540125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -43384,11 +44237,11 @@
         <v>10.675834735990513</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1526.2007687801092</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>241.75834735990514</v>
       </c>
       <c r="E53" s="1">
@@ -43396,7 +44249,7 @@
         <v>29.582000000000001</v>
       </c>
       <c r="F53" s="1">
-        <f>VLOOKUP(A53,Exp!Q53:R151,2)/E53</f>
+        <f>VLOOKUP($A53,Exp!$Q53:$R151,2)/$E53</f>
         <v>2785.8156987357174</v>
       </c>
       <c r="G53">
@@ -43408,11 +44261,23 @@
         <v>18</v>
       </c>
       <c r="J53" s="1">
+        <f>VLOOKUP($A53,Exp!$Q53:$R151,2)/$E53</f>
+        <v>2785.8156987357174</v>
+      </c>
+      <c r="K53" s="1">
         <f>VLOOKUP(A53,Exp!M53:N151,2)/E53</f>
         <v>2238.9628828341561</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L53">
+        <f>VLOOKUP($A53,Exp!$Q53:$R151,2)/($E53*N53)</f>
+        <v>1848.631582858294</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="6"/>
+        <v>1.506961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -43421,11 +44286,11 @@
         <v>10.93966212270373</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1574.7229295046166</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>246.89662122703731</v>
       </c>
       <c r="E54" s="1">
@@ -43433,7 +44298,7 @@
         <v>30.101333333333336</v>
       </c>
       <c r="F54" s="1">
-        <f>VLOOKUP(A54,Exp!Q54:R152,2)/E54</f>
+        <f>VLOOKUP($A54,Exp!$Q54:$R152,2)/$E54</f>
         <v>2935.0194897236001</v>
       </c>
       <c r="G54">
@@ -43445,11 +44310,23 @@
         <v>18</v>
       </c>
       <c r="J54" s="1">
+        <f>VLOOKUP($A54,Exp!$Q54:$R152,2)/$E54</f>
+        <v>2935.0194897236001</v>
+      </c>
+      <c r="K54" s="1">
         <f>VLOOKUP(A54,Exp!M54:N152,2)/E54</f>
         <v>2295.5793763288448</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L54">
+        <f>VLOOKUP($A54,Exp!$Q54:$R152,2)/($E54*N54)</f>
+        <v>1935.6923989037198</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="6"/>
+        <v>1.5162633749999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -43458,11 +44335,11 @@
         <v>11.222425314473261</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1625.4153537741784</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>252.22425314473261</v>
       </c>
       <c r="E55" s="1">
@@ -43470,7 +44347,7 @@
         <v>30.616666666666667</v>
       </c>
       <c r="F55" s="1">
-        <f>VLOOKUP(A55,Exp!Q55:R153,2)/E55</f>
+        <f>VLOOKUP($A55,Exp!$Q55:$R153,2)/$E55</f>
         <v>3273.3478497550354</v>
       </c>
       <c r="G55">
@@ -43482,11 +44359,23 @@
         <v>19</v>
       </c>
       <c r="J55" s="1">
+        <f>VLOOKUP($A55,Exp!$Q55:$R153,2)/$E55</f>
+        <v>3273.3478497550354</v>
+      </c>
+      <c r="K55" s="1">
         <f>VLOOKUP(A55,Exp!M55:N153,2)/E55</f>
         <v>2352.4442025040826</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L55">
+        <f>VLOOKUP($A55,Exp!$Q55:$R153,2)/($E55*N55)</f>
+        <v>2145.8272256773325</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="6"/>
+        <v>1.5254479999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -43495,11 +44384,11 @@
         <v>11.525483399593904</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1678.4622217687304</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>257.75483399593907</v>
       </c>
       <c r="E56" s="1">
@@ -43507,7 +44396,7 @@
         <v>31.128</v>
       </c>
       <c r="F56" s="1">
-        <f>VLOOKUP(A56,Exp!Q56:R154,2)/E56</f>
+        <f>VLOOKUP($A56,Exp!$Q56:$R154,2)/$E56</f>
         <v>3442.302749935749</v>
       </c>
       <c r="G56">
@@ -43519,11 +44408,23 @@
         <v>19</v>
       </c>
       <c r="J56" s="1">
+        <f>VLOOKUP($A56,Exp!$Q56:$R154,2)/$E56</f>
+        <v>3442.302749935749</v>
+      </c>
+      <c r="K56" s="1">
         <f>VLOOKUP(A56,Exp!M56:N154,2)/E56</f>
         <v>2409.7597018761244</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L56">
+        <f>VLOOKUP($A56,Exp!$Q56:$R154,2)/($E56*N56)</f>
+        <v>2243.2503741600867</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="6"/>
+        <v>1.534515625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -43532,11 +44433,11 @@
         <v>11.850293012833273</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1734.0629722061285</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>263.50293012833276</v>
       </c>
       <c r="E57" s="1">
@@ -43544,7 +44445,7 @@
         <v>31.635333333333335</v>
       </c>
       <c r="F57" s="1">
-        <f>VLOOKUP(A57,Exp!Q57:R155,2)/E57</f>
+        <f>VLOOKUP($A57,Exp!$Q57:$R155,2)/$E57</f>
         <v>3689.0712915937875</v>
       </c>
       <c r="G57">
@@ -43556,11 +44457,23 @@
         <v>19</v>
       </c>
       <c r="J57" s="1">
+        <f>VLOOKUP($A57,Exp!$Q57:$R155,2)/$E57</f>
+        <v>3689.0712915937875</v>
+      </c>
+      <c r="K57" s="1">
         <f>VLOOKUP(A57,Exp!M57:N155,2)/E57</f>
         <v>2467.5257623332559</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L57">
+        <f>VLOOKUP($A57,Exp!$Q57:$R155,2)/($E57*N57)</f>
+        <v>2390.1199647247317</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="6"/>
+        <v>1.5434669999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -43569,11 +44482,11 @@
         <v>12.198415336679908</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1792.4335438670566</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>269.48415336679909</v>
       </c>
       <c r="E58" s="1">
@@ -43581,7 +44494,7 @@
         <v>32.138666666666666</v>
       </c>
       <c r="F58" s="1">
-        <f>VLOOKUP(A58,Exp!Q58:R156,2)/E58</f>
+        <f>VLOOKUP($A58,Exp!$Q58:$R156,2)/$E58</f>
         <v>3873.9628277464321</v>
       </c>
       <c r="G58">
@@ -43593,11 +44506,23 @@
         <v>20</v>
       </c>
       <c r="J58" s="1">
+        <f>VLOOKUP($A58,Exp!$Q58:$R156,2)/$E58</f>
+        <v>3873.9628277464321</v>
+      </c>
+      <c r="K58" s="1">
         <f>VLOOKUP(A58,Exp!M58:N156,2)/E58</f>
         <v>2525.7426153335546</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L58">
+        <f>VLOOKUP($A58,Exp!$Q58:$R156,2)/($E58*N58)</f>
+        <v>2495.6230450493963</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="6"/>
+        <v>1.5523028750000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -43606,11 +44531,11 @@
         <v>12.571523605095193</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1853.8077167337294</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>275.71523605095194</v>
       </c>
       <c r="E59" s="1">
@@ -43618,7 +44543,7 @@
         <v>32.637999999999998</v>
       </c>
       <c r="F59" s="1">
-        <f>VLOOKUP(A59,Exp!Q59:R157,2)/E59</f>
+        <f>VLOOKUP($A59,Exp!$Q59:$R157,2)/$E59</f>
         <v>4237.3613579263438</v>
       </c>
       <c r="G59">
@@ -43630,11 +44555,23 @@
         <v>20</v>
       </c>
       <c r="J59" s="1">
+        <f>VLOOKUP($A59,Exp!$Q59:$R157,2)/$E59</f>
+        <v>4237.3613579263438</v>
+      </c>
+      <c r="K59" s="1">
         <f>VLOOKUP(A59,Exp!M59:N157,2)/E59</f>
         <v>2584.4414486181754</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L59">
+        <f>VLOOKUP($A59,Exp!$Q59:$R157,2)/($E59*N59)</f>
+        <v>2714.4754711819573</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="6"/>
+        <v>1.561024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -43643,11 +44580,11 @@
         <v>12.971411145835571</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1918.4385606460178</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>282.21411145835572</v>
       </c>
       <c r="E60" s="1">
@@ -43655,7 +44592,7 @@
         <v>33.133333333333333</v>
       </c>
       <c r="F60" s="1">
-        <f>VLOOKUP(A60,Exp!Q60:R158,2)/E60</f>
+        <f>VLOOKUP($A60,Exp!$Q60:$R158,2)/$E60</f>
         <v>4443.1690140845067</v>
       </c>
       <c r="G60">
@@ -43667,11 +44604,23 @@
         <v>20</v>
       </c>
       <c r="J60" s="1">
+        <f>VLOOKUP($A60,Exp!$Q60:$R158,2)/$E60</f>
+        <v>4443.1690140845067</v>
+      </c>
+      <c r="K60" s="1">
         <f>VLOOKUP(A60,Exp!M60:N158,2)/E60</f>
         <v>2643.4104627766601</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L60">
+        <f>VLOOKUP($A60,Exp!$Q60:$R158,2)/($E60*N60)</f>
+        <v>2830.7090394149182</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="6"/>
+        <v>1.5696311249999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -43680,11 +44629,11 @@
         <v>27.4</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3162.6</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>429</v>
       </c>
       <c r="E61" s="1">
@@ -43692,7 +44641,7 @@
         <v>33.62466666666667</v>
       </c>
       <c r="F61" s="1">
-        <f>VLOOKUP(A61,Exp!Q61:R159,2)/E61</f>
+        <f>VLOOKUP($A61,Exp!$Q61:$R159,2)/$E61</f>
         <v>5007.8712056625091</v>
       </c>
       <c r="G61">
@@ -43704,11 +44653,23 @@
         <v>21</v>
       </c>
       <c r="J61" s="1">
+        <f>VLOOKUP($A61,Exp!$Q61:$R159,2)/$E61</f>
+        <v>5007.8712056625091</v>
+      </c>
+      <c r="K61" s="1">
         <f>VLOOKUP(A61,Exp!M61:N159,2)/E61</f>
         <v>3414.279199793802</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L61">
+        <f>VLOOKUP($A61,Exp!$Q61:$R159,2)/($E61*N61)</f>
+        <v>3173.3045263604017</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="6"/>
+        <v>1.578125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -43717,11 +44678,11 @@
         <v>27.859350160232275</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3254.1885036838362</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>436.09350160232276</v>
       </c>
       <c r="E62" s="1">
@@ -43729,7 +44690,7 @@
         <v>34.112000000000002</v>
       </c>
       <c r="F62" s="1">
-        <f>VLOOKUP(A62,Exp!Q62:R160,2)/E62</f>
+        <f>VLOOKUP($A62,Exp!$Q62:$R160,2)/$E62</f>
         <v>5242.2021575984991</v>
       </c>
       <c r="G62">
@@ -43741,11 +44702,23 @@
         <v>21</v>
       </c>
       <c r="J62" s="1">
+        <f>VLOOKUP($A62,Exp!$Q62:$R160,2)/$E62</f>
+        <v>5242.2021575984991</v>
+      </c>
+      <c r="K62" s="1">
         <f>VLOOKUP(A62,Exp!M62:N160,2)/E62</f>
         <v>3490.1500938086301</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L62">
+        <f>VLOOKUP($A62,Exp!$Q62:$R160,2)/($E62*N62)</f>
+        <v>3304.242731201442</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="6"/>
+        <v>1.5865063749999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -43754,11 +44727,11 @@
         <v>28.351669471981022</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3349.9249101679529</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>443.51669471981023</v>
       </c>
       <c r="E63" s="1">
@@ -43766,7 +44739,7 @@
         <v>34.595333333333329</v>
       </c>
       <c r="F63" s="1">
-        <f>VLOOKUP(A63,Exp!Q63:R161,2)/E63</f>
+        <f>VLOOKUP($A63,Exp!$Q63:$R161,2)/$E63</f>
         <v>5646.2817721079919</v>
       </c>
       <c r="G63">
@@ -43778,11 +44751,23 @@
         <v>21</v>
       </c>
       <c r="J63" s="1">
+        <f>VLOOKUP($A63,Exp!$Q63:$R161,2)/$E63</f>
+        <v>5646.2817721079919</v>
+      </c>
+      <c r="K63" s="1">
         <f>VLOOKUP(A63,Exp!M63:N161,2)/E63</f>
         <v>3566.4058736245743</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L63">
+        <f>VLOOKUP($A63,Exp!$Q63:$R161,2)/($E63*N63)</f>
+        <v>3540.485793683873</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="6"/>
+        <v>1.594776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -43791,11 +44776,11 @@
         <v>28.87932424540746</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3450.1563984449376</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>451.29324245407463</v>
       </c>
       <c r="E64" s="1">
@@ -43803,7 +44788,7 @@
         <v>35.074666666666673</v>
       </c>
       <c r="F64" s="1">
-        <f>VLOOKUP(A64,Exp!Q64:R162,2)/E64</f>
+        <f>VLOOKUP($A64,Exp!$Q64:$R162,2)/$E64</f>
         <v>5903.3205352391078</v>
       </c>
       <c r="G64">
@@ -43815,11 +44800,23 @@
         <v>22</v>
       </c>
       <c r="J64" s="1">
+        <f>VLOOKUP($A64,Exp!$Q64:$R162,2)/$E64</f>
+        <v>5903.3205352391078</v>
+      </c>
+      <c r="K64" s="1">
         <f>VLOOKUP(A64,Exp!M64:N162,2)/E64</f>
         <v>3643.3988443701051</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L64">
+        <f>VLOOKUP($A64,Exp!$Q64:$R162,2)/($E64*N64)</f>
+        <v>3682.8205237871807</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="6"/>
+        <v>1.6029346250000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -43828,11 +44825,11 @@
         <v>29.444850628946519</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3555.258616353608</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>459.44850628946517</v>
       </c>
       <c r="E65" s="1">
@@ -43840,7 +44837,7 @@
         <v>35.549999999999997</v>
       </c>
       <c r="F65" s="1">
-        <f>VLOOKUP(A65,Exp!Q65:R163,2)/E65</f>
+        <f>VLOOKUP($A65,Exp!$Q65:$R163,2)/$E65</f>
         <v>6501.181434599157</v>
       </c>
       <c r="G65">
@@ -43852,11 +44849,23 @@
         <v>22</v>
       </c>
       <c r="J65" s="1">
+        <f>VLOOKUP($A65,Exp!$Q65:$R163,2)/$E65</f>
+        <v>6501.181434599157</v>
+      </c>
+      <c r="K65" s="1">
         <f>VLOOKUP(A65,Exp!M65:N163,2)/E65</f>
         <v>3720.8438818565405</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L65">
+        <f>VLOOKUP($A65,Exp!$Q65:$R163,2)/($E65*N65)</f>
+        <v>4035.5369576210028</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="6"/>
+        <v>1.6109830000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -43865,11 +44874,11 @@
         <v>30.050966799187805</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3665.6379787260898</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.00966799187802</v>
       </c>
       <c r="E66" s="1">
@@ -43877,7 +44886,7 @@
         <v>36.021333333333331</v>
       </c>
       <c r="F66" s="1">
-        <f>VLOOKUP(A66,Exp!Q66:R164,2)/E66</f>
+        <f>VLOOKUP($A66,Exp!$Q66:$R164,2)/$E66</f>
         <v>6788.4216760438267</v>
       </c>
       <c r="G66">
@@ -43889,1266 +44898,1686 @@
         <v>22</v>
       </c>
       <c r="J66" s="1">
+        <f>VLOOKUP($A66,Exp!$Q66:$R164,2)/$E66</f>
+        <v>6788.4216760438267</v>
+      </c>
+      <c r="K66" s="1">
         <f>VLOOKUP(A66,Exp!M66:N164,2)/E66</f>
         <v>3798.8321735267991</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L66">
+        <f>VLOOKUP($A66,Exp!$Q66:$R164,2)/($E66*N66)</f>
+        <v>4193.1743469979519</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="6"/>
+        <v>1.6189218750000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B100" si="8">FLOOR(A67/20,1)*FLOOR(A67/20,1)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*3+POWER(2,A67/10)/10</f>
+        <f t="shared" ref="B67:B100" si="9">FLOOR(A67/20,1)*FLOOR(A67/20,1)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*3+POWER(2,A67/10)/10</f>
         <v>30.700586025666546</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3781.7341487715885</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D100" si="9">(5+A67*2.5+10*B67)*MIN(A67/20*0.4+0.6,1)</f>
+        <f t="shared" ref="D67:D100" si="10">(5+A67*2.5+10*B67)*MIN(A67/20*0.4+0.6,1)</f>
         <v>477.00586025666547</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E100" si="10">(1-POWER(1-((A67+1)/100),2))*20+MAX(0,(A67-10)/3)</f>
+        <f t="shared" ref="E67:E100" si="11">(1-POWER(1-((A67+1)/100),2))*20+MAX(0,(A67-10)/3)</f>
         <v>36.488666666666667</v>
       </c>
       <c r="F67" s="1">
-        <f>VLOOKUP(A67,Exp!Q67:R165,2)/E67</f>
+        <f>VLOOKUP($A67,Exp!$Q67:$R165,2)/$E67</f>
         <v>7237.9734346737796</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G100" si="11">FLOOR(A67*0.8,1)+1</f>
+        <f t="shared" ref="G67:G100" si="12">FLOOR(A67*0.8,1)+1</f>
         <v>53</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H100" si="12">FLOOR(A67/3,1)+1</f>
+        <f t="shared" ref="H67:H100" si="13">FLOOR(A67/3,1)+1</f>
         <v>23</v>
       </c>
       <c r="J67" s="1">
+        <f>VLOOKUP($A67,Exp!$Q67:$R165,2)/$E67</f>
+        <v>7237.9734346737796</v>
+      </c>
+      <c r="K67" s="1">
         <f>VLOOKUP(A67,Exp!M67:N165,2)/E67</f>
         <v>3877.4505325854602</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L67">
+        <f>VLOOKUP($A67,Exp!$Q67:$R165,2)/($E67*N67)</f>
+        <v>4449.340424768975</v>
+      </c>
+      <c r="N67">
+        <f>MAX(1,1+(1-POWER(1-(A67-10)/200,3)))</f>
+        <v>1.626752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.396830673359812</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3904.02271716115</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>486.46830673359813</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36.951999999999998</v>
       </c>
       <c r="F68" s="1">
-        <f>VLOOKUP(A68,Exp!Q68:R166,2)/E68</f>
+        <f>VLOOKUP($A68,Exp!$Q68:$R166,2)/$E68</f>
         <v>7549.7943277765753</v>
       </c>
       <c r="G68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="H68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="J68" s="1">
+        <f>VLOOKUP($A68,Exp!$Q68:$R166,2)/$E68</f>
+        <v>7549.7943277765753</v>
+      </c>
+      <c r="K68" s="1">
         <f>VLOOKUP(A68,Exp!M68:N166,2)/E68</f>
         <v>3956.6464602727865</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L68">
+        <f>VLOOKUP($A68,Exp!$Q68:$R166,2)/($E68*N68)</f>
+        <v>4619.096877888217</v>
+      </c>
+      <c r="N68">
+        <f>MAX(1,1+(1-POWER(1-(A68-10)/200,3)))</f>
+        <v>1.6344741249999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.143047210190389</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4033.0180944101248</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>496.43047210190389</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>37.411333333333332</v>
       </c>
       <c r="F69" s="1">
-        <f>VLOOKUP(A69,Exp!Q69:R167,2)/E69</f>
+        <f>VLOOKUP($A69,Exp!$Q69:$R167,2)/$E69</f>
         <v>8186.9041466935159</v>
       </c>
       <c r="G69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="H69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="J69" s="1">
+        <f>VLOOKUP($A69,Exp!$Q69:$R167,2)/$E69</f>
+        <v>8186.9041466935159</v>
+      </c>
+      <c r="K69" s="1">
         <f>VLOOKUP(A69,Exp!M69:N167,2)/E69</f>
         <v>4036.4506299338882</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L69">
+        <f>VLOOKUP($A69,Exp!$Q69:$R167,2)/($E69*N69)</f>
+        <v>4985.6640819672475</v>
+      </c>
+      <c r="N69">
+        <f>MAX(1,1+(1-POWER(1-(A69-10)/200,3)))</f>
+        <v>1.6420889999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.942822291671135</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4169.2766333754316</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>506.92822291671132</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>37.866666666666667</v>
       </c>
       <c r="F70" s="1">
-        <f>VLOOKUP(A70,Exp!Q70:R168,2)/E70</f>
+        <f>VLOOKUP($A70,Exp!$Q70:$R168,2)/$E70</f>
         <v>8530.6690140845076</v>
       </c>
       <c r="G70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="H70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="J70" s="1">
+        <f>VLOOKUP($A70,Exp!$Q70:$R168,2)/$E70</f>
+        <v>8530.6690140845076</v>
+      </c>
+      <c r="K70" s="1">
         <f>VLOOKUP(A70,Exp!M70:N168,2)/E70</f>
         <v>4116.8397887323945</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L70">
+        <f>VLOOKUP($A70,Exp!$Q70:$R168,2)/($E70*N70)</f>
+        <v>5171.3643240275569</v>
+      </c>
+      <c r="N70">
+        <f>MAX(1,1+(1-POWER(1-(A70-10)/200,3)))</f>
+        <v>1.6495973749999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.799999999999997</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4313.3999999999996</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>518</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38.317999999999998</v>
       </c>
       <c r="F71" s="1">
-        <f>VLOOKUP(A71,Exp!Q71:R169,2)/E71</f>
+        <f>VLOOKUP($A71,Exp!$Q71:$R169,2)/$E71</f>
         <v>9466.8302103450078</v>
       </c>
       <c r="G71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="H71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="J71" s="1">
+        <f>VLOOKUP($A71,Exp!$Q71:$R169,2)/$E71</f>
+        <v>9466.8302103450078</v>
+      </c>
+      <c r="K71" s="1">
         <f>VLOOKUP(A71,Exp!M71:N169,2)/E71</f>
         <v>5132.8879377838093</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L71">
+        <f>VLOOKUP($A71,Exp!$Q71:$R169,2)/($E71*N71)</f>
+        <v>5713.2348885606571</v>
+      </c>
+      <c r="N71">
+        <f>MAX(1,1+(1-POWER(1-(A71-10)/200,3)))</f>
+        <v>1.657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34.718700320464549</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4466.0388118541759</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>529.68700320464552</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38.765333333333331</v>
       </c>
       <c r="F72" s="1">
-        <f>VLOOKUP(A72,Exp!Q72:R170,2)/E72</f>
+        <f>VLOOKUP($A72,Exp!$Q72:$R170,2)/$E72</f>
         <v>9851.9467565522464</v>
       </c>
       <c r="G72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="H72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="J72" s="1">
+        <f>VLOOKUP($A72,Exp!$Q72:$R170,2)/$E72</f>
+        <v>9851.9467565522464</v>
+      </c>
+      <c r="K72" s="1">
         <f>VLOOKUP(A72,Exp!M72:N170,2)/E72</f>
         <v>5232.6907202311349</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L72">
+        <f>VLOOKUP($A72,Exp!$Q72:$R170,2)/($E72*N72)</f>
+        <v>5919.5822961967197</v>
+      </c>
+      <c r="N72">
+        <f>MAX(1,1+(1-POWER(1-(A72-10)/200,3)))</f>
+        <v>1.6642976249999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35.703338943962045</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4627.8965655513739</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>542.03338943962046</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39.208666666666673</v>
       </c>
       <c r="F73" s="1">
-        <f>VLOOKUP(A73,Exp!Q73:R171,2)/E73</f>
+        <f>VLOOKUP($A73,Exp!$Q73:$R171,2)/$E73</f>
         <v>10549.198306496861</v>
       </c>
       <c r="G73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="H73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="J73" s="1">
+        <f>VLOOKUP($A73,Exp!$Q73:$R171,2)/$E73</f>
+        <v>10549.198306496861</v>
+      </c>
+      <c r="K73" s="1">
         <f>VLOOKUP(A73,Exp!M73:N171,2)/E73</f>
         <v>5333.0556169554338</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L73">
+        <f>VLOOKUP($A73,Exp!$Q73:$R171,2)/($E73*N73)</f>
+        <v>6311.2504383791847</v>
+      </c>
+      <c r="N73">
+        <f>MAX(1,1+(1-POWER(1-(A73-10)/200,3)))</f>
+        <v>1.6714910000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.758648490814927</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4799.7338757612852</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>555.08648490814926</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39.647999999999996</v>
       </c>
       <c r="F74" s="1">
-        <f>VLOOKUP(A74,Exp!Q74:R172,2)/E74</f>
+        <f>VLOOKUP($A74,Exp!$Q74:$R172,2)/$E74</f>
         <v>10968.724778046813</v>
       </c>
       <c r="G74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="H74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="J74" s="1">
+        <f>VLOOKUP($A74,Exp!$Q74:$R172,2)/$E74</f>
+        <v>10968.724778046813</v>
+      </c>
+      <c r="K74" s="1">
         <f>VLOOKUP(A74,Exp!M74:N172,2)/E74</f>
         <v>5434.3724778046817</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L74">
+        <f>VLOOKUP($A74,Exp!$Q74:$R172,2)/($E74*N74)</f>
+        <v>6534.5226681715967</v>
+      </c>
+      <c r="N74">
+        <f>MAX(1,1+(1-POWER(1-(A74-10)/200,3)))</f>
+        <v>1.678580875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.889701257893044</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4982.3730503177194</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>568.89701257893046</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40.083333333333329</v>
       </c>
       <c r="F75" s="1">
-        <f>VLOOKUP(A75,Exp!Q75:R173,2)/E75</f>
+        <f>VLOOKUP($A75,Exp!$Q75:$R173,2)/$E75</f>
         <v>11956.365904365906</v>
       </c>
       <c r="G75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="H75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="J75" s="1">
+        <f>VLOOKUP($A75,Exp!$Q75:$R173,2)/$E75</f>
+        <v>11956.365904365906</v>
+      </c>
+      <c r="K75" s="1">
         <f>VLOOKUP(A75,Exp!M75:N173,2)/E75</f>
         <v>5536.2411642411653</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L75">
+        <f>VLOOKUP($A75,Exp!$Q75:$R173,2)/($E75*N75)</f>
+        <v>7093.3749954709074</v>
+      </c>
+      <c r="N75">
+        <f>MAX(1,1+(1-POWER(1-(A75-10)/200,3)))</f>
+        <v>1.685568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39.101933598375609</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5176.7030278294387</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>583.51933598375604</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40.51466666666667</v>
       </c>
       <c r="F76" s="1">
-        <f>VLOOKUP(A76,Exp!Q76:R174,2)/E76</f>
+        <f>VLOOKUP($A76,Exp!$Q76:$R174,2)/$E76</f>
         <v>12419.675179358914</v>
       </c>
       <c r="G76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="H76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="J76" s="1">
+        <f>VLOOKUP($A76,Exp!$Q76:$R174,2)/$E76</f>
+        <v>12419.675179358914</v>
+      </c>
+      <c r="K76" s="1">
         <f>VLOOKUP(A76,Exp!M76:N174,2)/E76</f>
         <v>5639.0936615546625</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L76">
+        <f>VLOOKUP($A76,Exp!$Q76:$R174,2)/($E76*N76)</f>
+        <v>7338.2683371859503</v>
+      </c>
+      <c r="N76">
+        <f>MAX(1,1+(1-POWER(1-(A76-10)/200,3)))</f>
+        <v>1.6924531249999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.401172051333091</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5383.6847062618408</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>599.01172051333094</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40.942</v>
       </c>
       <c r="F77" s="1">
-        <f>VLOOKUP(A77,Exp!Q77:R175,2)/E77</f>
+        <f>VLOOKUP($A77,Exp!$Q77:$R175,2)/$E77</f>
         <v>13183.674466318205</v>
       </c>
       <c r="G77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="H77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="J77" s="1">
+        <f>VLOOKUP($A77,Exp!$Q77:$R175,2)/$E77</f>
+        <v>13183.674466318205</v>
+      </c>
+      <c r="K77" s="1">
         <f>VLOOKUP(A77,Exp!M77:N175,2)/E77</f>
         <v>5742.5382248058231</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L77">
+        <f>VLOOKUP($A77,Exp!$Q77:$R175,2)/($E77*N77)</f>
+        <v>7758.5848626873158</v>
+      </c>
+      <c r="N77">
+        <f>MAX(1,1+(1-POWER(1-(A77-10)/200,3)))</f>
+        <v>1.6992370000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41.793661346719624</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5604.3566931763753</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>615.43661346719625</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41.365333333333332</v>
       </c>
       <c r="F78" s="1">
-        <f>VLOOKUP(A78,Exp!Q78:R176,2)/E78</f>
+        <f>VLOOKUP($A78,Exp!$Q78:$R176,2)/$E78</f>
         <v>13684.018824136154</v>
       </c>
       <c r="G78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="H78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="J78" s="1">
+        <f>VLOOKUP($A78,Exp!$Q78:$R176,2)/$E78</f>
+        <v>13684.018824136154</v>
+      </c>
+      <c r="K78" s="1">
         <f>VLOOKUP(A78,Exp!M78:N176,2)/E78</f>
         <v>5846.9249613202683</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L78">
+        <f>VLOOKUP($A78,Exp!$Q78:$R176,2)/($E78*N78)</f>
+        <v>8021.4874179787857</v>
+      </c>
+      <c r="N78">
+        <f>MAX(1,1+(1-POWER(1-(A78-10)/200,3)))</f>
+        <v>1.705920375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.286094420380778</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5839.8415107055807</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>632.86094420380778</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41.784666666666666</v>
       </c>
       <c r="F79" s="1">
-        <f>VLOOKUP(A79,Exp!Q79:R177,2)/E79</f>
+        <f>VLOOKUP($A79,Exp!$Q79:$R177,2)/$E79</f>
         <v>14731.121464013913</v>
       </c>
       <c r="G79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="H79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J79" s="1">
+        <f>VLOOKUP($A79,Exp!$Q79:$R177,2)/$E79</f>
+        <v>14731.121464013913</v>
+      </c>
+      <c r="K79" s="1">
         <f>VLOOKUP(A79,Exp!M79:N177,2)/E79</f>
         <v>5951.9440943248719</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L79">
+        <f>VLOOKUP($A79,Exp!$Q79:$R177,2)/($E79*N79)</f>
+        <v>8602.0946310279633</v>
+      </c>
+      <c r="N79">
+        <f>MAX(1,1+(1-POWER(1-(A79-10)/200,3)))</f>
+        <v>1.712504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44.885644583342263</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6091.3522909176536</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>651.35644583342264</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>42.2</v>
       </c>
       <c r="F80" s="1">
-        <f>VLOOKUP(A80,Exp!Q80:R178,2)/E80</f>
+        <f>VLOOKUP($A80,Exp!$Q80:$R178,2)/$E80</f>
         <v>15277.654028436018</v>
       </c>
       <c r="G80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="H80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J80" s="1">
+        <f>VLOOKUP($A80,Exp!$Q80:$R178,2)/$E80</f>
+        <v>15277.654028436018</v>
+      </c>
+      <c r="K80" s="1">
         <f>VLOOKUP(A80,Exp!M80:N178,2)/E80</f>
         <v>6057.7251184834122</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L80">
+        <f>VLOOKUP($A80,Exp!$Q80:$R178,2)/($E80*N80)</f>
+        <v>8887.5829695708526</v>
+      </c>
+      <c r="N80">
+        <f>MAX(1,1+(1-POWER(1-(A80-10)/200,3)))</f>
+        <v>1.7189886249999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53.6</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7144.2</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>741</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>42.611333333333334</v>
       </c>
       <c r="F81" s="1">
-        <f>VLOOKUP(A81,Exp!Q81:R179,2)/E81</f>
+        <f>VLOOKUP($A81,Exp!$Q81:$R179,2)/$E81</f>
         <v>16749.393745013065</v>
       </c>
       <c r="G81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="H81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J81" s="1">
+        <f>VLOOKUP($A81,Exp!$Q81:$R179,2)/$E81</f>
+        <v>16749.393745013065</v>
+      </c>
+      <c r="K81" s="1">
         <f>VLOOKUP(A81,Exp!M81:N179,2)/E81</f>
         <v>7353.7008933460584</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L81">
+        <f>VLOOKUP($A81,Exp!$Q81:$R179,2)/($E81*N81)</f>
+        <v>9707.6831094765275</v>
+      </c>
+      <c r="N81">
+        <f>MAX(1,1+(1-POWER(1-(A81-10)/200,3)))</f>
+        <v>1.7253749999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55.437400640929098</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7441.6012326813598</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>761.87400640929104</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43.018666666666668</v>
       </c>
       <c r="F82" s="1">
-        <f>VLOOKUP(A82,Exp!Q82:R180,2)/E82</f>
+        <f>VLOOKUP($A82,Exp!$Q82:$R180,2)/$E82</f>
         <v>17774.35376890652</v>
       </c>
       <c r="G82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="H82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="J82" s="1">
+        <f>VLOOKUP($A82,Exp!$Q82:$R180,2)/$E82</f>
+        <v>17774.35376890652</v>
+      </c>
+      <c r="K82" s="1">
         <f>VLOOKUP(A82,Exp!M82:N180,2)/E82</f>
         <v>8229.8692040664519</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L82">
+        <f>VLOOKUP($A82,Exp!$Q82:$R180,2)/($E82*N82)</f>
+        <v>10264.320937518271</v>
+      </c>
+      <c r="N82">
+        <f>MAX(1,1+(1-POWER(1-(A82-10)/200,3)))</f>
+        <v>1.731663875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57.406677887924062</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7759.2866215336817</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>784.06677887924059</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43.421999999999997</v>
       </c>
       <c r="F83" s="1">
-        <f>VLOOKUP(A83,Exp!Q83:R181,2)/E83</f>
+        <f>VLOOKUP($A83,Exp!$Q83:$R181,2)/$E83</f>
         <v>19351.227488369954</v>
       </c>
       <c r="G83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="H83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="J83" s="1">
+        <f>VLOOKUP($A83,Exp!$Q83:$R181,2)/$E83</f>
+        <v>19351.227488369954</v>
+      </c>
+      <c r="K83" s="1">
         <f>VLOOKUP(A83,Exp!M83:N181,2)/E83</f>
         <v>9133.043157846254</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L83">
+        <f>VLOOKUP($A83,Exp!$Q83:$R181,2)/($E83*N83)</f>
+        <v>11135.11561853799</v>
+      </c>
+      <c r="N83">
+        <f>MAX(1,1+(1-POWER(1-(A83-10)/200,3)))</f>
+        <v>1.7378559999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59.517296981629883</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8098.9099092653914</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>807.67296981629886</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43.821333333333328</v>
       </c>
       <c r="F84" s="1">
-        <f>VLOOKUP(A84,Exp!Q84:R182,2)/E84</f>
+        <f>VLOOKUP($A84,Exp!$Q84:$R182,2)/$E84</f>
         <v>20472.950769792493</v>
       </c>
       <c r="G84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="H84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="J84" s="1">
+        <f>VLOOKUP($A84,Exp!$Q84:$R182,2)/$E84</f>
+        <v>20472.950769792493</v>
+      </c>
+      <c r="K84" s="1">
         <f>VLOOKUP(A84,Exp!M84:N182,2)/E84</f>
         <v>10063.203614677785</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L84">
+        <f>VLOOKUP($A84,Exp!$Q84:$R182,2)/($E84*N84)</f>
+        <v>11739.399537583346</v>
+      </c>
+      <c r="N84">
+        <f>MAX(1,1+(1-POWER(1-(A84-10)/200,3)))</f>
+        <v>1.7439521250000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61.779402515786089</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8462.2577358564431</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>832.79402515786091</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44.216666666666669</v>
       </c>
       <c r="F85" s="1">
-        <f>VLOOKUP(A85,Exp!Q85:R183,2)/E85</f>
+        <f>VLOOKUP($A85,Exp!$Q85:$R183,2)/$E85</f>
         <v>22513.185073501696</v>
       </c>
       <c r="G85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="H85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="J85" s="1">
+        <f>VLOOKUP($A85,Exp!$Q85:$R183,2)/$E85</f>
+        <v>22513.185073501696</v>
+      </c>
+      <c r="K85" s="1">
         <f>VLOOKUP(A85,Exp!M85:N183,2)/E85</f>
         <v>11020.912174896343</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L85">
+        <f>VLOOKUP($A85,Exp!$Q85:$R183,2)/($E85*N85)</f>
+        <v>12865.022702610695</v>
+      </c>
+      <c r="N85">
+        <f>MAX(1,1+(1-POWER(1-(A85-10)/200,3)))</f>
+        <v>1.7499530000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64.203867196751233</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8851.2601964133974</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>859.5386719675123</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44.608000000000004</v>
       </c>
       <c r="F86" s="1">
-        <f>VLOOKUP(A86,Exp!Q86:R184,2)/E86</f>
+        <f>VLOOKUP($A86,Exp!$Q86:$R184,2)/$E86</f>
         <v>24151.093974175034</v>
       </c>
       <c r="G86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="H86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="J86" s="1">
+        <f>VLOOKUP($A86,Exp!$Q86:$R184,2)/$E86</f>
+        <v>24151.093974175034</v>
+      </c>
+      <c r="K86" s="1">
         <f>VLOOKUP(A86,Exp!M86:N184,2)/E86</f>
         <v>12006.187230989955</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L86">
+        <f>VLOOKUP($A86,Exp!$Q86:$R184,2)/($E86*N86)</f>
+        <v>13754.571874057416</v>
+      </c>
+      <c r="N86">
+        <f>MAX(1,1+(1-POWER(1-(A86-10)/200,3)))</f>
+        <v>1.755859375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66.802344102666183</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9268.0022299610082</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>888.02344102666189</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44.995333333333335</v>
       </c>
       <c r="F87" s="1">
-        <f>VLOOKUP(A87,Exp!Q87:R185,2)/E87</f>
+        <f>VLOOKUP($A87,Exp!$Q87:$R185,2)/$E87</f>
         <v>26350.15483087135</v>
       </c>
       <c r="G87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="H87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="J87" s="1">
+        <f>VLOOKUP($A87,Exp!$Q87:$R185,2)/$E87</f>
+        <v>26350.15483087135</v>
+      </c>
+      <c r="K87" s="1">
         <f>VLOOKUP(A87,Exp!M87:N185,2)/E87</f>
         <v>13019.416828411835</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L87">
+        <f>VLOOKUP($A87,Exp!$Q87:$R185,2)/($E87*N87)</f>
+        <v>14957.469285355817</v>
+      </c>
+      <c r="N87">
+        <f>MAX(1,1+(1-POWER(1-(A87-10)/200,3)))</f>
+        <v>1.7616719999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69.587322693439219</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9714.7359040608953</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>918.37322693439216</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45.378666666666668</v>
       </c>
       <c r="F88" s="1">
-        <f>VLOOKUP(A88,Exp!Q88:R186,2)/E88</f>
+        <f>VLOOKUP($A88,Exp!$Q88:$R186,2)/$E88</f>
         <v>28139.654463183873</v>
       </c>
       <c r="G88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="H88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J88" s="1">
+        <f>VLOOKUP($A88,Exp!$Q88:$R186,2)/$E88</f>
+        <v>28139.654463183873</v>
+      </c>
+      <c r="K88" s="1">
         <f>VLOOKUP(A88,Exp!M88:N186,2)/E88</f>
         <v>14061.188811188811</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L88">
+        <f>VLOOKUP($A88,Exp!$Q88:$R186,2)/($E88*N88)</f>
+        <v>15921.572822426311</v>
+      </c>
+      <c r="N88">
+        <f>MAX(1,1+(1-POWER(1-(A88-10)/200,3)))</f>
+        <v>1.7673916250000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72.572188840761555</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10193.893665181822</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>950.72188840761555</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45.757999999999996</v>
       </c>
       <c r="F89" s="1">
-        <f>VLOOKUP(A89,Exp!Q89:R187,2)/E89</f>
+        <f>VLOOKUP($A89,Exp!$Q89:$R187,2)/$E89</f>
         <v>30846.474933344991</v>
       </c>
       <c r="G89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="H89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J89" s="1">
+        <f>VLOOKUP($A89,Exp!$Q89:$R187,2)/$E89</f>
+        <v>30846.474933344991</v>
+      </c>
+      <c r="K89" s="1">
         <f>VLOOKUP(A89,Exp!M89:N187,2)/E89</f>
         <v>15131.539840027976</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L89">
+        <f>VLOOKUP($A89,Exp!$Q89:$R187,2)/($E89*N89)</f>
+        <v>17397.712564470541</v>
+      </c>
+      <c r="N89">
+        <f>MAX(1,1+(1-POWER(1-(A89-10)/200,3)))</f>
+        <v>1.7730190000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75.771289166684539</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10708.102630168893</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>985.21289166684539</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46.133333333333333</v>
       </c>
       <c r="F90" s="1">
-        <f>VLOOKUP(A90,Exp!Q90:R188,2)/E90</f>
+        <f>VLOOKUP($A90,Exp!$Q90:$R188,2)/$E90</f>
         <v>33195.780346820808</v>
       </c>
       <c r="G90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="H90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J90" s="1">
+        <f>VLOOKUP($A90,Exp!$Q90:$R188,2)/$E90</f>
+        <v>33195.780346820808</v>
+      </c>
+      <c r="K90" s="1">
         <f>VLOOKUP(A90,Exp!M90:N188,2)/E90</f>
         <v>16230.823699421966</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L90">
+        <f>VLOOKUP($A90,Exp!$Q90:$R188,2)/($E90*N90)</f>
+        <v>18664.467885378464</v>
+      </c>
+      <c r="N90">
+        <f>MAX(1,1+(1-POWER(1-(A90-10)/200,3)))</f>
+        <v>1.778554875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>94.2</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ref="C91:C100" si="13">(A91*20+A91*B91*2+30)*0.7</f>
+        <f t="shared" ref="C91:C100" si="14">(A91*20+A91*B91*2+30)*0.7</f>
         <v>13150.199999999999</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1172</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46.504666666666665</v>
       </c>
       <c r="F91" s="1">
-        <f>VLOOKUP(A91,Exp!Q91:R189,2)/E91</f>
+        <f>VLOOKUP($A91,Exp!$Q91:$R189,2)/$E91</f>
         <v>37890.54145103717</v>
       </c>
       <c r="G91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="H91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="J91" s="1">
+        <f>VLOOKUP($A91,Exp!$Q91:$R189,2)/$E91</f>
+        <v>37890.54145103717</v>
+      </c>
+      <c r="K91" s="1">
         <f>VLOOKUP(A91,Exp!M91:N189,2)/E91</f>
         <v>20310.95087231389</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L91">
+        <f>VLOOKUP($A91,Exp!$Q91:$R189,2)/($E91*N91)</f>
+        <v>21239.092741612763</v>
+      </c>
+      <c r="N91">
+        <f>MAX(1,1+(1-POWER(1-(A91-10)/200,3)))</f>
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>97.874801281858211</v>
       </c>
       <c r="C92" s="1">
+        <f t="shared" si="14"/>
+        <v>13764.249683308737</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="10"/>
+        <v>1211.2480128185821</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="11"/>
+        <v>46.872</v>
+      </c>
+      <c r="F92" s="1">
+        <f>VLOOKUP($A92,Exp!$Q92:$R190,2)/$E92</f>
+        <v>40589.84041645332</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="13"/>
-        <v>13764.249683308737</v>
-      </c>
-      <c r="D92" s="1">
-        <f t="shared" si="9"/>
-        <v>1211.2480128185821</v>
-      </c>
-      <c r="E92" s="1">
-        <f t="shared" si="10"/>
-        <v>46.872</v>
-      </c>
-      <c r="F92" s="1">
-        <f>VLOOKUP(A92,Exp!Q92:R190,2)/E92</f>
+        <v>31</v>
+      </c>
+      <c r="J92" s="1">
+        <f>VLOOKUP($A92,Exp!$Q92:$R190,2)/$E92</f>
         <v>40589.84041645332</v>
       </c>
-      <c r="G92">
-        <f t="shared" si="11"/>
-        <v>73</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="J92" s="1">
+      <c r="K92" s="1">
         <f>VLOOKUP(A92,Exp!M92:N190,2)/E92</f>
         <v>21666.133299197816</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L92">
+        <f>VLOOKUP($A92,Exp!$Q92:$R190,2)/($E92*N92)</f>
+        <v>22684.060782206838</v>
+      </c>
+      <c r="N92">
+        <f>MAX(1,1+(1-POWER(1-(A92-10)/200,3)))</f>
+        <v>1.7893551250000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101.81335577584814</v>
       </c>
       <c r="C93" s="1">
+        <f t="shared" si="14"/>
+        <v>14422.56022392924</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="10"/>
+        <v>1253.1335577584814</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="11"/>
+        <v>47.23533333333333</v>
+      </c>
+      <c r="F93" s="1">
+        <f>VLOOKUP($A93,Exp!$Q93:$R191,2)/$E93</f>
+        <v>44216.412854783848</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="13"/>
-        <v>14422.56022392924</v>
-      </c>
-      <c r="D93" s="1">
-        <f t="shared" si="9"/>
-        <v>1253.1335577584814</v>
-      </c>
-      <c r="E93" s="1">
-        <f t="shared" si="10"/>
-        <v>47.23533333333333</v>
-      </c>
-      <c r="F93" s="1">
-        <f>VLOOKUP(A93,Exp!Q93:R191,2)/E93</f>
+        <v>31</v>
+      </c>
+      <c r="J93" s="1">
+        <f>VLOOKUP($A93,Exp!$Q93:$R191,2)/$E93</f>
         <v>44216.412854783848</v>
       </c>
-      <c r="G93">
-        <f t="shared" si="11"/>
-        <v>74</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="J93" s="1">
+      <c r="K93" s="1">
         <f>VLOOKUP(A93,Exp!M93:N191,2)/E93</f>
         <v>23056.426686237704</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L93">
+        <f>VLOOKUP($A93,Exp!$Q93:$R191,2)/($E93*N93)</f>
+        <v>24638.30126516064</v>
+      </c>
+      <c r="N93">
+        <f>MAX(1,1+(1-POWER(1-(A93-10)/200,3)))</f>
+        <v>1.7946209999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>106.03459396325971</v>
       </c>
       <c r="C94" s="1">
+        <f t="shared" si="14"/>
+        <v>15128.704134016412</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="10"/>
+        <v>1297.845939632597</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="11"/>
+        <v>47.594666666666669</v>
+      </c>
+      <c r="F94" s="1">
+        <f>VLOOKUP($A94,Exp!$Q94:$R192,2)/$E94</f>
+        <v>47537.006947557151</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="13"/>
-        <v>15128.704134016412</v>
-      </c>
-      <c r="D94" s="1">
-        <f t="shared" si="9"/>
-        <v>1297.845939632597</v>
-      </c>
-      <c r="E94" s="1">
-        <f t="shared" si="10"/>
-        <v>47.594666666666669</v>
-      </c>
-      <c r="F94" s="1">
-        <f>VLOOKUP(A94,Exp!Q94:R192,2)/E94</f>
+        <v>32</v>
+      </c>
+      <c r="J94" s="1">
+        <f>VLOOKUP($A94,Exp!$Q94:$R192,2)/$E94</f>
         <v>47537.006947557151</v>
       </c>
-      <c r="G94">
-        <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="J94" s="1">
+      <c r="K94" s="1">
         <f>VLOOKUP(A94,Exp!M94:N192,2)/E94</f>
         <v>24482.343960107573</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L94">
+        <f>VLOOKUP($A94,Exp!$Q94:$R192,2)/($E94*N94)</f>
+        <v>26412.406860605788</v>
+      </c>
+      <c r="N94">
+        <f>MAX(1,1+(1-POWER(1-(A94-10)/200,3)))</f>
+        <v>1.799798375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>110.55880503157218</v>
       </c>
       <c r="C95" s="1">
+        <f t="shared" si="14"/>
+        <v>15886.538742154897</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="10"/>
+        <v>1345.5880503157218</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="11"/>
+        <v>47.95</v>
+      </c>
+      <c r="F95" s="1">
+        <f>VLOOKUP($A95,Exp!$Q95:$R193,2)/$E95</f>
+        <v>53172.888425443169</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="13"/>
-        <v>15886.538742154897</v>
-      </c>
-      <c r="D95" s="1">
-        <f t="shared" si="9"/>
-        <v>1345.5880503157218</v>
-      </c>
-      <c r="E95" s="1">
-        <f t="shared" si="10"/>
-        <v>47.95</v>
-      </c>
-      <c r="F95" s="1">
-        <f>VLOOKUP(A95,Exp!Q95:R193,2)/E95</f>
+        <v>32</v>
+      </c>
+      <c r="J95" s="1">
+        <f>VLOOKUP($A95,Exp!$Q95:$R193,2)/$E95</f>
         <v>53172.888425443169</v>
       </c>
-      <c r="G95">
-        <f t="shared" si="11"/>
-        <v>76</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="J95" s="1">
+      <c r="K95" s="1">
         <f>VLOOKUP(A95,Exp!M95:N193,2)/E95</f>
         <v>25943.899895724713</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L95">
+        <f>VLOOKUP($A95,Exp!$Q95:$R193,2)/($E95*N95)</f>
+        <v>29460.491967060094</v>
+      </c>
+      <c r="N95">
+        <f>MAX(1,1+(1-POWER(1-(A95-10)/200,3)))</f>
+        <v>1.804888</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>115.40773439350247</v>
       </c>
       <c r="C96" s="1">
+        <f t="shared" si="14"/>
+        <v>16700.228674335827</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="10"/>
+        <v>1396.5773439350246</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="11"/>
+        <v>48.301333333333332</v>
+      </c>
+      <c r="F96" s="1">
+        <f>VLOOKUP($A96,Exp!$Q96:$R194,2)/$E96</f>
+        <v>56916.461933417988</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="13"/>
-        <v>16700.228674335827</v>
-      </c>
-      <c r="D96" s="1">
-        <f t="shared" si="9"/>
-        <v>1396.5773439350246</v>
-      </c>
-      <c r="E96" s="1">
-        <f t="shared" si="10"/>
-        <v>48.301333333333332</v>
-      </c>
-      <c r="F96" s="1">
-        <f>VLOOKUP(A96,Exp!Q96:R194,2)/E96</f>
+        <v>32</v>
+      </c>
+      <c r="J96" s="1">
+        <f>VLOOKUP($A96,Exp!$Q96:$R194,2)/$E96</f>
         <v>56916.461933417988</v>
       </c>
-      <c r="G96">
-        <f t="shared" si="11"/>
-        <v>77</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="J96" s="1">
+      <c r="K96" s="1">
         <f>VLOOKUP(A96,Exp!M96:N194,2)/E96</f>
         <v>27441.851156627836</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L96">
+        <f>VLOOKUP($A96,Exp!$Q96:$R194,2)/($E96*N96)</f>
+        <v>31447.459391872362</v>
+      </c>
+      <c r="N96">
+        <f>MAX(1,1+(1-POWER(1-(A96-10)/200,3)))</f>
+        <v>1.809890625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>120.60468820533238</v>
       </c>
       <c r="C97" s="1">
+        <f t="shared" si="14"/>
+        <v>17574.27009479667</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="10"/>
+        <v>1451.0468820533238</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="11"/>
+        <v>48.648666666666671</v>
+      </c>
+      <c r="F97" s="1">
+        <f>VLOOKUP($A97,Exp!$Q97:$R195,2)/$E97</f>
+        <v>61603.024406287252</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="13"/>
-        <v>17574.27009479667</v>
-      </c>
-      <c r="D97" s="1">
-        <f t="shared" si="9"/>
-        <v>1451.0468820533238</v>
-      </c>
-      <c r="E97" s="1">
-        <f t="shared" si="10"/>
-        <v>48.648666666666671</v>
-      </c>
-      <c r="F97" s="1">
-        <f>VLOOKUP(A97,Exp!Q97:R195,2)/E97</f>
+        <v>33</v>
+      </c>
+      <c r="J97" s="1">
+        <f>VLOOKUP($A97,Exp!$Q97:$R195,2)/$E97</f>
         <v>61603.024406287252</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="11"/>
-        <v>77</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="J97" s="1">
+      <c r="K97" s="1">
         <f>VLOOKUP(A97,Exp!M97:N195,2)/E97</f>
         <v>28976.703712331957</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L97">
+        <f>VLOOKUP($A97,Exp!$Q97:$R195,2)/($E97*N97)</f>
+        <v>33944.66982234874</v>
+      </c>
+      <c r="N97">
+        <f>MAX(1,1+(1-POWER(1-(A97-10)/200,3)))</f>
+        <v>1.8148070000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>126.17464538687844</v>
       </c>
       <c r="C98" s="1">
+        <f t="shared" si="14"/>
+        <v>18513.516843538091</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="10"/>
+        <v>1509.2464538687843</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="11"/>
+        <v>48.992000000000004</v>
+      </c>
+      <c r="F98" s="1">
+        <f>VLOOKUP($A98,Exp!$Q98:$R196,2)/$E98</f>
+        <v>66036.475342913123</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="13"/>
-        <v>18513.516843538091</v>
-      </c>
-      <c r="D98" s="1">
-        <f t="shared" si="9"/>
-        <v>1509.2464538687843</v>
-      </c>
-      <c r="E98" s="1">
-        <f t="shared" si="10"/>
-        <v>48.992000000000004</v>
-      </c>
-      <c r="F98" s="1">
-        <f>VLOOKUP(A98,Exp!Q98:R196,2)/E98</f>
+        <v>33</v>
+      </c>
+      <c r="J98" s="1">
+        <f>VLOOKUP($A98,Exp!$Q98:$R196,2)/$E98</f>
         <v>66036.475342913123</v>
       </c>
-      <c r="G98">
-        <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="J98" s="1">
+      <c r="K98" s="1">
         <f>VLOOKUP(A98,Exp!M98:N196,2)/E98</f>
         <v>30548.518125408227</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L98">
+        <f>VLOOKUP($A98,Exp!$Q98:$R196,2)/($E98*N98)</f>
+        <v>36290.998472931387</v>
+      </c>
+      <c r="N98">
+        <f>MAX(1,1+(1-POWER(1-(A98-10)/200,3)))</f>
+        <v>1.8196378750000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>132.14437768152311</v>
       </c>
       <c r="C99" s="1">
+        <f t="shared" si="14"/>
+        <v>19523.208617904969</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="10"/>
+        <v>1571.4437768152311</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="11"/>
+        <v>49.331333333333333</v>
+      </c>
+      <c r="F99" s="1">
+        <f>VLOOKUP($A99,Exp!$Q99:$R197,2)/$E99</f>
+        <v>72765.132370231222</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="13"/>
-        <v>19523.208617904969</v>
-      </c>
-      <c r="D99" s="1">
-        <f t="shared" si="9"/>
-        <v>1571.4437768152311</v>
-      </c>
-      <c r="E99" s="1">
-        <f t="shared" si="10"/>
-        <v>49.331333333333333</v>
-      </c>
-      <c r="F99" s="1">
-        <f>VLOOKUP(A99,Exp!Q99:R197,2)/E99</f>
+        <v>33</v>
+      </c>
+      <c r="J99" s="1">
+        <f>VLOOKUP($A99,Exp!$Q99:$R197,2)/$E99</f>
         <v>72765.132370231222</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="11"/>
-        <v>79</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="J99" s="1">
+      <c r="K99" s="1">
         <f>VLOOKUP(A99,Exp!M99:N197,2)/E99</f>
         <v>32158.040190818545</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L99">
+        <f>VLOOKUP($A99,Exp!$Q99:$R197,2)/($E99*N99)</f>
+        <v>39884.767883423243</v>
+      </c>
+      <c r="N99">
+        <f>MAX(1,1+(1-POWER(1-(A99-10)/200,3)))</f>
+        <v>1.824384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>138.54257833336908</v>
       </c>
       <c r="C100" s="1">
+        <f t="shared" si="14"/>
+        <v>20609.001357004952</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="10"/>
+        <v>1637.9257833336908</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="11"/>
+        <v>49.666666666666671</v>
+      </c>
+      <c r="F100" s="1">
+        <f>VLOOKUP($A100,Exp!$Q100:$R198,2)/$E100</f>
+        <v>77701.288590604017</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="13"/>
-        <v>20609.001357004952</v>
-      </c>
-      <c r="D100" s="1">
-        <f t="shared" si="9"/>
-        <v>1637.9257833336908</v>
-      </c>
-      <c r="E100" s="1">
-        <f t="shared" si="10"/>
-        <v>49.666666666666671</v>
-      </c>
-      <c r="F100" s="1">
-        <f>VLOOKUP(A100,Exp!Q100:R198,2)/E100</f>
+        <v>34</v>
+      </c>
+      <c r="J100" s="1">
+        <f>VLOOKUP($A100,Exp!$Q100:$R198,2)/$E100</f>
         <v>77701.288590604017</v>
       </c>
-      <c r="G100">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="12"/>
-        <v>34</v>
-      </c>
-      <c r="J100" s="1">
+      <c r="K100" s="1">
         <f>VLOOKUP(A100,Exp!M100:N198,2)/E100</f>
         <v>33805.590604026846</v>
+      </c>
+      <c r="L100">
+        <f>VLOOKUP($A100,Exp!$Q100:$R198,2)/($E100*N100)</f>
+        <v>42481.863922706711</v>
+      </c>
+      <c r="N100">
+        <f>MAX(1,1+(1-POWER(1-(A100-10)/200,3)))</f>
+        <v>1.8290461250000001</v>
       </c>
     </row>
   </sheetData>
@@ -45344,7 +46773,7 @@
   <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECCD1E-B60E-4A2F-984B-F0D1DE4EAE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C7F4F3-E3C7-4A60-AE9F-9F1FBD7698F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4106" yWindow="3300" windowWidth="20700" windowHeight="13123" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -3848,10 +3848,10 @@
   <dimension ref="A1:AJ303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4036,7 +4036,7 @@
         <v>80</v>
       </c>
       <c r="L2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -4250,7 +4250,7 @@
         <v>90</v>
       </c>
       <c r="L4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -4354,10 +4354,10 @@
         <v>100</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -4761,7 +4761,7 @@
         <v>69</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -4892,7 +4892,7 @@
         <v>100</v>
       </c>
       <c r="L10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M10">
         <v>10</v>
@@ -5617,7 +5617,7 @@
         <v>98</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -7246,7 +7246,7 @@
         <v>100</v>
       </c>
       <c r="L32">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M32">
         <v>10</v>
@@ -9148,7 +9148,7 @@
         <v>214</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -18992,7 +18992,7 @@
         <v>525</v>
       </c>
       <c r="D142">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>100</v>
@@ -19099,7 +19099,7 @@
         <v>528</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E143">
         <v>100</v>
@@ -30334,7 +30334,7 @@
         <v>866</v>
       </c>
       <c r="D248">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E248">
         <v>100</v>
@@ -34186,7 +34186,7 @@
         <v>976</v>
       </c>
       <c r="D284">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E284">
         <v>100</v>
@@ -37746,7 +37746,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A2-1,0)</f>
-        <v>8.5717734625362922</v>
+        <v>6.9859953719670784</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A2-1,0)</f>
@@ -37779,7 +37779,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A3-1,0)</f>
-        <v>18.914213562373096</v>
+        <v>16.549936867076458</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A3-1,0)</f>
@@ -37812,7 +37812,7 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A4-1,0)</f>
-        <v>32</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A4-1,0)</f>
@@ -41677,10 +41677,10 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -41740,8 +41740,8 @@
         <v>35.15004828475508</v>
       </c>
       <c r="D2" s="1">
-        <f>(5+A2*2.5+10*B2)</f>
-        <v>8.5717734625362922</v>
+        <f>(5+A2*2.5+10*B2)*MIN(1,0.8+A2*0.015)</f>
+        <v>6.9859953719670784</v>
       </c>
       <c r="E2" s="1">
         <f>(1-POWER(1-((A2+1)/100),2))*20+MAX(0,(A2-10)/3)*N2</f>
@@ -41789,8 +41789,8 @@
         <v>49.321635539399168</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D34" si="2">(5+A3*2.5+10*B3)</f>
-        <v>11.148698354997036</v>
+        <f t="shared" ref="D3:D28" si="2">(5+A3*2.5+10*B3)*MIN(1,0.8+A3*0.015)</f>
+        <v>9.2534196346475408</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E66" si="3">(1-POWER(1-((A3+1)/100),2))*20+MAX(0,(A3-10)/3)</f>
@@ -41839,7 +41839,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>13.731144413344916</v>
+        <v>11.602817029276455</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="3"/>
@@ -41888,7 +41888,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>16.319507910772895</v>
+        <v>14.034776803264691</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="3"/>
@@ -41937,7 +41937,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>18.914213562373096</v>
+        <v>16.549936867076458</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="3"/>
@@ -41986,7 +41986,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>21.515716566510399</v>
+        <v>19.148987744194255</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="3"/>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>24.124504792712472</v>
+        <v>21.832676837404787</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
@@ -42084,7 +42084,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>26.741101126592248</v>
+        <v>24.601813036464868</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="3"/>
@@ -42133,7 +42133,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>29.366065983073614</v>
+        <v>27.45727169417383</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="3"/>
@@ -42182,7 +42182,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="3"/>
@@ -42231,7 +42231,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>34.643546925072584</v>
+        <v>33.431022782695045</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
@@ -42280,7 +42280,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>37.297396709994068</v>
+        <v>36.551448775794185</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
@@ -42329,7 +42329,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>39.962288826689836</v>
+        <v>39.762477382556391</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="3"/>
@@ -42720,7 +42720,7 @@
         <v>386.40405591942681</v>
       </c>
       <c r="D22" s="1">
-        <f>(5+A22*2.5+10*B22)</f>
+        <f t="shared" si="2"/>
         <v>81.787093850145169</v>
       </c>
       <c r="E22" s="1">
@@ -42818,7 +42818,7 @@
         <v>423.25714004388249</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f>(5+A24*2.5+10*B24)*MIN(1,0.8+A24*0.015)</f>
         <v>87.424577653379657</v>
       </c>
       <c r="E24" s="1">
@@ -43063,7 +43063,7 @@
         <v>518.70046566496637</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D3:D34" si="8">(5+A29*2.5+10*B29)</f>
         <v>101.96440450636899</v>
       </c>
       <c r="E29" s="1">
@@ -43112,7 +43112,7 @@
         <v>538.50491156511544</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>104.96426393229446</v>
       </c>
       <c r="E30" s="1">
@@ -43161,7 +43161,7 @@
         <v>726.59999999999991</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="E31" s="1">
@@ -43210,7 +43210,7 @@
         <v>752.61197461925997</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>151.07418770029034</v>
       </c>
       <c r="E32" s="1">
@@ -43259,7 +43259,7 @@
         <v>778.96934904309376</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>154.1895868399763</v>
       </c>
       <c r="E33" s="1">
@@ -43308,7 +43308,7 @@
         <v>805.703097517228</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>157.34915530675931</v>
       </c>
       <c r="E34" s="1">
@@ -43357,7 +43357,7 @@
         <v>832.84686124223185</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D66" si="8">(5+A35*2.5+10*B35)*MIN(A35/20*0.4+0.6,1)</f>
+        <f t="shared" ref="D35:D66" si="9">(5+A35*2.5+10*B35)*MIN(A35/20*0.4+0.6,1)</f>
         <v>160.55606328618316</v>
       </c>
       <c r="E35" s="1">
@@ -43406,7 +43406,7 @@
         <v>860.43717164502527</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>163.81370849898474</v>
       </c>
       <c r="E36" s="1">
@@ -43455,7 +43455,7 @@
         <v>888.51369196169912</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>167.12573253208319</v>
       </c>
       <c r="E37" s="1">
@@ -43504,7 +43504,7 @@
         <v>917.11947861000476</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>170.49603834169977</v>
       </c>
       <c r="E38" s="1">
@@ -43553,7 +43553,7 @@
         <v>946.30126394776607</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>173.92880901273799</v>
       </c>
       <c r="E39" s="1">
@@ -43602,7 +43602,7 @@
         <v>976.10976214065533</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>177.42852786458892</v>
       </c>
       <c r="E40" s="1">
@@ -43651,7 +43651,7 @@
         <v>1342.6</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241</v>
       </c>
       <c r="E41" s="1">
@@ -43700,7 +43700,7 @@
         <v>1382.2316747993329</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>244.64837540058068</v>
       </c>
       <c r="E42" s="1">
@@ -43749,7 +43749,7 @@
         <v>1422.6695412381212</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248.37917367995257</v>
       </c>
       <c r="E43" s="1">
@@ -43798,7 +43798,7 @@
         <v>1463.9838298933826</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>252.19831061351866</v>
       </c>
       <c r="E44" s="1">
@@ -43847,7 +43847,7 @@
         <v>1506.2506996857765</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>256.11212657236632</v>
       </c>
       <c r="E45" s="1">
@@ -43896,7 +43896,7 @@
         <v>1549.5527270872078</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>260.12741699796948</v>
       </c>
       <c r="E46" s="1">
@@ -43945,7 +43945,7 @@
         <v>1593.9794350132313</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>264.25146506416638</v>
       </c>
       <c r="E47" s="1">
@@ -43994,7 +43994,7 @@
         <v>1639.6278645767688</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>268.49207668339955</v>
       </c>
       <c r="E48" s="1">
@@ -44043,7 +44043,7 @@
         <v>1686.6031931311984</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>272.85761802547597</v>
       </c>
       <c r="E49" s="1">
@@ -44092,7 +44092,7 @@
         <v>1735.0194023021597</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>277.35705572917783</v>
       </c>
       <c r="E50" s="1">
@@ -44141,7 +44141,7 @@
         <v>1785</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>282</v>
       </c>
       <c r="E51" s="1">
@@ -44190,7 +44190,7 @@
         <v>1836.678800720292</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>286.79675080116135</v>
       </c>
       <c r="E52" s="1">
@@ -44239,7 +44239,7 @@
         <v>1890.200768780109</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>291.75834735990514</v>
       </c>
       <c r="E53" s="1">
@@ -44288,7 +44288,7 @@
         <v>1945.7229295046166</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>296.89662122703731</v>
       </c>
       <c r="E54" s="1">
@@ -44337,7 +44337,7 @@
         <v>2003.4153537741784</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>302.22425314473264</v>
       </c>
       <c r="E55" s="1">
@@ -44386,7 +44386,7 @@
         <v>2063.4622217687302</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>307.75483399593901</v>
       </c>
       <c r="E56" s="1">
@@ -44435,7 +44435,7 @@
         <v>2126.0629722061285</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>313.50293012833276</v>
       </c>
       <c r="E57" s="1">
@@ -44484,7 +44484,7 @@
         <v>2191.4335438670564</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>319.48415336679909</v>
       </c>
       <c r="E58" s="1">
@@ -44533,7 +44533,7 @@
         <v>2259.8077167337296</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>325.71523605095194</v>
       </c>
       <c r="E59" s="1">
@@ -44582,7 +44582,7 @@
         <v>2331.4385606460182</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>332.21411145835572</v>
       </c>
       <c r="E60" s="1">
@@ -44631,7 +44631,7 @@
         <v>4254.5999999999995</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>559</v>
       </c>
       <c r="E61" s="1">
@@ -44680,7 +44680,7 @@
         <v>4364.3885036838365</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>566.0935016023227</v>
       </c>
       <c r="E62" s="1">
@@ -44729,7 +44729,7 @@
         <v>4478.3249101679521</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>573.51669471981018</v>
       </c>
       <c r="E63" s="1">
@@ -44778,7 +44778,7 @@
         <v>4596.7563984449371</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>581.29324245407463</v>
       </c>
       <c r="E64" s="1">
@@ -44827,7 +44827,7 @@
         <v>4720.0586163536082</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>589.44850628946517</v>
       </c>
       <c r="E65" s="1">
@@ -44876,7 +44876,7 @@
         <v>4848.6379787260903</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>598.00966799187802</v>
       </c>
       <c r="E66" s="1">
@@ -44917,7 +44917,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B100" si="9">FLOOR(A67/20,1)*FLOOR(A67/20,1)*2+FLOOR(A67/30,1)*FLOOR(A67/30,1)*4+POWER(2,A67/10)/10</f>
+        <f t="shared" ref="B67:B100" si="10">FLOOR(A67/20,1)*FLOOR(A67/20,1)*2+FLOOR(A67/30,1)*FLOOR(A67/30,1)*4+POWER(2,A67/10)/10</f>
         <v>43.700586025666546</v>
       </c>
       <c r="C67" s="1">
@@ -44925,11 +44925,11 @@
         <v>4982.9341487715883</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D100" si="10">(5+A67*2.5+10*B67)*MIN(A67/20*0.4+0.6,1)</f>
+        <f t="shared" ref="D67:D100" si="11">(5+A67*2.5+10*B67)*MIN(A67/20*0.4+0.6,1)</f>
         <v>607.00586025666553</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E100" si="11">(1-POWER(1-((A67+1)/100),2))*20+MAX(0,(A67-10)/3)</f>
+        <f t="shared" ref="E67:E100" si="12">(1-POWER(1-((A67+1)/100),2))*20+MAX(0,(A67-10)/3)</f>
         <v>36.488666666666667</v>
       </c>
       <c r="F67" s="1">
@@ -44937,11 +44937,11 @@
         <v>7237.9734346737796</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G100" si="12">FLOOR(A67*0.8,1)+1</f>
+        <f t="shared" ref="G67:G100" si="13">FLOOR(A67*0.8,1)+1</f>
         <v>53</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H100" si="13">FLOOR(A67/3,1)+1</f>
+        <f t="shared" ref="H67:H100" si="14">FLOOR(A67/3,1)+1</f>
         <v>23</v>
       </c>
       <c r="J67" s="1">
@@ -44957,7 +44957,7 @@
         <v>4449.340424768975</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N100" si="14">MAX(1,1+(1-POWER(1-(A67-10)/200,3)))</f>
+        <f t="shared" ref="N67:N100" si="15">MAX(1,1+(1-POWER(1-(A67-10)/200,3)))</f>
         <v>1.626752</v>
       </c>
     </row>
@@ -44966,7 +44966,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.396830673359815</v>
       </c>
       <c r="C68" s="1">
@@ -44974,11 +44974,11 @@
         <v>5123.4227171611501</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>616.46830673359818</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36.951999999999998</v>
       </c>
       <c r="F68" s="1">
@@ -44986,11 +44986,11 @@
         <v>7549.7943277765753</v>
       </c>
       <c r="G68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="H68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="J68" s="1">
@@ -45006,7 +45006,7 @@
         <v>4619.096877888217</v>
       </c>
       <c r="N68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6344741249999999</v>
       </c>
     </row>
@@ -45015,7 +45015,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.143047210190389</v>
       </c>
       <c r="C69" s="1">
@@ -45023,11 +45023,11 @@
         <v>5270.6180944101243</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>626.43047210190389</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37.411333333333332</v>
       </c>
       <c r="F69" s="1">
@@ -45035,11 +45035,11 @@
         <v>8186.9041466935159</v>
       </c>
       <c r="G69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>55</v>
       </c>
       <c r="H69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="J69" s="1">
@@ -45055,7 +45055,7 @@
         <v>4985.6640819672475</v>
       </c>
       <c r="N69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6420889999999999</v>
       </c>
     </row>
@@ -45064,7 +45064,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.942822291671135</v>
       </c>
       <c r="C70" s="1">
@@ -45072,11 +45072,11 @@
         <v>5425.0766333754309</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>636.92822291671132</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37.866666666666667</v>
       </c>
       <c r="F70" s="1">
@@ -45084,11 +45084,11 @@
         <v>8530.6690140845076</v>
       </c>
       <c r="G70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="H70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="J70" s="1">
@@ -45104,7 +45104,7 @@
         <v>5171.3643240275569</v>
       </c>
       <c r="N70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6495973749999999</v>
       </c>
     </row>
@@ -45113,7 +45113,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.8</v>
       </c>
       <c r="C71" s="1">
@@ -45121,11 +45121,11 @@
         <v>5587.4</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>648</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38.317999999999998</v>
       </c>
       <c r="F71" s="1">
@@ -45133,11 +45133,11 @@
         <v>9466.8302103450078</v>
       </c>
       <c r="G71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="H71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="J71" s="1">
@@ -45153,7 +45153,7 @@
         <v>5713.2348885606571</v>
       </c>
       <c r="N71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.657</v>
       </c>
     </row>
@@ -45162,7 +45162,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.718700320464549</v>
       </c>
       <c r="C72" s="1">
@@ -45170,11 +45170,11 @@
         <v>5758.2388118541758</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>659.68700320464552</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38.765333333333331</v>
       </c>
       <c r="F72" s="1">
@@ -45182,11 +45182,11 @@
         <v>9851.9467565522464</v>
       </c>
       <c r="G72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="H72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="J72" s="1">
@@ -45202,7 +45202,7 @@
         <v>5919.5822961967197</v>
       </c>
       <c r="N72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6642976249999999</v>
       </c>
     </row>
@@ -45211,7 +45211,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48.703338943962045</v>
       </c>
       <c r="C73" s="1">
@@ -45219,11 +45219,11 @@
         <v>5938.2965655513735</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>672.03338943962046</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.208666666666673</v>
       </c>
       <c r="F73" s="1">
@@ -45231,11 +45231,11 @@
         <v>10549.198306496861</v>
       </c>
       <c r="G73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
       <c r="H73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="J73" s="1">
@@ -45251,7 +45251,7 @@
         <v>6311.2504383791847</v>
       </c>
       <c r="N73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6714910000000001</v>
       </c>
     </row>
@@ -45260,7 +45260,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.758648490814927</v>
       </c>
       <c r="C74" s="1">
@@ -45268,11 +45268,11 @@
         <v>6128.3338757612855</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>685.08648490814926</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.647999999999996</v>
       </c>
       <c r="F74" s="1">
@@ -45280,11 +45280,11 @@
         <v>10968.724778046813</v>
       </c>
       <c r="G74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>59</v>
       </c>
       <c r="H74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="J74" s="1">
@@ -45300,7 +45300,7 @@
         <v>6534.5226681715967</v>
       </c>
       <c r="N74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.678580875</v>
       </c>
     </row>
@@ -45309,7 +45309,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.889701257893044</v>
       </c>
       <c r="C75" s="1">
@@ -45317,11 +45317,11 @@
         <v>6329.1730503177196</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>698.89701257893046</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.083333333333329</v>
       </c>
       <c r="F75" s="1">
@@ -45329,11 +45329,11 @@
         <v>11956.365904365906</v>
       </c>
       <c r="G75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="H75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="J75" s="1">
@@ -45349,7 +45349,7 @@
         <v>7093.3749954709074</v>
       </c>
       <c r="N75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.685568</v>
       </c>
     </row>
@@ -45358,7 +45358,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52.101933598375609</v>
       </c>
       <c r="C76" s="1">
@@ -45366,11 +45366,11 @@
         <v>6541.7030278294396</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>713.51933598375604</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.51466666666667</v>
       </c>
       <c r="F76" s="1">
@@ -45378,11 +45378,11 @@
         <v>12419.675179358914</v>
       </c>
       <c r="G76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="H76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="J76" s="1">
@@ -45398,7 +45398,7 @@
         <v>7338.2683371859503</v>
       </c>
       <c r="N76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6924531249999999</v>
       </c>
     </row>
@@ -45407,7 +45407,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>53.401172051333091</v>
       </c>
       <c r="C77" s="1">
@@ -45415,11 +45415,11 @@
         <v>6766.8847062618406</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>729.01172051333094</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.942</v>
       </c>
       <c r="F77" s="1">
@@ -45427,11 +45427,11 @@
         <v>13183.674466318205</v>
       </c>
       <c r="G77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="H77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="J77" s="1">
@@ -45447,7 +45447,7 @@
         <v>7758.5848626873158</v>
       </c>
       <c r="N77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6992370000000001</v>
       </c>
     </row>
@@ -45456,7 +45456,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.793661346719624</v>
       </c>
       <c r="C78" s="1">
@@ -45464,11 +45464,11 @@
         <v>7005.7566931763749</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>745.43661346719625</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41.365333333333332</v>
       </c>
       <c r="F78" s="1">
@@ -45476,11 +45476,11 @@
         <v>13684.018824136154</v>
       </c>
       <c r="G78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="H78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="J78" s="1">
@@ -45496,7 +45496,7 @@
         <v>8021.4874179787857</v>
       </c>
       <c r="N78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.705920375</v>
       </c>
     </row>
@@ -45505,7 +45505,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56.286094420380778</v>
       </c>
       <c r="C79" s="1">
@@ -45513,11 +45513,11 @@
         <v>7259.4415107055802</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>762.86094420380778</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41.784666666666666</v>
       </c>
       <c r="F79" s="1">
@@ -45525,11 +45525,11 @@
         <v>14731.121464013913</v>
       </c>
       <c r="G79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>63</v>
       </c>
       <c r="H79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="J79" s="1">
@@ -45545,7 +45545,7 @@
         <v>8602.0946310279633</v>
       </c>
       <c r="N79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.712504</v>
       </c>
     </row>
@@ -45554,7 +45554,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57.885644583342263</v>
       </c>
       <c r="C80" s="1">
@@ -45562,11 +45562,11 @@
         <v>7529.1522909176538</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>781.35644583342264</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.2</v>
       </c>
       <c r="F80" s="1">
@@ -45574,11 +45574,11 @@
         <v>15277.654028436018</v>
       </c>
       <c r="G80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="H80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="J80" s="1">
@@ -45594,7 +45594,7 @@
         <v>8887.5829695708526</v>
       </c>
       <c r="N80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7189886249999999</v>
       </c>
     </row>
@@ -45603,7 +45603,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73.599999999999994</v>
       </c>
       <c r="C81" s="1">
@@ -45611,11 +45611,11 @@
         <v>9384.1999999999989</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>941</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.611333333333334</v>
       </c>
       <c r="F81" s="1">
@@ -45623,11 +45623,11 @@
         <v>16749.393745013065</v>
       </c>
       <c r="G81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="H81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="J81" s="1">
@@ -45643,7 +45643,7 @@
         <v>9707.6831094765275</v>
       </c>
       <c r="N81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7253749999999999</v>
       </c>
     </row>
@@ -45652,7 +45652,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75.437400640929098</v>
       </c>
       <c r="C82" s="1">
@@ -45660,11 +45660,11 @@
         <v>9709.6012326813598</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>961.87400640929104</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.018666666666668</v>
       </c>
       <c r="F82" s="1">
@@ -45672,11 +45672,11 @@
         <v>17774.35376890652</v>
       </c>
       <c r="G82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="H82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J82" s="1">
@@ -45692,7 +45692,7 @@
         <v>10264.320937518271</v>
       </c>
       <c r="N82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.731663875</v>
       </c>
     </row>
@@ -45701,7 +45701,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77.406677887924062</v>
       </c>
       <c r="C83" s="1">
@@ -45709,11 +45709,11 @@
         <v>10055.286621533682</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>984.06677887924059</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.421999999999997</v>
       </c>
       <c r="F83" s="1">
@@ -45721,11 +45721,11 @@
         <v>19351.227488369954</v>
       </c>
       <c r="G83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="H83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J83" s="1">
@@ -45741,7 +45741,7 @@
         <v>11135.11561853799</v>
       </c>
       <c r="N83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7378559999999998</v>
       </c>
     </row>
@@ -45750,7 +45750,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>79.517296981629883</v>
       </c>
       <c r="C84" s="1">
@@ -45758,11 +45758,11 @@
         <v>10422.909909265392</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1007.6729698162989</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.821333333333328</v>
       </c>
       <c r="F84" s="1">
@@ -45770,11 +45770,11 @@
         <v>20472.950769792493</v>
       </c>
       <c r="G84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="H84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J84" s="1">
@@ -45790,7 +45790,7 @@
         <v>11739.399537583346</v>
       </c>
       <c r="N84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7439521250000001</v>
       </c>
     </row>
@@ -45799,7 +45799,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81.779402515786089</v>
       </c>
       <c r="C85" s="1">
@@ -45807,11 +45807,11 @@
         <v>10814.257735856443</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1032.7940251578609</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44.216666666666669</v>
       </c>
       <c r="F85" s="1">
@@ -45819,11 +45819,11 @@
         <v>22513.185073501696</v>
       </c>
       <c r="G85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="H85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="J85" s="1">
@@ -45839,7 +45839,7 @@
         <v>12865.022702610695</v>
       </c>
       <c r="N85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7499530000000001</v>
       </c>
     </row>
@@ -45848,7 +45848,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.203867196751233</v>
       </c>
       <c r="C86" s="1">
@@ -45856,11 +45856,11 @@
         <v>11231.260196413397</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1059.5386719675123</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44.608000000000004</v>
       </c>
       <c r="F86" s="1">
@@ -45868,11 +45868,11 @@
         <v>24151.093974175034</v>
       </c>
       <c r="G86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="H86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="J86" s="1">
@@ -45888,7 +45888,7 @@
         <v>13754.571874057416</v>
       </c>
       <c r="N86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.755859375</v>
       </c>
     </row>
@@ -45897,7 +45897,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>86.802344102666183</v>
       </c>
       <c r="C87" s="1">
@@ -45905,11 +45905,11 @@
         <v>11676.002229961008</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1088.0234410266619</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44.995333333333335</v>
       </c>
       <c r="F87" s="1">
@@ -45917,11 +45917,11 @@
         <v>26350.15483087135</v>
       </c>
       <c r="G87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="H87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="J87" s="1">
@@ -45937,7 +45937,7 @@
         <v>14957.469285355817</v>
       </c>
       <c r="N87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7616719999999999</v>
       </c>
     </row>
@@ -45946,7 +45946,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>89.587322693439219</v>
       </c>
       <c r="C88" s="1">
@@ -45954,11 +45954,11 @@
         <v>12150.735904060897</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1118.3732269343923</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45.378666666666668</v>
       </c>
       <c r="F88" s="1">
@@ -45966,11 +45966,11 @@
         <v>28139.654463183873</v>
       </c>
       <c r="G88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="H88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="J88" s="1">
@@ -45986,7 +45986,7 @@
         <v>15921.572822426311</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7673916250000001</v>
       </c>
     </row>
@@ -45995,7 +45995,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>92.572188840761555</v>
       </c>
       <c r="C89" s="1">
@@ -46003,11 +46003,11 @@
         <v>12657.893665181822</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1150.7218884076156</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45.757999999999996</v>
       </c>
       <c r="F89" s="1">
@@ -46015,11 +46015,11 @@
         <v>30846.474933344991</v>
       </c>
       <c r="G89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="H89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="J89" s="1">
@@ -46035,7 +46035,7 @@
         <v>17397.712564470541</v>
       </c>
       <c r="N89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7730190000000001</v>
       </c>
     </row>
@@ -46044,7 +46044,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95.771289166684539</v>
       </c>
       <c r="C90" s="1">
@@ -46052,11 +46052,11 @@
         <v>13200.102630168893</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1185.2128916668453</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.133333333333333</v>
       </c>
       <c r="F90" s="1">
@@ -46064,11 +46064,11 @@
         <v>33195.780346820808</v>
       </c>
       <c r="G90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="H90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="J90" s="1">
@@ -46084,7 +46084,7 @@
         <v>18664.467885378464</v>
       </c>
       <c r="N90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.778554875</v>
       </c>
     </row>
@@ -46093,19 +46093,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>119.2</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ref="C91:C100" si="15">(A91*20+A91*B91*2+30)*0.7</f>
+        <f t="shared" ref="C91:C100" si="16">(A91*20+A91*B91*2+30)*0.7</f>
         <v>16300.199999999999</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1422</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.504666666666665</v>
       </c>
       <c r="F91" s="1">
@@ -46113,11 +46113,11 @@
         <v>37890.54145103717</v>
       </c>
       <c r="G91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="H91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="J91" s="1">
@@ -46133,7 +46133,7 @@
         <v>21239.092741612763</v>
       </c>
       <c r="N91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.784</v>
       </c>
     </row>
@@ -46142,19 +46142,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>122.87480128185821</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16949.249683308735</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1461.2480128185821</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.872</v>
       </c>
       <c r="F92" s="1">
@@ -46162,11 +46162,11 @@
         <v>40589.84041645332</v>
       </c>
       <c r="G92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="H92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="J92" s="1">
@@ -46182,7 +46182,7 @@
         <v>22684.060782206838</v>
       </c>
       <c r="N92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7893551250000002</v>
       </c>
     </row>
@@ -46191,19 +46191,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>126.81335577584814</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17642.560223929238</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1503.1335577584814</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.23533333333333</v>
       </c>
       <c r="F93" s="1">
@@ -46211,11 +46211,11 @@
         <v>44216.412854783848</v>
       </c>
       <c r="G93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="H93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="J93" s="1">
@@ -46231,7 +46231,7 @@
         <v>24638.30126516064</v>
       </c>
       <c r="N93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7946209999999998</v>
       </c>
     </row>
@@ -46240,19 +46240,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>131.03459396325971</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18383.704134016414</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1547.845939632597</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.594666666666669</v>
       </c>
       <c r="F94" s="1">
@@ -46260,11 +46260,11 @@
         <v>47537.006947557151</v>
       </c>
       <c r="G94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="H94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="J94" s="1">
@@ -46280,7 +46280,7 @@
         <v>26412.406860605788</v>
       </c>
       <c r="N94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.799798375</v>
       </c>
     </row>
@@ -46289,19 +46289,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>135.55880503157218</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19176.538742154899</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1595.5880503157218</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.95</v>
       </c>
       <c r="F95" s="1">
@@ -46309,11 +46309,11 @@
         <v>53172.888425443169</v>
       </c>
       <c r="G95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="H95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="J95" s="1">
@@ -46329,7 +46329,7 @@
         <v>29460.491967060094</v>
       </c>
       <c r="N95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.804888</v>
       </c>
     </row>
@@ -46338,19 +46338,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>140.40773439350247</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20025.228674335827</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1646.5773439350246</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.301333333333332</v>
       </c>
       <c r="F96" s="1">
@@ -46358,11 +46358,11 @@
         <v>56916.461933417988</v>
       </c>
       <c r="G96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="H96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="J96" s="1">
@@ -46378,7 +46378,7 @@
         <v>31447.459391872362</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.809890625</v>
       </c>
     </row>
@@ -46387,19 +46387,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>145.60468820533237</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20934.27009479667</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1701.0468820533238</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.648666666666671</v>
       </c>
       <c r="F97" s="1">
@@ -46407,11 +46407,11 @@
         <v>61603.024406287252</v>
       </c>
       <c r="G97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="H97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="J97" s="1">
@@ -46427,7 +46427,7 @@
         <v>33944.66982234874</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8148070000000001</v>
       </c>
     </row>
@@ -46436,19 +46436,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>151.17464538687844</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21908.516843538091</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1759.2464538687843</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.992000000000004</v>
       </c>
       <c r="F98" s="1">
@@ -46456,11 +46456,11 @@
         <v>66036.475342913123</v>
       </c>
       <c r="G98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
       <c r="H98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="J98" s="1">
@@ -46476,7 +46476,7 @@
         <v>36290.998472931387</v>
       </c>
       <c r="N98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8196378750000002</v>
       </c>
     </row>
@@ -46485,19 +46485,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>157.14437768152311</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22953.208617904969</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1821.4437768152311</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49.331333333333333</v>
       </c>
       <c r="F99" s="1">
@@ -46505,11 +46505,11 @@
         <v>72765.132370231222</v>
       </c>
       <c r="G99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="H99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="J99" s="1">
@@ -46525,7 +46525,7 @@
         <v>39884.767883423243</v>
       </c>
       <c r="N99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.824384</v>
       </c>
     </row>
@@ -46534,19 +46534,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>163.54257833336908</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24074.001357004952</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1887.9257833336908</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49.666666666666671</v>
       </c>
       <c r="F100" s="1">
@@ -46554,11 +46554,11 @@
         <v>77701.288590604017</v>
       </c>
       <c r="G100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="H100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="J100" s="1">
@@ -46574,7 +46574,7 @@
         <v>42481.863922706711</v>
       </c>
       <c r="N100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8290461250000001</v>
       </c>
     </row>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C7F4F3-E3C7-4A60-AE9F-9F1FBD7698F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E611A139-DC73-4FEA-B8E6-9B55D33AE1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4106" yWindow="3300" windowWidth="20700" windowHeight="13123" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="4106" yWindow="3300" windowWidth="27085" windowHeight="14100" activeTab="1" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <definedName name="MonsterStatChart">StatDef!$A:$R</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="1120">
   <si>
     <t>Id</t>
   </si>
@@ -2310,9 +2309,6 @@
     <t>Evil Druid</t>
   </si>
   <si>
-    <t>Strong,Undead</t>
-  </si>
-  <si>
     <t>evil_druid.spr</t>
   </si>
   <si>
@@ -3406,6 +3402,15 @@
   </si>
   <si>
     <t>Brute,WorldBoss</t>
+  </si>
+  <si>
+    <t>Buff,Undead</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Elite,Magic,Undead</t>
   </si>
 </sst>
 </file>
@@ -3847,11 +3852,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
   <dimension ref="A1:AJ303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5050,7 +5055,7 @@
         <v>41</v>
       </c>
       <c r="AC11" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AD11" t="s">
         <v>59</v>
@@ -10293,7 +10298,7 @@
         <v>41</v>
       </c>
       <c r="AC60" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD60" t="s">
         <v>42</v>
@@ -11149,7 +11154,7 @@
         <v>41</v>
       </c>
       <c r="AC68" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AD68" t="s">
         <v>99</v>
@@ -11473,7 +11478,7 @@
         <v>48</v>
       </c>
       <c r="AD71" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AE71">
         <v>384</v>
@@ -21742,7 +21747,7 @@
         <v>41</v>
       </c>
       <c r="AC167" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AD167" t="s">
         <v>99</v>
@@ -26664,7 +26669,7 @@
         <v>41</v>
       </c>
       <c r="AC213" t="s">
-        <v>752</v>
+        <v>1119</v>
       </c>
       <c r="AD213" t="s">
         <v>99</v>
@@ -26673,7 +26678,7 @@
         <v>168</v>
       </c>
       <c r="AF213" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AG213">
         <v>0</v>
@@ -26690,10 +26695,10 @@
         <v>4211</v>
       </c>
       <c r="B214" t="s">
+        <v>753</v>
+      </c>
+      <c r="C214" t="s">
         <v>754</v>
-      </c>
-      <c r="C214" t="s">
-        <v>755</v>
       </c>
       <c r="D214">
         <v>79</v>
@@ -26771,7 +26776,7 @@
         <v>41</v>
       </c>
       <c r="AC214" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AD214" t="s">
         <v>99</v>
@@ -26780,7 +26785,7 @@
         <v>720</v>
       </c>
       <c r="AF214" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AG214">
         <v>0</v>
@@ -26797,10 +26802,10 @@
         <v>4212</v>
       </c>
       <c r="B215" t="s">
+        <v>757</v>
+      </c>
+      <c r="C215" t="s">
         <v>758</v>
-      </c>
-      <c r="C215" t="s">
-        <v>759</v>
       </c>
       <c r="D215">
         <v>65</v>
@@ -26887,7 +26892,7 @@
         <v>240</v>
       </c>
       <c r="AF215" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AG215">
         <v>0</v>
@@ -26904,10 +26909,10 @@
         <v>4213</v>
       </c>
       <c r="B216" t="s">
+        <v>760</v>
+      </c>
+      <c r="C216" t="s">
         <v>761</v>
-      </c>
-      <c r="C216" t="s">
-        <v>762</v>
       </c>
       <c r="D216">
         <v>53</v>
@@ -26994,7 +26999,7 @@
         <v>384</v>
       </c>
       <c r="AF216" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AG216">
         <v>0</v>
@@ -27011,10 +27016,10 @@
         <v>4214</v>
       </c>
       <c r="B217" t="s">
+        <v>763</v>
+      </c>
+      <c r="C217" t="s">
         <v>764</v>
-      </c>
-      <c r="C217" t="s">
-        <v>765</v>
       </c>
       <c r="D217">
         <v>77</v>
@@ -27092,7 +27097,7 @@
         <v>119</v>
       </c>
       <c r="AC217" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AD217" t="s">
         <v>99</v>
@@ -27101,7 +27106,7 @@
         <v>269</v>
       </c>
       <c r="AF217" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AG217">
         <v>0</v>
@@ -27118,10 +27123,10 @@
         <v>4215</v>
       </c>
       <c r="B218" t="s">
+        <v>767</v>
+      </c>
+      <c r="C218" t="s">
         <v>768</v>
-      </c>
-      <c r="C218" t="s">
-        <v>769</v>
       </c>
       <c r="D218">
         <v>80</v>
@@ -27208,7 +27213,7 @@
         <v>408</v>
       </c>
       <c r="AF218" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AG218">
         <v>0</v>
@@ -27225,10 +27230,10 @@
         <v>4216</v>
       </c>
       <c r="B219" t="s">
+        <v>770</v>
+      </c>
+      <c r="C219" t="s">
         <v>771</v>
-      </c>
-      <c r="C219" t="s">
-        <v>772</v>
       </c>
       <c r="D219">
         <v>52</v>
@@ -27288,7 +27293,7 @@
         <v>469</v>
       </c>
       <c r="W219" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="X219">
         <v>1848</v>
@@ -27306,7 +27311,7 @@
         <v>41</v>
       </c>
       <c r="AC219" t="s">
-        <v>469</v>
+        <v>1117</v>
       </c>
       <c r="AD219" t="s">
         <v>99</v>
@@ -27315,7 +27320,7 @@
         <v>864</v>
       </c>
       <c r="AF219" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AG219">
         <v>0</v>
@@ -27332,10 +27337,10 @@
         <v>4217</v>
       </c>
       <c r="B220" t="s">
+        <v>774</v>
+      </c>
+      <c r="C220" t="s">
         <v>775</v>
-      </c>
-      <c r="C220" t="s">
-        <v>776</v>
       </c>
       <c r="D220">
         <v>53</v>
@@ -27395,7 +27400,7 @@
         <v>469</v>
       </c>
       <c r="W220" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="X220">
         <v>1768</v>
@@ -27413,7 +27418,7 @@
         <v>41</v>
       </c>
       <c r="AC220" t="s">
-        <v>469</v>
+        <v>1117</v>
       </c>
       <c r="AD220" t="s">
         <v>99</v>
@@ -27422,7 +27427,7 @@
         <v>480</v>
       </c>
       <c r="AF220" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AG220">
         <v>0</v>
@@ -27439,10 +27444,10 @@
         <v>4218</v>
       </c>
       <c r="B221" t="s">
+        <v>777</v>
+      </c>
+      <c r="C221" t="s">
         <v>778</v>
-      </c>
-      <c r="C221" t="s">
-        <v>779</v>
       </c>
       <c r="D221">
         <v>61</v>
@@ -27529,7 +27534,7 @@
         <v>336</v>
       </c>
       <c r="AF221" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AG221">
         <v>0</v>
@@ -27546,10 +27551,10 @@
         <v>4219</v>
       </c>
       <c r="B222" t="s">
+        <v>780</v>
+      </c>
+      <c r="C222" t="s">
         <v>781</v>
-      </c>
-      <c r="C222" t="s">
-        <v>782</v>
       </c>
       <c r="D222">
         <v>66</v>
@@ -27627,7 +27632,7 @@
         <v>41</v>
       </c>
       <c r="AC222" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD222" t="s">
         <v>99</v>
@@ -27636,7 +27641,7 @@
         <v>660</v>
       </c>
       <c r="AF222" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AG222">
         <v>0</v>
@@ -27653,10 +27658,10 @@
         <v>4220</v>
       </c>
       <c r="B223" t="s">
+        <v>784</v>
+      </c>
+      <c r="C223" t="s">
         <v>785</v>
-      </c>
-      <c r="C223" t="s">
-        <v>786</v>
       </c>
       <c r="D223">
         <v>48</v>
@@ -27716,7 +27721,7 @@
         <v>219</v>
       </c>
       <c r="W223" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="X223">
         <v>1020</v>
@@ -27743,7 +27748,7 @@
         <v>600</v>
       </c>
       <c r="AF223" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AG223">
         <v>0</v>
@@ -27760,10 +27765,10 @@
         <v>4221</v>
       </c>
       <c r="B224" t="s">
+        <v>788</v>
+      </c>
+      <c r="C224" t="s">
         <v>789</v>
-      </c>
-      <c r="C224" t="s">
-        <v>790</v>
       </c>
       <c r="D224">
         <v>82</v>
@@ -27850,7 +27855,7 @@
         <v>288</v>
       </c>
       <c r="AF224" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AG224">
         <v>0</v>
@@ -27867,10 +27872,10 @@
         <v>4222</v>
       </c>
       <c r="B225" t="s">
+        <v>791</v>
+      </c>
+      <c r="C225" t="s">
         <v>792</v>
-      </c>
-      <c r="C225" t="s">
-        <v>793</v>
       </c>
       <c r="D225">
         <v>51</v>
@@ -27897,7 +27902,7 @@
         <v>100</v>
       </c>
       <c r="L225">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M225">
         <v>5</v>
@@ -27948,7 +27953,7 @@
         <v>41</v>
       </c>
       <c r="AC225" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AD225" t="s">
         <v>99</v>
@@ -27957,7 +27962,7 @@
         <v>540</v>
       </c>
       <c r="AF225" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AG225">
         <v>0</v>
@@ -27974,10 +27979,10 @@
         <v>4223</v>
       </c>
       <c r="B226" t="s">
+        <v>794</v>
+      </c>
+      <c r="C226" t="s">
         <v>795</v>
-      </c>
-      <c r="C226" t="s">
-        <v>796</v>
       </c>
       <c r="D226">
         <v>71</v>
@@ -28004,7 +28009,7 @@
         <v>100</v>
       </c>
       <c r="L226">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M226">
         <v>5</v>
@@ -28037,7 +28042,7 @@
         <v>219</v>
       </c>
       <c r="W226" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="X226">
         <v>1790</v>
@@ -28064,7 +28069,7 @@
         <v>900</v>
       </c>
       <c r="AF226" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AG226">
         <v>0</v>
@@ -28081,10 +28086,10 @@
         <v>4224</v>
       </c>
       <c r="B227" t="s">
+        <v>798</v>
+      </c>
+      <c r="C227" t="s">
         <v>799</v>
-      </c>
-      <c r="C227" t="s">
-        <v>800</v>
       </c>
       <c r="D227">
         <v>73</v>
@@ -28171,7 +28176,7 @@
         <v>1920</v>
       </c>
       <c r="AF227" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AG227">
         <v>0</v>
@@ -28188,10 +28193,10 @@
         <v>4225</v>
       </c>
       <c r="B228" t="s">
+        <v>801</v>
+      </c>
+      <c r="C228" t="s">
         <v>802</v>
-      </c>
-      <c r="C228" t="s">
-        <v>803</v>
       </c>
       <c r="D228">
         <v>73</v>
@@ -28251,7 +28256,7 @@
         <v>160</v>
       </c>
       <c r="W228" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="X228">
         <v>1744</v>
@@ -28278,7 +28283,7 @@
         <v>960</v>
       </c>
       <c r="AF228" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AG228">
         <v>0</v>
@@ -28295,10 +28300,10 @@
         <v>4226</v>
       </c>
       <c r="B229" t="s">
+        <v>804</v>
+      </c>
+      <c r="C229" t="s">
         <v>805</v>
-      </c>
-      <c r="C229" t="s">
-        <v>806</v>
       </c>
       <c r="D229">
         <v>61</v>
@@ -28385,7 +28390,7 @@
         <v>660</v>
       </c>
       <c r="AF229" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AG229">
         <v>0</v>
@@ -28402,10 +28407,10 @@
         <v>4227</v>
       </c>
       <c r="B230" t="s">
+        <v>807</v>
+      </c>
+      <c r="C230" t="s">
         <v>808</v>
-      </c>
-      <c r="C230" t="s">
-        <v>809</v>
       </c>
       <c r="D230">
         <v>51</v>
@@ -28465,7 +28470,7 @@
         <v>219</v>
       </c>
       <c r="W230" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="X230">
         <v>1056</v>
@@ -28483,7 +28488,7 @@
         <v>41</v>
       </c>
       <c r="AC230" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AD230" t="s">
         <v>99</v>
@@ -28492,7 +28497,7 @@
         <v>720</v>
       </c>
       <c r="AF230" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AG230">
         <v>0</v>
@@ -28509,10 +28514,10 @@
         <v>4228</v>
       </c>
       <c r="B231" t="s">
+        <v>811</v>
+      </c>
+      <c r="C231" t="s">
         <v>812</v>
-      </c>
-      <c r="C231" t="s">
-        <v>813</v>
       </c>
       <c r="D231">
         <v>40</v>
@@ -28590,7 +28595,7 @@
         <v>41</v>
       </c>
       <c r="AC231" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AD231" t="s">
         <v>99</v>
@@ -28599,7 +28604,7 @@
         <v>432</v>
       </c>
       <c r="AF231" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AG231">
         <v>0</v>
@@ -28616,10 +28621,10 @@
         <v>4229</v>
       </c>
       <c r="B232" t="s">
+        <v>814</v>
+      </c>
+      <c r="C232" t="s">
         <v>815</v>
-      </c>
-      <c r="C232" t="s">
-        <v>816</v>
       </c>
       <c r="D232">
         <v>48</v>
@@ -28706,7 +28711,7 @@
         <v>336</v>
       </c>
       <c r="AF232" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AG232">
         <v>0</v>
@@ -28723,10 +28728,10 @@
         <v>4230</v>
       </c>
       <c r="B233" t="s">
+        <v>817</v>
+      </c>
+      <c r="C233" t="s">
         <v>818</v>
-      </c>
-      <c r="C233" t="s">
-        <v>819</v>
       </c>
       <c r="D233">
         <v>35</v>
@@ -28813,7 +28818,7 @@
         <v>360</v>
       </c>
       <c r="AF233" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AG233">
         <v>0</v>
@@ -28830,10 +28835,10 @@
         <v>4231</v>
       </c>
       <c r="B234" t="s">
+        <v>820</v>
+      </c>
+      <c r="C234" t="s">
         <v>821</v>
-      </c>
-      <c r="C234" t="s">
-        <v>822</v>
       </c>
       <c r="D234">
         <v>70</v>
@@ -28920,7 +28925,7 @@
         <v>108</v>
       </c>
       <c r="AF234" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AG234">
         <v>0</v>
@@ -28937,10 +28942,10 @@
         <v>4232</v>
       </c>
       <c r="B235" t="s">
+        <v>823</v>
+      </c>
+      <c r="C235" t="s">
         <v>824</v>
-      </c>
-      <c r="C235" t="s">
-        <v>825</v>
       </c>
       <c r="D235">
         <v>58</v>
@@ -29027,7 +29032,7 @@
         <v>756</v>
       </c>
       <c r="AF235" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AG235">
         <v>0</v>
@@ -29044,10 +29049,10 @@
         <v>4233</v>
       </c>
       <c r="B236" t="s">
+        <v>826</v>
+      </c>
+      <c r="C236" t="s">
         <v>827</v>
-      </c>
-      <c r="C236" t="s">
-        <v>828</v>
       </c>
       <c r="D236">
         <v>49</v>
@@ -29134,7 +29139,7 @@
         <v>396</v>
       </c>
       <c r="AF236" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AG236">
         <v>0</v>
@@ -29151,10 +29156,10 @@
         <v>4234</v>
       </c>
       <c r="B237" t="s">
+        <v>829</v>
+      </c>
+      <c r="C237" t="s">
         <v>830</v>
-      </c>
-      <c r="C237" t="s">
-        <v>831</v>
       </c>
       <c r="D237">
         <v>63</v>
@@ -29214,7 +29219,7 @@
         <v>53</v>
       </c>
       <c r="W237" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="X237">
         <v>1100</v>
@@ -29232,7 +29237,7 @@
         <v>41</v>
       </c>
       <c r="AC237" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AD237" t="s">
         <v>42</v>
@@ -29241,7 +29246,7 @@
         <v>720</v>
       </c>
       <c r="AF237" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AG237">
         <v>0</v>
@@ -29258,10 +29263,10 @@
         <v>4235</v>
       </c>
       <c r="B238" t="s">
+        <v>833</v>
+      </c>
+      <c r="C238" t="s">
         <v>834</v>
-      </c>
-      <c r="C238" t="s">
-        <v>835</v>
       </c>
       <c r="D238">
         <v>70</v>
@@ -29339,7 +29344,7 @@
         <v>41</v>
       </c>
       <c r="AC238" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AD238" t="s">
         <v>42</v>
@@ -29348,7 +29353,7 @@
         <v>1248</v>
       </c>
       <c r="AF238" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AG238">
         <v>0</v>
@@ -29365,10 +29370,10 @@
         <v>4236</v>
       </c>
       <c r="B239" t="s">
+        <v>836</v>
+      </c>
+      <c r="C239" t="s">
         <v>837</v>
-      </c>
-      <c r="C239" t="s">
-        <v>838</v>
       </c>
       <c r="D239">
         <v>72</v>
@@ -29446,7 +29451,7 @@
         <v>41</v>
       </c>
       <c r="AC239" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AD239" t="s">
         <v>99</v>
@@ -29455,7 +29460,7 @@
         <v>522</v>
       </c>
       <c r="AF239" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AG239">
         <v>0</v>
@@ -29472,10 +29477,10 @@
         <v>4237</v>
       </c>
       <c r="B240" t="s">
+        <v>839</v>
+      </c>
+      <c r="C240" t="s">
         <v>840</v>
-      </c>
-      <c r="C240" t="s">
-        <v>841</v>
       </c>
       <c r="D240">
         <v>68</v>
@@ -29553,7 +29558,7 @@
         <v>41</v>
       </c>
       <c r="AC240" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AD240" t="s">
         <v>99</v>
@@ -29562,7 +29567,7 @@
         <v>1200</v>
       </c>
       <c r="AF240" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AG240">
         <v>0</v>
@@ -29579,10 +29584,10 @@
         <v>4238</v>
       </c>
       <c r="B241" t="s">
+        <v>842</v>
+      </c>
+      <c r="C241" t="s">
         <v>843</v>
-      </c>
-      <c r="C241" t="s">
-        <v>844</v>
       </c>
       <c r="D241">
         <v>71</v>
@@ -29660,7 +29665,7 @@
         <v>41</v>
       </c>
       <c r="AC241" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AD241" t="s">
         <v>99</v>
@@ -29669,7 +29674,7 @@
         <v>540</v>
       </c>
       <c r="AF241" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AG241">
         <v>0</v>
@@ -29686,10 +29691,10 @@
         <v>4239</v>
       </c>
       <c r="B242" t="s">
+        <v>846</v>
+      </c>
+      <c r="C242" t="s">
         <v>847</v>
-      </c>
-      <c r="C242" t="s">
-        <v>848</v>
       </c>
       <c r="D242">
         <v>84</v>
@@ -29767,7 +29772,7 @@
         <v>119</v>
       </c>
       <c r="AC242" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AD242" t="s">
         <v>99</v>
@@ -29776,7 +29781,7 @@
         <v>624</v>
       </c>
       <c r="AF242" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AG242">
         <v>0</v>
@@ -29793,10 +29798,10 @@
         <v>4240</v>
       </c>
       <c r="B243" t="s">
+        <v>850</v>
+      </c>
+      <c r="C243" t="s">
         <v>851</v>
-      </c>
-      <c r="C243" t="s">
-        <v>852</v>
       </c>
       <c r="D243">
         <v>58</v>
@@ -29883,7 +29888,7 @@
         <v>432</v>
       </c>
       <c r="AF243" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AG243">
         <v>0</v>
@@ -29900,10 +29905,10 @@
         <v>4241</v>
       </c>
       <c r="B244" t="s">
+        <v>853</v>
+      </c>
+      <c r="C244" t="s">
         <v>854</v>
-      </c>
-      <c r="C244" t="s">
-        <v>855</v>
       </c>
       <c r="D244">
         <v>34</v>
@@ -29990,7 +29995,7 @@
         <v>240</v>
       </c>
       <c r="AF244" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AG244">
         <v>0</v>
@@ -30007,10 +30012,10 @@
         <v>4242</v>
       </c>
       <c r="B245" t="s">
+        <v>856</v>
+      </c>
+      <c r="C245" t="s">
         <v>857</v>
-      </c>
-      <c r="C245" t="s">
-        <v>858</v>
       </c>
       <c r="D245">
         <v>66</v>
@@ -30097,7 +30102,7 @@
         <v>336</v>
       </c>
       <c r="AF245" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG245">
         <v>0</v>
@@ -30114,10 +30119,10 @@
         <v>4243</v>
       </c>
       <c r="B246" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C246" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D246">
         <v>65</v>
@@ -30204,7 +30209,7 @@
         <v>336</v>
       </c>
       <c r="AF246" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AG246">
         <v>0</v>
@@ -30221,10 +30226,10 @@
         <v>4244</v>
       </c>
       <c r="B247" t="s">
+        <v>861</v>
+      </c>
+      <c r="C247" t="s">
         <v>862</v>
-      </c>
-      <c r="C247" t="s">
-        <v>863</v>
       </c>
       <c r="D247">
         <v>56</v>
@@ -30302,7 +30307,7 @@
         <v>41</v>
       </c>
       <c r="AC247" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AD247" t="s">
         <v>115</v>
@@ -30311,7 +30316,7 @@
         <v>480</v>
       </c>
       <c r="AF247" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG247">
         <v>0</v>
@@ -30328,10 +30333,10 @@
         <v>4245</v>
       </c>
       <c r="B248" t="s">
+        <v>864</v>
+      </c>
+      <c r="C248" t="s">
         <v>865</v>
-      </c>
-      <c r="C248" t="s">
-        <v>866</v>
       </c>
       <c r="D248">
         <v>37</v>
@@ -30418,7 +30423,7 @@
         <v>432</v>
       </c>
       <c r="AF248" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AG248">
         <v>0</v>
@@ -30435,10 +30440,10 @@
         <v>4246</v>
       </c>
       <c r="B249" t="s">
+        <v>867</v>
+      </c>
+      <c r="C249" t="s">
         <v>868</v>
-      </c>
-      <c r="C249" t="s">
-        <v>869</v>
       </c>
       <c r="D249">
         <v>60</v>
@@ -30498,7 +30503,7 @@
         <v>229</v>
       </c>
       <c r="W249" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="X249">
         <v>1072</v>
@@ -30525,7 +30530,7 @@
         <v>312</v>
       </c>
       <c r="AF249" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AG249">
         <v>0</v>
@@ -30542,10 +30547,10 @@
         <v>4247</v>
       </c>
       <c r="B250" t="s">
+        <v>871</v>
+      </c>
+      <c r="C250" t="s">
         <v>872</v>
-      </c>
-      <c r="C250" t="s">
-        <v>873</v>
       </c>
       <c r="D250">
         <v>67</v>
@@ -30632,7 +30637,7 @@
         <v>720</v>
       </c>
       <c r="AF250" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AG250">
         <v>0</v>
@@ -30649,10 +30654,10 @@
         <v>4248</v>
       </c>
       <c r="B251" t="s">
+        <v>874</v>
+      </c>
+      <c r="C251" t="s">
         <v>875</v>
-      </c>
-      <c r="C251" t="s">
-        <v>876</v>
       </c>
       <c r="D251">
         <v>69</v>
@@ -30739,7 +30744,7 @@
         <v>720</v>
       </c>
       <c r="AF251" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AG251">
         <v>0</v>
@@ -30756,10 +30761,10 @@
         <v>4249</v>
       </c>
       <c r="B252" t="s">
+        <v>877</v>
+      </c>
+      <c r="C252" t="s">
         <v>878</v>
-      </c>
-      <c r="C252" t="s">
-        <v>879</v>
       </c>
       <c r="D252">
         <v>56</v>
@@ -30819,7 +30824,7 @@
         <v>219</v>
       </c>
       <c r="W252" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="X252">
         <v>1260</v>
@@ -30846,7 +30851,7 @@
         <v>672</v>
       </c>
       <c r="AF252" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AG252">
         <v>0</v>
@@ -30863,10 +30868,10 @@
         <v>4250</v>
       </c>
       <c r="B253" t="s">
+        <v>881</v>
+      </c>
+      <c r="C253" t="s">
         <v>882</v>
-      </c>
-      <c r="C253" t="s">
-        <v>883</v>
       </c>
       <c r="D253">
         <v>52</v>
@@ -30953,7 +30958,7 @@
         <v>540</v>
       </c>
       <c r="AF253" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AG253">
         <v>0</v>
@@ -30970,10 +30975,10 @@
         <v>4251</v>
       </c>
       <c r="B254" t="s">
+        <v>884</v>
+      </c>
+      <c r="C254" t="s">
         <v>885</v>
-      </c>
-      <c r="C254" t="s">
-        <v>886</v>
       </c>
       <c r="D254">
         <v>70</v>
@@ -31033,7 +31038,7 @@
         <v>219</v>
       </c>
       <c r="W254" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="X254">
         <v>972</v>
@@ -31060,7 +31065,7 @@
         <v>384</v>
       </c>
       <c r="AF254" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AG254">
         <v>0</v>
@@ -31077,10 +31082,10 @@
         <v>4252</v>
       </c>
       <c r="B255" t="s">
+        <v>887</v>
+      </c>
+      <c r="C255" t="s">
         <v>888</v>
-      </c>
-      <c r="C255" t="s">
-        <v>889</v>
       </c>
       <c r="D255">
         <v>72</v>
@@ -31140,7 +31145,7 @@
         <v>140</v>
       </c>
       <c r="W255" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="X255">
         <v>504</v>
@@ -31167,7 +31172,7 @@
         <v>420</v>
       </c>
       <c r="AF255" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AG255">
         <v>0</v>
@@ -31184,10 +31189,10 @@
         <v>4253</v>
       </c>
       <c r="B256" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C256" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D256">
         <v>80</v>
@@ -31274,7 +31279,7 @@
         <v>420</v>
       </c>
       <c r="AF256" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AG256">
         <v>0</v>
@@ -31291,10 +31296,10 @@
         <v>4254</v>
       </c>
       <c r="B257" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C257" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D257">
         <v>78</v>
@@ -31381,7 +31386,7 @@
         <v>420</v>
       </c>
       <c r="AF257" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AG257">
         <v>0</v>
@@ -31398,10 +31403,10 @@
         <v>4255</v>
       </c>
       <c r="B258" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C258" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D258">
         <v>75</v>
@@ -31488,7 +31493,7 @@
         <v>420</v>
       </c>
       <c r="AF258" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AG258">
         <v>0</v>
@@ -31505,10 +31510,10 @@
         <v>4256</v>
       </c>
       <c r="B259" t="s">
+        <v>896</v>
+      </c>
+      <c r="C259" t="s">
         <v>897</v>
-      </c>
-      <c r="C259" t="s">
-        <v>898</v>
       </c>
       <c r="D259">
         <v>25</v>
@@ -31595,7 +31600,7 @@
         <v>108</v>
       </c>
       <c r="AF259" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AG259">
         <v>0</v>
@@ -31612,10 +31617,10 @@
         <v>4257</v>
       </c>
       <c r="B260" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C260" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D260">
         <v>28</v>
@@ -31675,7 +31680,7 @@
         <v>160</v>
       </c>
       <c r="W260" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="X260">
         <v>1248</v>
@@ -31702,7 +31707,7 @@
         <v>336</v>
       </c>
       <c r="AF260" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AG260">
         <v>0</v>
@@ -31719,10 +31724,10 @@
         <v>4258</v>
       </c>
       <c r="B261" t="s">
+        <v>902</v>
+      </c>
+      <c r="C261" t="s">
         <v>903</v>
-      </c>
-      <c r="C261" t="s">
-        <v>904</v>
       </c>
       <c r="D261">
         <v>35</v>
@@ -31809,7 +31814,7 @@
         <v>1224</v>
       </c>
       <c r="AF261" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AG261">
         <v>0</v>
@@ -31826,10 +31831,10 @@
         <v>4259</v>
       </c>
       <c r="B262" t="s">
+        <v>905</v>
+      </c>
+      <c r="C262" t="s">
         <v>906</v>
-      </c>
-      <c r="C262" t="s">
-        <v>907</v>
       </c>
       <c r="D262">
         <v>42</v>
@@ -31916,7 +31921,7 @@
         <v>336</v>
       </c>
       <c r="AF262" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AG262">
         <v>0</v>
@@ -31933,10 +31938,10 @@
         <v>4260</v>
       </c>
       <c r="B263" t="s">
+        <v>908</v>
+      </c>
+      <c r="C263" t="s">
         <v>909</v>
-      </c>
-      <c r="C263" t="s">
-        <v>910</v>
       </c>
       <c r="D263">
         <v>25</v>
@@ -32023,7 +32028,7 @@
         <v>384</v>
       </c>
       <c r="AF263" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AG263">
         <v>0</v>
@@ -32040,10 +32045,10 @@
         <v>4261</v>
       </c>
       <c r="B264" t="s">
+        <v>911</v>
+      </c>
+      <c r="C264" t="s">
         <v>912</v>
-      </c>
-      <c r="C264" t="s">
-        <v>913</v>
       </c>
       <c r="D264">
         <v>73</v>
@@ -32121,7 +32126,7 @@
         <v>119</v>
       </c>
       <c r="AC264" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AD264" t="s">
         <v>99</v>
@@ -32130,7 +32135,7 @@
         <v>312</v>
       </c>
       <c r="AF264" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AG264">
         <v>0</v>
@@ -32147,10 +32152,10 @@
         <v>4262</v>
       </c>
       <c r="B265" t="s">
+        <v>914</v>
+      </c>
+      <c r="C265" t="s">
         <v>915</v>
-      </c>
-      <c r="C265" t="s">
-        <v>916</v>
       </c>
       <c r="D265">
         <v>61</v>
@@ -32237,7 +32242,7 @@
         <v>288</v>
       </c>
       <c r="AF265" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AG265">
         <v>0</v>
@@ -32254,10 +32259,10 @@
         <v>4263</v>
       </c>
       <c r="B266" t="s">
+        <v>917</v>
+      </c>
+      <c r="C266" t="s">
         <v>918</v>
-      </c>
-      <c r="C266" t="s">
-        <v>919</v>
       </c>
       <c r="D266">
         <v>77</v>
@@ -32344,7 +32349,7 @@
         <v>252</v>
       </c>
       <c r="AF266" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AG266">
         <v>0</v>
@@ -32361,10 +32366,10 @@
         <v>4264</v>
       </c>
       <c r="B267" t="s">
+        <v>920</v>
+      </c>
+      <c r="C267" t="s">
         <v>921</v>
-      </c>
-      <c r="C267" t="s">
-        <v>922</v>
       </c>
       <c r="D267">
         <v>38</v>
@@ -32451,7 +32456,7 @@
         <v>432</v>
       </c>
       <c r="AF267" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AG267">
         <v>0</v>
@@ -32468,10 +32473,10 @@
         <v>4265</v>
       </c>
       <c r="B268" t="s">
+        <v>923</v>
+      </c>
+      <c r="C268" t="s">
         <v>924</v>
-      </c>
-      <c r="C268" t="s">
-        <v>925</v>
       </c>
       <c r="D268">
         <v>74</v>
@@ -32549,7 +32554,7 @@
         <v>41</v>
       </c>
       <c r="AC268" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AD268" t="s">
         <v>99</v>
@@ -32558,7 +32563,7 @@
         <v>720</v>
       </c>
       <c r="AF268" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AG268">
         <v>0</v>
@@ -32575,10 +32580,10 @@
         <v>4266</v>
       </c>
       <c r="B269" t="s">
+        <v>927</v>
+      </c>
+      <c r="C269" t="s">
         <v>928</v>
-      </c>
-      <c r="C269" t="s">
-        <v>929</v>
       </c>
       <c r="D269">
         <v>15</v>
@@ -32665,7 +32670,7 @@
         <v>468</v>
       </c>
       <c r="AF269" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AG269">
         <v>0</v>
@@ -32682,10 +32687,10 @@
         <v>4267</v>
       </c>
       <c r="B270" t="s">
+        <v>930</v>
+      </c>
+      <c r="C270" t="s">
         <v>931</v>
-      </c>
-      <c r="C270" t="s">
-        <v>932</v>
       </c>
       <c r="D270">
         <v>42</v>
@@ -32772,7 +32777,7 @@
         <v>540</v>
       </c>
       <c r="AF270" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AG270">
         <v>0</v>
@@ -32789,10 +32794,10 @@
         <v>4268</v>
       </c>
       <c r="B271" t="s">
+        <v>933</v>
+      </c>
+      <c r="C271" t="s">
         <v>934</v>
-      </c>
-      <c r="C271" t="s">
-        <v>935</v>
       </c>
       <c r="D271">
         <v>18</v>
@@ -32879,7 +32884,7 @@
         <v>336</v>
       </c>
       <c r="AF271" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AG271">
         <v>0</v>
@@ -32896,10 +32901,10 @@
         <v>4269</v>
       </c>
       <c r="B272" t="s">
+        <v>936</v>
+      </c>
+      <c r="C272" t="s">
         <v>937</v>
-      </c>
-      <c r="C272" t="s">
-        <v>938</v>
       </c>
       <c r="D272">
         <v>20</v>
@@ -32986,7 +32991,7 @@
         <v>288</v>
       </c>
       <c r="AF272" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AG272">
         <v>0</v>
@@ -33003,10 +33008,10 @@
         <v>4270</v>
       </c>
       <c r="B273" t="s">
+        <v>939</v>
+      </c>
+      <c r="C273" t="s">
         <v>940</v>
-      </c>
-      <c r="C273" t="s">
-        <v>941</v>
       </c>
       <c r="D273">
         <v>21</v>
@@ -33093,7 +33098,7 @@
         <v>252</v>
       </c>
       <c r="AF273" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AG273">
         <v>0</v>
@@ -33110,10 +33115,10 @@
         <v>4271</v>
       </c>
       <c r="B274" t="s">
+        <v>942</v>
+      </c>
+      <c r="C274" t="s">
         <v>943</v>
-      </c>
-      <c r="C274" t="s">
-        <v>944</v>
       </c>
       <c r="D274">
         <v>61</v>
@@ -33173,7 +33178,7 @@
         <v>160</v>
       </c>
       <c r="W274" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="X274">
         <v>1100</v>
@@ -33200,7 +33205,7 @@
         <v>576</v>
       </c>
       <c r="AF274" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AG274">
         <v>0</v>
@@ -33217,10 +33222,10 @@
         <v>4272</v>
       </c>
       <c r="B275" t="s">
+        <v>946</v>
+      </c>
+      <c r="C275" t="s">
         <v>947</v>
-      </c>
-      <c r="C275" t="s">
-        <v>948</v>
       </c>
       <c r="D275">
         <v>63</v>
@@ -33307,7 +33312,7 @@
         <v>576</v>
       </c>
       <c r="AF275" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AG275">
         <v>0</v>
@@ -33324,10 +33329,10 @@
         <v>4273</v>
       </c>
       <c r="B276" t="s">
+        <v>949</v>
+      </c>
+      <c r="C276" t="s">
         <v>950</v>
-      </c>
-      <c r="C276" t="s">
-        <v>951</v>
       </c>
       <c r="D276">
         <v>61</v>
@@ -33414,7 +33419,7 @@
         <v>480</v>
       </c>
       <c r="AF276" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AG276">
         <v>0</v>
@@ -33431,10 +33436,10 @@
         <v>4274</v>
       </c>
       <c r="B277" t="s">
+        <v>952</v>
+      </c>
+      <c r="C277" t="s">
         <v>953</v>
-      </c>
-      <c r="C277" t="s">
-        <v>954</v>
       </c>
       <c r="D277">
         <v>65</v>
@@ -33521,7 +33526,7 @@
         <v>900</v>
       </c>
       <c r="AF277" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AG277">
         <v>0</v>
@@ -33538,10 +33543,10 @@
         <v>4275</v>
       </c>
       <c r="B278" t="s">
+        <v>955</v>
+      </c>
+      <c r="C278" t="s">
         <v>956</v>
-      </c>
-      <c r="C278" t="s">
-        <v>957</v>
       </c>
       <c r="D278">
         <v>59</v>
@@ -33628,7 +33633,7 @@
         <v>432</v>
       </c>
       <c r="AF278" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AG278">
         <v>0</v>
@@ -33645,10 +33650,10 @@
         <v>4276</v>
       </c>
       <c r="B279" t="s">
+        <v>958</v>
+      </c>
+      <c r="C279" t="s">
         <v>959</v>
-      </c>
-      <c r="C279" t="s">
-        <v>960</v>
       </c>
       <c r="D279">
         <v>72</v>
@@ -33735,7 +33740,7 @@
         <v>288</v>
       </c>
       <c r="AF279" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AG279">
         <v>0</v>
@@ -33752,10 +33757,10 @@
         <v>4277</v>
       </c>
       <c r="B280" t="s">
+        <v>961</v>
+      </c>
+      <c r="C280" t="s">
         <v>962</v>
-      </c>
-      <c r="C280" t="s">
-        <v>963</v>
       </c>
       <c r="D280">
         <v>79</v>
@@ -33815,7 +33820,7 @@
         <v>219</v>
       </c>
       <c r="W280" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="X280">
         <v>1720</v>
@@ -33833,7 +33838,7 @@
         <v>41</v>
       </c>
       <c r="AC280" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AD280" t="s">
         <v>99</v>
@@ -33842,7 +33847,7 @@
         <v>1080</v>
       </c>
       <c r="AF280" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AG280">
         <v>0</v>
@@ -33859,10 +33864,10 @@
         <v>4278</v>
       </c>
       <c r="B281" t="s">
+        <v>965</v>
+      </c>
+      <c r="C281" t="s">
         <v>966</v>
-      </c>
-      <c r="C281" t="s">
-        <v>967</v>
       </c>
       <c r="D281">
         <v>40</v>
@@ -33949,7 +33954,7 @@
         <v>384</v>
       </c>
       <c r="AF281" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AG281">
         <v>0</v>
@@ -33966,10 +33971,10 @@
         <v>4279</v>
       </c>
       <c r="B282" t="s">
+        <v>968</v>
+      </c>
+      <c r="C282" t="s">
         <v>969</v>
-      </c>
-      <c r="C282" t="s">
-        <v>970</v>
       </c>
       <c r="D282">
         <v>32</v>
@@ -34056,7 +34061,7 @@
         <v>540</v>
       </c>
       <c r="AF282" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AG282">
         <v>0</v>
@@ -34073,10 +34078,10 @@
         <v>4280</v>
       </c>
       <c r="B283" t="s">
+        <v>971</v>
+      </c>
+      <c r="C283" t="s">
         <v>972</v>
-      </c>
-      <c r="C283" t="s">
-        <v>973</v>
       </c>
       <c r="D283">
         <v>60</v>
@@ -34163,7 +34168,7 @@
         <v>720</v>
       </c>
       <c r="AF283" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AG283">
         <v>0</v>
@@ -34180,10 +34185,10 @@
         <v>4281</v>
       </c>
       <c r="B284" t="s">
+        <v>974</v>
+      </c>
+      <c r="C284" t="s">
         <v>975</v>
-      </c>
-      <c r="C284" t="s">
-        <v>976</v>
       </c>
       <c r="D284">
         <v>34</v>
@@ -34270,7 +34275,7 @@
         <v>696</v>
       </c>
       <c r="AF284" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AG284">
         <v>0</v>
@@ -34287,10 +34292,10 @@
         <v>4282</v>
       </c>
       <c r="B285" t="s">
+        <v>977</v>
+      </c>
+      <c r="C285" t="s">
         <v>978</v>
-      </c>
-      <c r="C285" t="s">
-        <v>979</v>
       </c>
       <c r="D285">
         <v>45</v>
@@ -34368,7 +34373,7 @@
         <v>41</v>
       </c>
       <c r="AC285" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AD285" t="s">
         <v>115</v>
@@ -34377,7 +34382,7 @@
         <v>936</v>
       </c>
       <c r="AF285" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AG285">
         <v>0</v>
@@ -34394,10 +34399,10 @@
         <v>4283</v>
       </c>
       <c r="B286" t="s">
+        <v>980</v>
+      </c>
+      <c r="C286" t="s">
         <v>981</v>
-      </c>
-      <c r="C286" t="s">
-        <v>982</v>
       </c>
       <c r="D286">
         <v>70</v>
@@ -34475,7 +34480,7 @@
         <v>119</v>
       </c>
       <c r="AC286" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AD286" t="s">
         <v>99</v>
@@ -34484,7 +34489,7 @@
         <v>384</v>
       </c>
       <c r="AF286" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AG286">
         <v>0</v>
@@ -34501,10 +34506,10 @@
         <v>4284</v>
       </c>
       <c r="B287" t="s">
+        <v>984</v>
+      </c>
+      <c r="C287" t="s">
         <v>985</v>
-      </c>
-      <c r="C287" t="s">
-        <v>986</v>
       </c>
       <c r="D287">
         <v>50</v>
@@ -34591,7 +34596,7 @@
         <v>0</v>
       </c>
       <c r="AF287" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AG287">
         <v>0</v>
@@ -34603,7 +34608,7 @@
         <v>1</v>
       </c>
       <c r="AJ287" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="288" spans="1:36" x14ac:dyDescent="0.4">
@@ -34611,10 +34616,10 @@
         <v>4285</v>
       </c>
       <c r="B288" t="s">
+        <v>988</v>
+      </c>
+      <c r="C288" t="s">
         <v>989</v>
-      </c>
-      <c r="C288" t="s">
-        <v>990</v>
       </c>
       <c r="D288">
         <v>50</v>
@@ -34695,13 +34700,13 @@
         <v>41</v>
       </c>
       <c r="AD288" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AE288">
         <v>216</v>
       </c>
       <c r="AF288" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AG288">
         <v>0</v>
@@ -34713,7 +34718,7 @@
         <v>1</v>
       </c>
       <c r="AJ288" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="289" spans="1:36" x14ac:dyDescent="0.4">
@@ -34721,10 +34726,10 @@
         <v>4286</v>
       </c>
       <c r="B289" t="s">
+        <v>992</v>
+      </c>
+      <c r="C289" t="s">
         <v>993</v>
-      </c>
-      <c r="C289" t="s">
-        <v>994</v>
       </c>
       <c r="D289">
         <v>99</v>
@@ -34802,7 +34807,7 @@
         <v>119</v>
       </c>
       <c r="AC289" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AD289" t="s">
         <v>99</v>
@@ -34811,7 +34816,7 @@
         <v>504</v>
       </c>
       <c r="AF289" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AG289">
         <v>0</v>
@@ -34828,10 +34833,10 @@
         <v>4287</v>
       </c>
       <c r="B290" t="s">
+        <v>996</v>
+      </c>
+      <c r="C290" t="s">
         <v>997</v>
-      </c>
-      <c r="C290" t="s">
-        <v>998</v>
       </c>
       <c r="D290">
         <v>99</v>
@@ -34909,7 +34914,7 @@
         <v>119</v>
       </c>
       <c r="AC290" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AD290" t="s">
         <v>99</v>
@@ -34918,7 +34923,7 @@
         <v>504</v>
       </c>
       <c r="AF290" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AG290">
         <v>0</v>
@@ -34935,10 +34940,10 @@
         <v>4288</v>
       </c>
       <c r="B291" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C291" t="s">
         <v>1001</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1002</v>
       </c>
       <c r="D291">
         <v>43</v>
@@ -35019,13 +35024,13 @@
         <v>48</v>
       </c>
       <c r="AD291" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AE291">
         <v>384</v>
       </c>
       <c r="AF291" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AG291">
         <v>0</v>
@@ -35042,10 +35047,10 @@
         <v>4289</v>
       </c>
       <c r="B292" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C292" t="s">
         <v>1004</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1005</v>
       </c>
       <c r="D292">
         <v>69</v>
@@ -35132,7 +35137,7 @@
         <v>480</v>
       </c>
       <c r="AF292" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AG292">
         <v>0</v>
@@ -35149,10 +35154,10 @@
         <v>4290</v>
       </c>
       <c r="B293" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C293" t="s">
         <v>1007</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1008</v>
       </c>
       <c r="D293">
         <v>41</v>
@@ -35239,7 +35244,7 @@
         <v>576</v>
       </c>
       <c r="AF293" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AG293">
         <v>0</v>
@@ -35256,10 +35261,10 @@
         <v>4291</v>
       </c>
       <c r="B294" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C294" t="s">
         <v>1010</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1011</v>
       </c>
       <c r="D294">
         <v>30</v>
@@ -35346,7 +35351,7 @@
         <v>432</v>
       </c>
       <c r="AF294" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AG294">
         <v>0</v>
@@ -35363,10 +35368,10 @@
         <v>4292</v>
       </c>
       <c r="B295" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C295" t="s">
         <v>1013</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1014</v>
       </c>
       <c r="D295">
         <v>65</v>
@@ -35453,7 +35458,7 @@
         <v>624</v>
       </c>
       <c r="AF295" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AG295">
         <v>0</v>
@@ -35470,10 +35475,10 @@
         <v>4293</v>
       </c>
       <c r="B296" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C296" t="s">
         <v>1016</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1017</v>
       </c>
       <c r="D296">
         <v>47</v>
@@ -35560,7 +35565,7 @@
         <v>480</v>
       </c>
       <c r="AF296" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AG296">
         <v>0</v>
@@ -35577,10 +35582,10 @@
         <v>4294</v>
       </c>
       <c r="B297" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C297" t="s">
         <v>1019</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1020</v>
       </c>
       <c r="D297">
         <v>71</v>
@@ -35667,7 +35672,7 @@
         <v>425</v>
       </c>
       <c r="AF297" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AG297">
         <v>0</v>
@@ -35684,10 +35689,10 @@
         <v>4295</v>
       </c>
       <c r="B298" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C298" t="s">
         <v>1022</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1023</v>
       </c>
       <c r="D298">
         <v>33</v>
@@ -35774,7 +35779,7 @@
         <v>672</v>
       </c>
       <c r="AF298" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AG298">
         <v>0</v>
@@ -35791,10 +35796,10 @@
         <v>4296</v>
       </c>
       <c r="B299" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C299" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D299">
         <v>56</v>
@@ -35881,7 +35886,7 @@
         <v>540</v>
       </c>
       <c r="AF299" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AG299">
         <v>0</v>
@@ -35898,10 +35903,10 @@
         <v>4297</v>
       </c>
       <c r="B300" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C300" t="s">
         <v>1027</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1028</v>
       </c>
       <c r="D300">
         <v>46</v>
@@ -35988,7 +35993,7 @@
         <v>624</v>
       </c>
       <c r="AF300" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AG300">
         <v>0</v>
@@ -36005,7 +36010,7 @@
         <v>4298</v>
       </c>
       <c r="B301" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C301" t="s">
         <v>565</v>
@@ -36107,7 +36112,7 @@
         <v>1</v>
       </c>
       <c r="AJ301" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="302" spans="1:36" x14ac:dyDescent="0.4">
@@ -36115,7 +36120,7 @@
         <v>4299</v>
       </c>
       <c r="B302" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C302" t="s">
         <v>77</v>
@@ -36196,7 +36201,7 @@
         <v>41</v>
       </c>
       <c r="AC302" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AD302" t="s">
         <v>59</v>
@@ -36222,10 +36227,10 @@
         <v>4300</v>
       </c>
       <c r="B303" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C303" t="s">
         <v>1113</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1114</v>
       </c>
       <c r="D303">
         <v>31</v>
@@ -36303,7 +36308,7 @@
         <v>41</v>
       </c>
       <c r="AC303" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AD303" t="s">
         <v>99</v>
@@ -36324,7 +36329,7 @@
         <v>0.7</v>
       </c>
       <c r="AJ303" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -36358,30 +36363,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
       <c r="C1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1" t="s">
         <v>1085</v>
       </c>
-      <c r="D1" t="s">
-        <v>1086</v>
-      </c>
       <c r="E1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F1" t="s">
         <v>1045</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -36392,10 +36397,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -36404,18 +36409,18 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F3" t="s">
         <v>1087</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -36424,18 +36429,18 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F4" t="s">
         <v>1089</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -36446,10 +36451,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -36458,10 +36463,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F6" t="s">
         <v>1091</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1092</v>
       </c>
     </row>
   </sheetData>
@@ -36485,7 +36490,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -37711,7 +37716,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -37720,13 +37725,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>14</v>
@@ -38432,11 +38437,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -38476,21 +38481,21 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N1" t="s">
         <v>1031</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -38710,7 +38715,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -38798,13 +38803,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>1118</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -38813,28 +38818,28 @@
         <v>80</v>
       </c>
       <c r="F9">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
         <v>80</v>
       </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>110</v>
+      </c>
+      <c r="M9">
         <v>120</v>
-      </c>
-      <c r="K9">
-        <v>120</v>
-      </c>
-      <c r="L9">
-        <v>90</v>
-      </c>
-      <c r="M9">
-        <v>90</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -38842,43 +38847,43 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
         <v>80</v>
       </c>
-      <c r="C10">
-        <v>105</v>
-      </c>
-      <c r="D10">
+      <c r="F10">
+        <v>112</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
         <v>80</v>
       </c>
-      <c r="E10">
-        <v>130</v>
-      </c>
-      <c r="F10">
-        <v>85</v>
-      </c>
-      <c r="G10">
-        <v>85</v>
-      </c>
-      <c r="H10">
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
         <v>120</v>
       </c>
-      <c r="I10">
-        <v>72</v>
-      </c>
-      <c r="J10">
-        <v>110</v>
-      </c>
       <c r="K10">
+        <v>120</v>
+      </c>
+      <c r="L10">
         <v>90</v>
       </c>
-      <c r="L10">
-        <v>94</v>
-      </c>
       <c r="M10">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -38886,43 +38891,43 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C11">
+        <v>105</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>130</v>
+      </c>
+      <c r="F11">
+        <v>85</v>
+      </c>
+      <c r="G11">
+        <v>85</v>
+      </c>
+      <c r="H11">
+        <v>120</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
+      <c r="J11">
         <v>110</v>
       </c>
-      <c r="D11">
-        <v>110</v>
-      </c>
-      <c r="E11">
-        <v>98</v>
-      </c>
-      <c r="F11">
+      <c r="K11">
         <v>90</v>
       </c>
-      <c r="G11">
-        <v>120</v>
-      </c>
-      <c r="H11">
-        <v>102</v>
-      </c>
-      <c r="I11">
-        <v>95</v>
-      </c>
-      <c r="J11">
-        <v>95</v>
-      </c>
-      <c r="K11">
-        <v>95</v>
-      </c>
       <c r="L11">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -38930,43 +38935,43 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>547</v>
+        <v>219</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D12">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E12">
+        <v>98</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
         <v>120</v>
       </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>150</v>
-      </c>
       <c r="H12">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I12">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J12">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K12">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -38974,43 +38979,43 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="B13">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F13">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J13">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -39018,43 +39023,43 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>469</v>
       </c>
       <c r="B14">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C14">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="E14">
         <v>90</v>
       </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
       <c r="F14">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G14">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H14">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K14">
         <v>110</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -39062,43 +39067,43 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15">
         <v>130</v>
       </c>
-      <c r="C15">
+      <c r="H15">
         <v>110</v>
       </c>
-      <c r="D15">
+      <c r="I15">
         <v>130</v>
       </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>120</v>
-      </c>
-      <c r="G15">
-        <v>70</v>
-      </c>
-      <c r="H15">
+      <c r="J15">
         <v>90</v>
       </c>
-      <c r="I15">
-        <v>80</v>
-      </c>
-      <c r="J15">
-        <v>80</v>
-      </c>
       <c r="K15">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L15">
+        <v>105</v>
+      </c>
+      <c r="M15">
         <v>110</v>
-      </c>
-      <c r="M15">
-        <v>90</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -39106,43 +39111,43 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>275</v>
       </c>
       <c r="B16">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C16">
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>130</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
         <v>120</v>
       </c>
-      <c r="D16">
-        <v>120</v>
-      </c>
-      <c r="E16">
+      <c r="G16">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>80</v>
+      </c>
+      <c r="K16">
+        <v>80</v>
+      </c>
+      <c r="L16">
         <v>110</v>
       </c>
-      <c r="F16">
-        <v>110</v>
-      </c>
-      <c r="G16">
+      <c r="M16">
         <v>90</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16">
-        <v>100</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>115</v>
-      </c>
-      <c r="M16">
-        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -39150,43 +39155,43 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>832</v>
+        <v>379</v>
       </c>
       <c r="B17">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C17">
         <v>120</v>
       </c>
       <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
         <v>110</v>
       </c>
-      <c r="E17">
-        <v>70</v>
-      </c>
       <c r="F17">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G17">
         <v>90</v>
       </c>
       <c r="H17">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I17">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J17">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L17">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -39194,25 +39199,25 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>831</v>
       </c>
       <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>110</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18">
         <v>130</v>
       </c>
-      <c r="C18">
-        <v>110</v>
-      </c>
-      <c r="D18">
-        <v>120</v>
-      </c>
-      <c r="E18">
-        <v>60</v>
-      </c>
-      <c r="F18">
-        <v>150</v>
-      </c>
       <c r="G18">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H18">
         <v>90</v>
@@ -39224,13 +39229,13 @@
         <v>150</v>
       </c>
       <c r="K18">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L18">
+        <v>135</v>
+      </c>
+      <c r="M18">
         <v>125</v>
-      </c>
-      <c r="M18">
-        <v>135</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -39238,43 +39243,43 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="B19">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C19">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D19">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F19">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G19">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J19">
+        <v>150</v>
+      </c>
+      <c r="K19">
         <v>105</v>
       </c>
-      <c r="K19">
-        <v>95</v>
-      </c>
       <c r="L19">
+        <v>125</v>
+      </c>
+      <c r="M19">
         <v>135</v>
-      </c>
-      <c r="M19">
-        <v>125</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -39282,10 +39287,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>456</v>
+        <v>286</v>
       </c>
       <c r="B20">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="C20">
         <v>130</v>
@@ -39294,75 +39299,75 @@
         <v>110</v>
       </c>
       <c r="E20">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>110</v>
       </c>
       <c r="G20">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H20">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I20">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J20">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K20">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L20">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="M20">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>456</v>
       </c>
       <c r="B21">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C21">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L21">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M21">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -39370,75 +39375,75 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>756</v>
+        <v>181</v>
       </c>
       <c r="B22">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="C22">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D22">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E22">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G22">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I22">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J22">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K22">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L22">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M22">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>755</v>
       </c>
       <c r="B23">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C23">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D23">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E23">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G23">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H23">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I23">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J23">
         <v>130</v>
@@ -39447,56 +39452,100 @@
         <v>130</v>
       </c>
       <c r="L23">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M23">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24">
+        <v>1000</v>
+      </c>
+      <c r="C24">
+        <v>190</v>
+      </c>
+      <c r="D24">
+        <v>140</v>
+      </c>
+      <c r="E24">
+        <v>140</v>
+      </c>
+      <c r="F24">
+        <v>140</v>
+      </c>
+      <c r="G24">
+        <v>140</v>
+      </c>
+      <c r="H24">
+        <v>140</v>
+      </c>
+      <c r="I24">
+        <v>140</v>
+      </c>
+      <c r="J24">
+        <v>130</v>
+      </c>
+      <c r="K24">
+        <v>130</v>
+      </c>
+      <c r="L24">
+        <v>900</v>
+      </c>
+      <c r="M24">
+        <v>800</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>682</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>3000</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>200</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>180</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>180</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>180</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>180</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>180</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>180</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>140</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>140</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>1600</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>1600</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>5</v>
       </c>
     </row>
@@ -39510,8 +39559,8 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -39548,18 +39597,18 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -39600,7 +39649,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B3" s="2">
         <v>101</v>
@@ -40297,7 +40346,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B20" s="2">
         <v>97</v>
@@ -40461,7 +40510,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -40502,7 +40551,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -40737,7 +40786,7 @@
         <v>99</v>
       </c>
       <c r="K30" s="3">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="L30" s="3">
         <v>100</v>
@@ -40778,7 +40827,7 @@
         <v>98</v>
       </c>
       <c r="K31" s="3">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L31" s="3">
         <v>102</v>
@@ -40789,7 +40838,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B32" s="3">
         <v>115</v>
@@ -40819,7 +40868,7 @@
         <v>97</v>
       </c>
       <c r="K32" s="3">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="L32" s="3">
         <v>104</v>
@@ -40860,7 +40909,7 @@
         <v>96</v>
       </c>
       <c r="K33" s="3">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="L33" s="3">
         <v>106</v>
@@ -41076,7 +41125,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B39" s="3">
         <v>104</v>
@@ -41117,7 +41166,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B40" s="3">
         <v>106</v>
@@ -41248,13 +41297,13 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -41697,7 +41746,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -41706,13 +41755,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -41721,10 +41770,10 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L1" t="s">
         <v>1110</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -43063,7 +43112,7 @@
         <v>518.70046566496637</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D3:D34" si="8">(5+A29*2.5+10*B29)</f>
+        <f t="shared" ref="D29:D34" si="8">(5+A29*2.5+10*B29)</f>
         <v>101.96440450636899</v>
       </c>
       <c r="E29" s="1">
@@ -46599,21 +46648,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1" t="s">
         <v>1039</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1040</v>
       </c>
-      <c r="C1" t="s">
-        <v>1041</v>
-      </c>
       <c r="E1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B2">
         <v>0.05</v>
@@ -46748,7 +46797,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B11">
         <v>7.4999999999999997E-2</v>
@@ -46787,25 +46836,25 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O1" t="s">
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Q1" t="s">
         <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
@@ -53146,7 +53195,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.4">
       <c r="L106" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -53169,7 +53218,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="G1" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -53195,52 +53244,52 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>1058</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
@@ -53248,19 +53297,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>1060</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1061</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1062</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -53307,7 +53356,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C4">
         <v>1.6</v>
@@ -53316,10 +53365,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F4" t="s">
         <v>1064</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1065</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -53366,7 +53415,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C5">
         <v>1.1499999999999999</v>
@@ -53375,10 +53424,10 @@
         <v>1.5</v>
       </c>
       <c r="E5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F5" t="s">
         <v>1067</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1068</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -53425,7 +53474,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C6">
         <v>1.1000000000000001</v>
@@ -53434,10 +53483,10 @@
         <v>1.8</v>
       </c>
       <c r="E6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F6" t="s">
         <v>1070</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1071</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -53484,7 +53533,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C7">
         <v>1.2</v>
@@ -53493,10 +53542,10 @@
         <v>1.6</v>
       </c>
       <c r="E7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F7" t="s">
         <v>1073</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1074</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -53543,7 +53592,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C8">
         <v>1.3</v>
@@ -53552,10 +53601,10 @@
         <v>1.3</v>
       </c>
       <c r="E8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F8" t="s">
         <v>1076</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1077</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -53602,7 +53651,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C9">
         <v>1.4</v>
@@ -53611,10 +53660,10 @@
         <v>1.4</v>
       </c>
       <c r="E9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F9" t="s">
         <v>1079</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1080</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -53661,19 +53710,19 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>1081</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>1082</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1083</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -53742,7 +53791,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -53750,7 +53799,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -53758,7 +53807,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -53766,7 +53815,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -53774,7 +53823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -53782,7 +53831,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -53790,7 +53839,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -53798,7 +53847,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -53806,7 +53855,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -53814,7 +53863,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -53822,7 +53871,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -53830,7 +53879,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -53838,7 +53887,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -53846,7 +53895,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8645FF7-8102-4F90-8EEE-24DACEBBD760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0ED1C-D6E2-4EE7-9C49-D65CC594FFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4106" yWindow="3300" windowWidth="27085" windowHeight="14100" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1123">
   <si>
     <t>Id</t>
   </si>
@@ -3417,6 +3417,9 @@
   </si>
   <si>
     <t>Effect</t>
+  </si>
+  <si>
+    <t>AiPassiveSense</t>
   </si>
 </sst>
 </file>
@@ -3859,10 +3862,10 @@
   <dimension ref="A1:AJ304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Z84" sqref="Z84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5920,7 +5923,7 @@
         <v>41</v>
       </c>
       <c r="AD19" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE19">
         <v>252</v>
@@ -6562,7 +6565,7 @@
         <v>275</v>
       </c>
       <c r="AD25" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE25">
         <v>432</v>
@@ -8381,7 +8384,7 @@
         <v>41</v>
       </c>
       <c r="AD42" t="s">
-        <v>99</v>
+        <v>1122</v>
       </c>
       <c r="AE42">
         <v>324</v>
@@ -8488,7 +8491,7 @@
         <v>188</v>
       </c>
       <c r="AD43" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AE43">
         <v>1008</v>
@@ -8809,7 +8812,7 @@
         <v>275</v>
       </c>
       <c r="AD46" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE46">
         <v>192</v>
@@ -10093,7 +10096,7 @@
         <v>39</v>
       </c>
       <c r="AD58" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE58">
         <v>288</v>
@@ -10307,7 +10310,7 @@
         <v>547</v>
       </c>
       <c r="AD60" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE60">
         <v>480</v>
@@ -10414,7 +10417,7 @@
         <v>1107</v>
       </c>
       <c r="AD61" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE61">
         <v>840</v>
@@ -10521,7 +10524,7 @@
         <v>219</v>
       </c>
       <c r="AD62" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE62">
         <v>324</v>
@@ -12233,7 +12236,7 @@
         <v>48</v>
       </c>
       <c r="AD78" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE78">
         <v>576</v>
@@ -12340,7 +12343,7 @@
         <v>41</v>
       </c>
       <c r="AD79" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE79">
         <v>480</v>
@@ -12661,7 +12664,7 @@
         <v>327</v>
       </c>
       <c r="AD82" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE82">
         <v>576</v>
@@ -12982,7 +12985,7 @@
         <v>41</v>
       </c>
       <c r="AD85" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE85">
         <v>288</v>
@@ -14159,7 +14162,7 @@
         <v>41</v>
       </c>
       <c r="AD96" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE96">
         <v>216</v>
@@ -14266,7 +14269,7 @@
         <v>48</v>
       </c>
       <c r="AD97" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE97">
         <v>336</v>
@@ -14373,7 +14376,7 @@
         <v>48</v>
       </c>
       <c r="AD98" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE98">
         <v>720</v>
@@ -15229,7 +15232,7 @@
         <v>48</v>
       </c>
       <c r="AD106" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE106">
         <v>312</v>
@@ -15443,7 +15446,7 @@
         <v>48</v>
       </c>
       <c r="AD108" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE108">
         <v>252</v>
@@ -15550,7 +15553,7 @@
         <v>41</v>
       </c>
       <c r="AD109" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE109">
         <v>504</v>
@@ -19295,7 +19298,7 @@
         <v>469</v>
       </c>
       <c r="AD144" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE144">
         <v>336</v>
@@ -20151,7 +20154,7 @@
         <v>219</v>
       </c>
       <c r="AD152" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE152">
         <v>288</v>
@@ -21114,7 +21117,7 @@
         <v>181</v>
       </c>
       <c r="AD161" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE161">
         <v>384</v>
@@ -21756,7 +21759,7 @@
         <v>41</v>
       </c>
       <c r="AD167" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE167">
         <v>432</v>
@@ -24859,7 +24862,7 @@
         <v>41</v>
       </c>
       <c r="AD196" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE196">
         <v>420</v>
@@ -24966,7 +24969,7 @@
         <v>41</v>
       </c>
       <c r="AD197" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE197">
         <v>192</v>
@@ -25073,7 +25076,7 @@
         <v>41</v>
       </c>
       <c r="AD198" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE198">
         <v>468</v>
@@ -25394,7 +25397,7 @@
         <v>41</v>
       </c>
       <c r="AD201" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE201">
         <v>432</v>
@@ -25929,7 +25932,7 @@
         <v>192</v>
       </c>
       <c r="AD206" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE206">
         <v>288</v>
@@ -26036,7 +26039,7 @@
         <v>41</v>
       </c>
       <c r="AD207" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE207">
         <v>504</v>
@@ -26357,7 +26360,7 @@
         <v>286</v>
       </c>
       <c r="AD210" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE210">
         <v>2112</v>
@@ -29353,7 +29356,7 @@
         <v>831</v>
       </c>
       <c r="AD238" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE238">
         <v>720</v>
@@ -29460,7 +29463,7 @@
         <v>831</v>
       </c>
       <c r="AD239" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE239">
         <v>1248</v>
@@ -31707,7 +31710,7 @@
         <v>41</v>
       </c>
       <c r="AD260" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE260">
         <v>108</v>
@@ -31814,7 +31817,7 @@
         <v>41</v>
       </c>
       <c r="AD261" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE261">
         <v>336</v>
@@ -32563,7 +32566,7 @@
         <v>41</v>
       </c>
       <c r="AD268" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE268">
         <v>432</v>
@@ -32777,7 +32780,7 @@
         <v>41</v>
       </c>
       <c r="AD270" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE270">
         <v>468</v>
@@ -32884,7 +32887,7 @@
         <v>275</v>
       </c>
       <c r="AD271" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE271">
         <v>540</v>
@@ -32991,7 +32994,7 @@
         <v>41</v>
       </c>
       <c r="AD272" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE272">
         <v>336</v>
@@ -34275,7 +34278,7 @@
         <v>327</v>
       </c>
       <c r="AD284" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE284">
         <v>720</v>
@@ -35886,7 +35889,7 @@
         <v>41</v>
       </c>
       <c r="AD299" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="AE299">
         <v>672</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0ED1C-D6E2-4EE7-9C49-D65CC594FFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD0B7D-9022-4243-9A79-B5886DE31F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4106" yWindow="3300" windowWidth="27085" windowHeight="14100" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1124">
   <si>
     <t>Id</t>
   </si>
@@ -2051,9 +2051,6 @@
     <t>Anubis</t>
   </si>
   <si>
-    <t>Undead,Elite2</t>
-  </si>
-  <si>
     <t>anubis.spr</t>
   </si>
   <si>
@@ -2285,9 +2282,6 @@
     <t>Raydric Archer</t>
   </si>
   <si>
-    <t>Strong,Ranged</t>
-  </si>
-  <si>
     <t>raydric_archer.spr</t>
   </si>
   <si>
@@ -2480,9 +2474,6 @@
     <t>Wind Ghost</t>
   </si>
   <si>
-    <t>Strong,Demon</t>
-  </si>
-  <si>
     <t>wind_ghost.spr</t>
   </si>
   <si>
@@ -3410,7 +3401,7 @@
     <t>Magic</t>
   </si>
   <si>
-    <t>Elite,Magic,Undead</t>
+    <t>Strong,Magic,Undead</t>
   </si>
   <si>
     <t>EFFECT</t>
@@ -3420,6 +3411,18 @@
   </si>
   <si>
     <t>AiPassiveSense</t>
+  </si>
+  <si>
+    <t>Buff,Ranged</t>
+  </si>
+  <si>
+    <t>Demon,Ranged</t>
+  </si>
+  <si>
+    <t>Buff,Demon</t>
+  </si>
+  <si>
+    <t>Buff,Brute</t>
   </si>
 </sst>
 </file>
@@ -3862,10 +3865,10 @@
   <dimension ref="A1:AJ304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O68" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E151" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z84" sqref="Z84"/>
+      <selection pane="bottomRight" activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4020,10 +4023,10 @@
         <v>3999</v>
       </c>
       <c r="B2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5171,7 +5174,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AD12" t="s">
         <v>59</v>
@@ -5923,7 +5926,7 @@
         <v>41</v>
       </c>
       <c r="AD19" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE19">
         <v>252</v>
@@ -6565,7 +6568,7 @@
         <v>275</v>
       </c>
       <c r="AD25" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE25">
         <v>432</v>
@@ -8384,7 +8387,7 @@
         <v>41</v>
       </c>
       <c r="AD42" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE42">
         <v>324</v>
@@ -8812,7 +8815,7 @@
         <v>275</v>
       </c>
       <c r="AD46" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE46">
         <v>192</v>
@@ -9379,7 +9382,7 @@
         <v>33</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F52">
         <v>100</v>
@@ -9593,7 +9596,7 @@
         <v>35</v>
       </c>
       <c r="E54">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F54">
         <v>100</v>
@@ -9700,7 +9703,7 @@
         <v>46</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F55">
         <v>100</v>
@@ -9879,7 +9882,7 @@
         <v>41</v>
       </c>
       <c r="AC56" t="s">
-        <v>48</v>
+        <v>1094</v>
       </c>
       <c r="AD56" t="s">
         <v>99</v>
@@ -10096,7 +10099,7 @@
         <v>39</v>
       </c>
       <c r="AD58" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE58">
         <v>288</v>
@@ -10310,7 +10313,7 @@
         <v>547</v>
       </c>
       <c r="AD60" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE60">
         <v>480</v>
@@ -10414,10 +10417,10 @@
         <v>41</v>
       </c>
       <c r="AC61" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AD61" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE61">
         <v>840</v>
@@ -10524,7 +10527,7 @@
         <v>219</v>
       </c>
       <c r="AD62" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE62">
         <v>324</v>
@@ -11270,7 +11273,7 @@
         <v>41</v>
       </c>
       <c r="AC69" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AD69" t="s">
         <v>99</v>
@@ -11594,7 +11597,7 @@
         <v>48</v>
       </c>
       <c r="AD72" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="AE72">
         <v>384</v>
@@ -12236,7 +12239,7 @@
         <v>48</v>
       </c>
       <c r="AD78" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE78">
         <v>576</v>
@@ -12343,7 +12346,7 @@
         <v>41</v>
       </c>
       <c r="AD79" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE79">
         <v>480</v>
@@ -12569,10 +12572,10 @@
         <v>0</v>
       </c>
       <c r="AH81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.4">
@@ -12664,7 +12667,7 @@
         <v>327</v>
       </c>
       <c r="AD82" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE82">
         <v>576</v>
@@ -12985,7 +12988,7 @@
         <v>41</v>
       </c>
       <c r="AD85" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE85">
         <v>288</v>
@@ -14162,7 +14165,7 @@
         <v>41</v>
       </c>
       <c r="AD96" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE96">
         <v>216</v>
@@ -14269,7 +14272,7 @@
         <v>48</v>
       </c>
       <c r="AD97" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE97">
         <v>336</v>
@@ -14376,7 +14379,7 @@
         <v>48</v>
       </c>
       <c r="AD98" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE98">
         <v>720</v>
@@ -15232,7 +15235,7 @@
         <v>48</v>
       </c>
       <c r="AD106" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE106">
         <v>312</v>
@@ -15446,7 +15449,7 @@
         <v>48</v>
       </c>
       <c r="AD108" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE108">
         <v>252</v>
@@ -15553,7 +15556,7 @@
         <v>41</v>
       </c>
       <c r="AD109" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE109">
         <v>504</v>
@@ -19298,7 +19301,7 @@
         <v>469</v>
       </c>
       <c r="AD144" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE144">
         <v>336</v>
@@ -20154,7 +20157,7 @@
         <v>219</v>
       </c>
       <c r="AD152" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE152">
         <v>288</v>
@@ -21117,7 +21120,7 @@
         <v>181</v>
       </c>
       <c r="AD161" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE161">
         <v>384</v>
@@ -21759,7 +21762,7 @@
         <v>41</v>
       </c>
       <c r="AD167" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE167">
         <v>432</v>
@@ -21863,7 +21866,7 @@
         <v>41</v>
       </c>
       <c r="AC168" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="AD168" t="s">
         <v>99</v>
@@ -23896,7 +23899,7 @@
         <v>41</v>
       </c>
       <c r="AC187" t="s">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="AD187" t="s">
         <v>99</v>
@@ -23905,7 +23908,7 @@
         <v>480</v>
       </c>
       <c r="AF187" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG187">
         <v>0</v>
@@ -23922,10 +23925,10 @@
         <v>4184</v>
       </c>
       <c r="B188" t="s">
+        <v>667</v>
+      </c>
+      <c r="C188" t="s">
         <v>668</v>
-      </c>
-      <c r="C188" t="s">
-        <v>669</v>
       </c>
       <c r="D188">
         <v>41</v>
@@ -24012,7 +24015,7 @@
         <v>432</v>
       </c>
       <c r="AF188" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AG188">
         <v>0</v>
@@ -24029,10 +24032,10 @@
         <v>4185</v>
       </c>
       <c r="B189" t="s">
+        <v>670</v>
+      </c>
+      <c r="C189" t="s">
         <v>671</v>
-      </c>
-      <c r="C189" t="s">
-        <v>672</v>
       </c>
       <c r="D189">
         <v>32</v>
@@ -24119,7 +24122,7 @@
         <v>720</v>
       </c>
       <c r="AF189" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG189">
         <v>0</v>
@@ -24136,10 +24139,10 @@
         <v>4186</v>
       </c>
       <c r="B190" t="s">
+        <v>673</v>
+      </c>
+      <c r="C190" t="s">
         <v>674</v>
-      </c>
-      <c r="C190" t="s">
-        <v>675</v>
       </c>
       <c r="D190">
         <v>61</v>
@@ -24217,7 +24220,7 @@
         <v>41</v>
       </c>
       <c r="AC190" t="s">
-        <v>456</v>
+        <v>286</v>
       </c>
       <c r="AD190" t="s">
         <v>99</v>
@@ -24226,7 +24229,7 @@
         <v>288</v>
       </c>
       <c r="AF190" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AG190">
         <v>0</v>
@@ -24243,10 +24246,10 @@
         <v>4187</v>
       </c>
       <c r="B191" t="s">
+        <v>676</v>
+      </c>
+      <c r="C191" t="s">
         <v>677</v>
-      </c>
-      <c r="C191" t="s">
-        <v>678</v>
       </c>
       <c r="D191">
         <v>46</v>
@@ -24333,7 +24336,7 @@
         <v>432</v>
       </c>
       <c r="AF191" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG191">
         <v>0</v>
@@ -24350,10 +24353,10 @@
         <v>4188</v>
       </c>
       <c r="B192" t="s">
+        <v>679</v>
+      </c>
+      <c r="C192" t="s">
         <v>680</v>
-      </c>
-      <c r="C192" t="s">
-        <v>681</v>
       </c>
       <c r="D192">
         <v>79</v>
@@ -24431,7 +24434,7 @@
         <v>119</v>
       </c>
       <c r="AC192" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AD192" t="s">
         <v>99</v>
@@ -24440,7 +24443,7 @@
         <v>576</v>
       </c>
       <c r="AF192" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG192">
         <v>0</v>
@@ -24457,10 +24460,10 @@
         <v>4189</v>
       </c>
       <c r="B193" t="s">
+        <v>683</v>
+      </c>
+      <c r="C193" t="s">
         <v>684</v>
-      </c>
-      <c r="C193" t="s">
-        <v>685</v>
       </c>
       <c r="D193">
         <v>14</v>
@@ -24547,7 +24550,7 @@
         <v>576</v>
       </c>
       <c r="AF193" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG193">
         <v>0</v>
@@ -24564,10 +24567,10 @@
         <v>4190</v>
       </c>
       <c r="B194" t="s">
+        <v>686</v>
+      </c>
+      <c r="C194" t="s">
         <v>687</v>
-      </c>
-      <c r="C194" t="s">
-        <v>688</v>
       </c>
       <c r="D194">
         <v>24</v>
@@ -24654,7 +24657,7 @@
         <v>720</v>
       </c>
       <c r="AF194" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AG194">
         <v>0</v>
@@ -24671,10 +24674,10 @@
         <v>4191</v>
       </c>
       <c r="B195" t="s">
+        <v>689</v>
+      </c>
+      <c r="C195" t="s">
         <v>690</v>
-      </c>
-      <c r="C195" t="s">
-        <v>691</v>
       </c>
       <c r="D195">
         <v>16</v>
@@ -24761,7 +24764,7 @@
         <v>480</v>
       </c>
       <c r="AF195" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AG195">
         <v>0</v>
@@ -24778,10 +24781,10 @@
         <v>4192</v>
       </c>
       <c r="B196" t="s">
+        <v>692</v>
+      </c>
+      <c r="C196" t="s">
         <v>693</v>
-      </c>
-      <c r="C196" t="s">
-        <v>694</v>
       </c>
       <c r="D196">
         <v>24</v>
@@ -24862,13 +24865,13 @@
         <v>41</v>
       </c>
       <c r="AD196" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE196">
         <v>420</v>
       </c>
       <c r="AF196" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AG196">
         <v>0</v>
@@ -24885,10 +24888,10 @@
         <v>4193</v>
       </c>
       <c r="B197" t="s">
+        <v>695</v>
+      </c>
+      <c r="C197" t="s">
         <v>696</v>
-      </c>
-      <c r="C197" t="s">
-        <v>697</v>
       </c>
       <c r="D197">
         <v>28</v>
@@ -24969,13 +24972,13 @@
         <v>41</v>
       </c>
       <c r="AD197" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE197">
         <v>192</v>
       </c>
       <c r="AF197" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AG197">
         <v>0</v>
@@ -24992,10 +24995,10 @@
         <v>4194</v>
       </c>
       <c r="B198" t="s">
+        <v>698</v>
+      </c>
+      <c r="C198" t="s">
         <v>699</v>
-      </c>
-      <c r="C198" t="s">
-        <v>700</v>
       </c>
       <c r="D198">
         <v>31</v>
@@ -25076,13 +25079,13 @@
         <v>41</v>
       </c>
       <c r="AD198" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE198">
         <v>468</v>
       </c>
       <c r="AF198" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AG198">
         <v>0</v>
@@ -25099,10 +25102,10 @@
         <v>4195</v>
       </c>
       <c r="B199" t="s">
+        <v>701</v>
+      </c>
+      <c r="C199" t="s">
         <v>702</v>
-      </c>
-      <c r="C199" t="s">
-        <v>703</v>
       </c>
       <c r="D199">
         <v>32</v>
@@ -25189,7 +25192,7 @@
         <v>384</v>
       </c>
       <c r="AF199" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AG199">
         <v>0</v>
@@ -25206,10 +25209,10 @@
         <v>4196</v>
       </c>
       <c r="B200" t="s">
+        <v>704</v>
+      </c>
+      <c r="C200" t="s">
         <v>705</v>
-      </c>
-      <c r="C200" t="s">
-        <v>706</v>
       </c>
       <c r="D200">
         <v>53</v>
@@ -25296,7 +25299,7 @@
         <v>384</v>
       </c>
       <c r="AF200" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AG200">
         <v>0</v>
@@ -25313,10 +25316,10 @@
         <v>4197</v>
       </c>
       <c r="B201" t="s">
+        <v>707</v>
+      </c>
+      <c r="C201" t="s">
         <v>708</v>
-      </c>
-      <c r="C201" t="s">
-        <v>709</v>
       </c>
       <c r="D201">
         <v>34</v>
@@ -25397,13 +25400,13 @@
         <v>41</v>
       </c>
       <c r="AD201" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE201">
         <v>432</v>
       </c>
       <c r="AF201" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG201">
         <v>0</v>
@@ -25420,16 +25423,16 @@
         <v>4198</v>
       </c>
       <c r="B202" t="s">
+        <v>710</v>
+      </c>
+      <c r="C202" t="s">
         <v>711</v>
-      </c>
-      <c r="C202" t="s">
-        <v>712</v>
       </c>
       <c r="D202">
         <v>35</v>
       </c>
       <c r="E202">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="F202">
         <v>100</v>
@@ -25510,7 +25513,7 @@
         <v>240</v>
       </c>
       <c r="AF202" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AG202">
         <v>0</v>
@@ -25527,10 +25530,10 @@
         <v>4199</v>
       </c>
       <c r="B203" t="s">
+        <v>713</v>
+      </c>
+      <c r="C203" t="s">
         <v>714</v>
-      </c>
-      <c r="C203" t="s">
-        <v>715</v>
       </c>
       <c r="D203">
         <v>41</v>
@@ -25617,7 +25620,7 @@
         <v>216</v>
       </c>
       <c r="AF203" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AG203">
         <v>0</v>
@@ -25634,10 +25637,10 @@
         <v>4200</v>
       </c>
       <c r="B204" t="s">
+        <v>716</v>
+      </c>
+      <c r="C204" t="s">
         <v>717</v>
-      </c>
-      <c r="C204" t="s">
-        <v>718</v>
       </c>
       <c r="D204">
         <v>38</v>
@@ -25724,7 +25727,7 @@
         <v>192</v>
       </c>
       <c r="AF204" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AG204">
         <v>0</v>
@@ -25741,10 +25744,10 @@
         <v>4201</v>
       </c>
       <c r="B205" t="s">
+        <v>719</v>
+      </c>
+      <c r="C205" t="s">
         <v>720</v>
-      </c>
-      <c r="C205" t="s">
-        <v>721</v>
       </c>
       <c r="D205">
         <v>53</v>
@@ -25831,7 +25834,7 @@
         <v>108</v>
       </c>
       <c r="AF205" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AG205">
         <v>0</v>
@@ -25848,10 +25851,10 @@
         <v>4202</v>
       </c>
       <c r="B206" t="s">
+        <v>722</v>
+      </c>
+      <c r="C206" t="s">
         <v>723</v>
-      </c>
-      <c r="C206" t="s">
-        <v>724</v>
       </c>
       <c r="D206">
         <v>55</v>
@@ -25911,7 +25914,7 @@
         <v>418</v>
       </c>
       <c r="W206" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="X206">
         <v>1680</v>
@@ -25932,13 +25935,13 @@
         <v>192</v>
       </c>
       <c r="AD206" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE206">
         <v>288</v>
       </c>
       <c r="AF206" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG206">
         <v>0</v>
@@ -25955,10 +25958,10 @@
         <v>4203</v>
       </c>
       <c r="B207" t="s">
+        <v>726</v>
+      </c>
+      <c r="C207" t="s">
         <v>727</v>
-      </c>
-      <c r="C207" t="s">
-        <v>728</v>
       </c>
       <c r="D207">
         <v>53</v>
@@ -26039,13 +26042,13 @@
         <v>41</v>
       </c>
       <c r="AD207" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE207">
         <v>504</v>
       </c>
       <c r="AF207" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AG207">
         <v>0</v>
@@ -26062,10 +26065,10 @@
         <v>4204</v>
       </c>
       <c r="B208" t="s">
+        <v>729</v>
+      </c>
+      <c r="C208" t="s">
         <v>730</v>
-      </c>
-      <c r="C208" t="s">
-        <v>731</v>
       </c>
       <c r="D208">
         <v>55</v>
@@ -26152,7 +26155,7 @@
         <v>576</v>
       </c>
       <c r="AF208" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG208">
         <v>0</v>
@@ -26169,10 +26172,10 @@
         <v>4205</v>
       </c>
       <c r="B209" t="s">
+        <v>732</v>
+      </c>
+      <c r="C209" t="s">
         <v>733</v>
-      </c>
-      <c r="C209" t="s">
-        <v>734</v>
       </c>
       <c r="D209">
         <v>59</v>
@@ -26259,7 +26262,7 @@
         <v>360</v>
       </c>
       <c r="AF209" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AG209">
         <v>0</v>
@@ -26276,10 +26279,10 @@
         <v>4206</v>
       </c>
       <c r="B210" t="s">
+        <v>735</v>
+      </c>
+      <c r="C210" t="s">
         <v>736</v>
-      </c>
-      <c r="C210" t="s">
-        <v>737</v>
       </c>
       <c r="D210">
         <v>64</v>
@@ -26360,13 +26363,13 @@
         <v>286</v>
       </c>
       <c r="AD210" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE210">
         <v>2112</v>
       </c>
       <c r="AF210" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG210">
         <v>0</v>
@@ -26383,10 +26386,10 @@
         <v>4207</v>
       </c>
       <c r="B211" t="s">
+        <v>738</v>
+      </c>
+      <c r="C211" t="s">
         <v>739</v>
-      </c>
-      <c r="C211" t="s">
-        <v>740</v>
       </c>
       <c r="D211">
         <v>62</v>
@@ -26464,7 +26467,7 @@
         <v>41</v>
       </c>
       <c r="AC211" t="s">
-        <v>456</v>
+        <v>286</v>
       </c>
       <c r="AD211" t="s">
         <v>99</v>
@@ -26473,7 +26476,7 @@
         <v>384</v>
       </c>
       <c r="AF211" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AG211">
         <v>0</v>
@@ -26490,10 +26493,10 @@
         <v>4208</v>
       </c>
       <c r="B212" t="s">
+        <v>741</v>
+      </c>
+      <c r="C212" t="s">
         <v>742</v>
-      </c>
-      <c r="C212" t="s">
-        <v>743</v>
       </c>
       <c r="D212">
         <v>62</v>
@@ -26571,7 +26574,7 @@
         <v>41</v>
       </c>
       <c r="AC212" t="s">
-        <v>744</v>
+        <v>1120</v>
       </c>
       <c r="AD212" t="s">
         <v>99</v>
@@ -26580,7 +26583,7 @@
         <v>972</v>
       </c>
       <c r="AF212" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AG212">
         <v>0</v>
@@ -26597,10 +26600,10 @@
         <v>4209</v>
       </c>
       <c r="B213" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C213" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D213">
         <v>72</v>
@@ -26678,7 +26681,7 @@
         <v>119</v>
       </c>
       <c r="AC213" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AD213" t="s">
         <v>99</v>
@@ -26687,7 +26690,7 @@
         <v>384</v>
       </c>
       <c r="AF213" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AG213">
         <v>0</v>
@@ -26704,10 +26707,10 @@
         <v>4210</v>
       </c>
       <c r="B214" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C214" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D214">
         <v>58</v>
@@ -26785,7 +26788,7 @@
         <v>41</v>
       </c>
       <c r="AC214" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="AD214" t="s">
         <v>99</v>
@@ -26794,7 +26797,7 @@
         <v>168</v>
       </c>
       <c r="AF214" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AG214">
         <v>0</v>
@@ -26811,10 +26814,10 @@
         <v>4211</v>
       </c>
       <c r="B215" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C215" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D215">
         <v>79</v>
@@ -26892,7 +26895,7 @@
         <v>41</v>
       </c>
       <c r="AC215" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AD215" t="s">
         <v>99</v>
@@ -26901,7 +26904,7 @@
         <v>720</v>
       </c>
       <c r="AF215" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG215">
         <v>0</v>
@@ -26918,10 +26921,10 @@
         <v>4212</v>
       </c>
       <c r="B216" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C216" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D216">
         <v>65</v>
@@ -27008,7 +27011,7 @@
         <v>240</v>
       </c>
       <c r="AF216" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AG216">
         <v>0</v>
@@ -27025,10 +27028,10 @@
         <v>4213</v>
       </c>
       <c r="B217" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C217" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D217">
         <v>53</v>
@@ -27115,7 +27118,7 @@
         <v>384</v>
       </c>
       <c r="AF217" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AG217">
         <v>0</v>
@@ -27132,10 +27135,10 @@
         <v>4214</v>
       </c>
       <c r="B218" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C218" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D218">
         <v>77</v>
@@ -27213,7 +27216,7 @@
         <v>119</v>
       </c>
       <c r="AC218" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AD218" t="s">
         <v>99</v>
@@ -27222,7 +27225,7 @@
         <v>269</v>
       </c>
       <c r="AF218" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AG218">
         <v>0</v>
@@ -27239,10 +27242,10 @@
         <v>4215</v>
       </c>
       <c r="B219" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C219" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D219">
         <v>80</v>
@@ -27329,7 +27332,7 @@
         <v>408</v>
       </c>
       <c r="AF219" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AG219">
         <v>0</v>
@@ -27346,10 +27349,10 @@
         <v>4216</v>
       </c>
       <c r="B220" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C220" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D220">
         <v>52</v>
@@ -27409,7 +27412,7 @@
         <v>469</v>
       </c>
       <c r="W220" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="X220">
         <v>1848</v>
@@ -27427,7 +27430,7 @@
         <v>41</v>
       </c>
       <c r="AC220" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="AD220" t="s">
         <v>99</v>
@@ -27436,7 +27439,7 @@
         <v>864</v>
       </c>
       <c r="AF220" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AG220">
         <v>0</v>
@@ -27453,16 +27456,16 @@
         <v>4217</v>
       </c>
       <c r="B221" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C221" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D221">
         <v>53</v>
       </c>
       <c r="E221">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F221">
         <v>100</v>
@@ -27498,7 +27501,7 @@
         <v>95</v>
       </c>
       <c r="Q221">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="R221">
         <v>100</v>
@@ -27516,7 +27519,7 @@
         <v>469</v>
       </c>
       <c r="W221" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="X221">
         <v>1768</v>
@@ -27534,7 +27537,7 @@
         <v>41</v>
       </c>
       <c r="AC221" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="AD221" t="s">
         <v>99</v>
@@ -27543,7 +27546,7 @@
         <v>480</v>
       </c>
       <c r="AF221" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AG221">
         <v>0</v>
@@ -27560,10 +27563,10 @@
         <v>4218</v>
       </c>
       <c r="B222" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C222" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D222">
         <v>61</v>
@@ -27641,7 +27644,7 @@
         <v>41</v>
       </c>
       <c r="AC222" t="s">
-        <v>456</v>
+        <v>286</v>
       </c>
       <c r="AD222" t="s">
         <v>99</v>
@@ -27650,7 +27653,7 @@
         <v>336</v>
       </c>
       <c r="AF222" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AG222">
         <v>0</v>
@@ -27667,10 +27670,10 @@
         <v>4219</v>
       </c>
       <c r="B223" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C223" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D223">
         <v>66</v>
@@ -27748,7 +27751,7 @@
         <v>41</v>
       </c>
       <c r="AC223" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AD223" t="s">
         <v>99</v>
@@ -27757,7 +27760,7 @@
         <v>660</v>
       </c>
       <c r="AF223" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AG223">
         <v>0</v>
@@ -27774,10 +27777,10 @@
         <v>4220</v>
       </c>
       <c r="B224" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C224" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D224">
         <v>48</v>
@@ -27837,7 +27840,7 @@
         <v>219</v>
       </c>
       <c r="W224" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="X224">
         <v>1020</v>
@@ -27855,7 +27858,7 @@
         <v>41</v>
       </c>
       <c r="AC224" t="s">
-        <v>176</v>
+        <v>1121</v>
       </c>
       <c r="AD224" t="s">
         <v>99</v>
@@ -27864,7 +27867,7 @@
         <v>600</v>
       </c>
       <c r="AF224" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AG224">
         <v>0</v>
@@ -27881,10 +27884,10 @@
         <v>4221</v>
       </c>
       <c r="B225" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C225" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D225">
         <v>82</v>
@@ -27971,7 +27974,7 @@
         <v>288</v>
       </c>
       <c r="AF225" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AG225">
         <v>0</v>
@@ -27988,10 +27991,10 @@
         <v>4222</v>
       </c>
       <c r="B226" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C226" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D226">
         <v>51</v>
@@ -28078,7 +28081,7 @@
         <v>540</v>
       </c>
       <c r="AF226" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AG226">
         <v>0</v>
@@ -28095,10 +28098,10 @@
         <v>4223</v>
       </c>
       <c r="B227" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C227" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D227">
         <v>71</v>
@@ -28158,7 +28161,7 @@
         <v>219</v>
       </c>
       <c r="W227" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="X227">
         <v>1790</v>
@@ -28176,7 +28179,7 @@
         <v>41</v>
       </c>
       <c r="AC227" t="s">
-        <v>456</v>
+        <v>286</v>
       </c>
       <c r="AD227" t="s">
         <v>99</v>
@@ -28185,7 +28188,7 @@
         <v>900</v>
       </c>
       <c r="AF227" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AG227">
         <v>0</v>
@@ -28202,10 +28205,10 @@
         <v>4224</v>
       </c>
       <c r="B228" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C228" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D228">
         <v>73</v>
@@ -28292,7 +28295,7 @@
         <v>1920</v>
       </c>
       <c r="AF228" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AG228">
         <v>0</v>
@@ -28309,10 +28312,10 @@
         <v>4225</v>
       </c>
       <c r="B229" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C229" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D229">
         <v>73</v>
@@ -28372,7 +28375,7 @@
         <v>160</v>
       </c>
       <c r="W229" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="X229">
         <v>1744</v>
@@ -28390,7 +28393,7 @@
         <v>41</v>
       </c>
       <c r="AC229" t="s">
-        <v>181</v>
+        <v>456</v>
       </c>
       <c r="AD229" t="s">
         <v>99</v>
@@ -28399,7 +28402,7 @@
         <v>960</v>
       </c>
       <c r="AF229" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AG229">
         <v>0</v>
@@ -28416,10 +28419,10 @@
         <v>4226</v>
       </c>
       <c r="B230" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C230" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D230">
         <v>61</v>
@@ -28497,7 +28500,7 @@
         <v>41</v>
       </c>
       <c r="AC230" t="s">
-        <v>130</v>
+        <v>516</v>
       </c>
       <c r="AD230" t="s">
         <v>99</v>
@@ -28506,7 +28509,7 @@
         <v>660</v>
       </c>
       <c r="AF230" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AG230">
         <v>0</v>
@@ -28523,10 +28526,10 @@
         <v>4227</v>
       </c>
       <c r="B231" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C231" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D231">
         <v>51</v>
@@ -28586,7 +28589,7 @@
         <v>219</v>
       </c>
       <c r="W231" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="X231">
         <v>1056</v>
@@ -28604,7 +28607,7 @@
         <v>41</v>
       </c>
       <c r="AC231" t="s">
-        <v>809</v>
+        <v>1122</v>
       </c>
       <c r="AD231" t="s">
         <v>99</v>
@@ -28613,7 +28616,7 @@
         <v>720</v>
       </c>
       <c r="AF231" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AG231">
         <v>0</v>
@@ -28630,13 +28633,13 @@
         <v>4228</v>
       </c>
       <c r="B232" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C232" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D232">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E232">
         <v>100</v>
@@ -28711,7 +28714,7 @@
         <v>41</v>
       </c>
       <c r="AC232" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="AD232" t="s">
         <v>99</v>
@@ -28720,7 +28723,7 @@
         <v>432</v>
       </c>
       <c r="AF232" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="AG232">
         <v>0</v>
@@ -28737,13 +28740,13 @@
         <v>4229</v>
       </c>
       <c r="B233" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C233" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D233">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E233">
         <v>100</v>
@@ -28827,7 +28830,7 @@
         <v>336</v>
       </c>
       <c r="AF233" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AG233">
         <v>0</v>
@@ -28844,10 +28847,10 @@
         <v>4230</v>
       </c>
       <c r="B234" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C234" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D234">
         <v>35</v>
@@ -28934,7 +28937,7 @@
         <v>360</v>
       </c>
       <c r="AF234" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AG234">
         <v>0</v>
@@ -28951,10 +28954,10 @@
         <v>4231</v>
       </c>
       <c r="B235" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C235" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D235">
         <v>70</v>
@@ -29041,7 +29044,7 @@
         <v>108</v>
       </c>
       <c r="AF235" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AG235">
         <v>0</v>
@@ -29058,10 +29061,10 @@
         <v>4232</v>
       </c>
       <c r="B236" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C236" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D236">
         <v>58</v>
@@ -29139,7 +29142,7 @@
         <v>41</v>
       </c>
       <c r="AC236" t="s">
-        <v>48</v>
+        <v>1123</v>
       </c>
       <c r="AD236" t="s">
         <v>42</v>
@@ -29148,7 +29151,7 @@
         <v>756</v>
       </c>
       <c r="AF236" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="AG236">
         <v>0</v>
@@ -29165,10 +29168,10 @@
         <v>4233</v>
       </c>
       <c r="B237" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C237" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D237">
         <v>49</v>
@@ -29246,7 +29249,7 @@
         <v>41</v>
       </c>
       <c r="AC237" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AD237" t="s">
         <v>99</v>
@@ -29255,7 +29258,7 @@
         <v>396</v>
       </c>
       <c r="AF237" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AG237">
         <v>0</v>
@@ -29272,10 +29275,10 @@
         <v>4234</v>
       </c>
       <c r="B238" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C238" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D238">
         <v>63</v>
@@ -29335,7 +29338,7 @@
         <v>53</v>
       </c>
       <c r="W238" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="X238">
         <v>1100</v>
@@ -29353,16 +29356,16 @@
         <v>41</v>
       </c>
       <c r="AC238" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AD238" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE238">
         <v>720</v>
       </c>
       <c r="AF238" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="AG238">
         <v>0</v>
@@ -29379,10 +29382,10 @@
         <v>4235</v>
       </c>
       <c r="B239" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C239" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D239">
         <v>70</v>
@@ -29460,16 +29463,16 @@
         <v>41</v>
       </c>
       <c r="AC239" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AD239" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE239">
         <v>1248</v>
       </c>
       <c r="AF239" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AG239">
         <v>0</v>
@@ -29486,10 +29489,10 @@
         <v>4236</v>
       </c>
       <c r="B240" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C240" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D240">
         <v>72</v>
@@ -29567,7 +29570,7 @@
         <v>41</v>
       </c>
       <c r="AC240" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AD240" t="s">
         <v>99</v>
@@ -29576,7 +29579,7 @@
         <v>522</v>
       </c>
       <c r="AF240" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AG240">
         <v>0</v>
@@ -29593,10 +29596,10 @@
         <v>4237</v>
       </c>
       <c r="B241" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C241" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D241">
         <v>68</v>
@@ -29674,7 +29677,7 @@
         <v>41</v>
       </c>
       <c r="AC241" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AD241" t="s">
         <v>99</v>
@@ -29683,7 +29686,7 @@
         <v>1200</v>
       </c>
       <c r="AF241" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="AG241">
         <v>0</v>
@@ -29700,10 +29703,10 @@
         <v>4238</v>
       </c>
       <c r="B242" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C242" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D242">
         <v>71</v>
@@ -29781,7 +29784,7 @@
         <v>41</v>
       </c>
       <c r="AC242" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AD242" t="s">
         <v>99</v>
@@ -29790,7 +29793,7 @@
         <v>540</v>
       </c>
       <c r="AF242" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AG242">
         <v>0</v>
@@ -29807,10 +29810,10 @@
         <v>4239</v>
       </c>
       <c r="B243" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C243" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D243">
         <v>84</v>
@@ -29888,7 +29891,7 @@
         <v>119</v>
       </c>
       <c r="AC243" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AD243" t="s">
         <v>99</v>
@@ -29897,7 +29900,7 @@
         <v>624</v>
       </c>
       <c r="AF243" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AG243">
         <v>0</v>
@@ -29914,10 +29917,10 @@
         <v>4240</v>
       </c>
       <c r="B244" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C244" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D244">
         <v>58</v>
@@ -30004,7 +30007,7 @@
         <v>432</v>
       </c>
       <c r="AF244" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AG244">
         <v>0</v>
@@ -30021,10 +30024,10 @@
         <v>4241</v>
       </c>
       <c r="B245" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C245" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D245">
         <v>34</v>
@@ -30111,7 +30114,7 @@
         <v>240</v>
       </c>
       <c r="AF245" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AG245">
         <v>0</v>
@@ -30128,10 +30131,10 @@
         <v>4242</v>
       </c>
       <c r="B246" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C246" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D246">
         <v>66</v>
@@ -30218,7 +30221,7 @@
         <v>336</v>
       </c>
       <c r="AF246" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AG246">
         <v>0</v>
@@ -30235,10 +30238,10 @@
         <v>4243</v>
       </c>
       <c r="B247" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C247" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D247">
         <v>65</v>
@@ -30325,7 +30328,7 @@
         <v>336</v>
       </c>
       <c r="AF247" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="AG247">
         <v>0</v>
@@ -30342,10 +30345,10 @@
         <v>4244</v>
       </c>
       <c r="B248" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C248" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D248">
         <v>56</v>
@@ -30387,10 +30390,10 @@
         <v>110</v>
       </c>
       <c r="Q248">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R248">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="S248">
         <v>10</v>
@@ -30423,7 +30426,7 @@
         <v>41</v>
       </c>
       <c r="AC248" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="AD248" t="s">
         <v>115</v>
@@ -30432,7 +30435,7 @@
         <v>480</v>
       </c>
       <c r="AF248" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="AG248">
         <v>0</v>
@@ -30449,10 +30452,10 @@
         <v>4245</v>
       </c>
       <c r="B249" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C249" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D249">
         <v>37</v>
@@ -30539,7 +30542,7 @@
         <v>432</v>
       </c>
       <c r="AF249" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="AG249">
         <v>0</v>
@@ -30556,10 +30559,10 @@
         <v>4246</v>
       </c>
       <c r="B250" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C250" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D250">
         <v>60</v>
@@ -30619,7 +30622,7 @@
         <v>229</v>
       </c>
       <c r="W250" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="X250">
         <v>1072</v>
@@ -30646,7 +30649,7 @@
         <v>312</v>
       </c>
       <c r="AF250" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AG250">
         <v>0</v>
@@ -30663,10 +30666,10 @@
         <v>4247</v>
       </c>
       <c r="B251" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C251" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D251">
         <v>67</v>
@@ -30753,7 +30756,7 @@
         <v>720</v>
       </c>
       <c r="AF251" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AG251">
         <v>0</v>
@@ -30770,10 +30773,10 @@
         <v>4248</v>
       </c>
       <c r="B252" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C252" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D252">
         <v>69</v>
@@ -30860,7 +30863,7 @@
         <v>720</v>
       </c>
       <c r="AF252" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AG252">
         <v>0</v>
@@ -30877,10 +30880,10 @@
         <v>4249</v>
       </c>
       <c r="B253" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C253" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D253">
         <v>56</v>
@@ -30940,7 +30943,7 @@
         <v>219</v>
       </c>
       <c r="W253" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="X253">
         <v>1260</v>
@@ -30967,7 +30970,7 @@
         <v>672</v>
       </c>
       <c r="AF253" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="AG253">
         <v>0</v>
@@ -30984,10 +30987,10 @@
         <v>4250</v>
       </c>
       <c r="B254" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C254" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D254">
         <v>52</v>
@@ -31074,7 +31077,7 @@
         <v>540</v>
       </c>
       <c r="AF254" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="AG254">
         <v>0</v>
@@ -31091,10 +31094,10 @@
         <v>4251</v>
       </c>
       <c r="B255" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C255" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D255">
         <v>70</v>
@@ -31154,7 +31157,7 @@
         <v>219</v>
       </c>
       <c r="W255" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="X255">
         <v>972</v>
@@ -31181,7 +31184,7 @@
         <v>384</v>
       </c>
       <c r="AF255" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AG255">
         <v>0</v>
@@ -31198,10 +31201,10 @@
         <v>4252</v>
       </c>
       <c r="B256" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C256" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D256">
         <v>72</v>
@@ -31261,7 +31264,7 @@
         <v>140</v>
       </c>
       <c r="W256" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="X256">
         <v>504</v>
@@ -31288,7 +31291,7 @@
         <v>420</v>
       </c>
       <c r="AF256" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="AG256">
         <v>0</v>
@@ -31305,10 +31308,10 @@
         <v>4253</v>
       </c>
       <c r="B257" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C257" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D257">
         <v>80</v>
@@ -31395,7 +31398,7 @@
         <v>420</v>
       </c>
       <c r="AF257" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="AG257">
         <v>0</v>
@@ -31412,10 +31415,10 @@
         <v>4254</v>
       </c>
       <c r="B258" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C258" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D258">
         <v>78</v>
@@ -31502,7 +31505,7 @@
         <v>420</v>
       </c>
       <c r="AF258" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="AG258">
         <v>0</v>
@@ -31519,10 +31522,10 @@
         <v>4255</v>
       </c>
       <c r="B259" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C259" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D259">
         <v>75</v>
@@ -31609,7 +31612,7 @@
         <v>420</v>
       </c>
       <c r="AF259" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AG259">
         <v>0</v>
@@ -31626,10 +31629,10 @@
         <v>4256</v>
       </c>
       <c r="B260" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C260" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D260">
         <v>25</v>
@@ -31710,13 +31713,13 @@
         <v>41</v>
       </c>
       <c r="AD260" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE260">
         <v>108</v>
       </c>
       <c r="AF260" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AG260">
         <v>0</v>
@@ -31733,10 +31736,10 @@
         <v>4257</v>
       </c>
       <c r="B261" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C261" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D261">
         <v>28</v>
@@ -31796,7 +31799,7 @@
         <v>160</v>
       </c>
       <c r="W261" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="X261">
         <v>1248</v>
@@ -31817,13 +31820,13 @@
         <v>41</v>
       </c>
       <c r="AD261" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE261">
         <v>336</v>
       </c>
       <c r="AF261" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="AG261">
         <v>0</v>
@@ -31840,10 +31843,10 @@
         <v>4258</v>
       </c>
       <c r="B262" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C262" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D262">
         <v>35</v>
@@ -31930,7 +31933,7 @@
         <v>1224</v>
       </c>
       <c r="AF262" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="AG262">
         <v>0</v>
@@ -31947,10 +31950,10 @@
         <v>4259</v>
       </c>
       <c r="B263" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C263" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D263">
         <v>42</v>
@@ -32037,7 +32040,7 @@
         <v>336</v>
       </c>
       <c r="AF263" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AG263">
         <v>0</v>
@@ -32054,10 +32057,10 @@
         <v>4260</v>
       </c>
       <c r="B264" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C264" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D264">
         <v>25</v>
@@ -32144,7 +32147,7 @@
         <v>384</v>
       </c>
       <c r="AF264" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="AG264">
         <v>0</v>
@@ -32161,10 +32164,10 @@
         <v>4261</v>
       </c>
       <c r="B265" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C265" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D265">
         <v>73</v>
@@ -32224,7 +32227,7 @@
         <v>53</v>
       </c>
       <c r="W265" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="X265">
         <v>608</v>
@@ -32242,7 +32245,7 @@
         <v>119</v>
       </c>
       <c r="AC265" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="AD265" t="s">
         <v>99</v>
@@ -32251,7 +32254,7 @@
         <v>312</v>
       </c>
       <c r="AF265" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="AG265">
         <v>0</v>
@@ -32268,10 +32271,10 @@
         <v>4262</v>
       </c>
       <c r="B266" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C266" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D266">
         <v>61</v>
@@ -32358,7 +32361,7 @@
         <v>288</v>
       </c>
       <c r="AF266" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AG266">
         <v>0</v>
@@ -32375,10 +32378,10 @@
         <v>4263</v>
       </c>
       <c r="B267" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C267" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D267">
         <v>77</v>
@@ -32465,7 +32468,7 @@
         <v>252</v>
       </c>
       <c r="AF267" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="AG267">
         <v>0</v>
@@ -32482,10 +32485,10 @@
         <v>4264</v>
       </c>
       <c r="B268" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C268" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D268">
         <v>38</v>
@@ -32566,13 +32569,13 @@
         <v>41</v>
       </c>
       <c r="AD268" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE268">
         <v>432</v>
       </c>
       <c r="AF268" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="AG268">
         <v>0</v>
@@ -32589,10 +32592,10 @@
         <v>4265</v>
       </c>
       <c r="B269" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C269" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D269">
         <v>74</v>
@@ -32670,7 +32673,7 @@
         <v>41</v>
       </c>
       <c r="AC269" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="AD269" t="s">
         <v>99</v>
@@ -32679,7 +32682,7 @@
         <v>720</v>
       </c>
       <c r="AF269" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="AG269">
         <v>0</v>
@@ -32696,10 +32699,10 @@
         <v>4266</v>
       </c>
       <c r="B270" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C270" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D270">
         <v>15</v>
@@ -32780,13 +32783,13 @@
         <v>41</v>
       </c>
       <c r="AD270" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE270">
         <v>468</v>
       </c>
       <c r="AF270" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="AG270">
         <v>0</v>
@@ -32803,10 +32806,10 @@
         <v>4267</v>
       </c>
       <c r="B271" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C271" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D271">
         <v>42</v>
@@ -32887,13 +32890,13 @@
         <v>275</v>
       </c>
       <c r="AD271" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE271">
         <v>540</v>
       </c>
       <c r="AF271" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="AG271">
         <v>0</v>
@@ -32910,10 +32913,10 @@
         <v>4268</v>
       </c>
       <c r="B272" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C272" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D272">
         <v>18</v>
@@ -32994,13 +32997,13 @@
         <v>41</v>
       </c>
       <c r="AD272" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE272">
         <v>336</v>
       </c>
       <c r="AF272" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="AG272">
         <v>0</v>
@@ -33017,10 +33020,10 @@
         <v>4269</v>
       </c>
       <c r="B273" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C273" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D273">
         <v>20</v>
@@ -33107,7 +33110,7 @@
         <v>288</v>
       </c>
       <c r="AF273" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="AG273">
         <v>0</v>
@@ -33124,10 +33127,10 @@
         <v>4270</v>
       </c>
       <c r="B274" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C274" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D274">
         <v>21</v>
@@ -33214,7 +33217,7 @@
         <v>252</v>
       </c>
       <c r="AF274" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="AG274">
         <v>0</v>
@@ -33231,10 +33234,10 @@
         <v>4271</v>
       </c>
       <c r="B275" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C275" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D275">
         <v>61</v>
@@ -33294,7 +33297,7 @@
         <v>160</v>
       </c>
       <c r="W275" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="X275">
         <v>1100</v>
@@ -33321,7 +33324,7 @@
         <v>576</v>
       </c>
       <c r="AF275" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="AG275">
         <v>0</v>
@@ -33338,10 +33341,10 @@
         <v>4272</v>
       </c>
       <c r="B276" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C276" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D276">
         <v>63</v>
@@ -33419,7 +33422,7 @@
         <v>41</v>
       </c>
       <c r="AC276" t="s">
-        <v>516</v>
+        <v>1104</v>
       </c>
       <c r="AD276" t="s">
         <v>99</v>
@@ -33428,7 +33431,7 @@
         <v>576</v>
       </c>
       <c r="AF276" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="AG276">
         <v>0</v>
@@ -33445,10 +33448,10 @@
         <v>4273</v>
       </c>
       <c r="B277" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C277" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D277">
         <v>61</v>
@@ -33535,7 +33538,7 @@
         <v>480</v>
       </c>
       <c r="AF277" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="AG277">
         <v>0</v>
@@ -33552,10 +33555,10 @@
         <v>4274</v>
       </c>
       <c r="B278" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C278" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D278">
         <v>65</v>
@@ -33633,7 +33636,7 @@
         <v>119</v>
       </c>
       <c r="AC278" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AD278" t="s">
         <v>42</v>
@@ -33642,7 +33645,7 @@
         <v>900</v>
       </c>
       <c r="AF278" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="AG278">
         <v>0</v>
@@ -33659,10 +33662,10 @@
         <v>4275</v>
       </c>
       <c r="B279" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C279" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D279">
         <v>59</v>
@@ -33740,7 +33743,7 @@
         <v>41</v>
       </c>
       <c r="AC279" t="s">
-        <v>516</v>
+        <v>1104</v>
       </c>
       <c r="AD279" t="s">
         <v>99</v>
@@ -33749,7 +33752,7 @@
         <v>432</v>
       </c>
       <c r="AF279" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="AG279">
         <v>0</v>
@@ -33766,10 +33769,10 @@
         <v>4276</v>
       </c>
       <c r="B280" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C280" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D280">
         <v>72</v>
@@ -33847,7 +33850,7 @@
         <v>119</v>
       </c>
       <c r="AC280" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AD280" t="s">
         <v>99</v>
@@ -33856,7 +33859,7 @@
         <v>288</v>
       </c>
       <c r="AF280" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="AG280">
         <v>0</v>
@@ -33873,10 +33876,10 @@
         <v>4277</v>
       </c>
       <c r="B281" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C281" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D281">
         <v>79</v>
@@ -33936,7 +33939,7 @@
         <v>219</v>
       </c>
       <c r="W281" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="X281">
         <v>1720</v>
@@ -33954,7 +33957,7 @@
         <v>41</v>
       </c>
       <c r="AC281" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="AD281" t="s">
         <v>99</v>
@@ -33963,7 +33966,7 @@
         <v>1080</v>
       </c>
       <c r="AF281" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AG281">
         <v>0</v>
@@ -33980,10 +33983,10 @@
         <v>4278</v>
       </c>
       <c r="B282" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C282" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D282">
         <v>40</v>
@@ -34070,7 +34073,7 @@
         <v>384</v>
       </c>
       <c r="AF282" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="AG282">
         <v>0</v>
@@ -34087,10 +34090,10 @@
         <v>4279</v>
       </c>
       <c r="B283" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C283" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D283">
         <v>32</v>
@@ -34177,7 +34180,7 @@
         <v>540</v>
       </c>
       <c r="AF283" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="AG283">
         <v>0</v>
@@ -34194,10 +34197,10 @@
         <v>4280</v>
       </c>
       <c r="B284" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C284" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D284">
         <v>60</v>
@@ -34278,13 +34281,13 @@
         <v>327</v>
       </c>
       <c r="AD284" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE284">
         <v>720</v>
       </c>
       <c r="AF284" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="AG284">
         <v>0</v>
@@ -34301,10 +34304,10 @@
         <v>4281</v>
       </c>
       <c r="B285" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C285" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D285">
         <v>34</v>
@@ -34391,7 +34394,7 @@
         <v>696</v>
       </c>
       <c r="AF285" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="AG285">
         <v>0</v>
@@ -34408,10 +34411,10 @@
         <v>4282</v>
       </c>
       <c r="B286" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C286" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D286">
         <v>45</v>
@@ -34489,7 +34492,7 @@
         <v>41</v>
       </c>
       <c r="AC286" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="AD286" t="s">
         <v>115</v>
@@ -34498,7 +34501,7 @@
         <v>936</v>
       </c>
       <c r="AF286" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="AG286">
         <v>0</v>
@@ -34515,10 +34518,10 @@
         <v>4283</v>
       </c>
       <c r="B287" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C287" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D287">
         <v>70</v>
@@ -34596,7 +34599,7 @@
         <v>119</v>
       </c>
       <c r="AC287" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="AD287" t="s">
         <v>99</v>
@@ -34605,7 +34608,7 @@
         <v>384</v>
       </c>
       <c r="AF287" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="AG287">
         <v>0</v>
@@ -34622,10 +34625,10 @@
         <v>4284</v>
       </c>
       <c r="B288" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C288" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D288">
         <v>50</v>
@@ -34712,7 +34715,7 @@
         <v>0</v>
       </c>
       <c r="AF288" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="AG288">
         <v>0</v>
@@ -34724,7 +34727,7 @@
         <v>1</v>
       </c>
       <c r="AJ288" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="289" spans="1:36" x14ac:dyDescent="0.4">
@@ -34732,10 +34735,10 @@
         <v>4285</v>
       </c>
       <c r="B289" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C289" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D289">
         <v>50</v>
@@ -34816,13 +34819,13 @@
         <v>41</v>
       </c>
       <c r="AD289" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="AE289">
         <v>216</v>
       </c>
       <c r="AF289" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AG289">
         <v>0</v>
@@ -34834,7 +34837,7 @@
         <v>1</v>
       </c>
       <c r="AJ289" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="290" spans="1:36" x14ac:dyDescent="0.4">
@@ -34842,10 +34845,10 @@
         <v>4286</v>
       </c>
       <c r="B290" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C290" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D290">
         <v>99</v>
@@ -34923,7 +34926,7 @@
         <v>119</v>
       </c>
       <c r="AC290" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="AD290" t="s">
         <v>99</v>
@@ -34932,7 +34935,7 @@
         <v>504</v>
       </c>
       <c r="AF290" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="AG290">
         <v>0</v>
@@ -34949,10 +34952,10 @@
         <v>4287</v>
       </c>
       <c r="B291" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C291" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D291">
         <v>99</v>
@@ -35030,7 +35033,7 @@
         <v>119</v>
       </c>
       <c r="AC291" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="AD291" t="s">
         <v>99</v>
@@ -35039,7 +35042,7 @@
         <v>504</v>
       </c>
       <c r="AF291" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="AG291">
         <v>0</v>
@@ -35056,10 +35059,10 @@
         <v>4288</v>
       </c>
       <c r="B292" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C292" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D292">
         <v>43</v>
@@ -35140,13 +35143,13 @@
         <v>48</v>
       </c>
       <c r="AD292" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="AE292">
         <v>384</v>
       </c>
       <c r="AF292" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AG292">
         <v>0</v>
@@ -35163,10 +35166,10 @@
         <v>4289</v>
       </c>
       <c r="B293" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C293" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D293">
         <v>69</v>
@@ -35253,7 +35256,7 @@
         <v>480</v>
       </c>
       <c r="AF293" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AG293">
         <v>0</v>
@@ -35270,10 +35273,10 @@
         <v>4290</v>
       </c>
       <c r="B294" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C294" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D294">
         <v>41</v>
@@ -35360,7 +35363,7 @@
         <v>576</v>
       </c>
       <c r="AF294" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AG294">
         <v>0</v>
@@ -35377,10 +35380,10 @@
         <v>4291</v>
       </c>
       <c r="B295" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C295" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D295">
         <v>30</v>
@@ -35467,7 +35470,7 @@
         <v>432</v>
       </c>
       <c r="AF295" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="AG295">
         <v>0</v>
@@ -35484,10 +35487,10 @@
         <v>4292</v>
       </c>
       <c r="B296" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C296" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D296">
         <v>65</v>
@@ -35574,7 +35577,7 @@
         <v>624</v>
       </c>
       <c r="AF296" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="AG296">
         <v>0</v>
@@ -35591,10 +35594,10 @@
         <v>4293</v>
       </c>
       <c r="B297" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C297" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D297">
         <v>47</v>
@@ -35681,7 +35684,7 @@
         <v>480</v>
       </c>
       <c r="AF297" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="AG297">
         <v>0</v>
@@ -35698,10 +35701,10 @@
         <v>4294</v>
       </c>
       <c r="B298" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C298" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D298">
         <v>71</v>
@@ -35788,7 +35791,7 @@
         <v>425</v>
       </c>
       <c r="AF298" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="AG298">
         <v>0</v>
@@ -35805,10 +35808,10 @@
         <v>4295</v>
       </c>
       <c r="B299" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C299" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D299">
         <v>33</v>
@@ -35889,13 +35892,13 @@
         <v>41</v>
       </c>
       <c r="AD299" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE299">
         <v>672</v>
       </c>
       <c r="AF299" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AG299">
         <v>0</v>
@@ -35912,10 +35915,10 @@
         <v>4296</v>
       </c>
       <c r="B300" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C300" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D300">
         <v>56</v>
@@ -36002,7 +36005,7 @@
         <v>540</v>
       </c>
       <c r="AF300" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="AG300">
         <v>0</v>
@@ -36019,10 +36022,10 @@
         <v>4297</v>
       </c>
       <c r="B301" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C301" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D301">
         <v>46</v>
@@ -36109,7 +36112,7 @@
         <v>624</v>
       </c>
       <c r="AF301" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="AG301">
         <v>0</v>
@@ -36126,7 +36129,7 @@
         <v>4298</v>
       </c>
       <c r="B302" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C302" t="s">
         <v>565</v>
@@ -36228,7 +36231,7 @@
         <v>1</v>
       </c>
       <c r="AJ302" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="303" spans="1:36" x14ac:dyDescent="0.4">
@@ -36236,7 +36239,7 @@
         <v>4299</v>
       </c>
       <c r="B303" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C303" t="s">
         <v>77</v>
@@ -36317,7 +36320,7 @@
         <v>41</v>
       </c>
       <c r="AC303" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AD303" t="s">
         <v>59</v>
@@ -36343,10 +36346,10 @@
         <v>4300</v>
       </c>
       <c r="B304" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C304" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D304">
         <v>31</v>
@@ -36424,7 +36427,7 @@
         <v>41</v>
       </c>
       <c r="AC304" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="AD304" t="s">
         <v>99</v>
@@ -36445,7 +36448,7 @@
         <v>0.7</v>
       </c>
       <c r="AJ304" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -36479,30 +36482,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -36513,10 +36516,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -36525,18 +36528,18 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F3" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -36545,18 +36548,18 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F4" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B5" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -36567,10 +36570,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B6" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -36579,10 +36582,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F6" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -36606,7 +36609,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -37832,7 +37835,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -37841,13 +37844,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>14</v>
@@ -38028,7 +38031,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A7-1,0)</f>
-        <v>460.79898987322332</v>
+        <v>635.79898987322326</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A7-1,0)</f>
@@ -38061,7 +38064,7 @@
       </c>
       <c r="C8" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A8-1,0)</f>
-        <v>726.59999999999991</v>
+        <v>1076.5999999999999</v>
       </c>
       <c r="D8" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A8-1,0)</f>
@@ -38094,7 +38097,7 @@
       </c>
       <c r="C9" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A9-1,0)</f>
-        <v>860.43717164502527</v>
+        <v>1385.4371716450253</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A9-1,0)</f>
@@ -38127,7 +38130,7 @@
       </c>
       <c r="C10" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A10-1,0)</f>
-        <v>1342.6</v>
+        <v>2042.6</v>
       </c>
       <c r="D10" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A10-1,0)</f>
@@ -38160,7 +38163,7 @@
       </c>
       <c r="C11" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A11-1,0)</f>
-        <v>1549.5527270872078</v>
+        <v>2424.5527270872076</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A11-1,0)</f>
@@ -38193,7 +38196,7 @@
       </c>
       <c r="C12" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A12-1,0)</f>
-        <v>1785</v>
+        <v>2835</v>
       </c>
       <c r="D12" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A12-1,0)</f>
@@ -38226,7 +38229,7 @@
       </c>
       <c r="C13" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A13-1,0)</f>
-        <v>2063.4622217687302</v>
+        <v>3288.4622217687302</v>
       </c>
       <c r="D13" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A13-1,0)</f>
@@ -38259,7 +38262,7 @@
       </c>
       <c r="C14" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A14-1,0)</f>
-        <v>4254.5999999999995</v>
+        <v>5654.5999999999995</v>
       </c>
       <c r="D14" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A14-1,0)</f>
@@ -38292,7 +38295,7 @@
       </c>
       <c r="C15" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A15-1,0)</f>
-        <v>4848.6379787260903</v>
+        <v>6423.6379787260894</v>
       </c>
       <c r="D15" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A15-1,0)</f>
@@ -38325,7 +38328,7 @@
       </c>
       <c r="C16" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A16-1,0)</f>
-        <v>5587.4</v>
+        <v>7337.4</v>
       </c>
       <c r="D16" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A16-1,0)</f>
@@ -38358,7 +38361,7 @@
       </c>
       <c r="C17" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A17-1,0)</f>
-        <v>6541.7030278294396</v>
+        <v>8466.7030278294387</v>
       </c>
       <c r="D17" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A17-1,0)</f>
@@ -38391,7 +38394,7 @@
       </c>
       <c r="C18" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A18-1,0)</f>
-        <v>9384.1999999999989</v>
+        <v>11484.199999999999</v>
       </c>
       <c r="D18" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A18-1,0)</f>
@@ -38424,7 +38427,7 @@
       </c>
       <c r="C19" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A19-1,0)</f>
-        <v>11231.260196413397</v>
+        <v>13506.260196413396</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A19-1,0)</f>
@@ -38457,7 +38460,7 @@
       </c>
       <c r="C20" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A20-1,0)</f>
-        <v>16300.199999999999</v>
+        <v>18750.199999999997</v>
       </c>
       <c r="D20" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A20-1,0)</f>
@@ -38490,7 +38493,7 @@
       </c>
       <c r="C21" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A21-1,0)</f>
-        <v>20025.228674335827</v>
+        <v>22650.228674335827</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A21-1,0)</f>
@@ -38523,7 +38526,7 @@
       </c>
       <c r="C22" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A22-1,0)</f>
-        <v>24074.001357004952</v>
+        <v>26839.001357004952</v>
       </c>
       <c r="D22" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A22-1,0)</f>
@@ -38557,7 +38560,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -38597,21 +38600,21 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="N1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -38820,7 +38823,7 @@
         <v>70</v>
       </c>
       <c r="L6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M6">
         <v>70</v>
@@ -38831,7 +38834,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -38919,7 +38922,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -38966,7 +38969,7 @@
         <v>39</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>90</v>
@@ -38996,7 +38999,7 @@
         <v>120</v>
       </c>
       <c r="L10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M10">
         <v>90</v>
@@ -39142,7 +39145,7 @@
         <v>469</v>
       </c>
       <c r="B14">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -39154,7 +39157,7 @@
         <v>90</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>90</v>
@@ -39172,7 +39175,7 @@
         <v>110</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M14">
         <v>85</v>
@@ -39186,7 +39189,7 @@
         <v>229</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C15">
         <v>120</v>
@@ -39230,7 +39233,7 @@
         <v>275</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C16">
         <v>110</v>
@@ -39274,7 +39277,7 @@
         <v>379</v>
       </c>
       <c r="B17">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <v>120</v>
@@ -39315,10 +39318,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B18">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C18">
         <v>120</v>
@@ -39348,10 +39351,10 @@
         <v>110</v>
       </c>
       <c r="L18">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M18">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -39392,10 +39395,10 @@
         <v>105</v>
       </c>
       <c r="L19">
+        <v>120</v>
+      </c>
+      <c r="M19">
         <v>125</v>
-      </c>
-      <c r="M19">
-        <v>135</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -39406,7 +39409,7 @@
         <v>286</v>
       </c>
       <c r="B20">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C20">
         <v>130</v>
@@ -39436,10 +39439,10 @@
         <v>95</v>
       </c>
       <c r="L20">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M20">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -39450,7 +39453,7 @@
         <v>456</v>
       </c>
       <c r="B21">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C21">
         <v>130</v>
@@ -39480,10 +39483,10 @@
         <v>110</v>
       </c>
       <c r="L21">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M21">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -39494,7 +39497,7 @@
         <v>181</v>
       </c>
       <c r="B22">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C22">
         <v>160</v>
@@ -39524,10 +39527,10 @@
         <v>120</v>
       </c>
       <c r="L22">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="M22">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -39535,10 +39538,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B23">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C23">
         <v>175</v>
@@ -39568,10 +39571,10 @@
         <v>130</v>
       </c>
       <c r="L23">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M23">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N23">
         <v>3</v>
@@ -39582,7 +39585,7 @@
         <v>192</v>
       </c>
       <c r="B24">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C24">
         <v>190</v>
@@ -39612,10 +39615,10 @@
         <v>130</v>
       </c>
       <c r="L24">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M24">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N24">
         <v>4</v>
@@ -39623,10 +39626,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B25">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="C25">
         <v>200</v>
@@ -39713,18 +39716,18 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -39765,7 +39768,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B3" s="2">
         <v>101</v>
@@ -40339,7 +40342,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B17">
         <v>108</v>
@@ -40462,7 +40465,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B20" s="2">
         <v>97</v>
@@ -40626,7 +40629,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -40667,7 +40670,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -40954,7 +40957,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B32" s="3">
         <v>115</v>
@@ -41241,7 +41244,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B39" s="3">
         <v>104</v>
@@ -41282,7 +41285,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B40" s="3">
         <v>106</v>
@@ -41413,13 +41416,13 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -41845,7 +41848,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -41862,7 +41865,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -41871,13 +41874,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -41886,10 +41889,10 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="L1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -41901,7 +41904,7 @@
         <v>0.10717734625362932</v>
       </c>
       <c r="C2" s="1">
-        <f>(A2*20+A2*B2*2+30)*0.7</f>
+        <f>(A2*20+A2*B2*2+30+(MAX(0,A2-20)*50))*0.7</f>
         <v>35.15004828475508</v>
       </c>
       <c r="D2" s="1">
@@ -41950,7 +41953,7 @@
         <v>0.1148698354997035</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C26" si="1">(A3*20+A3*B3*2+30)*0.7</f>
+        <f t="shared" ref="C3:C66" si="1">(A3*20+A3*B3*2+30+(MAX(0,A3-20)*50))*0.7</f>
         <v>49.321635539399168</v>
       </c>
       <c r="D3" s="1">
@@ -42882,7 +42885,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>386.40405591942681</v>
+        <v>421.40405591942681</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
@@ -42931,7 +42934,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>404.75196373356346</v>
+        <v>474.75196373356346</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
@@ -42980,7 +42983,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>423.25714004388249</v>
+        <v>528.25714004388249</v>
       </c>
       <c r="D24" s="1">
         <f>(5+A24*2.5+10*B24)*MIN(1,0.8+A24*0.015)</f>
@@ -43029,7 +43032,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>441.93418632078766</v>
+        <v>581.9341863207876</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
@@ -43078,7 +43081,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>460.79898987322332</v>
+        <v>635.79898987322326</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
@@ -43126,8 +43129,8 @@
         <v>2.6062866266041591</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ref="C27:C90" si="7">(A27*20+A27*B27*2+30)*0.7</f>
-        <v>479.86883320839132</v>
+        <f t="shared" si="1"/>
+        <v>689.86883320839138</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
@@ -43175,8 +43178,8 @@
         <v>2.6498019170849885</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="7"/>
-        <v>499.16251246581254</v>
+        <f t="shared" si="1"/>
+        <v>744.1625124658126</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
@@ -43224,11 +43227,11 @@
         <v>2.6964404506368993</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="7"/>
-        <v>518.70046566496637</v>
+        <f t="shared" si="1"/>
+        <v>798.70046566496649</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:D34" si="8">(5+A29*2.5+10*B29)</f>
+        <f t="shared" ref="D29:D34" si="7">(5+A29*2.5+10*B29)</f>
         <v>101.96440450636899</v>
       </c>
       <c r="E29" s="1">
@@ -43273,11 +43276,11 @@
         <v>2.7464263932294459</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>853.50491156511544</v>
+      </c>
+      <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>538.50491156511544</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="8"/>
         <v>104.96426393229446</v>
       </c>
       <c r="E30" s="1">
@@ -43322,11 +43325,11 @@
         <v>6.8</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>1076.5999999999999</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" si="7"/>
-        <v>726.59999999999991</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="E31" s="1">
@@ -43371,11 +43374,11 @@
         <v>6.8574187700290343</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>1137.6119746192601</v>
+      </c>
+      <c r="D32" s="1">
         <f t="shared" si="7"/>
-        <v>752.61197461925997</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="8"/>
         <v>151.07418770029034</v>
       </c>
       <c r="E32" s="1">
@@ -43420,11 +43423,11 @@
         <v>6.9189586839976283</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>1198.9693490430936</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="7"/>
-        <v>778.96934904309376</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="8"/>
         <v>154.1895868399763</v>
       </c>
       <c r="E33" s="1">
@@ -43469,11 +43472,11 @@
         <v>6.9849155306759325</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>1260.7030975172279</v>
+      </c>
+      <c r="D34" s="1">
         <f t="shared" si="7"/>
-        <v>805.703097517228</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="8"/>
         <v>157.34915530675931</v>
       </c>
       <c r="E34" s="1">
@@ -43518,11 +43521,11 @@
         <v>7.0556063286183157</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="7"/>
-        <v>832.84686124223185</v>
+        <f t="shared" si="1"/>
+        <v>1322.8468612422319</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D66" si="9">(5+A35*2.5+10*B35)*MIN(A35/20*0.4+0.6,1)</f>
+        <f t="shared" ref="D35:D66" si="8">(5+A35*2.5+10*B35)*MIN(A35/20*0.4+0.6,1)</f>
         <v>160.55606328618316</v>
       </c>
       <c r="E35" s="1">
@@ -43567,11 +43570,11 @@
         <v>7.1313708498984756</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="7"/>
-        <v>860.43717164502527</v>
+        <f t="shared" si="1"/>
+        <v>1385.4371716450253</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>163.81370849898474</v>
       </c>
       <c r="E36" s="1">
@@ -43616,11 +43619,11 @@
         <v>7.2125732532083182</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="7"/>
-        <v>888.51369196169912</v>
+        <f t="shared" si="1"/>
+        <v>1448.5136919616991</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>167.12573253208319</v>
       </c>
       <c r="E37" s="1">
@@ -43665,11 +43668,11 @@
         <v>7.2996038341699769</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="7"/>
-        <v>917.11947861000476</v>
+        <f t="shared" si="1"/>
+        <v>1512.1194786100048</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>170.49603834169977</v>
       </c>
       <c r="E38" s="1">
@@ -43714,11 +43717,11 @@
         <v>7.3928809012737986</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="7"/>
-        <v>946.30126394776607</v>
+        <f t="shared" si="1"/>
+        <v>1576.3012639477661</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>173.92880901273799</v>
       </c>
       <c r="E39" s="1">
@@ -43763,11 +43766,11 @@
         <v>7.4928527864588919</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="7"/>
-        <v>976.10976214065533</v>
+        <f t="shared" si="1"/>
+        <v>1641.1097621406554</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>177.42852786458892</v>
       </c>
       <c r="E40" s="1">
@@ -43812,11 +43815,11 @@
         <v>13.6</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="7"/>
-        <v>1342.6</v>
+        <f t="shared" si="1"/>
+        <v>2042.6</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>241</v>
       </c>
       <c r="E41" s="1">
@@ -43861,11 +43864,11 @@
         <v>13.714837540058069</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="7"/>
-        <v>1382.2316747993329</v>
+        <f t="shared" si="1"/>
+        <v>2117.2316747993327</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>244.64837540058068</v>
       </c>
       <c r="E42" s="1">
@@ -43910,11 +43913,11 @@
         <v>13.837917367995257</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="7"/>
-        <v>1422.6695412381212</v>
+        <f t="shared" si="1"/>
+        <v>2192.6695412381209</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>248.37917367995257</v>
       </c>
       <c r="E43" s="1">
@@ -43959,11 +43962,11 @@
         <v>13.969831061351867</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="7"/>
-        <v>1463.9838298933826</v>
+        <f t="shared" si="1"/>
+        <v>2268.9838298933823</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>252.19831061351866</v>
       </c>
       <c r="E44" s="1">
@@ -44008,11 +44011,11 @@
         <v>14.111212657236631</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="7"/>
-        <v>1506.2506996857765</v>
+        <f t="shared" si="1"/>
+        <v>2346.2506996857765</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>256.11212657236632</v>
       </c>
       <c r="E45" s="1">
@@ -44057,11 +44060,11 @@
         <v>14.262741699796951</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="7"/>
-        <v>1549.5527270872078</v>
+        <f t="shared" si="1"/>
+        <v>2424.5527270872076</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>260.12741699796948</v>
       </c>
       <c r="E46" s="1">
@@ -44106,11 +44109,11 @@
         <v>14.425146506416635</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="7"/>
-        <v>1593.9794350132313</v>
+        <f t="shared" si="1"/>
+        <v>2503.9794350132311</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>264.25146506416638</v>
       </c>
       <c r="E47" s="1">
@@ -44155,11 +44158,11 @@
         <v>14.599207668339954</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="7"/>
-        <v>1639.6278645767688</v>
+        <f t="shared" si="1"/>
+        <v>2584.6278645767688</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>268.49207668339955</v>
       </c>
       <c r="E48" s="1">
@@ -44204,11 +44207,11 @@
         <v>14.785761802547597</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="7"/>
-        <v>1686.6031931311984</v>
+        <f t="shared" si="1"/>
+        <v>2666.6031931311982</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>272.85761802547597</v>
       </c>
       <c r="E49" s="1">
@@ -44253,11 +44256,11 @@
         <v>14.985705572917784</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="7"/>
-        <v>1735.0194023021597</v>
+        <f t="shared" si="1"/>
+        <v>2750.0194023021595</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>277.35705572917783</v>
       </c>
       <c r="E50" s="1">
@@ -44302,11 +44305,11 @@
         <v>15.2</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="7"/>
-        <v>1785</v>
+        <f t="shared" si="1"/>
+        <v>2835</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>282</v>
       </c>
       <c r="E51" s="1">
@@ -44351,11 +44354,11 @@
         <v>15.429675080116137</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="7"/>
-        <v>1836.678800720292</v>
+        <f t="shared" si="1"/>
+        <v>2921.6788007202917</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>286.79675080116135</v>
       </c>
       <c r="E52" s="1">
@@ -44400,11 +44403,11 @@
         <v>15.675834735990513</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="7"/>
-        <v>1890.200768780109</v>
+        <f t="shared" si="1"/>
+        <v>3010.2007687801092</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>291.75834735990514</v>
       </c>
       <c r="E53" s="1">
@@ -44449,11 +44452,11 @@
         <v>15.93966212270373</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="7"/>
-        <v>1945.7229295046166</v>
+        <f t="shared" si="1"/>
+        <v>3100.7229295046168</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>296.89662122703731</v>
       </c>
       <c r="E54" s="1">
@@ -44498,11 +44501,11 @@
         <v>16.222425314473263</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="7"/>
-        <v>2003.4153537741784</v>
+        <f t="shared" si="1"/>
+        <v>3193.4153537741781</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>302.22425314473264</v>
       </c>
       <c r="E55" s="1">
@@ -44547,11 +44550,11 @@
         <v>16.525483399593902</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="7"/>
-        <v>2063.4622217687302</v>
+        <f t="shared" si="1"/>
+        <v>3288.4622217687302</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>307.75483399593901</v>
       </c>
       <c r="E56" s="1">
@@ -44596,11 +44599,11 @@
         <v>16.850293012833273</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="7"/>
-        <v>2126.0629722061285</v>
+        <f t="shared" si="1"/>
+        <v>3386.0629722061285</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>313.50293012833276</v>
       </c>
       <c r="E57" s="1">
@@ -44645,11 +44648,11 @@
         <v>17.198415336679908</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="7"/>
-        <v>2191.4335438670564</v>
+        <f t="shared" si="1"/>
+        <v>3486.4335438670564</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>319.48415336679909</v>
       </c>
       <c r="E58" s="1">
@@ -44694,11 +44697,11 @@
         <v>17.571523605095194</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="7"/>
-        <v>2259.8077167337296</v>
+        <f t="shared" si="1"/>
+        <v>3589.8077167337292</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>325.71523605095194</v>
       </c>
       <c r="E59" s="1">
@@ -44743,11 +44746,11 @@
         <v>17.971411145835571</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="7"/>
-        <v>2331.4385606460182</v>
+        <f t="shared" si="1"/>
+        <v>3696.4385606460182</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>332.21411145835572</v>
       </c>
       <c r="E60" s="1">
@@ -44792,11 +44795,11 @@
         <v>40.4</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="7"/>
-        <v>4254.5999999999995</v>
+        <f t="shared" si="1"/>
+        <v>5654.5999999999995</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>559</v>
       </c>
       <c r="E61" s="1">
@@ -44841,11 +44844,11 @@
         <v>40.859350160232275</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="7"/>
-        <v>4364.3885036838365</v>
+        <f t="shared" si="1"/>
+        <v>5799.3885036838365</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>566.0935016023227</v>
       </c>
       <c r="E62" s="1">
@@ -44890,11 +44893,11 @@
         <v>41.351669471981019</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="7"/>
-        <v>4478.3249101679521</v>
+        <f t="shared" si="1"/>
+        <v>5948.3249101679512</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>573.51669471981018</v>
       </c>
       <c r="E63" s="1">
@@ -44939,11 +44942,11 @@
         <v>41.87932424540746</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="7"/>
-        <v>4596.7563984449371</v>
+        <f t="shared" si="1"/>
+        <v>6101.7563984449371</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>581.29324245407463</v>
       </c>
       <c r="E64" s="1">
@@ -44988,11 +44991,11 @@
         <v>42.444850628946519</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="7"/>
-        <v>4720.0586163536082</v>
+        <f t="shared" si="1"/>
+        <v>6260.0586163536072</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>589.44850628946517</v>
       </c>
       <c r="E65" s="1">
@@ -45037,11 +45040,11 @@
         <v>43.050966799187805</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="7"/>
-        <v>4848.6379787260903</v>
+        <f t="shared" si="1"/>
+        <v>6423.6379787260894</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>598.00966799187802</v>
       </c>
       <c r="E66" s="1">
@@ -45082,12 +45085,12 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B100" si="10">FLOOR(A67/20,1)*FLOOR(A67/20,1)*2+FLOOR(A67/30,1)*FLOOR(A67/30,1)*4+POWER(2,A67/10)/10</f>
+        <f t="shared" ref="B67:B100" si="9">FLOOR(A67/20,1)*FLOOR(A67/20,1)*2+FLOOR(A67/30,1)*FLOOR(A67/30,1)*4+POWER(2,A67/10)/10</f>
         <v>43.700586025666546</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="7"/>
-        <v>4982.9341487715883</v>
+        <f t="shared" ref="C67:C100" si="10">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
+        <v>6592.9341487715883</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" ref="D67:D100" si="11">(5+A67*2.5+10*B67)*MIN(A67/20*0.4+0.6,1)</f>
@@ -45131,12 +45134,12 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
+        <f t="shared" si="9"/>
+        <v>44.396830673359815</v>
+      </c>
+      <c r="C68" s="1">
         <f t="shared" si="10"/>
-        <v>44.396830673359815</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" si="7"/>
-        <v>5123.4227171611501</v>
+        <v>6768.4227171611501</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="11"/>
@@ -45180,12 +45183,12 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
+        <f t="shared" si="9"/>
+        <v>45.143047210190389</v>
+      </c>
+      <c r="C69" s="1">
         <f t="shared" si="10"/>
-        <v>45.143047210190389</v>
-      </c>
-      <c r="C69" s="1">
-        <f t="shared" si="7"/>
-        <v>5270.6180944101243</v>
+        <v>6950.6180944101243</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="11"/>
@@ -45229,12 +45232,12 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
+        <f t="shared" si="9"/>
+        <v>45.942822291671135</v>
+      </c>
+      <c r="C70" s="1">
         <f t="shared" si="10"/>
-        <v>45.942822291671135</v>
-      </c>
-      <c r="C70" s="1">
-        <f t="shared" si="7"/>
-        <v>5425.0766333754309</v>
+        <v>7140.0766333754309</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="11"/>
@@ -45278,12 +45281,12 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
+        <f t="shared" si="9"/>
+        <v>46.8</v>
+      </c>
+      <c r="C71" s="1">
         <f t="shared" si="10"/>
-        <v>46.8</v>
-      </c>
-      <c r="C71" s="1">
-        <f t="shared" si="7"/>
-        <v>5587.4</v>
+        <v>7337.4</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="11"/>
@@ -45327,12 +45330,12 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
+        <f t="shared" si="9"/>
+        <v>47.718700320464549</v>
+      </c>
+      <c r="C72" s="1">
         <f t="shared" si="10"/>
-        <v>47.718700320464549</v>
-      </c>
-      <c r="C72" s="1">
-        <f t="shared" si="7"/>
-        <v>5758.2388118541758</v>
+        <v>7543.2388118541758</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="11"/>
@@ -45376,12 +45379,12 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
+        <f t="shared" si="9"/>
+        <v>48.703338943962045</v>
+      </c>
+      <c r="C73" s="1">
         <f t="shared" si="10"/>
-        <v>48.703338943962045</v>
-      </c>
-      <c r="C73" s="1">
-        <f t="shared" si="7"/>
-        <v>5938.2965655513735</v>
+        <v>7758.2965655513735</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="11"/>
@@ -45425,12 +45428,12 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
+        <f t="shared" si="9"/>
+        <v>49.758648490814927</v>
+      </c>
+      <c r="C74" s="1">
         <f t="shared" si="10"/>
-        <v>49.758648490814927</v>
-      </c>
-      <c r="C74" s="1">
-        <f t="shared" si="7"/>
-        <v>6128.3338757612855</v>
+        <v>7983.3338757612846</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="11"/>
@@ -45474,12 +45477,12 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
+        <f t="shared" si="9"/>
+        <v>50.889701257893044</v>
+      </c>
+      <c r="C75" s="1">
         <f t="shared" si="10"/>
-        <v>50.889701257893044</v>
-      </c>
-      <c r="C75" s="1">
-        <f t="shared" si="7"/>
-        <v>6329.1730503177196</v>
+        <v>8219.1730503177187</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="11"/>
@@ -45523,12 +45526,12 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
+        <f t="shared" si="9"/>
+        <v>52.101933598375609</v>
+      </c>
+      <c r="C76" s="1">
         <f t="shared" si="10"/>
-        <v>52.101933598375609</v>
-      </c>
-      <c r="C76" s="1">
-        <f t="shared" si="7"/>
-        <v>6541.7030278294396</v>
+        <v>8466.7030278294387</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="11"/>
@@ -45572,12 +45575,12 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
+        <f t="shared" si="9"/>
+        <v>53.401172051333091</v>
+      </c>
+      <c r="C77" s="1">
         <f t="shared" si="10"/>
-        <v>53.401172051333091</v>
-      </c>
-      <c r="C77" s="1">
-        <f t="shared" si="7"/>
-        <v>6766.8847062618406</v>
+        <v>8726.8847062618406</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="11"/>
@@ -45621,12 +45624,12 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
+        <f t="shared" si="9"/>
+        <v>54.793661346719624</v>
+      </c>
+      <c r="C78" s="1">
         <f t="shared" si="10"/>
-        <v>54.793661346719624</v>
-      </c>
-      <c r="C78" s="1">
-        <f t="shared" si="7"/>
-        <v>7005.7566931763749</v>
+        <v>9000.756693176374</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="11"/>
@@ -45670,12 +45673,12 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
+        <f t="shared" si="9"/>
+        <v>56.286094420380778</v>
+      </c>
+      <c r="C79" s="1">
         <f t="shared" si="10"/>
-        <v>56.286094420380778</v>
-      </c>
-      <c r="C79" s="1">
-        <f t="shared" si="7"/>
-        <v>7259.4415107055802</v>
+        <v>9289.4415107055811</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="11"/>
@@ -45719,12 +45722,12 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
+        <f t="shared" si="9"/>
+        <v>57.885644583342263</v>
+      </c>
+      <c r="C80" s="1">
         <f t="shared" si="10"/>
-        <v>57.885644583342263</v>
-      </c>
-      <c r="C80" s="1">
-        <f t="shared" si="7"/>
-        <v>7529.1522909176538</v>
+        <v>9594.1522909176529</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="11"/>
@@ -45768,12 +45771,12 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
+        <f t="shared" si="9"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C81" s="1">
         <f t="shared" si="10"/>
-        <v>73.599999999999994</v>
-      </c>
-      <c r="C81" s="1">
-        <f t="shared" si="7"/>
-        <v>9384.1999999999989</v>
+        <v>11484.199999999999</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="11"/>
@@ -45817,12 +45820,12 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
+        <f t="shared" si="9"/>
+        <v>75.437400640929098</v>
+      </c>
+      <c r="C82" s="1">
         <f t="shared" si="10"/>
-        <v>75.437400640929098</v>
-      </c>
-      <c r="C82" s="1">
-        <f t="shared" si="7"/>
-        <v>9709.6012326813598</v>
+        <v>11844.60123268136</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="11"/>
@@ -45866,12 +45869,12 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
+        <f t="shared" si="9"/>
+        <v>77.406677887924062</v>
+      </c>
+      <c r="C83" s="1">
         <f t="shared" si="10"/>
-        <v>77.406677887924062</v>
-      </c>
-      <c r="C83" s="1">
-        <f t="shared" si="7"/>
-        <v>10055.286621533682</v>
+        <v>12225.286621533684</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="11"/>
@@ -45915,12 +45918,12 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
+        <f t="shared" si="9"/>
+        <v>79.517296981629883</v>
+      </c>
+      <c r="C84" s="1">
         <f t="shared" si="10"/>
-        <v>79.517296981629883</v>
-      </c>
-      <c r="C84" s="1">
-        <f t="shared" si="7"/>
-        <v>10422.909909265392</v>
+        <v>12627.909909265391</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="11"/>
@@ -45964,12 +45967,12 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
+        <f t="shared" si="9"/>
+        <v>81.779402515786089</v>
+      </c>
+      <c r="C85" s="1">
         <f t="shared" si="10"/>
-        <v>81.779402515786089</v>
-      </c>
-      <c r="C85" s="1">
-        <f t="shared" si="7"/>
-        <v>10814.257735856443</v>
+        <v>13054.257735856443</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="11"/>
@@ -46013,12 +46016,12 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
+        <f t="shared" si="9"/>
+        <v>84.203867196751233</v>
+      </c>
+      <c r="C86" s="1">
         <f t="shared" si="10"/>
-        <v>84.203867196751233</v>
-      </c>
-      <c r="C86" s="1">
-        <f t="shared" si="7"/>
-        <v>11231.260196413397</v>
+        <v>13506.260196413396</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="11"/>
@@ -46062,12 +46065,12 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
+        <f t="shared" si="9"/>
+        <v>86.802344102666183</v>
+      </c>
+      <c r="C87" s="1">
         <f t="shared" si="10"/>
-        <v>86.802344102666183</v>
-      </c>
-      <c r="C87" s="1">
-        <f t="shared" si="7"/>
-        <v>11676.002229961008</v>
+        <v>13986.002229961008</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="11"/>
@@ -46111,12 +46114,12 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
+        <f t="shared" si="9"/>
+        <v>89.587322693439219</v>
+      </c>
+      <c r="C88" s="1">
         <f t="shared" si="10"/>
-        <v>89.587322693439219</v>
-      </c>
-      <c r="C88" s="1">
-        <f t="shared" si="7"/>
-        <v>12150.735904060897</v>
+        <v>14495.735904060897</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="11"/>
@@ -46160,12 +46163,12 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
+        <f t="shared" si="9"/>
+        <v>92.572188840761555</v>
+      </c>
+      <c r="C89" s="1">
         <f t="shared" si="10"/>
-        <v>92.572188840761555</v>
-      </c>
-      <c r="C89" s="1">
-        <f t="shared" si="7"/>
-        <v>12657.893665181822</v>
+        <v>15037.893665181822</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="11"/>
@@ -46209,12 +46212,12 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
+        <f t="shared" si="9"/>
+        <v>95.771289166684539</v>
+      </c>
+      <c r="C90" s="1">
         <f t="shared" si="10"/>
-        <v>95.771289166684539</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" si="7"/>
-        <v>13200.102630168893</v>
+        <v>15615.102630168891</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="11"/>
@@ -46258,12 +46261,12 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
+        <f t="shared" si="9"/>
+        <v>119.2</v>
+      </c>
+      <c r="C91" s="1">
         <f t="shared" si="10"/>
-        <v>119.2</v>
-      </c>
-      <c r="C91" s="1">
-        <f t="shared" ref="C91:C100" si="16">(A91*20+A91*B91*2+30)*0.7</f>
-        <v>16300.199999999999</v>
+        <v>18750.199999999997</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="11"/>
@@ -46307,12 +46310,12 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
+        <f t="shared" si="9"/>
+        <v>122.87480128185821</v>
+      </c>
+      <c r="C92" s="1">
         <f t="shared" si="10"/>
-        <v>122.87480128185821</v>
-      </c>
-      <c r="C92" s="1">
-        <f t="shared" si="16"/>
-        <v>16949.249683308735</v>
+        <v>19434.249683308735</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="11"/>
@@ -46356,12 +46359,12 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
+        <f t="shared" si="9"/>
+        <v>126.81335577584814</v>
+      </c>
+      <c r="C93" s="1">
         <f t="shared" si="10"/>
-        <v>126.81335577584814</v>
-      </c>
-      <c r="C93" s="1">
-        <f t="shared" si="16"/>
-        <v>17642.560223929238</v>
+        <v>20162.560223929238</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="11"/>
@@ -46405,12 +46408,12 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
+        <f t="shared" si="9"/>
+        <v>131.03459396325971</v>
+      </c>
+      <c r="C94" s="1">
         <f t="shared" si="10"/>
-        <v>131.03459396325971</v>
-      </c>
-      <c r="C94" s="1">
-        <f t="shared" si="16"/>
-        <v>18383.704134016414</v>
+        <v>20938.704134016414</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="11"/>
@@ -46454,12 +46457,12 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
+        <f t="shared" si="9"/>
+        <v>135.55880503157218</v>
+      </c>
+      <c r="C95" s="1">
         <f t="shared" si="10"/>
-        <v>135.55880503157218</v>
-      </c>
-      <c r="C95" s="1">
-        <f t="shared" si="16"/>
-        <v>19176.538742154899</v>
+        <v>21766.538742154899</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="11"/>
@@ -46503,12 +46506,12 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
+        <f t="shared" si="9"/>
+        <v>140.40773439350247</v>
+      </c>
+      <c r="C96" s="1">
         <f t="shared" si="10"/>
-        <v>140.40773439350247</v>
-      </c>
-      <c r="C96" s="1">
-        <f t="shared" si="16"/>
-        <v>20025.228674335827</v>
+        <v>22650.228674335827</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="11"/>
@@ -46552,12 +46555,12 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
+        <f t="shared" si="9"/>
+        <v>145.60468820533237</v>
+      </c>
+      <c r="C97" s="1">
         <f t="shared" si="10"/>
-        <v>145.60468820533237</v>
-      </c>
-      <c r="C97" s="1">
-        <f t="shared" si="16"/>
-        <v>20934.27009479667</v>
+        <v>23594.270094796666</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="11"/>
@@ -46601,12 +46604,12 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
+        <f t="shared" si="9"/>
+        <v>151.17464538687844</v>
+      </c>
+      <c r="C98" s="1">
         <f t="shared" si="10"/>
-        <v>151.17464538687844</v>
-      </c>
-      <c r="C98" s="1">
-        <f t="shared" si="16"/>
-        <v>21908.516843538091</v>
+        <v>24603.516843538095</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="11"/>
@@ -46650,12 +46653,12 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
+        <f t="shared" si="9"/>
+        <v>157.14437768152311</v>
+      </c>
+      <c r="C99" s="1">
         <f t="shared" si="10"/>
-        <v>157.14437768152311</v>
-      </c>
-      <c r="C99" s="1">
-        <f t="shared" si="16"/>
-        <v>22953.208617904969</v>
+        <v>25683.208617904969</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="11"/>
@@ -46699,12 +46702,12 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
+        <f t="shared" si="9"/>
+        <v>163.54257833336908</v>
+      </c>
+      <c r="C100" s="1">
         <f t="shared" si="10"/>
-        <v>163.54257833336908</v>
-      </c>
-      <c r="C100" s="1">
-        <f t="shared" si="16"/>
-        <v>24074.001357004952</v>
+        <v>26839.001357004952</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="11"/>
@@ -46764,21 +46767,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B2">
         <v>0.05</v>
@@ -46913,7 +46916,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B11">
         <v>7.4999999999999997E-2</v>
@@ -46952,25 +46955,25 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="O1" t="s">
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="Q1" t="s">
         <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
@@ -53311,7 +53314,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.4">
       <c r="L106" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -53334,7 +53337,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="G1" s="8" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -53360,52 +53363,52 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>1055</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
@@ -53413,7 +53416,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -53422,10 +53425,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F3" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -53472,7 +53475,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C4">
         <v>1.6</v>
@@ -53481,10 +53484,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -53531,7 +53534,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C5">
         <v>1.1499999999999999</v>
@@ -53540,10 +53543,10 @@
         <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="F5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -53590,7 +53593,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C6">
         <v>1.1000000000000001</v>
@@ -53599,10 +53602,10 @@
         <v>1.8</v>
       </c>
       <c r="E6" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F6" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -53649,7 +53652,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C7">
         <v>1.2</v>
@@ -53658,10 +53661,10 @@
         <v>1.6</v>
       </c>
       <c r="E7" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F7" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -53708,7 +53711,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C8">
         <v>1.3</v>
@@ -53717,10 +53720,10 @@
         <v>1.3</v>
       </c>
       <c r="E8" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F8" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -53767,7 +53770,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C9">
         <v>1.4</v>
@@ -53776,10 +53779,10 @@
         <v>1.4</v>
       </c>
       <c r="E9" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F9" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -53826,7 +53829,7 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -53835,10 +53838,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="F10" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -53907,7 +53910,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -53915,7 +53918,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -53923,7 +53926,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -53931,7 +53934,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -53939,7 +53942,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -53947,7 +53950,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -53955,7 +53958,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -53963,7 +53966,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -53971,7 +53974,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -53979,7 +53982,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -53987,7 +53990,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -53995,7 +53998,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -54003,7 +54006,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -54011,7 +54014,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD0B7D-9022-4243-9A79-B5886DE31F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB16E1-E860-4E85-AC3B-A5B8F941D591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4106" yWindow="3300" windowWidth="27085" windowHeight="14100" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="3566" yWindow="3626" windowWidth="29220" windowHeight="11443" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1130">
   <si>
     <t>Id</t>
   </si>
@@ -3423,6 +3423,24 @@
   </si>
   <si>
     <t>Buff,Brute</t>
+  </si>
+  <si>
+    <t>AiLooter</t>
+  </si>
+  <si>
+    <t>AiLooterAssist</t>
+  </si>
+  <si>
+    <t>AiAssistLooter</t>
+  </si>
+  <si>
+    <t>AiAggressiveSense</t>
+  </si>
+  <si>
+    <t>AiStandardBoss</t>
+  </si>
+  <si>
+    <t>AiAggressiveActiveSense</t>
   </si>
 </sst>
 </file>
@@ -3865,10 +3883,10 @@
   <dimension ref="A1:AJ304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K170" sqref="K170"/>
+      <selection pane="bottomRight" activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3888,18 +3906,18 @@
     <col min="16" max="16" width="8.07421875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.3828125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.921875" customWidth="1"/>
+    <col min="20" max="20" width="7.921875" customWidth="1"/>
     <col min="21" max="21" width="7.765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.921875" customWidth="1"/>
     <col min="25" max="25" width="9.921875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.765625" customWidth="1"/>
     <col min="28" max="28" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.4609375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.15234375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.53515625" customWidth="1"/>
+    <col min="30" max="30" width="21.15234375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19.3828125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="22" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.3828125" bestFit="1" customWidth="1"/>
@@ -4214,7 +4232,7 @@
         <v>39</v>
       </c>
       <c r="AD3" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE3">
         <v>288</v>
@@ -4321,7 +4339,7 @@
         <v>39</v>
       </c>
       <c r="AD4" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE4">
         <v>288</v>
@@ -4963,7 +4981,7 @@
         <v>39</v>
       </c>
       <c r="AD10" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE10">
         <v>288</v>
@@ -5070,7 +5088,7 @@
         <v>48</v>
       </c>
       <c r="AD11" t="s">
-        <v>74</v>
+        <v>1125</v>
       </c>
       <c r="AE11">
         <v>480</v>
@@ -5605,7 +5623,7 @@
         <v>39</v>
       </c>
       <c r="AD16" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE16">
         <v>288</v>
@@ -6033,7 +6051,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE20">
         <v>576</v>
@@ -6354,7 +6372,7 @@
         <v>120</v>
       </c>
       <c r="AD23" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE23">
         <v>264</v>
@@ -6461,7 +6479,7 @@
         <v>275</v>
       </c>
       <c r="AD24" t="s">
-        <v>74</v>
+        <v>1125</v>
       </c>
       <c r="AE24">
         <v>360</v>
@@ -6675,7 +6693,7 @@
         <v>130</v>
       </c>
       <c r="AD26" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE26">
         <v>360</v>
@@ -7638,7 +7656,7 @@
         <v>41</v>
       </c>
       <c r="AD35" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE35">
         <v>384</v>
@@ -7745,7 +7763,7 @@
         <v>41</v>
       </c>
       <c r="AD36" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE36">
         <v>384</v>
@@ -7852,7 +7870,7 @@
         <v>41</v>
       </c>
       <c r="AD37" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE37">
         <v>384</v>
@@ -7959,7 +7977,7 @@
         <v>41</v>
       </c>
       <c r="AD38" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE38">
         <v>384</v>
@@ -8066,7 +8084,7 @@
         <v>41</v>
       </c>
       <c r="AD39" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE39">
         <v>384</v>
@@ -8280,7 +8298,7 @@
         <v>181</v>
       </c>
       <c r="AD41" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE41">
         <v>324</v>
@@ -8601,7 +8619,7 @@
         <v>192</v>
       </c>
       <c r="AD44" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE44">
         <v>603</v>
@@ -9457,7 +9475,7 @@
         <v>221</v>
       </c>
       <c r="AD52" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE52">
         <v>336</v>
@@ -9564,7 +9582,7 @@
         <v>225</v>
       </c>
       <c r="AD53" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE53">
         <v>288</v>
@@ -9671,7 +9689,7 @@
         <v>231</v>
       </c>
       <c r="AD54" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE54">
         <v>312</v>
@@ -9778,7 +9796,7 @@
         <v>236</v>
       </c>
       <c r="AD55" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE55">
         <v>672</v>
@@ -9885,7 +9903,7 @@
         <v>1094</v>
       </c>
       <c r="AD56" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE56">
         <v>360</v>
@@ -10206,7 +10224,7 @@
         <v>39</v>
       </c>
       <c r="AD59" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE59">
         <v>288</v>
@@ -10634,7 +10652,7 @@
         <v>263</v>
       </c>
       <c r="AD63" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE63">
         <v>336</v>
@@ -10848,7 +10866,7 @@
         <v>41</v>
       </c>
       <c r="AD65" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE65">
         <v>552</v>
@@ -10955,7 +10973,7 @@
         <v>275</v>
       </c>
       <c r="AD66" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE66">
         <v>360</v>
@@ -11062,7 +11080,7 @@
         <v>279</v>
       </c>
       <c r="AD67" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE67">
         <v>408</v>
@@ -11169,7 +11187,7 @@
         <v>48</v>
       </c>
       <c r="AD68" t="s">
-        <v>74</v>
+        <v>1125</v>
       </c>
       <c r="AE68">
         <v>480</v>
@@ -11276,7 +11294,7 @@
         <v>1094</v>
       </c>
       <c r="AD69" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE69">
         <v>504</v>
@@ -11383,7 +11401,7 @@
         <v>290</v>
       </c>
       <c r="AD70" t="s">
-        <v>42</v>
+        <v>1126</v>
       </c>
       <c r="AE70">
         <v>720</v>
@@ -11490,7 +11508,7 @@
         <v>120</v>
       </c>
       <c r="AD71" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE71">
         <v>216</v>
@@ -11597,7 +11615,7 @@
         <v>48</v>
       </c>
       <c r="AD72" t="s">
-        <v>1103</v>
+        <v>1127</v>
       </c>
       <c r="AE72">
         <v>384</v>
@@ -11704,7 +11722,7 @@
         <v>48</v>
       </c>
       <c r="AD73" t="s">
-        <v>74</v>
+        <v>1125</v>
       </c>
       <c r="AE73">
         <v>432</v>
@@ -11811,7 +11829,7 @@
         <v>219</v>
       </c>
       <c r="AD74" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE74">
         <v>192</v>
@@ -11918,7 +11936,7 @@
         <v>48</v>
       </c>
       <c r="AD75" t="s">
-        <v>74</v>
+        <v>1125</v>
       </c>
       <c r="AE75">
         <v>180</v>
@@ -12025,7 +12043,7 @@
         <v>48</v>
       </c>
       <c r="AD76" t="s">
-        <v>74</v>
+        <v>1125</v>
       </c>
       <c r="AE76">
         <v>144</v>
@@ -12132,7 +12150,7 @@
         <v>48</v>
       </c>
       <c r="AD77" t="s">
-        <v>74</v>
+        <v>1125</v>
       </c>
       <c r="AE77">
         <v>144</v>
@@ -12453,7 +12471,7 @@
         <v>290</v>
       </c>
       <c r="AD80" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE80">
         <v>624</v>
@@ -12560,7 +12578,7 @@
         <v>106</v>
       </c>
       <c r="AD81" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE81">
         <v>624</v>
@@ -13202,7 +13220,7 @@
         <v>41</v>
       </c>
       <c r="AD87" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE87">
         <v>180</v>
@@ -13309,7 +13327,7 @@
         <v>41</v>
       </c>
       <c r="AD88" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE88">
         <v>288</v>
@@ -13523,7 +13541,7 @@
         <v>279</v>
       </c>
       <c r="AD90" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE90">
         <v>324</v>
@@ -13737,7 +13755,7 @@
         <v>48</v>
       </c>
       <c r="AD92" t="s">
-        <v>74</v>
+        <v>1125</v>
       </c>
       <c r="AE92">
         <v>288</v>
@@ -13844,7 +13862,7 @@
         <v>106</v>
       </c>
       <c r="AD93" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE93">
         <v>288</v>
@@ -14486,7 +14504,7 @@
         <v>379</v>
       </c>
       <c r="AD99" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE99">
         <v>336</v>
@@ -14593,7 +14611,7 @@
         <v>379</v>
       </c>
       <c r="AD100" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE100">
         <v>336</v>
@@ -14807,7 +14825,7 @@
         <v>48</v>
       </c>
       <c r="AD102" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE102">
         <v>336</v>
@@ -14914,7 +14932,7 @@
         <v>48</v>
       </c>
       <c r="AD103" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE103">
         <v>216</v>
@@ -15021,7 +15039,7 @@
         <v>395</v>
       </c>
       <c r="AD104" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE104">
         <v>576</v>
@@ -15128,7 +15146,7 @@
         <v>290</v>
       </c>
       <c r="AD105" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE105">
         <v>288</v>
@@ -15342,7 +15360,7 @@
         <v>39</v>
       </c>
       <c r="AD107" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE107">
         <v>288</v>
@@ -15984,7 +16002,7 @@
         <v>120</v>
       </c>
       <c r="AD113" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE113">
         <v>168</v>
@@ -16091,7 +16109,7 @@
         <v>41</v>
       </c>
       <c r="AD114" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE114">
         <v>562</v>
@@ -16305,7 +16323,7 @@
         <v>286</v>
       </c>
       <c r="AD116" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE116">
         <v>240</v>
@@ -16412,7 +16430,7 @@
         <v>286</v>
       </c>
       <c r="AD117" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE117">
         <v>240</v>
@@ -16519,7 +16537,7 @@
         <v>286</v>
       </c>
       <c r="AD118" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE118">
         <v>240</v>
@@ -16626,7 +16644,7 @@
         <v>120</v>
       </c>
       <c r="AD119" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE119">
         <v>240</v>
@@ -16840,7 +16858,7 @@
         <v>279</v>
       </c>
       <c r="AD121" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE121">
         <v>624</v>
@@ -16947,7 +16965,7 @@
         <v>275</v>
       </c>
       <c r="AD122" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE122">
         <v>540</v>
@@ -17161,7 +17179,7 @@
         <v>279</v>
       </c>
       <c r="AD124" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE124">
         <v>480</v>
@@ -17268,7 +17286,7 @@
         <v>188</v>
       </c>
       <c r="AD125" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE125">
         <v>864</v>
@@ -17375,7 +17393,7 @@
         <v>456</v>
       </c>
       <c r="AD126" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE126">
         <v>192</v>
@@ -17696,7 +17714,7 @@
         <v>469</v>
       </c>
       <c r="AD129" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE129">
         <v>288</v>
@@ -17803,7 +17821,7 @@
         <v>41</v>
       </c>
       <c r="AD130" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE130">
         <v>288</v>
@@ -18017,7 +18035,7 @@
         <v>219</v>
       </c>
       <c r="AD132" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE132">
         <v>480</v>
@@ -18338,7 +18356,7 @@
         <v>41</v>
       </c>
       <c r="AD135" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE135">
         <v>480</v>
@@ -18445,7 +18463,7 @@
         <v>275</v>
       </c>
       <c r="AD136" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE136">
         <v>144</v>
@@ -18552,7 +18570,7 @@
         <v>469</v>
       </c>
       <c r="AD137" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE137">
         <v>480</v>
@@ -18659,7 +18677,7 @@
         <v>507</v>
       </c>
       <c r="AD138" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE138">
         <v>288</v>
@@ -18766,7 +18784,7 @@
         <v>512</v>
       </c>
       <c r="AD139" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE139">
         <v>192</v>
@@ -18873,7 +18891,7 @@
         <v>516</v>
       </c>
       <c r="AD140" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE140">
         <v>576</v>
@@ -18980,7 +18998,7 @@
         <v>48</v>
       </c>
       <c r="AD141" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE141">
         <v>480</v>
@@ -19515,7 +19533,7 @@
         <v>469</v>
       </c>
       <c r="AD146" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE146">
         <v>672</v>
@@ -19836,7 +19854,7 @@
         <v>547</v>
       </c>
       <c r="AD149" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE149">
         <v>720</v>
@@ -20050,7 +20068,7 @@
         <v>547</v>
       </c>
       <c r="AD151" t="s">
-        <v>42</v>
+        <v>1128</v>
       </c>
       <c r="AE151">
         <v>1152</v>
@@ -20264,7 +20282,7 @@
         <v>558</v>
       </c>
       <c r="AD153" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE153">
         <v>288</v>
@@ -20371,7 +20389,7 @@
         <v>562</v>
       </c>
       <c r="AD154" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE154">
         <v>120</v>
@@ -20585,7 +20603,7 @@
         <v>507</v>
       </c>
       <c r="AD156" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE156">
         <v>216</v>
@@ -20799,7 +20817,7 @@
         <v>39</v>
       </c>
       <c r="AD158" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE158">
         <v>900</v>
@@ -20906,7 +20924,7 @@
         <v>41</v>
       </c>
       <c r="AD159" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE159">
         <v>468</v>
@@ -21013,7 +21031,7 @@
         <v>41</v>
       </c>
       <c r="AD160" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE160">
         <v>288</v>
@@ -21334,7 +21352,7 @@
         <v>286</v>
       </c>
       <c r="AD163" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE163">
         <v>540</v>
@@ -21441,7 +21459,7 @@
         <v>558</v>
       </c>
       <c r="AD164" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE164">
         <v>768</v>
@@ -21548,7 +21566,7 @@
         <v>558</v>
       </c>
       <c r="AD165" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE165">
         <v>768</v>
@@ -21655,7 +21673,7 @@
         <v>120</v>
       </c>
       <c r="AD166" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE166">
         <v>480</v>
@@ -21869,7 +21887,7 @@
         <v>1089</v>
       </c>
       <c r="AD168" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE168">
         <v>620</v>
@@ -21976,7 +21994,7 @@
         <v>41</v>
       </c>
       <c r="AD169" t="s">
-        <v>42</v>
+        <v>1128</v>
       </c>
       <c r="AE169">
         <v>312</v>
@@ -22083,7 +22101,7 @@
         <v>188</v>
       </c>
       <c r="AD170" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE170">
         <v>336</v>
@@ -22190,7 +22208,7 @@
         <v>120</v>
       </c>
       <c r="AD171" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE171">
         <v>768</v>
@@ -22297,7 +22315,7 @@
         <v>120</v>
       </c>
       <c r="AD172" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE172">
         <v>576</v>
@@ -22404,7 +22422,7 @@
         <v>48</v>
       </c>
       <c r="AD173" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE173">
         <v>720</v>
@@ -22618,7 +22636,7 @@
         <v>275</v>
       </c>
       <c r="AD175" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE175">
         <v>840</v>
@@ -22725,7 +22743,7 @@
         <v>130</v>
       </c>
       <c r="AD176" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE176">
         <v>1080</v>
@@ -22832,7 +22850,7 @@
         <v>181</v>
       </c>
       <c r="AD177" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE177">
         <v>240</v>
@@ -22939,7 +22957,7 @@
         <v>566</v>
       </c>
       <c r="AD178" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE178">
         <v>384</v>
@@ -23046,7 +23064,7 @@
         <v>641</v>
       </c>
       <c r="AD179" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE179">
         <v>216</v>
@@ -23153,7 +23171,7 @@
         <v>219</v>
       </c>
       <c r="AD180" t="s">
-        <v>99</v>
+        <v>1129</v>
       </c>
       <c r="AE180">
         <v>720</v>
@@ -23367,7 +23385,7 @@
         <v>41</v>
       </c>
       <c r="AD182" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE182">
         <v>192</v>
@@ -23581,7 +23599,7 @@
         <v>41</v>
       </c>
       <c r="AD184" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE184">
         <v>240</v>
@@ -23688,7 +23706,7 @@
         <v>41</v>
       </c>
       <c r="AD185" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE185">
         <v>288</v>
@@ -23795,7 +23813,7 @@
         <v>566</v>
       </c>
       <c r="AD186" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE186">
         <v>192</v>
@@ -23902,7 +23920,7 @@
         <v>507</v>
       </c>
       <c r="AD187" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE187">
         <v>480</v>
@@ -24223,7 +24241,7 @@
         <v>286</v>
       </c>
       <c r="AD190" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE190">
         <v>288</v>
@@ -24330,7 +24348,7 @@
         <v>41</v>
       </c>
       <c r="AD191" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE191">
         <v>432</v>
@@ -24437,7 +24455,7 @@
         <v>681</v>
       </c>
       <c r="AD192" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE192">
         <v>576</v>
@@ -24758,7 +24776,7 @@
         <v>41</v>
       </c>
       <c r="AD195" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE195">
         <v>480</v>
@@ -25186,7 +25204,7 @@
         <v>41</v>
       </c>
       <c r="AD199" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE199">
         <v>384</v>
@@ -25293,7 +25311,7 @@
         <v>286</v>
       </c>
       <c r="AD200" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE200">
         <v>384</v>
@@ -26149,7 +26167,7 @@
         <v>41</v>
       </c>
       <c r="AD208" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE208">
         <v>576</v>
@@ -26256,7 +26274,7 @@
         <v>456</v>
       </c>
       <c r="AD209" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE209">
         <v>360</v>
@@ -26470,7 +26488,7 @@
         <v>286</v>
       </c>
       <c r="AD211" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE211">
         <v>384</v>
@@ -26684,7 +26702,7 @@
         <v>746</v>
       </c>
       <c r="AD213" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE213">
         <v>384</v>
@@ -26791,7 +26809,7 @@
         <v>1116</v>
       </c>
       <c r="AD214" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE214">
         <v>168</v>
@@ -26898,7 +26916,7 @@
         <v>753</v>
       </c>
       <c r="AD215" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE215">
         <v>720</v>
@@ -27005,7 +27023,7 @@
         <v>507</v>
       </c>
       <c r="AD216" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE216">
         <v>240</v>
@@ -27112,7 +27130,7 @@
         <v>469</v>
       </c>
       <c r="AD217" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE217">
         <v>384</v>
@@ -27219,7 +27237,7 @@
         <v>763</v>
       </c>
       <c r="AD218" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE218">
         <v>269</v>
@@ -27326,7 +27344,7 @@
         <v>512</v>
       </c>
       <c r="AD219" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE219">
         <v>408</v>
@@ -27433,7 +27451,7 @@
         <v>1114</v>
       </c>
       <c r="AD220" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE220">
         <v>864</v>
@@ -27540,7 +27558,7 @@
         <v>1114</v>
       </c>
       <c r="AD221" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE221">
         <v>480</v>
@@ -27647,7 +27665,7 @@
         <v>286</v>
       </c>
       <c r="AD222" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE222">
         <v>336</v>
@@ -27754,7 +27772,7 @@
         <v>780</v>
       </c>
       <c r="AD223" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE223">
         <v>660</v>
@@ -27968,7 +27986,7 @@
         <v>192</v>
       </c>
       <c r="AD225" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE225">
         <v>288</v>
@@ -28075,7 +28093,7 @@
         <v>286</v>
       </c>
       <c r="AD226" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE226">
         <v>540</v>
@@ -28182,7 +28200,7 @@
         <v>286</v>
       </c>
       <c r="AD227" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE227">
         <v>900</v>
@@ -28289,7 +28307,7 @@
         <v>192</v>
       </c>
       <c r="AD228" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE228">
         <v>1920</v>
@@ -28396,7 +28414,7 @@
         <v>456</v>
       </c>
       <c r="AD229" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE229">
         <v>960</v>
@@ -28503,7 +28521,7 @@
         <v>516</v>
       </c>
       <c r="AD230" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE230">
         <v>660</v>
@@ -28610,7 +28628,7 @@
         <v>1122</v>
       </c>
       <c r="AD231" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE231">
         <v>720</v>
@@ -28824,7 +28842,7 @@
         <v>286</v>
       </c>
       <c r="AD233" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE233">
         <v>336</v>
@@ -29038,7 +29056,7 @@
         <v>512</v>
       </c>
       <c r="AD235" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE235">
         <v>108</v>
@@ -29145,7 +29163,7 @@
         <v>1123</v>
       </c>
       <c r="AD236" t="s">
-        <v>42</v>
+        <v>1124</v>
       </c>
       <c r="AE236">
         <v>756</v>
@@ -29252,7 +29270,7 @@
         <v>48</v>
       </c>
       <c r="AD237" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE237">
         <v>396</v>
@@ -29573,7 +29591,7 @@
         <v>828</v>
       </c>
       <c r="AD240" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE240">
         <v>522</v>
@@ -29680,7 +29698,7 @@
         <v>828</v>
       </c>
       <c r="AD241" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE241">
         <v>1200</v>
@@ -29787,7 +29805,7 @@
         <v>841</v>
       </c>
       <c r="AD242" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE242">
         <v>540</v>
@@ -29894,7 +29912,7 @@
         <v>845</v>
       </c>
       <c r="AD243" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE243">
         <v>624</v>
@@ -30215,7 +30233,7 @@
         <v>379</v>
       </c>
       <c r="AD246" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE246">
         <v>336</v>
@@ -30322,7 +30340,7 @@
         <v>379</v>
       </c>
       <c r="AD247" t="s">
-        <v>99</v>
+        <v>1103</v>
       </c>
       <c r="AE247">
         <v>336</v>
@@ -32034,7 +32052,7 @@
         <v>120</v>
       </c>
       <c r="AD263" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE263">
         <v>336</v>
@@ -32141,7 +32159,7 @@
         <v>41</v>
       </c>
       <c r="AD264" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE264">
         <v>384</v>
@@ -32248,7 +32266,7 @@
         <v>1113</v>
       </c>
       <c r="AD265" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE265">
         <v>312</v>
@@ -32462,7 +32480,7 @@
         <v>279</v>
       </c>
       <c r="AD267" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE267">
         <v>252</v>
@@ -32676,7 +32694,7 @@
         <v>922</v>
       </c>
       <c r="AD269" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE269">
         <v>720</v>
@@ -33211,7 +33229,7 @@
         <v>41</v>
       </c>
       <c r="AD274" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE274">
         <v>252</v>
@@ -33318,7 +33336,7 @@
         <v>181</v>
       </c>
       <c r="AD275" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE275">
         <v>576</v>
@@ -33425,7 +33443,7 @@
         <v>1104</v>
       </c>
       <c r="AD276" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE276">
         <v>576</v>
@@ -33532,7 +33550,7 @@
         <v>41</v>
       </c>
       <c r="AD277" t="s">
-        <v>42</v>
+        <v>1125</v>
       </c>
       <c r="AE277">
         <v>480</v>
@@ -33639,7 +33657,7 @@
         <v>746</v>
       </c>
       <c r="AD278" t="s">
-        <v>42</v>
+        <v>1128</v>
       </c>
       <c r="AE278">
         <v>900</v>
@@ -33746,7 +33764,7 @@
         <v>1104</v>
       </c>
       <c r="AD279" t="s">
-        <v>99</v>
+        <v>1127</v>
       </c>
       <c r="AE279">
         <v>432</v>
@@ -33853,7 +33871,7 @@
         <v>746</v>
       </c>
       <c r="AD280" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE280">
         <v>288</v>
@@ -33960,7 +33978,7 @@
         <v>960</v>
       </c>
       <c r="AD281" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE281">
         <v>1080</v>
@@ -34067,7 +34085,7 @@
         <v>41</v>
       </c>
       <c r="AD282" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE282">
         <v>384</v>
@@ -34174,7 +34192,7 @@
         <v>48</v>
       </c>
       <c r="AD283" t="s">
-        <v>42</v>
+        <v>1128</v>
       </c>
       <c r="AE283">
         <v>540</v>
@@ -35143,7 +35161,7 @@
         <v>48</v>
       </c>
       <c r="AD292" t="s">
-        <v>1103</v>
+        <v>1127</v>
       </c>
       <c r="AE292">
         <v>384</v>
@@ -36213,7 +36231,7 @@
         <v>566</v>
       </c>
       <c r="AD302" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE302">
         <v>180</v>
@@ -36430,7 +36448,7 @@
         <v>1111</v>
       </c>
       <c r="AD304" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="AE304">
         <v>504</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB16E1-E860-4E85-AC3B-A5B8F941D591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD694717-FB7E-44FB-9CC7-D583816F4BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3566" yWindow="3626" windowWidth="29220" windowHeight="11443" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -3883,10 +3883,10 @@
   <dimension ref="A1:AJ304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E235" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S49" sqref="S49"/>
+      <selection pane="bottomRight" activeCell="G249" sqref="G249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -30378,7 +30378,7 @@
         <v>100</v>
       </c>
       <c r="G248">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="H248">
         <v>120</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD694717-FB7E-44FB-9CC7-D583816F4BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A099BD5A-BDE1-43FB-9610-C7C24588F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3566" yWindow="3626" windowWidth="29220" windowHeight="11443" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="883" yWindow="2889" windowWidth="29220" windowHeight="11442" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1135">
   <si>
     <t>Id</t>
   </si>
@@ -3441,6 +3441,21 @@
   </si>
   <si>
     <t>AiAggressiveActiveSense</t>
+  </si>
+  <si>
+    <t>WERE_WOLF</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>were_wolf.spr</t>
+  </si>
+  <si>
+    <t>RAPTICE</t>
+  </si>
+  <si>
+    <t>Raptice</t>
   </si>
 </sst>
 </file>
@@ -3880,19 +3895,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
-  <dimension ref="A1:AJ304"/>
+  <dimension ref="A1:AJ306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E235" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G249" sqref="G249"/>
+      <selection pane="bottomRight" activeCell="U295" sqref="U295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.84375" customWidth="1"/>
+    <col min="2" max="2" width="22.61328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.61328125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="5.765625" bestFit="1" customWidth="1"/>
@@ -36469,6 +36484,220 @@
         <v>1112</v>
       </c>
     </row>
+    <row r="305" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A305">
+        <v>4301</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D305">
+        <v>48</v>
+      </c>
+      <c r="E305">
+        <v>100</v>
+      </c>
+      <c r="F305">
+        <v>100</v>
+      </c>
+      <c r="G305">
+        <v>100</v>
+      </c>
+      <c r="H305">
+        <v>100</v>
+      </c>
+      <c r="I305">
+        <v>100</v>
+      </c>
+      <c r="J305">
+        <v>100</v>
+      </c>
+      <c r="K305">
+        <v>100</v>
+      </c>
+      <c r="L305">
+        <v>100</v>
+      </c>
+      <c r="M305">
+        <v>10</v>
+      </c>
+      <c r="N305">
+        <v>1</v>
+      </c>
+      <c r="O305">
+        <v>100</v>
+      </c>
+      <c r="P305">
+        <v>100</v>
+      </c>
+      <c r="Q305">
+        <v>100</v>
+      </c>
+      <c r="R305">
+        <v>100</v>
+      </c>
+      <c r="S305">
+        <v>10</v>
+      </c>
+      <c r="T305">
+        <v>12</v>
+      </c>
+      <c r="U305" t="s">
+        <v>38</v>
+      </c>
+      <c r="V305" t="s">
+        <v>53</v>
+      </c>
+      <c r="W305" t="s">
+        <v>619</v>
+      </c>
+      <c r="X305">
+        <v>748</v>
+      </c>
+      <c r="Y305">
+        <v>432</v>
+      </c>
+      <c r="Z305">
+        <v>648</v>
+      </c>
+      <c r="AA305">
+        <v>150</v>
+      </c>
+      <c r="AB305" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC305" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD305" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AE305">
+        <v>216</v>
+      </c>
+      <c r="AF305" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AG305">
+        <v>0</v>
+      </c>
+      <c r="AH305">
+        <v>0.5</v>
+      </c>
+      <c r="AI305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A306">
+        <v>4302</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D306">
+        <v>38</v>
+      </c>
+      <c r="E306">
+        <v>100</v>
+      </c>
+      <c r="F306">
+        <v>100</v>
+      </c>
+      <c r="G306">
+        <v>100</v>
+      </c>
+      <c r="H306">
+        <v>100</v>
+      </c>
+      <c r="I306">
+        <v>100</v>
+      </c>
+      <c r="J306">
+        <v>100</v>
+      </c>
+      <c r="K306">
+        <v>100</v>
+      </c>
+      <c r="L306">
+        <v>100</v>
+      </c>
+      <c r="M306">
+        <v>10</v>
+      </c>
+      <c r="N306">
+        <v>3</v>
+      </c>
+      <c r="O306">
+        <v>100</v>
+      </c>
+      <c r="P306">
+        <v>100</v>
+      </c>
+      <c r="Q306">
+        <v>100</v>
+      </c>
+      <c r="R306">
+        <v>100</v>
+      </c>
+      <c r="S306">
+        <v>10</v>
+      </c>
+      <c r="T306">
+        <v>12</v>
+      </c>
+      <c r="U306" t="s">
+        <v>38</v>
+      </c>
+      <c r="V306" t="s">
+        <v>53</v>
+      </c>
+      <c r="W306" t="s">
+        <v>40</v>
+      </c>
+      <c r="X306">
+        <v>1540</v>
+      </c>
+      <c r="Y306">
+        <v>432</v>
+      </c>
+      <c r="Z306">
+        <v>720</v>
+      </c>
+      <c r="AA306">
+        <v>300</v>
+      </c>
+      <c r="AB306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD306" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AE306">
+        <v>324</v>
+      </c>
+      <c r="AF306" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG306">
+        <v>0</v>
+      </c>
+      <c r="AH306">
+        <v>0.5</v>
+      </c>
+      <c r="AI306">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AI180">
     <sortCondition ref="D3:D180"/>
@@ -37888,7 +38117,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A2-1,0)</f>
-        <v>6.9859953719670784</v>
+        <v>6.5784953719670787</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A2-1,0)</f>
@@ -37921,7 +38150,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A3-1,0)</f>
-        <v>16.549936867076458</v>
+        <v>14.362436867076459</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A3-1,0)</f>
@@ -37954,7 +38183,7 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A4-1,0)</f>
-        <v>30.400000000000002</v>
+        <v>25.650000000000002</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A4-1,0)</f>
@@ -37987,7 +38216,7 @@
       </c>
       <c r="D5" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A5-1,0)</f>
-        <v>45.328427124746192</v>
+        <v>37.828427124746192</v>
       </c>
       <c r="E5" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A5-1,0)</f>
@@ -38012,15 +38241,15 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A6-1,0)</f>
-        <v>2.4</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A6-1,0)</f>
-        <v>368.2</v>
+        <v>330.86666666666667</v>
       </c>
       <c r="D6" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A6-1,0)</f>
-        <v>79</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="E6" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A6-1,0)</f>
@@ -38045,15 +38274,15 @@
       </c>
       <c r="B7" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A7-1,0)</f>
-        <v>2.5656854249492378</v>
+        <v>1.3990187582825713</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A7-1,0)</f>
-        <v>635.79898987322326</v>
+        <v>594.96565653988989</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A7-1,0)</f>
-        <v>93.156854249492369</v>
+        <v>68.990187582825712</v>
       </c>
       <c r="E7" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A7-1,0)</f>
@@ -38086,7 +38315,7 @@
       </c>
       <c r="D8" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A8-1,0)</f>
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A8-1,0)</f>
@@ -38111,15 +38340,15 @@
       </c>
       <c r="B9" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A9-1,0)</f>
-        <v>7.1313708498984756</v>
+        <v>7.2980375165651434</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A9-1,0)</f>
-        <v>1385.4371716450253</v>
+        <v>1393.603838311692</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A9-1,0)</f>
-        <v>163.81370849898474</v>
+        <v>147.98037516565142</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A9-1,0)</f>
@@ -38144,15 +38373,15 @@
       </c>
       <c r="B10" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A10-1,0)</f>
-        <v>13.6</v>
+        <v>11.933333333333332</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A10-1,0)</f>
-        <v>2042.6</v>
+        <v>1949.2666666666664</v>
       </c>
       <c r="D10" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A10-1,0)</f>
-        <v>241</v>
+        <v>204.33333333333331</v>
       </c>
       <c r="E10" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A10-1,0)</f>
@@ -38177,15 +38406,15 @@
       </c>
       <c r="B11" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A11-1,0)</f>
-        <v>14.262741699796951</v>
+        <v>13.262741699796951</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A11-1,0)</f>
-        <v>2424.5527270872076</v>
+        <v>2361.5527270872076</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A11-1,0)</f>
-        <v>260.12741699796948</v>
+        <v>227.6274169979695</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A11-1,0)</f>
@@ -38210,15 +38439,15 @@
       </c>
       <c r="B12" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A12-1,0)</f>
-        <v>15.2</v>
+        <v>14.866666666666667</v>
       </c>
       <c r="C12" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A12-1,0)</f>
-        <v>2835</v>
+        <v>2811.6666666666665</v>
       </c>
       <c r="D12" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A12-1,0)</f>
-        <v>282</v>
+        <v>253.66666666666669</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A12-1,0)</f>
@@ -38243,15 +38472,15 @@
       </c>
       <c r="B13" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A13-1,0)</f>
-        <v>16.525483399593902</v>
+        <v>16.858816732927238</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A13-1,0)</f>
-        <v>3288.4622217687302</v>
+        <v>3314.1288884353971</v>
       </c>
       <c r="D13" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A13-1,0)</f>
-        <v>307.75483399593901</v>
+        <v>283.58816732927238</v>
       </c>
       <c r="E13" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A13-1,0)</f>
@@ -38276,15 +38505,15 @@
       </c>
       <c r="B14" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A14-1,0)</f>
-        <v>40.4</v>
+        <v>44.4</v>
       </c>
       <c r="C14" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A14-1,0)</f>
-        <v>5654.5999999999995</v>
+        <v>5990.5999999999995</v>
       </c>
       <c r="D14" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A14-1,0)</f>
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="E14" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A14-1,0)</f>
@@ -38309,15 +38538,15 @@
       </c>
       <c r="B15" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A15-1,0)</f>
-        <v>43.050966799187805</v>
+        <v>47.050966799187805</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A15-1,0)</f>
-        <v>6423.6379787260894</v>
+        <v>6787.6379787260894</v>
       </c>
       <c r="D15" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A15-1,0)</f>
-        <v>598.00966799187802</v>
+        <v>605.50966799187802</v>
       </c>
       <c r="E15" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A15-1,0)</f>
@@ -38342,15 +38571,15 @@
       </c>
       <c r="B16" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A16-1,0)</f>
-        <v>46.8</v>
+        <v>50.8</v>
       </c>
       <c r="C16" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A16-1,0)</f>
-        <v>7337.4</v>
+        <v>7729.4</v>
       </c>
       <c r="D16" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A16-1,0)</f>
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A16-1,0)</f>
@@ -38375,15 +38604,15 @@
       </c>
       <c r="B17" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A17-1,0)</f>
-        <v>52.101933598375609</v>
+        <v>56.101933598375609</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A17-1,0)</f>
-        <v>8466.7030278294387</v>
+        <v>8886.7030278294387</v>
       </c>
       <c r="D17" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A17-1,0)</f>
-        <v>713.51933598375604</v>
+        <v>716.01933598375604</v>
       </c>
       <c r="E17" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A17-1,0)</f>
@@ -38408,11 +38637,11 @@
       </c>
       <c r="B18" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A18-1,0)</f>
-        <v>73.599999999999994</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C18" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A18-1,0)</f>
-        <v>11484.199999999999</v>
+        <v>11932.199999999999</v>
       </c>
       <c r="D18" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A18-1,0)</f>
@@ -38441,15 +38670,15 @@
       </c>
       <c r="B19" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A19-1,0)</f>
-        <v>84.203867196751233</v>
+        <v>88.203867196751233</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A19-1,0)</f>
-        <v>13506.260196413396</v>
+        <v>13982.260196413396</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A19-1,0)</f>
-        <v>1059.5386719675123</v>
+        <v>1057.0386719675123</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A19-1,0)</f>
@@ -38474,15 +38703,15 @@
       </c>
       <c r="B20" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A20-1,0)</f>
-        <v>119.2</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="C20" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A20-1,0)</f>
-        <v>18750.199999999997</v>
+        <v>19884.199999999997</v>
       </c>
       <c r="D20" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A20-1,0)</f>
-        <v>1422</v>
+        <v>1467</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A20-1,0)</f>
@@ -38507,15 +38736,15 @@
       </c>
       <c r="B21" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A21-1,0)</f>
-        <v>140.40773439350247</v>
+        <v>149.40773439350247</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A21-1,0)</f>
-        <v>22650.228674335827</v>
+        <v>23847.228674335824</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A21-1,0)</f>
-        <v>1646.5773439350246</v>
+        <v>1689.0773439350246</v>
       </c>
       <c r="E21" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A21-1,0)</f>
@@ -38540,15 +38769,15 @@
       </c>
       <c r="B22" s="1">
         <f ca="1">OFFSET(StatCharts!B$2,Sheet2!$A22-1,0)</f>
-        <v>163.54257833336908</v>
+        <v>172.54257833336908</v>
       </c>
       <c r="C22" s="1">
         <f ca="1">OFFSET(StatCharts!C$2,Sheet2!$A22-1,0)</f>
-        <v>26839.001357004952</v>
+        <v>28086.401357004954</v>
       </c>
       <c r="D22" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A22-1,0)</f>
-        <v>1887.9257833336908</v>
+        <v>1928.4257833336908</v>
       </c>
       <c r="E22" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A22-1,0)</f>
@@ -38577,7 +38806,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -41863,10 +42092,10 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -41918,7 +42147,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>FLOOR(A2/20,1)*FLOOR(A2/20,1)*2+FLOOR(A2/30,1)*FLOOR(A2/30,1)*4+POWER(2,A2/10)/10</f>
+        <f>FLOOR(A2/20,1)*FLOOR(A2/20,1)*MIN(2,A2/30)+FLOOR(A2/30,1)*FLOOR(A2/30,1)*5+POWER(2,A2/10)/10</f>
         <v>0.10717734625362932</v>
       </c>
       <c r="C2" s="1">
@@ -41926,8 +42155,8 @@
         <v>35.15004828475508</v>
       </c>
       <c r="D2" s="1">
-        <f>(5+A2*2.5+10*B2)*MIN(1,0.8+A2*0.015)</f>
-        <v>6.9859953719670784</v>
+        <f>(5+A2*2+10*B2)*MIN(1,0.8+A2*0.015)</f>
+        <v>6.5784953719670787</v>
       </c>
       <c r="E2" s="1">
         <f>(1-POWER(1-((A2+1)/100),2))*20+MAX(0,(A2-10)/3)*N2</f>
@@ -41967,7 +42196,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B66" si="0">FLOOR(A3/20,1)*FLOOR(A3/20,1)*2+FLOOR(A3/30,1)*FLOOR(A3/30,1)*4+POWER(2,A3/10)/10</f>
+        <f t="shared" ref="B3:B66" si="0">FLOOR(A3/20,1)*FLOOR(A3/20,1)*MIN(2,A3/30)+FLOOR(A3/30,1)*FLOOR(A3/30,1)*5+POWER(2,A3/10)/10</f>
         <v>0.1148698354997035</v>
       </c>
       <c r="C3" s="1">
@@ -41975,8 +42204,8 @@
         <v>49.321635539399168</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D28" si="2">(5+A3*2.5+10*B3)*MIN(1,0.8+A3*0.015)</f>
-        <v>9.2534196346475408</v>
+        <f t="shared" ref="D3:D23" si="2">(5+A3*2+10*B3)*MIN(1,0.8+A3*0.015)</f>
+        <v>8.4234196346475407</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E66" si="3">(1-POWER(1-((A3+1)/100),2))*20+MAX(0,(A3-10)/3)</f>
@@ -42025,7 +42254,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>11.602817029276455</v>
+        <v>10.335317029276455</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="3"/>
@@ -42074,7 +42303,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>14.034776803264691</v>
+        <v>12.31477680326469</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="3"/>
@@ -42123,7 +42352,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>16.549936867076458</v>
+        <v>14.362436867076459</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="3"/>
@@ -42172,7 +42401,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>19.148987744194255</v>
+        <v>16.478987744194256</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="3"/>
@@ -42221,7 +42450,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>21.832676837404787</v>
+        <v>18.665176837404786</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
@@ -42270,7 +42499,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>24.601813036464868</v>
+        <v>20.921813036464869</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="3"/>
@@ -42319,7 +42548,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>27.45727169417383</v>
+        <v>23.24977169417383</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="3"/>
@@ -42368,7 +42597,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>30.400000000000002</v>
+        <v>25.650000000000002</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="3"/>
@@ -42417,7 +42646,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>33.431022782695045</v>
+        <v>28.123522782695048</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
@@ -42466,7 +42695,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>36.551448775794185</v>
+        <v>30.67144877579419</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
@@ -42515,7 +42744,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>39.762477382556391</v>
+        <v>33.29497738255639</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="3"/>
@@ -42564,7 +42793,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>42.63901582154579</v>
+        <v>35.63901582154579</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="3"/>
@@ -42613,7 +42842,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>45.328427124746192</v>
+        <v>37.828427124746192</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="3"/>
@@ -42662,7 +42891,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>48.031433133020798</v>
+        <v>40.031433133020798</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="3"/>
@@ -42710,8 +42939,8 @@
         <v>266.73264281331137</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
-        <v>50.749009585424943</v>
+        <f>(5+A18*2+10*B18)*MIN(1,0.8+A18*0.015)</f>
+        <v>42.249009585424943</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="3"/>
@@ -42760,7 +42989,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>53.482202253184496</v>
+        <v>44.482202253184496</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="3"/>
@@ -42809,7 +43038,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>56.232131966147229</v>
+        <v>46.732131966147229</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="3"/>
@@ -42850,15 +43079,15 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>368.2</v>
+        <v>330.86666666666667</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="3"/>
@@ -42899,15 +43128,15 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>2.4287093850145172</v>
+        <v>1.1287093850145173</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>421.40405591942681</v>
+        <v>383.18405591942678</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>81.787093850145169</v>
+        <v>58.287093850145169</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
@@ -42947,16 +43176,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <f>FLOOR(A23/20,1)*FLOOR(A23/20,1)*2+FLOOR(A23/30,1)*FLOOR(A23/30,1)*4+POWER(2,A23/10)/10</f>
-        <v>2.4594793419988141</v>
+        <f t="shared" si="0"/>
+        <v>1.1928126753321473</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>474.75196373356346</v>
+        <v>435.73863040023014</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>84.59479341998815</v>
+        <v>60.928126753321472</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="3"/>
@@ -42997,15 +43226,15 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>2.4924577653379663</v>
+        <v>1.2591244320046331</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>528.25714004388249</v>
+        <v>488.54380671054918</v>
       </c>
       <c r="D24" s="1">
-        <f>(5+A24*2.5+10*B24)*MIN(1,0.8+A24*0.015)</f>
-        <v>87.424577653379657</v>
+        <f t="shared" ref="D3:D66" si="7">(5+A24*2+10*B24)*MIN(1,0.8+A24*0.015)</f>
+        <v>63.591244320046329</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="3"/>
@@ -43046,15 +43275,15 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>2.5278031643091579</v>
+        <v>1.3278031643091577</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>581.9341863207876</v>
+        <v>541.61418632078767</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
-        <v>90.27803164309158</v>
+        <f t="shared" si="7"/>
+        <v>66.27803164309158</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
@@ -43095,15 +43324,15 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>2.5656854249492378</v>
+        <v>1.3990187582825713</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>635.79898987322326</v>
+        <v>594.96565653988989</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>93.156854249492369</v>
+        <f t="shared" si="7"/>
+        <v>68.990187582825712</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="3"/>
@@ -43144,15 +43373,15 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>2.6062866266041591</v>
+        <v>1.4729532932708258</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>689.86883320839138</v>
+        <v>648.61549987505805</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>96.062866266041596</v>
+        <f t="shared" si="7"/>
+        <v>71.729532932708253</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="3"/>
@@ -43193,15 +43422,15 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>2.6498019170849885</v>
+        <v>1.5498019170849884</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>744.1625124658126</v>
+        <v>702.58251246581256</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="2"/>
-        <v>98.998019170849886</v>
+        <f t="shared" si="7"/>
+        <v>74.498019170849886</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="3"/>
@@ -43242,15 +43471,15 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>2.6964404506368993</v>
+        <v>1.6297737839702324</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>798.70046566496649</v>
+        <v>756.88713233163298</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:D34" si="7">(5+A29*2.5+10*B29)</f>
-        <v>101.96440450636899</v>
+        <f t="shared" si="7"/>
+        <v>77.297737839702322</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="3"/>
@@ -43291,15 +43520,15 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>2.7464263932294459</v>
+        <v>1.7130930598961123</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>853.50491156511544</v>
+        <v>811.55157823178206</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>104.96426393229446</v>
+        <v>80.130930598961129</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="3"/>
@@ -43348,7 +43577,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="7"/>
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="3"/>
@@ -43389,15 +43618,15 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>6.8574187700290343</v>
+        <v>6.8907521033623675</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>1137.6119746192601</v>
+        <v>1139.0586412859268</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="7"/>
-        <v>151.07418770029034</v>
+        <v>135.90752103362368</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="3"/>
@@ -43438,15 +43667,15 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
-        <v>6.9189586839976283</v>
+        <v>6.9856253506642947</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>1198.9693490430936</v>
+        <v>1201.9560157097603</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="7"/>
-        <v>154.1895868399763</v>
+        <v>138.85625350664293</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="3"/>
@@ -43487,15 +43716,15 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
-        <v>6.9849155306759325</v>
+        <v>7.0849155306759322</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>1260.7030975172279</v>
+        <v>1265.323097517228</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="7"/>
-        <v>157.34915530675931</v>
+        <v>141.84915530675931</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="3"/>
@@ -43536,15 +43765,15 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
-        <v>7.0556063286183157</v>
+        <v>7.1889396619516486</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>1322.8468612422319</v>
+        <v>1329.1935279088984</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D66" si="8">(5+A35*2.5+10*B35)*MIN(A35/20*0.4+0.6,1)</f>
-        <v>160.55606328618316</v>
+        <f t="shared" si="7"/>
+        <v>144.8893966195165</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="3"/>
@@ -43585,15 +43814,15 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
-        <v>7.1313708498984756</v>
+        <v>7.2980375165651434</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>1385.4371716450253</v>
+        <v>1393.603838311692</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="8"/>
-        <v>163.81370849898474</v>
+        <f t="shared" si="7"/>
+        <v>147.98037516565142</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="3"/>
@@ -43634,15 +43863,15 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
-        <v>7.2125732532083182</v>
+        <v>7.4125732532083184</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>1448.5136919616991</v>
+        <v>1458.5936919616991</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
-        <v>167.12573253208319</v>
+        <f t="shared" si="7"/>
+        <v>151.12573253208319</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="3"/>
@@ -43683,15 +43912,15 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
-        <v>7.2996038341699769</v>
+        <v>7.5329371675033103</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>1512.1194786100048</v>
+        <v>1524.2061452766711</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
-        <v>170.49603834169977</v>
+        <f t="shared" si="7"/>
+        <v>154.32937167503309</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="3"/>
@@ -43732,15 +43961,15 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
-        <v>7.3928809012737986</v>
+        <v>7.6595475679404652</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>1576.3012639477661</v>
+        <v>1590.4879306144326</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="8"/>
-        <v>173.92880901273799</v>
+        <f t="shared" si="7"/>
+        <v>157.59547567940467</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="3"/>
@@ -43781,15 +44010,15 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
-        <v>7.4928527864588919</v>
+        <v>7.7928527864588917</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>1641.1097621406554</v>
+        <v>1657.4897621406553</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="8"/>
-        <v>177.42852786458892</v>
+        <f t="shared" si="7"/>
+        <v>160.92852786458892</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="3"/>
@@ -43830,15 +44059,15 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
-        <v>13.6</v>
+        <v>11.933333333333332</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>2042.6</v>
+        <v>1949.2666666666664</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="8"/>
-        <v>241</v>
+        <f t="shared" si="7"/>
+        <v>204.33333333333331</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="3"/>
@@ -43879,15 +44108,15 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
-        <v>13.714837540058069</v>
+        <v>12.181504206724735</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>2117.2316747993327</v>
+        <v>2029.2183414659996</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="8"/>
-        <v>244.64837540058068</v>
+        <f t="shared" si="7"/>
+        <v>208.81504206724736</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="3"/>
@@ -43928,15 +44157,15 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" si="0"/>
-        <v>13.837917367995257</v>
+        <v>12.437917367995256</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>2192.6695412381209</v>
+        <v>2110.3495412381208</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="8"/>
-        <v>248.37917367995257</v>
+        <f t="shared" si="7"/>
+        <v>213.37917367995254</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="3"/>
@@ -43977,15 +44206,15 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" si="0"/>
-        <v>13.969831061351867</v>
+        <v>12.703164394685201</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>2268.9838298933823</v>
+        <v>2192.7304965600492</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="8"/>
-        <v>252.19831061351866</v>
+        <f t="shared" si="7"/>
+        <v>218.031643946852</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="3"/>
@@ -44026,15 +44255,15 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" si="0"/>
-        <v>14.111212657236631</v>
+        <v>12.977879323903299</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>2346.2506996857765</v>
+        <v>2276.437366352443</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="8"/>
-        <v>256.11212657236632</v>
+        <f t="shared" si="7"/>
+        <v>222.77879323903298</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="3"/>
@@ -44075,15 +44304,15 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" si="0"/>
-        <v>14.262741699796951</v>
+        <v>13.262741699796951</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>2424.5527270872076</v>
+        <v>2361.5527270872076</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="8"/>
-        <v>260.12741699796948</v>
+        <f t="shared" si="7"/>
+        <v>227.6274169979695</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="3"/>
@@ -44124,15 +44353,15 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" si="0"/>
-        <v>14.425146506416635</v>
+        <v>13.558479839749968</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>2503.9794350132311</v>
+        <v>2448.1661016798976</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="8"/>
-        <v>264.25146506416638</v>
+        <f t="shared" si="7"/>
+        <v>232.58479839749967</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="3"/>
@@ -44173,15 +44402,15 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" si="0"/>
-        <v>14.599207668339954</v>
+        <v>13.86587433500662</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>2584.6278645767688</v>
+        <v>2536.3745312434353</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="8"/>
-        <v>268.49207668339955</v>
+        <f t="shared" si="7"/>
+        <v>237.6587433500662</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="3"/>
@@ -44222,15 +44451,15 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" si="0"/>
-        <v>14.785761802547597</v>
+        <v>14.185761802547598</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>2666.6031931311982</v>
+        <v>2626.2831931311985</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="8"/>
-        <v>272.85761802547597</v>
+        <f t="shared" si="7"/>
+        <v>242.85761802547597</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="3"/>
@@ -44271,15 +44500,15 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" si="0"/>
-        <v>14.985705572917784</v>
+        <v>14.519038906251117</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>2750.0194023021595</v>
+        <v>2718.0060689688266</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="8"/>
-        <v>277.35705572917783</v>
+        <f t="shared" si="7"/>
+        <v>248.19038906251117</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="3"/>
@@ -44320,15 +44549,15 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" si="0"/>
-        <v>15.2</v>
+        <v>14.866666666666667</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>2835</v>
+        <v>2811.6666666666665</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="8"/>
-        <v>282</v>
+        <f t="shared" si="7"/>
+        <v>253.66666666666669</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="3"/>
@@ -44369,15 +44598,15 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" si="0"/>
-        <v>15.429675080116137</v>
+        <v>15.229675080116138</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>2921.6788007202917</v>
+        <v>2907.398800720292</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="8"/>
-        <v>286.79675080116135</v>
+        <f t="shared" si="7"/>
+        <v>259.29675080116135</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="3"/>
@@ -44418,15 +44647,15 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" si="0"/>
-        <v>15.675834735990513</v>
+        <v>15.609168069323847</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>3010.2007687801092</v>
+        <v>3005.3474354467758</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="8"/>
-        <v>291.75834735990514</v>
+        <f t="shared" si="7"/>
+        <v>265.09168069323846</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="3"/>
@@ -44467,15 +44696,15 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" si="0"/>
-        <v>15.93966212270373</v>
+        <v>16.006328789370396</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>3100.7229295046168</v>
+        <v>3105.669596171283</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="8"/>
-        <v>296.89662122703731</v>
+        <f t="shared" si="7"/>
+        <v>271.063287893704</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="3"/>
@@ -44516,15 +44745,15 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" si="0"/>
-        <v>16.222425314473263</v>
+        <v>16.422425314473259</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>3193.4153537741781</v>
+        <v>3208.535353774178</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="8"/>
-        <v>302.22425314473264</v>
+        <f t="shared" si="7"/>
+        <v>277.22425314473259</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="3"/>
@@ -44565,15 +44794,15 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" si="0"/>
-        <v>16.525483399593902</v>
+        <v>16.858816732927238</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>3288.4622217687302</v>
+        <v>3314.1288884353971</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="8"/>
-        <v>307.75483399593901</v>
+        <f t="shared" si="7"/>
+        <v>283.58816732927238</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="3"/>
@@ -44614,15 +44843,15 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" si="0"/>
-        <v>16.850293012833273</v>
+        <v>17.316959679499938</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>3386.0629722061285</v>
+        <v>3422.6496388727951</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="8"/>
-        <v>313.50293012833276</v>
+        <f t="shared" si="7"/>
+        <v>290.16959679499939</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="3"/>
@@ -44663,15 +44892,15 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" si="0"/>
-        <v>17.198415336679908</v>
+        <v>17.798415336679909</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>3486.4335438670564</v>
+        <v>3534.3135438670561</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="8"/>
-        <v>319.48415336679909</v>
+        <f t="shared" si="7"/>
+        <v>296.98415336679909</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="3"/>
@@ -44712,15 +44941,15 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" si="0"/>
-        <v>17.571523605095194</v>
+        <v>18.304856938428529</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>3589.8077167337292</v>
+        <v>3649.3543834003963</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="8"/>
-        <v>325.71523605095194</v>
+        <f t="shared" si="7"/>
+        <v>304.04856938428532</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="3"/>
@@ -44761,15 +44990,15 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
-        <v>17.971411145835571</v>
+        <v>18.838077812502238</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>3696.4385606460182</v>
+        <v>3768.0252273126848</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="8"/>
-        <v>332.21411145835572</v>
+        <f t="shared" si="7"/>
+        <v>311.3807781250224</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="3"/>
@@ -44810,15 +45039,15 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
-        <v>40.4</v>
+        <v>44.4</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>5654.5999999999995</v>
+        <v>5990.5999999999995</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="8"/>
-        <v>559</v>
+        <f t="shared" si="7"/>
+        <v>569</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="3"/>
@@ -44859,15 +45088,15 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" si="0"/>
-        <v>40.859350160232275</v>
+        <v>44.859350160232275</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>5799.3885036838365</v>
+        <v>6140.9885036838359</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="8"/>
-        <v>566.0935016023227</v>
+        <f t="shared" si="7"/>
+        <v>575.5935016023227</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="3"/>
@@ -44908,15 +45137,15 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
-        <v>41.351669471981019</v>
+        <v>45.351669471981019</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>5948.3249101679512</v>
+        <v>6295.524910167951</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="8"/>
-        <v>573.51669471981018</v>
+        <f t="shared" si="7"/>
+        <v>582.51669471981018</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="3"/>
@@ -44957,15 +45186,15 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" si="0"/>
-        <v>41.87932424540746</v>
+        <v>45.87932424540746</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>6101.7563984449371</v>
+        <v>6454.5563984449373</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="8"/>
-        <v>581.29324245407463</v>
+        <f t="shared" si="7"/>
+        <v>589.79324245407463</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="3"/>
@@ -45006,15 +45235,15 @@
       </c>
       <c r="B65" s="1">
         <f t="shared" si="0"/>
-        <v>42.444850628946519</v>
+        <v>46.444850628946519</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="1"/>
-        <v>6260.0586163536072</v>
+        <v>6618.4586163536069</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="8"/>
-        <v>589.44850628946517</v>
+        <f t="shared" si="7"/>
+        <v>597.44850628946517</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="3"/>
@@ -45055,15 +45284,15 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" si="0"/>
-        <v>43.050966799187805</v>
+        <v>47.050966799187805</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="1"/>
-        <v>6423.6379787260894</v>
+        <v>6787.6379787260894</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="8"/>
-        <v>598.00966799187802</v>
+        <f t="shared" si="7"/>
+        <v>605.50966799187802</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="3"/>
@@ -45103,19 +45332,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B100" si="9">FLOOR(A67/20,1)*FLOOR(A67/20,1)*2+FLOOR(A67/30,1)*FLOOR(A67/30,1)*4+POWER(2,A67/10)/10</f>
-        <v>43.700586025666546</v>
+        <f t="shared" ref="B67:B100" si="8">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
+        <v>47.700586025666546</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:C100" si="10">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
-        <v>6592.9341487715883</v>
+        <f t="shared" ref="C67:C100" si="9">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
+        <v>6962.5341487715887</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D100" si="11">(5+A67*2.5+10*B67)*MIN(A67/20*0.4+0.6,1)</f>
-        <v>607.00586025666553</v>
+        <f t="shared" ref="D67:D100" si="10">(5+A67*2+10*B67)*MIN(1,0.8+A67*0.015)</f>
+        <v>614.00586025666553</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E100" si="12">(1-POWER(1-((A67+1)/100),2))*20+MAX(0,(A67-10)/3)</f>
+        <f t="shared" ref="E67:E100" si="11">(1-POWER(1-((A67+1)/100),2))*20+MAX(0,(A67-10)/3)</f>
         <v>36.488666666666667</v>
       </c>
       <c r="F67" s="1">
@@ -45123,11 +45352,11 @@
         <v>7237.9734346737796</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G100" si="13">FLOOR(A67*0.8,1)+1</f>
+        <f t="shared" ref="G67:G100" si="12">FLOOR(A67*0.8,1)+1</f>
         <v>53</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H100" si="14">FLOOR(A67/3,1)+1</f>
+        <f t="shared" ref="H67:H100" si="13">FLOOR(A67/3,1)+1</f>
         <v>23</v>
       </c>
       <c r="J67" s="1">
@@ -45143,7 +45372,7 @@
         <v>4449.340424768975</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N100" si="15">MAX(1,1+(1-POWER(1-(A67-10)/200,3)))</f>
+        <f t="shared" ref="N67:N100" si="14">MAX(1,1+(1-POWER(1-(A67-10)/200,3)))</f>
         <v>1.626752</v>
       </c>
     </row>
@@ -45152,19 +45381,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
+        <f t="shared" si="8"/>
+        <v>48.396830673359815</v>
+      </c>
+      <c r="C68" s="1">
         <f t="shared" si="9"/>
-        <v>44.396830673359815</v>
-      </c>
-      <c r="C68" s="1">
+        <v>7143.6227171611508</v>
+      </c>
+      <c r="D68" s="1">
         <f t="shared" si="10"/>
-        <v>6768.4227171611501</v>
-      </c>
-      <c r="D68" s="1">
+        <v>622.96830673359818</v>
+      </c>
+      <c r="E68" s="1">
         <f t="shared" si="11"/>
-        <v>616.46830673359818</v>
-      </c>
-      <c r="E68" s="1">
-        <f t="shared" si="12"/>
         <v>36.951999999999998</v>
       </c>
       <c r="F68" s="1">
@@ -45172,11 +45401,11 @@
         <v>7549.7943277765753</v>
       </c>
       <c r="G68">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="J68" s="1">
@@ -45192,7 +45421,7 @@
         <v>4619.096877888217</v>
       </c>
       <c r="N68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.6344741249999999</v>
       </c>
     </row>
@@ -45201,19 +45430,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
+        <f t="shared" si="8"/>
+        <v>49.143047210190389</v>
+      </c>
+      <c r="C69" s="1">
         <f t="shared" si="9"/>
-        <v>45.143047210190389</v>
-      </c>
-      <c r="C69" s="1">
+        <v>7331.4180944101245</v>
+      </c>
+      <c r="D69" s="1">
         <f t="shared" si="10"/>
-        <v>6950.6180944101243</v>
-      </c>
-      <c r="D69" s="1">
+        <v>632.43047210190389</v>
+      </c>
+      <c r="E69" s="1">
         <f t="shared" si="11"/>
-        <v>626.43047210190389</v>
-      </c>
-      <c r="E69" s="1">
-        <f t="shared" si="12"/>
         <v>37.411333333333332</v>
       </c>
       <c r="F69" s="1">
@@ -45221,11 +45450,11 @@
         <v>8186.9041466935159</v>
       </c>
       <c r="G69">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="J69" s="1">
@@ -45241,7 +45470,7 @@
         <v>4985.6640819672475</v>
       </c>
       <c r="N69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.6420889999999999</v>
       </c>
     </row>
@@ -45250,19 +45479,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
+        <f t="shared" si="8"/>
+        <v>49.942822291671135</v>
+      </c>
+      <c r="C70" s="1">
         <f t="shared" si="9"/>
-        <v>45.942822291671135</v>
-      </c>
-      <c r="C70" s="1">
+        <v>7526.4766333754305</v>
+      </c>
+      <c r="D70" s="1">
         <f t="shared" si="10"/>
-        <v>7140.0766333754309</v>
-      </c>
-      <c r="D70" s="1">
+        <v>642.42822291671132</v>
+      </c>
+      <c r="E70" s="1">
         <f t="shared" si="11"/>
-        <v>636.92822291671132</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" si="12"/>
         <v>37.866666666666667</v>
       </c>
       <c r="F70" s="1">
@@ -45270,11 +45499,11 @@
         <v>8530.6690140845076</v>
       </c>
       <c r="G70">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="13"/>
-        <v>56</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="J70" s="1">
@@ -45290,7 +45519,7 @@
         <v>5171.3643240275569</v>
       </c>
       <c r="N70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.6495973749999999</v>
       </c>
     </row>
@@ -45299,19 +45528,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
+        <f t="shared" si="8"/>
+        <v>50.8</v>
+      </c>
+      <c r="C71" s="1">
         <f t="shared" si="9"/>
-        <v>46.8</v>
-      </c>
-      <c r="C71" s="1">
+        <v>7729.4</v>
+      </c>
+      <c r="D71" s="1">
         <f t="shared" si="10"/>
-        <v>7337.4</v>
-      </c>
-      <c r="D71" s="1">
+        <v>653</v>
+      </c>
+      <c r="E71" s="1">
         <f t="shared" si="11"/>
-        <v>648</v>
-      </c>
-      <c r="E71" s="1">
-        <f t="shared" si="12"/>
         <v>38.317999999999998</v>
       </c>
       <c r="F71" s="1">
@@ -45319,11 +45548,11 @@
         <v>9466.8302103450078</v>
       </c>
       <c r="G71">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="13"/>
-        <v>57</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="J71" s="1">
@@ -45339,7 +45568,7 @@
         <v>5713.2348885606571</v>
       </c>
       <c r="N71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.657</v>
       </c>
     </row>
@@ -45348,19 +45577,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
+        <f t="shared" si="8"/>
+        <v>51.718700320464549</v>
+      </c>
+      <c r="C72" s="1">
         <f t="shared" si="9"/>
-        <v>47.718700320464549</v>
-      </c>
-      <c r="C72" s="1">
+        <v>7940.8388118541761</v>
+      </c>
+      <c r="D72" s="1">
         <f t="shared" si="10"/>
-        <v>7543.2388118541758</v>
-      </c>
-      <c r="D72" s="1">
+        <v>664.18700320464552</v>
+      </c>
+      <c r="E72" s="1">
         <f t="shared" si="11"/>
-        <v>659.68700320464552</v>
-      </c>
-      <c r="E72" s="1">
-        <f t="shared" si="12"/>
         <v>38.765333333333331</v>
       </c>
       <c r="F72" s="1">
@@ -45368,11 +45597,11 @@
         <v>9851.9467565522464</v>
       </c>
       <c r="G72">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="13"/>
-        <v>57</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="J72" s="1">
@@ -45388,7 +45617,7 @@
         <v>5919.5822961967197</v>
       </c>
       <c r="N72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.6642976249999999</v>
       </c>
     </row>
@@ -45397,19 +45626,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
+        <f t="shared" si="8"/>
+        <v>52.703338943962045</v>
+      </c>
+      <c r="C73" s="1">
         <f t="shared" si="9"/>
-        <v>48.703338943962045</v>
-      </c>
-      <c r="C73" s="1">
+        <v>8161.4965655513734</v>
+      </c>
+      <c r="D73" s="1">
         <f t="shared" si="10"/>
-        <v>7758.2965655513735</v>
-      </c>
-      <c r="D73" s="1">
+        <v>676.03338943962046</v>
+      </c>
+      <c r="E73" s="1">
         <f t="shared" si="11"/>
-        <v>672.03338943962046</v>
-      </c>
-      <c r="E73" s="1">
-        <f t="shared" si="12"/>
         <v>39.208666666666673</v>
       </c>
       <c r="F73" s="1">
@@ -45417,11 +45646,11 @@
         <v>10549.198306496861</v>
       </c>
       <c r="G73">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="13"/>
-        <v>58</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="J73" s="1">
@@ -45437,7 +45666,7 @@
         <v>6311.2504383791847</v>
       </c>
       <c r="N73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.6714910000000001</v>
       </c>
     </row>
@@ -45446,19 +45675,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
+        <f t="shared" si="8"/>
+        <v>53.758648490814927</v>
+      </c>
+      <c r="C74" s="1">
         <f t="shared" si="9"/>
-        <v>49.758648490814927</v>
-      </c>
-      <c r="C74" s="1">
+        <v>8392.1338757612848</v>
+      </c>
+      <c r="D74" s="1">
         <f t="shared" si="10"/>
-        <v>7983.3338757612846</v>
-      </c>
-      <c r="D74" s="1">
+        <v>688.58648490814926</v>
+      </c>
+      <c r="E74" s="1">
         <f t="shared" si="11"/>
-        <v>685.08648490814926</v>
-      </c>
-      <c r="E74" s="1">
-        <f t="shared" si="12"/>
         <v>39.647999999999996</v>
       </c>
       <c r="F74" s="1">
@@ -45466,11 +45695,11 @@
         <v>10968.724778046813</v>
       </c>
       <c r="G74">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="13"/>
-        <v>59</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="J74" s="1">
@@ -45486,7 +45715,7 @@
         <v>6534.5226681715967</v>
       </c>
       <c r="N74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.678580875</v>
       </c>
     </row>
@@ -45495,19 +45724,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
+        <f t="shared" si="8"/>
+        <v>54.889701257893044</v>
+      </c>
+      <c r="C75" s="1">
         <f t="shared" si="9"/>
-        <v>50.889701257893044</v>
-      </c>
-      <c r="C75" s="1">
+        <v>8633.5730503177183</v>
+      </c>
+      <c r="D75" s="1">
         <f t="shared" si="10"/>
-        <v>8219.1730503177187</v>
-      </c>
-      <c r="D75" s="1">
+        <v>701.89701257893046</v>
+      </c>
+      <c r="E75" s="1">
         <f t="shared" si="11"/>
-        <v>698.89701257893046</v>
-      </c>
-      <c r="E75" s="1">
-        <f t="shared" si="12"/>
         <v>40.083333333333329</v>
       </c>
       <c r="F75" s="1">
@@ -45515,11 +45744,11 @@
         <v>11956.365904365906</v>
       </c>
       <c r="G75">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="13"/>
-        <v>60</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="J75" s="1">
@@ -45535,7 +45764,7 @@
         <v>7093.3749954709074</v>
       </c>
       <c r="N75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.685568</v>
       </c>
     </row>
@@ -45544,19 +45773,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
+        <f t="shared" si="8"/>
+        <v>56.101933598375609</v>
+      </c>
+      <c r="C76" s="1">
         <f t="shared" si="9"/>
-        <v>52.101933598375609</v>
-      </c>
-      <c r="C76" s="1">
+        <v>8886.7030278294387</v>
+      </c>
+      <c r="D76" s="1">
         <f t="shared" si="10"/>
-        <v>8466.7030278294387</v>
-      </c>
-      <c r="D76" s="1">
+        <v>716.01933598375604</v>
+      </c>
+      <c r="E76" s="1">
         <f t="shared" si="11"/>
-        <v>713.51933598375604</v>
-      </c>
-      <c r="E76" s="1">
-        <f t="shared" si="12"/>
         <v>40.51466666666667</v>
       </c>
       <c r="F76" s="1">
@@ -45564,11 +45793,11 @@
         <v>12419.675179358914</v>
       </c>
       <c r="G76">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="13"/>
-        <v>61</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="J76" s="1">
@@ -45584,7 +45813,7 @@
         <v>7338.2683371859503</v>
       </c>
       <c r="N76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.6924531249999999</v>
       </c>
     </row>
@@ -45593,19 +45822,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
+        <f t="shared" si="8"/>
+        <v>57.401172051333091</v>
+      </c>
+      <c r="C77" s="1">
         <f t="shared" si="9"/>
-        <v>53.401172051333091</v>
-      </c>
-      <c r="C77" s="1">
+        <v>9152.484706261841</v>
+      </c>
+      <c r="D77" s="1">
         <f t="shared" si="10"/>
-        <v>8726.8847062618406</v>
-      </c>
-      <c r="D77" s="1">
+        <v>731.01172051333094</v>
+      </c>
+      <c r="E77" s="1">
         <f t="shared" si="11"/>
-        <v>729.01172051333094</v>
-      </c>
-      <c r="E77" s="1">
-        <f t="shared" si="12"/>
         <v>40.942</v>
       </c>
       <c r="F77" s="1">
@@ -45613,11 +45842,11 @@
         <v>13183.674466318205</v>
       </c>
       <c r="G77">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="13"/>
-        <v>61</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="J77" s="1">
@@ -45633,7 +45862,7 @@
         <v>7758.5848626873158</v>
       </c>
       <c r="N77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.6992370000000001</v>
       </c>
     </row>
@@ -45642,19 +45871,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
+        <f t="shared" si="8"/>
+        <v>58.793661346719624</v>
+      </c>
+      <c r="C78" s="1">
         <f t="shared" si="9"/>
-        <v>54.793661346719624</v>
-      </c>
-      <c r="C78" s="1">
+        <v>9431.9566931763748</v>
+      </c>
+      <c r="D78" s="1">
         <f t="shared" si="10"/>
-        <v>9000.756693176374</v>
-      </c>
-      <c r="D78" s="1">
+        <v>746.93661346719625</v>
+      </c>
+      <c r="E78" s="1">
         <f t="shared" si="11"/>
-        <v>745.43661346719625</v>
-      </c>
-      <c r="E78" s="1">
-        <f t="shared" si="12"/>
         <v>41.365333333333332</v>
       </c>
       <c r="F78" s="1">
@@ -45662,11 +45891,11 @@
         <v>13684.018824136154</v>
       </c>
       <c r="G78">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="13"/>
-        <v>62</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="J78" s="1">
@@ -45682,7 +45911,7 @@
         <v>8021.4874179787857</v>
       </c>
       <c r="N78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.705920375</v>
       </c>
     </row>
@@ -45691,19 +45920,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
+        <f t="shared" si="8"/>
+        <v>60.286094420380778</v>
+      </c>
+      <c r="C79" s="1">
         <f t="shared" si="9"/>
-        <v>56.286094420380778</v>
-      </c>
-      <c r="C79" s="1">
+        <v>9726.2415107055804</v>
+      </c>
+      <c r="D79" s="1">
         <f t="shared" si="10"/>
-        <v>9289.4415107055811</v>
-      </c>
-      <c r="D79" s="1">
+        <v>763.86094420380778</v>
+      </c>
+      <c r="E79" s="1">
         <f t="shared" si="11"/>
-        <v>762.86094420380778</v>
-      </c>
-      <c r="E79" s="1">
-        <f t="shared" si="12"/>
         <v>41.784666666666666</v>
       </c>
       <c r="F79" s="1">
@@ -45711,11 +45940,11 @@
         <v>14731.121464013913</v>
       </c>
       <c r="G79">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="H79">
         <f t="shared" si="13"/>
-        <v>63</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="J79" s="1">
@@ -45731,7 +45960,7 @@
         <v>8602.0946310279633</v>
       </c>
       <c r="N79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.712504</v>
       </c>
     </row>
@@ -45740,19 +45969,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
+        <f t="shared" si="8"/>
+        <v>61.885644583342263</v>
+      </c>
+      <c r="C80" s="1">
         <f t="shared" si="9"/>
-        <v>57.885644583342263</v>
-      </c>
-      <c r="C80" s="1">
+        <v>10036.552290917652</v>
+      </c>
+      <c r="D80" s="1">
         <f t="shared" si="10"/>
-        <v>9594.1522909176529</v>
-      </c>
-      <c r="D80" s="1">
+        <v>781.85644583342264</v>
+      </c>
+      <c r="E80" s="1">
         <f t="shared" si="11"/>
-        <v>781.35644583342264</v>
-      </c>
-      <c r="E80" s="1">
-        <f t="shared" si="12"/>
         <v>42.2</v>
       </c>
       <c r="F80" s="1">
@@ -45760,11 +45989,11 @@
         <v>15277.654028436018</v>
       </c>
       <c r="G80">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="13"/>
-        <v>64</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="J80" s="1">
@@ -45780,7 +46009,7 @@
         <v>8887.5829695708526</v>
       </c>
       <c r="N80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7189886249999999</v>
       </c>
     </row>
@@ -45789,19 +46018,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
+        <f t="shared" si="8"/>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="C81" s="1">
         <f t="shared" si="9"/>
-        <v>73.599999999999994</v>
-      </c>
-      <c r="C81" s="1">
+        <v>11932.199999999999</v>
+      </c>
+      <c r="D81" s="1">
         <f t="shared" si="10"/>
-        <v>11484.199999999999</v>
-      </c>
-      <c r="D81" s="1">
+        <v>941</v>
+      </c>
+      <c r="E81" s="1">
         <f t="shared" si="11"/>
-        <v>941</v>
-      </c>
-      <c r="E81" s="1">
-        <f t="shared" si="12"/>
         <v>42.611333333333334</v>
       </c>
       <c r="F81" s="1">
@@ -45809,11 +46038,11 @@
         <v>16749.393745013065</v>
       </c>
       <c r="G81">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="13"/>
-        <v>65</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="J81" s="1">
@@ -45829,7 +46058,7 @@
         <v>9707.6831094765275</v>
       </c>
       <c r="N81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7253749999999999</v>
       </c>
     </row>
@@ -45838,19 +46067,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
+        <f t="shared" si="8"/>
+        <v>79.437400640929098</v>
+      </c>
+      <c r="C82" s="1">
         <f t="shared" si="9"/>
-        <v>75.437400640929098</v>
-      </c>
-      <c r="C82" s="1">
+        <v>12298.20123268136</v>
+      </c>
+      <c r="D82" s="1">
         <f t="shared" si="10"/>
-        <v>11844.60123268136</v>
-      </c>
-      <c r="D82" s="1">
+        <v>961.37400640929104</v>
+      </c>
+      <c r="E82" s="1">
         <f t="shared" si="11"/>
-        <v>961.87400640929104</v>
-      </c>
-      <c r="E82" s="1">
-        <f t="shared" si="12"/>
         <v>43.018666666666668</v>
       </c>
       <c r="F82" s="1">
@@ -45858,11 +46087,11 @@
         <v>17774.35376890652</v>
       </c>
       <c r="G82">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="13"/>
-        <v>65</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J82" s="1">
@@ -45878,7 +46107,7 @@
         <v>10264.320937518271</v>
       </c>
       <c r="N82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.731663875</v>
       </c>
     </row>
@@ -45887,19 +46116,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
+        <f t="shared" si="8"/>
+        <v>81.406677887924062</v>
+      </c>
+      <c r="C83" s="1">
         <f t="shared" si="9"/>
-        <v>77.406677887924062</v>
-      </c>
-      <c r="C83" s="1">
+        <v>12684.486621533682</v>
+      </c>
+      <c r="D83" s="1">
         <f t="shared" si="10"/>
-        <v>12225.286621533684</v>
-      </c>
-      <c r="D83" s="1">
+        <v>983.06677887924059</v>
+      </c>
+      <c r="E83" s="1">
         <f t="shared" si="11"/>
-        <v>984.06677887924059</v>
-      </c>
-      <c r="E83" s="1">
-        <f t="shared" si="12"/>
         <v>43.421999999999997</v>
       </c>
       <c r="F83" s="1">
@@ -45907,11 +46136,11 @@
         <v>19351.227488369954</v>
       </c>
       <c r="G83">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="13"/>
-        <v>66</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J83" s="1">
@@ -45927,7 +46156,7 @@
         <v>11135.11561853799</v>
       </c>
       <c r="N83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7378559999999998</v>
       </c>
     </row>
@@ -45936,19 +46165,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
+        <f t="shared" si="8"/>
+        <v>83.517296981629883</v>
+      </c>
+      <c r="C84" s="1">
         <f t="shared" si="9"/>
-        <v>79.517296981629883</v>
-      </c>
-      <c r="C84" s="1">
+        <v>13092.70990926539</v>
+      </c>
+      <c r="D84" s="1">
         <f t="shared" si="10"/>
-        <v>12627.909909265391</v>
-      </c>
-      <c r="D84" s="1">
+        <v>1006.1729698162989</v>
+      </c>
+      <c r="E84" s="1">
         <f t="shared" si="11"/>
-        <v>1007.6729698162989</v>
-      </c>
-      <c r="E84" s="1">
-        <f t="shared" si="12"/>
         <v>43.821333333333328</v>
       </c>
       <c r="F84" s="1">
@@ -45956,11 +46185,11 @@
         <v>20472.950769792493</v>
       </c>
       <c r="G84">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="13"/>
-        <v>67</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J84" s="1">
@@ -45976,7 +46205,7 @@
         <v>11739.399537583346</v>
       </c>
       <c r="N84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7439521250000001</v>
       </c>
     </row>
@@ -45985,19 +46214,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
+        <f t="shared" si="8"/>
+        <v>85.779402515786089</v>
+      </c>
+      <c r="C85" s="1">
         <f t="shared" si="9"/>
-        <v>81.779402515786089</v>
-      </c>
-      <c r="C85" s="1">
+        <v>13524.657735856443</v>
+      </c>
+      <c r="D85" s="1">
         <f t="shared" si="10"/>
-        <v>13054.257735856443</v>
-      </c>
-      <c r="D85" s="1">
+        <v>1030.7940251578609</v>
+      </c>
+      <c r="E85" s="1">
         <f t="shared" si="11"/>
-        <v>1032.7940251578609</v>
-      </c>
-      <c r="E85" s="1">
-        <f t="shared" si="12"/>
         <v>44.216666666666669</v>
       </c>
       <c r="F85" s="1">
@@ -46005,11 +46234,11 @@
         <v>22513.185073501696</v>
       </c>
       <c r="G85">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="13"/>
-        <v>68</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="J85" s="1">
@@ -46025,7 +46254,7 @@
         <v>12865.022702610695</v>
       </c>
       <c r="N85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7499530000000001</v>
       </c>
     </row>
@@ -46034,19 +46263,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
+        <f t="shared" si="8"/>
+        <v>88.203867196751233</v>
+      </c>
+      <c r="C86" s="1">
         <f t="shared" si="9"/>
-        <v>84.203867196751233</v>
-      </c>
-      <c r="C86" s="1">
+        <v>13982.260196413396</v>
+      </c>
+      <c r="D86" s="1">
         <f t="shared" si="10"/>
-        <v>13506.260196413396</v>
-      </c>
-      <c r="D86" s="1">
+        <v>1057.0386719675123</v>
+      </c>
+      <c r="E86" s="1">
         <f t="shared" si="11"/>
-        <v>1059.5386719675123</v>
-      </c>
-      <c r="E86" s="1">
-        <f t="shared" si="12"/>
         <v>44.608000000000004</v>
       </c>
       <c r="F86" s="1">
@@ -46054,11 +46283,11 @@
         <v>24151.093974175034</v>
       </c>
       <c r="G86">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="13"/>
-        <v>69</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="J86" s="1">
@@ -46074,7 +46303,7 @@
         <v>13754.571874057416</v>
       </c>
       <c r="N86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.755859375</v>
       </c>
     </row>
@@ -46083,19 +46312,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
+        <f t="shared" si="8"/>
+        <v>90.802344102666183</v>
+      </c>
+      <c r="C87" s="1">
         <f t="shared" si="9"/>
-        <v>86.802344102666183</v>
-      </c>
-      <c r="C87" s="1">
+        <v>14467.602229961009</v>
+      </c>
+      <c r="D87" s="1">
         <f t="shared" si="10"/>
-        <v>13986.002229961008</v>
-      </c>
-      <c r="D87" s="1">
+        <v>1085.0234410266619</v>
+      </c>
+      <c r="E87" s="1">
         <f t="shared" si="11"/>
-        <v>1088.0234410266619</v>
-      </c>
-      <c r="E87" s="1">
-        <f t="shared" si="12"/>
         <v>44.995333333333335</v>
       </c>
       <c r="F87" s="1">
@@ -46103,11 +46332,11 @@
         <v>26350.15483087135</v>
       </c>
       <c r="G87">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="13"/>
-        <v>69</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="J87" s="1">
@@ -46123,7 +46352,7 @@
         <v>14957.469285355817</v>
       </c>
       <c r="N87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7616719999999999</v>
       </c>
     </row>
@@ -46132,19 +46361,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
+        <f t="shared" si="8"/>
+        <v>93.587322693439219</v>
+      </c>
+      <c r="C88" s="1">
         <f t="shared" si="9"/>
-        <v>89.587322693439219</v>
-      </c>
-      <c r="C88" s="1">
+        <v>14982.935904060896</v>
+      </c>
+      <c r="D88" s="1">
         <f t="shared" si="10"/>
-        <v>14495.735904060897</v>
-      </c>
-      <c r="D88" s="1">
+        <v>1114.8732269343923</v>
+      </c>
+      <c r="E88" s="1">
         <f t="shared" si="11"/>
-        <v>1118.3732269343923</v>
-      </c>
-      <c r="E88" s="1">
-        <f t="shared" si="12"/>
         <v>45.378666666666668</v>
       </c>
       <c r="F88" s="1">
@@ -46152,11 +46381,11 @@
         <v>28139.654463183873</v>
       </c>
       <c r="G88">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="J88" s="1">
@@ -46172,7 +46401,7 @@
         <v>15921.572822426311</v>
       </c>
       <c r="N88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7673916250000001</v>
       </c>
     </row>
@@ -46181,19 +46410,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
+        <f t="shared" si="8"/>
+        <v>96.572188840761555</v>
+      </c>
+      <c r="C89" s="1">
         <f t="shared" si="9"/>
-        <v>92.572188840761555</v>
-      </c>
-      <c r="C89" s="1">
+        <v>15530.693665181823</v>
+      </c>
+      <c r="D89" s="1">
         <f t="shared" si="10"/>
-        <v>15037.893665181822</v>
-      </c>
-      <c r="D89" s="1">
+        <v>1146.7218884076156</v>
+      </c>
+      <c r="E89" s="1">
         <f t="shared" si="11"/>
-        <v>1150.7218884076156</v>
-      </c>
-      <c r="E89" s="1">
-        <f t="shared" si="12"/>
         <v>45.757999999999996</v>
       </c>
       <c r="F89" s="1">
@@ -46201,11 +46430,11 @@
         <v>30846.474933344991</v>
       </c>
       <c r="G89">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="13"/>
-        <v>71</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="J89" s="1">
@@ -46221,7 +46450,7 @@
         <v>17397.712564470541</v>
       </c>
       <c r="N89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7730190000000001</v>
       </c>
     </row>
@@ -46230,19 +46459,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
+        <f t="shared" si="8"/>
+        <v>99.771289166684539</v>
+      </c>
+      <c r="C90" s="1">
         <f t="shared" si="9"/>
-        <v>95.771289166684539</v>
-      </c>
-      <c r="C90" s="1">
+        <v>16113.502630168892</v>
+      </c>
+      <c r="D90" s="1">
         <f t="shared" si="10"/>
-        <v>15615.102630168891</v>
-      </c>
-      <c r="D90" s="1">
+        <v>1180.7128916668453</v>
+      </c>
+      <c r="E90" s="1">
         <f t="shared" si="11"/>
-        <v>1185.2128916668453</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" si="12"/>
         <v>46.133333333333333</v>
       </c>
       <c r="F90" s="1">
@@ -46250,11 +46479,11 @@
         <v>33195.780346820808</v>
       </c>
       <c r="G90">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="13"/>
-        <v>72</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="J90" s="1">
@@ -46270,7 +46499,7 @@
         <v>18664.467885378464</v>
       </c>
       <c r="N90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.778554875</v>
       </c>
     </row>
@@ -46279,19 +46508,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
+        <f t="shared" si="8"/>
+        <v>128.19999999999999</v>
+      </c>
+      <c r="C91" s="1">
         <f t="shared" si="9"/>
-        <v>119.2</v>
-      </c>
-      <c r="C91" s="1">
+        <v>19884.199999999997</v>
+      </c>
+      <c r="D91" s="1">
         <f t="shared" si="10"/>
-        <v>18750.199999999997</v>
-      </c>
-      <c r="D91" s="1">
+        <v>1467</v>
+      </c>
+      <c r="E91" s="1">
         <f t="shared" si="11"/>
-        <v>1422</v>
-      </c>
-      <c r="E91" s="1">
-        <f t="shared" si="12"/>
         <v>46.504666666666665</v>
       </c>
       <c r="F91" s="1">
@@ -46299,11 +46528,11 @@
         <v>37890.54145103717</v>
       </c>
       <c r="G91">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="13"/>
-        <v>73</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="J91" s="1">
@@ -46319,7 +46548,7 @@
         <v>21239.092741612763</v>
       </c>
       <c r="N91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.784</v>
       </c>
     </row>
@@ -46328,19 +46557,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
+        <f t="shared" si="8"/>
+        <v>131.8748012818582</v>
+      </c>
+      <c r="C92" s="1">
         <f t="shared" si="9"/>
-        <v>122.87480128185821</v>
-      </c>
-      <c r="C92" s="1">
+        <v>20580.849683308734</v>
+      </c>
+      <c r="D92" s="1">
         <f t="shared" si="10"/>
-        <v>19434.249683308735</v>
-      </c>
-      <c r="D92" s="1">
+        <v>1505.7480128185821</v>
+      </c>
+      <c r="E92" s="1">
         <f t="shared" si="11"/>
-        <v>1461.2480128185821</v>
-      </c>
-      <c r="E92" s="1">
-        <f t="shared" si="12"/>
         <v>46.872</v>
       </c>
       <c r="F92" s="1">
@@ -46348,11 +46577,11 @@
         <v>40589.84041645332</v>
       </c>
       <c r="G92">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="13"/>
-        <v>73</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="J92" s="1">
@@ -46368,7 +46597,7 @@
         <v>22684.060782206838</v>
       </c>
       <c r="N92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7893551250000002</v>
       </c>
     </row>
@@ -46377,19 +46606,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
+        <f t="shared" si="8"/>
+        <v>135.81335577584815</v>
+      </c>
+      <c r="C93" s="1">
         <f t="shared" si="9"/>
-        <v>126.81335577584814</v>
-      </c>
-      <c r="C93" s="1">
+        <v>21321.760223929239</v>
+      </c>
+      <c r="D93" s="1">
         <f t="shared" si="10"/>
-        <v>20162.560223929238</v>
-      </c>
-      <c r="D93" s="1">
+        <v>1547.1335577584814</v>
+      </c>
+      <c r="E93" s="1">
         <f t="shared" si="11"/>
-        <v>1503.1335577584814</v>
-      </c>
-      <c r="E93" s="1">
-        <f t="shared" si="12"/>
         <v>47.23533333333333</v>
       </c>
       <c r="F93" s="1">
@@ -46397,11 +46626,11 @@
         <v>44216.412854783848</v>
       </c>
       <c r="G93">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="13"/>
-        <v>74</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="J93" s="1">
@@ -46417,7 +46646,7 @@
         <v>24638.30126516064</v>
       </c>
       <c r="N93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.7946209999999998</v>
       </c>
     </row>
@@ -46426,19 +46655,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
+        <f t="shared" si="8"/>
+        <v>140.03459396325971</v>
+      </c>
+      <c r="C94" s="1">
         <f t="shared" si="9"/>
-        <v>131.03459396325971</v>
-      </c>
-      <c r="C94" s="1">
+        <v>22110.504134016413</v>
+      </c>
+      <c r="D94" s="1">
         <f t="shared" si="10"/>
-        <v>20938.704134016414</v>
-      </c>
-      <c r="D94" s="1">
+        <v>1591.345939632597</v>
+      </c>
+      <c r="E94" s="1">
         <f t="shared" si="11"/>
-        <v>1547.845939632597</v>
-      </c>
-      <c r="E94" s="1">
-        <f t="shared" si="12"/>
         <v>47.594666666666669</v>
       </c>
       <c r="F94" s="1">
@@ -46446,11 +46675,11 @@
         <v>47537.006947557151</v>
       </c>
       <c r="G94">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="13"/>
-        <v>75</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="J94" s="1">
@@ -46466,7 +46695,7 @@
         <v>26412.406860605788</v>
       </c>
       <c r="N94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.799798375</v>
       </c>
     </row>
@@ -46475,19 +46704,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
+        <f t="shared" si="8"/>
+        <v>144.55880503157218</v>
+      </c>
+      <c r="C95" s="1">
         <f t="shared" si="9"/>
-        <v>135.55880503157218</v>
-      </c>
-      <c r="C95" s="1">
+        <v>22950.9387421549</v>
+      </c>
+      <c r="D95" s="1">
         <f t="shared" si="10"/>
-        <v>21766.538742154899</v>
-      </c>
-      <c r="D95" s="1">
+        <v>1638.5880503157218</v>
+      </c>
+      <c r="E95" s="1">
         <f t="shared" si="11"/>
-        <v>1595.5880503157218</v>
-      </c>
-      <c r="E95" s="1">
-        <f t="shared" si="12"/>
         <v>47.95</v>
       </c>
       <c r="F95" s="1">
@@ -46495,11 +46724,11 @@
         <v>53172.888425443169</v>
       </c>
       <c r="G95">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="13"/>
-        <v>76</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="J95" s="1">
@@ -46515,7 +46744,7 @@
         <v>29460.491967060094</v>
       </c>
       <c r="N95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.804888</v>
       </c>
     </row>
@@ -46524,19 +46753,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
+        <f t="shared" si="8"/>
+        <v>149.40773439350247</v>
+      </c>
+      <c r="C96" s="1">
         <f t="shared" si="9"/>
-        <v>140.40773439350247</v>
-      </c>
-      <c r="C96" s="1">
+        <v>23847.228674335824</v>
+      </c>
+      <c r="D96" s="1">
         <f t="shared" si="10"/>
-        <v>22650.228674335827</v>
-      </c>
-      <c r="D96" s="1">
+        <v>1689.0773439350246</v>
+      </c>
+      <c r="E96" s="1">
         <f t="shared" si="11"/>
-        <v>1646.5773439350246</v>
-      </c>
-      <c r="E96" s="1">
-        <f t="shared" si="12"/>
         <v>48.301333333333332</v>
       </c>
       <c r="F96" s="1">
@@ -46544,11 +46773,11 @@
         <v>56916.461933417988</v>
       </c>
       <c r="G96">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="13"/>
-        <v>77</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="J96" s="1">
@@ -46564,7 +46793,7 @@
         <v>31447.459391872362</v>
       </c>
       <c r="N96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.809890625</v>
       </c>
     </row>
@@ -46573,19 +46802,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
+        <f t="shared" si="8"/>
+        <v>154.60468820533237</v>
+      </c>
+      <c r="C97" s="1">
         <f t="shared" si="9"/>
-        <v>145.60468820533237</v>
-      </c>
-      <c r="C97" s="1">
+        <v>24803.870094796664</v>
+      </c>
+      <c r="D97" s="1">
         <f t="shared" si="10"/>
-        <v>23594.270094796666</v>
-      </c>
-      <c r="D97" s="1">
+        <v>1743.0468820533238</v>
+      </c>
+      <c r="E97" s="1">
         <f t="shared" si="11"/>
-        <v>1701.0468820533238</v>
-      </c>
-      <c r="E97" s="1">
-        <f t="shared" si="12"/>
         <v>48.648666666666671</v>
       </c>
       <c r="F97" s="1">
@@ -46593,11 +46822,11 @@
         <v>61603.024406287252</v>
       </c>
       <c r="G97">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="13"/>
-        <v>77</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="J97" s="1">
@@ -46613,7 +46842,7 @@
         <v>33944.66982234874</v>
       </c>
       <c r="N97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.8148070000000001</v>
       </c>
     </row>
@@ -46622,19 +46851,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
+        <f t="shared" si="8"/>
+        <v>160.17464538687844</v>
+      </c>
+      <c r="C98" s="1">
         <f t="shared" si="9"/>
-        <v>151.17464538687844</v>
-      </c>
-      <c r="C98" s="1">
+        <v>25825.716843538095</v>
+      </c>
+      <c r="D98" s="1">
         <f t="shared" si="10"/>
-        <v>24603.516843538095</v>
-      </c>
-      <c r="D98" s="1">
+        <v>1800.7464538687843</v>
+      </c>
+      <c r="E98" s="1">
         <f t="shared" si="11"/>
-        <v>1759.2464538687843</v>
-      </c>
-      <c r="E98" s="1">
-        <f t="shared" si="12"/>
         <v>48.992000000000004</v>
       </c>
       <c r="F98" s="1">
@@ -46642,11 +46871,11 @@
         <v>66036.475342913123</v>
       </c>
       <c r="G98">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="J98" s="1">
@@ -46662,7 +46891,7 @@
         <v>36290.998472931387</v>
       </c>
       <c r="N98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.8196378750000002</v>
       </c>
     </row>
@@ -46671,19 +46900,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
+        <f t="shared" si="8"/>
+        <v>166.14437768152311</v>
+      </c>
+      <c r="C99" s="1">
         <f t="shared" si="9"/>
-        <v>157.14437768152311</v>
-      </c>
-      <c r="C99" s="1">
+        <v>26918.008617904969</v>
+      </c>
+      <c r="D99" s="1">
         <f t="shared" si="10"/>
-        <v>25683.208617904969</v>
-      </c>
-      <c r="D99" s="1">
+        <v>1862.4437768152311</v>
+      </c>
+      <c r="E99" s="1">
         <f t="shared" si="11"/>
-        <v>1821.4437768152311</v>
-      </c>
-      <c r="E99" s="1">
-        <f t="shared" si="12"/>
         <v>49.331333333333333</v>
       </c>
       <c r="F99" s="1">
@@ -46691,11 +46920,11 @@
         <v>72765.132370231222</v>
       </c>
       <c r="G99">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="13"/>
-        <v>79</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="J99" s="1">
@@ -46711,7 +46940,7 @@
         <v>39884.767883423243</v>
       </c>
       <c r="N99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.824384</v>
       </c>
     </row>
@@ -46720,19 +46949,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
+        <f t="shared" si="8"/>
+        <v>172.54257833336908</v>
+      </c>
+      <c r="C100" s="1">
         <f t="shared" si="9"/>
-        <v>163.54257833336908</v>
-      </c>
-      <c r="C100" s="1">
+        <v>28086.401357004954</v>
+      </c>
+      <c r="D100" s="1">
         <f t="shared" si="10"/>
-        <v>26839.001357004952</v>
-      </c>
-      <c r="D100" s="1">
+        <v>1928.4257833336908</v>
+      </c>
+      <c r="E100" s="1">
         <f t="shared" si="11"/>
-        <v>1887.9257833336908</v>
-      </c>
-      <c r="E100" s="1">
-        <f t="shared" si="12"/>
         <v>49.666666666666671</v>
       </c>
       <c r="F100" s="1">
@@ -46740,11 +46969,11 @@
         <v>77701.288590604017</v>
       </c>
       <c r="G100">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="13"/>
-        <v>80</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="J100" s="1">
@@ -46760,7 +46989,7 @@
         <v>42481.863922706711</v>
       </c>
       <c r="N100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.8290461250000001</v>
       </c>
     </row>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A099BD5A-BDE1-43FB-9610-C7C24588F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B167A517-D173-499F-BD72-803F5841CBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="883" yWindow="2889" windowWidth="29220" windowHeight="11442" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1136">
   <si>
     <t>Id</t>
   </si>
@@ -3456,6 +3456,9 @@
   </si>
   <si>
     <t>Raptice</t>
+  </si>
+  <si>
+    <t>raptice.spr</t>
   </si>
 </sst>
 </file>
@@ -3898,10 +3901,10 @@
   <dimension ref="A1:AJ306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U295" sqref="U295"/>
+      <selection pane="bottomRight" activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -36686,7 +36689,7 @@
         <v>324</v>
       </c>
       <c r="AF306" t="s">
-        <v>340</v>
+        <v>1135</v>
       </c>
       <c r="AG306">
         <v>0</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A636066-4C20-4140-922A-81A1A0DD21EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BA483-3DB5-4B0F-9DBF-2C7B3247BF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2331" yWindow="2983" windowWidth="28346" windowHeight="14786" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="1169">
   <si>
     <t>Id</t>
   </si>
@@ -3474,6 +3474,90 @@
   </si>
   <si>
     <t>Stitch</t>
+  </si>
+  <si>
+    <t>SOLDIER_ANDRE</t>
+  </si>
+  <si>
+    <t>SOLDIER_DENIRO</t>
+  </si>
+  <si>
+    <t>SOLDIER_PIERE</t>
+  </si>
+  <si>
+    <t>Soldier Andre</t>
+  </si>
+  <si>
+    <t>Soldier Deniro</t>
+  </si>
+  <si>
+    <t>Soldier Piere</t>
+  </si>
+  <si>
+    <t>soldier_andre.spr</t>
+  </si>
+  <si>
+    <t>soldier_deniro.spr</t>
+  </si>
+  <si>
+    <t>soldier_piere.spr</t>
+  </si>
+  <si>
+    <t>ANDRE_LARVA</t>
+  </si>
+  <si>
+    <t>DENIRO_LARVA</t>
+  </si>
+  <si>
+    <t>PIERE_LARVA</t>
+  </si>
+  <si>
+    <t>Andre Larva</t>
+  </si>
+  <si>
+    <t>Deniro Larva</t>
+  </si>
+  <si>
+    <t>Piere Larva</t>
+  </si>
+  <si>
+    <t>ANT_EGG2</t>
+  </si>
+  <si>
+    <t>Mature Ant Egg</t>
+  </si>
+  <si>
+    <t>andre_larva.spr</t>
+  </si>
+  <si>
+    <t>deniro_larva.spr</t>
+  </si>
+  <si>
+    <t>piere_larva.spr</t>
+  </si>
+  <si>
+    <t>fungus.spr</t>
+  </si>
+  <si>
+    <t>deathspore.spr</t>
+  </si>
+  <si>
+    <t>FUNGUS</t>
+  </si>
+  <si>
+    <t>DEATHSPORE</t>
+  </si>
+  <si>
+    <t>Fungus</t>
+  </si>
+  <si>
+    <t>Deathspore</t>
+  </si>
+  <si>
+    <t>Stationary,Plant</t>
+  </si>
+  <si>
+    <t>Stationary</t>
   </si>
 </sst>
 </file>
@@ -3542,7 +3626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3555,6 +3639,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3914,13 +3999,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
-  <dimension ref="A1:AJ307"/>
+  <dimension ref="A1:AJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O305" sqref="O305"/>
+      <selection pane="bottomRight" activeCell="B312" sqref="B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10730,16 +10815,16 @@
         <v>100</v>
       </c>
       <c r="I64">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J64">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>100</v>
       </c>
       <c r="L64">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M64">
         <v>10</v>
@@ -11360,7 +11445,7 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F70">
         <v>100</v>
@@ -12213,7 +12298,7 @@
         <v>314</v>
       </c>
       <c r="D78">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E78">
         <v>130</v>
@@ -12222,7 +12307,7 @@
         <v>60</v>
       </c>
       <c r="G78">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="H78">
         <v>110</v>
@@ -12252,7 +12337,7 @@
         <v>110</v>
       </c>
       <c r="Q78">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="R78">
         <v>100</v>
@@ -12427,10 +12512,10 @@
         <v>320</v>
       </c>
       <c r="D80">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E80">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F80">
         <v>100</v>
@@ -12451,7 +12536,7 @@
         <v>100</v>
       </c>
       <c r="L80">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M80">
         <v>10</v>
@@ -12534,7 +12619,7 @@
         <v>324</v>
       </c>
       <c r="D81">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -12558,7 +12643,7 @@
         <v>100</v>
       </c>
       <c r="L81">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M81">
         <v>10</v>
@@ -14749,7 +14834,7 @@
         <v>41</v>
       </c>
       <c r="AC101" t="s">
-        <v>39</v>
+        <v>1167</v>
       </c>
       <c r="AD101" t="s">
         <v>115</v>
@@ -36178,7 +36263,7 @@
     </row>
     <row r="302" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A302">
-        <v>4298</v>
+        <v>6000</v>
       </c>
       <c r="B302" t="s">
         <v>1096</v>
@@ -36288,7 +36373,7 @@
     </row>
     <row r="303" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A303">
-        <v>4299</v>
+        <v>6001</v>
       </c>
       <c r="B303" t="s">
         <v>1105</v>
@@ -36395,7 +36480,7 @@
     </row>
     <row r="304" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A304">
-        <v>4300</v>
+        <v>6002</v>
       </c>
       <c r="B304" t="s">
         <v>1106</v>
@@ -36505,7 +36590,7 @@
     </row>
     <row r="305" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A305">
-        <v>4301</v>
+        <v>6003</v>
       </c>
       <c r="B305" t="s">
         <v>1126</v>
@@ -36547,10 +36632,10 @@
         <v>1</v>
       </c>
       <c r="O305">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="P305">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q305">
         <v>100</v>
@@ -36612,7 +36697,7 @@
     </row>
     <row r="306" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A306">
-        <v>4302</v>
+        <v>6004</v>
       </c>
       <c r="B306" t="s">
         <v>1129</v>
@@ -36684,7 +36769,7 @@
         <v>1540</v>
       </c>
       <c r="Y306">
-        <v>432</v>
+        <v>576</v>
       </c>
       <c r="Z306">
         <v>720</v>
@@ -36719,7 +36804,7 @@
     </row>
     <row r="307" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A307">
-        <v>4303</v>
+        <v>6005</v>
       </c>
       <c r="B307" t="s">
         <v>1139</v>
@@ -36728,7 +36813,7 @@
         <v>1140</v>
       </c>
       <c r="D307">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E307">
         <v>100</v>
@@ -36825,6 +36910,969 @@
       </c>
       <c r="AJ307" t="s">
         <v>1138</v>
+      </c>
+    </row>
+    <row r="308" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A308">
+        <v>6006</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D308">
+        <v>31</v>
+      </c>
+      <c r="E308">
+        <v>100</v>
+      </c>
+      <c r="F308">
+        <v>100</v>
+      </c>
+      <c r="G308">
+        <v>100</v>
+      </c>
+      <c r="H308">
+        <v>100</v>
+      </c>
+      <c r="I308">
+        <v>100</v>
+      </c>
+      <c r="J308">
+        <v>100</v>
+      </c>
+      <c r="K308">
+        <v>100</v>
+      </c>
+      <c r="L308">
+        <v>100</v>
+      </c>
+      <c r="M308">
+        <v>10</v>
+      </c>
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308">
+        <v>100</v>
+      </c>
+      <c r="P308">
+        <v>100</v>
+      </c>
+      <c r="Q308">
+        <v>100</v>
+      </c>
+      <c r="R308">
+        <v>100</v>
+      </c>
+      <c r="S308">
+        <v>10</v>
+      </c>
+      <c r="T308">
+        <v>12</v>
+      </c>
+      <c r="U308" t="s">
+        <v>47</v>
+      </c>
+      <c r="V308" t="s">
+        <v>48</v>
+      </c>
+      <c r="W308" t="s">
+        <v>113</v>
+      </c>
+      <c r="X308">
+        <v>916</v>
+      </c>
+      <c r="Y308">
+        <v>576</v>
+      </c>
+      <c r="Z308">
+        <v>648</v>
+      </c>
+      <c r="AA308">
+        <v>250</v>
+      </c>
+      <c r="AB308" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC308" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD308" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AE308">
+        <v>180</v>
+      </c>
+      <c r="AF308" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AG308">
+        <v>0</v>
+      </c>
+      <c r="AH308">
+        <v>0.5</v>
+      </c>
+      <c r="AI308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A309">
+        <v>6007</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D309">
+        <v>33</v>
+      </c>
+      <c r="E309">
+        <v>100</v>
+      </c>
+      <c r="F309">
+        <v>100</v>
+      </c>
+      <c r="G309">
+        <v>100</v>
+      </c>
+      <c r="H309">
+        <v>100</v>
+      </c>
+      <c r="I309">
+        <v>100</v>
+      </c>
+      <c r="J309">
+        <v>100</v>
+      </c>
+      <c r="K309">
+        <v>100</v>
+      </c>
+      <c r="L309">
+        <v>130</v>
+      </c>
+      <c r="M309">
+        <v>10</v>
+      </c>
+      <c r="N309">
+        <v>1</v>
+      </c>
+      <c r="O309">
+        <v>100</v>
+      </c>
+      <c r="P309">
+        <v>100</v>
+      </c>
+      <c r="Q309">
+        <v>100</v>
+      </c>
+      <c r="R309">
+        <v>100</v>
+      </c>
+      <c r="S309">
+        <v>10</v>
+      </c>
+      <c r="T309">
+        <v>12</v>
+      </c>
+      <c r="U309" t="s">
+        <v>47</v>
+      </c>
+      <c r="V309" t="s">
+        <v>48</v>
+      </c>
+      <c r="W309" t="s">
+        <v>113</v>
+      </c>
+      <c r="X309">
+        <v>1200</v>
+      </c>
+      <c r="Y309">
+        <v>576</v>
+      </c>
+      <c r="Z309">
+        <v>648</v>
+      </c>
+      <c r="AA309">
+        <v>160</v>
+      </c>
+      <c r="AB309" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC309" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD309" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AE309">
+        <v>144</v>
+      </c>
+      <c r="AF309" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AG309">
+        <v>0</v>
+      </c>
+      <c r="AH309">
+        <v>0.5</v>
+      </c>
+      <c r="AI309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A310">
+        <v>6008</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D310">
+        <v>36</v>
+      </c>
+      <c r="E310">
+        <v>100</v>
+      </c>
+      <c r="F310">
+        <v>100</v>
+      </c>
+      <c r="G310">
+        <v>100</v>
+      </c>
+      <c r="H310">
+        <v>100</v>
+      </c>
+      <c r="I310">
+        <v>100</v>
+      </c>
+      <c r="J310">
+        <v>100</v>
+      </c>
+      <c r="K310">
+        <v>100</v>
+      </c>
+      <c r="L310">
+        <v>100</v>
+      </c>
+      <c r="M310">
+        <v>10</v>
+      </c>
+      <c r="N310">
+        <v>1</v>
+      </c>
+      <c r="O310">
+        <v>100</v>
+      </c>
+      <c r="P310">
+        <v>100</v>
+      </c>
+      <c r="Q310">
+        <v>110</v>
+      </c>
+      <c r="R310">
+        <v>100</v>
+      </c>
+      <c r="S310">
+        <v>10</v>
+      </c>
+      <c r="T310">
+        <v>12</v>
+      </c>
+      <c r="U310" t="s">
+        <v>47</v>
+      </c>
+      <c r="V310" t="s">
+        <v>48</v>
+      </c>
+      <c r="W310" t="s">
+        <v>113</v>
+      </c>
+      <c r="X310">
+        <v>800</v>
+      </c>
+      <c r="Y310">
+        <v>576</v>
+      </c>
+      <c r="Z310">
+        <v>648</v>
+      </c>
+      <c r="AA310">
+        <v>200</v>
+      </c>
+      <c r="AB310" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC310" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD310" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AE310">
+        <v>144</v>
+      </c>
+      <c r="AF310" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AG310">
+        <v>0</v>
+      </c>
+      <c r="AH310">
+        <v>0.5</v>
+      </c>
+      <c r="AI310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A311">
+        <v>6009</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D311">
+        <v>18</v>
+      </c>
+      <c r="E311">
+        <v>100</v>
+      </c>
+      <c r="F311">
+        <v>100</v>
+      </c>
+      <c r="G311">
+        <v>100</v>
+      </c>
+      <c r="H311">
+        <v>100</v>
+      </c>
+      <c r="I311">
+        <v>100</v>
+      </c>
+      <c r="J311">
+        <v>100</v>
+      </c>
+      <c r="K311">
+        <v>100</v>
+      </c>
+      <c r="L311">
+        <v>150</v>
+      </c>
+      <c r="M311">
+        <v>10</v>
+      </c>
+      <c r="N311">
+        <v>1</v>
+      </c>
+      <c r="O311">
+        <v>100</v>
+      </c>
+      <c r="P311">
+        <v>100</v>
+      </c>
+      <c r="Q311">
+        <v>170</v>
+      </c>
+      <c r="R311">
+        <v>170</v>
+      </c>
+      <c r="S311">
+        <v>10</v>
+      </c>
+      <c r="T311">
+        <v>12</v>
+      </c>
+      <c r="U311" t="s">
+        <v>47</v>
+      </c>
+      <c r="V311" t="s">
+        <v>48</v>
+      </c>
+      <c r="W311" t="s">
+        <v>49</v>
+      </c>
+      <c r="X311">
+        <v>600</v>
+      </c>
+      <c r="Y311">
+        <v>384</v>
+      </c>
+      <c r="Z311">
+        <v>288</v>
+      </c>
+      <c r="AA311">
+        <v>160</v>
+      </c>
+      <c r="AB311" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC311" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD311" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AE311">
+        <v>180</v>
+      </c>
+      <c r="AF311" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AG311">
+        <v>0</v>
+      </c>
+      <c r="AH311">
+        <v>0.25</v>
+      </c>
+      <c r="AI311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A312">
+        <v>6010</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D312">
+        <v>20</v>
+      </c>
+      <c r="E312">
+        <v>100</v>
+      </c>
+      <c r="F312">
+        <v>100</v>
+      </c>
+      <c r="G312">
+        <v>100</v>
+      </c>
+      <c r="H312">
+        <v>100</v>
+      </c>
+      <c r="I312">
+        <v>100</v>
+      </c>
+      <c r="J312">
+        <v>100</v>
+      </c>
+      <c r="K312">
+        <v>100</v>
+      </c>
+      <c r="L312">
+        <v>150</v>
+      </c>
+      <c r="M312">
+        <v>10</v>
+      </c>
+      <c r="N312">
+        <v>1</v>
+      </c>
+      <c r="O312">
+        <v>100</v>
+      </c>
+      <c r="P312">
+        <v>100</v>
+      </c>
+      <c r="Q312">
+        <v>170</v>
+      </c>
+      <c r="R312">
+        <v>170</v>
+      </c>
+      <c r="S312">
+        <v>10</v>
+      </c>
+      <c r="T312">
+        <v>12</v>
+      </c>
+      <c r="U312" t="s">
+        <v>47</v>
+      </c>
+      <c r="V312" t="s">
+        <v>48</v>
+      </c>
+      <c r="W312" t="s">
+        <v>49</v>
+      </c>
+      <c r="X312">
+        <v>600</v>
+      </c>
+      <c r="Y312">
+        <v>576</v>
+      </c>
+      <c r="Z312">
+        <v>288</v>
+      </c>
+      <c r="AA312">
+        <v>80</v>
+      </c>
+      <c r="AB312" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC312" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD312" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AE312">
+        <v>144</v>
+      </c>
+      <c r="AF312" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AG312">
+        <v>0</v>
+      </c>
+      <c r="AH312">
+        <v>0.25</v>
+      </c>
+      <c r="AI312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A313">
+        <v>6011</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D313">
+        <v>22</v>
+      </c>
+      <c r="E313">
+        <v>100</v>
+      </c>
+      <c r="F313">
+        <v>100</v>
+      </c>
+      <c r="G313">
+        <v>100</v>
+      </c>
+      <c r="H313">
+        <v>100</v>
+      </c>
+      <c r="I313">
+        <v>100</v>
+      </c>
+      <c r="J313">
+        <v>100</v>
+      </c>
+      <c r="K313">
+        <v>100</v>
+      </c>
+      <c r="L313">
+        <v>150</v>
+      </c>
+      <c r="M313">
+        <v>10</v>
+      </c>
+      <c r="N313">
+        <v>1</v>
+      </c>
+      <c r="O313">
+        <v>100</v>
+      </c>
+      <c r="P313">
+        <v>100</v>
+      </c>
+      <c r="Q313">
+        <v>170</v>
+      </c>
+      <c r="R313">
+        <v>170</v>
+      </c>
+      <c r="S313">
+        <v>10</v>
+      </c>
+      <c r="T313">
+        <v>12</v>
+      </c>
+      <c r="U313" t="s">
+        <v>47</v>
+      </c>
+      <c r="V313" t="s">
+        <v>48</v>
+      </c>
+      <c r="W313" t="s">
+        <v>49</v>
+      </c>
+      <c r="X313">
+        <v>600</v>
+      </c>
+      <c r="Y313">
+        <v>576</v>
+      </c>
+      <c r="Z313">
+        <v>288</v>
+      </c>
+      <c r="AA313">
+        <v>140</v>
+      </c>
+      <c r="AB313" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC313" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD313" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AE313">
+        <v>144</v>
+      </c>
+      <c r="AF313" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AG313">
+        <v>0</v>
+      </c>
+      <c r="AH313">
+        <v>0.25</v>
+      </c>
+      <c r="AI313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A314">
+        <v>6012</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D314">
+        <v>20</v>
+      </c>
+      <c r="E314">
+        <v>100</v>
+      </c>
+      <c r="F314">
+        <v>100</v>
+      </c>
+      <c r="G314">
+        <v>100</v>
+      </c>
+      <c r="H314">
+        <v>100</v>
+      </c>
+      <c r="I314">
+        <v>100</v>
+      </c>
+      <c r="J314">
+        <v>100</v>
+      </c>
+      <c r="K314">
+        <v>100</v>
+      </c>
+      <c r="L314">
+        <v>100</v>
+      </c>
+      <c r="M314">
+        <v>10</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+      <c r="O314">
+        <v>100</v>
+      </c>
+      <c r="P314">
+        <v>100</v>
+      </c>
+      <c r="Q314">
+        <v>170</v>
+      </c>
+      <c r="R314">
+        <v>170</v>
+      </c>
+      <c r="S314">
+        <v>10</v>
+      </c>
+      <c r="T314">
+        <v>12</v>
+      </c>
+      <c r="U314" t="s">
+        <v>47</v>
+      </c>
+      <c r="V314" t="s">
+        <v>140</v>
+      </c>
+      <c r="W314" t="s">
+        <v>54</v>
+      </c>
+      <c r="X314">
+        <v>1001</v>
+      </c>
+      <c r="Y314">
+        <v>1</v>
+      </c>
+      <c r="Z314">
+        <v>1</v>
+      </c>
+      <c r="AA314">
+        <v>1000</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC314" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD314" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE314">
+        <v>672</v>
+      </c>
+      <c r="AF314" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG314">
+        <v>0</v>
+      </c>
+      <c r="AH314">
+        <v>-1</v>
+      </c>
+      <c r="AI314">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="315" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A315">
+        <v>6013</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D315">
+        <v>36</v>
+      </c>
+      <c r="E315">
+        <v>100</v>
+      </c>
+      <c r="F315">
+        <v>100</v>
+      </c>
+      <c r="G315">
+        <v>100</v>
+      </c>
+      <c r="H315">
+        <v>80</v>
+      </c>
+      <c r="I315">
+        <v>110</v>
+      </c>
+      <c r="J315">
+        <v>110</v>
+      </c>
+      <c r="K315">
+        <v>100</v>
+      </c>
+      <c r="L315">
+        <v>100</v>
+      </c>
+      <c r="M315">
+        <v>10</v>
+      </c>
+      <c r="N315">
+        <v>1</v>
+      </c>
+      <c r="O315">
+        <v>70</v>
+      </c>
+      <c r="P315">
+        <v>70</v>
+      </c>
+      <c r="Q315">
+        <v>100</v>
+      </c>
+      <c r="R315">
+        <v>100</v>
+      </c>
+      <c r="S315">
+        <v>10</v>
+      </c>
+      <c r="T315">
+        <v>12</v>
+      </c>
+      <c r="U315" t="s">
+        <v>38</v>
+      </c>
+      <c r="V315" t="s">
+        <v>39</v>
+      </c>
+      <c r="W315" t="s">
+        <v>437</v>
+      </c>
+      <c r="X315">
+        <v>1472</v>
+      </c>
+      <c r="Y315">
+        <v>288</v>
+      </c>
+      <c r="Z315">
+        <v>672</v>
+      </c>
+      <c r="AA315">
+        <v>180</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD315" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE315">
+        <v>528</v>
+      </c>
+      <c r="AF315" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AG315">
+        <v>0</v>
+      </c>
+      <c r="AH315">
+        <v>0.5</v>
+      </c>
+      <c r="AI315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A316">
+        <v>6014</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D316">
+        <v>42</v>
+      </c>
+      <c r="E316">
+        <v>90</v>
+      </c>
+      <c r="F316">
+        <v>100</v>
+      </c>
+      <c r="G316">
+        <v>100</v>
+      </c>
+      <c r="H316">
+        <v>80</v>
+      </c>
+      <c r="I316">
+        <v>110</v>
+      </c>
+      <c r="J316">
+        <v>110</v>
+      </c>
+      <c r="K316">
+        <v>100</v>
+      </c>
+      <c r="L316">
+        <v>200</v>
+      </c>
+      <c r="M316">
+        <v>10</v>
+      </c>
+      <c r="N316">
+        <v>1</v>
+      </c>
+      <c r="O316">
+        <v>70</v>
+      </c>
+      <c r="P316">
+        <v>70</v>
+      </c>
+      <c r="Q316">
+        <v>125</v>
+      </c>
+      <c r="R316">
+        <v>125</v>
+      </c>
+      <c r="S316">
+        <v>10</v>
+      </c>
+      <c r="T316">
+        <v>12</v>
+      </c>
+      <c r="U316" t="s">
+        <v>38</v>
+      </c>
+      <c r="V316" t="s">
+        <v>39</v>
+      </c>
+      <c r="W316" t="s">
+        <v>1029</v>
+      </c>
+      <c r="X316">
+        <v>1272</v>
+      </c>
+      <c r="Y316">
+        <v>288</v>
+      </c>
+      <c r="Z316">
+        <v>672</v>
+      </c>
+      <c r="AA316">
+        <v>170</v>
+      </c>
+      <c r="AB316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC316" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD316" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE316">
+        <v>528</v>
+      </c>
+      <c r="AF316" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AG316">
+        <v>0</v>
+      </c>
+      <c r="AH316">
+        <v>0.5</v>
+      </c>
+      <c r="AI316">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -38932,11 +39980,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -39298,43 +40346,43 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>1168</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>80</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -39342,25 +40390,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>1111</v>
+        <v>176</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>80</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>120</v>
@@ -39369,16 +40417,16 @@
         <v>100</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -39386,13 +40434,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>1111</v>
       </c>
       <c r="B11">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>70</v>
@@ -39401,28 +40449,28 @@
         <v>80</v>
       </c>
       <c r="F11">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H11">
+        <v>120</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
         <v>80</v>
       </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>120</v>
-      </c>
       <c r="K11">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M11">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -39430,43 +40478,43 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="E12">
         <v>80</v>
       </c>
-      <c r="C12">
-        <v>105</v>
-      </c>
-      <c r="D12">
+      <c r="F12">
+        <v>112</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
         <v>80</v>
       </c>
-      <c r="E12">
-        <v>130</v>
-      </c>
-      <c r="F12">
-        <v>85</v>
-      </c>
-      <c r="G12">
-        <v>85</v>
-      </c>
-      <c r="H12">
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
         <v>120</v>
       </c>
-      <c r="I12">
-        <v>72</v>
-      </c>
-      <c r="J12">
-        <v>110</v>
-      </c>
       <c r="K12">
+        <v>120</v>
+      </c>
+      <c r="L12">
+        <v>92</v>
+      </c>
+      <c r="M12">
         <v>90</v>
-      </c>
-      <c r="L12">
-        <v>94</v>
-      </c>
-      <c r="M12">
-        <v>106</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -39474,43 +40522,43 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C13">
+        <v>105</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>130</v>
+      </c>
+      <c r="F13">
+        <v>85</v>
+      </c>
+      <c r="G13">
+        <v>85</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>72</v>
+      </c>
+      <c r="J13">
         <v>110</v>
       </c>
-      <c r="D13">
-        <v>110</v>
-      </c>
-      <c r="E13">
-        <v>98</v>
-      </c>
-      <c r="F13">
+      <c r="K13">
         <v>90</v>
       </c>
-      <c r="G13">
-        <v>120</v>
-      </c>
-      <c r="H13">
-        <v>102</v>
-      </c>
-      <c r="I13">
-        <v>95</v>
-      </c>
-      <c r="J13">
-        <v>95</v>
-      </c>
-      <c r="K13">
-        <v>95</v>
-      </c>
       <c r="L13">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -39518,43 +40566,43 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>547</v>
+        <v>219</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E14">
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+      <c r="G14">
         <v>120</v>
       </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>150</v>
-      </c>
       <c r="H14">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I14">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K14">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -39562,43 +40610,43 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="B15">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C15">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>150</v>
+      </c>
+      <c r="H15">
+        <v>130</v>
+      </c>
+      <c r="I15">
         <v>60</v>
       </c>
-      <c r="G15">
-        <v>90</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L15">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -39606,43 +40654,43 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>469</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C16">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16">
         <v>90</v>
       </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
       <c r="F16">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G16">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H16">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I16">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K16">
         <v>110</v>
       </c>
       <c r="L16">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -39650,43 +40698,43 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="B17">
         <v>105</v>
       </c>
       <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
         <v>110</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>130</v>
       </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>120</v>
-      </c>
-      <c r="G17">
-        <v>70</v>
-      </c>
       <c r="H17">
+        <v>110</v>
+      </c>
+      <c r="I17">
+        <v>130</v>
+      </c>
+      <c r="J17">
         <v>90</v>
       </c>
-      <c r="I17">
-        <v>80</v>
-      </c>
-      <c r="J17">
-        <v>80</v>
-      </c>
       <c r="K17">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L17">
         <v>105</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -39694,43 +40742,43 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>275</v>
       </c>
       <c r="B18">
         <v>105</v>
       </c>
       <c r="C18">
+        <v>110</v>
+      </c>
+      <c r="D18">
+        <v>130</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
         <v>120</v>
       </c>
-      <c r="D18">
-        <v>120</v>
-      </c>
-      <c r="E18">
-        <v>110</v>
-      </c>
-      <c r="F18">
-        <v>110</v>
-      </c>
       <c r="G18">
+        <v>70</v>
+      </c>
+      <c r="H18">
         <v>90</v>
       </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
       <c r="I18">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -39738,43 +40786,43 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>828</v>
+        <v>379</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>120</v>
       </c>
       <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
         <v>110</v>
       </c>
-      <c r="E19">
-        <v>70</v>
-      </c>
       <c r="F19">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G19">
         <v>90</v>
       </c>
       <c r="H19">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I19">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L19">
         <v>110</v>
       </c>
       <c r="M19">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -39782,25 +40830,25 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>828</v>
       </c>
       <c r="B20">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>110</v>
+      </c>
+      <c r="E20">
+        <v>70</v>
+      </c>
+      <c r="F20">
         <v>130</v>
       </c>
-      <c r="C20">
-        <v>110</v>
-      </c>
-      <c r="D20">
-        <v>120</v>
-      </c>
-      <c r="E20">
-        <v>60</v>
-      </c>
-      <c r="F20">
-        <v>150</v>
-      </c>
       <c r="G20">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H20">
         <v>90</v>
@@ -39812,13 +40860,13 @@
         <v>150</v>
       </c>
       <c r="K20">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L20">
         <v>110</v>
       </c>
       <c r="M20">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -39826,43 +40874,43 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="B21">
         <v>130</v>
       </c>
       <c r="C21">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D21">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G21">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I21">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J21">
+        <v>150</v>
+      </c>
+      <c r="K21">
         <v>105</v>
-      </c>
-      <c r="K21">
-        <v>95</v>
       </c>
       <c r="L21">
         <v>110</v>
       </c>
       <c r="M21">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -39870,10 +40918,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>286</v>
       </c>
       <c r="B22">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C22">
         <v>130</v>
@@ -39882,75 +40930,75 @@
         <v>110</v>
       </c>
       <c r="E22">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>110</v>
       </c>
       <c r="G22">
+        <v>95</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>105</v>
+      </c>
+      <c r="K22">
+        <v>95</v>
+      </c>
+      <c r="L22">
         <v>110</v>
       </c>
-      <c r="H22">
+      <c r="M22">
         <v>110</v>
       </c>
-      <c r="I22">
-        <v>110</v>
-      </c>
-      <c r="J22">
-        <v>110</v>
-      </c>
-      <c r="K22">
-        <v>110</v>
-      </c>
-      <c r="L22">
-        <v>120</v>
-      </c>
-      <c r="M22">
-        <v>135</v>
-      </c>
       <c r="N22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>456</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C23">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D23">
+        <v>110</v>
+      </c>
+      <c r="E23">
+        <v>110</v>
+      </c>
+      <c r="F23">
+        <v>110</v>
+      </c>
+      <c r="G23">
+        <v>110</v>
+      </c>
+      <c r="H23">
+        <v>110</v>
+      </c>
+      <c r="I23">
+        <v>110</v>
+      </c>
+      <c r="J23">
+        <v>110</v>
+      </c>
+      <c r="K23">
+        <v>110</v>
+      </c>
+      <c r="L23">
         <v>120</v>
       </c>
-      <c r="E23">
-        <v>120</v>
-      </c>
-      <c r="F23">
-        <v>120</v>
-      </c>
-      <c r="G23">
-        <v>120</v>
-      </c>
-      <c r="H23">
-        <v>120</v>
-      </c>
-      <c r="I23">
-        <v>120</v>
-      </c>
-      <c r="J23">
-        <v>120</v>
-      </c>
-      <c r="K23">
-        <v>120</v>
-      </c>
-      <c r="L23">
-        <v>140</v>
-      </c>
       <c r="M23">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -39958,75 +41006,75 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>753</v>
+        <v>181</v>
       </c>
       <c r="B24">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C24">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D24">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E24">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F24">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G24">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H24">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I24">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J24">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K24">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L24">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M24">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>753</v>
       </c>
       <c r="B25">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="C25">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D25">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F25">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G25">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H25">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I25">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J25">
         <v>130</v>
@@ -40035,65 +41083,65 @@
         <v>130</v>
       </c>
       <c r="L25">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M25">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>681</v>
+        <v>192</v>
       </c>
       <c r="B26">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D26">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E26">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="F26">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G26">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="H26">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="I26">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="J26">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K26">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L26">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M26">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>1134</v>
+        <v>681</v>
       </c>
       <c r="B27">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="C27">
         <v>200</v>
@@ -40123,12 +41171,56 @@
         <v>140</v>
       </c>
       <c r="L27">
+        <v>600</v>
+      </c>
+      <c r="M27">
+        <v>800</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B28">
+        <v>3200</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <v>180</v>
+      </c>
+      <c r="E28">
+        <v>180</v>
+      </c>
+      <c r="F28">
+        <v>180</v>
+      </c>
+      <c r="G28">
+        <v>180</v>
+      </c>
+      <c r="H28">
+        <v>180</v>
+      </c>
+      <c r="I28">
+        <v>180</v>
+      </c>
+      <c r="J28">
+        <v>140</v>
+      </c>
+      <c r="K28">
+        <v>140</v>
+      </c>
+      <c r="L28">
         <v>1000</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>120</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>5</v>
       </c>
     </row>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BA483-3DB5-4B0F-9DBF-2C7B3247BF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC997617-BEE2-4429-807F-EEAB4BB1F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2331" yWindow="2983" windowWidth="28346" windowHeight="14786" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="2554" yWindow="2331" windowWidth="28346" windowHeight="14786" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -3636,10 +3636,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4002,10 +4002,10 @@
   <dimension ref="A1:AJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E290" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B312" sqref="B312"/>
+      <selection pane="bottomRight" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9626,7 +9626,7 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F53">
         <v>100</v>
@@ -9647,7 +9647,7 @@
         <v>100</v>
       </c>
       <c r="L53">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M53">
         <v>10</v>
@@ -10800,7 +10800,7 @@
         <v>266</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -10824,7 +10824,7 @@
         <v>100</v>
       </c>
       <c r="L64">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M64">
         <v>10</v>
@@ -12512,10 +12512,10 @@
         <v>320</v>
       </c>
       <c r="D80">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E80">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F80">
         <v>100</v>
@@ -12536,7 +12536,7 @@
         <v>100</v>
       </c>
       <c r="L80">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M80">
         <v>10</v>
@@ -12619,7 +12619,7 @@
         <v>324</v>
       </c>
       <c r="D81">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -37023,7 +37023,7 @@
       <c r="A309">
         <v>6007</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="9" t="s">
         <v>1142</v>
       </c>
       <c r="C309" t="s">
@@ -37130,7 +37130,7 @@
       <c r="A310">
         <v>6008</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="9" t="s">
         <v>1143</v>
       </c>
       <c r="C310" t="s">
@@ -37782,7 +37782,7 @@
         <v>42</v>
       </c>
       <c r="E316">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F316">
         <v>100</v>
@@ -37803,7 +37803,7 @@
         <v>100</v>
       </c>
       <c r="L316">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="M316">
         <v>10</v>
@@ -39984,7 +39984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -41097,7 +41097,7 @@
         <v>192</v>
       </c>
       <c r="B26">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C26">
         <v>180</v>
@@ -43487,11 +43487,11 @@
         <v>3.5</v>
       </c>
       <c r="G2">
-        <f>FLOOR(A2*0.8,1)+1</f>
+        <f t="shared" ref="G2:G33" si="0">FLOOR(A2*0.8,1)+1</f>
         <v>1</v>
       </c>
       <c r="H2">
-        <f>FLOOR(A2/3,1)+1</f>
+        <f t="shared" ref="H2:H33" si="1">FLOOR(A2/3,1)+1</f>
         <v>1</v>
       </c>
       <c r="J2" s="1">
@@ -43510,7 +43510,7 @@
         <v>50</v>
       </c>
       <c r="O2">
-        <f>MAX(1,1+(1-POWER(1-(A2-10)/200,3)))</f>
+        <f t="shared" ref="O2:O33" si="2">MAX(1,1+(1-POWER(1-(A2-10)/200,3)))</f>
         <v>1</v>
       </c>
       <c r="Q2" s="1">
@@ -43526,19 +43526,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B66" si="0">FLOOR(A3/20,1)*FLOOR(A3/20,1)*MIN(2,A3/30)+FLOOR(A3/30,1)*FLOOR(A3/30,1)*5+POWER(2,A3/10)/10</f>
+        <f t="shared" ref="B3:B66" si="3">FLOOR(A3/20,1)*FLOOR(A3/20,1)*MIN(2,A3/30)+FLOOR(A3/30,1)*FLOOR(A3/30,1)*5+POWER(2,A3/10)/10</f>
         <v>0.1148698354997035</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C66" si="1">(A3*20+A3*B3*2+30+(MAX(0,A3-20)*50))*0.7</f>
+        <f t="shared" ref="C3:C66" si="4">(A3*20+A3*B3*2+30+(MAX(0,A3-20)*50))*0.7</f>
         <v>49.321635539399168</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" si="2">(5+A3*2+10*B3)*MIN(1,0.8+A3*0.015)</f>
+        <f t="shared" ref="D3:D66" si="5">(5+A3*2+10*B3)*MIN(1,0.8+A3*0.015)</f>
         <v>8.4234196346475407</v>
       </c>
       <c r="E3" s="1">
-        <f>E2+A3/(75-A3/2)</f>
+        <f t="shared" ref="E3:E34" si="6">E2+A3/(75-A3/2)</f>
         <v>2.0270270270270272</v>
       </c>
       <c r="F3" s="1">
@@ -43546,11 +43546,11 @@
         <v>4.8346666666666653</v>
       </c>
       <c r="G3">
-        <f>FLOOR(A3*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H3">
-        <f>FLOOR(A3/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J3" s="1">
@@ -43566,11 +43566,11 @@
         <v>2.96</v>
       </c>
       <c r="M3" s="1">
-        <f>M2+A3*4</f>
+        <f t="shared" ref="M3:M34" si="7">M2+A3*4</f>
         <v>58</v>
       </c>
       <c r="O3">
-        <f>MAX(1,1+(1-POWER(1-(A3-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q3" s="1">
@@ -43578,7 +43578,7 @@
         <v>2.96</v>
       </c>
       <c r="R3" s="1">
-        <f>R2+A3/2.5</f>
+        <f t="shared" ref="R3:R34" si="8">R2+A3/2.5</f>
         <v>6.8</v>
       </c>
     </row>
@@ -43587,19 +43587,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.12311444133449163</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>63.517080653604857</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.335317029276455</v>
       </c>
       <c r="E4" s="1">
-        <f>E3+A4/(75-A4/2)</f>
+        <f t="shared" si="6"/>
         <v>2.0678433535576395</v>
       </c>
       <c r="F4" s="1">
@@ -43607,11 +43607,11 @@
         <v>6.6349319818618273</v>
       </c>
       <c r="G4">
-        <f>FLOOR(A4*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H4">
-        <f>FLOOR(A4/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J4" s="1">
@@ -43627,11 +43627,11 @@
         <v>3.3851693785009331</v>
       </c>
       <c r="M4" s="1">
-        <f>M3+A4*4</f>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="O4">
-        <f>MAX(1,1+(1-POWER(1-(A4-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q4" s="1">
@@ -43639,7 +43639,7 @@
         <v>3.3851693785009331</v>
       </c>
       <c r="R4" s="1">
-        <f>R3+A4/2.5</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -43648,19 +43648,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.13195079107728941</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>77.73892443003281</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.31477680326469</v>
       </c>
       <c r="E5" s="1">
-        <f>E4+A5/(75-A5/2)</f>
+        <f t="shared" si="6"/>
         <v>2.1226378741055845</v>
       </c>
       <c r="F5" s="1">
@@ -43668,11 +43668,11 @@
         <v>9.0491177201356905</v>
       </c>
       <c r="G5">
-        <f>FLOOR(A5*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H5">
-        <f>FLOOR(A5/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J5" s="1">
@@ -43688,11 +43688,11 @@
         <v>4.7111191795791818</v>
       </c>
       <c r="M5" s="1">
-        <f>M4+A5*4</f>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="O5">
-        <f>MAX(1,1+(1-POWER(1-(A5-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q5" s="1">
@@ -43700,7 +43700,7 @@
         <v>4.7111191795791818</v>
       </c>
       <c r="R5" s="1">
-        <f>R4+A5/2.5</f>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
     </row>
@@ -43709,19 +43709,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.1414213562373095</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>91.989949493661172</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14.362436867076459</v>
       </c>
       <c r="E6" s="1">
-        <f>E5+A6/(75-A6/2)</f>
+        <f t="shared" si="6"/>
         <v>2.1916033913469639</v>
       </c>
       <c r="F6" s="1">
@@ -43729,11 +43729,11 @@
         <v>12.270103297966063</v>
       </c>
       <c r="G6">
-        <f>FLOOR(A6*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H6">
-        <f>FLOOR(A6/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J6" s="1">
@@ -43749,11 +43749,11 @@
         <v>6.8443040648796263</v>
       </c>
       <c r="M6" s="1">
-        <f>M5+A6*4</f>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="O6">
-        <f>MAX(1,1+(1-POWER(1-(A6-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q6" s="1">
@@ -43761,7 +43761,7 @@
         <v>6.8443040648796263</v>
       </c>
       <c r="R6" s="1">
-        <f>R5+A6/2.5</f>
+        <f t="shared" si="8"/>
         <v>11.6</v>
       </c>
     </row>
@@ -43770,19 +43770,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.1515716566510398</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>106.27320191586873</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16.478987744194256</v>
       </c>
       <c r="E7" s="1">
-        <f>E6+A7/(75-A7/2)</f>
+        <f t="shared" si="6"/>
         <v>2.2749367246802974</v>
       </c>
       <c r="F7" s="1">
@@ -43790,11 +43790,11 @@
         <v>15.36682740260075</v>
       </c>
       <c r="G7">
-        <f>FLOOR(A7*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H7">
-        <f>FLOOR(A7/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J7" s="1">
@@ -43810,11 +43810,11 @@
         <v>9.6705986418552872</v>
       </c>
       <c r="M7" s="1">
-        <f>M6+A7*4</f>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="O7">
-        <f>MAX(1,1+(1-POWER(1-(A7-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q7" s="1">
@@ -43822,7 +43822,7 @@
         <v>9.6705986418552872</v>
       </c>
       <c r="R7" s="1">
-        <f>R6+A7/2.5</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -43831,19 +43831,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.16245047927124709</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>120.59201469685821</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.665176837404786</v>
       </c>
       <c r="E8" s="1">
-        <f>E7+A8/(75-A8/2)</f>
+        <f t="shared" si="6"/>
         <v>2.3728388225823953</v>
       </c>
       <c r="F8" s="1">
@@ -43851,11 +43851,11 @@
         <v>19.152640106646729</v>
       </c>
       <c r="G8">
-        <f>FLOOR(A8*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H8">
-        <f>FLOOR(A8/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J8" s="1">
@@ -43871,11 +43871,11 @@
         <v>13.485956018358605</v>
       </c>
       <c r="M8" s="1">
-        <f>M7+A8*4</f>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="O8">
-        <f>MAX(1,1+(1-POWER(1-(A8-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q8" s="1">
@@ -43883,7 +43883,7 @@
         <v>13.485956018358605</v>
       </c>
       <c r="R8" s="1">
-        <f>R7+A8/2.5</f>
+        <f t="shared" si="8"/>
         <v>16.8</v>
       </c>
     </row>
@@ -43892,19 +43892,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.17411011265922482</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>134.95003326178332</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.921813036464869</v>
       </c>
       <c r="E9" s="1">
-        <f>E8+A9/(75-A9/2)</f>
+        <f t="shared" si="6"/>
         <v>2.4855148789204233</v>
       </c>
       <c r="F9" s="1">
@@ -43912,11 +43912,11 @@
         <v>23.769709407517691</v>
       </c>
       <c r="G9">
-        <f>FLOOR(A9*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H9">
-        <f>FLOOR(A9/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J9" s="1">
@@ -43932,11 +43932,11 @@
         <v>18.507231797373095</v>
       </c>
       <c r="M9" s="1">
-        <f>M8+A9*4</f>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="O9">
-        <f>MAX(1,1+(1-POWER(1-(A9-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q9" s="1">
@@ -43944,7 +43944,7 @@
         <v>18.507231797373095</v>
       </c>
       <c r="R9" s="1">
-        <f>R8+A9/2.5</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -43953,19 +43953,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.18660659830736148</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>149.35124313867274</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.24977169417383</v>
       </c>
       <c r="E10" s="1">
-        <f>E9+A10/(75-A10/2)</f>
+        <f t="shared" si="6"/>
         <v>2.6131744533885084</v>
       </c>
       <c r="F10" s="1">
@@ -43973,11 +43973,11 @@
         <v>29.391055855611992</v>
       </c>
       <c r="G10">
-        <f>FLOOR(A10*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H10">
-        <f>FLOOR(A10/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J10" s="1">
@@ -43993,11 +43993,11 @@
         <v>25.256637540757247</v>
       </c>
       <c r="M10" s="1">
-        <f>M9+A10*4</f>
+        <f t="shared" si="7"/>
         <v>226</v>
       </c>
       <c r="O10">
-        <f>MAX(1,1+(1-POWER(1-(A10-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q10" s="1">
@@ -44005,7 +44005,7 @@
         <v>25.256637540757247</v>
       </c>
       <c r="R10" s="1">
-        <f>R9+A10/2.5</f>
+        <f t="shared" si="8"/>
         <v>23.6</v>
       </c>
     </row>
@@ -44014,19 +44014,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>163.79999999999998</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.650000000000002</v>
       </c>
       <c r="E11" s="1">
-        <f>E10+A11/(75-A11/2)</f>
+        <f t="shared" si="6"/>
         <v>2.7560315962456512</v>
       </c>
       <c r="F11" s="1">
@@ -44034,11 +44034,11 @@
         <v>36.2278659475501</v>
       </c>
       <c r="G11">
-        <f>FLOOR(A11*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H11">
-        <f>FLOOR(A11/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J11" s="1">
@@ -44054,11 +44054,11 @@
         <v>36.284054267092948</v>
       </c>
       <c r="M11" s="1">
-        <f>M10+A11*4</f>
+        <f t="shared" si="7"/>
         <v>266</v>
       </c>
       <c r="O11">
-        <f>MAX(1,1+(1-POWER(1-(A11-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q11" s="1">
@@ -44066,7 +44066,7 @@
         <v>36.284054267092948</v>
       </c>
       <c r="R11" s="1">
-        <f>R10+A11/2.5</f>
+        <f t="shared" si="8"/>
         <v>27.6</v>
       </c>
     </row>
@@ -44075,19 +44075,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.21435469250725864</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>178.30106226461177</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28.123522782695048</v>
       </c>
       <c r="E12" s="1">
-        <f>E11+A12/(75-A12/2)</f>
+        <f t="shared" si="6"/>
         <v>2.9143049775406151</v>
       </c>
       <c r="F12" s="1">
@@ -44095,11 +44095,11 @@
         <v>44.538470469325155</v>
       </c>
       <c r="G12">
-        <f>FLOOR(A12*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H12">
-        <f>FLOOR(A12/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J12" s="1">
@@ -44115,11 +44115,11 @@
         <v>45.980099472677765</v>
       </c>
       <c r="M12" s="1">
-        <f>M11+A12*4</f>
+        <f t="shared" si="7"/>
         <v>310</v>
       </c>
       <c r="O12">
-        <f>MAX(1,1+(1-POWER(1-(A12-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.014925125</v>
       </c>
       <c r="Q12" s="1">
@@ -44127,7 +44127,7 @@
         <v>46.666358204819915</v>
       </c>
       <c r="R12" s="1">
-        <f>R11+A12/2.5</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
@@ -44136,19 +44136,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.22973967099940701</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>192.85962647279004</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30.67144877579419</v>
       </c>
       <c r="E13" s="1">
-        <f>E12+A13/(75-A13/2)</f>
+        <f t="shared" si="6"/>
         <v>3.0882180210188759</v>
       </c>
       <c r="F13" s="1">
@@ -44156,11 +44156,11 @@
         <v>54.639371600897938</v>
       </c>
       <c r="G13">
-        <f>FLOOR(A13*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H13">
-        <f>FLOOR(A13/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J13" s="1">
@@ -44176,11 +44176,11 @@
         <v>56.604820516672874</v>
       </c>
       <c r="M13" s="1">
-        <f>M12+A13*4</f>
+        <f t="shared" si="7"/>
         <v>358</v>
       </c>
       <c r="O13">
-        <f>MAX(1,1+(1-POWER(1-(A13-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.0297010000000002</v>
       </c>
       <c r="Q13" s="1">
@@ -44188,7 +44188,7 @@
         <v>58.286040290838585</v>
       </c>
       <c r="R13" s="1">
-        <f>R12+A13/2.5</f>
+        <f t="shared" si="8"/>
         <v>36.799999999999997</v>
       </c>
     </row>
@@ -44197,19 +44197,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.24622888266898327</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>207.48136566457546</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>33.29497738255639</v>
       </c>
       <c r="E14" s="1">
-        <f>E13+A14/(75-A14/2)</f>
+        <f t="shared" si="6"/>
         <v>3.2779990429166861</v>
       </c>
       <c r="F14" s="1">
@@ -44217,11 +44217,11 @@
         <v>66.918805275297103</v>
       </c>
       <c r="G14">
-        <f>FLOOR(A14*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H14">
-        <f>FLOOR(A14/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -44237,11 +44237,11 @@
         <v>68.939178249877529</v>
       </c>
       <c r="M14" s="1">
-        <f>M13+A14*4</f>
+        <f t="shared" si="7"/>
         <v>410</v>
       </c>
       <c r="O14">
-        <f>MAX(1,1+(1-POWER(1-(A14-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.0443283750000001</v>
       </c>
       <c r="Q14" s="1">
@@ -44249,7 +44249,7 @@
         <v>71.995139995529954</v>
       </c>
       <c r="R14" s="1">
-        <f>R13+A14/2.5</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
@@ -44258,19 +44258,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.26390158215457882</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>222.17247101022971</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35.63901582154579</v>
       </c>
       <c r="E15" s="1">
-        <f>E14+A15/(75-A15/2)</f>
+        <f t="shared" si="6"/>
         <v>3.4838813958578627</v>
       </c>
       <c r="F15" s="1">
@@ -44278,11 +44278,11 @@
         <v>81.853450544632722</v>
       </c>
       <c r="G15">
-        <f>FLOOR(A15*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H15">
-        <f>FLOOR(A15/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J15" s="1">
@@ -44298,11 +44298,11 @@
         <v>84.581234268818264</v>
       </c>
       <c r="M15" s="1">
-        <f>M14+A15*4</f>
+        <f t="shared" si="7"/>
         <v>466</v>
       </c>
       <c r="O15">
-        <f>MAX(1,1+(1-POWER(1-(A15-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.058808</v>
       </c>
       <c r="Q15" s="1">
@@ -44310,7 +44310,7 @@
         <v>89.555287493698927</v>
       </c>
       <c r="R15" s="1">
-        <f>R14+A15/2.5</f>
+        <f t="shared" si="8"/>
         <v>47.6</v>
       </c>
     </row>
@@ -44319,19 +44319,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.28284271247461901</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>236.939696961967</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37.828427124746192</v>
       </c>
       <c r="E16" s="1">
-        <f>E15+A16/(75-A16/2)</f>
+        <f t="shared" si="6"/>
         <v>3.706103618080085</v>
       </c>
       <c r="F16" s="1">
@@ -44339,11 +44339,11 @@
         <v>100.02905093976571</v>
       </c>
       <c r="G16">
-        <f>FLOOR(A16*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H16">
-        <f>FLOOR(A16/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J16" s="1">
@@ -44359,11 +44359,11 @@
         <v>99.819712197749396</v>
       </c>
       <c r="M16" s="1">
-        <f>M15+A16*4</f>
+        <f t="shared" si="7"/>
         <v>526</v>
       </c>
       <c r="O16">
-        <f>MAX(1,1+(1-POWER(1-(A16-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.0731406250000002</v>
       </c>
       <c r="Q16" s="1">
@@ -44371,7 +44371,7 @@
         <v>107.12058833521293</v>
       </c>
       <c r="R16" s="1">
-        <f>R15+A16/2.5</f>
+        <f t="shared" si="8"/>
         <v>53.6</v>
       </c>
     </row>
@@ -44380,19 +44380,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.30314331330207961</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>251.79041021796658</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40.031433133020798</v>
       </c>
       <c r="E17" s="1">
-        <f>E16+A17/(75-A17/2)</f>
+        <f t="shared" si="6"/>
         <v>3.9449095882293386</v>
       </c>
       <c r="F17" s="1">
@@ -44400,11 +44400,11 @@
         <v>122.1659014237617</v>
       </c>
       <c r="G17">
-        <f>FLOOR(A17*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H17">
-        <f>FLOOR(A17/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J17" s="1">
@@ -44420,11 +44420,11 @@
         <v>115.63370735942512</v>
       </c>
       <c r="M17" s="1">
-        <f>M16+A17*4</f>
+        <f t="shared" si="7"/>
         <v>590</v>
       </c>
       <c r="O17">
-        <f>MAX(1,1+(1-POWER(1-(A17-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.0873270000000002</v>
       </c>
       <c r="Q17" s="1">
@@ -44432,7 +44432,7 @@
         <v>125.73165212200166</v>
       </c>
       <c r="R17" s="1">
-        <f>R16+A17/2.5</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
     </row>
@@ -44441,19 +44441,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.32490095854249418</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>266.73264281331137</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>42.249009585424943</v>
       </c>
       <c r="E18" s="1">
-        <f>E17+A18/(75-A18/2)</f>
+        <f t="shared" si="6"/>
         <v>4.2005486859736996</v>
       </c>
       <c r="F18" s="1">
@@ -44461,11 +44461,11 @@
         <v>149.15038807613141</v>
       </c>
       <c r="G18">
-        <f>FLOOR(A18*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H18">
-        <f>FLOOR(A18/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J18" s="1">
@@ -44481,11 +44481,11 @@
         <v>132.71803522674682</v>
       </c>
       <c r="M18" s="1">
-        <f>M17+A18*4</f>
+        <f t="shared" si="7"/>
         <v>658</v>
       </c>
       <c r="O18">
-        <f>MAX(1,1+(1-POWER(1-(A18-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.1013678750000002</v>
       </c>
       <c r="Q18" s="1">
@@ -44493,7 +44493,7 @@
         <v>146.17138043185733</v>
       </c>
       <c r="R18" s="1">
-        <f>R17+A18/2.5</f>
+        <f t="shared" si="8"/>
         <v>66.8</v>
       </c>
     </row>
@@ -44502,19 +44502,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.34822022531844965</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>281.77514967802489</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44.482202253184496</v>
       </c>
       <c r="E19" s="1">
-        <f>E18+A19/(75-A19/2)</f>
+        <f t="shared" si="6"/>
         <v>4.4732759587009721</v>
       </c>
       <c r="F19" s="1">
@@ -44522,11 +44522,11 @@
         <v>182.07405806367436</v>
       </c>
       <c r="G19">
-        <f>FLOOR(A19*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H19">
-        <f>FLOOR(A19/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J19" s="1">
@@ -44542,11 +44542,11 @@
         <v>152.33869038125999</v>
       </c>
       <c r="M19" s="1">
-        <f>M18+A19*4</f>
+        <f t="shared" si="7"/>
         <v>730</v>
       </c>
       <c r="O19">
-        <f>MAX(1,1+(1-POWER(1-(A19-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.115264</v>
       </c>
       <c r="Q19" s="1">
@@ -44554,7 +44554,7 @@
         <v>169.89785718936554</v>
       </c>
       <c r="R19" s="1">
-        <f>R18+A19/2.5</f>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
     </row>
@@ -44563,19 +44563,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.37321319661472296</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>296.92747102995162</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46.732131966147229</v>
       </c>
       <c r="E20" s="1">
-        <f>E19+A20/(75-A20/2)</f>
+        <f t="shared" si="6"/>
         <v>4.7633522945788345</v>
       </c>
       <c r="F20" s="1">
@@ -44583,11 +44583,11 @@
         <v>222.2820595982781</v>
       </c>
       <c r="G20">
-        <f>FLOOR(A20*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H20">
-        <f>FLOOR(A20/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J20" s="1">
@@ -44603,11 +44603,11 @@
         <v>171.62828130660006</v>
       </c>
       <c r="M20" s="1">
-        <f>M19+A20*4</f>
+        <f t="shared" si="7"/>
         <v>806</v>
       </c>
       <c r="O20">
-        <f>MAX(1,1+(1-POWER(1-(A20-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.1290161250000001</v>
       </c>
       <c r="Q20" s="1">
@@ -44615,7 +44615,7 @@
         <v>193.77109710118759</v>
       </c>
       <c r="R20" s="1">
-        <f>R19+A20/2.5</f>
+        <f t="shared" si="8"/>
         <v>81.599999999999994</v>
       </c>
     </row>
@@ -44624,19 +44624,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>330.86666666666667</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>55.666666666666664</v>
       </c>
       <c r="E21" s="1">
-        <f>E20+A21/(75-A21/2)</f>
+        <f t="shared" si="6"/>
         <v>5.071044602271142</v>
       </c>
       <c r="F21" s="1">
@@ -44644,11 +44644,11 @@
         <v>271.43324387327499</v>
       </c>
       <c r="G21">
-        <f>FLOOR(A21*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H21">
-        <f>FLOOR(A21/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J21" s="1">
@@ -44664,11 +44664,11 @@
         <v>217.28241407040068</v>
       </c>
       <c r="M21" s="1">
-        <f>M20+A21*4</f>
+        <f t="shared" si="7"/>
         <v>886</v>
       </c>
       <c r="O21">
-        <f>MAX(1,1+(1-POWER(1-(A21-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.1426250000000002</v>
       </c>
       <c r="Q21" s="1">
@@ -44676,7 +44676,7 @@
         <v>248.27231837719162</v>
       </c>
       <c r="R21" s="1">
-        <f>R20+A21/2.5</f>
+        <f t="shared" si="8"/>
         <v>89.6</v>
       </c>
     </row>
@@ -44685,19 +44685,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.1287093850145173</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>383.18405591942678</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>58.287093850145169</v>
       </c>
       <c r="E22" s="1">
-        <f>E21+A22/(75-A22/2)</f>
+        <f t="shared" si="6"/>
         <v>5.3966259976199789</v>
       </c>
       <c r="F22" s="1">
@@ -44705,11 +44705,11 @@
         <v>306.06903353930244</v>
       </c>
       <c r="G22">
-        <f>FLOOR(A22*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H22">
-        <f>FLOOR(A22/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J22" s="1">
@@ -44725,11 +44725,11 @@
         <v>240.10285878439808</v>
       </c>
       <c r="M22" s="1">
-        <f>M21+A22*4</f>
+        <f t="shared" si="7"/>
         <v>970</v>
       </c>
       <c r="O22">
-        <f>MAX(1,1+(1-POWER(1-(A22-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.1560913749999999</v>
       </c>
       <c r="Q22" s="1">
@@ -44737,7 +44737,7 @@
         <v>277.5808441534856</v>
       </c>
       <c r="R22" s="1">
-        <f>R21+A22/2.5</f>
+        <f t="shared" si="8"/>
         <v>98</v>
       </c>
     </row>
@@ -44746,19 +44746,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.1928126753321473</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>435.73863040023014</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60.928126753321472</v>
       </c>
       <c r="E23" s="1">
-        <f>E22+A23/(75-A23/2)</f>
+        <f t="shared" si="6"/>
         <v>5.7403759976199789</v>
       </c>
       <c r="F23" s="1">
@@ -44766,11 +44766,11 @@
         <v>345.28890180352994</v>
       </c>
       <c r="G23">
-        <f>FLOOR(A23*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H23">
-        <f>FLOOR(A23/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J23" s="1">
@@ -44786,11 +44786,11 @@
         <v>264.71469841227844</v>
       </c>
       <c r="M23" s="1">
-        <f>M22+A23*4</f>
+        <f t="shared" si="7"/>
         <v>1058</v>
       </c>
       <c r="O23">
-        <f>MAX(1,1+(1-POWER(1-(A23-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.169416</v>
       </c>
       <c r="Q23" s="1">
@@ -44798,7 +44798,7 @@
         <v>309.56160375849305</v>
       </c>
       <c r="R23" s="1">
-        <f>R22+A23/2.5</f>
+        <f t="shared" si="8"/>
         <v>106.8</v>
       </c>
     </row>
@@ -44807,19 +44807,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2591244320046331</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>488.54380671054918</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>63.591244320046329</v>
       </c>
       <c r="E24" s="1">
-        <f>E23+A24/(75-A24/2)</f>
+        <f t="shared" si="6"/>
         <v>6.1025807220294279</v>
       </c>
       <c r="F24" s="1">
@@ -44827,11 +44827,11 @@
         <v>389.75408230209797</v>
       </c>
       <c r="G24">
-        <f>FLOOR(A24*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H24">
-        <f>FLOOR(A24/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J24" s="1">
@@ -44847,11 +44847,11 @@
         <v>289.04338482818088</v>
       </c>
       <c r="M24" s="1">
-        <f>M23+A24*4</f>
+        <f t="shared" si="7"/>
         <v>1150</v>
       </c>
       <c r="O24">
-        <f>MAX(1,1+(1-POWER(1-(A24-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.1825996249999999</v>
       </c>
       <c r="Q24" s="1">
@@ -44859,7 +44859,7 @@
         <v>341.82259850653736</v>
       </c>
       <c r="R24" s="1">
-        <f>R23+A24/2.5</f>
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
     </row>
@@ -44868,19 +44868,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3278031643091577</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>541.61418632078767</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>66.27803164309158</v>
       </c>
       <c r="E25" s="1">
-        <f>E24+A25/(75-A25/2)</f>
+        <f t="shared" si="6"/>
         <v>6.4835331029818093</v>
       </c>
       <c r="F25" s="1">
@@ -44888,11 +44888,11 @@
         <v>440.22400340243513</v>
       </c>
       <c r="G25">
-        <f>FLOOR(A25*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H25">
-        <f>FLOOR(A25/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J25" s="1">
@@ -44908,11 +44908,11 @@
         <v>332.94672427236435</v>
       </c>
       <c r="M25" s="1">
-        <f>M24+A25*4</f>
+        <f t="shared" si="7"/>
         <v>1246</v>
       </c>
       <c r="O25">
-        <f>MAX(1,1+(1-POWER(1-(A25-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.195643</v>
       </c>
       <c r="Q25" s="1">
@@ -44920,7 +44920,7 @@
         <v>398.0854202491825</v>
       </c>
       <c r="R25" s="1">
-        <f>R24+A25/2.5</f>
+        <f t="shared" si="8"/>
         <v>125.6</v>
       </c>
     </row>
@@ -44929,19 +44929,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3990187582825713</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>594.96565653988989</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>68.990187582825712</v>
       </c>
       <c r="E26" s="1">
-        <f>E25+A26/(75-A26/2)</f>
+        <f t="shared" si="6"/>
         <v>6.8835331029818096</v>
       </c>
       <c r="F26" s="1">
@@ -44949,11 +44949,11 @@
         <v>497.57126570083244</v>
       </c>
       <c r="G26">
-        <f>FLOOR(A26*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="H26">
-        <f>FLOOR(A26/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J26" s="1">
@@ -44969,11 +44969,11 @@
         <v>359.65548185428793</v>
       </c>
       <c r="M26" s="1">
-        <f>M25+A26*4</f>
+        <f t="shared" si="7"/>
         <v>1346</v>
       </c>
       <c r="O26">
-        <f>MAX(1,1+(1-POWER(1-(A26-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.2085468749999999</v>
       </c>
       <c r="Q26" s="1">
@@ -44981,7 +44981,7 @@
         <v>434.6605086716188</v>
       </c>
       <c r="R26" s="1">
-        <f>R25+A26/2.5</f>
+        <f t="shared" si="8"/>
         <v>135.6</v>
       </c>
     </row>
@@ -44990,19 +44990,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4729532932708258</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>648.61549987505805</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>71.729532932708253</v>
       </c>
       <c r="E27" s="1">
-        <f>E26+A27/(75-A27/2)</f>
+        <f t="shared" si="6"/>
         <v>7.3028879416914867</v>
       </c>
       <c r="F27" s="1">
@@ -45010,11 +45010,11 @@
         <v>562.79898679386258</v>
       </c>
       <c r="G27">
-        <f>FLOOR(A27*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="H27">
-        <f>FLOOR(A27/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J27" s="1">
@@ -45030,11 +45030,11 @@
         <v>387.70707653991127</v>
       </c>
       <c r="M27" s="1">
-        <f>M26+A27*4</f>
+        <f t="shared" si="7"/>
         <v>1450</v>
       </c>
       <c r="O27">
-        <f>MAX(1,1+(1-POWER(1-(A27-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.221312</v>
       </c>
       <c r="Q27" s="1">
@@ -45042,7 +45042,7 @@
         <v>473.51130506311205</v>
       </c>
       <c r="R27" s="1">
-        <f>R26+A27/2.5</f>
+        <f t="shared" si="8"/>
         <v>146</v>
       </c>
     </row>
@@ -45051,19 +45051,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5498019170849884</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>702.58251246581256</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>74.498019170849886</v>
       </c>
       <c r="E28" s="1">
-        <f>E27+A28/(75-A28/2)</f>
+        <f t="shared" si="6"/>
         <v>7.7419123319353895</v>
       </c>
       <c r="F28" s="1">
@@ -45071,11 +45071,11 @@
         <v>637.06088491326818</v>
       </c>
       <c r="G28">
-        <f>FLOOR(A28*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="H28">
-        <f>FLOOR(A28/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -45091,11 +45091,11 @@
         <v>415.26011179406072</v>
       </c>
       <c r="M28" s="1">
-        <f>M27+A28*4</f>
+        <f t="shared" si="7"/>
         <v>1558</v>
       </c>
       <c r="O28">
-        <f>MAX(1,1+(1-POWER(1-(A28-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.233939125</v>
       </c>
       <c r="Q28" s="1">
@@ -45103,7 +45103,7 @@
         <v>512.40569899456557</v>
       </c>
       <c r="R28" s="1">
-        <f>R27+A28/2.5</f>
+        <f t="shared" si="8"/>
         <v>156.80000000000001</v>
       </c>
     </row>
@@ -45112,19 +45112,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6297737839702324</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>756.88713233163298</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>77.297737839702322</v>
       </c>
       <c r="E29" s="1">
-        <f>E28+A29/(75-A29/2)</f>
+        <f t="shared" si="6"/>
         <v>8.200928725378013</v>
       </c>
       <c r="F29" s="1">
@@ -45132,11 +45132,11 @@
         <v>721.68453397351493</v>
       </c>
       <c r="G29">
-        <f>FLOOR(A29*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="H29">
-        <f>FLOOR(A29/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -45152,11 +45152,11 @@
         <v>457.54813294473848</v>
       </c>
       <c r="M29" s="1">
-        <f>M28+A29*4</f>
+        <f t="shared" si="7"/>
         <v>1670</v>
       </c>
       <c r="O29">
-        <f>MAX(1,1+(1-POWER(1-(A29-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.246429</v>
       </c>
       <c r="Q29" s="1">
@@ -45164,7 +45164,7 @@
         <v>570.30126179817751</v>
       </c>
       <c r="R29" s="1">
-        <f>R28+A29/2.5</f>
+        <f t="shared" si="8"/>
         <v>168</v>
       </c>
     </row>
@@ -45173,19 +45173,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7130930598961123</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>811.55157823178206</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>80.130930598961129</v>
       </c>
       <c r="E30" s="1">
-        <f>E29+A30/(75-A30/2)</f>
+        <f t="shared" si="6"/>
         <v>8.6802675683532193</v>
       </c>
       <c r="F30" s="1">
@@ -45193,11 +45193,11 @@
         <v>818.19829336628675</v>
       </c>
       <c r="G30">
-        <f>FLOOR(A30*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H30">
-        <f>FLOOR(A30/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -45213,11 +45213,11 @@
         <v>486.79512954386934</v>
       </c>
       <c r="M30" s="1">
-        <f>M29+A30*4</f>
+        <f t="shared" si="7"/>
         <v>1786</v>
       </c>
       <c r="O30">
-        <f>MAX(1,1+(1-POWER(1-(A30-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.258782375</v>
       </c>
       <c r="Q30" s="1">
@@ -45225,7 +45225,7 @@
         <v>612.76912930566448</v>
       </c>
       <c r="R30" s="1">
-        <f>R29+A30/2.5</f>
+        <f t="shared" si="8"/>
         <v>179.6</v>
       </c>
     </row>
@@ -45234,19 +45234,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.8</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1076.5999999999999</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="E31" s="1">
-        <f>E30+A31/(75-A31/2)</f>
+        <f t="shared" si="6"/>
         <v>9.1802675683532193</v>
       </c>
       <c r="F31" s="1">
@@ -45254,11 +45254,11 @@
         <v>928.36249804383499</v>
       </c>
       <c r="G31">
-        <f>FLOOR(A31*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H31">
-        <f>FLOOR(A31/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J31" s="1">
@@ -45274,11 +45274,11 @@
         <v>579.18498901503131</v>
       </c>
       <c r="M31" s="1">
-        <f>M30+A31*4</f>
+        <f t="shared" si="7"/>
         <v>1906</v>
       </c>
       <c r="O31">
-        <f>MAX(1,1+(1-POWER(1-(A31-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.2709999999999999</v>
       </c>
       <c r="Q31" s="1">
@@ -45286,7 +45286,7 @@
         <v>736.1441210381048</v>
       </c>
       <c r="R31" s="1">
-        <f>R30+A31/2.5</f>
+        <f t="shared" si="8"/>
         <v>191.6</v>
       </c>
     </row>
@@ -45295,19 +45295,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.8907521033623675</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1139.0586412859268</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>135.90752103362368</v>
       </c>
       <c r="E32" s="1">
-        <f>E31+A32/(75-A32/2)</f>
+        <f t="shared" si="6"/>
         <v>9.7012759717145638</v>
       </c>
       <c r="F32" s="1">
@@ -45315,11 +45315,11 @@
         <v>966.35512411436343</v>
       </c>
       <c r="G32">
-        <f>FLOOR(A32*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H32">
-        <f>FLOOR(A32/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J32" s="1">
@@ -45335,11 +45335,11 @@
         <v>611.5265210554121</v>
       </c>
       <c r="M32" s="1">
-        <f>M31+A32*4</f>
+        <f t="shared" si="7"/>
         <v>2030</v>
       </c>
       <c r="O32">
-        <f>MAX(1,1+(1-POWER(1-(A32-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.283082625</v>
       </c>
       <c r="Q32" s="1">
@@ -45347,7 +45347,7 @@
         <v>784.63905389289596</v>
       </c>
       <c r="R32" s="1">
-        <f>R31+A32/2.5</f>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
     </row>
@@ -45356,19 +45356,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.9856253506642947</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1201.9560157097603</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>138.85625350664293</v>
       </c>
       <c r="E33" s="1">
-        <f>E32+A33/(75-A33/2)</f>
+        <f t="shared" si="6"/>
         <v>10.243648853070496</v>
       </c>
       <c r="F33" s="1">
@@ -45376,11 +45376,11 @@
         <v>1006.7082216698806</v>
       </c>
       <c r="G33">
-        <f>FLOOR(A33*0.8,1)+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H33">
-        <f>FLOOR(A33/3,1)+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J33" s="1">
@@ -45396,11 +45396,11 @@
         <v>655.06580466287028</v>
       </c>
       <c r="M33" s="1">
-        <f>M32+A33*4</f>
+        <f t="shared" si="7"/>
         <v>2158</v>
       </c>
       <c r="O33">
-        <f>MAX(1,1+(1-POWER(1-(A33-10)/200,3)))</f>
+        <f t="shared" si="2"/>
         <v>1.2950309999999998</v>
       </c>
       <c r="Q33" s="1">
@@ -45408,7 +45408,7 @@
         <v>848.33052407836146</v>
       </c>
       <c r="R33" s="1">
-        <f>R32+A33/2.5</f>
+        <f t="shared" si="8"/>
         <v>216.8</v>
       </c>
     </row>
@@ -45417,19 +45417,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.0849155306759322</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1265.323097517228</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>141.84915530675931</v>
       </c>
       <c r="E34" s="1">
-        <f>E33+A34/(75-A34/2)</f>
+        <f t="shared" si="6"/>
         <v>10.80775141717306</v>
       </c>
       <c r="F34" s="1">
@@ -45437,11 +45437,11 @@
         <v>1049.5802164999225</v>
       </c>
       <c r="G34">
-        <f>FLOOR(A34*0.8,1)+1</f>
+        <f t="shared" ref="G34:G65" si="9">FLOOR(A34*0.8,1)+1</f>
         <v>27</v>
       </c>
       <c r="H34">
-        <f>FLOOR(A34/3,1)+1</f>
+        <f t="shared" ref="H34:H65" si="10">FLOOR(A34/3,1)+1</f>
         <v>12</v>
       </c>
       <c r="J34" s="1">
@@ -45457,11 +45457,11 @@
         <v>688.3287321236869</v>
       </c>
       <c r="M34" s="1">
-        <f>M33+A34*4</f>
+        <f t="shared" si="7"/>
         <v>2290</v>
       </c>
       <c r="O34">
-        <f>MAX(1,1+(1-POWER(1-(A34-10)/200,3)))</f>
+        <f t="shared" ref="O34:O65" si="11">MAX(1,1+(1-POWER(1-(A34-10)/200,3)))</f>
         <v>1.306845875</v>
       </c>
       <c r="Q34" s="1">
@@ -45469,7 +45469,7 @@
         <v>899.53956421982036</v>
       </c>
       <c r="R34" s="1">
-        <f>R33+A34/2.5</f>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
     </row>
@@ -45478,19 +45478,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.1889396619516486</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1329.1935279088984</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>144.8893966195165</v>
       </c>
       <c r="E35" s="1">
-        <f>E34+A35/(75-A35/2)</f>
+        <f t="shared" ref="E35:E60" si="12">E34+A35/(75-A35/2)</f>
         <v>11.393958313724784</v>
       </c>
       <c r="F35" s="1">
@@ -45498,11 +45498,11 @@
         <v>1095.1384879576653</v>
       </c>
       <c r="G35">
-        <f>FLOOR(A35*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="H35">
-        <f>FLOOR(A35/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="J35" s="1">
@@ -45518,11 +45518,11 @@
         <v>770.47227707670027</v>
       </c>
       <c r="M35" s="1">
-        <f>M34+A35*4</f>
+        <f t="shared" ref="M35:M66" si="13">M34+A35*4</f>
         <v>2426</v>
       </c>
       <c r="O35">
-        <f>MAX(1,1+(1-POWER(1-(A35-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.3185280000000001</v>
       </c>
       <c r="Q35" s="1">
@@ -45530,7 +45530,7 @@
         <v>1015.8892705493874</v>
       </c>
       <c r="R35" s="1">
-        <f>R34+A35/2.5</f>
+        <f t="shared" ref="R35:R66" si="14">R34+A35/2.5</f>
         <v>243.6</v>
       </c>
     </row>
@@ -45539,19 +45539,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.2980375165651434</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1393.603838311692</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>147.98037516565142</v>
       </c>
       <c r="E36" s="1">
-        <f>E35+A36/(75-A36/2)</f>
+        <f t="shared" si="12"/>
         <v>12.002653965898698</v>
       </c>
       <c r="F36" s="1">
@@ -45559,11 +45559,11 @@
         <v>1143.5602947895231</v>
       </c>
       <c r="G36">
-        <f>FLOOR(A36*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="H36">
-        <f>FLOOR(A36/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="J36" s="1">
@@ -45579,11 +45579,11 @@
         <v>806.10267862181115</v>
       </c>
       <c r="M36" s="1">
-        <f>M35+A36*4</f>
+        <f t="shared" si="13"/>
         <v>2566</v>
       </c>
       <c r="O36">
-        <f>MAX(1,1+(1-POWER(1-(A36-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.330078125</v>
       </c>
       <c r="Q36" s="1">
@@ -45591,7 +45591,7 @@
         <v>1072.1795393387761</v>
       </c>
       <c r="R36" s="1">
-        <f>R35+A36/2.5</f>
+        <f t="shared" si="14"/>
         <v>257.60000000000002</v>
       </c>
     </row>
@@ -45600,19 +45600,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.4125732532083184</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1458.5936919616991</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>151.12573253208319</v>
       </c>
       <c r="E37" s="1">
-        <f>E36+A37/(75-A37/2)</f>
+        <f t="shared" si="12"/>
         <v>12.63423291326712</v>
       </c>
       <c r="F37" s="1">
@@ -45620,11 +45620,11 @@
         <v>1195.0337200444576</v>
       </c>
       <c r="G37">
-        <f>FLOOR(A37*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="H37">
-        <f>FLOOR(A37/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="J37" s="1">
@@ -45640,11 +45640,11 @@
         <v>850.14940788003537</v>
       </c>
       <c r="M37" s="1">
-        <f>M36+A37*4</f>
+        <f t="shared" si="13"/>
         <v>2710</v>
       </c>
       <c r="O37">
-        <f>MAX(1,1+(1-POWER(1-(A37-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.3414969999999999</v>
       </c>
       <c r="Q37" s="1">
@@ -45652,7 +45652,7 @@
         <v>1140.4728802228435</v>
       </c>
       <c r="R37" s="1">
-        <f>R36+A37/2.5</f>
+        <f t="shared" si="14"/>
         <v>272</v>
       </c>
     </row>
@@ -45661,19 +45661,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.5329371675033103</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1524.2061452766711</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>154.32937167503309</v>
       </c>
       <c r="E38" s="1">
-        <f>E37+A38/(75-A38/2)</f>
+        <f t="shared" si="12"/>
         <v>13.289100169904287</v>
       </c>
       <c r="F38" s="1">
@@ -45681,11 +45681,11 @@
         <v>1249.7586429280655</v>
       </c>
       <c r="G38">
-        <f>FLOOR(A38*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="H38">
-        <f>FLOOR(A38/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="J38" s="1">
@@ -45701,11 +45701,11 @@
         <v>886.11747503083336</v>
       </c>
       <c r="M38" s="1">
-        <f>M37+A38*4</f>
+        <f t="shared" si="13"/>
         <v>2858</v>
       </c>
       <c r="O38">
-        <f>MAX(1,1+(1-POWER(1-(A38-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.3527853749999998</v>
       </c>
       <c r="Q38" s="1">
@@ -45713,7 +45713,7 @@
         <v>1198.7267607536389</v>
       </c>
       <c r="R38" s="1">
-        <f>R37+A38/2.5</f>
+        <f t="shared" si="14"/>
         <v>286.8</v>
       </c>
     </row>
@@ -45722,19 +45722,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.6595475679404652</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1590.4879306144326</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>157.59547567940467</v>
       </c>
       <c r="E39" s="1">
-        <f>E38+A39/(75-A39/2)</f>
+        <f t="shared" si="12"/>
         <v>13.967671598475716</v>
       </c>
       <c r="F39" s="1">
@@ -45742,11 +45742,11 @@
         <v>1307.9477452402205</v>
       </c>
       <c r="G39">
-        <f>FLOOR(A39*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="H39">
-        <f>FLOOR(A39/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="J39" s="1">
@@ -45762,11 +45762,11 @@
         <v>960.36339088921238</v>
       </c>
       <c r="M39" s="1">
-        <f>M38+A39*4</f>
+        <f t="shared" si="13"/>
         <v>3010</v>
       </c>
       <c r="O39">
-        <f>MAX(1,1+(1-POWER(1-(A39-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.363944</v>
       </c>
       <c r="Q39" s="1">
@@ -45774,7 +45774,7 @@
         <v>1309.881884822996</v>
       </c>
       <c r="R39" s="1">
-        <f>R38+A39/2.5</f>
+        <f t="shared" si="14"/>
         <v>302</v>
       </c>
     </row>
@@ -45783,19 +45783,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.7928527864588917</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1657.4897621406553</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160.92852786458892</v>
       </c>
       <c r="E40" s="1">
-        <f>E39+A40/(75-A40/2)</f>
+        <f t="shared" si="12"/>
         <v>14.67037430117842</v>
       </c>
       <c r="F40" s="1">
@@ -45803,11 +45803,11 @@
         <v>1369.8275598337098</v>
       </c>
       <c r="G40">
-        <f>FLOOR(A40*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="H40">
-        <f>FLOOR(A40/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="J40" s="1">
@@ -45823,11 +45823,11 @@
         <v>997.94869078622992</v>
       </c>
       <c r="M40" s="1">
-        <f>M39+A40*4</f>
+        <f t="shared" si="13"/>
         <v>3166</v>
       </c>
       <c r="O40">
-        <f>MAX(1,1+(1-POWER(1-(A40-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.374973625</v>
       </c>
       <c r="Q40" s="1">
@@ -45835,7 +45835,7 @@
         <v>1372.1531289343468</v>
       </c>
       <c r="R40" s="1">
-        <f>R39+A40/2.5</f>
+        <f t="shared" si="14"/>
         <v>317.60000000000002</v>
       </c>
     </row>
@@ -45844,19 +45844,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.933333333333332</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1949.2666666666664</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>204.33333333333331</v>
       </c>
       <c r="E41" s="1">
-        <f>E40+A41/(75-A41/2)</f>
+        <f t="shared" si="12"/>
         <v>15.397647028451146</v>
       </c>
       <c r="F41" s="1">
@@ -45864,11 +45864,11 @@
         <v>1827.1776324770437</v>
       </c>
       <c r="G41">
-        <f>FLOOR(A41*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="H41">
-        <f>FLOOR(A41/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="J41" s="1">
@@ -45884,11 +45884,11 @@
         <v>1142.8255939349087</v>
       </c>
       <c r="M41" s="1">
-        <f>M40+A41*4</f>
+        <f t="shared" si="13"/>
         <v>3326</v>
       </c>
       <c r="O41">
-        <f>MAX(1,1+(1-POWER(1-(A41-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.385875</v>
       </c>
       <c r="Q41" s="1">
@@ -45896,7 +45896,7 @@
         <v>1583.8134199945416</v>
       </c>
       <c r="R41" s="1">
-        <f>R40+A41/2.5</f>
+        <f t="shared" si="14"/>
         <v>333.6</v>
       </c>
     </row>
@@ -45905,19 +45905,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.181504206724735</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2029.2183414659996</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>208.81504206724736</v>
       </c>
       <c r="E42" s="1">
-        <f>E41+A42/(75-A42/2)</f>
+        <f t="shared" si="12"/>
         <v>16.149940606432796</v>
       </c>
       <c r="F42" s="1">
@@ -45925,11 +45925,11 @@
         <v>1916.2708162005149</v>
       </c>
       <c r="G42">
-        <f>FLOOR(A42*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="H42">
-        <f>FLOOR(A42/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="J42" s="1">
@@ -45945,11 +45945,11 @@
         <v>1182.9775172335774</v>
       </c>
       <c r="M42" s="1">
-        <f>M41+A42*4</f>
+        <f t="shared" si="13"/>
         <v>3490</v>
       </c>
       <c r="O42">
-        <f>MAX(1,1+(1-POWER(1-(A42-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.3966488750000001</v>
       </c>
       <c r="Q42" s="1">
@@ -45957,7 +45957,7 @@
         <v>1652.2042185945691</v>
       </c>
       <c r="R42" s="1">
-        <f>R41+A42/2.5</f>
+        <f t="shared" si="14"/>
         <v>350</v>
       </c>
     </row>
@@ -45966,19 +45966,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.437917367995256</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2110.3495412381208</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>213.37917367995254</v>
       </c>
       <c r="E43" s="1">
-        <f>E42+A43/(75-A43/2)</f>
+        <f t="shared" si="12"/>
         <v>16.927718384210575</v>
       </c>
       <c r="F43" s="1">
@@ -45986,11 +45986,11 @@
         <v>2011.0463254150047</v>
       </c>
       <c r="G43">
-        <f>FLOOR(A43*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="H43">
-        <f>FLOOR(A43/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="J43" s="1">
@@ -46006,11 +46006,11 @@
         <v>1253.4888318837404</v>
       </c>
       <c r="M43" s="1">
-        <f>M42+A43*4</f>
+        <f t="shared" si="13"/>
         <v>3658</v>
       </c>
       <c r="O43">
-        <f>MAX(1,1+(1-POWER(1-(A43-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.4072960000000001</v>
       </c>
       <c r="Q43" s="1">
@@ -46018,7 +46018,7 @@
         <v>1764.0298191546603</v>
       </c>
       <c r="R43" s="1">
-        <f>R42+A43/2.5</f>
+        <f t="shared" si="14"/>
         <v>366.8</v>
       </c>
     </row>
@@ -46027,19 +46027,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.703164394685201</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2192.7304965600492</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>218.031643946852</v>
       </c>
       <c r="E44" s="1">
-        <f>E43+A44/(75-A44/2)</f>
+        <f t="shared" si="12"/>
         <v>17.731456701967584</v>
       </c>
       <c r="F44" s="1">
@@ -46047,11 +46047,11 @@
         <v>2111.8777249414638</v>
       </c>
       <c r="G44">
-        <f>FLOOR(A44*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="H44">
-        <f>FLOOR(A44/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="J44" s="1">
@@ -46067,11 +46067,11 @@
         <v>1294.552424264921</v>
       </c>
       <c r="M44" s="1">
-        <f>M43+A44*4</f>
+        <f t="shared" si="13"/>
         <v>3830</v>
       </c>
       <c r="O44">
-        <f>MAX(1,1+(1-POWER(1-(A44-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.417817125</v>
       </c>
       <c r="Q44" s="1">
@@ -46079,7 +46079,7 @@
         <v>1835.4385963330706</v>
       </c>
       <c r="R44" s="1">
-        <f>R43+A44/2.5</f>
+        <f t="shared" si="14"/>
         <v>384</v>
       </c>
     </row>
@@ -46088,19 +46088,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.977879323903299</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2276.437366352443</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>222.77879323903298</v>
       </c>
       <c r="E45" s="1">
-        <f>E44+A45/(75-A45/2)</f>
+        <f t="shared" si="12"/>
         <v>18.561645381212866</v>
       </c>
       <c r="F45" s="1">
@@ -46108,11 +46108,11 @@
         <v>2219.1640039253225</v>
       </c>
       <c r="G45">
-        <f>FLOOR(A45*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="H45">
-        <f>FLOOR(A45/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="J45" s="1">
@@ -46128,11 +46128,11 @@
         <v>1421.7285490573067</v>
       </c>
       <c r="M45" s="1">
-        <f>M44+A45*4</f>
+        <f t="shared" si="13"/>
         <v>4006</v>
       </c>
       <c r="O45">
-        <f>MAX(1,1+(1-POWER(1-(A45-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.428213</v>
       </c>
       <c r="Q45" s="1">
@@ -46140,7 +46140,7 @@
         <v>2030.5311962347832</v>
       </c>
       <c r="R45" s="1">
-        <f>R44+A45/2.5</f>
+        <f t="shared" si="14"/>
         <v>401.6</v>
       </c>
     </row>
@@ -46149,19 +46149,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.262741699796951</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2361.5527270872076</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>227.6274169979695</v>
       </c>
       <c r="E46" s="1">
-        <f>E45+A46/(75-A46/2)</f>
+        <f t="shared" si="12"/>
         <v>19.418788238355724</v>
       </c>
       <c r="F46" s="1">
@@ -46169,11 +46169,11 @@
         <v>2333.3314239700671</v>
       </c>
       <c r="G46">
-        <f>FLOOR(A46*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="H46">
-        <f>FLOOR(A46/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="J46" s="1">
@@ -46189,11 +46189,11 @@
         <v>1464.7580560112062</v>
       </c>
       <c r="M46" s="1">
-        <f>M45+A46*4</f>
+        <f t="shared" si="13"/>
         <v>4186</v>
       </c>
       <c r="O46">
-        <f>MAX(1,1+(1-POWER(1-(A46-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.438484375</v>
       </c>
       <c r="Q46" s="1">
@@ -46201,7 +46201,7 @@
         <v>2107.0315767274951</v>
       </c>
       <c r="R46" s="1">
-        <f>R45+A46/2.5</f>
+        <f t="shared" si="14"/>
         <v>419.6</v>
       </c>
     </row>
@@ -46210,19 +46210,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.558479839749968</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2448.1661016798976</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>232.58479839749967</v>
       </c>
       <c r="E47" s="1">
-        <f>E46+A47/(75-A47/2)</f>
+        <f t="shared" si="12"/>
         <v>20.303403622971107</v>
       </c>
       <c r="F47" s="1">
@@ -46230,11 +46230,11 @@
         <v>2454.8354856514329</v>
       </c>
       <c r="G47">
-        <f>FLOOR(A47*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="H47">
-        <f>FLOOR(A47/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="J47" s="1">
@@ -46250,11 +46250,11 @@
         <v>1532.0873984755315</v>
       </c>
       <c r="M47" s="1">
-        <f>M46+A47*4</f>
+        <f t="shared" si="13"/>
         <v>4370</v>
       </c>
       <c r="O47">
-        <f>MAX(1,1+(1-POWER(1-(A47-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.4486319999999999</v>
       </c>
       <c r="Q47" s="1">
@@ -46262,7 +46262,7 @@
         <v>2219.430832228406</v>
       </c>
       <c r="R47" s="1">
-        <f>R46+A47/2.5</f>
+        <f t="shared" si="14"/>
         <v>438</v>
       </c>
     </row>
@@ -46271,19 +46271,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.86587433500662</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2536.3745312434353</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>237.6587433500662</v>
       </c>
       <c r="E48" s="1">
-        <f>E47+A48/(75-A48/2)</f>
+        <f t="shared" si="12"/>
         <v>21.216024982194408</v>
       </c>
       <c r="F48" s="1">
@@ -46291,11 +46291,11 @@
         <v>2584.1630233987385</v>
       </c>
       <c r="G48">
-        <f>FLOOR(A48*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="H48">
-        <f>FLOOR(A48/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="J48" s="1">
@@ -46311,11 +46311,11 @@
         <v>1575.408433558189</v>
       </c>
       <c r="M48" s="1">
-        <f>M47+A48*4</f>
+        <f t="shared" si="13"/>
         <v>4558</v>
       </c>
       <c r="O48">
-        <f>MAX(1,1+(1-POWER(1-(A48-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.4586566250000002</v>
       </c>
       <c r="Q48" s="1">
@@ -46323,7 +46323,7 @@
         <v>2297.9799486905249</v>
       </c>
       <c r="R48" s="1">
-        <f>R47+A48/2.5</f>
+        <f t="shared" si="14"/>
         <v>456.8</v>
       </c>
     </row>
@@ -46332,19 +46332,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.185761802547598</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2626.2831931311985</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>242.85761802547597</v>
       </c>
       <c r="E49" s="1">
-        <f>E48+A49/(75-A49/2)</f>
+        <f t="shared" si="12"/>
         <v>22.157201452782644</v>
       </c>
       <c r="F49" s="1">
@@ -46352,11 +46352,11 @@
         <v>2721.834439121636</v>
       </c>
       <c r="G49">
-        <f>FLOOR(A49*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="H49">
-        <f>FLOOR(A49/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="J49" s="1">
@@ -46372,11 +46372,11 @@
         <v>1688.7038275996667</v>
       </c>
       <c r="M49" s="1">
-        <f>M48+A49*4</f>
+        <f t="shared" si="13"/>
         <v>4750</v>
       </c>
       <c r="O49">
-        <f>MAX(1,1+(1-POWER(1-(A49-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.4685589999999999</v>
       </c>
       <c r="Q49" s="1">
@@ -46384,7 +46384,7 @@
         <v>2479.9612043559387</v>
       </c>
       <c r="R49" s="1">
-        <f>R48+A49/2.5</f>
+        <f t="shared" si="14"/>
         <v>476</v>
       </c>
     </row>
@@ -46393,19 +46393,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.519038906251117</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2718.0060689688266</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>248.19038906251117</v>
       </c>
       <c r="E50" s="1">
-        <f>E49+A50/(75-A50/2)</f>
+        <f t="shared" si="12"/>
         <v>23.127498482485613</v>
       </c>
       <c r="F50" s="1">
@@ -46413,11 +46413,11 @@
         <v>2868.4060854161162</v>
       </c>
       <c r="G50">
-        <f>FLOOR(A50*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H50">
-        <f>FLOOR(A50/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="J50" s="1">
@@ -46433,11 +46433,11 @@
         <v>1733.4447029078538</v>
       </c>
       <c r="M50" s="1">
-        <f>M49+A50*4</f>
+        <f t="shared" si="13"/>
         <v>4946</v>
       </c>
       <c r="O50">
-        <f>MAX(1,1+(1-POWER(1-(A50-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.4783398750000001</v>
       </c>
       <c r="Q50" s="1">
@@ -46445,7 +46445,7 @@
         <v>2562.6204254162085</v>
       </c>
       <c r="R50" s="1">
-        <f>R49+A50/2.5</f>
+        <f t="shared" si="14"/>
         <v>495.6</v>
       </c>
     </row>
@@ -46454,19 +46454,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.866666666666667</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2811.6666666666665</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>253.66666666666669</v>
       </c>
       <c r="E51" s="1">
-        <f>E50+A51/(75-A51/2)</f>
+        <f t="shared" si="12"/>
         <v>24.127498482485613</v>
       </c>
       <c r="F51" s="1">
@@ -46474,11 +46474,11 @@
         <v>3849.3290305282931</v>
       </c>
       <c r="G51">
-        <f>FLOOR(A51*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="H51">
-        <f>FLOOR(A51/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="J51" s="1">
@@ -46494,11 +46494,11 @@
         <v>1934.7542226053195</v>
       </c>
       <c r="M51" s="1">
-        <f>M50+A51*4</f>
+        <f t="shared" si="13"/>
         <v>5146</v>
       </c>
       <c r="O51">
-        <f>MAX(1,1+(1-POWER(1-(A51-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.488</v>
       </c>
       <c r="Q51" s="1">
@@ -46506,7 +46506,7 @@
         <v>2878.9142832367152</v>
       </c>
       <c r="R51" s="1">
-        <f>R50+A51/2.5</f>
+        <f t="shared" si="14"/>
         <v>515.6</v>
       </c>
     </row>
@@ -46515,19 +46515,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15.229675080116138</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2907.398800720292</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>259.29675080116135</v>
       </c>
       <c r="E52" s="1">
-        <f>E51+A52/(75-A52/2)</f>
+        <f t="shared" si="12"/>
         <v>25.157801512788645</v>
       </c>
       <c r="F52" s="1">
@@ -46535,11 +46535,11 @@
         <v>4060.8535815417863</v>
       </c>
       <c r="G52">
-        <f>FLOOR(A52*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="H52">
-        <f>FLOOR(A52/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="J52" s="1">
@@ -46555,11 +46555,11 @@
         <v>1981.5889101655705</v>
       </c>
       <c r="M52" s="1">
-        <f>M51+A52*4</f>
+        <f t="shared" si="13"/>
         <v>5350</v>
       </c>
       <c r="O52">
-        <f>MAX(1,1+(1-POWER(1-(A52-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.497540125</v>
       </c>
       <c r="Q52" s="1">
@@ -46567,7 +46567,7 @@
         <v>2967.5089042279624</v>
       </c>
       <c r="R52" s="1">
-        <f>R51+A52/2.5</f>
+        <f t="shared" si="14"/>
         <v>536</v>
       </c>
     </row>
@@ -46576,19 +46576,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15.609168069323847</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3005.3474354467758</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>265.09168069323846</v>
       </c>
       <c r="E53" s="1">
-        <f>E52+A53/(75-A53/2)</f>
+        <f t="shared" si="12"/>
         <v>26.219026002584563</v>
       </c>
       <c r="F53" s="1">
@@ -46596,11 +46596,11 @@
         <v>4286.1379825299327</v>
       </c>
       <c r="G53">
-        <f>FLOOR(A53*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="H53">
-        <f>FLOOR(A53/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="J53" s="1">
@@ -46616,11 +46616,11 @@
         <v>2085.7456519827742</v>
       </c>
       <c r="M53" s="1">
-        <f>M52+A53*4</f>
+        <f t="shared" si="13"/>
         <v>5558</v>
       </c>
       <c r="O53">
-        <f>MAX(1,1+(1-POWER(1-(A53-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.506961</v>
       </c>
       <c r="Q53" s="1">
@@ -46628,7 +46628,7 @@
         <v>3143.1373534576137</v>
       </c>
       <c r="R53" s="1">
-        <f>R52+A53/2.5</f>
+        <f t="shared" si="14"/>
         <v>556.79999999999995</v>
       </c>
     </row>
@@ -46637,19 +46637,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16.006328789370396</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3105.669596171283</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>271.063287893704</v>
       </c>
       <c r="E54" s="1">
-        <f>E53+A54/(75-A54/2)</f>
+        <f t="shared" si="12"/>
         <v>27.311809507739202</v>
       </c>
       <c r="F54" s="1">
@@ -46657,11 +46657,11 @@
         <v>4526.10800104808</v>
       </c>
       <c r="G54">
-        <f>FLOOR(A54*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="H54">
-        <f>FLOOR(A54/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="J54" s="1">
@@ -46677,11 +46677,11 @@
         <v>2133.3966214757656</v>
       </c>
       <c r="M54" s="1">
-        <f>M53+A54*4</f>
+        <f t="shared" si="13"/>
         <v>5770</v>
       </c>
       <c r="O54">
-        <f>MAX(1,1+(1-POWER(1-(A54-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.5162633749999999</v>
       </c>
       <c r="Q54" s="1">
@@ -46689,7 +46689,7 @@
         <v>3234.7911614924415</v>
       </c>
       <c r="R54" s="1">
-        <f>R53+A54/2.5</f>
+        <f t="shared" si="14"/>
         <v>578</v>
       </c>
     </row>
@@ -46698,19 +46698,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16.422425314473259</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3208.535353774178</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>277.22425314473259</v>
       </c>
       <c r="E55" s="1">
-        <f>E54+A55/(75-A55/2)</f>
+        <f t="shared" si="12"/>
         <v>28.436809507739202</v>
       </c>
       <c r="F55" s="1">
@@ -46718,11 +46718,11 @@
         <v>4781.7537144130192</v>
       </c>
       <c r="G55">
-        <f>FLOOR(A55*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="H55">
-        <f>FLOOR(A55/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="J55" s="1">
@@ -46738,11 +46738,11 @@
         <v>2310.3181415250178</v>
       </c>
       <c r="M55" s="1">
-        <f>M54+A55*4</f>
+        <f t="shared" si="13"/>
         <v>5986</v>
       </c>
       <c r="O55">
-        <f>MAX(1,1+(1-POWER(1-(A55-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.5254479999999999</v>
       </c>
       <c r="Q55" s="1">
@@ -46750,7 +46750,7 @@
         <v>3524.2701883530558</v>
       </c>
       <c r="R55" s="1">
-        <f>R54+A55/2.5</f>
+        <f t="shared" si="14"/>
         <v>599.6</v>
       </c>
     </row>
@@ -46759,19 +46759,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16.858816732927238</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3314.1288884353971</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>283.58816732927238</v>
       </c>
       <c r="E56" s="1">
-        <f>E55+A56/(75-A56/2)</f>
+        <f t="shared" si="12"/>
         <v>29.594704244581308</v>
       </c>
       <c r="F56" s="1">
@@ -46779,11 +46779,11 @@
         <v>5054.1340167656153</v>
       </c>
       <c r="G56">
-        <f>FLOOR(A56*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H56">
-        <f>FLOOR(A56/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="J56" s="1">
@@ -46799,11 +46799,11 @@
         <v>2359.4727309917425</v>
       </c>
       <c r="M56" s="1">
-        <f>M55+A56*4</f>
+        <f t="shared" si="13"/>
         <v>6206</v>
       </c>
       <c r="O56">
-        <f>MAX(1,1+(1-POWER(1-(A56-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.534515625</v>
       </c>
       <c r="Q56" s="1">
@@ -46811,7 +46811,7 @@
         <v>3620.6477724682509</v>
       </c>
       <c r="R56" s="1">
-        <f>R55+A56/2.5</f>
+        <f t="shared" si="14"/>
         <v>621.6</v>
       </c>
     </row>
@@ -46820,19 +46820,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.316959679499938</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3422.6496388727951</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290.16959679499939</v>
       </c>
       <c r="E57" s="1">
-        <f>E56+A57/(75-A57/2)</f>
+        <f t="shared" si="12"/>
         <v>30.786193606283437</v>
       </c>
       <c r="F57" s="1">
@@ -46840,11 +46840,11 @@
         <v>5344.3814356101711</v>
       </c>
       <c r="G57">
-        <f>FLOOR(A57*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H57">
-        <f>FLOOR(A57/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="J57" s="1">
@@ -46860,11 +46860,11 @@
         <v>2456.0438603650373</v>
       </c>
       <c r="M57" s="1">
-        <f>M56+A57*4</f>
+        <f t="shared" si="13"/>
         <v>6430</v>
       </c>
       <c r="O57">
-        <f>MAX(1,1+(1-POWER(1-(A57-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.5434669999999999</v>
       </c>
       <c r="Q57" s="1">
@@ -46872,7 +46872,7 @@
         <v>3790.8226490260427</v>
       </c>
       <c r="R57" s="1">
-        <f>R56+A57/2.5</f>
+        <f t="shared" si="14"/>
         <v>644</v>
       </c>
     </row>
@@ -46881,19 +46881,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.798415336679909</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3534.3135438670561</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>296.98415336679909</v>
       </c>
       <c r="E58" s="1">
-        <f>E57+A58/(75-A58/2)</f>
+        <f t="shared" si="12"/>
         <v>32.012000057896337</v>
       </c>
       <c r="F58" s="1">
@@ -46901,11 +46901,11 @@
         <v>5653.7072789405529</v>
       </c>
       <c r="G58">
-        <f>FLOOR(A58*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="H58">
-        <f>FLOOR(A58/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="J58" s="1">
@@ -46921,11 +46921,11 @@
         <v>2505.4978453528379</v>
       </c>
       <c r="M58" s="1">
-        <f>M57+A58*4</f>
+        <f t="shared" si="13"/>
         <v>6658</v>
       </c>
       <c r="O58">
-        <f>MAX(1,1+(1-POWER(1-(A58-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.5523028750000001</v>
       </c>
       <c r="Q58" s="1">
@@ -46933,7 +46933,7 @@
         <v>3889.2915086475155</v>
       </c>
       <c r="R58" s="1">
-        <f>R57+A58/2.5</f>
+        <f t="shared" si="14"/>
         <v>666.8</v>
       </c>
     </row>
@@ -46942,19 +46942,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18.304856938428529</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3649.3543834003963</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>304.04856938428532</v>
       </c>
       <c r="E59" s="1">
-        <f>E58+A59/(75-A59/2)</f>
+        <f t="shared" si="12"/>
         <v>33.272869623113728</v>
       </c>
       <c r="F59" s="1">
@@ -46962,11 +46962,11 @@
         <v>5983.4071353001809</v>
       </c>
       <c r="G59">
-        <f>FLOOR(A59*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="H59">
-        <f>FLOOR(A59/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="J59" s="1">
@@ -46982,11 +46982,11 @@
         <v>2662.6813807154231</v>
       </c>
       <c r="M59" s="1">
-        <f>M58+A59*4</f>
+        <f t="shared" si="13"/>
         <v>6890</v>
       </c>
       <c r="O59">
-        <f>MAX(1,1+(1-POWER(1-(A59-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.561024</v>
       </c>
       <c r="Q59" s="1">
@@ -46994,7 +46994,7 @@
         <v>4156.5095396499128</v>
       </c>
       <c r="R59" s="1">
-        <f>R58+A59/2.5</f>
+        <f t="shared" si="14"/>
         <v>690</v>
       </c>
     </row>
@@ -47003,19 +47003,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18.838077812502238</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3768.0252273126848</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>311.3807781250224</v>
       </c>
       <c r="E60" s="1">
-        <f>E59+A60/(75-A60/2)</f>
+        <f t="shared" si="12"/>
         <v>34.569572919817027</v>
       </c>
       <c r="F60" s="1">
@@ -47023,11 +47023,11 @@
         <v>6334.8667504306441</v>
       </c>
       <c r="G60">
-        <f>FLOOR(A60*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="H60">
-        <f>FLOOR(A60/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="J60" s="1">
@@ -47043,11 +47043,11 @@
         <v>2713.1034100467191</v>
       </c>
       <c r="M60" s="1">
-        <f>M59+A60*4</f>
+        <f t="shared" si="13"/>
         <v>7126</v>
       </c>
       <c r="O60">
-        <f>MAX(1,1+(1-POWER(1-(A60-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.5696311249999999</v>
       </c>
       <c r="Q60" s="1">
@@ -47055,7 +47055,7 @@
         <v>4258.5715577529672</v>
       </c>
       <c r="R60" s="1">
-        <f>R59+A60/2.5</f>
+        <f t="shared" si="14"/>
         <v>713.6</v>
       </c>
     </row>
@@ -47064,19 +47064,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44.4</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5990.5999999999995</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>569</v>
       </c>
       <c r="E61" s="1">
-        <f>E60+A61/(75-A61/1.5)</f>
+        <f t="shared" ref="E61:E100" si="15">E60+A61/(75-A61/1.5)</f>
         <v>36.283858634102742</v>
       </c>
       <c r="F61" s="1">
@@ -47084,11 +47084,11 @@
         <v>7846.2363211463753</v>
       </c>
       <c r="G61">
-        <f>FLOOR(A61*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="H61">
-        <f>FLOOR(A61/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="J61" s="1">
@@ -47104,11 +47104,11 @@
         <v>2940.7375882124579</v>
       </c>
       <c r="M61" s="1">
-        <f>M60+A61*4</f>
+        <f t="shared" si="13"/>
         <v>7366</v>
       </c>
       <c r="O61">
-        <f>MAX(1,1+(1-POWER(1-(A61-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.578125</v>
       </c>
       <c r="Q61" s="1">
@@ -47116,7 +47116,7 @@
         <v>4640.8515063977857</v>
       </c>
       <c r="R61" s="1">
-        <f>R60+A61/2.5</f>
+        <f t="shared" si="14"/>
         <v>737.6</v>
       </c>
     </row>
@@ -47125,19 +47125,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44.859350160232275</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6140.9885036838359</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>575.5935016023227</v>
       </c>
       <c r="E62" s="1">
-        <f>E61+A62/(75-A62/1.5)</f>
+        <f t="shared" si="15"/>
         <v>38.060557663228956</v>
       </c>
       <c r="F62" s="1">
@@ -47145,11 +47145,11 @@
         <v>8227.9641093491409</v>
       </c>
       <c r="G62">
-        <f>FLOOR(A62*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="H62">
-        <f>FLOOR(A62/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="J62" s="1">
@@ -47165,11 +47165,11 @@
         <v>2961.4470981763648</v>
       </c>
       <c r="M62" s="1">
-        <f>M61+A62*4</f>
+        <f t="shared" si="13"/>
         <v>7610</v>
       </c>
       <c r="O62">
-        <f>MAX(1,1+(1-POWER(1-(A62-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.5865063749999999</v>
       </c>
       <c r="Q62" s="1">
@@ -47177,7 +47177,7 @@
         <v>4698.354700482053</v>
       </c>
       <c r="R62" s="1">
-        <f>R61+A62/2.5</f>
+        <f t="shared" si="14"/>
         <v>762</v>
       </c>
     </row>
@@ -47186,19 +47186,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45.351669471981019</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6295.524910167951</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>582.51669471981018</v>
       </c>
       <c r="E63" s="1">
-        <f>E62+A63/(75-A63/1.5)</f>
+        <f t="shared" si="15"/>
         <v>39.902141821644797</v>
       </c>
       <c r="F63" s="1">
@@ -47206,11 +47206,11 @@
         <v>8633.0451688056219</v>
       </c>
       <c r="G63">
-        <f>FLOOR(A63*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="H63">
-        <f>FLOOR(A63/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="J63" s="1">
@@ -47226,11 +47226,11 @@
         <v>3069.6168326479046</v>
       </c>
       <c r="M63" s="1">
-        <f>M62+A63*4</f>
+        <f t="shared" si="13"/>
         <v>7858</v>
       </c>
       <c r="O63">
-        <f>MAX(1,1+(1-POWER(1-(A63-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.594776</v>
       </c>
       <c r="Q63" s="1">
@@ -47238,7 +47238,7 @@
         <v>4895.3512539028952</v>
       </c>
       <c r="R63" s="1">
-        <f>R62+A63/2.5</f>
+        <f t="shared" si="14"/>
         <v>786.8</v>
       </c>
     </row>
@@ -47247,19 +47247,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45.87932424540746</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6454.5563984449373</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>589.79324245407463</v>
       </c>
       <c r="E64" s="1">
-        <f>E63+A64/(75-A64/1.5)</f>
+        <f t="shared" si="15"/>
         <v>41.811232730735703</v>
       </c>
       <c r="F64" s="1">
@@ -47267,11 +47267,11 @@
         <v>9062.7486251471419</v>
       </c>
       <c r="G64">
-        <f>FLOOR(A64*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="H64">
-        <f>FLOOR(A64/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="J64" s="1">
@@ -47287,11 +47287,11 @@
         <v>3089.4497442080365</v>
       </c>
       <c r="M64" s="1">
-        <f>M63+A64*4</f>
+        <f t="shared" si="13"/>
         <v>8110</v>
       </c>
       <c r="O64">
-        <f>MAX(1,1+(1-POWER(1-(A64-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.6029346250000001</v>
       </c>
       <c r="Q64" s="1">
@@ -47299,7 +47299,7 @@
         <v>4952.1859671884558</v>
       </c>
       <c r="R64" s="1">
-        <f>R63+A64/2.5</f>
+        <f t="shared" si="14"/>
         <v>812</v>
       </c>
     </row>
@@ -47308,19 +47308,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>46.444850628946519</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6618.4586163536069</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>597.44850628946517</v>
       </c>
       <c r="E65" s="1">
-        <f>E64+A65/(75-A65/1.5)</f>
+        <f t="shared" si="15"/>
         <v>43.790614174034673</v>
       </c>
       <c r="F65" s="1">
@@ -47328,11 +47328,11 @@
         <v>9518.4132262741623</v>
       </c>
       <c r="G65">
-        <f>FLOOR(A65*0.8,1)+1</f>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="H65">
-        <f>FLOOR(A65/3,1)+1</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="J65" s="1">
@@ -47348,11 +47348,11 @@
         <v>3276.1207292792942</v>
       </c>
       <c r="M65" s="1">
-        <f>M64+A65*4</f>
+        <f t="shared" si="13"/>
         <v>8366</v>
       </c>
       <c r="O65">
-        <f>MAX(1,1+(1-POWER(1-(A65-10)/200,3)))</f>
+        <f t="shared" si="11"/>
         <v>1.6109830000000001</v>
       </c>
       <c r="Q65" s="1">
@@ -47360,7 +47360,7 @@
         <v>5277.7748008165445</v>
       </c>
       <c r="R65" s="1">
-        <f>R64+A65/2.5</f>
+        <f t="shared" si="14"/>
         <v>837.6</v>
       </c>
     </row>
@@ -47369,19 +47369,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>47.050966799187805</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6787.6379787260894</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>605.50966799187802</v>
       </c>
       <c r="E66" s="1">
-        <f>E65+A66/(75-A66/1.5)</f>
+        <f t="shared" si="15"/>
         <v>45.843245752982043</v>
       </c>
       <c r="F66" s="1">
@@ -47389,11 +47389,11 @@
         <v>10001.448844294708</v>
       </c>
       <c r="G66">
-        <f>FLOOR(A66*0.8,1)+1</f>
+        <f t="shared" ref="G66:G100" si="16">FLOOR(A66*0.8,1)+1</f>
         <v>53</v>
       </c>
       <c r="H66">
-        <f>FLOOR(A66/3,1)+1</f>
+        <f t="shared" ref="H66:H100" si="17">FLOOR(A66/3,1)+1</f>
         <v>22</v>
       </c>
       <c r="J66" s="1">
@@ -47409,11 +47409,11 @@
         <v>3294.787015995053</v>
       </c>
       <c r="M66" s="1">
-        <f>M65+A66*4</f>
+        <f t="shared" si="13"/>
         <v>8626</v>
       </c>
       <c r="O66">
-        <f>MAX(1,1+(1-POWER(1-(A66-10)/200,3)))</f>
+        <f t="shared" ref="O66:O100" si="18">MAX(1,1+(1-POWER(1-(A66-10)/200,3)))</f>
         <v>1.6189218750000001</v>
       </c>
       <c r="Q66" s="1">
@@ -47421,7 +47421,7 @@
         <v>5334.0027736603661</v>
       </c>
       <c r="R66" s="1">
-        <f>R65+A66/2.5</f>
+        <f t="shared" si="14"/>
         <v>863.6</v>
       </c>
     </row>
@@ -47430,19 +47430,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B100" si="3">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
+        <f t="shared" ref="B67:B100" si="19">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
         <v>47.700586025666546</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:C100" si="4">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
+        <f t="shared" ref="C67:C100" si="20">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
         <v>6962.5341487715887</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D100" si="5">(5+A67*2+10*B67)*MIN(1,0.8+A67*0.015)</f>
+        <f t="shared" ref="D67:D100" si="21">(5+A67*2+10*B67)*MIN(1,0.8+A67*0.015)</f>
         <v>614.00586025666553</v>
       </c>
       <c r="E67" s="1">
-        <f>E66+A67/(75-A67/1.5)</f>
+        <f t="shared" si="15"/>
         <v>47.972278011046555</v>
       </c>
       <c r="F67" s="1">
@@ -47450,11 +47450,11 @@
         <v>10513.337825321376</v>
       </c>
       <c r="G67">
-        <f>FLOOR(A67*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="H67">
-        <f>FLOOR(A67/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="J67" s="1">
@@ -47470,11 +47470,11 @@
         <v>3384.2566243891074</v>
       </c>
       <c r="M67" s="1">
-        <f>M66+A67*4</f>
+        <f t="shared" ref="M67:M100" si="22">M66+A67*4</f>
         <v>8890</v>
       </c>
       <c r="O67">
-        <f>MAX(1,1+(1-POWER(1-(A67-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.626752</v>
       </c>
       <c r="Q67" s="1">
@@ -47482,7 +47482,7 @@
         <v>5505.3462322382293</v>
       </c>
       <c r="R67" s="1">
-        <f>R66+A67/2.5</f>
+        <f t="shared" ref="R67:R100" si="23">R66+A67/2.5</f>
         <v>890</v>
       </c>
     </row>
@@ -47491,19 +47491,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>48.396830673359815</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>7143.6227171611508</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>622.96830673359818</v>
       </c>
       <c r="E68" s="1">
-        <f>E67+A68/(75-A68/1.5)</f>
+        <f t="shared" si="15"/>
         <v>50.181069219837767</v>
       </c>
       <c r="F68" s="1">
@@ -47511,11 +47511,11 @@
         <v>11055.63612142179</v>
       </c>
       <c r="G68">
-        <f>FLOOR(A68*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="H68">
-        <f>FLOOR(A68/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="J68" s="1">
@@ -47531,11 +47531,11 @@
         <v>3401.379653430135</v>
       </c>
       <c r="M68" s="1">
-        <f>M67+A68*4</f>
+        <f t="shared" si="22"/>
         <v>9158</v>
       </c>
       <c r="O68">
-        <f>MAX(1,1+(1-POWER(1-(A68-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.6344741249999999</v>
       </c>
       <c r="Q68" s="1">
@@ -47543,7 +47543,7 @@
         <v>5559.467032833023</v>
       </c>
       <c r="R68" s="1">
-        <f>R67+A68/2.5</f>
+        <f t="shared" si="23"/>
         <v>916.8</v>
       </c>
     </row>
@@ -47552,19 +47552,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>49.143047210190389</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>7331.4180944101245</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>632.43047210190389</v>
       </c>
       <c r="E69" s="1">
-        <f>E68+A69/(75-A69/1.5)</f>
+        <f t="shared" si="15"/>
         <v>52.473204051298438</v>
       </c>
       <c r="F69" s="1">
@@ -47572,11 +47572,11 @@
         <v>11629.974129836759</v>
       </c>
       <c r="G69">
-        <f>FLOOR(A69*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="H69">
-        <f>FLOOR(A69/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="J69" s="1">
@@ -47592,11 +47592,11 @@
         <v>3554.5826528176071</v>
       </c>
       <c r="M69" s="1">
-        <f>M68+A69*4</f>
+        <f t="shared" si="22"/>
         <v>9430</v>
       </c>
       <c r="O69">
-        <f>MAX(1,1+(1-POWER(1-(A69-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.6420889999999999</v>
       </c>
       <c r="Q69" s="1">
@@ -47604,7 +47604,7 @@
         <v>5836.941073782612</v>
       </c>
       <c r="R69" s="1">
-        <f>R68+A69/2.5</f>
+        <f t="shared" si="23"/>
         <v>944</v>
       </c>
     </row>
@@ -47613,19 +47613,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>49.942822291671135</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>7526.4766333754305</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>642.42822291671132</v>
       </c>
       <c r="E70" s="1">
-        <f>E69+A70/(75-A70/1.5)</f>
+        <f t="shared" si="15"/>
         <v>54.852514396126026</v>
       </c>
       <c r="F70" s="1">
@@ -47633,11 +47633,11 @@
         <v>12238.057153425238</v>
       </c>
       <c r="G70">
-        <f>FLOOR(A70*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="H70">
-        <f>FLOOR(A70/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="J70" s="1">
@@ -47653,11 +47653,11 @@
         <v>3569.9790834688424</v>
       </c>
       <c r="M70" s="1">
-        <f>M69+A70*4</f>
+        <f t="shared" si="22"/>
         <v>9706</v>
       </c>
       <c r="O70">
-        <f>MAX(1,1+(1-POWER(1-(A70-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.6495973749999999</v>
       </c>
       <c r="Q70" s="1">
@@ -47665,7 +47665,7 @@
         <v>5889.0281248951087</v>
       </c>
       <c r="R70" s="1">
-        <f>R69+A70/2.5</f>
+        <f t="shared" si="23"/>
         <v>971.6</v>
       </c>
     </row>
@@ -47674,19 +47674,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>50.8</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>7729.4</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>653</v>
       </c>
       <c r="E71" s="1">
-        <f>E70+A71/(75-A71/1.5)</f>
+        <f t="shared" si="15"/>
         <v>57.323102631420142</v>
       </c>
       <c r="F71" s="1">
@@ -47694,11 +47694,11 @@
         <v>15223.786361612583</v>
       </c>
       <c r="G71">
-        <f>FLOOR(A71*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="H71">
-        <f>FLOOR(A71/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="J71" s="1">
@@ -47714,11 +47714,11 @@
         <v>3819.0489420555573</v>
       </c>
       <c r="M71" s="1">
-        <f>M70+A71*4</f>
+        <f t="shared" si="22"/>
         <v>9986</v>
       </c>
       <c r="O71">
-        <f>MAX(1,1+(1-POWER(1-(A71-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.657</v>
       </c>
       <c r="Q71" s="1">
@@ -47726,7 +47726,7 @@
         <v>6328.1640969860582</v>
       </c>
       <c r="R71" s="1">
-        <f>R70+A71/2.5</f>
+        <f t="shared" si="23"/>
         <v>999.6</v>
       </c>
     </row>
@@ -47735,19 +47735,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>51.718700320464549</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>7940.8388118541761</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>664.18700320464552</v>
       </c>
       <c r="E72" s="1">
-        <f>E71+A72/(75-A72/1.5)</f>
+        <f t="shared" si="15"/>
         <v>59.889367691661107</v>
       </c>
       <c r="F72" s="1">
@@ -47755,11 +47755,11 @@
         <v>15737.161332902258</v>
       </c>
       <c r="G72">
-        <f>FLOOR(A72*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="H72">
-        <f>FLOOR(A72/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="J72" s="1">
@@ -47775,11 +47775,11 @@
         <v>3831.6414039902479</v>
       </c>
       <c r="M72" s="1">
-        <f>M71+A72*4</f>
+        <f t="shared" si="22"/>
         <v>10270</v>
       </c>
       <c r="O72">
-        <f>MAX(1,1+(1-POWER(1-(A72-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.6642976249999999</v>
       </c>
       <c r="Q72" s="1">
@@ -47787,7 +47787,7 @@
         <v>6376.9916885126349</v>
       </c>
       <c r="R72" s="1">
-        <f>R71+A72/2.5</f>
+        <f t="shared" si="23"/>
         <v>1028</v>
       </c>
     </row>
@@ -47796,19 +47796,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>52.703338943962045</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>8161.4965655513734</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>676.03338943962046</v>
       </c>
       <c r="E73" s="1">
-        <f>E72+A73/(75-A73/1.5)</f>
+        <f t="shared" si="15"/>
         <v>62.556034358327771</v>
       </c>
       <c r="F73" s="1">
@@ -47816,11 +47816,11 @@
         <v>16271.615412475436</v>
       </c>
       <c r="G73">
-        <f>FLOOR(A73*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>58</v>
       </c>
       <c r="H73">
-        <f>FLOOR(A73/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="J73" s="1">
@@ -47836,11 +47836,11 @@
         <v>3955.7449129657116</v>
       </c>
       <c r="M73" s="1">
-        <f>M72+A73*4</f>
+        <f t="shared" si="22"/>
         <v>10558</v>
       </c>
       <c r="O73">
-        <f>MAX(1,1+(1-POWER(1-(A73-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.6714910000000001</v>
       </c>
       <c r="Q73" s="1">
@@ -47848,7 +47848,7 @@
         <v>6611.9920203179699</v>
       </c>
       <c r="R73" s="1">
-        <f>R72+A73/2.5</f>
+        <f t="shared" si="23"/>
         <v>1056.8</v>
       </c>
     </row>
@@ -47857,19 +47857,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>53.758648490814927</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>8392.1338757612848</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>688.58648490814926</v>
       </c>
       <c r="E74" s="1">
-        <f>E73+A74/(75-A74/1.5)</f>
+        <f t="shared" si="15"/>
         <v>65.328186257061944</v>
       </c>
       <c r="F74" s="1">
@@ -47877,11 +47877,11 @@
         <v>16827.633130778035</v>
       </c>
       <c r="G74">
-        <f>FLOOR(A74*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="H74">
-        <f>FLOOR(A74/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="J74" s="1">
@@ -47897,11 +47897,11 @@
         <v>3965.8341918173328</v>
       </c>
       <c r="M74" s="1">
-        <f>M73+A74*4</f>
+        <f t="shared" si="22"/>
         <v>10850</v>
       </c>
       <c r="O74">
-        <f>MAX(1,1+(1-POWER(1-(A74-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.678580875</v>
       </c>
       <c r="Q74" s="1">
@@ -47909,7 +47909,7 @@
         <v>6656.9734278056558</v>
       </c>
       <c r="R74" s="1">
-        <f>R73+A74/2.5</f>
+        <f t="shared" si="23"/>
         <v>1086</v>
       </c>
     </row>
@@ -47918,19 +47918,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>54.889701257893044</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>8633.5730503177183</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>701.89701257893046</v>
       </c>
       <c r="E75" s="1">
-        <f>E74+A75/(75-A75/1.5)</f>
+        <f t="shared" si="15"/>
         <v>68.211303140178828</v>
       </c>
       <c r="F75" s="1">
@@ -47938,11 +47938,11 @@
         <v>17405.682004164377</v>
       </c>
       <c r="G75">
-        <f>FLOOR(A75*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="H75">
-        <f>FLOOR(A75/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="J75" s="1">
@@ -47958,11 +47958,11 @@
         <v>4168.3137737081906</v>
       </c>
       <c r="M75" s="1">
-        <f>M74+A75*4</f>
+        <f t="shared" si="22"/>
         <v>11146</v>
       </c>
       <c r="O75">
-        <f>MAX(1,1+(1-POWER(1-(A75-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.685568</v>
       </c>
       <c r="Q75" s="1">
@@ -47970,7 +47970,7 @@
         <v>7025.9763109217674</v>
       </c>
       <c r="R75" s="1">
-        <f>R74+A75/2.5</f>
+        <f t="shared" si="23"/>
         <v>1115.5999999999999</v>
       </c>
     </row>
@@ -47979,19 +47979,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>56.101933598375609</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>8886.7030278294387</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>716.01933598375604</v>
       </c>
       <c r="E76" s="1">
-        <f>E75+A76/(75-A76/1.5)</f>
+        <f t="shared" si="15"/>
         <v>71.211303140178828</v>
       </c>
       <c r="F76" s="1">
@@ -47999,11 +47999,11 @@
         <v>18006.205969118862</v>
       </c>
       <c r="G76">
-        <f>FLOOR(A76*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>61</v>
       </c>
       <c r="H76">
-        <f>FLOOR(A76/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="J76" s="1">
@@ -48019,11 +48019,11 @@
         <v>4175.0042827666821</v>
       </c>
       <c r="M76" s="1">
-        <f>M75+A76*4</f>
+        <f t="shared" si="22"/>
         <v>11446</v>
       </c>
       <c r="O76">
-        <f>MAX(1,1+(1-POWER(1-(A76-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.6924531249999999</v>
       </c>
       <c r="Q76" s="1">
@@ -48031,7 +48031,7 @@
         <v>7065.9990452568536</v>
       </c>
       <c r="R76" s="1">
-        <f>R75+A76/2.5</f>
+        <f t="shared" si="23"/>
         <v>1145.5999999999999</v>
       </c>
     </row>
@@ -48040,19 +48040,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>57.401172051333091</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>9152.484706261841</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>731.01172051333094</v>
       </c>
       <c r="E77" s="1">
-        <f>E76+A77/(75-A77/1.5)</f>
+        <f t="shared" si="15"/>
         <v>74.334590811411701</v>
       </c>
       <c r="F77" s="1">
@@ -48060,11 +48060,11 @@
         <v>18629.617892408427</v>
       </c>
       <c r="G77">
-        <f>FLOOR(A77*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>61</v>
       </c>
       <c r="H77">
-        <f>FLOOR(A77/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="J77" s="1">
@@ -48080,11 +48080,11 @@
         <v>4273.272752035904</v>
       </c>
       <c r="M77" s="1">
-        <f>M76+A77*4</f>
+        <f t="shared" si="22"/>
         <v>11750</v>
       </c>
       <c r="O77">
-        <f>MAX(1,1+(1-POWER(1-(A77-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.6992370000000001</v>
       </c>
       <c r="Q77" s="1">
@@ -48092,7 +48092,7 @@
         <v>7261.3031713512328</v>
       </c>
       <c r="R77" s="1">
-        <f>R76+A77/2.5</f>
+        <f t="shared" si="23"/>
         <v>1176</v>
       </c>
     </row>
@@ -48101,19 +48101,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>58.793661346719624</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>9431.9566931763748</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>746.93661346719625</v>
       </c>
       <c r="E78" s="1">
-        <f>E77+A78/(75-A78/1.5)</f>
+        <f t="shared" si="15"/>
         <v>77.588111938172261</v>
       </c>
       <c r="F78" s="1">
@@ -48121,11 +48121,11 @@
         <v>19276.291012692185</v>
       </c>
       <c r="G78">
-        <f>FLOOR(A78*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
       <c r="H78">
-        <f>FLOOR(A78/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="J78" s="1">
@@ -48141,11 +48141,11 @@
         <v>4276.5765603143291</v>
       </c>
       <c r="M78" s="1">
-        <f>M77+A78*4</f>
+        <f t="shared" si="22"/>
         <v>12058</v>
       </c>
       <c r="O78">
-        <f>MAX(1,1+(1-POWER(1-(A78-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.705920375</v>
       </c>
       <c r="Q78" s="1">
@@ -48153,7 +48153,7 @@
         <v>7295.4990894876291</v>
       </c>
       <c r="R78" s="1">
-        <f>R77+A78/2.5</f>
+        <f t="shared" si="23"/>
         <v>1206.8</v>
       </c>
     </row>
@@ -48162,19 +48162,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>60.286094420380778</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>9726.2415107055804</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>763.86094420380778</v>
       </c>
       <c r="E79" s="1">
-        <f>E78+A79/(75-A79/1.5)</f>
+        <f t="shared" si="15"/>
         <v>80.979416285998354</v>
       </c>
       <c r="F79" s="1">
@@ -48182,11 +48182,11 @@
         <v>19946.549146866022</v>
       </c>
       <c r="G79">
-        <f>FLOOR(A79*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
       <c r="H79">
-        <f>FLOOR(A79/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="J79" s="1">
@@ -48202,11 +48202,11 @@
         <v>4438.6051823736625</v>
       </c>
       <c r="M79" s="1">
-        <f>M78+A79*4</f>
+        <f t="shared" si="22"/>
         <v>12370</v>
       </c>
       <c r="O79">
-        <f>MAX(1,1+(1-POWER(1-(A79-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.712504</v>
       </c>
       <c r="Q79" s="1">
@@ -48214,7 +48214,7 @@
         <v>7601.1291292356264</v>
       </c>
       <c r="R79" s="1">
-        <f>R78+A79/2.5</f>
+        <f t="shared" si="23"/>
         <v>1238</v>
       </c>
     </row>
@@ -48223,19 +48223,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>61.885644583342263</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>10036.552290917652</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>781.85644583342264</v>
       </c>
       <c r="E80" s="1">
-        <f>E79+A80/(75-A80/1.5)</f>
+        <f t="shared" si="15"/>
         <v>84.516729718834171</v>
       </c>
       <c r="F80" s="1">
@@ -48243,11 +48243,11 @@
         <v>20640.655467660559</v>
       </c>
       <c r="G80">
-        <f>FLOOR(A80*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="H80">
-        <f>FLOOR(A80/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="J80" s="1">
@@ -48263,11 +48263,11 @@
         <v>4437.6539717474479</v>
       </c>
       <c r="M80" s="1">
-        <f>M79+A80*4</f>
+        <f t="shared" si="22"/>
         <v>12686</v>
       </c>
       <c r="O80">
-        <f>MAX(1,1+(1-POWER(1-(A80-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7189886249999999</v>
       </c>
       <c r="Q80" s="1">
@@ -48275,7 +48275,7 @@
         <v>7628.2766991199342</v>
       </c>
       <c r="R80" s="1">
-        <f>R79+A80/2.5</f>
+        <f t="shared" si="23"/>
         <v>1269.5999999999999</v>
       </c>
     </row>
@@ -48284,19 +48284,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>77.599999999999994</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>11932.199999999999</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>941</v>
       </c>
       <c r="E81" s="1">
-        <f>E80+A81/(75-A81/1.5)</f>
+        <f t="shared" si="15"/>
         <v>88.209037411141864</v>
       </c>
       <c r="F81" s="1">
@@ -48304,11 +48304,11 @@
         <v>27687.332849448972</v>
       </c>
       <c r="G81">
-        <f>FLOOR(A81*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>65</v>
       </c>
       <c r="H81">
-        <f>FLOOR(A81/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="J81" s="1">
@@ -48324,11 +48324,11 @@
         <v>4689.511789412456</v>
       </c>
       <c r="M81" s="1">
-        <f>M80+A81*4</f>
+        <f t="shared" si="22"/>
         <v>13006</v>
       </c>
       <c r="O81">
-        <f>MAX(1,1+(1-POWER(1-(A81-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7253749999999999</v>
       </c>
       <c r="Q81" s="1">
@@ -48336,7 +48336,7 @@
         <v>8091.1664036575157</v>
       </c>
       <c r="R81" s="1">
-        <f>R80+A81/2.5</f>
+        <f t="shared" si="23"/>
         <v>1301.5999999999999</v>
       </c>
     </row>
@@ -48345,19 +48345,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>79.437400640929098</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>12298.20123268136</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>961.37400640929104</v>
       </c>
       <c r="E82" s="1">
-        <f>E81+A82/(75-A82/1.5)</f>
+        <f t="shared" si="15"/>
         <v>92.066180268284725</v>
       </c>
       <c r="F82" s="1">
@@ -48365,11 +48365,11 @@
         <v>28649.551982889774</v>
       </c>
       <c r="G82">
-        <f>FLOOR(A82*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>65</v>
       </c>
       <c r="H82">
-        <f>FLOOR(A82/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="J82" s="1">
@@ -48385,11 +48385,11 @@
         <v>4796.0868984036179</v>
       </c>
       <c r="M82" s="1">
-        <f>M81+A82*4</f>
+        <f t="shared" si="22"/>
         <v>13330</v>
       </c>
       <c r="O82">
-        <f>MAX(1,1+(1-POWER(1-(A82-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.731663875</v>
       </c>
       <c r="Q82" s="1">
@@ -48397,7 +48397,7 @@
         <v>8305.2104233263381</v>
       </c>
       <c r="R82" s="1">
-        <f>R81+A82/2.5</f>
+        <f t="shared" si="23"/>
         <v>1334</v>
       </c>
     </row>
@@ -48406,19 +48406,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>81.406677887924062</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>12684.486621533682</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>983.06677887924059</v>
       </c>
       <c r="E83" s="1">
-        <f>E82+A83/(75-A83/1.5)</f>
+        <f t="shared" si="15"/>
         <v>96.098967153530623</v>
       </c>
       <c r="F83" s="1">
@@ -48426,11 +48426,11 @@
         <v>29643.057435863939</v>
       </c>
       <c r="G83">
-        <f>FLOOR(A83*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="H83">
-        <f>FLOOR(A83/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="J83" s="1">
@@ -48446,11 +48446,11 @@
         <v>5031.3651094260758</v>
       </c>
       <c r="M83" s="1">
-        <f>M82+A83*4</f>
+        <f t="shared" si="22"/>
         <v>13658</v>
       </c>
       <c r="O83">
-        <f>MAX(1,1+(1-POWER(1-(A83-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7378559999999998</v>
       </c>
       <c r="Q83" s="1">
@@ -48458,7 +48458,7 @@
         <v>8743.7880436067626</v>
       </c>
       <c r="R83" s="1">
-        <f>R82+A83/2.5</f>
+        <f t="shared" si="23"/>
         <v>1366.8</v>
       </c>
     </row>
@@ -48467,19 +48467,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>83.517296981629883</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>13092.70990926539</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1006.1729698162989</v>
       </c>
       <c r="E84" s="1">
-        <f>E83+A84/(75-A84/1.5)</f>
+        <f t="shared" si="15"/>
         <v>100.31930613658147</v>
       </c>
       <c r="F84" s="1">
@@ -48487,11 +48487,11 @@
         <v>30667.682000306286</v>
       </c>
       <c r="G84">
-        <f>FLOOR(A84*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>67</v>
       </c>
       <c r="H84">
-        <f>FLOOR(A84/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="J84" s="1">
@@ -48507,11 +48507,11 @@
         <v>5127.9874241676953</v>
       </c>
       <c r="M84" s="1">
-        <f>M83+A84*4</f>
+        <f t="shared" si="22"/>
         <v>13990</v>
       </c>
       <c r="O84">
-        <f>MAX(1,1+(1-POWER(1-(A84-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7439521250000001</v>
       </c>
       <c r="Q84" s="1">
@@ -48519,7 +48519,7 @@
         <v>8942.9645653505286</v>
       </c>
       <c r="R84" s="1">
-        <f>R83+A84/2.5</f>
+        <f t="shared" si="23"/>
         <v>1400</v>
       </c>
     </row>
@@ -48528,19 +48528,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>85.779402515786089</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>13524.657735856443</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1030.7940251578609</v>
       </c>
       <c r="E85" s="1">
-        <f>E84+A85/(75-A85/1.5)</f>
+        <f t="shared" si="15"/>
         <v>104.74035876816042</v>
       </c>
       <c r="F85" s="1">
@@ -48548,11 +48548,11 @@
         <v>31723.067063096114</v>
       </c>
       <c r="G85">
-        <f>FLOOR(A85*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="H85">
-        <f>FLOOR(A85/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="J85" s="1">
@@ -48568,11 +48568,11 @@
         <v>5431.0337217725673</v>
       </c>
       <c r="M85" s="1">
-        <f>M84+A85*4</f>
+        <f t="shared" si="22"/>
         <v>14326</v>
       </c>
       <c r="O85">
-        <f>MAX(1,1+(1-POWER(1-(A85-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7499530000000001</v>
       </c>
       <c r="Q85" s="1">
@@ -48580,7 +48580,7 @@
         <v>9504.05375451707</v>
       </c>
       <c r="R85" s="1">
-        <f>R84+A85/2.5</f>
+        <f t="shared" si="23"/>
         <v>1433.6</v>
       </c>
     </row>
@@ -48589,19 +48589,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>88.203867196751233</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>13982.260196413396</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1057.0386719675123</v>
       </c>
       <c r="E86" s="1">
-        <f>E85+A86/(75-A86/1.5)</f>
+        <f t="shared" si="15"/>
         <v>109.37672240452406</v>
       </c>
       <c r="F86" s="1">
@@ -48609,11 +48609,11 @@
         <v>32808.628568850589</v>
       </c>
       <c r="G86">
-        <f>FLOOR(A86*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="H86">
-        <f>FLOOR(A86/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="J86" s="1">
@@ -48629,11 +48629,11 @@
         <v>5609.6391322526497</v>
       </c>
       <c r="M86" s="1">
-        <f>M85+A86*4</f>
+        <f t="shared" si="22"/>
         <v>14666</v>
       </c>
       <c r="O86">
-        <f>MAX(1,1+(1-POWER(1-(A86-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.755859375</v>
       </c>
       <c r="Q86" s="1">
@@ -48641,7 +48641,7 @@
         <v>9849.7374607326801</v>
       </c>
       <c r="R86" s="1">
-        <f>R85+A86/2.5</f>
+        <f t="shared" si="23"/>
         <v>1467.6</v>
       </c>
     </row>
@@ -48650,19 +48650,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>90.802344102666183</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>14467.602229961009</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1085.0234410266619</v>
       </c>
       <c r="E87" s="1">
-        <f>E86+A87/(75-A87/1.5)</f>
+        <f t="shared" si="15"/>
         <v>114.24464693282594</v>
       </c>
       <c r="F87" s="1">
@@ -48670,11 +48670,11 @@
         <v>33923.517506102093</v>
       </c>
       <c r="G87">
-        <f>FLOOR(A87*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="H87">
-        <f>FLOOR(A87/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="J87" s="1">
@@ -48690,11 +48690,11 @@
         <v>5891.0096392822943</v>
       </c>
       <c r="M87" s="1">
-        <f>M86+A87*4</f>
+        <f t="shared" si="22"/>
         <v>15010</v>
       </c>
       <c r="O87">
-        <f>MAX(1,1+(1-POWER(1-(A87-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7616719999999999</v>
       </c>
       <c r="Q87" s="1">
@@ -48702,7 +48702,7 @@
         <v>10378.026733253717</v>
       </c>
       <c r="R87" s="1">
-        <f>R86+A87/2.5</f>
+        <f t="shared" si="23"/>
         <v>1502</v>
       </c>
     </row>
@@ -48711,19 +48711,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>93.587322693439219</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>14982.935904060896</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1114.8732269343923</v>
       </c>
       <c r="E88" s="1">
-        <f>E87+A88/(75-A88/1.5)</f>
+        <f t="shared" si="15"/>
         <v>119.36229399164947</v>
       </c>
       <c r="F88" s="1">
@@ -48731,11 +48731,11 @@
         <v>35066.573895717287</v>
       </c>
       <c r="G88">
-        <f>FLOOR(A88*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>70</v>
       </c>
       <c r="H88">
-        <f>FLOOR(A88/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="J88" s="1">
@@ -48751,11 +48751,11 @@
         <v>6052.9981601098289</v>
       </c>
       <c r="M88" s="1">
-        <f>M87+A88*4</f>
+        <f t="shared" si="22"/>
         <v>15358</v>
       </c>
       <c r="O88">
-        <f>MAX(1,1+(1-POWER(1-(A88-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7673916250000001</v>
       </c>
       <c r="Q88" s="1">
@@ -48763,7 +48763,7 @@
         <v>10698.018254318522</v>
       </c>
       <c r="R88" s="1">
-        <f>R87+A88/2.5</f>
+        <f t="shared" si="23"/>
         <v>1536.8</v>
       </c>
     </row>
@@ -48772,19 +48772,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>96.572188840761555</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>15530.693665181823</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1146.7218884076156</v>
       </c>
       <c r="E89" s="1">
-        <f>E88+A89/(75-A89/1.5)</f>
+        <f t="shared" si="15"/>
         <v>124.75004909369028</v>
       </c>
       <c r="F89" s="1">
@@ -48792,11 +48792,11 @@
         <v>36236.273024912094</v>
       </c>
       <c r="G89">
-        <f>FLOOR(A89*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>71</v>
       </c>
       <c r="H89">
-        <f>FLOOR(A89/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="J89" s="1">
@@ -48812,11 +48812,11 @@
         <v>6381.4366191324243</v>
       </c>
       <c r="M89" s="1">
-        <f>M88+A89*4</f>
+        <f t="shared" si="22"/>
         <v>15710</v>
       </c>
       <c r="O89">
-        <f>MAX(1,1+(1-POWER(1-(A89-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7730190000000001</v>
       </c>
       <c r="Q89" s="1">
@@ -48824,7 +48824,7 @@
         <v>11314.408373017552</v>
       </c>
       <c r="R89" s="1">
-        <f>R88+A89/2.5</f>
+        <f t="shared" si="23"/>
         <v>1572</v>
       </c>
     </row>
@@ -48833,19 +48833,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>99.771289166684539</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>16113.502630168892</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1180.7128916668453</v>
       </c>
       <c r="E90" s="1">
-        <f>E89+A90/(75-A90/1.5)</f>
+        <f t="shared" si="15"/>
         <v>130.43090015752006</v>
       </c>
       <c r="F90" s="1">
@@ -48853,11 +48853,11 @@
         <v>37430.66236636012</v>
       </c>
       <c r="G90">
-        <f>FLOOR(A90*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="H90">
-        <f>FLOOR(A90/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="J90" s="1">
@@ -48873,11 +48873,11 @@
         <v>6601.6114080756442</v>
       </c>
       <c r="M90" s="1">
-        <f>M89+A90*4</f>
+        <f t="shared" si="22"/>
         <v>16066</v>
       </c>
       <c r="O90">
-        <f>MAX(1,1+(1-POWER(1-(A90-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.778554875</v>
       </c>
       <c r="Q90" s="1">
@@ -48885,7 +48885,7 @@
         <v>11741.328152688553</v>
       </c>
       <c r="R90" s="1">
-        <f>R89+A90/2.5</f>
+        <f t="shared" si="23"/>
         <v>1607.6</v>
       </c>
     </row>
@@ -48894,19 +48894,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>128.19999999999999</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>19884.199999999997</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1467</v>
       </c>
       <c r="E91" s="1">
-        <f>E90+A91/(75-A91/1.5)</f>
+        <f t="shared" si="15"/>
         <v>136.43090015752006</v>
       </c>
       <c r="F91" s="1">
@@ -48914,11 +48914,11 @@
         <v>50098.335292222597</v>
       </c>
       <c r="G91">
-        <f>FLOOR(A91*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>73</v>
       </c>
       <c r="H91">
-        <f>FLOOR(A91/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="J91" s="1">
@@ -48934,11 +48934,11 @@
         <v>7239.6863695154489</v>
       </c>
       <c r="M91" s="1">
-        <f>M90+A91*4</f>
+        <f t="shared" si="22"/>
         <v>16426</v>
       </c>
       <c r="O91">
-        <f>MAX(1,1+(1-POWER(1-(A91-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.784</v>
       </c>
       <c r="Q91" s="1">
@@ -48946,7 +48946,7 @@
         <v>12915.600483215561</v>
       </c>
       <c r="R91" s="1">
-        <f>R90+A91/2.5</f>
+        <f t="shared" si="23"/>
         <v>1643.6</v>
       </c>
     </row>
@@ -48955,19 +48955,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>131.8748012818582</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>20580.849683308734</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1505.7480128185821</v>
       </c>
       <c r="E92" s="1">
-        <f>E91+A92/(75-A92/1.5)</f>
+        <f t="shared" si="15"/>
         <v>142.77973736682239</v>
       </c>
       <c r="F92" s="1">
@@ -48975,11 +48975,11 @@
         <v>51700.318230529061</v>
       </c>
       <c r="G92">
-        <f>FLOOR(A92*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>73</v>
       </c>
       <c r="H92">
-        <f>FLOOR(A92/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="J92" s="1">
@@ -48995,11 +48995,11 @@
         <v>7446.7660229123303</v>
       </c>
       <c r="M92" s="1">
-        <f>M91+A92*4</f>
+        <f t="shared" si="22"/>
         <v>16790</v>
       </c>
       <c r="O92">
-        <f>MAX(1,1+(1-POWER(1-(A92-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7893551250000002</v>
       </c>
       <c r="Q92" s="1">
@@ -49007,7 +49007,7 @@
         <v>13324.908947774047</v>
       </c>
       <c r="R92" s="1">
-        <f>R91+A92/2.5</f>
+        <f t="shared" si="23"/>
         <v>1680</v>
       </c>
     </row>
@@ -49016,19 +49016,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>135.81335577584815</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>21321.760223929239</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1547.1335577584814</v>
       </c>
       <c r="E93" s="1">
-        <f>E92+A93/(75-A93/1.5)</f>
+        <f t="shared" si="15"/>
         <v>149.51144468389555</v>
       </c>
       <c r="F93" s="1">
@@ -49036,11 +49036,11 @@
         <v>53322.329299207777</v>
       </c>
       <c r="G93">
-        <f>FLOOR(A93*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="H93">
-        <f>FLOOR(A93/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="J93" s="1">
@@ -49056,11 +49056,11 @@
         <v>7784.0086120999695</v>
       </c>
       <c r="M93" s="1">
-        <f>M92+A93*4</f>
+        <f t="shared" si="22"/>
         <v>17158</v>
       </c>
       <c r="O93">
-        <f>MAX(1,1+(1-POWER(1-(A93-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.7946209999999998</v>
       </c>
       <c r="Q93" s="1">
@@ -49068,7 +49068,7 @@
         <v>13969.345319455459</v>
       </c>
       <c r="R93" s="1">
-        <f>R92+A93/2.5</f>
+        <f t="shared" si="23"/>
         <v>1716.8</v>
       </c>
     </row>
@@ -49077,19 +49077,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>140.03459396325971</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>22110.504134016413</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1591.345939632597</v>
       </c>
       <c r="E94" s="1">
-        <f>E93+A94/(75-A94/1.5)</f>
+        <f t="shared" si="15"/>
         <v>156.66529083774171</v>
       </c>
       <c r="F94" s="1">
@@ -49097,11 +49097,11 @@
         <v>54958.455190609064</v>
       </c>
       <c r="G94">
-        <f>FLOOR(A94*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>75</v>
       </c>
       <c r="H94">
-        <f>FLOOR(A94/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="J94" s="1">
@@ -49117,11 +49117,11 @@
         <v>8024.0472773058609</v>
       </c>
       <c r="M94" s="1">
-        <f>M93+A94*4</f>
+        <f t="shared" si="22"/>
         <v>17530</v>
       </c>
       <c r="O94">
-        <f>MAX(1,1+(1-POWER(1-(A94-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.799798375</v>
       </c>
       <c r="Q94" s="1">
@@ -49129,7 +49129,7 @@
         <v>14441.667250618264</v>
       </c>
       <c r="R94" s="1">
-        <f>R93+A94/2.5</f>
+        <f t="shared" si="23"/>
         <v>1754</v>
       </c>
     </row>
@@ -49138,19 +49138,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>144.55880503157218</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>22950.9387421549</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1638.5880503157218</v>
       </c>
       <c r="E95" s="1">
-        <f>E94+A95/(75-A95/1.5)</f>
+        <f t="shared" si="15"/>
         <v>164.28691245936332</v>
       </c>
       <c r="F95" s="1">
@@ -49158,11 +49158,11 @@
         <v>56601.519966139997</v>
       </c>
       <c r="G95">
-        <f>FLOOR(A95*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="H95">
-        <f>FLOOR(A95/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="J95" s="1">
@@ -49178,11 +49178,11 @@
         <v>8598.5582702453466</v>
       </c>
       <c r="M95" s="1">
-        <f>M94+A95*4</f>
+        <f t="shared" si="22"/>
         <v>17906</v>
       </c>
       <c r="O95">
-        <f>MAX(1,1+(1-POWER(1-(A95-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.804888</v>
       </c>
       <c r="Q95" s="1">
@@ -49190,7 +49190,7 @@
         <v>15519.434639266583</v>
       </c>
       <c r="R95" s="1">
-        <f>R94+A95/2.5</f>
+        <f t="shared" si="23"/>
         <v>1791.6</v>
       </c>
     </row>
@@ -49199,19 +49199,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>149.40773439350247</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>23847.228674335824</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1689.0773439350246</v>
       </c>
       <c r="E96" s="1">
-        <f>E95+A96/(75-A96/1.5)</f>
+        <f t="shared" si="15"/>
         <v>172.42976960222046</v>
       </c>
       <c r="F96" s="1">
@@ -49219,11 +49219,11 @@
         <v>58242.843421826117</v>
       </c>
       <c r="G96">
-        <f>FLOOR(A96*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>77</v>
       </c>
       <c r="H96">
-        <f>FLOOR(A96/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="J96" s="1">
@@ -49239,11 +49239,11 @@
         <v>8809.1181823033094</v>
       </c>
       <c r="M96" s="1">
-        <f>M95+A96*4</f>
+        <f t="shared" si="22"/>
         <v>18286</v>
       </c>
       <c r="O96">
-        <f>MAX(1,1+(1-POWER(1-(A96-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.809890625</v>
       </c>
       <c r="Q96" s="1">
@@ -49251,7 +49251,7 @@
         <v>15943.540412667802</v>
       </c>
       <c r="R96" s="1">
-        <f>R95+A96/2.5</f>
+        <f t="shared" si="23"/>
         <v>1829.6</v>
       </c>
     </row>
@@ -49260,19 +49260,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>154.60468820533237</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>24803.870094796664</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1743.0468820533238</v>
       </c>
       <c r="E97" s="1">
-        <f>E96+A97/(75-A97/1.5)</f>
+        <f t="shared" si="15"/>
         <v>181.15704232949318</v>
       </c>
       <c r="F97" s="1">
@@ -49280,11 +49280,11 @@
         <v>59871.942809998945</v>
       </c>
       <c r="G97">
-        <f>FLOOR(A97*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>77</v>
       </c>
       <c r="H97">
-        <f>FLOOR(A97/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="J97" s="1">
@@ -49300,11 +49300,11 @@
         <v>9115.6430137226525</v>
       </c>
       <c r="M97" s="1">
-        <f>M96+A97*4</f>
+        <f t="shared" si="22"/>
         <v>18670</v>
       </c>
       <c r="O97">
-        <f>MAX(1,1+(1-POWER(1-(A97-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.8148070000000001</v>
       </c>
       <c r="Q97" s="1">
@@ -49312,7 +49312,7 @@
         <v>16543.132750804965</v>
       </c>
       <c r="R97" s="1">
-        <f>R96+A97/2.5</f>
+        <f t="shared" si="23"/>
         <v>1868</v>
       </c>
     </row>
@@ -49321,19 +49321,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>160.17464538687844</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>25825.716843538095</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1800.7464538687843</v>
       </c>
       <c r="E98" s="1">
-        <f>E97+A98/(75-A98/1.5)</f>
+        <f t="shared" si="15"/>
         <v>190.54413910368675</v>
       </c>
       <c r="F98" s="1">
@@ -49341,11 +49341,11 @@
         <v>62614.607522961742</v>
       </c>
       <c r="G98">
-        <f>FLOOR(A98*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
       <c r="H98">
-        <f>FLOOR(A98/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="J98" s="1">
@@ -49361,11 +49361,11 @@
         <v>9331.0064825365898</v>
       </c>
       <c r="M98" s="1">
-        <f>M97+A98*4</f>
+        <f t="shared" si="22"/>
         <v>19058</v>
       </c>
       <c r="O98">
-        <f>MAX(1,1+(1-POWER(1-(A98-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.8196378750000002</v>
       </c>
       <c r="Q98" s="1">
@@ -49373,7 +49373,7 @@
         <v>16979.052807494107</v>
       </c>
       <c r="R98" s="1">
-        <f>R97+A98/2.5</f>
+        <f t="shared" si="23"/>
         <v>1906.8</v>
       </c>
     </row>
@@ -49382,19 +49382,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>166.14437768152311</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>26918.008617904969</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1862.4437768152311</v>
       </c>
       <c r="E99" s="1">
-        <f>E98+A99/(75-A99/1.5)</f>
+        <f t="shared" si="15"/>
         <v>200.68207013816951</v>
       </c>
       <c r="F99" s="1">
@@ -49402,11 +49402,11 @@
         <v>71341.778431308325</v>
       </c>
       <c r="G99">
-        <f>FLOOR(A99*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>79</v>
       </c>
       <c r="H99">
-        <f>FLOOR(A99/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="J99" s="1">
@@ -49422,11 +49422,11 @@
         <v>9804.4074292492078</v>
       </c>
       <c r="M99" s="1">
-        <f>M98+A99*4</f>
+        <f t="shared" si="22"/>
         <v>19450</v>
       </c>
       <c r="O99">
-        <f>MAX(1,1+(1-POWER(1-(A99-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.824384</v>
       </c>
       <c r="Q99" s="1">
@@ -49434,7 +49434,7 @@
         <v>17887.004043403387</v>
       </c>
       <c r="R99" s="1">
-        <f>R98+A99/2.5</f>
+        <f t="shared" si="23"/>
         <v>1946</v>
       </c>
     </row>
@@ -49443,19 +49443,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>172.54257833336908</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>28086.401357004954</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1928.4257833336908</v>
       </c>
       <c r="E100" s="1">
-        <f>E99+A100/(75-A100/1.5)</f>
+        <f t="shared" si="15"/>
         <v>211.68207013816951</v>
       </c>
       <c r="F100" s="1">
@@ -49463,11 +49463,11 @@
         <v>94688.331813005949</v>
       </c>
       <c r="G100">
-        <f>FLOOR(A100*0.8,1)+1</f>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="H100">
-        <f>FLOOR(A100/3,1)+1</f>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="J100" s="1">
@@ -49483,11 +49483,11 @@
         <v>9967.4600378320556</v>
       </c>
       <c r="M100" s="1">
-        <f>M99+A100*4</f>
+        <f t="shared" si="22"/>
         <v>19846</v>
       </c>
       <c r="O100">
-        <f>MAX(1,1+(1-POWER(1-(A100-10)/200,3)))</f>
+        <f t="shared" si="18"/>
         <v>1.8290461250000001</v>
       </c>
       <c r="Q100" s="1">
@@ -49495,7 +49495,7 @@
         <v>18230.944158289076</v>
       </c>
       <c r="R100" s="1">
-        <f>R99+A100/2.5</f>
+        <f t="shared" si="23"/>
         <v>1985.6</v>
       </c>
     </row>
@@ -57476,21 +57476,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC997617-BEE2-4429-807F-EEAB4BB1F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E69EE0D-C875-4046-8939-54A83C8138F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2554" yWindow="2331" windowWidth="28346" windowHeight="14786" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="2606" yWindow="2606" windowWidth="28345" windowHeight="14785" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="1174">
   <si>
     <t>Id</t>
   </si>
@@ -3455,12 +3455,6 @@
     <t>V4</t>
   </si>
   <si>
-    <t>WorldBossT2</t>
-  </si>
-  <si>
-    <t>Angel,WorldBossT2</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -3558,6 +3552,27 @@
   </si>
   <si>
     <t>Stationary</t>
+  </si>
+  <si>
+    <t>WorldBossHard</t>
+  </si>
+  <si>
+    <t>WorldBossExtreme</t>
+  </si>
+  <si>
+    <t>Angel,WorldBossExtreme</t>
+  </si>
+  <si>
+    <t>Demon,WorldBossHard</t>
+  </si>
+  <si>
+    <t>Undead,WorldBossHard</t>
+  </si>
+  <si>
+    <t>Normal,WorldBossHard</t>
+  </si>
+  <si>
+    <t>AtkMult</t>
   </si>
 </sst>
 </file>
@@ -4002,10 +4017,10 @@
   <dimension ref="A1:AJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L81" sqref="L81"/>
+      <selection pane="bottomRight" activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6116,7 +6131,7 @@
         <v>100</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M20">
         <v>10</v>
@@ -6437,7 +6452,7 @@
         <v>100</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -8877,7 +8892,7 @@
         <v>30</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F46">
         <v>100</v>
@@ -8898,7 +8913,7 @@
         <v>100</v>
       </c>
       <c r="L46">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M46">
         <v>10</v>
@@ -9005,7 +9020,7 @@
         <v>100</v>
       </c>
       <c r="L47">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M47">
         <v>10</v>
@@ -9112,7 +9127,7 @@
         <v>120</v>
       </c>
       <c r="L48">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M48">
         <v>10</v>
@@ -9320,13 +9335,13 @@
         <v>100</v>
       </c>
       <c r="J50">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K50">
         <v>100</v>
       </c>
       <c r="L50">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M50">
         <v>10</v>
@@ -9543,7 +9558,7 @@
         <v>100</v>
       </c>
       <c r="M52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -9650,7 +9665,7 @@
         <v>90</v>
       </c>
       <c r="M53">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -9757,7 +9772,7 @@
         <v>100</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -9864,7 +9879,7 @@
         <v>100</v>
       </c>
       <c r="M55">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -10069,13 +10084,13 @@
         <v>120</v>
       </c>
       <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>110</v>
+      </c>
+      <c r="L57">
         <v>120</v>
-      </c>
-      <c r="K57">
-        <v>120</v>
-      </c>
-      <c r="L57">
-        <v>100</v>
       </c>
       <c r="M57">
         <v>10</v>
@@ -10090,10 +10105,10 @@
         <v>70</v>
       </c>
       <c r="Q57">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R57">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="S57">
         <v>10</v>
@@ -11442,10 +11457,10 @@
         <v>289</v>
       </c>
       <c r="D70">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F70">
         <v>100</v>
@@ -11454,10 +11469,10 @@
         <v>100</v>
       </c>
       <c r="H70">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="I70">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J70">
         <v>100</v>
@@ -11466,10 +11481,10 @@
         <v>100</v>
       </c>
       <c r="L70">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -13609,7 +13624,7 @@
         <v>100</v>
       </c>
       <c r="M90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -14834,7 +14849,7 @@
         <v>41</v>
       </c>
       <c r="AC101" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AD101" t="s">
         <v>115</v>
@@ -16067,7 +16082,7 @@
         <v>100</v>
       </c>
       <c r="L113">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M113">
         <v>10</v>
@@ -16798,7 +16813,7 @@
         <v>100</v>
       </c>
       <c r="F120">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G120">
         <v>100</v>
@@ -16905,7 +16920,7 @@
         <v>100</v>
       </c>
       <c r="F121">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G121">
         <v>100</v>
@@ -16926,7 +16941,7 @@
         <v>150</v>
       </c>
       <c r="M121">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -17012,7 +17027,7 @@
         <v>100</v>
       </c>
       <c r="F122">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G122">
         <v>100</v>
@@ -17119,7 +17134,7 @@
         <v>100</v>
       </c>
       <c r="F123">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G123">
         <v>100</v>
@@ -17226,7 +17241,7 @@
         <v>100</v>
       </c>
       <c r="F124">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G124">
         <v>100</v>
@@ -17247,7 +17262,7 @@
         <v>100</v>
       </c>
       <c r="M124">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -17342,7 +17357,7 @@
         <v>110</v>
       </c>
       <c r="I125">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J125">
         <v>100</v>
@@ -17440,7 +17455,7 @@
         <v>100</v>
       </c>
       <c r="F126">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G126">
         <v>100</v>
@@ -17547,7 +17562,7 @@
         <v>110</v>
       </c>
       <c r="F127">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G127">
         <v>50</v>
@@ -17654,7 +17669,7 @@
         <v>100</v>
       </c>
       <c r="F128">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G128">
         <v>60</v>
@@ -17761,7 +17776,7 @@
         <v>130</v>
       </c>
       <c r="F129">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G129">
         <v>100</v>
@@ -18852,7 +18867,7 @@
         <v>100</v>
       </c>
       <c r="M139">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -18938,7 +18953,7 @@
         <v>100</v>
       </c>
       <c r="F140">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G140">
         <v>100</v>
@@ -19149,7 +19164,7 @@
         <v>82</v>
       </c>
       <c r="E142">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F142">
         <v>100</v>
@@ -19170,10 +19185,10 @@
         <v>100</v>
       </c>
       <c r="L142">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M142">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N142">
         <v>3</v>
@@ -20430,10 +20445,10 @@
         <v>561</v>
       </c>
       <c r="D154">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E154">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F154">
         <v>100</v>
@@ -20454,7 +20469,7 @@
         <v>130</v>
       </c>
       <c r="L154">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M154">
         <v>10</v>
@@ -20537,10 +20552,10 @@
         <v>565</v>
       </c>
       <c r="D155">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E155">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F155">
         <v>100</v>
@@ -20561,10 +20576,10 @@
         <v>130</v>
       </c>
       <c r="L155">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M155">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -23001,7 +23016,7 @@
         <v>81</v>
       </c>
       <c r="E178">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F178">
         <v>100</v>
@@ -23073,7 +23088,7 @@
         <v>119</v>
       </c>
       <c r="AC178" t="s">
-        <v>566</v>
+        <v>1170</v>
       </c>
       <c r="AD178" t="s">
         <v>1124</v>
@@ -23854,7 +23869,7 @@
         <v>662</v>
       </c>
       <c r="D186">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E186">
         <v>100</v>
@@ -23881,7 +23896,7 @@
         <v>80</v>
       </c>
       <c r="M186">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N186">
         <v>1</v>
@@ -27409,10 +27424,10 @@
         <v>100</v>
       </c>
       <c r="L219">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M219">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N219">
         <v>2</v>
@@ -27460,7 +27475,7 @@
         <v>119</v>
       </c>
       <c r="AC219" t="s">
-        <v>512</v>
+        <v>1171</v>
       </c>
       <c r="AD219" t="s">
         <v>1124</v>
@@ -27819,7 +27834,7 @@
         <v>100</v>
       </c>
       <c r="F223">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G223">
         <v>100</v>
@@ -28601,7 +28616,7 @@
         <v>90</v>
       </c>
       <c r="Q230">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="R230">
         <v>106</v>
@@ -28637,7 +28652,7 @@
         <v>41</v>
       </c>
       <c r="AC230" t="s">
-        <v>516</v>
+        <v>130</v>
       </c>
       <c r="AD230" t="s">
         <v>1124</v>
@@ -32596,7 +32611,7 @@
         <v>119</v>
       </c>
       <c r="AC267" t="s">
-        <v>279</v>
+        <v>1172</v>
       </c>
       <c r="AD267" t="s">
         <v>1124</v>
@@ -35063,7 +35078,7 @@
         <v>119</v>
       </c>
       <c r="AC290" t="s">
-        <v>1135</v>
+        <v>1169</v>
       </c>
       <c r="AD290" t="s">
         <v>99</v>
@@ -36272,7 +36287,7 @@
         <v>565</v>
       </c>
       <c r="D302">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E302">
         <v>15</v>
@@ -36807,10 +36822,10 @@
         <v>6005</v>
       </c>
       <c r="B307" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C307" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D307">
         <v>34</v>
@@ -36909,7 +36924,7 @@
         <v>1</v>
       </c>
       <c r="AJ307" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="308" spans="1:36" x14ac:dyDescent="0.4">
@@ -36917,10 +36932,10 @@
         <v>6006</v>
       </c>
       <c r="B308" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C308" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D308">
         <v>31</v>
@@ -37007,7 +37022,7 @@
         <v>180</v>
       </c>
       <c r="AF308" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AG308">
         <v>0</v>
@@ -37024,10 +37039,10 @@
         <v>6007</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C309" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D309">
         <v>33</v>
@@ -37114,7 +37129,7 @@
         <v>144</v>
       </c>
       <c r="AF309" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AG309">
         <v>0</v>
@@ -37131,10 +37146,10 @@
         <v>6008</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C310" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D310">
         <v>36</v>
@@ -37221,7 +37236,7 @@
         <v>144</v>
       </c>
       <c r="AF310" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AG310">
         <v>0</v>
@@ -37238,10 +37253,10 @@
         <v>6009</v>
       </c>
       <c r="B311" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C311" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D311">
         <v>18</v>
@@ -37328,7 +37343,7 @@
         <v>180</v>
       </c>
       <c r="AF311" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AG311">
         <v>0</v>
@@ -37345,10 +37360,10 @@
         <v>6010</v>
       </c>
       <c r="B312" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C312" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D312">
         <v>20</v>
@@ -37435,7 +37450,7 @@
         <v>144</v>
       </c>
       <c r="AF312" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AG312">
         <v>0</v>
@@ -37452,10 +37467,10 @@
         <v>6011</v>
       </c>
       <c r="B313" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C313" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D313">
         <v>22</v>
@@ -37542,7 +37557,7 @@
         <v>144</v>
       </c>
       <c r="AF313" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AG313">
         <v>0</v>
@@ -37559,10 +37574,10 @@
         <v>6012</v>
       </c>
       <c r="B314" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C314" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D314">
         <v>20</v>
@@ -37666,10 +37681,10 @@
         <v>6013</v>
       </c>
       <c r="B315" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C315" t="s">
         <v>1163</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1165</v>
       </c>
       <c r="D315">
         <v>36</v>
@@ -37756,7 +37771,7 @@
         <v>528</v>
       </c>
       <c r="AF315" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AG315">
         <v>0</v>
@@ -37773,10 +37788,10 @@
         <v>6014</v>
       </c>
       <c r="B316" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C316" t="s">
         <v>1164</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1166</v>
       </c>
       <c r="D316">
         <v>42</v>
@@ -37863,7 +37878,7 @@
         <v>528</v>
       </c>
       <c r="AF316" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AG316">
         <v>0</v>
@@ -39294,7 +39309,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A2-1,0)</f>
-        <v>6.5784953719670787</v>
+        <v>6.4469254645277374</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A2-1,0)</f>
@@ -39327,7 +39342,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A3-1,0)</f>
-        <v>14.362436867076459</v>
+        <v>12.926193180368813</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A3-1,0)</f>
@@ -39360,7 +39375,7 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A4-1,0)</f>
-        <v>25.650000000000002</v>
+        <v>20.519999999999996</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A4-1,0)</f>
@@ -39393,7 +39408,7 @@
       </c>
       <c r="D5" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A5-1,0)</f>
-        <v>37.828427124746192</v>
+        <v>26.479898987322326</v>
       </c>
       <c r="E5" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A5-1,0)</f>
@@ -39426,7 +39441,7 @@
       </c>
       <c r="D6" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A6-1,0)</f>
-        <v>55.666666666666664</v>
+        <v>33.399999999999977</v>
       </c>
       <c r="E6" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A6-1,0)</f>
@@ -39459,7 +39474,7 @@
       </c>
       <c r="D7" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A7-1,0)</f>
-        <v>68.990187582825712</v>
+        <v>46.568376618407335</v>
       </c>
       <c r="E7" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A7-1,0)</f>
@@ -39492,7 +39507,7 @@
       </c>
       <c r="D8" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A8-1,0)</f>
-        <v>133</v>
+        <v>99.749999999999972</v>
       </c>
       <c r="E8" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A8-1,0)</f>
@@ -39525,7 +39540,7 @@
       </c>
       <c r="D9" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A9-1,0)</f>
-        <v>147.98037516565142</v>
+        <v>122.08380951166239</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A9-1,0)</f>
@@ -39558,7 +39573,7 @@
       </c>
       <c r="D10" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A10-1,0)</f>
-        <v>204.33333333333331</v>
+        <v>183.89999999999998</v>
       </c>
       <c r="E10" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A10-1,0)</f>
@@ -39591,7 +39606,7 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A11-1,0)</f>
-        <v>227.6274169979695</v>
+        <v>221.93673157302027</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A11-1,0)</f>
@@ -39624,7 +39639,7 @@
       </c>
       <c r="D12" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A12-1,0)</f>
-        <v>253.66666666666669</v>
+        <v>266.34999999999991</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A12-1,0)</f>
@@ -39657,7 +39672,7 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A13-1,0)</f>
-        <v>283.58816732927238</v>
+        <v>319.03668824543115</v>
       </c>
       <c r="E13" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A13-1,0)</f>
@@ -39690,7 +39705,7 @@
       </c>
       <c r="D14" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A14-1,0)</f>
-        <v>569</v>
+        <v>682.79999999999927</v>
       </c>
       <c r="E14" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A14-1,0)</f>
@@ -39723,7 +39738,7 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A15-1,0)</f>
-        <v>605.50966799187802</v>
+        <v>726.6116015902536</v>
       </c>
       <c r="E15" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A15-1,0)</f>
@@ -39756,7 +39771,7 @@
       </c>
       <c r="D16" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A16-1,0)</f>
-        <v>653</v>
+        <v>783.6</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A16-1,0)</f>
@@ -39789,7 +39804,7 @@
       </c>
       <c r="D17" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A17-1,0)</f>
-        <v>716.01933598375604</v>
+        <v>859.2232031805072</v>
       </c>
       <c r="E17" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A17-1,0)</f>
@@ -39822,7 +39837,7 @@
       </c>
       <c r="D18" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A18-1,0)</f>
-        <v>941</v>
+        <v>1129.2</v>
       </c>
       <c r="E18" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A18-1,0)</f>
@@ -39855,7 +39870,7 @@
       </c>
       <c r="D19" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A19-1,0)</f>
-        <v>1057.0386719675123</v>
+        <v>1268.4464063610146</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A19-1,0)</f>
@@ -39888,7 +39903,7 @@
       </c>
       <c r="D20" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A20-1,0)</f>
-        <v>1467</v>
+        <v>1760.3999999999999</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A20-1,0)</f>
@@ -39921,7 +39936,7 @@
       </c>
       <c r="D21" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A21-1,0)</f>
-        <v>1689.0773439350246</v>
+        <v>2026.8928127220295</v>
       </c>
       <c r="E21" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A21-1,0)</f>
@@ -39954,7 +39969,7 @@
       </c>
       <c r="D22" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A22-1,0)</f>
-        <v>1928.4257833336908</v>
+        <v>2314.1109400004289</v>
       </c>
       <c r="E22" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A22-1,0)</f>
@@ -39980,11 +39995,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -40082,7 +40097,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -40346,7 +40361,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -40704,7 +40719,7 @@
         <v>105</v>
       </c>
       <c r="C17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>90</v>
@@ -40748,7 +40763,7 @@
         <v>105</v>
       </c>
       <c r="C18">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18">
         <v>130</v>
@@ -40792,7 +40807,7 @@
         <v>105</v>
       </c>
       <c r="C19">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D19">
         <v>120</v>
@@ -40836,7 +40851,7 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>110</v>
@@ -40924,7 +40939,7 @@
         <v>130</v>
       </c>
       <c r="C22">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D22">
         <v>110</v>
@@ -40968,7 +40983,7 @@
         <v>150</v>
       </c>
       <c r="C23">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>110</v>
@@ -41012,7 +41027,7 @@
         <v>200</v>
       </c>
       <c r="C24">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D24">
         <v>120</v>
@@ -41042,7 +41057,7 @@
         <v>140</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -41056,7 +41071,7 @@
         <v>240</v>
       </c>
       <c r="C25">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D25">
         <v>130</v>
@@ -41100,7 +41115,7 @@
         <v>500</v>
       </c>
       <c r="C26">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D26">
         <v>140</v>
@@ -41141,10 +41156,10 @@
         <v>681</v>
       </c>
       <c r="B27">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="C27">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D27">
         <v>180</v>
@@ -41182,13 +41197,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>1134</v>
+        <v>1167</v>
       </c>
       <c r="B28">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="C28">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D28">
         <v>180</v>
@@ -41215,12 +41230,56 @@
         <v>140</v>
       </c>
       <c r="L28">
+        <v>800</v>
+      </c>
+      <c r="M28">
         <v>1000</v>
       </c>
-      <c r="M28">
-        <v>120</v>
-      </c>
       <c r="N28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B29">
+        <v>3200</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <v>180</v>
+      </c>
+      <c r="E29">
+        <v>180</v>
+      </c>
+      <c r="F29">
+        <v>180</v>
+      </c>
+      <c r="G29">
+        <v>180</v>
+      </c>
+      <c r="H29">
+        <v>180</v>
+      </c>
+      <c r="I29">
+        <v>180</v>
+      </c>
+      <c r="J29">
+        <v>140</v>
+      </c>
+      <c r="K29">
+        <v>140</v>
+      </c>
+      <c r="L29">
+        <v>1000</v>
+      </c>
+      <c r="M29">
+        <v>1200</v>
+      </c>
+      <c r="N29">
         <v>5</v>
       </c>
     </row>
@@ -43398,13 +43457,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A7D354-8BFA-4CB0-A7D9-2F2F96892950}">
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22:T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -43419,7 +43478,7 @@
     <col min="18" max="18" width="7.23046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -43460,10 +43519,13 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+        <v>1135</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -43476,8 +43538,8 @@
         <v>35.15004828475508</v>
       </c>
       <c r="D2" s="1">
-        <f>(5+A2*2+10*B2)*MIN(1,0.8+A2*0.015)</f>
-        <v>6.5784953719670787</v>
+        <f>(5+A2*2+10*B2)*MIN(1,0.8+A2*0.015)*T2</f>
+        <v>6.4469254645277374</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -43520,8 +43582,11 @@
       <c r="R2" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="T2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -43534,8 +43599,8 @@
         <v>49.321635539399168</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" si="5">(5+A3*2+10*B3)*MIN(1,0.8+A3*0.015)</f>
-        <v>8.4234196346475407</v>
+        <f t="shared" ref="D3:D66" si="5">(5+A3*2+10*B3)*MIN(1,0.8+A3*0.015)*T3</f>
+        <v>8.086482849261639</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E34" si="6">E2+A3/(75-A3/2)</f>
@@ -43578,11 +43643,15 @@
         <v>2.96</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R34" si="8">R2+A3/2.5</f>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+        <f>(R2+A3*T3/2.5)</f>
+        <v>6.7679999999999998</v>
+      </c>
+      <c r="T3">
+        <f>T2-0.02</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -43596,7 +43665,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="5"/>
-        <v>10.335317029276455</v>
+        <v>9.7151980075198665</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="6"/>
@@ -43639,11 +43708,15 @@
         <v>3.3851693785009331</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" ref="R4:R67" si="8">(R3+A4*T4/2.5)</f>
+        <v>7.8959999999999999</v>
+      </c>
+      <c r="T4">
+        <f>T3-0.02</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -43657,7 +43730,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="5"/>
-        <v>12.31477680326469</v>
+        <v>11.329594659003515</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="6"/>
@@ -43701,10 +43774,14 @@
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+        <v>9.3680000000000003</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T21" si="9">T4-0.02</f>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -43718,7 +43795,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="5"/>
-        <v>14.362436867076459</v>
+        <v>12.926193180368813</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="6"/>
@@ -43762,10 +43839,14 @@
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+        <v>11.168000000000001</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -43779,7 +43860,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="5"/>
-        <v>16.478987744194256</v>
+        <v>14.501509214890945</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="6"/>
@@ -43823,10 +43904,14 @@
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+        <v>13.280000000000001</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -43840,7 +43925,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="5"/>
-        <v>18.665176837404786</v>
+        <v>16.052052080168114</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="6"/>
@@ -43884,10 +43969,14 @@
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+        <v>15.688000000000001</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>0.85999999999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -43901,7 +43990,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="5"/>
-        <v>20.921813036464869</v>
+        <v>17.574322950630485</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="6"/>
@@ -43945,10 +44034,14 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+        <v>18.376000000000001</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>0.83999999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -43962,7 +44055,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="5"/>
-        <v>23.24977169417383</v>
+        <v>19.064812789222536</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="6"/>
@@ -44006,10 +44099,14 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="8"/>
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+        <v>21.327999999999999</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>0.81999999999999984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -44023,7 +44120,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="5"/>
-        <v>25.650000000000002</v>
+        <v>20.519999999999996</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="6"/>
@@ -44067,10 +44164,14 @@
       </c>
       <c r="R11" s="1">
         <f t="shared" si="8"/>
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+        <v>24.527999999999999</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -44084,7 +44185,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="5"/>
-        <v>28.123522782695048</v>
+        <v>21.936347770502131</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="6"/>
@@ -44128,10 +44229,14 @@
       </c>
       <c r="R12" s="1">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+        <v>27.959999999999997</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>0.7799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -44145,7 +44250,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="5"/>
-        <v>30.67144877579419</v>
+        <v>23.310301069603579</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="6"/>
@@ -44189,10 +44294,14 @@
       </c>
       <c r="R13" s="1">
         <f t="shared" si="8"/>
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+        <v>31.607999999999997</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>0.75999999999999979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -44206,7 +44315,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="5"/>
-        <v>33.29497738255639</v>
+        <v>24.638283263091722</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="6"/>
@@ -44250,10 +44359,14 @@
       </c>
       <c r="R14" s="1">
         <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+        <v>35.455999999999996</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="9"/>
+        <v>0.73999999999999977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -44267,7 +44380,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="5"/>
-        <v>35.63901582154579</v>
+        <v>25.66009139151296</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="6"/>
@@ -44311,10 +44424,14 @@
       </c>
       <c r="R15" s="1">
         <f t="shared" si="8"/>
-        <v>47.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+        <v>39.487999999999992</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="9"/>
+        <v>0.71999999999999975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -44328,7 +44445,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="5"/>
-        <v>37.828427124746192</v>
+        <v>26.479898987322326</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="6"/>
@@ -44372,10 +44489,14 @@
       </c>
       <c r="R16" s="1">
         <f t="shared" si="8"/>
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+        <v>43.687999999999988</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="9"/>
+        <v>0.69999999999999973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -44389,7 +44510,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="5"/>
-        <v>40.031433133020798</v>
+        <v>27.221374530454131</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="6"/>
@@ -44433,10 +44554,14 @@
       </c>
       <c r="R17" s="1">
         <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+        <v>48.039999999999985</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>0.67999999999999972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -44450,7 +44575,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="5"/>
-        <v>42.249009585424943</v>
+        <v>27.884346326380449</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="6"/>
@@ -44494,10 +44619,14 @@
       </c>
       <c r="R18" s="1">
         <f t="shared" si="8"/>
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+        <v>52.527999999999984</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="9"/>
+        <v>0.6599999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -44511,7 +44640,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="5"/>
-        <v>44.482202253184496</v>
+        <v>28.468609442038062</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="6"/>
@@ -44555,10 +44684,14 @@
       </c>
       <c r="R19" s="1">
         <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+        <v>57.135999999999981</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>0.63999999999999968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -44572,7 +44705,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="5"/>
-        <v>46.732131966147229</v>
+        <v>28.973921819011267</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="6"/>
@@ -44616,10 +44749,14 @@
       </c>
       <c r="R20" s="1">
         <f t="shared" si="8"/>
-        <v>81.599999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+        <v>61.847999999999978</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>0.61999999999999966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -44633,7 +44770,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="5"/>
-        <v>55.666666666666664</v>
+        <v>33.399999999999977</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="6"/>
@@ -44677,10 +44814,14 @@
       </c>
       <c r="R21" s="1">
         <f t="shared" si="8"/>
-        <v>89.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+        <v>66.647999999999968</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -44694,7 +44835,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="5"/>
-        <v>58.287093850145169</v>
+        <v>35.846562717839262</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="6"/>
@@ -44738,10 +44879,14 @@
       </c>
       <c r="R22" s="1">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+        <v>71.813999999999965</v>
+      </c>
+      <c r="T22">
+        <f>MIN(1.2,T21+0.015)</f>
+        <v>0.61499999999999966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -44755,7 +44900,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="5"/>
-        <v>60.928126753321472</v>
+        <v>38.384719854592504</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="6"/>
@@ -44799,10 +44944,14 @@
       </c>
       <c r="R23" s="1">
         <f t="shared" si="8"/>
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+        <v>77.357999999999961</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ref="T23:T86" si="10">MIN(1.2,T22+0.015)</f>
+        <v>0.62999999999999967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -44816,7 +44965,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="5"/>
-        <v>63.591244320046329</v>
+        <v>41.016352586429861</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="6"/>
@@ -44860,10 +45009,14 @@
       </c>
       <c r="R24" s="1">
         <f t="shared" si="8"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+        <v>83.291999999999959</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="10"/>
+        <v>0.64499999999999968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -44877,7 +45030,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="5"/>
-        <v>66.27803164309158</v>
+        <v>43.743500884440422</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="6"/>
@@ -44921,10 +45074,14 @@
       </c>
       <c r="R25" s="1">
         <f t="shared" si="8"/>
-        <v>125.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+        <v>89.627999999999957</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="10"/>
+        <v>0.6599999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -44938,7 +45095,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="5"/>
-        <v>68.990187582825712</v>
+        <v>46.568376618407335</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="6"/>
@@ -44982,10 +45139,14 @@
       </c>
       <c r="R26" s="1">
         <f t="shared" si="8"/>
-        <v>135.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+        <v>96.377999999999957</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="10"/>
+        <v>0.67499999999999971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -44999,7 +45160,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="5"/>
-        <v>71.729532932708253</v>
+        <v>49.493377723568678</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="6"/>
@@ -45043,10 +45204,14 @@
       </c>
       <c r="R27" s="1">
         <f t="shared" si="8"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+        <v>103.55399999999996</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="10"/>
+        <v>0.68999999999999972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -45060,7 +45225,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="5"/>
-        <v>74.498019170849886</v>
+        <v>52.521103515449148</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="6"/>
@@ -45104,10 +45269,14 @@
       </c>
       <c r="R28" s="1">
         <f t="shared" si="8"/>
-        <v>156.80000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+        <v>111.16799999999995</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="10"/>
+        <v>0.70499999999999974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -45121,7 +45290,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="5"/>
-        <v>77.297737839702322</v>
+        <v>55.654371244585654</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
@@ -45165,10 +45334,14 @@
       </c>
       <c r="R29" s="1">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+        <v>119.23199999999994</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="10"/>
+        <v>0.71999999999999975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -45182,7 +45355,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="5"/>
-        <v>80.130930598961129</v>
+        <v>58.896233990236411</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="6"/>
@@ -45226,10 +45399,14 @@
       </c>
       <c r="R30" s="1">
         <f t="shared" si="8"/>
-        <v>179.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+        <v>127.75799999999994</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="10"/>
+        <v>0.73499999999999976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -45243,7 +45420,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="5"/>
-        <v>133</v>
+        <v>99.749999999999972</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="6"/>
@@ -45287,10 +45464,14 @@
       </c>
       <c r="R31" s="1">
         <f t="shared" si="8"/>
-        <v>191.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+        <v>136.75799999999992</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="10"/>
+        <v>0.74999999999999978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -45304,7 +45485,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="5"/>
-        <v>135.90752103362368</v>
+        <v>103.96925359072209</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="6"/>
@@ -45348,10 +45529,14 @@
       </c>
       <c r="R32" s="1">
         <f t="shared" si="8"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+        <v>146.24399999999991</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="10"/>
+        <v>0.76499999999999979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -45365,7 +45550,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="5"/>
-        <v>138.85625350664293</v>
+        <v>108.30787773518146</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="6"/>
@@ -45409,10 +45594,14 @@
       </c>
       <c r="R33" s="1">
         <f t="shared" si="8"/>
-        <v>216.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+        <v>156.22799999999992</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="10"/>
+        <v>0.7799999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -45426,7 +45615,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="5"/>
-        <v>141.84915530675931</v>
+        <v>112.77007846887363</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="6"/>
@@ -45437,11 +45626,11 @@
         <v>1049.5802164999225</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G65" si="9">FLOOR(A34*0.8,1)+1</f>
+        <f t="shared" ref="G34:G65" si="11">FLOOR(A34*0.8,1)+1</f>
         <v>27</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="10">FLOOR(A34/3,1)+1</f>
+        <f t="shared" ref="H34:H65" si="12">FLOOR(A34/3,1)+1</f>
         <v>12</v>
       </c>
       <c r="J34" s="1">
@@ -45461,7 +45650,7 @@
         <v>2290</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O65" si="11">MAX(1,1+(1-POWER(1-(A34-10)/200,3)))</f>
+        <f t="shared" ref="O34:O65" si="13">MAX(1,1+(1-POWER(1-(A34-10)/200,3)))</f>
         <v>1.306845875</v>
       </c>
       <c r="Q34" s="1">
@@ -45470,10 +45659,14 @@
       </c>
       <c r="R34" s="1">
         <f t="shared" si="8"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+        <v>166.72199999999992</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="10"/>
+        <v>0.79499999999999982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -45487,10 +45680,10 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="5"/>
-        <v>144.8893966195165</v>
+        <v>117.36041126180834</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ref="E35:E60" si="12">E34+A35/(75-A35/2)</f>
+        <f t="shared" ref="E35:E60" si="14">E34+A35/(75-A35/2)</f>
         <v>11.393958313724784</v>
       </c>
       <c r="F35" s="1">
@@ -45498,11 +45691,11 @@
         <v>1095.1384879576653</v>
       </c>
       <c r="G35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="H35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J35" s="1">
@@ -45518,11 +45711,11 @@
         <v>770.47227707670027</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" ref="M35:M66" si="13">M34+A35*4</f>
+        <f t="shared" ref="M35:M66" si="15">M34+A35*4</f>
         <v>2426</v>
       </c>
       <c r="O35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3185280000000001</v>
       </c>
       <c r="Q35" s="1">
@@ -45530,11 +45723,15 @@
         <v>1015.8892705493874</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" ref="R35:R66" si="14">R34+A35/2.5</f>
-        <v>243.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>177.73799999999991</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="10"/>
+        <v>0.80999999999999983</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -45548,10 +45745,10 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="5"/>
-        <v>147.98037516565142</v>
+        <v>122.08380951166239</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12.002653965898698</v>
       </c>
       <c r="F36" s="1">
@@ -45559,11 +45756,11 @@
         <v>1143.5602947895231</v>
       </c>
       <c r="G36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="H36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J36" s="1">
@@ -45579,11 +45776,11 @@
         <v>806.10267862181115</v>
       </c>
       <c r="M36" s="1">
+        <f t="shared" si="15"/>
+        <v>2566</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="13"/>
-        <v>2566</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="11"/>
         <v>1.330078125</v>
       </c>
       <c r="Q36" s="1">
@@ -45591,11 +45788,15 @@
         <v>1072.1795393387761</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="14"/>
-        <v>257.60000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>189.2879999999999</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="10"/>
+        <v>0.82499999999999984</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -45609,10 +45810,10 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="5"/>
-        <v>151.12573253208319</v>
+        <v>126.94561532694986</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12.63423291326712</v>
       </c>
       <c r="F37" s="1">
@@ -45620,11 +45821,11 @@
         <v>1195.0337200444576</v>
       </c>
       <c r="G37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="H37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="J37" s="1">
@@ -45640,11 +45841,11 @@
         <v>850.14940788003537</v>
       </c>
       <c r="M37" s="1">
+        <f t="shared" si="15"/>
+        <v>2710</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="13"/>
-        <v>2710</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="11"/>
         <v>1.3414969999999999</v>
       </c>
       <c r="Q37" s="1">
@@ -45652,11 +45853,15 @@
         <v>1140.4728802228435</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="14"/>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>201.3839999999999</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="10"/>
+        <v>0.83999999999999986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -45670,10 +45875,10 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="5"/>
-        <v>154.32937167503309</v>
+        <v>131.95161278215326</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13.289100169904287</v>
       </c>
       <c r="F38" s="1">
@@ -45681,11 +45886,11 @@
         <v>1249.7586429280655</v>
       </c>
       <c r="G38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="J38" s="1">
@@ -45701,11 +45906,11 @@
         <v>886.11747503083336</v>
       </c>
       <c r="M38" s="1">
+        <f t="shared" si="15"/>
+        <v>2858</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="13"/>
-        <v>2858</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="11"/>
         <v>1.3527853749999998</v>
       </c>
       <c r="Q38" s="1">
@@ -45713,11 +45918,15 @@
         <v>1198.7267607536389</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="14"/>
-        <v>286.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>214.0379999999999</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="10"/>
+        <v>0.85499999999999987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -45731,10 +45940,10 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="5"/>
-        <v>157.59547567940467</v>
+        <v>137.10806384108204</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13.967671598475716</v>
       </c>
       <c r="F39" s="1">
@@ -45742,11 +45951,11 @@
         <v>1307.9477452402205</v>
       </c>
       <c r="G39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="H39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="J39" s="1">
@@ -45762,11 +45971,11 @@
         <v>960.36339088921238</v>
       </c>
       <c r="M39" s="1">
+        <f t="shared" si="15"/>
+        <v>3010</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="13"/>
-        <v>3010</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="11"/>
         <v>1.363944</v>
       </c>
       <c r="Q39" s="1">
@@ -45774,11 +45983,15 @@
         <v>1309.881884822996</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="14"/>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>227.26199999999989</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="10"/>
+        <v>0.86999999999999988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -45792,10 +46005,10 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="5"/>
-        <v>160.92852786458892</v>
+        <v>142.42174716016117</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14.67037430117842</v>
       </c>
       <c r="F40" s="1">
@@ -45803,11 +46016,11 @@
         <v>1369.8275598337098</v>
       </c>
       <c r="G40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="H40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="J40" s="1">
@@ -45823,11 +46036,11 @@
         <v>997.94869078622992</v>
       </c>
       <c r="M40" s="1">
+        <f t="shared" si="15"/>
+        <v>3166</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="13"/>
-        <v>3166</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="11"/>
         <v>1.374973625</v>
       </c>
       <c r="Q40" s="1">
@@ -45835,11 +46048,15 @@
         <v>1372.1531289343468</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="14"/>
-        <v>317.60000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>241.06799999999987</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="10"/>
+        <v>0.8849999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -45853,10 +46070,10 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="5"/>
-        <v>204.33333333333331</v>
+        <v>183.89999999999998</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15.397647028451146</v>
       </c>
       <c r="F41" s="1">
@@ -45864,11 +46081,11 @@
         <v>1827.1776324770437</v>
       </c>
       <c r="G41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="H41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="J41" s="1">
@@ -45884,11 +46101,11 @@
         <v>1142.8255939349087</v>
       </c>
       <c r="M41" s="1">
+        <f t="shared" si="15"/>
+        <v>3326</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="13"/>
-        <v>3326</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="11"/>
         <v>1.385875</v>
       </c>
       <c r="Q41" s="1">
@@ -45896,11 +46113,15 @@
         <v>1583.8134199945416</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="14"/>
-        <v>333.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>255.46799999999988</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="10"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -45914,10 +46135,10 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="5"/>
-        <v>208.81504206724736</v>
+        <v>191.06576349153133</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16.149940606432796</v>
       </c>
       <c r="F42" s="1">
@@ -45925,11 +46146,11 @@
         <v>1916.2708162005149</v>
       </c>
       <c r="G42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="H42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="J42" s="1">
@@ -45945,11 +46166,11 @@
         <v>1182.9775172335774</v>
       </c>
       <c r="M42" s="1">
+        <f t="shared" si="15"/>
+        <v>3490</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="13"/>
-        <v>3490</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="11"/>
         <v>1.3966488750000001</v>
       </c>
       <c r="Q42" s="1">
@@ -45957,11 +46178,15 @@
         <v>1652.2042185945691</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="14"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>270.47399999999988</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="10"/>
+        <v>0.91499999999999992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -45975,10 +46200,10 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="5"/>
-        <v>213.37917367995254</v>
+        <v>198.44263152235584</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16.927718384210575</v>
       </c>
       <c r="F43" s="1">
@@ -45986,11 +46211,11 @@
         <v>2011.0463254150047</v>
       </c>
       <c r="G43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="H43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="J43" s="1">
@@ -46006,11 +46231,11 @@
         <v>1253.4888318837404</v>
       </c>
       <c r="M43" s="1">
+        <f t="shared" si="15"/>
+        <v>3658</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="13"/>
-        <v>3658</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="11"/>
         <v>1.4072960000000001</v>
       </c>
       <c r="Q43" s="1">
@@ -46018,11 +46243,15 @@
         <v>1764.0298191546603</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="14"/>
-        <v>366.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>286.0979999999999</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="10"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -46036,10 +46265,10 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="5"/>
-        <v>218.031643946852</v>
+        <v>206.03990352977513</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.731456701967584</v>
       </c>
       <c r="F44" s="1">
@@ -46047,11 +46276,11 @@
         <v>2111.8777249414638</v>
       </c>
       <c r="G44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="H44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="J44" s="1">
@@ -46067,11 +46296,11 @@
         <v>1294.552424264921</v>
       </c>
       <c r="M44" s="1">
+        <f t="shared" si="15"/>
+        <v>3830</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="13"/>
-        <v>3830</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="11"/>
         <v>1.417817125</v>
       </c>
       <c r="Q44" s="1">
@@ -46079,11 +46308,15 @@
         <v>1835.4385963330706</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="14"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>302.35199999999992</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="10"/>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -46097,10 +46330,10 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="5"/>
-        <v>222.77879323903298</v>
+        <v>213.86764150947164</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.561645381212866</v>
       </c>
       <c r="F45" s="1">
@@ -46108,11 +46341,11 @@
         <v>2219.1640039253225</v>
       </c>
       <c r="G45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="H45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="J45" s="1">
@@ -46128,11 +46361,11 @@
         <v>1421.7285490573067</v>
       </c>
       <c r="M45" s="1">
+        <f t="shared" si="15"/>
+        <v>4006</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="13"/>
-        <v>4006</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="11"/>
         <v>1.428213</v>
       </c>
       <c r="Q45" s="1">
@@ -46140,11 +46373,15 @@
         <v>2030.5311962347832</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="14"/>
-        <v>401.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>319.24799999999993</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="10"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -46158,10 +46395,10 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="5"/>
-        <v>227.6274169979695</v>
+        <v>221.93673157302027</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.418788238355724</v>
       </c>
       <c r="F46" s="1">
@@ -46169,11 +46406,11 @@
         <v>2333.3314239700671</v>
       </c>
       <c r="G46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="H46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="J46" s="1">
@@ -46189,11 +46426,11 @@
         <v>1464.7580560112062</v>
       </c>
       <c r="M46" s="1">
+        <f t="shared" si="15"/>
+        <v>4186</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="13"/>
-        <v>4186</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="11"/>
         <v>1.438484375</v>
       </c>
       <c r="Q46" s="1">
@@ -46201,11 +46438,15 @@
         <v>2107.0315767274951</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="14"/>
-        <v>419.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>336.79799999999994</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="10"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -46219,10 +46460,10 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="5"/>
-        <v>232.58479839749967</v>
+        <v>230.25895041352467</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20.303403622971107</v>
       </c>
       <c r="F47" s="1">
@@ -46230,11 +46471,11 @@
         <v>2454.8354856514329</v>
       </c>
       <c r="G47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="H47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="J47" s="1">
@@ -46250,11 +46491,11 @@
         <v>1532.0873984755315</v>
       </c>
       <c r="M47" s="1">
+        <f t="shared" si="15"/>
+        <v>4370</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="13"/>
-        <v>4370</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="11"/>
         <v>1.4486319999999999</v>
       </c>
       <c r="Q47" s="1">
@@ -46262,11 +46503,15 @@
         <v>2219.430832228406</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="14"/>
-        <v>438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>355.01399999999995</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="10"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -46280,10 +46525,10 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="5"/>
-        <v>237.6587433500662</v>
+        <v>238.84703706681651</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21.216024982194408</v>
       </c>
       <c r="F48" s="1">
@@ -46291,11 +46536,11 @@
         <v>2584.1630233987385</v>
       </c>
       <c r="G48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="H48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="J48" s="1">
@@ -46311,11 +46556,11 @@
         <v>1575.408433558189</v>
       </c>
       <c r="M48" s="1">
+        <f t="shared" si="15"/>
+        <v>4558</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="13"/>
-        <v>4558</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="11"/>
         <v>1.4586566250000002</v>
       </c>
       <c r="Q48" s="1">
@@ -46323,11 +46568,15 @@
         <v>2297.9799486905249</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="14"/>
-        <v>456.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>373.90799999999996</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="10"/>
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -46341,10 +46590,10 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="5"/>
-        <v>242.85761802547597</v>
+        <v>247.71477038598545</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22.157201452782644</v>
       </c>
       <c r="F49" s="1">
@@ -46352,11 +46601,11 @@
         <v>2721.834439121636</v>
       </c>
       <c r="G49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="H49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J49" s="1">
@@ -46372,11 +46621,11 @@
         <v>1688.7038275996667</v>
       </c>
       <c r="M49" s="1">
+        <f t="shared" si="15"/>
+        <v>4750</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="13"/>
-        <v>4750</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="11"/>
         <v>1.4685589999999999</v>
       </c>
       <c r="Q49" s="1">
@@ -46384,11 +46633,15 @@
         <v>2479.9612043559387</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="14"/>
-        <v>476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>393.49199999999996</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="10"/>
+        <v>1.0199999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -46402,10 +46655,10 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="5"/>
-        <v>248.19038906251117</v>
+        <v>256.87705267969898</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23.127498482485613</v>
       </c>
       <c r="F50" s="1">
@@ -46413,11 +46666,11 @@
         <v>2868.4060854161162</v>
       </c>
       <c r="G50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="H50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J50" s="1">
@@ -46433,11 +46686,11 @@
         <v>1733.4447029078538</v>
       </c>
       <c r="M50" s="1">
+        <f t="shared" si="15"/>
+        <v>4946</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="13"/>
-        <v>4946</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="11"/>
         <v>1.4783398750000001</v>
       </c>
       <c r="Q50" s="1">
@@ -46445,11 +46698,15 @@
         <v>2562.6204254162085</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="14"/>
-        <v>495.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>413.77799999999996</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="10"/>
+        <v>1.0349999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -46463,10 +46720,10 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="5"/>
-        <v>253.66666666666669</v>
+        <v>266.34999999999991</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24.127498482485613</v>
       </c>
       <c r="F51" s="1">
@@ -46474,11 +46731,11 @@
         <v>3849.3290305282931</v>
       </c>
       <c r="G51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="H51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J51" s="1">
@@ -46494,11 +46751,11 @@
         <v>1934.7542226053195</v>
       </c>
       <c r="M51" s="1">
+        <f t="shared" si="15"/>
+        <v>5146</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="13"/>
-        <v>5146</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="11"/>
         <v>1.488</v>
       </c>
       <c r="Q51" s="1">
@@ -46506,11 +46763,15 @@
         <v>2878.9142832367152</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="14"/>
-        <v>515.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>434.77799999999996</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="10"/>
+        <v>1.0499999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -46524,10 +46785,10 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="5"/>
-        <v>259.29675080116135</v>
+        <v>276.15103960323671</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>25.157801512788645</v>
       </c>
       <c r="F52" s="1">
@@ -46535,11 +46796,11 @@
         <v>4060.8535815417863</v>
       </c>
       <c r="G52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="H52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="J52" s="1">
@@ -46555,11 +46816,11 @@
         <v>1981.5889101655705</v>
       </c>
       <c r="M52" s="1">
+        <f t="shared" si="15"/>
+        <v>5350</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="13"/>
-        <v>5350</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="11"/>
         <v>1.497540125</v>
       </c>
       <c r="Q52" s="1">
@@ -46567,11 +46828,15 @@
         <v>2967.5089042279624</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="14"/>
-        <v>536</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>456.50399999999996</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="10"/>
+        <v>1.0649999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -46585,10 +46850,10 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="5"/>
-        <v>265.09168069323846</v>
+        <v>286.29901514869738</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26.219026002584563</v>
       </c>
       <c r="F53" s="1">
@@ -46596,11 +46861,11 @@
         <v>4286.1379825299327</v>
       </c>
       <c r="G53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="H53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="J53" s="1">
@@ -46616,11 +46881,11 @@
         <v>2085.7456519827742</v>
       </c>
       <c r="M53" s="1">
+        <f t="shared" si="15"/>
+        <v>5558</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="13"/>
-        <v>5558</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="11"/>
         <v>1.506961</v>
       </c>
       <c r="Q53" s="1">
@@ -46628,11 +46893,15 @@
         <v>3143.1373534576137</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="14"/>
-        <v>556.79999999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>478.96799999999996</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="10"/>
+        <v>1.0799999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -46646,10 +46915,10 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="5"/>
-        <v>271.063287893704</v>
+        <v>296.81430024360571</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>27.311809507739202</v>
       </c>
       <c r="F54" s="1">
@@ -46657,11 +46926,11 @@
         <v>4526.10800104808</v>
       </c>
       <c r="G54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="H54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="J54" s="1">
@@ -46677,11 +46946,11 @@
         <v>2133.3966214757656</v>
       </c>
       <c r="M54" s="1">
+        <f t="shared" si="15"/>
+        <v>5770</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="13"/>
-        <v>5770</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="11"/>
         <v>1.5162633749999999</v>
       </c>
       <c r="Q54" s="1">
@@ -46689,11 +46958,15 @@
         <v>3234.7911614924415</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="14"/>
-        <v>578</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>502.18199999999996</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="10"/>
+        <v>1.0949999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -46707,10 +46980,10 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="5"/>
-        <v>277.22425314473259</v>
+        <v>307.71892099065298</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28.436809507739202</v>
       </c>
       <c r="F55" s="1">
@@ -46718,11 +46991,11 @@
         <v>4781.7537144130192</v>
       </c>
       <c r="G55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="H55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="J55" s="1">
@@ -46738,11 +47011,11 @@
         <v>2310.3181415250178</v>
       </c>
       <c r="M55" s="1">
+        <f t="shared" si="15"/>
+        <v>5986</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="13"/>
-        <v>5986</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="11"/>
         <v>1.5254479999999999</v>
       </c>
       <c r="Q55" s="1">
@@ -46750,11 +47023,15 @@
         <v>3524.2701883530558</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="14"/>
-        <v>599.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>526.1579999999999</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="10"/>
+        <v>1.1099999999999992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -46768,10 +47045,10 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="5"/>
-        <v>283.58816732927238</v>
+        <v>319.03668824543115</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>29.594704244581308</v>
       </c>
       <c r="F56" s="1">
@@ -46779,11 +47056,11 @@
         <v>5054.1340167656153</v>
       </c>
       <c r="G56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="H56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="J56" s="1">
@@ -46799,11 +47076,11 @@
         <v>2359.4727309917425</v>
       </c>
       <c r="M56" s="1">
+        <f t="shared" si="15"/>
+        <v>6206</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="13"/>
-        <v>6206</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="11"/>
         <v>1.534515625</v>
       </c>
       <c r="Q56" s="1">
@@ -46811,11 +47088,15 @@
         <v>3620.6477724682509</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="14"/>
-        <v>621.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>550.9079999999999</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="10"/>
+        <v>1.1249999999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -46829,10 +47110,10 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" si="5"/>
-        <v>290.16959679499939</v>
+        <v>330.79334034629903</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30.786193606283437</v>
       </c>
       <c r="F57" s="1">
@@ -46840,11 +47121,11 @@
         <v>5344.3814356101711</v>
       </c>
       <c r="G57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="H57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="J57" s="1">
@@ -46860,11 +47141,11 @@
         <v>2456.0438603650373</v>
       </c>
       <c r="M57" s="1">
+        <f t="shared" si="15"/>
+        <v>6430</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="13"/>
-        <v>6430</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="11"/>
         <v>1.5434669999999999</v>
       </c>
       <c r="Q57" s="1">
@@ -46872,11 +47153,15 @@
         <v>3790.8226490260427</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="14"/>
-        <v>644</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>576.44399999999985</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="10"/>
+        <v>1.139999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -46890,10 +47175,10 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="5"/>
-        <v>296.98415336679909</v>
+        <v>343.0166971386526</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32.012000057896337</v>
       </c>
       <c r="F58" s="1">
@@ -46901,11 +47186,11 @@
         <v>5653.7072789405529</v>
       </c>
       <c r="G58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="H58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="J58" s="1">
@@ -46921,11 +47206,11 @@
         <v>2505.4978453528379</v>
       </c>
       <c r="M58" s="1">
+        <f t="shared" si="15"/>
+        <v>6658</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="13"/>
-        <v>6658</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="11"/>
         <v>1.5523028750000001</v>
       </c>
       <c r="Q58" s="1">
@@ -46933,11 +47218,15 @@
         <v>3889.2915086475155</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="14"/>
-        <v>666.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>602.77799999999979</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="10"/>
+        <v>1.1549999999999989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -46951,10 +47240,10 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="5"/>
-        <v>304.04856938428532</v>
+        <v>355.73682617961344</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>33.272869623113728</v>
       </c>
       <c r="F59" s="1">
@@ -46962,11 +47251,11 @@
         <v>5983.4071353001809</v>
       </c>
       <c r="G59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="H59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="J59" s="1">
@@ -46982,11 +47271,11 @@
         <v>2662.6813807154231</v>
       </c>
       <c r="M59" s="1">
+        <f t="shared" si="15"/>
+        <v>6890</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="13"/>
-        <v>6890</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="11"/>
         <v>1.561024</v>
       </c>
       <c r="Q59" s="1">
@@ -46994,11 +47283,15 @@
         <v>4156.5095396499128</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="14"/>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>629.9219999999998</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="10"/>
+        <v>1.1699999999999988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -47012,10 +47305,10 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="5"/>
-        <v>311.3807781250224</v>
+        <v>368.98622207815117</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>34.569572919817027</v>
       </c>
       <c r="F60" s="1">
@@ -47023,11 +47316,11 @@
         <v>6334.8667504306441</v>
       </c>
       <c r="G60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="H60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="J60" s="1">
@@ -47043,11 +47336,11 @@
         <v>2713.1034100467191</v>
       </c>
       <c r="M60" s="1">
+        <f t="shared" si="15"/>
+        <v>7126</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="13"/>
-        <v>7126</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="11"/>
         <v>1.5696311249999999</v>
       </c>
       <c r="Q60" s="1">
@@ -47055,11 +47348,15 @@
         <v>4258.5715577529672</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="14"/>
-        <v>713.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>657.88799999999981</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="10"/>
+        <v>1.1849999999999987</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -47073,10 +47370,10 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="5"/>
-        <v>569</v>
+        <v>682.79999999999927</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ref="E61:E100" si="15">E60+A61/(75-A61/1.5)</f>
+        <f t="shared" ref="E61:E100" si="16">E60+A61/(75-A61/1.5)</f>
         <v>36.283858634102742</v>
       </c>
       <c r="F61" s="1">
@@ -47084,11 +47381,11 @@
         <v>7846.2363211463753</v>
       </c>
       <c r="G61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="H61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="J61" s="1">
@@ -47104,11 +47401,11 @@
         <v>2940.7375882124579</v>
       </c>
       <c r="M61" s="1">
+        <f t="shared" si="15"/>
+        <v>7366</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="13"/>
-        <v>7366</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="11"/>
         <v>1.578125</v>
       </c>
       <c r="Q61" s="1">
@@ -47116,11 +47413,15 @@
         <v>4640.8515063977857</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="14"/>
-        <v>737.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>686.68799999999976</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="10"/>
+        <v>1.1999999999999986</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -47134,10 +47435,10 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="5"/>
-        <v>575.5935016023227</v>
+        <v>690.71220192278724</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.060557663228956</v>
       </c>
       <c r="F62" s="1">
@@ -47145,11 +47446,11 @@
         <v>8227.9641093491409</v>
       </c>
       <c r="G62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="H62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="J62" s="1">
@@ -47165,11 +47466,11 @@
         <v>2961.4470981763648</v>
       </c>
       <c r="M62" s="1">
+        <f t="shared" si="15"/>
+        <v>7610</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="13"/>
-        <v>7610</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="11"/>
         <v>1.5865063749999999</v>
       </c>
       <c r="Q62" s="1">
@@ -47177,11 +47478,15 @@
         <v>4698.354700482053</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="14"/>
-        <v>762</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>715.96799999999973</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -47195,10 +47500,10 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="5"/>
-        <v>582.51669471981018</v>
+        <v>699.02003366377221</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39.902141821644797</v>
       </c>
       <c r="F63" s="1">
@@ -47206,11 +47511,11 @@
         <v>8633.0451688056219</v>
       </c>
       <c r="G63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="H63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="J63" s="1">
@@ -47226,11 +47531,11 @@
         <v>3069.6168326479046</v>
       </c>
       <c r="M63" s="1">
+        <f t="shared" si="15"/>
+        <v>7858</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="13"/>
-        <v>7858</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="11"/>
         <v>1.594776</v>
       </c>
       <c r="Q63" s="1">
@@ -47238,11 +47543,15 @@
         <v>4895.3512539028952</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="14"/>
-        <v>786.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>745.72799999999972</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -47256,10 +47565,10 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="5"/>
-        <v>589.79324245407463</v>
+        <v>707.75189094488951</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>41.811232730735703</v>
       </c>
       <c r="F64" s="1">
@@ -47267,11 +47576,11 @@
         <v>9062.7486251471419</v>
       </c>
       <c r="G64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="H64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="J64" s="1">
@@ -47287,11 +47596,11 @@
         <v>3089.4497442080365</v>
       </c>
       <c r="M64" s="1">
+        <f t="shared" si="15"/>
+        <v>8110</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="13"/>
-        <v>8110</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="11"/>
         <v>1.6029346250000001</v>
       </c>
       <c r="Q64" s="1">
@@ -47299,11 +47608,15 @@
         <v>4952.1859671884558</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="14"/>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>775.96799999999973</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -47317,10 +47630,10 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="5"/>
-        <v>597.44850628946517</v>
+        <v>716.93820754735816</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43.790614174034673</v>
       </c>
       <c r="F65" s="1">
@@ -47328,11 +47641,11 @@
         <v>9518.4132262741623</v>
       </c>
       <c r="G65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="H65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="J65" s="1">
@@ -47348,11 +47661,11 @@
         <v>3276.1207292792942</v>
       </c>
       <c r="M65" s="1">
+        <f t="shared" si="15"/>
+        <v>8366</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="13"/>
-        <v>8366</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="11"/>
         <v>1.6109830000000001</v>
       </c>
       <c r="Q65" s="1">
@@ -47360,11 +47673,15 @@
         <v>5277.7748008165445</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="14"/>
-        <v>837.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>806.68799999999976</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -47378,10 +47695,10 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="5"/>
-        <v>605.50966799187802</v>
+        <v>726.6116015902536</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.843245752982043</v>
       </c>
       <c r="F66" s="1">
@@ -47389,11 +47706,11 @@
         <v>10001.448844294708</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G100" si="16">FLOOR(A66*0.8,1)+1</f>
+        <f t="shared" ref="G66:G100" si="17">FLOOR(A66*0.8,1)+1</f>
         <v>53</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H100" si="17">FLOOR(A66/3,1)+1</f>
+        <f t="shared" ref="H66:H100" si="18">FLOOR(A66/3,1)+1</f>
         <v>22</v>
       </c>
       <c r="J66" s="1">
@@ -47409,11 +47726,11 @@
         <v>3294.787015995053</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8626</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O100" si="18">MAX(1,1+(1-POWER(1-(A66-10)/200,3)))</f>
+        <f t="shared" ref="O66:O100" si="19">MAX(1,1+(1-POWER(1-(A66-10)/200,3)))</f>
         <v>1.6189218750000001</v>
       </c>
       <c r="Q66" s="1">
@@ -47421,28 +47738,32 @@
         <v>5334.0027736603661</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="14"/>
-        <v>863.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>837.88799999999981</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B100" si="19">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
+        <f t="shared" ref="B67:B100" si="20">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
         <v>47.700586025666546</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:C100" si="20">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
+        <f t="shared" ref="C67:C100" si="21">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
         <v>6962.5341487715887</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D100" si="21">(5+A67*2+10*B67)*MIN(1,0.8+A67*0.015)</f>
-        <v>614.00586025666553</v>
+        <f t="shared" ref="D67:D100" si="22">(5+A67*2+10*B67)*MIN(1,0.8+A67*0.015)*T67</f>
+        <v>736.80703230799861</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>47.972278011046555</v>
       </c>
       <c r="F67" s="1">
@@ -47450,11 +47771,11 @@
         <v>10513.337825321376</v>
       </c>
       <c r="G67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>53</v>
       </c>
       <c r="H67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="J67" s="1">
@@ -47470,11 +47791,11 @@
         <v>3384.2566243891074</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" ref="M67:M100" si="22">M66+A67*4</f>
+        <f t="shared" ref="M67:M100" si="23">M66+A67*4</f>
         <v>8890</v>
       </c>
       <c r="O67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.626752</v>
       </c>
       <c r="Q67" s="1">
@@ -47482,28 +47803,32 @@
         <v>5505.3462322382293</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" ref="R67:R100" si="23">R66+A67/2.5</f>
-        <v>890</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>869.56799999999976</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>48.396830673359815</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7143.6227171611508</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="21"/>
-        <v>622.96830673359818</v>
+        <f t="shared" si="22"/>
+        <v>747.5619680803178</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50.181069219837767</v>
       </c>
       <c r="F68" s="1">
@@ -47511,11 +47836,11 @@
         <v>11055.63612142179</v>
       </c>
       <c r="G68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
       <c r="H68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="J68" s="1">
@@ -47531,11 +47856,11 @@
         <v>3401.379653430135</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9158</v>
       </c>
       <c r="O68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6344741249999999</v>
       </c>
       <c r="Q68" s="1">
@@ -47543,28 +47868,32 @@
         <v>5559.467032833023</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="23"/>
-        <v>916.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" ref="R68:R100" si="24">(R67+A68*T68/2.5)</f>
+        <v>901.72799999999972</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>49.143047210190389</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7331.4180944101245</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="21"/>
-        <v>632.43047210190389</v>
+        <f t="shared" si="22"/>
+        <v>758.9165665222846</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>52.473204051298438</v>
       </c>
       <c r="F69" s="1">
@@ -47572,11 +47901,11 @@
         <v>11629.974129836759</v>
       </c>
       <c r="G69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="H69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="J69" s="1">
@@ -47592,11 +47921,11 @@
         <v>3554.5826528176071</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9430</v>
       </c>
       <c r="O69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6420889999999999</v>
       </c>
       <c r="Q69" s="1">
@@ -47604,28 +47933,32 @@
         <v>5836.941073782612</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="23"/>
-        <v>944</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>934.36799999999971</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>49.942822291671135</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7526.4766333754305</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="21"/>
-        <v>642.42822291671132</v>
+        <f t="shared" si="22"/>
+        <v>770.91386750005358</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>54.852514396126026</v>
       </c>
       <c r="F70" s="1">
@@ -47633,11 +47966,11 @@
         <v>12238.057153425238</v>
       </c>
       <c r="G70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="H70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J70" s="1">
@@ -47653,11 +47986,11 @@
         <v>3569.9790834688424</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9706</v>
       </c>
       <c r="O70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6495973749999999</v>
       </c>
       <c r="Q70" s="1">
@@ -47665,28 +47998,32 @@
         <v>5889.0281248951087</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="23"/>
-        <v>971.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>967.48799999999972</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>50.8</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7729.4</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="21"/>
-        <v>653</v>
+        <f t="shared" si="22"/>
+        <v>783.6</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>57.323102631420142</v>
       </c>
       <c r="F71" s="1">
@@ -47694,11 +48031,11 @@
         <v>15223.786361612583</v>
       </c>
       <c r="G71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="H71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J71" s="1">
@@ -47714,11 +48051,11 @@
         <v>3819.0489420555573</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9986</v>
       </c>
       <c r="O71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.657</v>
       </c>
       <c r="Q71" s="1">
@@ -47726,28 +48063,32 @@
         <v>6328.1640969860582</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="23"/>
-        <v>999.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1001.0879999999997</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>51.718700320464549</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7940.8388118541761</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="21"/>
-        <v>664.18700320464552</v>
+        <f t="shared" si="22"/>
+        <v>797.02440384557462</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>59.889367691661107</v>
       </c>
       <c r="F72" s="1">
@@ -47755,11 +48096,11 @@
         <v>15737.161332902258</v>
       </c>
       <c r="G72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="H72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J72" s="1">
@@ -47775,11 +48116,11 @@
         <v>3831.6414039902479</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10270</v>
       </c>
       <c r="O72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6642976249999999</v>
       </c>
       <c r="Q72" s="1">
@@ -47787,28 +48128,32 @@
         <v>6376.9916885126349</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="23"/>
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1035.1679999999997</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>52.703338943962045</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8161.4965655513734</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="21"/>
-        <v>676.03338943962046</v>
+        <f t="shared" si="22"/>
+        <v>811.24006732754458</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>62.556034358327771</v>
       </c>
       <c r="F73" s="1">
@@ -47816,11 +48161,11 @@
         <v>16271.615412475436</v>
       </c>
       <c r="G73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="H73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="J73" s="1">
@@ -47836,11 +48181,11 @@
         <v>3955.7449129657116</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10558</v>
       </c>
       <c r="O73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6714910000000001</v>
       </c>
       <c r="Q73" s="1">
@@ -47848,28 +48193,32 @@
         <v>6611.9920203179699</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="23"/>
-        <v>1056.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1069.7279999999996</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>53.758648490814927</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8392.1338757612848</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="21"/>
-        <v>688.58648490814926</v>
+        <f t="shared" si="22"/>
+        <v>826.30378188977909</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>65.328186257061944</v>
       </c>
       <c r="F74" s="1">
@@ -47877,11 +48226,11 @@
         <v>16827.633130778035</v>
       </c>
       <c r="G74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
       <c r="H74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="J74" s="1">
@@ -47897,11 +48246,11 @@
         <v>3965.8341918173328</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10850</v>
       </c>
       <c r="O74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.678580875</v>
       </c>
       <c r="Q74" s="1">
@@ -47909,28 +48258,32 @@
         <v>6656.9734278056558</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="23"/>
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1104.7679999999996</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>54.889701257893044</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8633.5730503177183</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="21"/>
-        <v>701.89701257893046</v>
+        <f t="shared" si="22"/>
+        <v>842.27641509471653</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>68.211303140178828</v>
       </c>
       <c r="F75" s="1">
@@ -47938,11 +48291,11 @@
         <v>17405.682004164377</v>
       </c>
       <c r="G75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="H75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="J75" s="1">
@@ -47958,11 +48311,11 @@
         <v>4168.3137737081906</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11146</v>
       </c>
       <c r="O75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.685568</v>
       </c>
       <c r="Q75" s="1">
@@ -47970,28 +48323,32 @@
         <v>7025.9763109217674</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="23"/>
-        <v>1115.5999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1140.2879999999996</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>56.101933598375609</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8886.7030278294387</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="21"/>
-        <v>716.01933598375604</v>
+        <f t="shared" si="22"/>
+        <v>859.2232031805072</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>71.211303140178828</v>
       </c>
       <c r="F76" s="1">
@@ -47999,11 +48356,11 @@
         <v>18006.205969118862</v>
       </c>
       <c r="G76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>61</v>
       </c>
       <c r="H76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="J76" s="1">
@@ -48019,11 +48376,11 @@
         <v>4175.0042827666821</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11446</v>
       </c>
       <c r="O76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6924531249999999</v>
       </c>
       <c r="Q76" s="1">
@@ -48031,28 +48388,32 @@
         <v>7065.9990452568536</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="23"/>
-        <v>1145.5999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1176.2879999999996</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>57.401172051333091</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9152.484706261841</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="21"/>
-        <v>731.01172051333094</v>
+        <f t="shared" si="22"/>
+        <v>877.21406461599713</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>74.334590811411701</v>
       </c>
       <c r="F77" s="1">
@@ -48060,11 +48421,11 @@
         <v>18629.617892408427</v>
       </c>
       <c r="G77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>61</v>
       </c>
       <c r="H77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="J77" s="1">
@@ -48080,11 +48441,11 @@
         <v>4273.272752035904</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11750</v>
       </c>
       <c r="O77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6992370000000001</v>
       </c>
       <c r="Q77" s="1">
@@ -48092,28 +48453,32 @@
         <v>7261.3031713512328</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" si="23"/>
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1212.7679999999996</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>58.793661346719624</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9431.9566931763748</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="21"/>
-        <v>746.93661346719625</v>
+        <f t="shared" si="22"/>
+        <v>896.32393616063553</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>77.588111938172261</v>
       </c>
       <c r="F78" s="1">
@@ -48121,11 +48486,11 @@
         <v>19276.291012692185</v>
       </c>
       <c r="G78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>62</v>
       </c>
       <c r="H78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="J78" s="1">
@@ -48141,11 +48506,11 @@
         <v>4276.5765603143291</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12058</v>
       </c>
       <c r="O78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.705920375</v>
       </c>
       <c r="Q78" s="1">
@@ -48153,28 +48518,32 @@
         <v>7295.4990894876291</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" si="23"/>
-        <v>1206.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1249.7279999999996</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>60.286094420380778</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9726.2415107055804</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="21"/>
-        <v>763.86094420380778</v>
+        <f t="shared" si="22"/>
+        <v>916.63313304456926</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>80.979416285998354</v>
       </c>
       <c r="F79" s="1">
@@ -48182,11 +48551,11 @@
         <v>19946.549146866022</v>
       </c>
       <c r="G79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>63</v>
       </c>
       <c r="H79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="J79" s="1">
@@ -48202,11 +48571,11 @@
         <v>4438.6051823736625</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12370</v>
       </c>
       <c r="O79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.712504</v>
       </c>
       <c r="Q79" s="1">
@@ -48214,28 +48583,32 @@
         <v>7601.1291292356264</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" si="23"/>
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1287.1679999999997</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>61.885644583342263</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10036.552290917652</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="21"/>
-        <v>781.85644583342264</v>
+        <f t="shared" si="22"/>
+        <v>938.22773500010715</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>84.516729718834171</v>
       </c>
       <c r="F80" s="1">
@@ -48243,11 +48616,11 @@
         <v>20640.655467660559</v>
       </c>
       <c r="G80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="H80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="J80" s="1">
@@ -48263,11 +48636,11 @@
         <v>4437.6539717474479</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12686</v>
       </c>
       <c r="O80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7189886249999999</v>
       </c>
       <c r="Q80" s="1">
@@ -48275,28 +48648,32 @@
         <v>7628.2766991199342</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="23"/>
-        <v>1269.5999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1325.0879999999997</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>77.599999999999994</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11932.199999999999</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="21"/>
-        <v>941</v>
+        <f t="shared" si="22"/>
+        <v>1129.2</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>88.209037411141864</v>
       </c>
       <c r="F81" s="1">
@@ -48304,11 +48681,11 @@
         <v>27687.332849448972</v>
       </c>
       <c r="G81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="H81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="J81" s="1">
@@ -48324,11 +48701,11 @@
         <v>4689.511789412456</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13006</v>
       </c>
       <c r="O81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7253749999999999</v>
       </c>
       <c r="Q81" s="1">
@@ -48336,28 +48713,32 @@
         <v>8091.1664036575157</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="23"/>
-        <v>1301.5999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1363.4879999999998</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>79.437400640929098</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12298.20123268136</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="21"/>
-        <v>961.37400640929104</v>
+        <f t="shared" si="22"/>
+        <v>1153.6488076911492</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>92.066180268284725</v>
       </c>
       <c r="F82" s="1">
@@ -48365,11 +48746,11 @@
         <v>28649.551982889774</v>
       </c>
       <c r="G82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="H82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="J82" s="1">
@@ -48385,11 +48766,11 @@
         <v>4796.0868984036179</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13330</v>
       </c>
       <c r="O82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.731663875</v>
       </c>
       <c r="Q82" s="1">
@@ -48397,28 +48778,32 @@
         <v>8305.2104233263381</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" si="23"/>
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1402.3679999999999</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>81.406677887924062</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12684.486621533682</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="21"/>
-        <v>983.06677887924059</v>
+        <f t="shared" si="22"/>
+        <v>1179.6801346550888</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>96.098967153530623</v>
       </c>
       <c r="F83" s="1">
@@ -48426,11 +48811,11 @@
         <v>29643.057435863939</v>
       </c>
       <c r="G83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>66</v>
       </c>
       <c r="H83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="J83" s="1">
@@ -48446,11 +48831,11 @@
         <v>5031.3651094260758</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13658</v>
       </c>
       <c r="O83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7378559999999998</v>
       </c>
       <c r="Q83" s="1">
@@ -48458,28 +48843,32 @@
         <v>8743.7880436067626</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="23"/>
-        <v>1366.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1441.7279999999998</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>83.517296981629883</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13092.70990926539</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="21"/>
-        <v>1006.1729698162989</v>
+        <f t="shared" si="22"/>
+        <v>1207.4075637795586</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100.31930613658147</v>
       </c>
       <c r="F84" s="1">
@@ -48487,11 +48876,11 @@
         <v>30667.682000306286</v>
       </c>
       <c r="G84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="H84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="J84" s="1">
@@ -48507,11 +48896,11 @@
         <v>5127.9874241676953</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13990</v>
       </c>
       <c r="O84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7439521250000001</v>
       </c>
       <c r="Q84" s="1">
@@ -48519,28 +48908,32 @@
         <v>8942.9645653505286</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="23"/>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1481.5679999999998</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>85.779402515786089</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13524.657735856443</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="21"/>
-        <v>1030.7940251578609</v>
+        <f t="shared" si="22"/>
+        <v>1236.9528301894331</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104.74035876816042</v>
       </c>
       <c r="F85" s="1">
@@ -48548,11 +48941,11 @@
         <v>31723.067063096114</v>
       </c>
       <c r="G85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
       <c r="H85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="J85" s="1">
@@ -48568,11 +48961,11 @@
         <v>5431.0337217725673</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14326</v>
       </c>
       <c r="O85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7499530000000001</v>
       </c>
       <c r="Q85" s="1">
@@ -48580,28 +48973,32 @@
         <v>9504.05375451707</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="23"/>
-        <v>1433.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1521.8879999999997</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>88.203867196751233</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13982.260196413396</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="21"/>
-        <v>1057.0386719675123</v>
+        <f t="shared" si="22"/>
+        <v>1268.4464063610146</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>109.37672240452406</v>
       </c>
       <c r="F86" s="1">
@@ -48609,11 +49006,11 @@
         <v>32808.628568850589</v>
       </c>
       <c r="G86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="H86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="J86" s="1">
@@ -48629,11 +49026,11 @@
         <v>5609.6391322526497</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14666</v>
       </c>
       <c r="O86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.755859375</v>
       </c>
       <c r="Q86" s="1">
@@ -48641,28 +49038,32 @@
         <v>9849.7374607326801</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="23"/>
-        <v>1467.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1562.6879999999996</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>90.802344102666183</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14467.602229961009</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="21"/>
-        <v>1085.0234410266619</v>
+        <f t="shared" si="22"/>
+        <v>1302.0281292319942</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>114.24464693282594</v>
       </c>
       <c r="F87" s="1">
@@ -48670,11 +49071,11 @@
         <v>33923.517506102093</v>
       </c>
       <c r="G87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="H87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="J87" s="1">
@@ -48690,11 +49091,11 @@
         <v>5891.0096392822943</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15010</v>
       </c>
       <c r="O87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7616719999999999</v>
       </c>
       <c r="Q87" s="1">
@@ -48702,28 +49103,32 @@
         <v>10378.026733253717</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="23"/>
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1603.9679999999996</v>
+      </c>
+      <c r="T87">
+        <f t="shared" ref="T87:T100" si="25">MIN(1.2,T86+0.015)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>93.587322693439219</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14982.935904060896</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="21"/>
-        <v>1114.8732269343923</v>
+        <f t="shared" si="22"/>
+        <v>1337.8478723212706</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>119.36229399164947</v>
       </c>
       <c r="F88" s="1">
@@ -48731,11 +49136,11 @@
         <v>35066.573895717287</v>
       </c>
       <c r="G88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="H88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="J88" s="1">
@@ -48751,11 +49156,11 @@
         <v>6052.9981601098289</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15358</v>
       </c>
       <c r="O88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7673916250000001</v>
       </c>
       <c r="Q88" s="1">
@@ -48763,28 +49168,32 @@
         <v>10698.018254318522</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="23"/>
-        <v>1536.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1645.7279999999996</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>96.572188840761555</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15530.693665181823</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="21"/>
-        <v>1146.7218884076156</v>
+        <f t="shared" si="22"/>
+        <v>1376.0662660891387</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>124.75004909369028</v>
       </c>
       <c r="F89" s="1">
@@ -48792,11 +49201,11 @@
         <v>36236.273024912094</v>
       </c>
       <c r="G89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="H89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="J89" s="1">
@@ -48812,11 +49221,11 @@
         <v>6381.4366191324243</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15710</v>
       </c>
       <c r="O89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7730190000000001</v>
       </c>
       <c r="Q89" s="1">
@@ -48824,28 +49233,32 @@
         <v>11314.408373017552</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="23"/>
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1687.9679999999996</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>99.771289166684539</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16113.502630168892</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="21"/>
-        <v>1180.7128916668453</v>
+        <f t="shared" si="22"/>
+        <v>1416.8554700002144</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>130.43090015752006</v>
       </c>
       <c r="F90" s="1">
@@ -48853,11 +49266,11 @@
         <v>37430.66236636012</v>
       </c>
       <c r="G90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="H90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="J90" s="1">
@@ -48873,11 +49286,11 @@
         <v>6601.6114080756442</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16066</v>
       </c>
       <c r="O90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.778554875</v>
       </c>
       <c r="Q90" s="1">
@@ -48885,28 +49298,32 @@
         <v>11741.328152688553</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="23"/>
-        <v>1607.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1730.6879999999996</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>128.19999999999999</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>19884.199999999997</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="21"/>
-        <v>1467</v>
+        <f t="shared" si="22"/>
+        <v>1760.3999999999999</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>136.43090015752006</v>
       </c>
       <c r="F91" s="1">
@@ -48914,11 +49331,11 @@
         <v>50098.335292222597</v>
       </c>
       <c r="G91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="H91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="J91" s="1">
@@ -48934,11 +49351,11 @@
         <v>7239.6863695154489</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16426</v>
       </c>
       <c r="O91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.784</v>
       </c>
       <c r="Q91" s="1">
@@ -48946,28 +49363,32 @@
         <v>12915.600483215561</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="23"/>
-        <v>1643.6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1773.8879999999997</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>131.8748012818582</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20580.849683308734</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="21"/>
-        <v>1505.7480128185821</v>
+        <f t="shared" si="22"/>
+        <v>1806.8976153822985</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>142.77973736682239</v>
       </c>
       <c r="F92" s="1">
@@ -48975,11 +49396,11 @@
         <v>51700.318230529061</v>
       </c>
       <c r="G92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="H92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="J92" s="1">
@@ -48995,11 +49416,11 @@
         <v>7446.7660229123303</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16790</v>
       </c>
       <c r="O92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7893551250000002</v>
       </c>
       <c r="Q92" s="1">
@@ -49007,28 +49428,32 @@
         <v>13324.908947774047</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="23"/>
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1817.5679999999998</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>135.81335577584815</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>21321.760223929239</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="21"/>
-        <v>1547.1335577584814</v>
+        <f t="shared" si="22"/>
+        <v>1856.5602693101775</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>149.51144468389555</v>
       </c>
       <c r="F93" s="1">
@@ -49036,11 +49461,11 @@
         <v>53322.329299207777</v>
       </c>
       <c r="G93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="H93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="J93" s="1">
@@ -49056,11 +49481,11 @@
         <v>7784.0086120999695</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17158</v>
       </c>
       <c r="O93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7946209999999998</v>
       </c>
       <c r="Q93" s="1">
@@ -49068,28 +49493,32 @@
         <v>13969.345319455459</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" si="23"/>
-        <v>1716.8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1861.7279999999998</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>140.03459396325971</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22110.504134016413</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="21"/>
-        <v>1591.345939632597</v>
+        <f t="shared" si="22"/>
+        <v>1909.6151275591164</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>156.66529083774171</v>
       </c>
       <c r="F94" s="1">
@@ -49097,11 +49526,11 @@
         <v>54958.455190609064</v>
       </c>
       <c r="G94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="H94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="J94" s="1">
@@ -49117,11 +49546,11 @@
         <v>8024.0472773058609</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17530</v>
       </c>
       <c r="O94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.799798375</v>
       </c>
       <c r="Q94" s="1">
@@ -49129,28 +49558,32 @@
         <v>14441.667250618264</v>
       </c>
       <c r="R94" s="1">
-        <f t="shared" si="23"/>
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1906.3679999999999</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>144.55880503157218</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22950.9387421549</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="21"/>
-        <v>1638.5880503157218</v>
+        <f t="shared" si="22"/>
+        <v>1966.3056603788662</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>164.28691245936332</v>
       </c>
       <c r="F95" s="1">
@@ -49158,11 +49591,11 @@
         <v>56601.519966139997</v>
       </c>
       <c r="G95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>76</v>
       </c>
       <c r="H95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="J95" s="1">
@@ -49178,11 +49611,11 @@
         <v>8598.5582702453466</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17906</v>
       </c>
       <c r="O95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.804888</v>
       </c>
       <c r="Q95" s="1">
@@ -49190,28 +49623,32 @@
         <v>15519.434639266583</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="23"/>
-        <v>1791.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1951.4879999999998</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>149.40773439350247</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>23847.228674335824</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="21"/>
-        <v>1689.0773439350246</v>
+        <f t="shared" si="22"/>
+        <v>2026.8928127220295</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>172.42976960222046</v>
       </c>
       <c r="F96" s="1">
@@ -49219,11 +49656,11 @@
         <v>58242.843421826117</v>
       </c>
       <c r="G96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="H96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="J96" s="1">
@@ -49239,11 +49676,11 @@
         <v>8809.1181823033094</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>18286</v>
       </c>
       <c r="O96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.809890625</v>
       </c>
       <c r="Q96" s="1">
@@ -49251,28 +49688,32 @@
         <v>15943.540412667802</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="23"/>
-        <v>1829.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>1997.0879999999997</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>154.60468820533237</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>24803.870094796664</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="21"/>
-        <v>1743.0468820533238</v>
+        <f t="shared" si="22"/>
+        <v>2091.6562584639883</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>181.15704232949318</v>
       </c>
       <c r="F97" s="1">
@@ -49280,11 +49721,11 @@
         <v>59871.942809998945</v>
       </c>
       <c r="G97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="H97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="J97" s="1">
@@ -49300,11 +49741,11 @@
         <v>9115.6430137226525</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>18670</v>
       </c>
       <c r="O97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.8148070000000001</v>
       </c>
       <c r="Q97" s="1">
@@ -49312,28 +49753,32 @@
         <v>16543.132750804965</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="23"/>
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>2043.1679999999997</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>160.17464538687844</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>25825.716843538095</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="21"/>
-        <v>1800.7464538687843</v>
+        <f t="shared" si="22"/>
+        <v>2160.8957446425411</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>190.54413910368675</v>
       </c>
       <c r="F98" s="1">
@@ -49341,11 +49786,11 @@
         <v>62614.607522961742</v>
       </c>
       <c r="G98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>78</v>
       </c>
       <c r="H98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="J98" s="1">
@@ -49361,11 +49806,11 @@
         <v>9331.0064825365898</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19058</v>
       </c>
       <c r="O98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.8196378750000002</v>
       </c>
       <c r="Q98" s="1">
@@ -49373,28 +49818,32 @@
         <v>16979.052807494107</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="23"/>
-        <v>1906.8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>2089.7279999999996</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>166.14437768152311</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>26918.008617904969</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="21"/>
-        <v>1862.4437768152311</v>
+        <f t="shared" si="22"/>
+        <v>2234.9325321782771</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>200.68207013816951</v>
       </c>
       <c r="F99" s="1">
@@ -49402,11 +49851,11 @@
         <v>71341.778431308325</v>
       </c>
       <c r="G99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>79</v>
       </c>
       <c r="H99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="J99" s="1">
@@ -49422,11 +49871,11 @@
         <v>9804.4074292492078</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19450</v>
       </c>
       <c r="O99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.824384</v>
       </c>
       <c r="Q99" s="1">
@@ -49434,28 +49883,32 @@
         <v>17887.004043403387</v>
       </c>
       <c r="R99" s="1">
-        <f t="shared" si="23"/>
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
+        <f t="shared" si="24"/>
+        <v>2136.7679999999996</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>172.54257833336908</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>28086.401357004954</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="21"/>
-        <v>1928.4257833336908</v>
+        <f t="shared" si="22"/>
+        <v>2314.1109400004289</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>211.68207013816951</v>
       </c>
       <c r="F100" s="1">
@@ -49463,11 +49916,11 @@
         <v>94688.331813005949</v>
       </c>
       <c r="G100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>80</v>
       </c>
       <c r="H100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="J100" s="1">
@@ -49483,11 +49936,11 @@
         <v>9967.4600378320556</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19846</v>
       </c>
       <c r="O100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.8290461250000001</v>
       </c>
       <c r="Q100" s="1">
@@ -49495,8 +49948,12 @@
         <v>18230.944158289076</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="23"/>
-        <v>1985.6</v>
+        <f t="shared" si="24"/>
+        <v>2184.2879999999996</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E69EE0D-C875-4046-8939-54A83C8138F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5951A205-3029-4AC8-97F3-B0B6ABA187BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2606" yWindow="2606" windowWidth="28345" windowHeight="14785" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -4017,10 +4017,10 @@
   <dimension ref="A1:AJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D303" sqref="D303"/>
+      <selection pane="bottomRight" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10506,34 +10506,34 @@
         <v>100</v>
       </c>
       <c r="H61">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I61">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J61">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K61">
         <v>100</v>
       </c>
       <c r="L61">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
       <c r="O61">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="P61">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="Q61">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="R61">
         <v>100</v>
@@ -11163,7 +11163,7 @@
         <v>100</v>
       </c>
       <c r="M67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -12551,10 +12551,10 @@
         <v>100</v>
       </c>
       <c r="L80">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -12661,7 +12661,7 @@
         <v>110</v>
       </c>
       <c r="M81">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -20365,7 +20365,7 @@
         <v>100</v>
       </c>
       <c r="M153">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N153">
         <v>1</v>
@@ -20472,7 +20472,7 @@
         <v>80</v>
       </c>
       <c r="M154">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -22291,7 +22291,7 @@
         <v>100</v>
       </c>
       <c r="M171">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N171">
         <v>2</v>
@@ -22398,7 +22398,7 @@
         <v>100</v>
       </c>
       <c r="M172">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N172">
         <v>1</v>
@@ -24538,7 +24538,7 @@
         <v>100</v>
       </c>
       <c r="M192">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N192">
         <v>1</v>
@@ -24645,7 +24645,7 @@
         <v>100</v>
       </c>
       <c r="M193">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N193">
         <v>1</v>
@@ -24752,7 +24752,7 @@
         <v>100</v>
       </c>
       <c r="M194">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N194">
         <v>1</v>
@@ -24859,7 +24859,7 @@
         <v>100</v>
       </c>
       <c r="M195">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N195">
         <v>1</v>
@@ -24966,7 +24966,7 @@
         <v>100</v>
       </c>
       <c r="M196">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N196">
         <v>1</v>
@@ -25073,7 +25073,7 @@
         <v>100</v>
       </c>
       <c r="M197">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N197">
         <v>1</v>
@@ -25180,7 +25180,7 @@
         <v>100</v>
       </c>
       <c r="M198">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N198">
         <v>1</v>
@@ -25287,7 +25287,7 @@
         <v>100</v>
       </c>
       <c r="M199">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N199">
         <v>1</v>
@@ -25394,7 +25394,7 @@
         <v>100</v>
       </c>
       <c r="M200">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N200">
         <v>2</v>
@@ -25501,7 +25501,7 @@
         <v>100</v>
       </c>
       <c r="M201">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N201">
         <v>1</v>
@@ -25715,7 +25715,7 @@
         <v>100</v>
       </c>
       <c r="M203">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N203">
         <v>1</v>
@@ -25822,7 +25822,7 @@
         <v>100</v>
       </c>
       <c r="M204">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N204">
         <v>1</v>
@@ -25929,7 +25929,7 @@
         <v>100</v>
       </c>
       <c r="M205">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N205">
         <v>1</v>
@@ -26036,7 +26036,7 @@
         <v>100</v>
       </c>
       <c r="M206">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N206">
         <v>1</v>
@@ -26143,7 +26143,7 @@
         <v>80</v>
       </c>
       <c r="M207">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N207">
         <v>1</v>
@@ -26250,7 +26250,7 @@
         <v>100</v>
       </c>
       <c r="M208">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N208">
         <v>1</v>
@@ -26357,7 +26357,7 @@
         <v>120</v>
       </c>
       <c r="M209">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N209">
         <v>1</v>
@@ -26464,7 +26464,7 @@
         <v>70</v>
       </c>
       <c r="M210">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N210">
         <v>1</v>
@@ -26571,7 +26571,7 @@
         <v>100</v>
       </c>
       <c r="M211">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N211">
         <v>1</v>
@@ -26678,7 +26678,7 @@
         <v>100</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N212">
         <v>9</v>
@@ -26785,7 +26785,7 @@
         <v>100</v>
       </c>
       <c r="M213">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N213">
         <v>1</v>
@@ -26892,7 +26892,7 @@
         <v>100</v>
       </c>
       <c r="M214">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N214">
         <v>1</v>
@@ -26999,7 +26999,7 @@
         <v>100</v>
       </c>
       <c r="M215">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N215">
         <v>1</v>
@@ -27106,7 +27106,7 @@
         <v>100</v>
       </c>
       <c r="M216">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N216">
         <v>1</v>
@@ -27213,7 +27213,7 @@
         <v>100</v>
       </c>
       <c r="M217">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N217">
         <v>1</v>
@@ -27320,7 +27320,7 @@
         <v>100</v>
       </c>
       <c r="M218">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N218">
         <v>2</v>
@@ -27427,7 +27427,7 @@
         <v>110</v>
       </c>
       <c r="M219">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N219">
         <v>2</v>
@@ -27534,7 +27534,7 @@
         <v>120</v>
       </c>
       <c r="M220">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N220">
         <v>1</v>
@@ -27641,7 +27641,7 @@
         <v>100</v>
       </c>
       <c r="M221">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N221">
         <v>1</v>
@@ -27748,7 +27748,7 @@
         <v>110</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N222">
         <v>1</v>
@@ -27855,7 +27855,7 @@
         <v>100</v>
       </c>
       <c r="M223">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N223">
         <v>1</v>
@@ -27962,7 +27962,7 @@
         <v>100</v>
       </c>
       <c r="M224">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N224">
         <v>9</v>
@@ -28069,7 +28069,7 @@
         <v>100</v>
       </c>
       <c r="M225">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N225">
         <v>3</v>
@@ -28176,7 +28176,7 @@
         <v>110</v>
       </c>
       <c r="M226">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N226">
         <v>1</v>
@@ -28283,7 +28283,7 @@
         <v>105</v>
       </c>
       <c r="M227">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N227">
         <v>1</v>
@@ -28390,7 +28390,7 @@
         <v>100</v>
       </c>
       <c r="M228">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N228">
         <v>1</v>
@@ -28604,7 +28604,7 @@
         <v>100</v>
       </c>
       <c r="M230">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N230">
         <v>1</v>
@@ -28711,7 +28711,7 @@
         <v>100</v>
       </c>
       <c r="M231">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N231">
         <v>2</v>
@@ -28818,7 +28818,7 @@
         <v>110</v>
       </c>
       <c r="M232">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N232">
         <v>1</v>
@@ -28925,7 +28925,7 @@
         <v>100</v>
       </c>
       <c r="M233">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N233">
         <v>1</v>
@@ -29032,7 +29032,7 @@
         <v>115</v>
       </c>
       <c r="M234">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N234">
         <v>1</v>
@@ -29139,7 +29139,7 @@
         <v>100</v>
       </c>
       <c r="M235">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N235">
         <v>1</v>
@@ -29246,7 +29246,7 @@
         <v>100</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N236">
         <v>1</v>
@@ -29353,7 +29353,7 @@
         <v>100</v>
       </c>
       <c r="M237">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N237">
         <v>1</v>
@@ -29460,7 +29460,7 @@
         <v>80</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N238">
         <v>2</v>
@@ -29567,7 +29567,7 @@
         <v>100</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N239">
         <v>2</v>
@@ -29674,7 +29674,7 @@
         <v>100</v>
       </c>
       <c r="M240">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N240">
         <v>2</v>
@@ -29781,7 +29781,7 @@
         <v>100</v>
       </c>
       <c r="M241">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N241">
         <v>2</v>
@@ -29888,7 +29888,7 @@
         <v>120</v>
       </c>
       <c r="M242">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N242">
         <v>2</v>
@@ -29995,7 +29995,7 @@
         <v>100</v>
       </c>
       <c r="M243">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N243">
         <v>2</v>
@@ -36314,7 +36314,7 @@
         <v>66</v>
       </c>
       <c r="M302">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N302">
         <v>1</v>
@@ -36641,7 +36641,7 @@
         <v>100</v>
       </c>
       <c r="M305">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N305">
         <v>1</v>
@@ -39999,7 +39999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD92674-9469-4EA5-80DB-25535A720168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE1E86E-686D-4615-84BC-EC76D1C700CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2606" yWindow="2606" windowWidth="26931" windowHeight="13937" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="1173">
   <si>
     <t>Id</t>
   </si>
@@ -3570,9 +3570,6 @@
   </si>
   <si>
     <t>AtkMult</t>
-  </si>
-  <si>
-    <t>Moonlight Illusion</t>
   </si>
 </sst>
 </file>
@@ -4020,10 +4017,10 @@
   <dimension ref="A1:AJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4401,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F4">
         <v>90</v>
@@ -4722,28 +4719,28 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K7">
         <v>100</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -4752,10 +4749,10 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q7">
         <v>100</v>
@@ -9534,10 +9531,10 @@
         <v>224</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F52">
         <v>100</v>
@@ -10536,7 +10533,7 @@
         <v>90</v>
       </c>
       <c r="Q61">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="R61">
         <v>105</v>
@@ -10821,7 +10818,7 @@
         <v>45</v>
       </c>
       <c r="E64">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F64">
         <v>100</v>
@@ -10839,7 +10836,7 @@
         <v>100</v>
       </c>
       <c r="K64">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L64">
         <v>100</v>
@@ -11612,7 +11609,7 @@
         <v>100</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T71">
         <v>12</v>
@@ -12676,10 +12673,10 @@
         <v>100</v>
       </c>
       <c r="Q81">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R81">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="S81">
         <v>10</v>
@@ -16703,7 +16700,7 @@
         <v>446</v>
       </c>
       <c r="D119">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E119">
         <v>100</v>
@@ -16956,10 +16953,10 @@
         <v>100</v>
       </c>
       <c r="Q121">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R121">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="S121">
         <v>10</v>
@@ -17574,7 +17571,7 @@
         <v>90</v>
       </c>
       <c r="I127">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J127">
         <v>100</v>
@@ -35158,7 +35155,7 @@
         <v>100</v>
       </c>
       <c r="S291">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T291">
         <v>12</v>
@@ -36287,7 +36284,7 @@
         <v>1096</v>
       </c>
       <c r="C302" t="s">
-        <v>1173</v>
+        <v>565</v>
       </c>
       <c r="D302">
         <v>65</v>
@@ -39346,7 +39343,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A3-1,0)</f>
-        <v>12.926193180368813</v>
+        <v>13.213441917710341</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A3-1,0)</f>
@@ -39379,7 +39376,7 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A4-1,0)</f>
-        <v>20.519999999999996</v>
+        <v>21.674249999999997</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A4-1,0)</f>
@@ -39412,7 +39409,7 @@
       </c>
       <c r="D5" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A5-1,0)</f>
-        <v>26.479898987322326</v>
+        <v>29.12788888605456</v>
       </c>
       <c r="E5" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A5-1,0)</f>
@@ -39445,7 +39442,7 @@
       </c>
       <c r="D6" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A6-1,0)</f>
-        <v>33.399999999999977</v>
+        <v>38.688333333333318</v>
       </c>
       <c r="E6" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A6-1,0)</f>
@@ -39478,7 +39475,7 @@
       </c>
       <c r="D7" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A7-1,0)</f>
-        <v>46.568376618407335</v>
+        <v>51.397689749205142</v>
       </c>
       <c r="E7" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A7-1,0)</f>
@@ -39511,7 +39508,7 @@
       </c>
       <c r="D8" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A8-1,0)</f>
-        <v>99.749999999999972</v>
+        <v>105.73499999999997</v>
       </c>
       <c r="E8" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A8-1,0)</f>
@@ -39544,7 +39541,7 @@
       </c>
       <c r="D9" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A9-1,0)</f>
-        <v>122.08380951166239</v>
+        <v>128.74292639411672</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A9-1,0)</f>
@@ -39577,7 +39574,7 @@
       </c>
       <c r="D10" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A10-1,0)</f>
-        <v>183.89999999999998</v>
+        <v>203.31166666666664</v>
       </c>
       <c r="E10" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A10-1,0)</f>
@@ -39610,7 +39607,7 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A11-1,0)</f>
-        <v>221.93673157302027</v>
+        <v>254.94270703772577</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A11-1,0)</f>
@@ -39643,7 +39640,7 @@
       </c>
       <c r="D12" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A12-1,0)</f>
-        <v>266.34999999999991</v>
+        <v>315.81499999999983</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A12-1,0)</f>
@@ -39676,7 +39673,7 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A13-1,0)</f>
-        <v>319.03668824543115</v>
+        <v>354.48520916159049</v>
       </c>
       <c r="E13" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A13-1,0)</f>
@@ -39709,7 +39706,7 @@
       </c>
       <c r="D14" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A14-1,0)</f>
-        <v>682.79999999999927</v>
+        <v>711.25</v>
       </c>
       <c r="E14" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A14-1,0)</f>
@@ -39742,7 +39739,7 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A15-1,0)</f>
-        <v>726.6116015902536</v>
+        <v>756.88708498984749</v>
       </c>
       <c r="E15" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A15-1,0)</f>
@@ -39775,7 +39772,7 @@
       </c>
       <c r="D16" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A16-1,0)</f>
-        <v>783.6</v>
+        <v>816.25</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A16-1,0)</f>
@@ -39808,7 +39805,7 @@
       </c>
       <c r="D17" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A17-1,0)</f>
-        <v>859.2232031805072</v>
+        <v>895.02416997969499</v>
       </c>
       <c r="E17" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A17-1,0)</f>
@@ -39841,7 +39838,7 @@
       </c>
       <c r="D18" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A18-1,0)</f>
-        <v>1129.2</v>
+        <v>1176.25</v>
       </c>
       <c r="E18" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A18-1,0)</f>
@@ -39874,7 +39871,7 @@
       </c>
       <c r="D19" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A19-1,0)</f>
-        <v>1268.4464063610146</v>
+        <v>1321.2983399593904</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A19-1,0)</f>
@@ -39907,7 +39904,7 @@
       </c>
       <c r="D20" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A20-1,0)</f>
-        <v>1760.3999999999999</v>
+        <v>1833.75</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A20-1,0)</f>
@@ -39940,7 +39937,7 @@
       </c>
       <c r="D21" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A21-1,0)</f>
-        <v>2026.8928127220295</v>
+        <v>2111.3466799187809</v>
       </c>
       <c r="E21" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A21-1,0)</f>
@@ -39973,7 +39970,7 @@
       </c>
       <c r="D22" s="1">
         <f ca="1">OFFSET(StatCharts!D$2,Sheet2!$A22-1,0)</f>
-        <v>2314.1109400004289</v>
+        <v>2410.5322291671137</v>
       </c>
       <c r="E22" s="1">
         <f ca="1">OFFSET(StatCharts!E$2,Sheet2!$A22-1,0)</f>
@@ -43464,10 +43461,10 @@
   <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22:T100"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -43573,7 +43570,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O33" si="2">MAX(1,1+(1-POWER(1-(A2-10)/200,3)))</f>
@@ -43584,7 +43581,7 @@
         <v>2</v>
       </c>
       <c r="R2" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T2">
         <v>0.98</v>
@@ -43603,11 +43600,11 @@
         <v>49.321635539399168</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" si="5">(5+A3*2+10*B3)*MIN(1,0.8+A3*0.015)*T3</f>
-        <v>8.086482849261639</v>
+        <f>(5+A3*2+10*B3)*MIN(1,0.8+A3*0.015)*T3</f>
+        <v>8.1285999474348767</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E34" si="6">E2+A3/(75-A3/2)</f>
+        <f t="shared" ref="E3:E34" si="5">E2+A3/(75-A3/2)</f>
         <v>2.0270270270270272</v>
       </c>
       <c r="F3" s="1">
@@ -43635,8 +43632,8 @@
         <v>2.96</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M34" si="7">M2+A3*4</f>
-        <v>58</v>
+        <f t="shared" ref="M3:M34" si="6">M2+A3*4</f>
+        <v>64</v>
       </c>
       <c r="O3">
         <f t="shared" si="2"/>
@@ -43647,12 +43644,12 @@
         <v>2.96</v>
       </c>
       <c r="R3" s="1">
-        <f>(R2+A3*T3/2.5)</f>
-        <v>6.7679999999999998</v>
+        <f>(R2+A3*T3/3)</f>
+        <v>8.6433333333333326</v>
       </c>
       <c r="T3">
-        <f>T2-0.02</f>
-        <v>0.96</v>
+        <f>T2-0.015</f>
+        <v>0.96499999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
@@ -43668,11 +43665,11 @@
         <v>63.517080653604857</v>
       </c>
       <c r="D4" s="1">
+        <f>(5+A4*2+10*B4)*MIN(1,0.8+A4*0.015)*T4</f>
+        <v>9.8185511778126315</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="5"/>
-        <v>9.7151980075198665</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="6"/>
         <v>2.0678433535576395</v>
       </c>
       <c r="F4" s="1">
@@ -43700,8 +43697,8 @@
         <v>3.3851693785009331</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="7"/>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
@@ -43712,12 +43709,12 @@
         <v>3.3851693785009331</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:R67" si="8">(R3+A4*T4/2.5)</f>
-        <v>7.8959999999999999</v>
+        <f t="shared" ref="R4:R67" si="7">(R3+A4*T4/3)</f>
+        <v>9.5933333333333319</v>
       </c>
       <c r="T4">
-        <f>T3-0.02</f>
-        <v>0.94</v>
+        <f t="shared" ref="T4:T21" si="8">T3-0.015</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
@@ -43733,11 +43730,11 @@
         <v>77.73892443003281</v>
       </c>
       <c r="D5" s="1">
+        <f>(5+A5*2+10*B5)*MIN(1,0.8+A5*0.015)*T5</f>
+        <v>11.514316311052484</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="5"/>
-        <v>11.329594659003515</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="6"/>
         <v>2.1226378741055845</v>
       </c>
       <c r="F5" s="1">
@@ -43765,8 +43762,8 @@
         <v>4.7111191795791818</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="7"/>
-        <v>86</v>
+        <f t="shared" si="6"/>
+        <v>92</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
@@ -43777,12 +43774,12 @@
         <v>4.7111191795791818</v>
       </c>
       <c r="R5" s="1">
+        <f t="shared" si="7"/>
+        <v>10.839999999999998</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="8"/>
-        <v>9.3680000000000003</v>
-      </c>
-      <c r="T5">
-        <f t="shared" ref="T5:T21" si="9">T4-0.02</f>
-        <v>0.91999999999999993</v>
+        <v>0.93499999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
@@ -43798,11 +43795,11 @@
         <v>91.989949493661172</v>
       </c>
       <c r="D6" s="1">
+        <f>(5+A6*2+10*B6)*MIN(1,0.8+A6*0.015)*T6</f>
+        <v>13.213441917710341</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="5"/>
-        <v>12.926193180368813</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="6"/>
         <v>2.1916033913469639</v>
       </c>
       <c r="F6" s="1">
@@ -43830,8 +43827,8 @@
         <v>6.8443040648796263</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="7"/>
-        <v>106</v>
+        <f t="shared" si="6"/>
+        <v>112</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
@@ -43842,12 +43839,12 @@
         <v>6.8443040648796263</v>
       </c>
       <c r="R6" s="1">
+        <f t="shared" si="7"/>
+        <v>12.373333333333331</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="8"/>
-        <v>11.168000000000001</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="9"/>
-        <v>0.89999999999999991</v>
+        <v>0.91999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
@@ -43863,11 +43860,11 @@
         <v>106.27320191586873</v>
       </c>
       <c r="D7" s="1">
+        <f>(5+A7*2+10*B7)*MIN(1,0.8+A7*0.015)*T7</f>
+        <v>14.913483908495801</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="5"/>
-        <v>14.501509214890945</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="6"/>
         <v>2.2749367246802974</v>
       </c>
       <c r="F7" s="1">
@@ -43895,8 +43892,8 @@
         <v>9.6705986418552872</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="7"/>
-        <v>130</v>
+        <f t="shared" si="6"/>
+        <v>136</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
@@ -43907,12 +43904,12 @@
         <v>9.6705986418552872</v>
       </c>
       <c r="R7" s="1">
+        <f t="shared" si="7"/>
+        <v>14.183333333333332</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="8"/>
-        <v>13.280000000000001</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="9"/>
-        <v>0.87999999999999989</v>
+        <v>0.90499999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
@@ -43928,11 +43925,11 @@
         <v>120.59201469685821</v>
       </c>
       <c r="D8" s="1">
+        <f>(5+A8*2+10*B8)*MIN(1,0.8+A8*0.015)*T8</f>
+        <v>16.612007385290259</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="5"/>
-        <v>16.052052080168114</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="6"/>
         <v>2.3728388225823953</v>
       </c>
       <c r="F8" s="1">
@@ -43960,8 +43957,8 @@
         <v>13.485956018358605</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="7"/>
-        <v>158</v>
+        <f t="shared" si="6"/>
+        <v>164</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
@@ -43972,12 +43969,12 @@
         <v>13.485956018358605</v>
       </c>
       <c r="R8" s="1">
+        <f t="shared" si="7"/>
+        <v>16.259999999999998</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="8"/>
-        <v>15.688000000000001</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="9"/>
-        <v>0.85999999999999988</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
@@ -43993,11 +43990,11 @@
         <v>134.95003326178332</v>
       </c>
       <c r="D9" s="1">
+        <f>(5+A9*2+10*B9)*MIN(1,0.8+A9*0.015)*T9</f>
+        <v>18.306586406906757</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="5"/>
-        <v>17.574322950630485</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="6"/>
         <v>2.4855148789204233</v>
       </c>
       <c r="F9" s="1">
@@ -44025,8 +44022,8 @@
         <v>18.507231797373095</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="7"/>
-        <v>190</v>
+        <f t="shared" si="6"/>
+        <v>196</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
@@ -44037,12 +44034,12 @@
         <v>18.507231797373095</v>
       </c>
       <c r="R9" s="1">
+        <f t="shared" si="7"/>
+        <v>18.59333333333333</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="8"/>
-        <v>18.376000000000001</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="9"/>
-        <v>0.83999999999999986</v>
+        <v>0.87499999999999989</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
@@ -44058,11 +44055,11 @@
         <v>149.35124313867274</v>
       </c>
       <c r="D10" s="1">
+        <f>(5+A10*2+10*B10)*MIN(1,0.8+A10*0.015)*T10</f>
+        <v>19.99480365698949</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="5"/>
-        <v>19.064812789222536</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="6"/>
         <v>2.6131744533885084</v>
       </c>
       <c r="F10" s="1">
@@ -44090,8 +44087,8 @@
         <v>25.256637540757247</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="7"/>
-        <v>226</v>
+        <f t="shared" si="6"/>
+        <v>232</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
@@ -44102,12 +44099,12 @@
         <v>25.256637540757247</v>
       </c>
       <c r="R10" s="1">
+        <f t="shared" si="7"/>
+        <v>21.173333333333328</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="8"/>
-        <v>21.327999999999999</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="9"/>
-        <v>0.81999999999999984</v>
+        <v>0.85999999999999988</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
@@ -44123,11 +44120,11 @@
         <v>163.79999999999998</v>
       </c>
       <c r="D11" s="1">
+        <f>(5+A11*2+10*B11)*MIN(1,0.8+A11*0.015)*T11</f>
+        <v>21.674249999999997</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="5"/>
-        <v>20.519999999999996</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="6"/>
         <v>2.7560315962456512</v>
       </c>
       <c r="F11" s="1">
@@ -44155,8 +44152,8 @@
         <v>36.284054267092948</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="7"/>
-        <v>266</v>
+        <f t="shared" si="6"/>
+        <v>272</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
@@ -44167,12 +44164,12 @@
         <v>36.284054267092948</v>
       </c>
       <c r="R11" s="1">
+        <f t="shared" si="7"/>
+        <v>23.989999999999995</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="8"/>
-        <v>24.527999999999999</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="9"/>
-        <v>0.79999999999999982</v>
+        <v>0.84499999999999986</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
@@ -44188,11 +44185,11 @@
         <v>178.30106226461177</v>
       </c>
       <c r="D12" s="1">
+        <f>(5+A12*2+10*B12)*MIN(1,0.8+A12*0.015)*T12</f>
+        <v>23.342523909636885</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="5"/>
-        <v>21.936347770502131</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="6"/>
         <v>2.9143049775406151</v>
       </c>
       <c r="F12" s="1">
@@ -44220,8 +44217,8 @@
         <v>45.980099472677765</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="7"/>
-        <v>310</v>
+        <f t="shared" si="6"/>
+        <v>316</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
@@ -44232,12 +44229,12 @@
         <v>46.666358204819915</v>
       </c>
       <c r="R12" s="1">
+        <f t="shared" si="7"/>
+        <v>27.033333333333328</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="8"/>
-        <v>27.959999999999997</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="9"/>
-        <v>0.7799999999999998</v>
+        <v>0.82999999999999985</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
@@ -44253,11 +44250,11 @@
         <v>192.85962647279004</v>
       </c>
       <c r="D13" s="1">
+        <f>(5+A13*2+10*B13)*MIN(1,0.8+A13*0.015)*T13</f>
+        <v>24.997230752272259</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="5"/>
-        <v>23.310301069603579</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="6"/>
         <v>3.0882180210188759</v>
       </c>
       <c r="F13" s="1">
@@ -44285,8 +44282,8 @@
         <v>56.604820516672874</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="7"/>
-        <v>358</v>
+        <f t="shared" si="6"/>
+        <v>364</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
@@ -44297,12 +44294,12 @@
         <v>58.286040290838585</v>
       </c>
       <c r="R13" s="1">
+        <f t="shared" si="7"/>
+        <v>30.293333333333326</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="8"/>
-        <v>31.607999999999997</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="9"/>
-        <v>0.75999999999999979</v>
+        <v>0.81499999999999984</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
@@ -44318,11 +44315,11 @@
         <v>207.48136566457546</v>
       </c>
       <c r="D14" s="1">
+        <f>(5+A14*2+10*B14)*MIN(1,0.8+A14*0.015)*T14</f>
+        <v>26.635981906045107</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="5"/>
-        <v>24.638283263091722</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="6"/>
         <v>3.2779990429166861</v>
       </c>
       <c r="F14" s="1">
@@ -44350,8 +44347,8 @@
         <v>68.939178249877529</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="7"/>
-        <v>410</v>
+        <f t="shared" si="6"/>
+        <v>416</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
@@ -44362,12 +44359,12 @@
         <v>71.995139995529954</v>
       </c>
       <c r="R14" s="1">
+        <f t="shared" si="7"/>
+        <v>33.759999999999991</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="8"/>
-        <v>35.455999999999996</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="9"/>
-        <v>0.73999999999999977</v>
+        <v>0.79999999999999982</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
@@ -44383,11 +44380,11 @@
         <v>222.17247101022971</v>
       </c>
       <c r="D15" s="1">
+        <f>(5+A15*2+10*B15)*MIN(1,0.8+A15*0.015)*T15</f>
+        <v>27.976627419913438</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="5"/>
-        <v>25.66009139151296</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="6"/>
         <v>3.4838813958578627</v>
       </c>
       <c r="F15" s="1">
@@ -44415,8 +44412,8 @@
         <v>84.581234268818264</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="7"/>
-        <v>466</v>
+        <f t="shared" si="6"/>
+        <v>472</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
@@ -44427,12 +44424,12 @@
         <v>89.555287493698927</v>
       </c>
       <c r="R15" s="1">
+        <f t="shared" si="7"/>
+        <v>37.423333333333325</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="8"/>
-        <v>39.487999999999992</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="9"/>
-        <v>0.71999999999999975</v>
+        <v>0.78499999999999981</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
@@ -44448,11 +44445,11 @@
         <v>236.939696961967</v>
       </c>
       <c r="D16" s="1">
+        <f>(5+A16*2+10*B16)*MIN(1,0.8+A16*0.015)*T16</f>
+        <v>29.12788888605456</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="5"/>
-        <v>26.479898987322326</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="6"/>
         <v>3.706103618080085</v>
       </c>
       <c r="F16" s="1">
@@ -44480,8 +44477,8 @@
         <v>99.819712197749396</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="7"/>
-        <v>526</v>
+        <f t="shared" si="6"/>
+        <v>532</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
@@ -44492,12 +44489,12 @@
         <v>107.12058833521293</v>
       </c>
       <c r="R16" s="1">
+        <f t="shared" si="7"/>
+        <v>41.273333333333326</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="8"/>
-        <v>43.687999999999988</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="9"/>
-        <v>0.69999999999999973</v>
+        <v>0.7699999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.4">
@@ -44513,11 +44510,11 @@
         <v>251.79041021796658</v>
       </c>
       <c r="D17" s="1">
+        <f>(5+A17*2+10*B17)*MIN(1,0.8+A17*0.015)*T17</f>
+        <v>30.223732015430695</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="5"/>
-        <v>27.221374530454131</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="6"/>
         <v>3.9449095882293386</v>
       </c>
       <c r="F17" s="1">
@@ -44545,8 +44542,8 @@
         <v>115.63370735942512</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="7"/>
-        <v>590</v>
+        <f t="shared" si="6"/>
+        <v>596</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
@@ -44557,12 +44554,12 @@
         <v>125.73165212200166</v>
       </c>
       <c r="R17" s="1">
+        <f t="shared" si="7"/>
+        <v>45.29999999999999</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="8"/>
-        <v>48.039999999999985</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="9"/>
-        <v>0.67999999999999972</v>
+        <v>0.75499999999999978</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.4">
@@ -44578,11 +44575,11 @@
         <v>266.73264281331137</v>
       </c>
       <c r="D18" s="1">
+        <f>(5+A18*2+10*B18)*MIN(1,0.8+A18*0.015)*T18</f>
+        <v>31.26426709321445</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="5"/>
-        <v>27.884346326380449</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="6"/>
         <v>4.2005486859736996</v>
       </c>
       <c r="F18" s="1">
@@ -44610,8 +44607,8 @@
         <v>132.71803522674682</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="7"/>
-        <v>658</v>
+        <f t="shared" si="6"/>
+        <v>664</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
@@ -44622,12 +44619,12 @@
         <v>146.17138043185733</v>
       </c>
       <c r="R18" s="1">
+        <f t="shared" si="7"/>
+        <v>49.493333333333325</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="8"/>
-        <v>52.527999999999984</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="9"/>
-        <v>0.6599999999999997</v>
+        <v>0.73999999999999977</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
@@ -44643,11 +44640,11 @@
         <v>281.77514967802489</v>
       </c>
       <c r="D19" s="1">
+        <f>(5+A19*2+10*B19)*MIN(1,0.8+A19*0.015)*T19</f>
+        <v>32.249596633558753</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="5"/>
-        <v>28.468609442038062</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="6"/>
         <v>4.4732759587009721</v>
       </c>
       <c r="F19" s="1">
@@ -44675,8 +44672,8 @@
         <v>152.33869038125999</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="7"/>
-        <v>730</v>
+        <f t="shared" si="6"/>
+        <v>736</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
@@ -44687,12 +44684,12 @@
         <v>169.89785718936554</v>
       </c>
       <c r="R19" s="1">
+        <f t="shared" si="7"/>
+        <v>53.843333333333327</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="8"/>
-        <v>57.135999999999981</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="9"/>
-        <v>0.63999999999999968</v>
+        <v>0.72499999999999976</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
@@ -44708,11 +44705,11 @@
         <v>296.92747102995162</v>
       </c>
       <c r="D20" s="1">
+        <f>(5+A20*2+10*B20)*MIN(1,0.8+A20*0.015)*T20</f>
+        <v>33.179813695964519</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="5"/>
-        <v>28.973921819011267</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="6"/>
         <v>4.7633522945788345</v>
       </c>
       <c r="F20" s="1">
@@ -44740,8 +44737,8 @@
         <v>171.62828130660006</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="7"/>
-        <v>806</v>
+        <f t="shared" si="6"/>
+        <v>812</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
@@ -44752,12 +44749,12 @@
         <v>193.77109710118759</v>
       </c>
       <c r="R20" s="1">
+        <f t="shared" si="7"/>
+        <v>58.339999999999989</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="8"/>
-        <v>61.847999999999978</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="9"/>
-        <v>0.61999999999999966</v>
+        <v>0.70999999999999974</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.4">
@@ -44773,11 +44770,11 @@
         <v>330.86666666666667</v>
       </c>
       <c r="D21" s="1">
+        <f>(5+A21*2+10*B21)*MIN(1,0.8+A21*0.015)*T21</f>
+        <v>38.688333333333318</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="5"/>
-        <v>33.399999999999977</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="6"/>
         <v>5.071044602271142</v>
       </c>
       <c r="F21" s="1">
@@ -44805,8 +44802,8 @@
         <v>217.28241407040068</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="7"/>
-        <v>886</v>
+        <f t="shared" si="6"/>
+        <v>892</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
@@ -44817,12 +44814,12 @@
         <v>248.27231837719162</v>
       </c>
       <c r="R21" s="1">
+        <f t="shared" si="7"/>
+        <v>62.973333333333322</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="8"/>
-        <v>66.647999999999968</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="9"/>
-        <v>0.59999999999999964</v>
+        <v>0.69499999999999973</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
@@ -44838,11 +44835,11 @@
         <v>383.18405591942678</v>
       </c>
       <c r="D22" s="1">
+        <f>(5+A22*2+10*B22)*MIN(1,0.8+A22*0.015)*T22</f>
+        <v>41.092401164352331</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="5"/>
-        <v>35.846562717839262</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="6"/>
         <v>5.3966259976199789</v>
       </c>
       <c r="F22" s="1">
@@ -44870,8 +44867,8 @@
         <v>240.10285878439808</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="7"/>
-        <v>970</v>
+        <f t="shared" si="6"/>
+        <v>976</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
@@ -44882,12 +44879,12 @@
         <v>277.5808441534856</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="8"/>
-        <v>71.813999999999965</v>
+        <f t="shared" si="7"/>
+        <v>67.908333333333317</v>
       </c>
       <c r="T22">
-        <f>MIN(1.2,T21+0.015)</f>
-        <v>0.61499999999999966</v>
+        <f>MIN(1.2,T21+0.01)</f>
+        <v>0.70499999999999974</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.4">
@@ -44903,11 +44900,11 @@
         <v>435.73863040023014</v>
       </c>
       <c r="D23" s="1">
+        <f>(5+A23*2+10*B23)*MIN(1,0.8+A23*0.015)*T23</f>
+        <v>43.563610628624836</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="5"/>
-        <v>38.384719854592504</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="6"/>
         <v>5.7403759976199789</v>
       </c>
       <c r="F23" s="1">
@@ -44935,8 +44932,8 @@
         <v>264.71469841227844</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="7"/>
-        <v>1058</v>
+        <f t="shared" si="6"/>
+        <v>1064</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
@@ -44947,12 +44944,12 @@
         <v>309.56160375849305</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="8"/>
-        <v>77.357999999999961</v>
+        <f t="shared" si="7"/>
+        <v>73.151666666666642</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T86" si="10">MIN(1.2,T22+0.015)</f>
-        <v>0.62999999999999967</v>
+        <f t="shared" ref="T23:T31" si="9">MIN(1.2,T22+0.01)</f>
+        <v>0.71499999999999975</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
@@ -44968,11 +44965,11 @@
         <v>488.54380671054918</v>
       </c>
       <c r="D24" s="1">
+        <f>(5+A24*2+10*B24)*MIN(1,0.8+A24*0.015)*T24</f>
+        <v>46.103652132033574</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="5"/>
-        <v>41.016352586429861</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="6"/>
         <v>6.1025807220294279</v>
       </c>
       <c r="F24" s="1">
@@ -45000,8 +44997,8 @@
         <v>289.04338482818088</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="7"/>
-        <v>1150</v>
+        <f t="shared" si="6"/>
+        <v>1156</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
@@ -45012,12 +45009,12 @@
         <v>341.82259850653736</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="8"/>
-        <v>83.291999999999959</v>
+        <f t="shared" si="7"/>
+        <v>78.70999999999998</v>
       </c>
       <c r="T24">
-        <f t="shared" si="10"/>
-        <v>0.64499999999999968</v>
+        <f t="shared" si="9"/>
+        <v>0.72499999999999976</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
@@ -45033,11 +45030,11 @@
         <v>541.61418632078767</v>
       </c>
       <c r="D25" s="1">
+        <f>(5+A25*2+10*B25)*MIN(1,0.8+A25*0.015)*T25</f>
+        <v>48.714353257672293</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="5"/>
-        <v>43.743500884440422</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="6"/>
         <v>6.4835331029818093</v>
       </c>
       <c r="F25" s="1">
@@ -45065,8 +45062,8 @@
         <v>332.94672427236435</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="7"/>
-        <v>1246</v>
+        <f t="shared" si="6"/>
+        <v>1252</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
@@ -45077,12 +45074,12 @@
         <v>398.0854202491825</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="8"/>
-        <v>89.627999999999957</v>
+        <f t="shared" si="7"/>
+        <v>84.589999999999975</v>
       </c>
       <c r="T25">
-        <f t="shared" si="10"/>
-        <v>0.6599999999999997</v>
+        <f t="shared" si="9"/>
+        <v>0.73499999999999976</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
@@ -45098,11 +45095,11 @@
         <v>594.96565653988989</v>
       </c>
       <c r="D26" s="1">
+        <f>(5+A26*2+10*B26)*MIN(1,0.8+A26*0.015)*T26</f>
+        <v>51.397689749205142</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="5"/>
-        <v>46.568376618407335</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="6"/>
         <v>6.8835331029818096</v>
       </c>
       <c r="F26" s="1">
@@ -45130,8 +45127,8 @@
         <v>359.65548185428793</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="7"/>
-        <v>1346</v>
+        <f t="shared" si="6"/>
+        <v>1352</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
@@ -45142,12 +45139,12 @@
         <v>434.6605086716188</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="8"/>
-        <v>96.377999999999957</v>
+        <f t="shared" si="7"/>
+        <v>90.798333333333304</v>
       </c>
       <c r="T26">
-        <f t="shared" si="10"/>
-        <v>0.67499999999999971</v>
+        <f t="shared" si="9"/>
+        <v>0.74499999999999977</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
@@ -45163,11 +45160,11 @@
         <v>648.61549987505805</v>
       </c>
       <c r="D27" s="1">
+        <f>(5+A27*2+10*B27)*MIN(1,0.8+A27*0.015)*T27</f>
+        <v>54.155797364194719</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="5"/>
-        <v>49.493377723568678</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="6"/>
         <v>7.3028879416914867</v>
       </c>
       <c r="F27" s="1">
@@ -45195,8 +45192,8 @@
         <v>387.70707653991127</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="7"/>
-        <v>1450</v>
+        <f t="shared" si="6"/>
+        <v>1456</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
@@ -45207,12 +45204,12 @@
         <v>473.51130506311205</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="8"/>
-        <v>103.55399999999996</v>
+        <f t="shared" si="7"/>
+        <v>97.34166666666664</v>
       </c>
       <c r="T27">
-        <f t="shared" si="10"/>
-        <v>0.68999999999999972</v>
+        <f t="shared" si="9"/>
+        <v>0.75499999999999978</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
@@ -45228,11 +45225,11 @@
         <v>702.58251246581256</v>
       </c>
       <c r="D28" s="1">
+        <f>(5+A28*2+10*B28)*MIN(1,0.8+A28*0.015)*T28</f>
+        <v>56.990984665700147</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="5"/>
-        <v>52.521103515449148</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="6"/>
         <v>7.7419123319353895</v>
       </c>
       <c r="F28" s="1">
@@ -45260,8 +45257,8 @@
         <v>415.26011179406072</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="7"/>
-        <v>1558</v>
+        <f t="shared" si="6"/>
+        <v>1564</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
@@ -45272,12 +45269,12 @@
         <v>512.40569899456557</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="8"/>
-        <v>111.16799999999995</v>
+        <f t="shared" si="7"/>
+        <v>104.22666666666663</v>
       </c>
       <c r="T28">
-        <f t="shared" si="10"/>
-        <v>0.70499999999999974</v>
+        <f t="shared" si="9"/>
+        <v>0.76499999999999979</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
@@ -45293,11 +45290,11 @@
         <v>756.88713233163298</v>
       </c>
       <c r="D29" s="1">
+        <f>(5+A29*2+10*B29)*MIN(1,0.8+A29*0.015)*T29</f>
+        <v>59.905746825769285</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="5"/>
-        <v>55.654371244585654</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="6"/>
         <v>8.200928725378013</v>
       </c>
       <c r="F29" s="1">
@@ -45325,8 +45322,8 @@
         <v>457.54813294473848</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="7"/>
-        <v>1670</v>
+        <f t="shared" si="6"/>
+        <v>1676</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
@@ -45337,12 +45334,12 @@
         <v>570.30126179817751</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="8"/>
-        <v>119.23199999999994</v>
+        <f t="shared" si="7"/>
+        <v>111.45999999999997</v>
       </c>
       <c r="T29">
-        <f t="shared" si="10"/>
-        <v>0.71999999999999975</v>
+        <f t="shared" si="9"/>
+        <v>0.7749999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
@@ -45358,11 +45355,11 @@
         <v>811.55157823178206</v>
       </c>
       <c r="D30" s="1">
+        <f>(5+A30*2+10*B30)*MIN(1,0.8+A30*0.015)*T30</f>
+        <v>62.902780520184471</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="5"/>
-        <v>58.896233990236411</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="6"/>
         <v>8.6802675683532193</v>
       </c>
       <c r="F30" s="1">
@@ -45390,8 +45387,8 @@
         <v>486.79512954386934</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="7"/>
-        <v>1786</v>
+        <f t="shared" si="6"/>
+        <v>1792</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
@@ -45402,12 +45399,12 @@
         <v>612.76912930566448</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="8"/>
-        <v>127.75799999999994</v>
+        <f t="shared" si="7"/>
+        <v>119.04833333333329</v>
       </c>
       <c r="T30">
-        <f t="shared" si="10"/>
-        <v>0.73499999999999976</v>
+        <f t="shared" si="9"/>
+        <v>0.78499999999999981</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
@@ -45423,11 +45420,11 @@
         <v>1076.5999999999999</v>
       </c>
       <c r="D31" s="1">
+        <f>(5+A31*2+10*B31)*MIN(1,0.8+A31*0.015)*T31</f>
+        <v>105.73499999999997</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="5"/>
-        <v>99.749999999999972</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="6"/>
         <v>9.1802675683532193</v>
       </c>
       <c r="F31" s="1">
@@ -45455,8 +45452,8 @@
         <v>579.18498901503131</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="7"/>
-        <v>1906</v>
+        <f t="shared" si="6"/>
+        <v>1912</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
@@ -45467,12 +45464,12 @@
         <v>736.1441210381048</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="8"/>
-        <v>136.75799999999992</v>
+        <f t="shared" si="7"/>
+        <v>126.99833333333329</v>
       </c>
       <c r="T31">
-        <f t="shared" si="10"/>
-        <v>0.74999999999999978</v>
+        <f t="shared" si="9"/>
+        <v>0.79499999999999982</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
@@ -45488,11 +45485,11 @@
         <v>1139.0586412859268</v>
       </c>
       <c r="D32" s="1">
+        <f>(5+A32*2+10*B32)*MIN(1,0.8+A32*0.015)*T32</f>
+        <v>110.08509203723516</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="5"/>
-        <v>103.96925359072209</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="6"/>
         <v>9.7012759717145638</v>
       </c>
       <c r="F32" s="1">
@@ -45520,8 +45517,8 @@
         <v>611.5265210554121</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="7"/>
-        <v>2030</v>
+        <f t="shared" si="6"/>
+        <v>2036</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
@@ -45532,12 +45529,12 @@
         <v>784.63905389289596</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="8"/>
-        <v>146.24399999999991</v>
+        <f t="shared" si="7"/>
+        <v>135.36833333333328</v>
       </c>
       <c r="T32">
-        <f t="shared" si="10"/>
-        <v>0.76499999999999979</v>
+        <f t="shared" ref="T23:T86" si="10">MIN(1.2,T31+0.015)</f>
+        <v>0.80999999999999983</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.4">
@@ -45553,11 +45550,11 @@
         <v>1201.9560157097603</v>
       </c>
       <c r="D33" s="1">
+        <f>(5+A33*2+10*B33)*MIN(1,0.8+A33*0.015)*T33</f>
+        <v>114.5564091429804</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="5"/>
-        <v>108.30787773518146</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="6"/>
         <v>10.243648853070496</v>
       </c>
       <c r="F33" s="1">
@@ -45585,8 +45582,8 @@
         <v>655.06580466287028</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="7"/>
-        <v>2158</v>
+        <f t="shared" si="6"/>
+        <v>2164</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
@@ -45597,12 +45594,12 @@
         <v>848.33052407836146</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="8"/>
-        <v>156.22799999999992</v>
+        <f t="shared" si="7"/>
+        <v>144.16833333333329</v>
       </c>
       <c r="T33">
         <f t="shared" si="10"/>
-        <v>0.7799999999999998</v>
+        <v>0.82499999999999984</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.4">
@@ -45618,11 +45615,11 @@
         <v>1265.323097517228</v>
       </c>
       <c r="D34" s="1">
+        <f>(5+A34*2+10*B34)*MIN(1,0.8+A34*0.015)*T34</f>
+        <v>119.1532904576778</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="5"/>
-        <v>112.77007846887363</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="6"/>
         <v>10.80775141717306</v>
       </c>
       <c r="F34" s="1">
@@ -45650,8 +45647,8 @@
         <v>688.3287321236869</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="7"/>
-        <v>2290</v>
+        <f t="shared" si="6"/>
+        <v>2296</v>
       </c>
       <c r="O34">
         <f t="shared" ref="O34:O65" si="13">MAX(1,1+(1-POWER(1-(A34-10)/200,3)))</f>
@@ -45662,12 +45659,12 @@
         <v>899.53956421982036</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="8"/>
-        <v>166.72199999999992</v>
+        <f t="shared" si="7"/>
+        <v>153.4083333333333</v>
       </c>
       <c r="T34">
         <f t="shared" si="10"/>
-        <v>0.79499999999999982</v>
+        <v>0.83999999999999986</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.4">
@@ -45683,8 +45680,8 @@
         <v>1329.1935279088984</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="5"/>
-        <v>117.36041126180834</v>
+        <f>(5+A35*2+10*B35)*MIN(1,0.8+A35*0.015)*T35</f>
+        <v>123.88043410968659</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" ref="E35:E60" si="14">E34+A35/(75-A35/2)</f>
@@ -45716,7 +45713,7 @@
       </c>
       <c r="M35" s="1">
         <f t="shared" ref="M35:M66" si="15">M34+A35*4</f>
-        <v>2426</v>
+        <v>2432</v>
       </c>
       <c r="O35">
         <f t="shared" si="13"/>
@@ -45727,12 +45724,12 @@
         <v>1015.8892705493874</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="8"/>
-        <v>177.73799999999991</v>
+        <f t="shared" si="7"/>
+        <v>163.0983333333333</v>
       </c>
       <c r="T35">
         <f t="shared" si="10"/>
-        <v>0.80999999999999983</v>
+        <v>0.85499999999999987</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.4">
@@ -45748,8 +45745,8 @@
         <v>1393.603838311692</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
-        <v>122.08380951166239</v>
+        <f>(5+A36*2+10*B36)*MIN(1,0.8+A36*0.015)*T36</f>
+        <v>128.74292639411672</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="14"/>
@@ -45781,7 +45778,7 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" si="15"/>
-        <v>2566</v>
+        <v>2572</v>
       </c>
       <c r="O36">
         <f t="shared" si="13"/>
@@ -45792,12 +45789,12 @@
         <v>1072.1795393387761</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="8"/>
-        <v>189.2879999999999</v>
+        <f t="shared" si="7"/>
+        <v>173.24833333333331</v>
       </c>
       <c r="T36">
         <f t="shared" si="10"/>
-        <v>0.82499999999999984</v>
+        <v>0.86999999999999988</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
@@ -45813,8 +45810,8 @@
         <v>1458.5936919616991</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
-        <v>126.94561532694986</v>
+        <f>(5+A37*2+10*B37)*MIN(1,0.8+A37*0.015)*T37</f>
+        <v>135.25753061621444</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="14"/>
@@ -45846,7 +45843,7 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" si="15"/>
-        <v>2710</v>
+        <v>2716</v>
       </c>
       <c r="O37">
         <f t="shared" si="13"/>
@@ -45857,12 +45854,12 @@
         <v>1140.4728802228435</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="8"/>
-        <v>201.3839999999999</v>
+        <f t="shared" si="7"/>
+        <v>183.98833333333332</v>
       </c>
       <c r="T37">
-        <f t="shared" si="10"/>
-        <v>0.83999999999999986</v>
+        <f>MIN(1.25,T36+0.025)</f>
+        <v>0.89499999999999991</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
@@ -45878,8 +45875,8 @@
         <v>1524.2061452766711</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
-        <v>131.95161278215326</v>
+        <f>(5+A38*2+10*B38)*MIN(1,0.8+A38*0.015)*T38</f>
+        <v>141.98302194103042</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="14"/>
@@ -45911,7 +45908,7 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" si="15"/>
-        <v>2858</v>
+        <v>2864</v>
       </c>
       <c r="O38">
         <f t="shared" si="13"/>
@@ -45922,12 +45919,12 @@
         <v>1198.7267607536389</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="8"/>
-        <v>214.0379999999999</v>
+        <f t="shared" si="7"/>
+        <v>195.33499999999998</v>
       </c>
       <c r="T38">
-        <f t="shared" si="10"/>
-        <v>0.85499999999999987</v>
+        <f t="shared" ref="T38:T100" si="16">MIN(1.25,T37+0.025)</f>
+        <v>0.91999999999999993</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.4">
@@ -45943,8 +45940,8 @@
         <v>1590.4879306144326</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="5"/>
-        <v>137.10806384108204</v>
+        <f>(5+A39*2+10*B39)*MIN(1,0.8+A39*0.015)*T39</f>
+        <v>148.9277245170374</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="14"/>
@@ -45976,7 +45973,7 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" si="15"/>
-        <v>3010</v>
+        <v>3016</v>
       </c>
       <c r="O39">
         <f t="shared" si="13"/>
@@ -45987,12 +45984,12 @@
         <v>1309.881884822996</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="8"/>
-        <v>227.26199999999989</v>
+        <f t="shared" si="7"/>
+        <v>207.30499999999998</v>
       </c>
       <c r="T39">
-        <f t="shared" si="10"/>
-        <v>0.86999999999999988</v>
+        <f t="shared" si="16"/>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.4">
@@ -46008,8 +46005,8 @@
         <v>1657.4897621406553</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="5"/>
-        <v>142.42174716016117</v>
+        <f>(5+A40*2+10*B40)*MIN(1,0.8+A40*0.015)*T40</f>
+        <v>156.10067202865125</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="14"/>
@@ -46041,7 +46038,7 @@
       </c>
       <c r="M40" s="1">
         <f t="shared" si="15"/>
-        <v>3166</v>
+        <v>3172</v>
       </c>
       <c r="O40">
         <f t="shared" si="13"/>
@@ -46052,12 +46049,12 @@
         <v>1372.1531289343468</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="8"/>
-        <v>241.06799999999987</v>
+        <f t="shared" si="7"/>
+        <v>219.91499999999996</v>
       </c>
       <c r="T40">
-        <f t="shared" si="10"/>
-        <v>0.8849999999999999</v>
+        <f t="shared" si="16"/>
+        <v>0.97</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.4">
@@ -46073,8 +46070,8 @@
         <v>1949.2666666666664</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="5"/>
-        <v>183.89999999999998</v>
+        <f>(5+A41*2+10*B41)*MIN(1,0.8+A41*0.015)*T41</f>
+        <v>203.31166666666664</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="14"/>
@@ -46106,7 +46103,7 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" si="15"/>
-        <v>3326</v>
+        <v>3332</v>
       </c>
       <c r="O41">
         <f t="shared" si="13"/>
@@ -46117,12 +46114,12 @@
         <v>1583.8134199945416</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="8"/>
-        <v>255.46799999999988</v>
+        <f t="shared" si="7"/>
+        <v>233.18166666666662</v>
       </c>
       <c r="T41">
-        <f t="shared" si="10"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="16"/>
+        <v>0.995</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.4">
@@ -46138,8 +46135,8 @@
         <v>2029.2183414659996</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="5"/>
-        <v>191.06576349153133</v>
+        <f>(5+A42*2+10*B42)*MIN(1,0.8+A42*0.015)*T42</f>
+        <v>212.99134290859232</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="14"/>
@@ -46171,7 +46168,7 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" si="15"/>
-        <v>3490</v>
+        <v>3496</v>
       </c>
       <c r="O42">
         <f t="shared" si="13"/>
@@ -46182,12 +46179,12 @@
         <v>1652.2042185945691</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="8"/>
-        <v>270.47399999999988</v>
+        <f t="shared" si="7"/>
+        <v>247.12166666666661</v>
       </c>
       <c r="T42">
-        <f t="shared" si="10"/>
-        <v>0.91499999999999992</v>
+        <f t="shared" si="16"/>
+        <v>1.02</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.4">
@@ -46203,8 +46200,8 @@
         <v>2110.3495412381208</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="5"/>
-        <v>198.44263152235584</v>
+        <f>(5+A43*2+10*B43)*MIN(1,0.8+A43*0.015)*T43</f>
+        <v>222.98123649555041</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="14"/>
@@ -46236,7 +46233,7 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" si="15"/>
-        <v>3658</v>
+        <v>3664</v>
       </c>
       <c r="O43">
         <f t="shared" si="13"/>
@@ -46247,12 +46244,12 @@
         <v>1764.0298191546603</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="8"/>
-        <v>286.0979999999999</v>
+        <f t="shared" si="7"/>
+        <v>261.75166666666661</v>
       </c>
       <c r="T43">
-        <f t="shared" si="10"/>
-        <v>0.92999999999999994</v>
+        <f t="shared" si="16"/>
+        <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.4">
@@ -46268,8 +46265,8 @@
         <v>2192.7304965600492</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="5"/>
-        <v>206.03990352977513</v>
+        <f>(5+A44*2+10*B44)*MIN(1,0.8+A44*0.015)*T44</f>
+        <v>233.2938590231316</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="14"/>
@@ -46301,7 +46298,7 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" si="15"/>
-        <v>3830</v>
+        <v>3836</v>
       </c>
       <c r="O44">
         <f t="shared" si="13"/>
@@ -46312,12 +46309,12 @@
         <v>1835.4385963330706</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="8"/>
-        <v>302.35199999999992</v>
+        <f t="shared" si="7"/>
+        <v>277.08833333333325</v>
       </c>
       <c r="T44">
-        <f t="shared" si="10"/>
-        <v>0.94499999999999995</v>
+        <f t="shared" si="16"/>
+        <v>1.0699999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.4">
@@ -46333,8 +46330,8 @@
         <v>2276.437366352443</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="5"/>
-        <v>213.86764150947164</v>
+        <f>(5+A45*2+10*B45)*MIN(1,0.8+A45*0.015)*T45</f>
+        <v>243.94277859674105</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="14"/>
@@ -46366,7 +46363,7 @@
       </c>
       <c r="M45" s="1">
         <f t="shared" si="15"/>
-        <v>4006</v>
+        <v>4012</v>
       </c>
       <c r="O45">
         <f t="shared" si="13"/>
@@ -46377,12 +46374,12 @@
         <v>2030.5311962347832</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="8"/>
-        <v>319.24799999999993</v>
+        <f t="shared" si="7"/>
+        <v>293.14833333333326</v>
       </c>
       <c r="T45">
-        <f t="shared" si="10"/>
-        <v>0.96</v>
+        <f t="shared" si="16"/>
+        <v>1.0949999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.4">
@@ -46398,8 +46395,8 @@
         <v>2361.5527270872076</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="5"/>
-        <v>221.93673157302027</v>
+        <f>(5+A46*2+10*B46)*MIN(1,0.8+A46*0.015)*T46</f>
+        <v>254.94270703772577</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="14"/>
@@ -46431,7 +46428,7 @@
       </c>
       <c r="M46" s="1">
         <f t="shared" si="15"/>
-        <v>4186</v>
+        <v>4192</v>
       </c>
       <c r="O46">
         <f t="shared" si="13"/>
@@ -46442,12 +46439,12 @@
         <v>2107.0315767274951</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="8"/>
-        <v>336.79799999999994</v>
+        <f t="shared" si="7"/>
+        <v>309.94833333333327</v>
       </c>
       <c r="T46">
-        <f t="shared" si="10"/>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="16"/>
+        <v>1.1199999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.4">
@@ -46463,8 +46460,8 @@
         <v>2448.1661016798976</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="5"/>
-        <v>230.25895041352467</v>
+        <f>(5+A47*2+10*B47)*MIN(1,0.8+A47*0.015)*T47</f>
+        <v>266.30959416513701</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="14"/>
@@ -46496,7 +46493,7 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" si="15"/>
-        <v>4370</v>
+        <v>4376</v>
       </c>
       <c r="O47">
         <f t="shared" si="13"/>
@@ -46507,12 +46504,12 @@
         <v>2219.430832228406</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="8"/>
-        <v>355.01399999999995</v>
+        <f t="shared" si="7"/>
+        <v>327.50499999999994</v>
       </c>
       <c r="T47">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="16"/>
+        <v>1.1449999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.4">
@@ -46528,8 +46525,8 @@
         <v>2536.3745312434353</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="5"/>
-        <v>238.84703706681651</v>
+        <f>(5+A48*2+10*B48)*MIN(1,0.8+A48*0.015)*T48</f>
+        <v>278.06072971957735</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="14"/>
@@ -46561,7 +46558,7 @@
       </c>
       <c r="M48" s="1">
         <f t="shared" si="15"/>
-        <v>4558</v>
+        <v>4564</v>
       </c>
       <c r="O48">
         <f t="shared" si="13"/>
@@ -46572,12 +46569,12 @@
         <v>2297.9799486905249</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="8"/>
-        <v>373.90799999999996</v>
+        <f t="shared" si="7"/>
+        <v>345.83499999999992</v>
       </c>
       <c r="T48">
-        <f t="shared" si="10"/>
-        <v>1.0049999999999999</v>
+        <f t="shared" si="16"/>
+        <v>1.1699999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.4">
@@ -46593,8 +46590,8 @@
         <v>2626.2831931311985</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="5"/>
-        <v>247.71477038598545</v>
+        <f>(5+A49*2+10*B49)*MIN(1,0.8+A49*0.015)*T49</f>
+        <v>290.21485354044364</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="14"/>
@@ -46626,7 +46623,7 @@
       </c>
       <c r="M49" s="1">
         <f t="shared" si="15"/>
-        <v>4750</v>
+        <v>4756</v>
       </c>
       <c r="O49">
         <f t="shared" si="13"/>
@@ -46637,12 +46634,12 @@
         <v>2479.9612043559387</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="8"/>
-        <v>393.49199999999996</v>
+        <f t="shared" si="7"/>
+        <v>364.95499999999993</v>
       </c>
       <c r="T49">
-        <f t="shared" si="10"/>
-        <v>1.0199999999999998</v>
+        <f t="shared" si="16"/>
+        <v>1.1949999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.4">
@@ -46658,8 +46655,8 @@
         <v>2718.0060689688266</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="5"/>
-        <v>256.87705267969898</v>
+        <f>(5+A50*2+10*B50)*MIN(1,0.8+A50*0.015)*T50</f>
+        <v>302.79227465626349</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="14"/>
@@ -46691,7 +46688,7 @@
       </c>
       <c r="M50" s="1">
         <f t="shared" si="15"/>
-        <v>4946</v>
+        <v>4952</v>
       </c>
       <c r="O50">
         <f t="shared" si="13"/>
@@ -46702,12 +46699,12 @@
         <v>2562.6204254162085</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="8"/>
-        <v>413.77799999999996</v>
+        <f t="shared" si="7"/>
+        <v>384.8816666666666</v>
       </c>
       <c r="T50">
-        <f t="shared" si="10"/>
-        <v>1.0349999999999997</v>
+        <f t="shared" si="16"/>
+        <v>1.2199999999999993</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.4">
@@ -46723,8 +46720,8 @@
         <v>2811.6666666666665</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="5"/>
-        <v>266.34999999999991</v>
+        <f>(5+A51*2+10*B51)*MIN(1,0.8+A51*0.015)*T51</f>
+        <v>315.81499999999983</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="14"/>
@@ -46756,7 +46753,7 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" si="15"/>
-        <v>5146</v>
+        <v>5152</v>
       </c>
       <c r="O51">
         <f t="shared" si="13"/>
@@ -46767,12 +46764,12 @@
         <v>2878.9142832367152</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="8"/>
-        <v>434.77799999999996</v>
+        <f t="shared" si="7"/>
+        <v>405.6316666666666</v>
       </c>
       <c r="T51">
-        <f t="shared" si="10"/>
-        <v>1.0499999999999996</v>
+        <f t="shared" si="16"/>
+        <v>1.2449999999999992</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.4">
@@ -46788,8 +46785,8 @@
         <v>2907.398800720292</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="5"/>
-        <v>276.15103960323671</v>
+        <f>(5+A52*2+10*B52)*MIN(1,0.8+A52*0.015)*T52</f>
+        <v>324.12093850145169</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="14"/>
@@ -46821,7 +46818,7 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" si="15"/>
-        <v>5350</v>
+        <v>5356</v>
       </c>
       <c r="O52">
         <f t="shared" si="13"/>
@@ -46832,12 +46829,12 @@
         <v>2967.5089042279624</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="8"/>
-        <v>456.50399999999996</v>
+        <f t="shared" si="7"/>
+        <v>426.8816666666666</v>
       </c>
       <c r="T52">
-        <f t="shared" si="10"/>
-        <v>1.0649999999999995</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.4">
@@ -46853,8 +46850,8 @@
         <v>3005.3474354467758</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="5"/>
-        <v>286.29901514869738</v>
+        <f>(5+A53*2+10*B53)*MIN(1,0.8+A53*0.015)*T53</f>
+        <v>331.36460086654807</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="14"/>
@@ -46886,7 +46883,7 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" si="15"/>
-        <v>5558</v>
+        <v>5564</v>
       </c>
       <c r="O53">
         <f t="shared" si="13"/>
@@ -46897,12 +46894,12 @@
         <v>3143.1373534576137</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="8"/>
-        <v>478.96799999999996</v>
+        <f t="shared" si="7"/>
+        <v>448.54833333333329</v>
       </c>
       <c r="T53">
-        <f t="shared" si="10"/>
-        <v>1.0799999999999994</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.4">
@@ -46918,8 +46915,8 @@
         <v>3105.669596171283</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="5"/>
-        <v>296.81430024360571</v>
+        <f>(5+A54*2+10*B54)*MIN(1,0.8+A54*0.015)*T54</f>
+        <v>338.82910986713</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="14"/>
@@ -46951,7 +46948,7 @@
       </c>
       <c r="M54" s="1">
         <f t="shared" si="15"/>
-        <v>5770</v>
+        <v>5776</v>
       </c>
       <c r="O54">
         <f t="shared" si="13"/>
@@ -46962,12 +46959,12 @@
         <v>3234.7911614924415</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="8"/>
-        <v>502.18199999999996</v>
+        <f t="shared" si="7"/>
+        <v>470.6316666666666</v>
       </c>
       <c r="T54">
-        <f t="shared" si="10"/>
-        <v>1.0949999999999993</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.4">
@@ -46983,8 +46980,8 @@
         <v>3208.535353774178</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="5"/>
-        <v>307.71892099065298</v>
+        <f>(5+A55*2+10*B55)*MIN(1,0.8+A55*0.015)*T55</f>
+        <v>346.53031643091572</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="14"/>
@@ -47016,7 +47013,7 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>5986</v>
+        <v>5992</v>
       </c>
       <c r="O55">
         <f t="shared" si="13"/>
@@ -47027,12 +47024,12 @@
         <v>3524.2701883530558</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="8"/>
-        <v>526.1579999999999</v>
+        <f t="shared" si="7"/>
+        <v>493.1316666666666</v>
       </c>
       <c r="T55">
-        <f t="shared" si="10"/>
-        <v>1.1099999999999992</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.4">
@@ -47048,8 +47045,8 @@
         <v>3314.1288884353971</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="5"/>
-        <v>319.03668824543115</v>
+        <f>(5+A56*2+10*B56)*MIN(1,0.8+A56*0.015)*T56</f>
+        <v>354.48520916159049</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="14"/>
@@ -47081,7 +47078,7 @@
       </c>
       <c r="M56" s="1">
         <f t="shared" si="15"/>
-        <v>6206</v>
+        <v>6212</v>
       </c>
       <c r="O56">
         <f t="shared" si="13"/>
@@ -47092,12 +47089,12 @@
         <v>3620.6477724682509</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="8"/>
-        <v>550.9079999999999</v>
+        <f t="shared" si="7"/>
+        <v>516.04833333333329</v>
       </c>
       <c r="T56">
-        <f t="shared" si="10"/>
-        <v>1.1249999999999991</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.4">
@@ -47113,8 +47110,8 @@
         <v>3422.6496388727951</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="5"/>
-        <v>330.79334034629903</v>
+        <f>(5+A57*2+10*B57)*MIN(1,0.8+A57*0.015)*T57</f>
+        <v>362.71199599374927</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="14"/>
@@ -47146,7 +47143,7 @@
       </c>
       <c r="M57" s="1">
         <f t="shared" si="15"/>
-        <v>6430</v>
+        <v>6436</v>
       </c>
       <c r="O57">
         <f t="shared" si="13"/>
@@ -47157,12 +47154,12 @@
         <v>3790.8226490260427</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="8"/>
-        <v>576.44399999999985</v>
+        <f t="shared" si="7"/>
+        <v>539.38166666666666</v>
       </c>
       <c r="T57">
-        <f t="shared" si="10"/>
-        <v>1.139999999999999</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.4">
@@ -47178,8 +47175,8 @@
         <v>3534.3135438670561</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="5"/>
-        <v>343.0166971386526</v>
+        <f>(5+A58*2+10*B58)*MIN(1,0.8+A58*0.015)*T58</f>
+        <v>371.23019170849886</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="14"/>
@@ -47211,7 +47208,7 @@
       </c>
       <c r="M58" s="1">
         <f t="shared" si="15"/>
-        <v>6658</v>
+        <v>6664</v>
       </c>
       <c r="O58">
         <f t="shared" si="13"/>
@@ -47222,12 +47219,12 @@
         <v>3889.2915086475155</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="8"/>
-        <v>602.77799999999979</v>
+        <f t="shared" si="7"/>
+        <v>563.13166666666666</v>
       </c>
       <c r="T58">
-        <f t="shared" si="10"/>
-        <v>1.1549999999999989</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.4">
@@ -47243,8 +47240,8 @@
         <v>3649.3543834003963</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="5"/>
-        <v>355.73682617961344</v>
+        <f>(5+A59*2+10*B59)*MIN(1,0.8+A59*0.015)*T59</f>
+        <v>380.06071173035662</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="14"/>
@@ -47276,7 +47273,7 @@
       </c>
       <c r="M59" s="1">
         <f t="shared" si="15"/>
-        <v>6890</v>
+        <v>6896</v>
       </c>
       <c r="O59">
         <f t="shared" si="13"/>
@@ -47287,12 +47284,12 @@
         <v>4156.5095396499128</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="8"/>
-        <v>629.9219999999998</v>
+        <f t="shared" si="7"/>
+        <v>587.29833333333329</v>
       </c>
       <c r="T59">
-        <f t="shared" si="10"/>
-        <v>1.1699999999999988</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.4">
@@ -47308,8 +47305,8 @@
         <v>3768.0252273126848</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="5"/>
-        <v>368.98622207815117</v>
+        <f>(5+A60*2+10*B60)*MIN(1,0.8+A60*0.015)*T60</f>
+        <v>389.22597265627803</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="14"/>
@@ -47341,7 +47338,7 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" si="15"/>
-        <v>7126</v>
+        <v>7132</v>
       </c>
       <c r="O60">
         <f t="shared" si="13"/>
@@ -47352,12 +47349,12 @@
         <v>4258.5715577529672</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="8"/>
-        <v>657.88799999999981</v>
+        <f t="shared" si="7"/>
+        <v>611.88166666666666</v>
       </c>
       <c r="T60">
-        <f t="shared" si="10"/>
-        <v>1.1849999999999987</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.4">
@@ -47373,11 +47370,11 @@
         <v>5990.5999999999995</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="5"/>
-        <v>682.79999999999927</v>
+        <f>(5+A61*2+10*B61)*MIN(1,0.8+A61*0.015)*T61</f>
+        <v>711.25</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ref="E61:E100" si="16">E60+A61/(75-A61/1.5)</f>
+        <f t="shared" ref="E61:E100" si="17">E60+A61/(75-A61/1.5)</f>
         <v>36.283858634102742</v>
       </c>
       <c r="F61" s="1">
@@ -47406,7 +47403,7 @@
       </c>
       <c r="M61" s="1">
         <f t="shared" si="15"/>
-        <v>7366</v>
+        <v>7372</v>
       </c>
       <c r="O61">
         <f t="shared" si="13"/>
@@ -47417,12 +47414,12 @@
         <v>4640.8515063977857</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="8"/>
-        <v>686.68799999999976</v>
+        <f t="shared" si="7"/>
+        <v>636.88166666666666</v>
       </c>
       <c r="T61">
-        <f t="shared" si="10"/>
-        <v>1.1999999999999986</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.4">
@@ -47438,11 +47435,11 @@
         <v>6140.9885036838359</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="5"/>
-        <v>690.71220192278724</v>
+        <f>(5+A62*2+10*B62)*MIN(1,0.8+A62*0.015)*T62</f>
+        <v>719.49187700290338</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.060557663228956</v>
       </c>
       <c r="F62" s="1">
@@ -47471,7 +47468,7 @@
       </c>
       <c r="M62" s="1">
         <f t="shared" si="15"/>
-        <v>7610</v>
+        <v>7616</v>
       </c>
       <c r="O62">
         <f t="shared" si="13"/>
@@ -47482,12 +47479,12 @@
         <v>4698.354700482053</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="8"/>
-        <v>715.96799999999973</v>
+        <f t="shared" si="7"/>
+        <v>662.29833333333329</v>
       </c>
       <c r="T62">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.4">
@@ -47503,11 +47500,11 @@
         <v>6295.524910167951</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="5"/>
-        <v>699.02003366377221</v>
+        <f>(5+A63*2+10*B63)*MIN(1,0.8+A63*0.015)*T63</f>
+        <v>728.14586839976278</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.902141821644797</v>
       </c>
       <c r="F63" s="1">
@@ -47536,7 +47533,7 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" si="15"/>
-        <v>7858</v>
+        <v>7864</v>
       </c>
       <c r="O63">
         <f t="shared" si="13"/>
@@ -47547,12 +47544,12 @@
         <v>4895.3512539028952</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="8"/>
-        <v>745.72799999999972</v>
+        <f t="shared" si="7"/>
+        <v>688.13166666666666</v>
       </c>
       <c r="T63">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.4">
@@ -47568,11 +47565,11 @@
         <v>6454.5563984449373</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="5"/>
-        <v>707.75189094488951</v>
+        <f>(5+A64*2+10*B64)*MIN(1,0.8+A64*0.015)*T64</f>
+        <v>737.24155306759326</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.811232730735703</v>
       </c>
       <c r="F64" s="1">
@@ -47601,7 +47598,7 @@
       </c>
       <c r="M64" s="1">
         <f t="shared" si="15"/>
-        <v>8110</v>
+        <v>8116</v>
       </c>
       <c r="O64">
         <f t="shared" si="13"/>
@@ -47612,12 +47609,12 @@
         <v>4952.1859671884558</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="8"/>
-        <v>775.96799999999973</v>
+        <f t="shared" si="7"/>
+        <v>714.38166666666666</v>
       </c>
       <c r="T64">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.4">
@@ -47633,11 +47630,11 @@
         <v>6618.4586163536069</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="5"/>
-        <v>716.93820754735816</v>
+        <f>(5+A65*2+10*B65)*MIN(1,0.8+A65*0.015)*T65</f>
+        <v>746.81063286183144</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43.790614174034673</v>
       </c>
       <c r="F65" s="1">
@@ -47666,7 +47663,7 @@
       </c>
       <c r="M65" s="1">
         <f t="shared" si="15"/>
-        <v>8366</v>
+        <v>8372</v>
       </c>
       <c r="O65">
         <f t="shared" si="13"/>
@@ -47677,12 +47674,12 @@
         <v>5277.7748008165445</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="8"/>
-        <v>806.68799999999976</v>
+        <f t="shared" si="7"/>
+        <v>741.04833333333329</v>
       </c>
       <c r="T65">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.4">
@@ -47698,11 +47695,11 @@
         <v>6787.6379787260894</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="5"/>
-        <v>726.6116015902536</v>
+        <f>(5+A66*2+10*B66)*MIN(1,0.8+A66*0.015)*T66</f>
+        <v>756.88708498984749</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45.843245752982043</v>
       </c>
       <c r="F66" s="1">
@@ -47710,11 +47707,11 @@
         <v>10001.448844294708</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G100" si="17">FLOOR(A66*0.8,1)+1</f>
+        <f t="shared" ref="G66:G100" si="18">FLOOR(A66*0.8,1)+1</f>
         <v>53</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H100" si="18">FLOOR(A66/3,1)+1</f>
+        <f t="shared" ref="H66:H100" si="19">FLOOR(A66/3,1)+1</f>
         <v>22</v>
       </c>
       <c r="J66" s="1">
@@ -47731,10 +47728,10 @@
       </c>
       <c r="M66" s="1">
         <f t="shared" si="15"/>
-        <v>8626</v>
+        <v>8632</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O100" si="19">MAX(1,1+(1-POWER(1-(A66-10)/200,3)))</f>
+        <f t="shared" ref="O66:O100" si="20">MAX(1,1+(1-POWER(1-(A66-10)/200,3)))</f>
         <v>1.6189218750000001</v>
       </c>
       <c r="Q66" s="1">
@@ -47742,12 +47739,12 @@
         <v>5334.0027736603661</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="8"/>
-        <v>837.88799999999981</v>
+        <f t="shared" si="7"/>
+        <v>768.13166666666666</v>
       </c>
       <c r="T66">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.4">
@@ -47755,19 +47752,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B100" si="20">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
+        <f t="shared" ref="B67:B100" si="21">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
         <v>47.700586025666546</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:C100" si="21">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
+        <f t="shared" ref="C67:C100" si="22">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
         <v>6962.5341487715887</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D100" si="22">(5+A67*2+10*B67)*MIN(1,0.8+A67*0.015)*T67</f>
-        <v>736.80703230799861</v>
+        <f>(5+A67*2+10*B67)*MIN(1,0.8+A67*0.015)*T67</f>
+        <v>767.50732532083191</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>47.972278011046555</v>
       </c>
       <c r="F67" s="1">
@@ -47775,11 +47772,11 @@
         <v>10513.337825321376</v>
       </c>
       <c r="G67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="H67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="J67" s="1">
@@ -47796,10 +47793,10 @@
       </c>
       <c r="M67" s="1">
         <f t="shared" ref="M67:M100" si="23">M66+A67*4</f>
-        <v>8890</v>
+        <v>8896</v>
       </c>
       <c r="O67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.626752</v>
       </c>
       <c r="Q67" s="1">
@@ -47807,12 +47804,12 @@
         <v>5505.3462322382293</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="8"/>
-        <v>869.56799999999976</v>
+        <f t="shared" si="7"/>
+        <v>795.63166666666666</v>
       </c>
       <c r="T67">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.4">
@@ -47820,19 +47817,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>48.396830673359815</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7143.6227171611508</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="22"/>
-        <v>747.5619680803178</v>
+        <f>(5+A68*2+10*B68)*MIN(1,0.8+A68*0.015)*T68</f>
+        <v>778.71038341699773</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>50.181069219837767</v>
       </c>
       <c r="F68" s="1">
@@ -47840,11 +47837,11 @@
         <v>11055.63612142179</v>
       </c>
       <c r="G68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>54</v>
       </c>
       <c r="H68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="J68" s="1">
@@ -47861,10 +47858,10 @@
       </c>
       <c r="M68" s="1">
         <f t="shared" si="23"/>
-        <v>9158</v>
+        <v>9164</v>
       </c>
       <c r="O68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6344741249999999</v>
       </c>
       <c r="Q68" s="1">
@@ -47872,12 +47869,12 @@
         <v>5559.467032833023</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" ref="R68:R100" si="24">(R67+A68*T68/2.5)</f>
-        <v>901.72799999999972</v>
+        <f t="shared" ref="R68:R100" si="24">(R67+A68*T68/3)</f>
+        <v>823.54833333333329</v>
       </c>
       <c r="T68">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.4">
@@ -47885,19 +47882,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>49.143047210190389</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7331.4180944101245</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="22"/>
-        <v>758.9165665222846</v>
+        <f>(5+A69*2+10*B69)*MIN(1,0.8+A69*0.015)*T69</f>
+        <v>790.53809012737986</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>52.473204051298438</v>
       </c>
       <c r="F69" s="1">
@@ -47905,11 +47902,11 @@
         <v>11629.974129836759</v>
       </c>
       <c r="G69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="H69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="J69" s="1">
@@ -47926,10 +47923,10 @@
       </c>
       <c r="M69" s="1">
         <f t="shared" si="23"/>
-        <v>9430</v>
+        <v>9436</v>
       </c>
       <c r="O69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6420889999999999</v>
       </c>
       <c r="Q69" s="1">
@@ -47938,11 +47935,11 @@
       </c>
       <c r="R69" s="1">
         <f t="shared" si="24"/>
-        <v>934.36799999999971</v>
+        <v>851.88166666666666</v>
       </c>
       <c r="T69">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.4">
@@ -47950,19 +47947,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>49.942822291671135</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7526.4766333754305</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="22"/>
-        <v>770.91386750005358</v>
+        <f>(5+A70*2+10*B70)*MIN(1,0.8+A70*0.015)*T70</f>
+        <v>803.03527864588909</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>54.852514396126026</v>
       </c>
       <c r="F70" s="1">
@@ -47970,11 +47967,11 @@
         <v>12238.057153425238</v>
       </c>
       <c r="G70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>56</v>
       </c>
       <c r="H70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J70" s="1">
@@ -47991,10 +47988,10 @@
       </c>
       <c r="M70" s="1">
         <f t="shared" si="23"/>
-        <v>9706</v>
+        <v>9712</v>
       </c>
       <c r="O70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6495973749999999</v>
       </c>
       <c r="Q70" s="1">
@@ -48003,11 +48000,11 @@
       </c>
       <c r="R70" s="1">
         <f t="shared" si="24"/>
-        <v>967.48799999999972</v>
+        <v>880.63166666666666</v>
       </c>
       <c r="T70">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.4">
@@ -48015,19 +48012,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>50.8</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7729.4</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="22"/>
-        <v>783.6</v>
+        <f>(5+A71*2+10*B71)*MIN(1,0.8+A71*0.015)*T71</f>
+        <v>816.25</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>57.323102631420142</v>
       </c>
       <c r="F71" s="1">
@@ -48035,11 +48032,11 @@
         <v>15223.786361612583</v>
       </c>
       <c r="G71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>57</v>
       </c>
       <c r="H71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J71" s="1">
@@ -48056,10 +48053,10 @@
       </c>
       <c r="M71" s="1">
         <f t="shared" si="23"/>
-        <v>9986</v>
+        <v>9992</v>
       </c>
       <c r="O71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.657</v>
       </c>
       <c r="Q71" s="1">
@@ -48068,11 +48065,11 @@
       </c>
       <c r="R71" s="1">
         <f t="shared" si="24"/>
-        <v>1001.0879999999997</v>
+        <v>909.79833333333329</v>
       </c>
       <c r="T71">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.4">
@@ -48080,19 +48077,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>51.718700320464549</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7940.8388118541761</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="22"/>
-        <v>797.02440384557462</v>
+        <f>(5+A72*2+10*B72)*MIN(1,0.8+A72*0.015)*T72</f>
+        <v>830.23375400580687</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>59.889367691661107</v>
       </c>
       <c r="F72" s="1">
@@ -48100,11 +48097,11 @@
         <v>15737.161332902258</v>
       </c>
       <c r="G72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>57</v>
       </c>
       <c r="H72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J72" s="1">
@@ -48121,10 +48118,10 @@
       </c>
       <c r="M72" s="1">
         <f t="shared" si="23"/>
-        <v>10270</v>
+        <v>10276</v>
       </c>
       <c r="O72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6642976249999999</v>
       </c>
       <c r="Q72" s="1">
@@ -48133,11 +48130,11 @@
       </c>
       <c r="R72" s="1">
         <f t="shared" si="24"/>
-        <v>1035.1679999999997</v>
+        <v>939.38166666666666</v>
       </c>
       <c r="T72">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
@@ -48145,19 +48142,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>52.703338943962045</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8161.4965655513734</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="22"/>
-        <v>811.24006732754458</v>
+        <f>(5+A73*2+10*B73)*MIN(1,0.8+A73*0.015)*T73</f>
+        <v>845.04173679952555</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>62.556034358327771</v>
       </c>
       <c r="F73" s="1">
@@ -48165,11 +48162,11 @@
         <v>16271.615412475436</v>
       </c>
       <c r="G73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="H73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="J73" s="1">
@@ -48186,10 +48183,10 @@
       </c>
       <c r="M73" s="1">
         <f t="shared" si="23"/>
-        <v>10558</v>
+        <v>10564</v>
       </c>
       <c r="O73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6714910000000001</v>
       </c>
       <c r="Q73" s="1">
@@ -48198,11 +48195,11 @@
       </c>
       <c r="R73" s="1">
         <f t="shared" si="24"/>
-        <v>1069.7279999999996</v>
+        <v>969.38166666666666</v>
       </c>
       <c r="T73">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
@@ -48210,19 +48207,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>53.758648490814927</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8392.1338757612848</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="22"/>
-        <v>826.30378188977909</v>
+        <f>(5+A74*2+10*B74)*MIN(1,0.8+A74*0.015)*T74</f>
+        <v>860.73310613518652</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>65.328186257061944</v>
       </c>
       <c r="F74" s="1">
@@ -48230,11 +48227,11 @@
         <v>16827.633130778035</v>
       </c>
       <c r="G74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>59</v>
       </c>
       <c r="H74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="J74" s="1">
@@ -48251,10 +48248,10 @@
       </c>
       <c r="M74" s="1">
         <f t="shared" si="23"/>
-        <v>10850</v>
+        <v>10856</v>
       </c>
       <c r="O74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.678580875</v>
       </c>
       <c r="Q74" s="1">
@@ -48263,11 +48260,11 @@
       </c>
       <c r="R74" s="1">
         <f t="shared" si="24"/>
-        <v>1104.7679999999996</v>
+        <v>999.79833333333329</v>
       </c>
       <c r="T74">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.4">
@@ -48275,19 +48272,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>54.889701257893044</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8633.5730503177183</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="22"/>
-        <v>842.27641509471653</v>
+        <f>(5+A75*2+10*B75)*MIN(1,0.8+A75*0.015)*T75</f>
+        <v>877.3712657236631</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>68.211303140178828</v>
       </c>
       <c r="F75" s="1">
@@ -48295,11 +48292,11 @@
         <v>17405.682004164377</v>
       </c>
       <c r="G75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="H75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="J75" s="1">
@@ -48316,10 +48313,10 @@
       </c>
       <c r="M75" s="1">
         <f t="shared" si="23"/>
-        <v>11146</v>
+        <v>11152</v>
       </c>
       <c r="O75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.685568</v>
       </c>
       <c r="Q75" s="1">
@@ -48328,11 +48325,11 @@
       </c>
       <c r="R75" s="1">
         <f t="shared" si="24"/>
-        <v>1140.2879999999996</v>
+        <v>1030.6316666666667</v>
       </c>
       <c r="T75">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.4">
@@ -48340,19 +48337,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>56.101933598375609</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8886.7030278294387</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="22"/>
-        <v>859.2232031805072</v>
+        <f>(5+A76*2+10*B76)*MIN(1,0.8+A76*0.015)*T76</f>
+        <v>895.02416997969499</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>71.211303140178828</v>
       </c>
       <c r="F76" s="1">
@@ -48360,11 +48357,11 @@
         <v>18006.205969118862</v>
       </c>
       <c r="G76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="H76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="J76" s="1">
@@ -48381,10 +48378,10 @@
       </c>
       <c r="M76" s="1">
         <f t="shared" si="23"/>
-        <v>11446</v>
+        <v>11452</v>
       </c>
       <c r="O76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6924531249999999</v>
       </c>
       <c r="Q76" s="1">
@@ -48393,11 +48390,11 @@
       </c>
       <c r="R76" s="1">
         <f t="shared" si="24"/>
-        <v>1176.2879999999996</v>
+        <v>1061.8816666666667</v>
       </c>
       <c r="T76">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.4">
@@ -48405,19 +48402,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>57.401172051333091</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9152.484706261841</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="22"/>
-        <v>877.21406461599713</v>
+        <f>(5+A77*2+10*B77)*MIN(1,0.8+A77*0.015)*T77</f>
+        <v>913.76465064166371</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>74.334590811411701</v>
       </c>
       <c r="F77" s="1">
@@ -48425,11 +48422,11 @@
         <v>18629.617892408427</v>
       </c>
       <c r="G77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="H77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="J77" s="1">
@@ -48446,10 +48443,10 @@
       </c>
       <c r="M77" s="1">
         <f t="shared" si="23"/>
-        <v>11750</v>
+        <v>11756</v>
       </c>
       <c r="O77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6992370000000001</v>
       </c>
       <c r="Q77" s="1">
@@ -48458,11 +48455,11 @@
       </c>
       <c r="R77" s="1">
         <f t="shared" si="24"/>
-        <v>1212.7679999999996</v>
+        <v>1093.5483333333334</v>
       </c>
       <c r="T77">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.4">
@@ -48470,19 +48467,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>58.793661346719624</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9431.9566931763748</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="22"/>
-        <v>896.32393616063553</v>
+        <f>(5+A78*2+10*B78)*MIN(1,0.8+A78*0.015)*T78</f>
+        <v>933.67076683399534</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>77.588111938172261</v>
       </c>
       <c r="F78" s="1">
@@ -48490,11 +48487,11 @@
         <v>19276.291012692185</v>
       </c>
       <c r="G78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>62</v>
       </c>
       <c r="H78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="J78" s="1">
@@ -48511,10 +48508,10 @@
       </c>
       <c r="M78" s="1">
         <f t="shared" si="23"/>
-        <v>12058</v>
+        <v>12064</v>
       </c>
       <c r="O78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.705920375</v>
       </c>
       <c r="Q78" s="1">
@@ -48523,11 +48520,11 @@
       </c>
       <c r="R78" s="1">
         <f t="shared" si="24"/>
-        <v>1249.7279999999996</v>
+        <v>1125.6316666666667</v>
       </c>
       <c r="T78">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.4">
@@ -48535,19 +48532,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>60.286094420380778</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9726.2415107055804</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="22"/>
-        <v>916.63313304456926</v>
+        <f>(5+A79*2+10*B79)*MIN(1,0.8+A79*0.015)*T79</f>
+        <v>954.82618025475972</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>80.979416285998354</v>
       </c>
       <c r="F79" s="1">
@@ -48555,11 +48552,11 @@
         <v>19946.549146866022</v>
       </c>
       <c r="G79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>63</v>
       </c>
       <c r="H79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="J79" s="1">
@@ -48576,10 +48573,10 @@
       </c>
       <c r="M79" s="1">
         <f t="shared" si="23"/>
-        <v>12370</v>
+        <v>12376</v>
       </c>
       <c r="O79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.712504</v>
       </c>
       <c r="Q79" s="1">
@@ -48588,11 +48585,11 @@
       </c>
       <c r="R79" s="1">
         <f t="shared" si="24"/>
-        <v>1287.1679999999997</v>
+        <v>1158.1316666666667</v>
       </c>
       <c r="T79">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.4">
@@ -48600,19 +48597,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>61.885644583342263</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10036.552290917652</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="22"/>
-        <v>938.22773500010715</v>
+        <f>(5+A80*2+10*B80)*MIN(1,0.8+A80*0.015)*T80</f>
+        <v>977.3205572917783</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>84.516729718834171</v>
       </c>
       <c r="F80" s="1">
@@ -48620,11 +48617,11 @@
         <v>20640.655467660559</v>
       </c>
       <c r="G80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>64</v>
       </c>
       <c r="H80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="J80" s="1">
@@ -48641,10 +48638,10 @@
       </c>
       <c r="M80" s="1">
         <f t="shared" si="23"/>
-        <v>12686</v>
+        <v>12692</v>
       </c>
       <c r="O80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7189886249999999</v>
       </c>
       <c r="Q80" s="1">
@@ -48653,11 +48650,11 @@
       </c>
       <c r="R80" s="1">
         <f t="shared" si="24"/>
-        <v>1325.0879999999997</v>
+        <v>1191.0483333333334</v>
       </c>
       <c r="T80">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.4">
@@ -48665,19 +48662,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>77.599999999999994</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11932.199999999999</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="22"/>
-        <v>1129.2</v>
+        <f>(5+A81*2+10*B81)*MIN(1,0.8+A81*0.015)*T81</f>
+        <v>1176.25</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>88.209037411141864</v>
       </c>
       <c r="F81" s="1">
@@ -48685,11 +48682,11 @@
         <v>27687.332849448972</v>
       </c>
       <c r="G81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>65</v>
       </c>
       <c r="H81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="J81" s="1">
@@ -48706,10 +48703,10 @@
       </c>
       <c r="M81" s="1">
         <f t="shared" si="23"/>
-        <v>13006</v>
+        <v>13012</v>
       </c>
       <c r="O81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7253749999999999</v>
       </c>
       <c r="Q81" s="1">
@@ -48718,11 +48715,11 @@
       </c>
       <c r="R81" s="1">
         <f t="shared" si="24"/>
-        <v>1363.4879999999998</v>
+        <v>1224.3816666666667</v>
       </c>
       <c r="T81">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.4">
@@ -48730,19 +48727,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>79.437400640929098</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>12298.20123268136</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="22"/>
-        <v>1153.6488076911492</v>
+        <f>(5+A82*2+10*B82)*MIN(1,0.8+A82*0.015)*T82</f>
+        <v>1201.7175080116137</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>92.066180268284725</v>
       </c>
       <c r="F82" s="1">
@@ -48750,11 +48747,11 @@
         <v>28649.551982889774</v>
       </c>
       <c r="G82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>65</v>
       </c>
       <c r="H82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="J82" s="1">
@@ -48771,10 +48768,10 @@
       </c>
       <c r="M82" s="1">
         <f t="shared" si="23"/>
-        <v>13330</v>
+        <v>13336</v>
       </c>
       <c r="O82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.731663875</v>
       </c>
       <c r="Q82" s="1">
@@ -48783,11 +48780,11 @@
       </c>
       <c r="R82" s="1">
         <f t="shared" si="24"/>
-        <v>1402.3679999999999</v>
+        <v>1258.1316666666667</v>
       </c>
       <c r="T82">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.4">
@@ -48795,19 +48792,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>81.406677887924062</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>12684.486621533682</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="22"/>
-        <v>1179.6801346550888</v>
+        <f>(5+A83*2+10*B83)*MIN(1,0.8+A83*0.015)*T83</f>
+        <v>1228.8334735990506</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>96.098967153530623</v>
       </c>
       <c r="F83" s="1">
@@ -48815,11 +48812,11 @@
         <v>29643.057435863939</v>
       </c>
       <c r="G83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>66</v>
       </c>
       <c r="H83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="J83" s="1">
@@ -48836,10 +48833,10 @@
       </c>
       <c r="M83" s="1">
         <f t="shared" si="23"/>
-        <v>13658</v>
+        <v>13664</v>
       </c>
       <c r="O83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7378559999999998</v>
       </c>
       <c r="Q83" s="1">
@@ -48848,11 +48845,11 @@
       </c>
       <c r="R83" s="1">
         <f t="shared" si="24"/>
-        <v>1441.7279999999998</v>
+        <v>1292.2983333333334</v>
       </c>
       <c r="T83">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.4">
@@ -48860,19 +48857,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>83.517296981629883</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>13092.70990926539</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="22"/>
-        <v>1207.4075637795586</v>
+        <f>(5+A84*2+10*B84)*MIN(1,0.8+A84*0.015)*T84</f>
+        <v>1257.7162122703735</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100.31930613658147</v>
       </c>
       <c r="F84" s="1">
@@ -48880,11 +48877,11 @@
         <v>30667.682000306286</v>
       </c>
       <c r="G84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>67</v>
       </c>
       <c r="H84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="J84" s="1">
@@ -48901,10 +48898,10 @@
       </c>
       <c r="M84" s="1">
         <f t="shared" si="23"/>
-        <v>13990</v>
+        <v>13996</v>
       </c>
       <c r="O84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7439521250000001</v>
       </c>
       <c r="Q84" s="1">
@@ -48913,11 +48910,11 @@
       </c>
       <c r="R84" s="1">
         <f t="shared" si="24"/>
-        <v>1481.5679999999998</v>
+        <v>1326.8816666666667</v>
       </c>
       <c r="T84">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.4">
@@ -48925,19 +48922,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>85.779402515786089</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>13524.657735856443</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="22"/>
-        <v>1236.9528301894331</v>
+        <f>(5+A85*2+10*B85)*MIN(1,0.8+A85*0.015)*T85</f>
+        <v>1288.4925314473262</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>104.74035876816042</v>
       </c>
       <c r="F85" s="1">
@@ -48945,11 +48942,11 @@
         <v>31723.067063096114</v>
       </c>
       <c r="G85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>68</v>
       </c>
       <c r="H85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="J85" s="1">
@@ -48966,10 +48963,10 @@
       </c>
       <c r="M85" s="1">
         <f t="shared" si="23"/>
-        <v>14326</v>
+        <v>14332</v>
       </c>
       <c r="O85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7499530000000001</v>
       </c>
       <c r="Q85" s="1">
@@ -48978,11 +48975,11 @@
       </c>
       <c r="R85" s="1">
         <f t="shared" si="24"/>
-        <v>1521.8879999999997</v>
+        <v>1361.8816666666667</v>
       </c>
       <c r="T85">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.4">
@@ -48990,19 +48987,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>88.203867196751233</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>13982.260196413396</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="22"/>
-        <v>1268.4464063610146</v>
+        <f>(5+A86*2+10*B86)*MIN(1,0.8+A86*0.015)*T86</f>
+        <v>1321.2983399593904</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>109.37672240452406</v>
       </c>
       <c r="F86" s="1">
@@ -49010,11 +49007,11 @@
         <v>32808.628568850589</v>
       </c>
       <c r="G86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>69</v>
       </c>
       <c r="H86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="J86" s="1">
@@ -49031,10 +49028,10 @@
       </c>
       <c r="M86" s="1">
         <f t="shared" si="23"/>
-        <v>14666</v>
+        <v>14672</v>
       </c>
       <c r="O86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.755859375</v>
       </c>
       <c r="Q86" s="1">
@@ -49043,11 +49040,11 @@
       </c>
       <c r="R86" s="1">
         <f t="shared" si="24"/>
-        <v>1562.6879999999996</v>
+        <v>1397.2983333333334</v>
       </c>
       <c r="T86">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.4">
@@ -49055,19 +49052,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>90.802344102666183</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14467.602229961009</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="22"/>
-        <v>1302.0281292319942</v>
+        <f>(5+A87*2+10*B87)*MIN(1,0.8+A87*0.015)*T87</f>
+        <v>1356.2793012833274</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>114.24464693282594</v>
       </c>
       <c r="F87" s="1">
@@ -49075,11 +49072,11 @@
         <v>33923.517506102093</v>
       </c>
       <c r="G87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>69</v>
       </c>
       <c r="H87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="J87" s="1">
@@ -49096,10 +49093,10 @@
       </c>
       <c r="M87" s="1">
         <f t="shared" si="23"/>
-        <v>15010</v>
+        <v>15016</v>
       </c>
       <c r="O87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7616719999999999</v>
       </c>
       <c r="Q87" s="1">
@@ -49108,11 +49105,11 @@
       </c>
       <c r="R87" s="1">
         <f t="shared" si="24"/>
-        <v>1603.9679999999996</v>
+        <v>1433.1316666666667</v>
       </c>
       <c r="T87">
-        <f t="shared" ref="T87:T100" si="25">MIN(1.2,T86+0.015)</f>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.4">
@@ -49120,19 +49117,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>93.587322693439219</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14982.935904060896</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="22"/>
-        <v>1337.8478723212706</v>
+        <f>(5+A88*2+10*B88)*MIN(1,0.8+A88*0.015)*T88</f>
+        <v>1393.5915336679905</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>119.36229399164947</v>
       </c>
       <c r="F88" s="1">
@@ -49140,11 +49137,11 @@
         <v>35066.573895717287</v>
       </c>
       <c r="G88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="H88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="J88" s="1">
@@ -49161,10 +49158,10 @@
       </c>
       <c r="M88" s="1">
         <f t="shared" si="23"/>
-        <v>15358</v>
+        <v>15364</v>
       </c>
       <c r="O88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7673916250000001</v>
       </c>
       <c r="Q88" s="1">
@@ -49173,11 +49170,11 @@
       </c>
       <c r="R88" s="1">
         <f t="shared" si="24"/>
-        <v>1645.7279999999996</v>
+        <v>1469.3816666666667</v>
       </c>
       <c r="T88">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.4">
@@ -49185,19 +49182,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>96.572188840761555</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15530.693665181823</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="22"/>
-        <v>1376.0662660891387</v>
+        <f>(5+A89*2+10*B89)*MIN(1,0.8+A89*0.015)*T89</f>
+        <v>1433.4023605095194</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>124.75004909369028</v>
       </c>
       <c r="F89" s="1">
@@ -49205,11 +49202,11 @@
         <v>36236.273024912094</v>
       </c>
       <c r="G89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>71</v>
       </c>
       <c r="H89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="J89" s="1">
@@ -49226,10 +49223,10 @@
       </c>
       <c r="M89" s="1">
         <f t="shared" si="23"/>
-        <v>15710</v>
+        <v>15716</v>
       </c>
       <c r="O89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7730190000000001</v>
       </c>
       <c r="Q89" s="1">
@@ -49238,11 +49235,11 @@
       </c>
       <c r="R89" s="1">
         <f t="shared" si="24"/>
-        <v>1687.9679999999996</v>
+        <v>1506.0483333333334</v>
       </c>
       <c r="T89">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.4">
@@ -49250,19 +49247,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>99.771289166684539</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16113.502630168892</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="22"/>
-        <v>1416.8554700002144</v>
+        <f>(5+A90*2+10*B90)*MIN(1,0.8+A90*0.015)*T90</f>
+        <v>1475.8911145835566</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>130.43090015752006</v>
       </c>
       <c r="F90" s="1">
@@ -49270,11 +49267,11 @@
         <v>37430.66236636012</v>
       </c>
       <c r="G90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>72</v>
       </c>
       <c r="H90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="J90" s="1">
@@ -49291,10 +49288,10 @@
       </c>
       <c r="M90" s="1">
         <f t="shared" si="23"/>
-        <v>16066</v>
+        <v>16072</v>
       </c>
       <c r="O90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.778554875</v>
       </c>
       <c r="Q90" s="1">
@@ -49303,11 +49300,11 @@
       </c>
       <c r="R90" s="1">
         <f t="shared" si="24"/>
-        <v>1730.6879999999996</v>
+        <v>1543.1316666666667</v>
       </c>
       <c r="T90">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.4">
@@ -49315,19 +49312,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>128.19999999999999</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19884.199999999997</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="22"/>
-        <v>1760.3999999999999</v>
+        <f>(5+A91*2+10*B91)*MIN(1,0.8+A91*0.015)*T91</f>
+        <v>1833.75</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>136.43090015752006</v>
       </c>
       <c r="F91" s="1">
@@ -49335,11 +49332,11 @@
         <v>50098.335292222597</v>
       </c>
       <c r="G91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="H91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="J91" s="1">
@@ -49356,10 +49353,10 @@
       </c>
       <c r="M91" s="1">
         <f t="shared" si="23"/>
-        <v>16426</v>
+        <v>16432</v>
       </c>
       <c r="O91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.784</v>
       </c>
       <c r="Q91" s="1">
@@ -49368,11 +49365,11 @@
       </c>
       <c r="R91" s="1">
         <f t="shared" si="24"/>
-        <v>1773.8879999999997</v>
+        <v>1580.6316666666667</v>
       </c>
       <c r="T91">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.4">
@@ -49380,19 +49377,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>131.8748012818582</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20580.849683308734</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="22"/>
-        <v>1806.8976153822985</v>
+        <f>(5+A92*2+10*B92)*MIN(1,0.8+A92*0.015)*T92</f>
+        <v>1882.1850160232275</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>142.77973736682239</v>
       </c>
       <c r="F92" s="1">
@@ -49400,11 +49397,11 @@
         <v>51700.318230529061</v>
       </c>
       <c r="G92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="H92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="J92" s="1">
@@ -49421,10 +49418,10 @@
       </c>
       <c r="M92" s="1">
         <f t="shared" si="23"/>
-        <v>16790</v>
+        <v>16796</v>
       </c>
       <c r="O92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7893551250000002</v>
       </c>
       <c r="Q92" s="1">
@@ -49433,11 +49430,11 @@
       </c>
       <c r="R92" s="1">
         <f t="shared" si="24"/>
-        <v>1817.5679999999998</v>
+        <v>1618.5483333333334</v>
       </c>
       <c r="T92">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.4">
@@ -49445,19 +49442,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>135.81335577584815</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21321.760223929239</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="22"/>
-        <v>1856.5602693101775</v>
+        <f>(5+A93*2+10*B93)*MIN(1,0.8+A93*0.015)*T93</f>
+        <v>1933.9169471981018</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>149.51144468389555</v>
       </c>
       <c r="F93" s="1">
@@ -49465,11 +49462,11 @@
         <v>53322.329299207777</v>
       </c>
       <c r="G93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>74</v>
       </c>
       <c r="H93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="J93" s="1">
@@ -49486,10 +49483,10 @@
       </c>
       <c r="M93" s="1">
         <f t="shared" si="23"/>
-        <v>17158</v>
+        <v>17164</v>
       </c>
       <c r="O93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7946209999999998</v>
       </c>
       <c r="Q93" s="1">
@@ -49498,11 +49495,11 @@
       </c>
       <c r="R93" s="1">
         <f t="shared" si="24"/>
-        <v>1861.7279999999998</v>
+        <v>1656.8816666666667</v>
       </c>
       <c r="T93">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.4">
@@ -49510,19 +49507,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>140.03459396325971</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>22110.504134016413</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="22"/>
-        <v>1909.6151275591164</v>
+        <f>(5+A94*2+10*B94)*MIN(1,0.8+A94*0.015)*T94</f>
+        <v>1989.1824245407463</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>156.66529083774171</v>
       </c>
       <c r="F94" s="1">
@@ -49530,11 +49527,11 @@
         <v>54958.455190609064</v>
       </c>
       <c r="G94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>75</v>
       </c>
       <c r="H94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="J94" s="1">
@@ -49551,10 +49548,10 @@
       </c>
       <c r="M94" s="1">
         <f t="shared" si="23"/>
-        <v>17530</v>
+        <v>17536</v>
       </c>
       <c r="O94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.799798375</v>
       </c>
       <c r="Q94" s="1">
@@ -49563,11 +49560,11 @@
       </c>
       <c r="R94" s="1">
         <f t="shared" si="24"/>
-        <v>1906.3679999999999</v>
+        <v>1695.6316666666667</v>
       </c>
       <c r="T94">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.4">
@@ -49575,19 +49572,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>144.55880503157218</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>22950.9387421549</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="22"/>
-        <v>1966.3056603788662</v>
+        <f>(5+A95*2+10*B95)*MIN(1,0.8+A95*0.015)*T95</f>
+        <v>2048.2350628946524</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>164.28691245936332</v>
       </c>
       <c r="F95" s="1">
@@ -49595,11 +49592,11 @@
         <v>56601.519966139997</v>
       </c>
       <c r="G95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>76</v>
       </c>
       <c r="H95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="J95" s="1">
@@ -49616,10 +49613,10 @@
       </c>
       <c r="M95" s="1">
         <f t="shared" si="23"/>
-        <v>17906</v>
+        <v>17912</v>
       </c>
       <c r="O95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.804888</v>
       </c>
       <c r="Q95" s="1">
@@ -49628,11 +49625,11 @@
       </c>
       <c r="R95" s="1">
         <f t="shared" si="24"/>
-        <v>1951.4879999999998</v>
+        <v>1734.7983333333334</v>
       </c>
       <c r="T95">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.4">
@@ -49640,19 +49637,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>149.40773439350247</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23847.228674335824</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="22"/>
-        <v>2026.8928127220295</v>
+        <f>(5+A96*2+10*B96)*MIN(1,0.8+A96*0.015)*T96</f>
+        <v>2111.3466799187809</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>172.42976960222046</v>
       </c>
       <c r="F96" s="1">
@@ -49660,11 +49657,11 @@
         <v>58242.843421826117</v>
       </c>
       <c r="G96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>77</v>
       </c>
       <c r="H96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="J96" s="1">
@@ -49681,10 +49678,10 @@
       </c>
       <c r="M96" s="1">
         <f t="shared" si="23"/>
-        <v>18286</v>
+        <v>18292</v>
       </c>
       <c r="O96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.809890625</v>
       </c>
       <c r="Q96" s="1">
@@ -49693,11 +49690,11 @@
       </c>
       <c r="R96" s="1">
         <f t="shared" si="24"/>
-        <v>1997.0879999999997</v>
+        <v>1774.3816666666667</v>
       </c>
       <c r="T96">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.4">
@@ -49705,19 +49702,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>154.60468820533237</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24803.870094796664</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="22"/>
-        <v>2091.6562584639883</v>
+        <f>(5+A97*2+10*B97)*MIN(1,0.8+A97*0.015)*T97</f>
+        <v>2178.8086025666548</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>181.15704232949318</v>
       </c>
       <c r="F97" s="1">
@@ -49725,11 +49722,11 @@
         <v>59871.942809998945</v>
       </c>
       <c r="G97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>77</v>
       </c>
       <c r="H97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="J97" s="1">
@@ -49746,10 +49743,10 @@
       </c>
       <c r="M97" s="1">
         <f t="shared" si="23"/>
-        <v>18670</v>
+        <v>18676</v>
       </c>
       <c r="O97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8148070000000001</v>
       </c>
       <c r="Q97" s="1">
@@ -49758,11 +49755,11 @@
       </c>
       <c r="R97" s="1">
         <f t="shared" si="24"/>
-        <v>2043.1679999999997</v>
+        <v>1814.3816666666667</v>
       </c>
       <c r="T97">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.4">
@@ -49770,19 +49767,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>160.17464538687844</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25825.716843538095</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="22"/>
-        <v>2160.8957446425411</v>
+        <f>(5+A98*2+10*B98)*MIN(1,0.8+A98*0.015)*T98</f>
+        <v>2250.9330673359805</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>190.54413910368675</v>
       </c>
       <c r="F98" s="1">
@@ -49790,11 +49787,11 @@
         <v>62614.607522961742</v>
       </c>
       <c r="G98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>78</v>
       </c>
       <c r="H98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="J98" s="1">
@@ -49811,10 +49808,10 @@
       </c>
       <c r="M98" s="1">
         <f t="shared" si="23"/>
-        <v>19058</v>
+        <v>19064</v>
       </c>
       <c r="O98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8196378750000002</v>
       </c>
       <c r="Q98" s="1">
@@ -49823,11 +49820,11 @@
       </c>
       <c r="R98" s="1">
         <f t="shared" si="24"/>
-        <v>2089.7279999999996</v>
+        <v>1854.7983333333334</v>
       </c>
       <c r="T98">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.4">
@@ -49835,19 +49832,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>166.14437768152311</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26918.008617904969</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="22"/>
-        <v>2234.9325321782771</v>
+        <f>(5+A99*2+10*B99)*MIN(1,0.8+A99*0.015)*T99</f>
+        <v>2328.0547210190389</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>200.68207013816951</v>
       </c>
       <c r="F99" s="1">
@@ -49855,11 +49852,11 @@
         <v>71341.778431308325</v>
       </c>
       <c r="G99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="H99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="J99" s="1">
@@ -49876,10 +49873,10 @@
       </c>
       <c r="M99" s="1">
         <f t="shared" si="23"/>
-        <v>19450</v>
+        <v>19456</v>
       </c>
       <c r="O99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.824384</v>
       </c>
       <c r="Q99" s="1">
@@ -49888,11 +49885,11 @@
       </c>
       <c r="R99" s="1">
         <f t="shared" si="24"/>
-        <v>2136.7679999999996</v>
+        <v>1895.6316666666667</v>
       </c>
       <c r="T99">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.4">
@@ -49900,19 +49897,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>172.54257833336908</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>28086.401357004954</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="22"/>
-        <v>2314.1109400004289</v>
+        <f>(5+A100*2+10*B100)*MIN(1,0.8+A100*0.015)*T100</f>
+        <v>2410.5322291671137</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>211.68207013816951</v>
       </c>
       <c r="F100" s="1">
@@ -49920,11 +49917,11 @@
         <v>94688.331813005949</v>
       </c>
       <c r="G100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="H100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
       <c r="J100" s="1">
@@ -49941,10 +49938,10 @@
       </c>
       <c r="M100" s="1">
         <f t="shared" si="23"/>
-        <v>19846</v>
+        <v>19852</v>
       </c>
       <c r="O100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8290461250000001</v>
       </c>
       <c r="Q100" s="1">
@@ -49953,11 +49950,11 @@
       </c>
       <c r="R100" s="1">
         <f t="shared" si="24"/>
-        <v>2184.2879999999996</v>
+        <v>1936.8816666666667</v>
       </c>
       <c r="T100">
-        <f t="shared" si="25"/>
-        <v>1.2</v>
+        <f t="shared" si="16"/>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE1E86E-686D-4615-84BC-EC76D1C700CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE167560-1B83-48D0-ADCB-6C13C49648B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2606" yWindow="2606" windowWidth="26931" windowHeight="13937" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="3634" yWindow="2914" windowWidth="26932" windowHeight="13937" activeTab="1" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="1175">
   <si>
     <t>Id</t>
   </si>
@@ -3005,9 +3005,6 @@
     <t>barricade.spr</t>
   </si>
   <si>
-    <t>Hp#100000</t>
-  </si>
-  <si>
     <t>TEST_DRONE</t>
   </si>
   <si>
@@ -3570,6 +3567,15 @@
   </si>
   <si>
     <t>AtkMult</t>
+  </si>
+  <si>
+    <t>TestMod</t>
+  </si>
+  <si>
+    <t>Hp#100000 Def#20 Mdef#20 Vit#20 Int#20</t>
+  </si>
+  <si>
+    <t>Def#100 Mdef#50</t>
   </si>
 </sst>
 </file>
@@ -4016,11 +4022,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
   <dimension ref="A1:AJ316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R81" sqref="R81"/>
+      <selection pane="bottomRight" activeCell="P213" sqref="P213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4057,7 +4063,7 @@
     <col min="33" max="33" width="13.3828125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.84375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.4">
@@ -4175,10 +4181,10 @@
         <v>3999</v>
       </c>
       <c r="B2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C2" t="s">
         <v>1113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1114</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4366,7 +4372,7 @@
         <v>39</v>
       </c>
       <c r="AD3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AE3">
         <v>288</v>
@@ -5008,7 +5014,7 @@
         <v>39</v>
       </c>
       <c r="AD9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AE9">
         <v>288</v>
@@ -5115,7 +5121,7 @@
         <v>48</v>
       </c>
       <c r="AD10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE10">
         <v>480</v>
@@ -5219,7 +5225,7 @@
         <v>41</v>
       </c>
       <c r="AC11" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AD11" t="s">
         <v>59</v>
@@ -5650,7 +5656,7 @@
         <v>39</v>
       </c>
       <c r="AD15" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AE15">
         <v>288</v>
@@ -5971,7 +5977,7 @@
         <v>41</v>
       </c>
       <c r="AD18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE18">
         <v>252</v>
@@ -6078,7 +6084,7 @@
         <v>106</v>
       </c>
       <c r="AD19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE19">
         <v>576</v>
@@ -6399,7 +6405,7 @@
         <v>120</v>
       </c>
       <c r="AD22" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE22">
         <v>264</v>
@@ -6506,7 +6512,7 @@
         <v>275</v>
       </c>
       <c r="AD23" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE23">
         <v>360</v>
@@ -6613,7 +6619,7 @@
         <v>275</v>
       </c>
       <c r="AD24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE24">
         <v>432</v>
@@ -6720,7 +6726,7 @@
         <v>130</v>
       </c>
       <c r="AD25" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE25">
         <v>360</v>
@@ -7683,7 +7689,7 @@
         <v>41</v>
       </c>
       <c r="AD34" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE34">
         <v>384</v>
@@ -7790,7 +7796,7 @@
         <v>41</v>
       </c>
       <c r="AD35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE35">
         <v>384</v>
@@ -7897,7 +7903,7 @@
         <v>41</v>
       </c>
       <c r="AD36" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE36">
         <v>384</v>
@@ -8004,7 +8010,7 @@
         <v>41</v>
       </c>
       <c r="AD37" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE37">
         <v>384</v>
@@ -8111,7 +8117,7 @@
         <v>41</v>
       </c>
       <c r="AD38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE38">
         <v>384</v>
@@ -8325,7 +8331,7 @@
         <v>181</v>
       </c>
       <c r="AD40" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE40">
         <v>324</v>
@@ -8432,7 +8438,7 @@
         <v>41</v>
       </c>
       <c r="AD41" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE41">
         <v>324</v>
@@ -8646,7 +8652,7 @@
         <v>192</v>
       </c>
       <c r="AD43" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE43">
         <v>603</v>
@@ -8860,7 +8866,7 @@
         <v>275</v>
       </c>
       <c r="AD45" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE45">
         <v>192</v>
@@ -9199,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>4046</v>
       </c>
@@ -9306,7 +9312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>4047</v>
       </c>
@@ -9413,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>4048</v>
       </c>
@@ -9502,7 +9508,7 @@
         <v>221</v>
       </c>
       <c r="AD51" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE51">
         <v>336</v>
@@ -9520,7 +9526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>4049</v>
       </c>
@@ -9609,7 +9615,7 @@
         <v>225</v>
       </c>
       <c r="AD52" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE52">
         <v>288</v>
@@ -9627,7 +9633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>4050</v>
       </c>
@@ -9716,7 +9722,7 @@
         <v>231</v>
       </c>
       <c r="AD53" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE53">
         <v>312</v>
@@ -9734,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>4051</v>
       </c>
@@ -9823,7 +9829,7 @@
         <v>236</v>
       </c>
       <c r="AD54" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE54">
         <v>672</v>
@@ -9841,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>4052</v>
       </c>
@@ -9927,10 +9933,10 @@
         <v>41</v>
       </c>
       <c r="AC55" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AD55" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE55">
         <v>360</v>
@@ -9948,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>4053</v>
       </c>
@@ -10055,7 +10061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>4054</v>
       </c>
@@ -10144,7 +10150,7 @@
         <v>39</v>
       </c>
       <c r="AD57" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE57">
         <v>288</v>
@@ -10162,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>4055</v>
       </c>
@@ -10251,7 +10257,7 @@
         <v>39</v>
       </c>
       <c r="AD58" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE58">
         <v>288</v>
@@ -10269,7 +10275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>4056</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>547</v>
       </c>
       <c r="AD59" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE59">
         <v>480</v>
@@ -10376,7 +10382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>4057</v>
       </c>
@@ -10462,10 +10468,10 @@
         <v>41</v>
       </c>
       <c r="AC60" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AD60" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE60">
         <v>840</v>
@@ -10483,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>4058</v>
       </c>
@@ -10572,7 +10578,7 @@
         <v>219</v>
       </c>
       <c r="AD61" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE61">
         <v>324</v>
@@ -10590,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>4059</v>
       </c>
@@ -10616,16 +10622,16 @@
         <v>50</v>
       </c>
       <c r="I62">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J62">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K62">
         <v>130</v>
       </c>
       <c r="L62">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M62">
         <v>10</v>
@@ -10634,10 +10640,10 @@
         <v>2</v>
       </c>
       <c r="O62">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P62">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q62">
         <v>130</v>
@@ -10679,7 +10685,7 @@
         <v>263</v>
       </c>
       <c r="AD62" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE62">
         <v>336</v>
@@ -10697,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>4060</v>
       </c>
@@ -10804,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>4061</v>
       </c>
@@ -10824,10 +10830,10 @@
         <v>100</v>
       </c>
       <c r="G64">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I64">
         <v>100</v>
@@ -10893,7 +10899,7 @@
         <v>41</v>
       </c>
       <c r="AD64" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE64">
         <v>552</v>
@@ -10909,6 +10915,9 @@
       </c>
       <c r="AI64">
         <v>1</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.4">
@@ -11000,7 +11009,7 @@
         <v>275</v>
       </c>
       <c r="AD65" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE65">
         <v>360</v>
@@ -11107,7 +11116,7 @@
         <v>279</v>
       </c>
       <c r="AD66" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE66">
         <v>408</v>
@@ -11214,7 +11223,7 @@
         <v>48</v>
       </c>
       <c r="AD67" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE67">
         <v>480</v>
@@ -11318,10 +11327,10 @@
         <v>41</v>
       </c>
       <c r="AC68" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AD68" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE68">
         <v>504</v>
@@ -11428,7 +11437,7 @@
         <v>290</v>
       </c>
       <c r="AD69" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE69">
         <v>720</v>
@@ -11535,7 +11544,7 @@
         <v>120</v>
       </c>
       <c r="AD70" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE70">
         <v>216</v>
@@ -11642,7 +11651,7 @@
         <v>48</v>
       </c>
       <c r="AD71" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE71">
         <v>384</v>
@@ -11749,7 +11758,7 @@
         <v>48</v>
       </c>
       <c r="AD72" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE72">
         <v>432</v>
@@ -11856,7 +11865,7 @@
         <v>219</v>
       </c>
       <c r="AD73" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AE73">
         <v>192</v>
@@ -11963,7 +11972,7 @@
         <v>48</v>
       </c>
       <c r="AD74" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE74">
         <v>180</v>
@@ -12070,7 +12079,7 @@
         <v>48</v>
       </c>
       <c r="AD75" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE75">
         <v>144</v>
@@ -12177,7 +12186,7 @@
         <v>48</v>
       </c>
       <c r="AD76" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE76">
         <v>144</v>
@@ -12284,7 +12293,7 @@
         <v>48</v>
       </c>
       <c r="AD77" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE77">
         <v>576</v>
@@ -12391,7 +12400,7 @@
         <v>41</v>
       </c>
       <c r="AD78" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE78">
         <v>480</v>
@@ -12498,7 +12507,7 @@
         <v>290</v>
       </c>
       <c r="AD79" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE79">
         <v>624</v>
@@ -12605,7 +12614,7 @@
         <v>106</v>
       </c>
       <c r="AD80" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE80">
         <v>624</v>
@@ -12712,7 +12721,7 @@
         <v>327</v>
       </c>
       <c r="AD81" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE81">
         <v>576</v>
@@ -13033,7 +13042,7 @@
         <v>41</v>
       </c>
       <c r="AD84" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE84">
         <v>288</v>
@@ -13247,7 +13256,7 @@
         <v>41</v>
       </c>
       <c r="AD86" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE86">
         <v>180</v>
@@ -13354,7 +13363,7 @@
         <v>41</v>
       </c>
       <c r="AD87" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE87">
         <v>288</v>
@@ -13568,7 +13577,7 @@
         <v>279</v>
       </c>
       <c r="AD89" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE89">
         <v>324</v>
@@ -13782,7 +13791,7 @@
         <v>48</v>
       </c>
       <c r="AD91" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE91">
         <v>288</v>
@@ -13889,7 +13898,7 @@
         <v>106</v>
       </c>
       <c r="AD92" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE92">
         <v>288</v>
@@ -14210,7 +14219,7 @@
         <v>41</v>
       </c>
       <c r="AD95" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE95">
         <v>216</v>
@@ -14317,7 +14326,7 @@
         <v>48</v>
       </c>
       <c r="AD96" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE96">
         <v>336</v>
@@ -14424,7 +14433,7 @@
         <v>48</v>
       </c>
       <c r="AD97" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE97">
         <v>720</v>
@@ -14531,7 +14540,7 @@
         <v>379</v>
       </c>
       <c r="AD98" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE98">
         <v>336</v>
@@ -14638,7 +14647,7 @@
         <v>379</v>
       </c>
       <c r="AD99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE99">
         <v>336</v>
@@ -14742,7 +14751,7 @@
         <v>41</v>
       </c>
       <c r="AC100" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AD100" t="s">
         <v>115</v>
@@ -14852,7 +14861,7 @@
         <v>48</v>
       </c>
       <c r="AD101" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE101">
         <v>336</v>
@@ -14959,7 +14968,7 @@
         <v>48</v>
       </c>
       <c r="AD102" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE102">
         <v>216</v>
@@ -15066,7 +15075,7 @@
         <v>395</v>
       </c>
       <c r="AD103" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE103">
         <v>576</v>
@@ -15173,7 +15182,7 @@
         <v>290</v>
       </c>
       <c r="AD104" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE104">
         <v>288</v>
@@ -15280,7 +15289,7 @@
         <v>48</v>
       </c>
       <c r="AD105" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE105">
         <v>312</v>
@@ -15387,7 +15396,7 @@
         <v>39</v>
       </c>
       <c r="AD106" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE106">
         <v>288</v>
@@ -15494,7 +15503,7 @@
         <v>48</v>
       </c>
       <c r="AD107" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE107">
         <v>252</v>
@@ -15601,7 +15610,7 @@
         <v>41</v>
       </c>
       <c r="AD108" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE108">
         <v>504</v>
@@ -16029,7 +16038,7 @@
         <v>120</v>
       </c>
       <c r="AD112" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE112">
         <v>168</v>
@@ -16136,7 +16145,7 @@
         <v>41</v>
       </c>
       <c r="AD113" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AE113">
         <v>562</v>
@@ -16350,7 +16359,7 @@
         <v>286</v>
       </c>
       <c r="AD115" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE115">
         <v>240</v>
@@ -16457,7 +16466,7 @@
         <v>286</v>
       </c>
       <c r="AD116" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE116">
         <v>240</v>
@@ -16564,7 +16573,7 @@
         <v>286</v>
       </c>
       <c r="AD117" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE117">
         <v>240</v>
@@ -16671,7 +16680,7 @@
         <v>120</v>
       </c>
       <c r="AD118" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE118">
         <v>240</v>
@@ -16885,7 +16894,7 @@
         <v>279</v>
       </c>
       <c r="AD120" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE120">
         <v>624</v>
@@ -16992,7 +17001,7 @@
         <v>275</v>
       </c>
       <c r="AD121" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE121">
         <v>540</v>
@@ -17206,7 +17215,7 @@
         <v>279</v>
       </c>
       <c r="AD123" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE123">
         <v>480</v>
@@ -17313,7 +17322,7 @@
         <v>188</v>
       </c>
       <c r="AD124" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE124">
         <v>864</v>
@@ -17420,7 +17429,7 @@
         <v>456</v>
       </c>
       <c r="AD125" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE125">
         <v>192</v>
@@ -17741,7 +17750,7 @@
         <v>469</v>
       </c>
       <c r="AD128" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AE128">
         <v>288</v>
@@ -17848,7 +17857,7 @@
         <v>41</v>
       </c>
       <c r="AD129" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE129">
         <v>288</v>
@@ -18062,7 +18071,7 @@
         <v>219</v>
       </c>
       <c r="AD131" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE131">
         <v>480</v>
@@ -18383,7 +18392,7 @@
         <v>41</v>
       </c>
       <c r="AD134" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE134">
         <v>480</v>
@@ -18490,7 +18499,7 @@
         <v>275</v>
       </c>
       <c r="AD135" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE135">
         <v>144</v>
@@ -18597,7 +18606,7 @@
         <v>469</v>
       </c>
       <c r="AD136" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AE136">
         <v>480</v>
@@ -18704,7 +18713,7 @@
         <v>507</v>
       </c>
       <c r="AD137" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE137">
         <v>288</v>
@@ -18811,7 +18820,7 @@
         <v>512</v>
       </c>
       <c r="AD138" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE138">
         <v>192</v>
@@ -18918,7 +18927,7 @@
         <v>516</v>
       </c>
       <c r="AD139" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE139">
         <v>576</v>
@@ -19025,7 +19034,7 @@
         <v>48</v>
       </c>
       <c r="AD140" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE140">
         <v>480</v>
@@ -19185,7 +19194,7 @@
         <v>100</v>
       </c>
       <c r="L142">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M142">
         <v>10</v>
@@ -19200,7 +19209,7 @@
         <v>100</v>
       </c>
       <c r="Q142">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R142">
         <v>100</v>
@@ -19292,7 +19301,7 @@
         <v>100</v>
       </c>
       <c r="L143">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M143">
         <v>10</v>
@@ -19307,7 +19316,7 @@
         <v>100</v>
       </c>
       <c r="Q143">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R143">
         <v>100</v>
@@ -19346,7 +19355,7 @@
         <v>469</v>
       </c>
       <c r="AD143" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE143">
         <v>336</v>
@@ -19560,7 +19569,7 @@
         <v>469</v>
       </c>
       <c r="AD145" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE145">
         <v>672</v>
@@ -19881,7 +19890,7 @@
         <v>547</v>
       </c>
       <c r="AD148" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE148">
         <v>720</v>
@@ -20095,7 +20104,7 @@
         <v>547</v>
       </c>
       <c r="AD150" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE150">
         <v>1152</v>
@@ -20202,7 +20211,7 @@
         <v>219</v>
       </c>
       <c r="AD151" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE151">
         <v>288</v>
@@ -20309,7 +20318,7 @@
         <v>558</v>
       </c>
       <c r="AD152" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE152">
         <v>288</v>
@@ -20416,7 +20425,7 @@
         <v>562</v>
       </c>
       <c r="AD153" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE153">
         <v>120</v>
@@ -20630,7 +20639,7 @@
         <v>507</v>
       </c>
       <c r="AD155" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE155">
         <v>216</v>
@@ -20844,7 +20853,7 @@
         <v>39</v>
       </c>
       <c r="AD157" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE157">
         <v>900</v>
@@ -20951,7 +20960,7 @@
         <v>41</v>
       </c>
       <c r="AD158" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE158">
         <v>468</v>
@@ -21058,7 +21067,7 @@
         <v>41</v>
       </c>
       <c r="AD159" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE159">
         <v>288</v>
@@ -21165,7 +21174,7 @@
         <v>181</v>
       </c>
       <c r="AD160" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE160">
         <v>384</v>
@@ -21379,7 +21388,7 @@
         <v>286</v>
       </c>
       <c r="AD162" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE162">
         <v>540</v>
@@ -21486,7 +21495,7 @@
         <v>558</v>
       </c>
       <c r="AD163" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE163">
         <v>768</v>
@@ -21593,7 +21602,7 @@
         <v>558</v>
       </c>
       <c r="AD164" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE164">
         <v>768</v>
@@ -21700,7 +21709,7 @@
         <v>120</v>
       </c>
       <c r="AD165" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE165">
         <v>480</v>
@@ -21807,7 +21816,7 @@
         <v>41</v>
       </c>
       <c r="AD166" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE166">
         <v>432</v>
@@ -21911,10 +21920,10 @@
         <v>41</v>
       </c>
       <c r="AC167" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AD167" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE167">
         <v>620</v>
@@ -22021,7 +22030,7 @@
         <v>41</v>
       </c>
       <c r="AD168" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE168">
         <v>312</v>
@@ -22128,7 +22137,7 @@
         <v>188</v>
       </c>
       <c r="AD169" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE169">
         <v>336</v>
@@ -22235,7 +22244,7 @@
         <v>120</v>
       </c>
       <c r="AD170" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE170">
         <v>768</v>
@@ -22342,7 +22351,7 @@
         <v>120</v>
       </c>
       <c r="AD171" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE171">
         <v>576</v>
@@ -22449,7 +22458,7 @@
         <v>48</v>
       </c>
       <c r="AD172" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE172">
         <v>720</v>
@@ -22663,7 +22672,7 @@
         <v>275</v>
       </c>
       <c r="AD174" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE174">
         <v>840</v>
@@ -22770,7 +22779,7 @@
         <v>130</v>
       </c>
       <c r="AD175" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE175">
         <v>1080</v>
@@ -22877,7 +22886,7 @@
         <v>181</v>
       </c>
       <c r="AD176" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE176">
         <v>240</v>
@@ -22981,10 +22990,10 @@
         <v>119</v>
       </c>
       <c r="AC177" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AD177" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE177">
         <v>384</v>
@@ -23091,7 +23100,7 @@
         <v>641</v>
       </c>
       <c r="AD178" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE178">
         <v>216</v>
@@ -23198,7 +23207,7 @@
         <v>219</v>
       </c>
       <c r="AD179" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AE179">
         <v>720</v>
@@ -23412,7 +23421,7 @@
         <v>41</v>
       </c>
       <c r="AD181" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE181">
         <v>192</v>
@@ -23626,7 +23635,7 @@
         <v>41</v>
       </c>
       <c r="AD183" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE183">
         <v>240</v>
@@ -23733,7 +23742,7 @@
         <v>41</v>
       </c>
       <c r="AD184" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE184">
         <v>288</v>
@@ -23795,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="O185">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P185">
         <v>100</v>
@@ -23840,7 +23849,7 @@
         <v>566</v>
       </c>
       <c r="AD185" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE185">
         <v>192</v>
@@ -23947,7 +23956,7 @@
         <v>507</v>
       </c>
       <c r="AD186" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE186">
         <v>480</v>
@@ -24268,7 +24277,7 @@
         <v>41</v>
       </c>
       <c r="AD189" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE189">
         <v>288</v>
@@ -24375,7 +24384,7 @@
         <v>41</v>
       </c>
       <c r="AD190" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE190">
         <v>432</v>
@@ -24407,10 +24416,10 @@
         <v>79</v>
       </c>
       <c r="E191">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F191">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G191">
         <v>100</v>
@@ -24419,16 +24428,16 @@
         <v>100</v>
       </c>
       <c r="I191">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J191">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K191">
         <v>100</v>
       </c>
       <c r="L191">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M191">
         <v>20</v>
@@ -24437,10 +24446,10 @@
         <v>1</v>
       </c>
       <c r="O191">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P191">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q191">
         <v>100</v>
@@ -24482,7 +24491,7 @@
         <v>681</v>
       </c>
       <c r="AD191" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE191">
         <v>576</v>
@@ -24803,7 +24812,7 @@
         <v>41</v>
       </c>
       <c r="AD194" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AE194">
         <v>480</v>
@@ -24910,7 +24919,7 @@
         <v>41</v>
       </c>
       <c r="AD195" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE195">
         <v>420</v>
@@ -25017,7 +25026,7 @@
         <v>41</v>
       </c>
       <c r="AD196" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE196">
         <v>192</v>
@@ -25124,7 +25133,7 @@
         <v>41</v>
       </c>
       <c r="AD197" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE197">
         <v>468</v>
@@ -25231,7 +25240,7 @@
         <v>41</v>
       </c>
       <c r="AD198" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE198">
         <v>384</v>
@@ -25338,7 +25347,7 @@
         <v>286</v>
       </c>
       <c r="AD199" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE199">
         <v>384</v>
@@ -25445,7 +25454,7 @@
         <v>41</v>
       </c>
       <c r="AD200" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE200">
         <v>432</v>
@@ -25980,7 +25989,7 @@
         <v>192</v>
       </c>
       <c r="AD205" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE205">
         <v>288</v>
@@ -26087,7 +26096,7 @@
         <v>41</v>
       </c>
       <c r="AD206" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE206">
         <v>504</v>
@@ -26194,7 +26203,7 @@
         <v>41</v>
       </c>
       <c r="AD207" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE207">
         <v>576</v>
@@ -26301,7 +26310,7 @@
         <v>456</v>
       </c>
       <c r="AD208" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE208">
         <v>360</v>
@@ -26408,7 +26417,7 @@
         <v>286</v>
       </c>
       <c r="AD209" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE209">
         <v>2112</v>
@@ -26515,7 +26524,7 @@
         <v>286</v>
       </c>
       <c r="AD210" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE210">
         <v>384</v>
@@ -26619,7 +26628,7 @@
         <v>41</v>
       </c>
       <c r="AC211" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AD211" t="s">
         <v>99</v>
@@ -26663,13 +26672,13 @@
         <v>100</v>
       </c>
       <c r="H212">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I212">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J212">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K212">
         <v>100</v>
@@ -26687,7 +26696,7 @@
         <v>100</v>
       </c>
       <c r="P212">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q212">
         <v>100</v>
@@ -26729,7 +26738,7 @@
         <v>746</v>
       </c>
       <c r="AD212" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE212">
         <v>384</v>
@@ -26833,10 +26842,10 @@
         <v>41</v>
       </c>
       <c r="AC213" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AD213" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE213">
         <v>168</v>
@@ -26868,28 +26877,28 @@
         <v>79</v>
       </c>
       <c r="E214">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F214">
         <v>100</v>
       </c>
       <c r="G214">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H214">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I214">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J214">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K214">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L214">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M214">
         <v>20</v>
@@ -26901,7 +26910,7 @@
         <v>130</v>
       </c>
       <c r="P214">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Q214">
         <v>130</v>
@@ -26943,7 +26952,7 @@
         <v>753</v>
       </c>
       <c r="AD214" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE214">
         <v>720</v>
@@ -27050,7 +27059,7 @@
         <v>507</v>
       </c>
       <c r="AD215" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE215">
         <v>240</v>
@@ -27082,7 +27091,7 @@
         <v>53</v>
       </c>
       <c r="E216">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F216">
         <v>100</v>
@@ -27091,10 +27100,10 @@
         <v>100</v>
       </c>
       <c r="H216">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I216">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J216">
         <v>110</v>
@@ -27103,7 +27112,7 @@
         <v>100</v>
       </c>
       <c r="L216">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M216">
         <v>15</v>
@@ -27112,16 +27121,16 @@
         <v>1</v>
       </c>
       <c r="O216">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P216">
+        <v>100</v>
+      </c>
+      <c r="Q216">
         <v>110</v>
       </c>
-      <c r="Q216">
-        <v>100</v>
-      </c>
       <c r="R216">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="S216">
         <v>10</v>
@@ -27157,7 +27166,7 @@
         <v>469</v>
       </c>
       <c r="AD216" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE216">
         <v>384</v>
@@ -27264,7 +27273,7 @@
         <v>763</v>
       </c>
       <c r="AD217" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE217">
         <v>269</v>
@@ -27368,10 +27377,10 @@
         <v>119</v>
       </c>
       <c r="AC218" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AD218" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE218">
         <v>408</v>
@@ -27475,10 +27484,10 @@
         <v>41</v>
       </c>
       <c r="AC219" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AD219" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE219">
         <v>864</v>
@@ -27582,10 +27591,10 @@
         <v>41</v>
       </c>
       <c r="AC220" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AD220" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE220">
         <v>480</v>
@@ -27629,7 +27638,7 @@
         <v>100</v>
       </c>
       <c r="I221">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J221">
         <v>70</v>
@@ -27692,7 +27701,7 @@
         <v>286</v>
       </c>
       <c r="AD221" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE221">
         <v>336</v>
@@ -27799,7 +27808,7 @@
         <v>780</v>
       </c>
       <c r="AD222" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE222">
         <v>660</v>
@@ -27903,7 +27912,7 @@
         <v>41</v>
       </c>
       <c r="AC223" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AD223" t="s">
         <v>99</v>
@@ -28013,7 +28022,7 @@
         <v>192</v>
       </c>
       <c r="AD224" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE224">
         <v>288</v>
@@ -28075,7 +28084,7 @@
         <v>1</v>
       </c>
       <c r="O225">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P225">
         <v>100</v>
@@ -28120,7 +28129,7 @@
         <v>286</v>
       </c>
       <c r="AD225" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE225">
         <v>540</v>
@@ -28173,7 +28182,7 @@
         <v>100</v>
       </c>
       <c r="L226">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M226">
         <v>15</v>
@@ -28182,10 +28191,10 @@
         <v>1</v>
       </c>
       <c r="O226">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="P226">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q226">
         <v>100</v>
@@ -28227,7 +28236,7 @@
         <v>286</v>
       </c>
       <c r="AD226" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE226">
         <v>900</v>
@@ -28334,7 +28343,7 @@
         <v>192</v>
       </c>
       <c r="AD227" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE227">
         <v>1920</v>
@@ -28396,10 +28405,10 @@
         <v>2</v>
       </c>
       <c r="O228">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P228">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q228">
         <v>110</v>
@@ -28441,7 +28450,7 @@
         <v>456</v>
       </c>
       <c r="AD228" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE228">
         <v>960</v>
@@ -28479,16 +28488,16 @@
         <v>100</v>
       </c>
       <c r="G229">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H229">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I229">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J229">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K229">
         <v>80</v>
@@ -28548,7 +28557,7 @@
         <v>130</v>
       </c>
       <c r="AD229" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE229">
         <v>660</v>
@@ -28652,10 +28661,10 @@
         <v>41</v>
       </c>
       <c r="AC230" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AD230" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE230">
         <v>720</v>
@@ -28759,7 +28768,7 @@
         <v>41</v>
       </c>
       <c r="AC231" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AD231" t="s">
         <v>99</v>
@@ -28869,7 +28878,7 @@
         <v>286</v>
       </c>
       <c r="AD232" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE232">
         <v>336</v>
@@ -29083,7 +29092,7 @@
         <v>512</v>
       </c>
       <c r="AD234" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE234">
         <v>108</v>
@@ -29187,10 +29196,10 @@
         <v>41</v>
       </c>
       <c r="AC235" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AD235" t="s">
         <v>1119</v>
-      </c>
-      <c r="AD235" t="s">
-        <v>1120</v>
       </c>
       <c r="AE235">
         <v>756</v>
@@ -29297,7 +29306,7 @@
         <v>48</v>
       </c>
       <c r="AD236" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE236">
         <v>396</v>
@@ -29404,7 +29413,7 @@
         <v>828</v>
       </c>
       <c r="AD237" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE237">
         <v>720</v>
@@ -29511,7 +29520,7 @@
         <v>828</v>
       </c>
       <c r="AD238" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE238">
         <v>1248</v>
@@ -29618,7 +29627,7 @@
         <v>828</v>
       </c>
       <c r="AD239" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE239">
         <v>522</v>
@@ -29725,7 +29734,7 @@
         <v>828</v>
       </c>
       <c r="AD240" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE240">
         <v>1200</v>
@@ -29832,7 +29841,7 @@
         <v>841</v>
       </c>
       <c r="AD241" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE241">
         <v>540</v>
@@ -29939,7 +29948,7 @@
         <v>845</v>
       </c>
       <c r="AD242" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE242">
         <v>624</v>
@@ -30260,7 +30269,7 @@
         <v>379</v>
       </c>
       <c r="AD245" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE245">
         <v>336</v>
@@ -30367,7 +30376,7 @@
         <v>379</v>
       </c>
       <c r="AD246" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AE246">
         <v>336</v>
@@ -30471,7 +30480,7 @@
         <v>41</v>
       </c>
       <c r="AC247" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AD247" t="s">
         <v>115</v>
@@ -31758,7 +31767,7 @@
         <v>41</v>
       </c>
       <c r="AD259" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE259">
         <v>108</v>
@@ -31865,7 +31874,7 @@
         <v>41</v>
       </c>
       <c r="AD260" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE260">
         <v>336</v>
@@ -32079,7 +32088,7 @@
         <v>120</v>
       </c>
       <c r="AD262" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE262">
         <v>336</v>
@@ -32186,7 +32195,7 @@
         <v>41</v>
       </c>
       <c r="AD263" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE263">
         <v>384</v>
@@ -32290,10 +32299,10 @@
         <v>119</v>
       </c>
       <c r="AC264" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AD264" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE264">
         <v>312</v>
@@ -32504,10 +32513,10 @@
         <v>119</v>
       </c>
       <c r="AC266" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AD266" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE266">
         <v>252</v>
@@ -32614,7 +32623,7 @@
         <v>41</v>
       </c>
       <c r="AD267" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE267">
         <v>432</v>
@@ -32646,7 +32655,7 @@
         <v>74</v>
       </c>
       <c r="E268">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F268">
         <v>100</v>
@@ -32655,28 +32664,28 @@
         <v>100</v>
       </c>
       <c r="H268">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I268">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J268">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K268">
         <v>100</v>
       </c>
       <c r="L268">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M268">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N268">
         <v>2</v>
       </c>
       <c r="O268">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P268">
         <v>100</v>
@@ -32721,7 +32730,7 @@
         <v>922</v>
       </c>
       <c r="AD268" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE268">
         <v>720</v>
@@ -32828,7 +32837,7 @@
         <v>41</v>
       </c>
       <c r="AD269" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE269">
         <v>468</v>
@@ -32935,7 +32944,7 @@
         <v>275</v>
       </c>
       <c r="AD270" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE270">
         <v>540</v>
@@ -33042,7 +33051,7 @@
         <v>41</v>
       </c>
       <c r="AD271" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE271">
         <v>336</v>
@@ -33256,7 +33265,7 @@
         <v>41</v>
       </c>
       <c r="AD273" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE273">
         <v>252</v>
@@ -33363,7 +33372,7 @@
         <v>181</v>
       </c>
       <c r="AD274" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE274">
         <v>576</v>
@@ -33470,7 +33479,7 @@
         <v>275</v>
       </c>
       <c r="AD275" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE275">
         <v>576</v>
@@ -33577,7 +33586,7 @@
         <v>41</v>
       </c>
       <c r="AD276" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE276">
         <v>480</v>
@@ -33684,7 +33693,7 @@
         <v>746</v>
       </c>
       <c r="AD277" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE277">
         <v>900</v>
@@ -33791,7 +33800,7 @@
         <v>275</v>
       </c>
       <c r="AD278" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE278">
         <v>432</v>
@@ -33898,7 +33907,7 @@
         <v>746</v>
       </c>
       <c r="AD279" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE279">
         <v>288</v>
@@ -34005,7 +34014,7 @@
         <v>960</v>
       </c>
       <c r="AD280" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE280">
         <v>1080</v>
@@ -34112,7 +34121,7 @@
         <v>41</v>
       </c>
       <c r="AD281" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE281">
         <v>384</v>
@@ -34219,7 +34228,7 @@
         <v>48</v>
       </c>
       <c r="AD282" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE282">
         <v>540</v>
@@ -34326,7 +34335,7 @@
         <v>327</v>
       </c>
       <c r="AD283" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE283">
         <v>720</v>
@@ -34537,7 +34546,7 @@
         <v>41</v>
       </c>
       <c r="AC285" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AD285" t="s">
         <v>115</v>
@@ -34676,7 +34685,7 @@
         <v>982</v>
       </c>
       <c r="D287">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E287">
         <v>100</v>
@@ -34688,16 +34697,16 @@
         <v>100</v>
       </c>
       <c r="H287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L287">
         <v>100</v>
@@ -34772,7 +34781,7 @@
         <v>1</v>
       </c>
       <c r="AJ287" t="s">
-        <v>984</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="288" spans="1:36" x14ac:dyDescent="0.4">
@@ -34780,13 +34789,13 @@
         <v>4285</v>
       </c>
       <c r="B288" t="s">
+        <v>984</v>
+      </c>
+      <c r="C288" t="s">
         <v>985</v>
       </c>
-      <c r="C288" t="s">
-        <v>986</v>
-      </c>
       <c r="D288">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E288">
         <v>100</v>
@@ -34798,16 +34807,16 @@
         <v>100</v>
       </c>
       <c r="H288">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I288">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J288">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K288">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L288">
         <v>100</v>
@@ -34864,13 +34873,13 @@
         <v>41</v>
       </c>
       <c r="AD288" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AE288">
         <v>216</v>
       </c>
       <c r="AF288" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AG288">
         <v>0</v>
@@ -34882,7 +34891,7 @@
         <v>1</v>
       </c>
       <c r="AJ288" t="s">
-        <v>984</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="289" spans="1:36" x14ac:dyDescent="0.4">
@@ -34890,10 +34899,10 @@
         <v>4286</v>
       </c>
       <c r="B289" t="s">
+        <v>988</v>
+      </c>
+      <c r="C289" t="s">
         <v>989</v>
-      </c>
-      <c r="C289" t="s">
-        <v>990</v>
       </c>
       <c r="D289">
         <v>99</v>
@@ -34971,7 +34980,7 @@
         <v>119</v>
       </c>
       <c r="AC289" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AD289" t="s">
         <v>99</v>
@@ -34980,7 +34989,7 @@
         <v>504</v>
       </c>
       <c r="AF289" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AG289">
         <v>0</v>
@@ -34997,10 +35006,10 @@
         <v>4287</v>
       </c>
       <c r="B290" t="s">
+        <v>991</v>
+      </c>
+      <c r="C290" t="s">
         <v>992</v>
-      </c>
-      <c r="C290" t="s">
-        <v>993</v>
       </c>
       <c r="D290">
         <v>99</v>
@@ -35087,7 +35096,7 @@
         <v>504</v>
       </c>
       <c r="AF290" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AG290">
         <v>0</v>
@@ -35104,10 +35113,10 @@
         <v>4288</v>
       </c>
       <c r="B291" t="s">
+        <v>994</v>
+      </c>
+      <c r="C291" t="s">
         <v>995</v>
-      </c>
-      <c r="C291" t="s">
-        <v>996</v>
       </c>
       <c r="D291">
         <v>43</v>
@@ -35188,13 +35197,13 @@
         <v>48</v>
       </c>
       <c r="AD291" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE291">
         <v>384</v>
       </c>
       <c r="AF291" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AG291">
         <v>0</v>
@@ -35211,10 +35220,10 @@
         <v>4289</v>
       </c>
       <c r="B292" t="s">
+        <v>997</v>
+      </c>
+      <c r="C292" t="s">
         <v>998</v>
-      </c>
-      <c r="C292" t="s">
-        <v>999</v>
       </c>
       <c r="D292">
         <v>69</v>
@@ -35301,7 +35310,7 @@
         <v>480</v>
       </c>
       <c r="AF292" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AG292">
         <v>0</v>
@@ -35318,10 +35327,10 @@
         <v>4290</v>
       </c>
       <c r="B293" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C293" t="s">
         <v>1001</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1002</v>
       </c>
       <c r="D293">
         <v>41</v>
@@ -35408,7 +35417,7 @@
         <v>576</v>
       </c>
       <c r="AF293" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AG293">
         <v>0</v>
@@ -35425,10 +35434,10 @@
         <v>4291</v>
       </c>
       <c r="B294" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C294" t="s">
         <v>1004</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1005</v>
       </c>
       <c r="D294">
         <v>30</v>
@@ -35515,7 +35524,7 @@
         <v>432</v>
       </c>
       <c r="AF294" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AG294">
         <v>0</v>
@@ -35532,10 +35541,10 @@
         <v>4292</v>
       </c>
       <c r="B295" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C295" t="s">
         <v>1007</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1008</v>
       </c>
       <c r="D295">
         <v>65</v>
@@ -35622,7 +35631,7 @@
         <v>624</v>
       </c>
       <c r="AF295" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AG295">
         <v>0</v>
@@ -35639,10 +35648,10 @@
         <v>4293</v>
       </c>
       <c r="B296" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C296" t="s">
         <v>1010</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1011</v>
       </c>
       <c r="D296">
         <v>47</v>
@@ -35729,7 +35738,7 @@
         <v>480</v>
       </c>
       <c r="AF296" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AG296">
         <v>0</v>
@@ -35746,10 +35755,10 @@
         <v>4294</v>
       </c>
       <c r="B297" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C297" t="s">
         <v>1013</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1014</v>
       </c>
       <c r="D297">
         <v>71</v>
@@ -35836,7 +35845,7 @@
         <v>425</v>
       </c>
       <c r="AF297" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AG297">
         <v>0</v>
@@ -35853,10 +35862,10 @@
         <v>4295</v>
       </c>
       <c r="B298" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C298" t="s">
         <v>1016</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1017</v>
       </c>
       <c r="D298">
         <v>33</v>
@@ -35937,13 +35946,13 @@
         <v>41</v>
       </c>
       <c r="AD298" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE298">
         <v>672</v>
       </c>
       <c r="AF298" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AG298">
         <v>0</v>
@@ -35960,10 +35969,10 @@
         <v>4296</v>
       </c>
       <c r="B299" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C299" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D299">
         <v>56</v>
@@ -36050,7 +36059,7 @@
         <v>540</v>
       </c>
       <c r="AF299" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AG299">
         <v>0</v>
@@ -36067,10 +36076,10 @@
         <v>4297</v>
       </c>
       <c r="B300" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C300" t="s">
         <v>1021</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1022</v>
       </c>
       <c r="D300">
         <v>46</v>
@@ -36157,7 +36166,7 @@
         <v>624</v>
       </c>
       <c r="AF300" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AG300">
         <v>0</v>
@@ -36258,7 +36267,7 @@
         <v>39</v>
       </c>
       <c r="AD301" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AE301">
         <v>288</v>
@@ -36281,7 +36290,7 @@
         <v>6000</v>
       </c>
       <c r="B302" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C302" t="s">
         <v>565</v>
@@ -36365,7 +36374,7 @@
         <v>566</v>
       </c>
       <c r="AD302" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE302">
         <v>180</v>
@@ -36383,7 +36392,7 @@
         <v>1</v>
       </c>
       <c r="AJ302" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="303" spans="1:36" x14ac:dyDescent="0.4">
@@ -36391,7 +36400,7 @@
         <v>6001</v>
       </c>
       <c r="B303" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C303" t="s">
         <v>77</v>
@@ -36472,7 +36481,7 @@
         <v>41</v>
       </c>
       <c r="AC303" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AD303" t="s">
         <v>59</v>
@@ -36498,10 +36507,10 @@
         <v>6002</v>
       </c>
       <c r="B304" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C304" t="s">
         <v>1106</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1107</v>
       </c>
       <c r="D304">
         <v>25</v>
@@ -36579,10 +36588,10 @@
         <v>41</v>
       </c>
       <c r="AC304" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AD304" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE304">
         <v>504</v>
@@ -36600,7 +36609,7 @@
         <v>0.7</v>
       </c>
       <c r="AJ304" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="305" spans="1:36" x14ac:dyDescent="0.4">
@@ -36608,10 +36617,10 @@
         <v>6003</v>
       </c>
       <c r="B305" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C305" t="s">
         <v>1125</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1126</v>
       </c>
       <c r="D305">
         <v>48</v>
@@ -36647,10 +36656,10 @@
         <v>1</v>
       </c>
       <c r="O305">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="P305">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q305">
         <v>100</v>
@@ -36692,13 +36701,13 @@
         <v>120</v>
       </c>
       <c r="AD305" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AE305">
         <v>216</v>
       </c>
       <c r="AF305" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AG305">
         <v>0</v>
@@ -36715,10 +36724,10 @@
         <v>6004</v>
       </c>
       <c r="B306" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C306" t="s">
         <v>1128</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1129</v>
       </c>
       <c r="D306">
         <v>38</v>
@@ -36799,13 +36808,13 @@
         <v>41</v>
       </c>
       <c r="AD306" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE306">
         <v>324</v>
       </c>
       <c r="AF306" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AG306">
         <v>0</v>
@@ -36822,10 +36831,10 @@
         <v>6005</v>
       </c>
       <c r="B307" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C307" t="s">
         <v>1136</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1137</v>
       </c>
       <c r="D307">
         <v>34</v>
@@ -36906,7 +36915,7 @@
         <v>275</v>
       </c>
       <c r="AD307" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE307">
         <v>620</v>
@@ -36924,7 +36933,7 @@
         <v>1</v>
       </c>
       <c r="AJ307" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="308" spans="1:36" x14ac:dyDescent="0.4">
@@ -36932,10 +36941,10 @@
         <v>6006</v>
       </c>
       <c r="B308" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C308" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D308">
         <v>31</v>
@@ -37016,13 +37025,13 @@
         <v>48</v>
       </c>
       <c r="AD308" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE308">
         <v>180</v>
       </c>
       <c r="AF308" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AG308">
         <v>0</v>
@@ -37039,10 +37048,10 @@
         <v>6007</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C309" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D309">
         <v>33</v>
@@ -37123,13 +37132,13 @@
         <v>48</v>
       </c>
       <c r="AD309" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE309">
         <v>144</v>
       </c>
       <c r="AF309" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AG309">
         <v>0</v>
@@ -37146,10 +37155,10 @@
         <v>6008</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C310" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D310">
         <v>36</v>
@@ -37230,13 +37239,13 @@
         <v>48</v>
       </c>
       <c r="AD310" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE310">
         <v>144</v>
       </c>
       <c r="AF310" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AG310">
         <v>0</v>
@@ -37253,10 +37262,10 @@
         <v>6009</v>
       </c>
       <c r="B311" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C311" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D311">
         <v>18</v>
@@ -37337,13 +37346,13 @@
         <v>48</v>
       </c>
       <c r="AD311" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE311">
         <v>180</v>
       </c>
       <c r="AF311" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AG311">
         <v>0</v>
@@ -37360,10 +37369,10 @@
         <v>6010</v>
       </c>
       <c r="B312" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C312" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D312">
         <v>20</v>
@@ -37444,13 +37453,13 @@
         <v>48</v>
       </c>
       <c r="AD312" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE312">
         <v>144</v>
       </c>
       <c r="AF312" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AG312">
         <v>0</v>
@@ -37467,10 +37476,10 @@
         <v>6011</v>
       </c>
       <c r="B313" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C313" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D313">
         <v>22</v>
@@ -37551,13 +37560,13 @@
         <v>48</v>
       </c>
       <c r="AD313" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE313">
         <v>144</v>
       </c>
       <c r="AF313" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AG313">
         <v>0</v>
@@ -37574,10 +37583,10 @@
         <v>6012</v>
       </c>
       <c r="B314" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C314" t="s">
         <v>1153</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1154</v>
       </c>
       <c r="D314">
         <v>20</v>
@@ -37681,10 +37690,10 @@
         <v>6013</v>
       </c>
       <c r="B315" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C315" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D315">
         <v>36</v>
@@ -37771,7 +37780,7 @@
         <v>528</v>
       </c>
       <c r="AF315" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AG315">
         <v>0</v>
@@ -37788,10 +37797,10 @@
         <v>6014</v>
       </c>
       <c r="B316" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C316" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D316">
         <v>42</v>
@@ -37851,7 +37860,7 @@
         <v>39</v>
       </c>
       <c r="W316" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="X316">
         <v>1272</v>
@@ -37878,7 +37887,7 @@
         <v>528</v>
       </c>
       <c r="AF316" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AG316">
         <v>0</v>
@@ -37922,30 +37931,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
       <c r="C1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1" t="s">
         <v>1079</v>
       </c>
-      <c r="D1" t="s">
-        <v>1080</v>
-      </c>
       <c r="E1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F1" t="s">
         <v>1039</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -37956,10 +37965,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -37968,18 +37977,18 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
         <v>1081</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -37988,18 +37997,18 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F4" t="s">
         <v>1083</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -38010,10 +38019,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -38022,10 +38031,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F6" t="s">
         <v>1085</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -38049,7 +38058,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -39275,7 +39284,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -39284,13 +39293,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>14</v>
@@ -39998,9 +40007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -40040,21 +40049,21 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N1" t="s">
         <v>1025</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -40098,7 +40107,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -40318,7 +40327,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -40362,7 +40371,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -40450,7 +40459,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -40480,7 +40489,7 @@
         <v>80</v>
       </c>
       <c r="K11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L11">
         <v>105</v>
@@ -41034,7 +41043,7 @@
         <v>120</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F24">
         <v>120</v>
@@ -41043,7 +41052,7 @@
         <v>120</v>
       </c>
       <c r="H24">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I24">
         <v>120</v>
@@ -41078,7 +41087,7 @@
         <v>130</v>
       </c>
       <c r="E25">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F25">
         <v>130</v>
@@ -41087,7 +41096,7 @@
         <v>130</v>
       </c>
       <c r="H25">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I25">
         <v>130</v>
@@ -41122,7 +41131,7 @@
         <v>140</v>
       </c>
       <c r="E26">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F26">
         <v>140</v>
@@ -41131,7 +41140,7 @@
         <v>140</v>
       </c>
       <c r="H26">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I26">
         <v>140</v>
@@ -41166,7 +41175,7 @@
         <v>180</v>
       </c>
       <c r="E27">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F27">
         <v>180</v>
@@ -41175,7 +41184,7 @@
         <v>180</v>
       </c>
       <c r="H27">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I27">
         <v>180</v>
@@ -41198,7 +41207,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B28">
         <v>2000</v>
@@ -41210,7 +41219,7 @@
         <v>180</v>
       </c>
       <c r="E28">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F28">
         <v>180</v>
@@ -41219,7 +41228,7 @@
         <v>180</v>
       </c>
       <c r="H28">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I28">
         <v>180</v>
@@ -41242,7 +41251,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B29">
         <v>3200</v>
@@ -41332,13 +41341,13 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -42286,7 +42295,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -43032,13 +43041,13 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -43458,13 +43467,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A7D354-8BFA-4CB0-A7D9-2F2F96892950}">
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22:T31"/>
+      <selection pane="bottomRight" activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -43479,12 +43488,12 @@
     <col min="18" max="18" width="7.23046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -43493,13 +43502,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -43508,25 +43517,28 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L1" t="s">
         <v>1103</v>
       </c>
-      <c r="L1" t="s">
-        <v>1104</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="T1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="U1" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -43586,8 +43598,12 @@
       <c r="T2">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U2">
+        <f>T2/(1+A2/100)</f>
+        <v>0.97029702970297027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -43644,15 +43660,19 @@
         <v>2.96</v>
       </c>
       <c r="R3" s="1">
-        <f>(R2+A3*T3/3)</f>
-        <v>8.6433333333333326</v>
+        <f>(R2+A3*U3/3)</f>
+        <v>8.6307189542483655</v>
       </c>
       <c r="T3">
         <f>T2-0.015</f>
         <v>0.96499999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="7">T3/(1+A3/100)</f>
+        <v>0.94607843137254899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -43709,15 +43729,19 @@
         <v>3.3851693785009331</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:R67" si="7">(R3+A4*T4/3)</f>
-        <v>9.5933333333333319</v>
+        <f t="shared" ref="R4:R67" si="8">(R3+A4*U4/3)</f>
+        <v>9.5530490513357442</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T21" si="8">T3-0.015</f>
+        <f t="shared" ref="T4:U21" si="9">T3-0.015</f>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U4">
+        <f t="shared" si="7"/>
+        <v>0.92233009708737856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -43774,15 +43798,19 @@
         <v>4.7111191795791818</v>
       </c>
       <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>10.751767000053693</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="9"/>
+        <v>0.93499999999999994</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="7"/>
-        <v>10.839999999999998</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="8"/>
-        <v>0.93499999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.89903846153846145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -43839,15 +43867,19 @@
         <v>6.8443040648796263</v>
       </c>
       <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>12.212084460371154</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="7"/>
-        <v>12.373333333333331</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="8"/>
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.87619047619047608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -43904,15 +43936,19 @@
         <v>9.6705986418552872</v>
       </c>
       <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>13.919631630182474</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>0.90499999999999992</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="7"/>
-        <v>14.183333333333332</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="8"/>
-        <v>0.90499999999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.85377358490566024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -43969,15 +44005,19 @@
         <v>13.485956018358605</v>
       </c>
       <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>15.860441599029826</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="7"/>
-        <v>16.259999999999998</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="8"/>
-        <v>0.8899999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.83177570093457931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -44034,15 +44074,19 @@
         <v>18.507231797373095</v>
       </c>
       <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>18.02093542619032</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>0.87499999999999989</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="7"/>
-        <v>18.59333333333333</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="8"/>
-        <v>0.87499999999999989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.81018518518518501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -44099,15 +44143,19 @@
         <v>25.256637540757247</v>
       </c>
       <c r="R10" s="1">
+        <f t="shared" si="8"/>
+        <v>20.38790790325454</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="7"/>
-        <v>21.173333333333328</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="8"/>
-        <v>0.85999999999999988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.78899082568807322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -44164,15 +44212,19 @@
         <v>36.284054267092948</v>
       </c>
       <c r="R11" s="1">
+        <f t="shared" si="8"/>
+        <v>22.948513963860599</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>0.84499999999999986</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="7"/>
-        <v>23.989999999999995</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="8"/>
-        <v>0.84499999999999986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.76818181818181797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -44229,15 +44281,19 @@
         <v>46.666358204819915</v>
       </c>
       <c r="R12" s="1">
+        <f t="shared" si="8"/>
+        <v>25.69025570560234</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>0.82999999999999985</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="7"/>
-        <v>27.033333333333328</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="8"/>
-        <v>0.82999999999999985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.74774774774774755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -44294,15 +44350,19 @@
         <v>58.286040290838585</v>
       </c>
       <c r="R13" s="1">
+        <f t="shared" si="8"/>
+        <v>28.600969991316624</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>0.81499999999999984</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="7"/>
-        <v>30.293333333333326</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="8"/>
-        <v>0.81499999999999984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.72767857142857117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -44359,15 +44419,19 @@
         <v>71.995139995529954</v>
       </c>
       <c r="R14" s="1">
+        <f t="shared" si="8"/>
+        <v>31.66881659898624</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="9"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="7"/>
-        <v>33.759999999999991</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="8"/>
-        <v>0.79999999999999982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.70796460176991138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -44424,15 +44488,19 @@
         <v>89.555287493698927</v>
       </c>
       <c r="R15" s="1">
+        <f t="shared" si="8"/>
+        <v>34.8822668913839</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="9"/>
+        <v>0.78499999999999981</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="7"/>
-        <v>37.423333333333325</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="8"/>
-        <v>0.78499999999999981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.68859649122806998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -44489,15 +44557,19 @@
         <v>107.12058833521293</v>
       </c>
       <c r="R16" s="1">
+        <f t="shared" si="8"/>
+        <v>38.230092978340423</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="9"/>
+        <v>0.7699999999999998</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="7"/>
-        <v>41.273333333333326</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="8"/>
-        <v>0.7699999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.66956521739130426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -44554,15 +44626,19 @@
         <v>125.73165212200166</v>
       </c>
       <c r="R17" s="1">
+        <f t="shared" si="8"/>
+        <v>41.701357346156513</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>0.75499999999999978</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="7"/>
-        <v>45.29999999999999</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="8"/>
-        <v>0.75499999999999978</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.65086206896551713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -44619,15 +44695,19 @@
         <v>146.17138043185733</v>
       </c>
       <c r="R18" s="1">
+        <f t="shared" si="8"/>
+        <v>45.285402930202096</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="9"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="7"/>
-        <v>49.493333333333325</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="8"/>
-        <v>0.73999999999999977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.63247863247863234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -44684,15 +44764,19 @@
         <v>169.89785718936554</v>
       </c>
       <c r="R19" s="1">
+        <f t="shared" si="8"/>
+        <v>48.9718436081682</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>0.72499999999999976</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="7"/>
-        <v>53.843333333333327</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="8"/>
-        <v>0.72499999999999976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.61440677966101676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -44749,15 +44833,19 @@
         <v>193.77109710118759</v>
       </c>
       <c r="R20" s="1">
+        <f t="shared" si="8"/>
+        <v>52.750555092762035</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>0.70999999999999974</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="7"/>
-        <v>58.339999999999989</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="8"/>
-        <v>0.70999999999999974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.59663865546218464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -44814,15 +44902,19 @@
         <v>248.27231837719162</v>
       </c>
       <c r="R21" s="1">
+        <f t="shared" si="8"/>
+        <v>56.611666203873142</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>0.69499999999999973</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="7"/>
-        <v>62.973333333333322</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="8"/>
-        <v>0.69499999999999973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.5791666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -44879,15 +44971,19 @@
         <v>277.5808441534856</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="7"/>
-        <v>67.908333333333317</v>
+        <f t="shared" si="8"/>
+        <v>60.690178600567357</v>
       </c>
       <c r="T22">
         <f>MIN(1.2,T21+0.01)</f>
         <v>0.70499999999999974</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U22">
+        <f t="shared" si="7"/>
+        <v>0.58264462809917339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -44944,15 +45040,19 @@
         <v>309.56160375849305</v>
       </c>
       <c r="R23" s="1">
+        <f t="shared" si="8"/>
+        <v>64.987992808217626</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ref="T23:U31" si="10">MIN(1.2,T22+0.01)</f>
+        <v>0.71499999999999975</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="7"/>
-        <v>73.151666666666642</v>
-      </c>
-      <c r="T23">
-        <f t="shared" ref="T23:T31" si="9">MIN(1.2,T22+0.01)</f>
-        <v>0.71499999999999975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.58606557377049162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -45009,15 +45109,19 @@
         <v>341.82259850653736</v>
       </c>
       <c r="R24" s="1">
+        <f t="shared" si="8"/>
+        <v>69.506962997919516</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="10"/>
+        <v>0.72499999999999976</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="7"/>
-        <v>78.70999999999998</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="9"/>
-        <v>0.72499999999999976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.58943089430894291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -45074,15 +45178,19 @@
         <v>398.0854202491825</v>
       </c>
       <c r="R25" s="1">
+        <f t="shared" si="8"/>
+        <v>74.248898481790476</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="10"/>
+        <v>0.73499999999999976</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="7"/>
-        <v>84.589999999999975</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="9"/>
-        <v>0.73499999999999976</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.59274193548387077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -45139,15 +45247,19 @@
         <v>434.6605086716188</v>
       </c>
       <c r="R26" s="1">
+        <f t="shared" si="8"/>
+        <v>79.215565148457145</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="10"/>
+        <v>0.74499999999999977</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="7"/>
-        <v>90.798333333333304</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="9"/>
-        <v>0.74499999999999977</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.59599999999999986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -45204,15 +45316,19 @@
         <v>473.51130506311205</v>
       </c>
       <c r="R27" s="1">
+        <f t="shared" si="8"/>
+        <v>84.408686841578842</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="10"/>
+        <v>0.75499999999999978</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="7"/>
-        <v>97.34166666666664</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="9"/>
-        <v>0.75499999999999978</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.59920634920634908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -45269,15 +45385,19 @@
         <v>512.40569899456557</v>
       </c>
       <c r="R28" s="1">
+        <f t="shared" si="8"/>
+        <v>89.82994668409853</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="10"/>
+        <v>0.76499999999999979</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="7"/>
-        <v>104.22666666666663</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="9"/>
-        <v>0.76499999999999979</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.60236220472440927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -45334,15 +45454,19 @@
         <v>570.30126179817751</v>
       </c>
       <c r="R29" s="1">
+        <f t="shared" si="8"/>
+        <v>95.480988350765188</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="10"/>
+        <v>0.7749999999999998</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="7"/>
-        <v>111.45999999999997</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="9"/>
-        <v>0.7749999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.60546874999999978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -45399,15 +45523,19 @@
         <v>612.76912930566448</v>
       </c>
       <c r="R30" s="1">
+        <f t="shared" si="8"/>
+        <v>101.36341729133366</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="10"/>
+        <v>0.78499999999999981</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="7"/>
-        <v>119.04833333333329</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="9"/>
-        <v>0.78499999999999981</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.6085271317829456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -45464,15 +45592,19 @@
         <v>736.1441210381048</v>
       </c>
       <c r="R31" s="1">
+        <f t="shared" si="8"/>
+        <v>107.47880190671827</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="10"/>
+        <v>0.79499999999999982</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="7"/>
-        <v>126.99833333333329</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="9"/>
-        <v>0.79499999999999982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.61153846153846136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -45529,15 +45661,19 @@
         <v>784.63905389289596</v>
       </c>
       <c r="R32" s="1">
+        <f t="shared" si="8"/>
+        <v>113.86811488381751</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ref="T23:U86" si="11">MIN(1.2,T31+0.015)</f>
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="7"/>
-        <v>135.36833333333328</v>
-      </c>
-      <c r="T32">
-        <f t="shared" ref="T23:T86" si="10">MIN(1.2,T31+0.015)</f>
-        <v>0.80999999999999983</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.61832061068702271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -45594,15 +45730,19 @@
         <v>848.33052407836146</v>
       </c>
       <c r="R33" s="1">
+        <f t="shared" si="8"/>
+        <v>120.53478155048418</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="11"/>
+        <v>0.82499999999999984</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="7"/>
-        <v>144.16833333333329</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="10"/>
-        <v>0.82499999999999984</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.62499999999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -45627,11 +45767,11 @@
         <v>1049.5802164999225</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G65" si="11">FLOOR(A34*0.8,1)+1</f>
+        <f t="shared" ref="G34:G65" si="12">FLOOR(A34*0.8,1)+1</f>
         <v>27</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="12">FLOOR(A34/3,1)+1</f>
+        <f t="shared" ref="H34:H65" si="13">FLOOR(A34/3,1)+1</f>
         <v>12</v>
       </c>
       <c r="J34" s="1">
@@ -45651,7 +45791,7 @@
         <v>2296</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O65" si="13">MAX(1,1+(1-POWER(1-(A34-10)/200,3)))</f>
+        <f t="shared" ref="O34:O65" si="14">MAX(1,1+(1-POWER(1-(A34-10)/200,3)))</f>
         <v>1.306845875</v>
       </c>
       <c r="Q34" s="1">
@@ -45659,15 +45799,19 @@
         <v>899.53956421982036</v>
       </c>
       <c r="R34" s="1">
+        <f t="shared" si="8"/>
+        <v>127.48214997153681</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="11"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="7"/>
-        <v>153.4083333333333</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="10"/>
-        <v>0.83999999999999986</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.63157894736842091</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -45684,7 +45828,7 @@
         <v>123.88043410968659</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ref="E35:E60" si="14">E34+A35/(75-A35/2)</f>
+        <f t="shared" ref="E35:E60" si="15">E34+A35/(75-A35/2)</f>
         <v>11.393958313724784</v>
       </c>
       <c r="F35" s="1">
@@ -45692,11 +45836,11 @@
         <v>1095.1384879576653</v>
       </c>
       <c r="G35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="H35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="J35" s="1">
@@ -45712,11 +45856,11 @@
         <v>770.47227707670027</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" ref="M35:M66" si="15">M34+A35*4</f>
+        <f t="shared" ref="M35:M66" si="16">M34+A35*4</f>
         <v>2432</v>
       </c>
       <c r="O35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3185280000000001</v>
       </c>
       <c r="Q35" s="1">
@@ -45724,15 +45868,19 @@
         <v>1015.8892705493874</v>
       </c>
       <c r="R35" s="1">
+        <f t="shared" si="8"/>
+        <v>134.71349325511889</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="11"/>
+        <v>0.85499999999999987</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="7"/>
-        <v>163.0983333333333</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="10"/>
-        <v>0.85499999999999987</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.63805970149253721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -45749,7 +45897,7 @@
         <v>128.74292639411672</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.002653965898698</v>
       </c>
       <c r="F36" s="1">
@@ -45757,11 +45905,11 @@
         <v>1143.5602947895231</v>
       </c>
       <c r="G36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
       <c r="H36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="J36" s="1">
@@ -45777,11 +45925,11 @@
         <v>806.10267862181115</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2572</v>
       </c>
       <c r="O36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.330078125</v>
       </c>
       <c r="Q36" s="1">
@@ -45789,15 +45937,19 @@
         <v>1072.1795393387761</v>
       </c>
       <c r="R36" s="1">
+        <f t="shared" si="8"/>
+        <v>142.2320117736374</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="11"/>
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="7"/>
-        <v>173.24833333333331</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="10"/>
-        <v>0.86999999999999988</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.64444444444444426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -45814,7 +45966,7 @@
         <v>135.25753061621444</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.63423291326712</v>
       </c>
       <c r="F37" s="1">
@@ -45822,11 +45974,11 @@
         <v>1195.0337200444576</v>
       </c>
       <c r="G37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
       <c r="H37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="J37" s="1">
@@ -45842,11 +45994,11 @@
         <v>850.14940788003537</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2716</v>
       </c>
       <c r="O37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3414969999999999</v>
       </c>
       <c r="Q37" s="1">
@@ -45854,15 +46006,19 @@
         <v>1140.4728802228435</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="7"/>
-        <v>183.98833333333332</v>
+        <f t="shared" si="8"/>
+        <v>150.12907059716682</v>
       </c>
       <c r="T37">
         <f>MIN(1.25,T36+0.025)</f>
         <v>0.89499999999999991</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U37">
+        <f t="shared" si="7"/>
+        <v>0.65808823529411764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -45879,7 +46035,7 @@
         <v>141.98302194103042</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.289100169904287</v>
       </c>
       <c r="F38" s="1">
@@ -45887,11 +46043,11 @@
         <v>1249.7586429280655</v>
       </c>
       <c r="G38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="H38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="J38" s="1">
@@ -45907,11 +46063,11 @@
         <v>886.11747503083336</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2864</v>
       </c>
       <c r="O38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3527853749999998</v>
       </c>
       <c r="Q38" s="1">
@@ -45919,15 +46075,19 @@
         <v>1198.7267607536389</v>
       </c>
       <c r="R38" s="1">
+        <f t="shared" si="8"/>
+        <v>158.41130903998919</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38:U100" si="17">MIN(1.25,T37+0.025)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="7"/>
-        <v>195.33499999999998</v>
-      </c>
-      <c r="T38">
-        <f t="shared" ref="T38:T100" si="16">MIN(1.25,T37+0.025)</f>
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.67153284671532831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -45944,7 +46104,7 @@
         <v>148.9277245170374</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.967671598475716</v>
       </c>
       <c r="F39" s="1">
@@ -45952,11 +46112,11 @@
         <v>1307.9477452402205</v>
       </c>
       <c r="G39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="H39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="J39" s="1">
@@ -45972,11 +46132,11 @@
         <v>960.36339088921238</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3016</v>
       </c>
       <c r="O39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.363944</v>
       </c>
       <c r="Q39" s="1">
@@ -45984,15 +46144,19 @@
         <v>1309.881884822996</v>
       </c>
       <c r="R39" s="1">
+        <f t="shared" si="8"/>
+        <v>167.08522208346744</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="17"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="U39">
         <f t="shared" si="7"/>
-        <v>207.30499999999998</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="16"/>
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.68478260869565222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -46009,7 +46173,7 @@
         <v>156.10067202865125</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14.67037430117842</v>
       </c>
       <c r="F40" s="1">
@@ -46017,11 +46181,11 @@
         <v>1369.8275598337098</v>
       </c>
       <c r="G40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="H40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="J40" s="1">
@@ -46037,11 +46201,11 @@
         <v>997.94869078622992</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3172</v>
       </c>
       <c r="O40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.374973625</v>
       </c>
       <c r="Q40" s="1">
@@ -46049,15 +46213,19 @@
         <v>1372.1531289343468</v>
       </c>
       <c r="R40" s="1">
+        <f t="shared" si="8"/>
+        <v>176.1571645295106</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="17"/>
+        <v>0.97</v>
+      </c>
+      <c r="U40">
         <f t="shared" si="7"/>
-        <v>219.91499999999996</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="16"/>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.69784172661870492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -46074,7 +46242,7 @@
         <v>203.31166666666664</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15.397647028451146</v>
       </c>
       <c r="F41" s="1">
@@ -46082,11 +46250,11 @@
         <v>1827.1776324770437</v>
       </c>
       <c r="G41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="H41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="J41" s="1">
@@ -46102,11 +46270,11 @@
         <v>1142.8255939349087</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3332</v>
       </c>
       <c r="O41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.385875</v>
       </c>
       <c r="Q41" s="1">
@@ -46114,15 +46282,19 @@
         <v>1583.8134199945416</v>
       </c>
       <c r="R41" s="1">
+        <f t="shared" si="8"/>
+        <v>185.63335500570108</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="17"/>
+        <v>0.995</v>
+      </c>
+      <c r="U41">
         <f t="shared" si="7"/>
-        <v>233.18166666666662</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="16"/>
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.71071428571428574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -46139,7 +46311,7 @@
         <v>212.99134290859232</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16.149940606432796</v>
       </c>
       <c r="F42" s="1">
@@ -46147,11 +46319,11 @@
         <v>1916.2708162005149</v>
       </c>
       <c r="G42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="H42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="J42" s="1">
@@ -46167,11 +46339,11 @@
         <v>1182.9775172335774</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3496</v>
       </c>
       <c r="O42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3966488750000001</v>
       </c>
       <c r="Q42" s="1">
@@ -46179,15 +46351,19 @@
         <v>1652.2042185945691</v>
       </c>
       <c r="R42" s="1">
+        <f t="shared" si="8"/>
+        <v>195.51987982839611</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="17"/>
+        <v>1.02</v>
+      </c>
+      <c r="U42">
         <f t="shared" si="7"/>
-        <v>247.12166666666661</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="16"/>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.72340425531914898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -46204,7 +46380,7 @@
         <v>222.98123649555041</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16.927718384210575</v>
       </c>
       <c r="F43" s="1">
@@ -46212,11 +46388,11 @@
         <v>2011.0463254150047</v>
       </c>
       <c r="G43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="H43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="J43" s="1">
@@ -46232,11 +46408,11 @@
         <v>1253.4888318837404</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3664</v>
       </c>
       <c r="O43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4072960000000001</v>
       </c>
       <c r="Q43" s="1">
@@ -46244,15 +46420,19 @@
         <v>1764.0298191546603</v>
       </c>
       <c r="R43" s="1">
+        <f t="shared" si="8"/>
+        <v>205.82269672980456</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="17"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="U43">
         <f t="shared" si="7"/>
-        <v>261.75166666666661</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="16"/>
-        <v>1.0449999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.7359154929577465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -46269,7 +46449,7 @@
         <v>233.2938590231316</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17.731456701967584</v>
       </c>
       <c r="F44" s="1">
@@ -46277,11 +46457,11 @@
         <v>2111.8777249414638</v>
       </c>
       <c r="G44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="H44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="J44" s="1">
@@ -46297,11 +46477,11 @@
         <v>1294.552424264921</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3836</v>
       </c>
       <c r="O44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.417817125</v>
       </c>
       <c r="Q44" s="1">
@@ -46309,15 +46489,19 @@
         <v>1835.4385963330706</v>
       </c>
       <c r="R44" s="1">
+        <f t="shared" si="8"/>
+        <v>216.54763845474628</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="17"/>
+        <v>1.0699999999999998</v>
+      </c>
+      <c r="U44">
         <f t="shared" si="7"/>
-        <v>277.08833333333325</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="16"/>
-        <v>1.0699999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.74825174825174823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -46334,7 +46518,7 @@
         <v>243.94277859674105</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18.561645381212866</v>
       </c>
       <c r="F45" s="1">
@@ -46342,11 +46526,11 @@
         <v>2219.1640039253225</v>
       </c>
       <c r="G45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="H45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="J45" s="1">
@@ -46362,11 +46546,11 @@
         <v>1421.7285490573067</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4012</v>
       </c>
       <c r="O45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.428213</v>
       </c>
       <c r="Q45" s="1">
@@ -46374,15 +46558,19 @@
         <v>2030.5311962347832</v>
       </c>
       <c r="R45" s="1">
+        <f t="shared" si="8"/>
+        <v>227.70041623252405</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="17"/>
+        <v>1.0949999999999998</v>
+      </c>
+      <c r="U45">
         <f t="shared" si="7"/>
-        <v>293.14833333333326</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="16"/>
-        <v>1.0949999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.76041666666666652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -46399,7 +46587,7 @@
         <v>254.94270703772577</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19.418788238355724</v>
       </c>
       <c r="F46" s="1">
@@ -46407,11 +46595,11 @@
         <v>2333.3314239700671</v>
       </c>
       <c r="G46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="H46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="J46" s="1">
@@ -46427,11 +46615,11 @@
         <v>1464.7580560112062</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4192</v>
       </c>
       <c r="O46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.438484375</v>
       </c>
       <c r="Q46" s="1">
@@ -46439,15 +46627,19 @@
         <v>2107.0315767274951</v>
       </c>
       <c r="R46" s="1">
+        <f t="shared" si="8"/>
+        <v>239.28662312907576</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="17"/>
+        <v>1.1199999999999997</v>
+      </c>
+      <c r="U46">
         <f t="shared" si="7"/>
-        <v>309.94833333333327</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="16"/>
-        <v>1.1199999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.77241379310344804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -46464,7 +46656,7 @@
         <v>266.30959416513701</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20.303403622971107</v>
       </c>
       <c r="F47" s="1">
@@ -46472,11 +46664,11 @@
         <v>2454.8354856514329</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="H47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="J47" s="1">
@@ -46492,11 +46684,11 @@
         <v>1532.0873984755315</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4376</v>
       </c>
       <c r="O47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4486319999999999</v>
       </c>
       <c r="Q47" s="1">
@@ -46504,15 +46696,19 @@
         <v>2219.430832228406</v>
       </c>
       <c r="R47" s="1">
+        <f t="shared" si="8"/>
+        <v>251.31173728432691</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="17"/>
+        <v>1.1449999999999996</v>
+      </c>
+      <c r="U47">
         <f t="shared" si="7"/>
-        <v>327.50499999999994</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="16"/>
-        <v>1.1449999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.78424657534246545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -46529,7 +46725,7 @@
         <v>278.06072971957735</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21.216024982194408</v>
       </c>
       <c r="F48" s="1">
@@ -46537,11 +46733,11 @@
         <v>2584.1630233987385</v>
       </c>
       <c r="G48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38</v>
       </c>
       <c r="H48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="J48" s="1">
@@ -46557,11 +46753,11 @@
         <v>1575.408433558189</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4564</v>
       </c>
       <c r="O48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4586566250000002</v>
       </c>
       <c r="Q48" s="1">
@@ -46569,15 +46765,19 @@
         <v>2297.9799486905249</v>
       </c>
       <c r="R48" s="1">
+        <f t="shared" si="8"/>
+        <v>263.78112503942896</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="17"/>
+        <v>1.1699999999999995</v>
+      </c>
+      <c r="U48">
         <f t="shared" si="7"/>
-        <v>345.83499999999992</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="16"/>
-        <v>1.1699999999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.79591836734693844</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -46594,7 +46794,7 @@
         <v>290.21485354044364</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22.157201452782644</v>
       </c>
       <c r="F49" s="1">
@@ -46602,11 +46802,11 @@
         <v>2721.834439121636</v>
       </c>
       <c r="G49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="H49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="J49" s="1">
@@ -46622,11 +46822,11 @@
         <v>1688.7038275996667</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4756</v>
       </c>
       <c r="O49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4685589999999999</v>
       </c>
       <c r="Q49" s="1">
@@ -46634,15 +46834,19 @@
         <v>2479.9612043559387</v>
       </c>
       <c r="R49" s="1">
+        <f t="shared" si="8"/>
+        <v>276.70004395834786</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="17"/>
+        <v>1.1949999999999994</v>
+      </c>
+      <c r="U49">
         <f t="shared" si="7"/>
-        <v>364.95499999999993</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="16"/>
-        <v>1.1949999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.80743243243243201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -46659,7 +46863,7 @@
         <v>302.79227465626349</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>23.127498482485613</v>
       </c>
       <c r="F50" s="1">
@@ -46667,11 +46871,11 @@
         <v>2868.4060854161162</v>
       </c>
       <c r="G50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="H50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="J50" s="1">
@@ -46687,11 +46891,11 @@
         <v>1733.4447029078538</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4952</v>
       </c>
       <c r="O50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4783398750000001</v>
       </c>
       <c r="Q50" s="1">
@@ -46699,15 +46903,19 @@
         <v>2562.6204254162085</v>
       </c>
       <c r="R50" s="1">
+        <f t="shared" si="8"/>
+        <v>290.073645748057</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="17"/>
+        <v>1.2199999999999993</v>
+      </c>
+      <c r="U50">
         <f t="shared" si="7"/>
-        <v>384.8816666666666</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="16"/>
-        <v>1.2199999999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.81879194630872443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -46724,7 +46932,7 @@
         <v>315.81499999999983</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24.127498482485613</v>
       </c>
       <c r="F51" s="1">
@@ -46732,11 +46940,11 @@
         <v>3849.3290305282931</v>
       </c>
       <c r="G51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="H51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="J51" s="1">
@@ -46752,11 +46960,11 @@
         <v>1934.7542226053195</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5152</v>
       </c>
       <c r="O51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.488</v>
       </c>
       <c r="Q51" s="1">
@@ -46764,15 +46972,19 @@
         <v>2878.9142832367152</v>
       </c>
       <c r="R51" s="1">
+        <f t="shared" si="8"/>
+        <v>303.90697908139032</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="17"/>
+        <v>1.2449999999999992</v>
+      </c>
+      <c r="U51">
         <f t="shared" si="7"/>
-        <v>405.6316666666666</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="16"/>
-        <v>1.2449999999999992</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.82999999999999952</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -46789,7 +47001,7 @@
         <v>324.12093850145169</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.157801512788645</v>
       </c>
       <c r="F52" s="1">
@@ -46797,11 +47009,11 @@
         <v>4060.8535815417863</v>
       </c>
       <c r="G52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="H52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="J52" s="1">
@@ -46817,11 +47029,11 @@
         <v>1981.5889101655705</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5356</v>
       </c>
       <c r="O52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.497540125</v>
       </c>
       <c r="Q52" s="1">
@@ -46829,15 +47041,19 @@
         <v>2967.5089042279624</v>
       </c>
       <c r="R52" s="1">
+        <f t="shared" si="8"/>
+        <v>317.97982676350955</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U52">
         <f t="shared" si="7"/>
-        <v>426.8816666666666</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.82781456953642385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -46854,7 +47070,7 @@
         <v>331.36460086654807</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>26.219026002584563</v>
       </c>
       <c r="F53" s="1">
@@ -46862,11 +47078,11 @@
         <v>4286.1379825299327</v>
       </c>
       <c r="G53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="H53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="J53" s="1">
@@ -46882,11 +47098,11 @@
         <v>2085.7456519827742</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5564</v>
       </c>
       <c r="O53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.506961</v>
       </c>
       <c r="Q53" s="1">
@@ -46894,15 +47110,19 @@
         <v>3143.1373534576137</v>
       </c>
       <c r="R53" s="1">
+        <f t="shared" si="8"/>
+        <v>332.23421272842182</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U53">
         <f t="shared" si="7"/>
-        <v>448.54833333333329</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.82236842105263153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -46919,7 +47139,7 @@
         <v>338.82910986713</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.311809507739202</v>
       </c>
       <c r="F54" s="1">
@@ -46927,11 +47147,11 @@
         <v>4526.10800104808</v>
       </c>
       <c r="G54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="H54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="J54" s="1">
@@ -46947,11 +47167,11 @@
         <v>2133.3966214757656</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5776</v>
       </c>
       <c r="O54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5162633749999999</v>
       </c>
       <c r="Q54" s="1">
@@ -46959,15 +47179,19 @@
         <v>3234.7911614924415</v>
       </c>
       <c r="R54" s="1">
+        <f t="shared" si="8"/>
+        <v>346.6677639266789</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U54">
         <f t="shared" si="7"/>
-        <v>470.6316666666666</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.81699346405228757</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -46984,7 +47208,7 @@
         <v>346.53031643091572</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28.436809507739202</v>
       </c>
       <c r="F55" s="1">
@@ -46992,11 +47216,11 @@
         <v>4781.7537144130192</v>
       </c>
       <c r="G55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="H55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="J55" s="1">
@@ -47012,11 +47236,11 @@
         <v>2310.3181415250178</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5992</v>
       </c>
       <c r="O55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5254479999999999</v>
       </c>
       <c r="Q55" s="1">
@@ -47024,15 +47248,19 @@
         <v>3524.2701883530558</v>
       </c>
       <c r="R55" s="1">
+        <f t="shared" si="8"/>
+        <v>361.27815353706853</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U55">
         <f t="shared" si="7"/>
-        <v>493.1316666666666</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.81168831168831168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -47049,7 +47277,7 @@
         <v>354.48520916159049</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.594704244581308</v>
       </c>
       <c r="F56" s="1">
@@ -47057,11 +47285,11 @@
         <v>5054.1340167656153</v>
       </c>
       <c r="G56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="H56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="J56" s="1">
@@ -47077,11 +47305,11 @@
         <v>2359.4727309917425</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6212</v>
       </c>
       <c r="O56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.534515625</v>
       </c>
       <c r="Q56" s="1">
@@ -47089,15 +47317,19 @@
         <v>3620.6477724682509</v>
       </c>
       <c r="R56" s="1">
+        <f t="shared" si="8"/>
+        <v>376.0630997736277</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U56">
         <f t="shared" si="7"/>
-        <v>516.04833333333329</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.80645161290322576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -47114,7 +47346,7 @@
         <v>362.71199599374927</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30.786193606283437</v>
       </c>
       <c r="F57" s="1">
@@ -47122,11 +47354,11 @@
         <v>5344.3814356101711</v>
       </c>
       <c r="G57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="H57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="J57" s="1">
@@ -47142,11 +47374,11 @@
         <v>2456.0438603650373</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6436</v>
       </c>
       <c r="O57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5434669999999999</v>
       </c>
       <c r="Q57" s="1">
@@ -47154,15 +47386,19 @@
         <v>3790.8226490260427</v>
       </c>
       <c r="R57" s="1">
+        <f t="shared" si="8"/>
+        <v>391.02036473089265</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U57">
         <f t="shared" si="7"/>
-        <v>539.38166666666666</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.80128205128205121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -47179,7 +47415,7 @@
         <v>371.23019170849886</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.012000057896337</v>
       </c>
       <c r="F58" s="1">
@@ -47187,11 +47423,11 @@
         <v>5653.7072789405529</v>
       </c>
       <c r="G58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="H58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J58" s="1">
@@ -47207,11 +47443,11 @@
         <v>2505.4978453528379</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6664</v>
       </c>
       <c r="O58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5523028750000001</v>
       </c>
       <c r="Q58" s="1">
@@ -47219,15 +47455,19 @@
         <v>3889.2915086475155</v>
       </c>
       <c r="R58" s="1">
+        <f t="shared" si="8"/>
+        <v>406.14775326592451</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U58">
         <f t="shared" si="7"/>
-        <v>563.13166666666666</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.79617834394904463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -47244,7 +47484,7 @@
         <v>380.06071173035662</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>33.272869623113728</v>
       </c>
       <c r="F59" s="1">
@@ -47252,11 +47492,11 @@
         <v>5983.4071353001809</v>
       </c>
       <c r="G59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="H59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J59" s="1">
@@ -47272,11 +47512,11 @@
         <v>2662.6813807154231</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6896</v>
       </c>
       <c r="O59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.561024</v>
       </c>
       <c r="Q59" s="1">
@@ -47284,15 +47524,19 @@
         <v>4156.5095396499128</v>
       </c>
       <c r="R59" s="1">
+        <f t="shared" si="8"/>
+        <v>421.44311191571353</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U59">
         <f t="shared" si="7"/>
-        <v>587.29833333333329</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.79113924050632911</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -47309,7 +47553,7 @@
         <v>389.22597265627803</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>34.569572919817027</v>
       </c>
       <c r="F60" s="1">
@@ -47317,11 +47561,11 @@
         <v>6334.8667504306441</v>
       </c>
       <c r="G60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="H60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J60" s="1">
@@ -47337,11 +47581,11 @@
         <v>2713.1034100467191</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7132</v>
       </c>
       <c r="O60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5696311249999999</v>
       </c>
       <c r="Q60" s="1">
@@ -47349,15 +47593,19 @@
         <v>4258.5715577529672</v>
       </c>
       <c r="R60" s="1">
+        <f t="shared" si="8"/>
+        <v>436.90432784862759</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U60">
         <f t="shared" si="7"/>
-        <v>611.88166666666666</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.78616352201257866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -47374,7 +47622,7 @@
         <v>711.25</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ref="E61:E100" si="17">E60+A61/(75-A61/1.5)</f>
+        <f t="shared" ref="E61:E100" si="18">E60+A61/(75-A61/1.5)</f>
         <v>36.283858634102742</v>
       </c>
       <c r="F61" s="1">
@@ -47382,11 +47630,11 @@
         <v>7846.2363211463753</v>
       </c>
       <c r="G61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="H61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J61" s="1">
@@ -47402,11 +47650,11 @@
         <v>2940.7375882124579</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7372</v>
       </c>
       <c r="O61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.578125</v>
       </c>
       <c r="Q61" s="1">
@@ -47414,15 +47662,19 @@
         <v>4640.8515063977857</v>
       </c>
       <c r="R61" s="1">
+        <f t="shared" si="8"/>
+        <v>452.52932784862759</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U61">
         <f t="shared" si="7"/>
-        <v>636.88166666666666</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -47439,7 +47691,7 @@
         <v>719.49187700290338</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>38.060557663228956</v>
       </c>
       <c r="F62" s="1">
@@ -47447,11 +47699,11 @@
         <v>8227.9641093491409</v>
       </c>
       <c r="G62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="H62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J62" s="1">
@@ -47467,11 +47719,11 @@
         <v>2961.4470981763648</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7616</v>
       </c>
       <c r="O62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5865063749999999</v>
       </c>
       <c r="Q62" s="1">
@@ -47479,15 +47731,19 @@
         <v>4698.354700482053</v>
       </c>
       <c r="R62" s="1">
+        <f t="shared" si="8"/>
+        <v>468.31607733102925</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U62">
         <f t="shared" si="7"/>
-        <v>662.29833333333329</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.77639751552795033</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -47504,7 +47760,7 @@
         <v>728.14586839976278</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39.902141821644797</v>
       </c>
       <c r="F63" s="1">
@@ -47512,11 +47768,11 @@
         <v>8633.0451688056219</v>
       </c>
       <c r="G63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="H63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J63" s="1">
@@ -47532,11 +47788,11 @@
         <v>3069.6168326479046</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7864</v>
       </c>
       <c r="O63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.594776</v>
       </c>
       <c r="Q63" s="1">
@@ -47544,15 +47800,19 @@
         <v>4895.3512539028952</v>
       </c>
       <c r="R63" s="1">
+        <f t="shared" si="8"/>
+        <v>484.26257938864239</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U63">
         <f t="shared" si="7"/>
-        <v>688.13166666666666</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.77160493827160492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -47569,7 +47829,7 @@
         <v>737.24155306759326</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41.811232730735703</v>
       </c>
       <c r="F64" s="1">
@@ -47577,11 +47837,11 @@
         <v>9062.7486251471419</v>
       </c>
       <c r="G64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="H64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="J64" s="1">
@@ -47597,11 +47857,11 @@
         <v>3089.4497442080365</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8116</v>
       </c>
       <c r="O64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6029346250000001</v>
       </c>
       <c r="Q64" s="1">
@@ -47609,15 +47869,19 @@
         <v>4952.1859671884558</v>
       </c>
       <c r="R64" s="1">
+        <f t="shared" si="8"/>
+        <v>500.36687386717</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U64">
         <f t="shared" si="7"/>
-        <v>714.38166666666666</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.76687116564417179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -47634,7 +47898,7 @@
         <v>746.81063286183144</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>43.790614174034673</v>
       </c>
       <c r="F65" s="1">
@@ -47642,11 +47906,11 @@
         <v>9518.4132262741623</v>
       </c>
       <c r="G65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
       <c r="H65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="J65" s="1">
@@ -47662,11 +47926,11 @@
         <v>3276.1207292792942</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8372</v>
       </c>
       <c r="O65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6109830000000001</v>
       </c>
       <c r="Q65" s="1">
@@ -47674,15 +47938,19 @@
         <v>5277.7748008165445</v>
       </c>
       <c r="R65" s="1">
+        <f t="shared" si="8"/>
+        <v>516.62703646879606</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U65">
         <f t="shared" si="7"/>
-        <v>741.04833333333329</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.76219512195121941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -47699,7 +47967,7 @@
         <v>756.88708498984749</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45.843245752982043</v>
       </c>
       <c r="F66" s="1">
@@ -47707,11 +47975,11 @@
         <v>10001.448844294708</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G100" si="18">FLOOR(A66*0.8,1)+1</f>
+        <f t="shared" ref="G66:G100" si="19">FLOOR(A66*0.8,1)+1</f>
         <v>53</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H100" si="19">FLOOR(A66/3,1)+1</f>
+        <f t="shared" ref="H66:H100" si="20">FLOOR(A66/3,1)+1</f>
         <v>22</v>
       </c>
       <c r="J66" s="1">
@@ -47727,11 +47995,11 @@
         <v>3294.787015995053</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8632</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O100" si="20">MAX(1,1+(1-POWER(1-(A66-10)/200,3)))</f>
+        <f t="shared" ref="O66:O100" si="21">MAX(1,1+(1-POWER(1-(A66-10)/200,3)))</f>
         <v>1.6189218750000001</v>
       </c>
       <c r="Q66" s="1">
@@ -47739,24 +48007,28 @@
         <v>5334.0027736603661</v>
       </c>
       <c r="R66" s="1">
+        <f t="shared" si="8"/>
+        <v>533.04117788293752</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="U66">
         <f t="shared" si="7"/>
-        <v>768.13166666666666</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B100" si="21">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
+        <f t="shared" ref="B67:B100" si="22">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
         <v>47.700586025666546</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:C100" si="22">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
+        <f t="shared" ref="C67:C100" si="23">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
         <v>6962.5341487715887</v>
       </c>
       <c r="D67" s="1">
@@ -47764,7 +48036,7 @@
         <v>767.50732532083191</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>47.972278011046555</v>
       </c>
       <c r="F67" s="1">
@@ -47772,11 +48044,11 @@
         <v>10513.337825321376</v>
       </c>
       <c r="G67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>53</v>
       </c>
       <c r="H67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="J67" s="1">
@@ -47792,11 +48064,11 @@
         <v>3384.2566243891074</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" ref="M67:M100" si="23">M66+A67*4</f>
+        <f t="shared" ref="M67:M100" si="24">M66+A67*4</f>
         <v>8896</v>
       </c>
       <c r="O67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.626752</v>
       </c>
       <c r="Q67" s="1">
@@ -47804,24 +48076,28 @@
         <v>5505.3462322382293</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="7"/>
-        <v>795.63166666666666</v>
+        <f t="shared" si="8"/>
+        <v>549.60744294317851</v>
       </c>
       <c r="T67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U67">
+        <f t="shared" ref="U67:U100" si="25">T67/(1+A67/100)</f>
+        <v>0.75301204819277101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>48.396830673359815</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7143.6227171611508</v>
       </c>
       <c r="D68" s="1">
@@ -47829,7 +48105,7 @@
         <v>778.71038341699773</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>50.181069219837767</v>
       </c>
       <c r="F68" s="1">
@@ -47837,11 +48113,11 @@
         <v>11055.63612142179</v>
       </c>
       <c r="G68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>54</v>
       </c>
       <c r="H68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="J68" s="1">
@@ -47857,11 +48133,11 @@
         <v>3401.379653430135</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9164</v>
       </c>
       <c r="O68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6344741249999999</v>
       </c>
       <c r="Q68" s="1">
@@ -47869,24 +48145,28 @@
         <v>5559.467032833023</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" ref="R68:R100" si="24">(R67+A68*T68/3)</f>
-        <v>823.54833333333329</v>
+        <f t="shared" ref="R68:R100" si="26">(R67+A68*U68/3)</f>
+        <v>566.32400980944601</v>
       </c>
       <c r="T68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U68">
+        <f t="shared" si="25"/>
+        <v>0.74850299401197606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>49.143047210190389</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7331.4180944101245</v>
       </c>
       <c r="D69" s="1">
@@ -47894,7 +48174,7 @@
         <v>790.53809012737986</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>52.473204051298438</v>
       </c>
       <c r="F69" s="1">
@@ -47902,11 +48182,11 @@
         <v>11629.974129836759</v>
       </c>
       <c r="G69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>55</v>
       </c>
       <c r="H69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="J69" s="1">
@@ -47922,11 +48202,11 @@
         <v>3554.5826528176071</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9436</v>
       </c>
       <c r="O69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6420889999999999</v>
       </c>
       <c r="Q69" s="1">
@@ -47934,24 +48214,28 @@
         <v>5836.941073782612</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="24"/>
-        <v>851.88166666666666</v>
+        <f t="shared" si="26"/>
+        <v>583.18908917452541</v>
       </c>
       <c r="T69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U69">
+        <f t="shared" si="25"/>
+        <v>0.74404761904761896</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>49.942822291671135</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7526.4766333754305</v>
       </c>
       <c r="D70" s="1">
@@ -47959,7 +48243,7 @@
         <v>803.03527864588909</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>54.852514396126026</v>
       </c>
       <c r="F70" s="1">
@@ -47967,11 +48251,11 @@
         <v>12238.057153425238</v>
       </c>
       <c r="G70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>56</v>
       </c>
       <c r="H70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="J70" s="1">
@@ -47987,11 +48271,11 @@
         <v>3569.9790834688424</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9712</v>
       </c>
       <c r="O70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6495973749999999</v>
       </c>
       <c r="Q70" s="1">
@@ -47999,24 +48283,28 @@
         <v>5889.0281248951087</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="24"/>
-        <v>880.63166666666666</v>
+        <f t="shared" si="26"/>
+        <v>600.20092349405206</v>
       </c>
       <c r="T70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U70">
+        <f t="shared" si="25"/>
+        <v>0.73964497041420119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.8</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7729.4</v>
       </c>
       <c r="D71" s="1">
@@ -48024,7 +48312,7 @@
         <v>816.25</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>57.323102631420142</v>
       </c>
       <c r="F71" s="1">
@@ -48032,11 +48320,11 @@
         <v>15223.786361612583</v>
       </c>
       <c r="G71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>57</v>
       </c>
       <c r="H71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="J71" s="1">
@@ -48052,11 +48340,11 @@
         <v>3819.0489420555573</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9992</v>
       </c>
       <c r="O71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.657</v>
       </c>
       <c r="Q71" s="1">
@@ -48064,24 +48352,28 @@
         <v>6328.1640969860582</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="24"/>
-        <v>909.79833333333329</v>
+        <f t="shared" si="26"/>
+        <v>617.35778623915007</v>
       </c>
       <c r="T71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U71">
+        <f t="shared" si="25"/>
+        <v>0.73529411764705888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>51.718700320464549</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7940.8388118541761</v>
       </c>
       <c r="D72" s="1">
@@ -48089,7 +48381,7 @@
         <v>830.23375400580687</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>59.889367691661107</v>
       </c>
       <c r="F72" s="1">
@@ -48097,11 +48389,11 @@
         <v>15737.161332902258</v>
       </c>
       <c r="G72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>57</v>
       </c>
       <c r="H72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="J72" s="1">
@@ -48117,11 +48409,11 @@
         <v>3831.6414039902479</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10276</v>
       </c>
       <c r="O72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6642976249999999</v>
       </c>
       <c r="Q72" s="1">
@@ -48129,24 +48421,28 @@
         <v>6376.9916885126349</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="24"/>
-        <v>939.38166666666666</v>
+        <f t="shared" si="26"/>
+        <v>634.6579811709239</v>
       </c>
       <c r="T72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U72">
+        <f t="shared" si="25"/>
+        <v>0.73099415204678364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>52.703338943962045</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8161.4965655513734</v>
       </c>
       <c r="D73" s="1">
@@ -48154,7 +48450,7 @@
         <v>845.04173679952555</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>62.556034358327771</v>
       </c>
       <c r="F73" s="1">
@@ -48162,11 +48458,11 @@
         <v>16271.615412475436</v>
       </c>
       <c r="G73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>58</v>
       </c>
       <c r="H73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="J73" s="1">
@@ -48182,11 +48478,11 @@
         <v>3955.7449129657116</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10564</v>
       </c>
       <c r="O73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6714910000000001</v>
       </c>
       <c r="Q73" s="1">
@@ -48194,24 +48490,28 @@
         <v>6611.9920203179699</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="24"/>
-        <v>969.38166666666666</v>
+        <f t="shared" si="26"/>
+        <v>652.0998416360402</v>
       </c>
       <c r="T73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U73">
+        <f t="shared" si="25"/>
+        <v>0.72674418604651159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>53.758648490814927</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8392.1338757612848</v>
       </c>
       <c r="D74" s="1">
@@ -48219,7 +48519,7 @@
         <v>860.73310613518652</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>65.328186257061944</v>
       </c>
       <c r="F74" s="1">
@@ -48227,11 +48527,11 @@
         <v>16827.633130778035</v>
       </c>
       <c r="G74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>59</v>
       </c>
       <c r="H74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="J74" s="1">
@@ -48247,11 +48547,11 @@
         <v>3965.8341918173328</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10856</v>
       </c>
       <c r="O74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.678580875</v>
       </c>
       <c r="Q74" s="1">
@@ -48259,24 +48559,28 @@
         <v>6656.9734278056558</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="24"/>
-        <v>999.79833333333329</v>
+        <f t="shared" si="26"/>
+        <v>669.68172988266838</v>
       </c>
       <c r="T74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U74">
+        <f t="shared" si="25"/>
+        <v>0.7225433526011561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>54.889701257893044</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8633.5730503177183</v>
       </c>
       <c r="D75" s="1">
@@ -48284,7 +48588,7 @@
         <v>877.3712657236631</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>68.211303140178828</v>
       </c>
       <c r="F75" s="1">
@@ -48292,11 +48596,11 @@
         <v>17405.682004164377</v>
       </c>
       <c r="G75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="H75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="J75" s="1">
@@ -48312,11 +48616,11 @@
         <v>4168.3137737081906</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11152</v>
       </c>
       <c r="O75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.685568</v>
       </c>
       <c r="Q75" s="1">
@@ -48324,24 +48628,28 @@
         <v>7025.9763109217674</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="24"/>
-        <v>1030.6316666666667</v>
+        <f t="shared" si="26"/>
+        <v>687.4020363960783</v>
       </c>
       <c r="T75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U75">
+        <f t="shared" si="25"/>
+        <v>0.7183908045977011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>56.101933598375609</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8886.7030278294387</v>
       </c>
       <c r="D76" s="1">
@@ -48349,7 +48657,7 @@
         <v>895.02416997969499</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>71.211303140178828</v>
       </c>
       <c r="F76" s="1">
@@ -48357,11 +48665,11 @@
         <v>18006.205969118862</v>
       </c>
       <c r="G76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>61</v>
       </c>
       <c r="H76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>26</v>
       </c>
       <c r="J76" s="1">
@@ -48377,11 +48685,11 @@
         <v>4175.0042827666821</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11452</v>
       </c>
       <c r="O76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6924531249999999</v>
       </c>
       <c r="Q76" s="1">
@@ -48389,24 +48697,28 @@
         <v>7065.9990452568536</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="24"/>
-        <v>1061.8816666666667</v>
+        <f t="shared" si="26"/>
+        <v>705.25917925322119</v>
       </c>
       <c r="T76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U76">
+        <f t="shared" si="25"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>57.401172051333091</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9152.484706261841</v>
       </c>
       <c r="D77" s="1">
@@ -48414,7 +48726,7 @@
         <v>913.76465064166371</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>74.334590811411701</v>
       </c>
       <c r="F77" s="1">
@@ -48422,11 +48734,11 @@
         <v>18629.617892408427</v>
       </c>
       <c r="G77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>61</v>
       </c>
       <c r="H77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>26</v>
       </c>
       <c r="J77" s="1">
@@ -48442,11 +48754,11 @@
         <v>4273.272752035904</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11756</v>
       </c>
       <c r="O77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6992370000000001</v>
       </c>
       <c r="Q77" s="1">
@@ -48454,24 +48766,28 @@
         <v>7261.3031713512328</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" si="24"/>
-        <v>1093.5483333333334</v>
+        <f t="shared" si="26"/>
+        <v>723.25160349564544</v>
       </c>
       <c r="T77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U77">
+        <f t="shared" si="25"/>
+        <v>0.71022727272727271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>58.793661346719624</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9431.9566931763748</v>
       </c>
       <c r="D78" s="1">
@@ -48479,7 +48795,7 @@
         <v>933.67076683399534</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>77.588111938172261</v>
       </c>
       <c r="F78" s="1">
@@ -48487,11 +48803,11 @@
         <v>19276.291012692185</v>
       </c>
       <c r="G78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="H78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>26</v>
       </c>
       <c r="J78" s="1">
@@ -48507,11 +48823,11 @@
         <v>4276.5765603143291</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12064</v>
       </c>
       <c r="O78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.705920375</v>
       </c>
       <c r="Q78" s="1">
@@ -48519,24 +48835,28 @@
         <v>7295.4990894876291</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" si="24"/>
-        <v>1125.6316666666667</v>
+        <f t="shared" si="26"/>
+        <v>741.37778052012754</v>
       </c>
       <c r="T78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U78">
+        <f t="shared" si="25"/>
+        <v>0.70621468926553677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>60.286094420380778</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9726.2415107055804</v>
       </c>
       <c r="D79" s="1">
@@ -48544,7 +48864,7 @@
         <v>954.82618025475972</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>80.979416285998354</v>
       </c>
       <c r="F79" s="1">
@@ -48552,11 +48872,11 @@
         <v>19946.549146866022</v>
       </c>
       <c r="G79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63</v>
       </c>
       <c r="H79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="J79" s="1">
@@ -48572,11 +48892,11 @@
         <v>4438.6051823736625</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12376</v>
       </c>
       <c r="O79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.712504</v>
       </c>
       <c r="Q79" s="1">
@@ -48584,24 +48904,28 @@
         <v>7601.1291292356264</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" si="24"/>
-        <v>1158.1316666666667</v>
+        <f t="shared" si="26"/>
+        <v>759.63620748641972</v>
       </c>
       <c r="T79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U79">
+        <f t="shared" si="25"/>
+        <v>0.70224719101123589</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>61.885644583342263</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10036.552290917652</v>
       </c>
       <c r="D80" s="1">
@@ -48609,7 +48933,7 @@
         <v>977.3205572917783</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>84.516729718834171</v>
       </c>
       <c r="F80" s="1">
@@ -48617,11 +48941,11 @@
         <v>20640.655467660559</v>
       </c>
       <c r="G80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>64</v>
       </c>
       <c r="H80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="J80" s="1">
@@ -48637,11 +48961,11 @@
         <v>4437.6539717474479</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12692</v>
       </c>
       <c r="O80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7189886249999999</v>
       </c>
       <c r="Q80" s="1">
@@ -48649,24 +48973,28 @@
         <v>7628.2766991199342</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="24"/>
-        <v>1191.0483333333334</v>
+        <f t="shared" si="26"/>
+        <v>778.02540674154079</v>
       </c>
       <c r="T80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U80">
+        <f t="shared" si="25"/>
+        <v>0.6983240223463687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>77.599999999999994</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11932.199999999999</v>
       </c>
       <c r="D81" s="1">
@@ -48674,7 +49002,7 @@
         <v>1176.25</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>88.209037411141864</v>
       </c>
       <c r="F81" s="1">
@@ -48682,11 +49010,11 @@
         <v>27687.332849448972</v>
       </c>
       <c r="G81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="H81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="J81" s="1">
@@ -48702,11 +49030,11 @@
         <v>4689.511789412456</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13012</v>
       </c>
       <c r="O81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7253749999999999</v>
       </c>
       <c r="Q81" s="1">
@@ -48714,24 +49042,28 @@
         <v>8091.1664036575157</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="24"/>
-        <v>1224.3816666666667</v>
+        <f t="shared" si="26"/>
+        <v>796.54392526005927</v>
       </c>
       <c r="T81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U81">
+        <f t="shared" si="25"/>
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>79.437400640929098</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12298.20123268136</v>
       </c>
       <c r="D82" s="1">
@@ -48739,7 +49071,7 @@
         <v>1201.7175080116137</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>92.066180268284725</v>
       </c>
       <c r="F82" s="1">
@@ -48747,11 +49079,11 @@
         <v>28649.551982889774</v>
       </c>
       <c r="G82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="H82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="J82" s="1">
@@ -48767,11 +49099,11 @@
         <v>4796.0868984036179</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13336</v>
       </c>
       <c r="O82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.731663875</v>
       </c>
       <c r="Q82" s="1">
@@ -48779,24 +49111,28 @@
         <v>8305.2104233263381</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" si="24"/>
-        <v>1258.1316666666667</v>
+        <f t="shared" si="26"/>
+        <v>815.19033409983831</v>
       </c>
       <c r="T82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U82">
+        <f t="shared" si="25"/>
+        <v>0.69060773480662985</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>81.406677887924062</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12684.486621533682</v>
       </c>
       <c r="D83" s="1">
@@ -48804,7 +49140,7 @@
         <v>1228.8334735990506</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>96.098967153530623</v>
       </c>
       <c r="F83" s="1">
@@ -48812,11 +49148,11 @@
         <v>29643.057435863939</v>
       </c>
       <c r="G83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>66</v>
       </c>
       <c r="H83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="J83" s="1">
@@ -48832,11 +49168,11 @@
         <v>5031.3651094260758</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13664</v>
       </c>
       <c r="O83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7378559999999998</v>
       </c>
       <c r="Q83" s="1">
@@ -48844,24 +49180,28 @@
         <v>8743.7880436067626</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="24"/>
-        <v>1292.2983333333334</v>
+        <f t="shared" si="26"/>
+        <v>833.96322787273209</v>
       </c>
       <c r="T83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U83">
+        <f t="shared" si="25"/>
+        <v>0.68681318681318693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>83.517296981629883</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13092.70990926539</v>
       </c>
       <c r="D84" s="1">
@@ -48869,7 +49209,7 @@
         <v>1257.7162122703735</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>100.31930613658147</v>
       </c>
       <c r="F84" s="1">
@@ -48877,11 +49217,11 @@
         <v>30667.682000306286</v>
       </c>
       <c r="G84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>67</v>
       </c>
       <c r="H84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="J84" s="1">
@@ -48897,11 +49237,11 @@
         <v>5127.9874241676953</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13996</v>
       </c>
       <c r="O84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7439521250000001</v>
       </c>
       <c r="Q84" s="1">
@@ -48909,24 +49249,28 @@
         <v>8942.9645653505286</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="24"/>
-        <v>1326.8816666666667</v>
+        <f t="shared" si="26"/>
+        <v>852.86122422974483</v>
       </c>
       <c r="T84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U84">
+        <f t="shared" si="25"/>
+        <v>0.68306010928961747</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>85.779402515786089</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13524.657735856443</v>
       </c>
       <c r="D85" s="1">
@@ -48934,7 +49278,7 @@
         <v>1288.4925314473262</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>104.74035876816042</v>
       </c>
       <c r="F85" s="1">
@@ -48942,11 +49286,11 @@
         <v>31723.067063096114</v>
       </c>
       <c r="G85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="H85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
       <c r="J85" s="1">
@@ -48962,11 +49306,11 @@
         <v>5431.0337217725673</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14332</v>
       </c>
       <c r="O85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7499530000000001</v>
       </c>
       <c r="Q85" s="1">
@@ -48974,24 +49318,28 @@
         <v>9504.05375451707</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="24"/>
-        <v>1361.8816666666667</v>
+        <f t="shared" si="26"/>
+        <v>871.88296336017959</v>
       </c>
       <c r="T85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U85">
+        <f t="shared" si="25"/>
+        <v>0.67934782608695654</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>88.203867196751233</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13982.260196413396</v>
       </c>
       <c r="D86" s="1">
@@ -48999,7 +49347,7 @@
         <v>1321.2983399593904</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>109.37672240452406</v>
       </c>
       <c r="F86" s="1">
@@ -49007,11 +49355,11 @@
         <v>32808.628568850589</v>
       </c>
       <c r="G86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="H86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
       <c r="J86" s="1">
@@ -49027,11 +49375,11 @@
         <v>5609.6391322526497</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14672</v>
       </c>
       <c r="O86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.755859375</v>
       </c>
       <c r="Q86" s="1">
@@ -49039,24 +49387,28 @@
         <v>9849.7374607326801</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="24"/>
-        <v>1397.2983333333334</v>
+        <f t="shared" si="26"/>
+        <v>891.02710750432368</v>
       </c>
       <c r="T86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U86">
+        <f t="shared" si="25"/>
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>90.802344102666183</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14467.602229961009</v>
       </c>
       <c r="D87" s="1">
@@ -49064,7 +49416,7 @@
         <v>1356.2793012833274</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>114.24464693282594</v>
       </c>
       <c r="F87" s="1">
@@ -49072,11 +49424,11 @@
         <v>33923.517506102093</v>
       </c>
       <c r="G87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="H87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
       <c r="J87" s="1">
@@ -49092,11 +49444,11 @@
         <v>5891.0096392822943</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15016</v>
       </c>
       <c r="O87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7616719999999999</v>
       </c>
       <c r="Q87" s="1">
@@ -49104,24 +49456,28 @@
         <v>10378.026733253717</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="24"/>
-        <v>1433.1316666666667</v>
+        <f t="shared" si="26"/>
+        <v>910.2923404792341</v>
       </c>
       <c r="T87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U87">
+        <f t="shared" si="25"/>
+        <v>0.67204301075268824</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>93.587322693439219</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14982.935904060896</v>
       </c>
       <c r="D88" s="1">
@@ -49129,7 +49485,7 @@
         <v>1393.5915336679905</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>119.36229399164947</v>
       </c>
       <c r="F88" s="1">
@@ -49137,11 +49493,11 @@
         <v>35066.573895717287</v>
       </c>
       <c r="G88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="H88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="J88" s="1">
@@ -49157,11 +49513,11 @@
         <v>6052.9981601098289</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15364</v>
       </c>
       <c r="O88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7673916250000001</v>
       </c>
       <c r="Q88" s="1">
@@ -49169,24 +49525,28 @@
         <v>10698.018254318522</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="24"/>
-        <v>1469.3816666666667</v>
+        <f t="shared" si="26"/>
+        <v>929.677367217202</v>
       </c>
       <c r="T88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U88">
+        <f t="shared" si="25"/>
+        <v>0.66844919786096257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>96.572188840761555</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15530.693665181823</v>
       </c>
       <c r="D89" s="1">
@@ -49194,7 +49554,7 @@
         <v>1433.4023605095194</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>124.75004909369028</v>
       </c>
       <c r="F89" s="1">
@@ -49202,11 +49562,11 @@
         <v>36236.273024912094</v>
       </c>
       <c r="G89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="H89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="J89" s="1">
@@ -49222,11 +49582,11 @@
         <v>6381.4366191324243</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15716</v>
       </c>
       <c r="O89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7730190000000001</v>
       </c>
       <c r="Q89" s="1">
@@ -49234,24 +49594,28 @@
         <v>11314.408373017552</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="24"/>
-        <v>1506.0483333333334</v>
+        <f t="shared" si="26"/>
+        <v>949.18091331649282</v>
       </c>
       <c r="T89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U89">
+        <f t="shared" si="25"/>
+        <v>0.66489361702127658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>99.771289166684539</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16113.502630168892</v>
       </c>
       <c r="D90" s="1">
@@ -49259,7 +49623,7 @@
         <v>1475.8911145835566</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>130.43090015752006</v>
       </c>
       <c r="F90" s="1">
@@ -49267,11 +49631,11 @@
         <v>37430.66236636012</v>
       </c>
       <c r="G90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="H90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="J90" s="1">
@@ -49287,11 +49651,11 @@
         <v>6601.6114080756442</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16072</v>
       </c>
       <c r="O90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.778554875</v>
       </c>
       <c r="Q90" s="1">
@@ -49299,24 +49663,28 @@
         <v>11741.328152688553</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="24"/>
-        <v>1543.1316666666667</v>
+        <f t="shared" si="26"/>
+        <v>968.8017246039708</v>
       </c>
       <c r="T90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U90">
+        <f t="shared" si="25"/>
+        <v>0.66137566137566128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>128.19999999999999</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19884.199999999997</v>
       </c>
       <c r="D91" s="1">
@@ -49324,7 +49692,7 @@
         <v>1833.75</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>136.43090015752006</v>
       </c>
       <c r="F91" s="1">
@@ -49332,11 +49700,11 @@
         <v>50098.335292222597</v>
       </c>
       <c r="G91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>73</v>
       </c>
       <c r="H91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
       <c r="J91" s="1">
@@ -49352,11 +49720,11 @@
         <v>7239.6863695154489</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16432</v>
       </c>
       <c r="O91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.784</v>
       </c>
       <c r="Q91" s="1">
@@ -49364,24 +49732,28 @@
         <v>12915.600483215561</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="24"/>
-        <v>1580.6316666666667</v>
+        <f t="shared" si="26"/>
+        <v>988.53856670923392</v>
       </c>
       <c r="T91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U91">
+        <f t="shared" si="25"/>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>131.8748012818582</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20580.849683308734</v>
       </c>
       <c r="D92" s="1">
@@ -49389,7 +49761,7 @@
         <v>1882.1850160232275</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>142.77973736682239</v>
       </c>
       <c r="F92" s="1">
@@ -49397,11 +49769,11 @@
         <v>51700.318230529061</v>
       </c>
       <c r="G92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>73</v>
       </c>
       <c r="H92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
       <c r="J92" s="1">
@@ -49417,11 +49789,11 @@
         <v>7446.7660229123303</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16796</v>
       </c>
       <c r="O92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7893551250000002</v>
       </c>
       <c r="Q92" s="1">
@@ -49429,24 +49801,28 @@
         <v>13324.908947774047</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="24"/>
-        <v>1618.5483333333334</v>
+        <f t="shared" si="26"/>
+        <v>1008.390224649897</v>
       </c>
       <c r="T92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U92">
+        <f t="shared" si="25"/>
+        <v>0.65445026178010468</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>135.81335577584815</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21321.760223929239</v>
       </c>
       <c r="D93" s="1">
@@ -49454,7 +49830,7 @@
         <v>1933.9169471981018</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>149.51144468389555</v>
       </c>
       <c r="F93" s="1">
@@ -49462,11 +49838,11 @@
         <v>53322.329299207777</v>
       </c>
       <c r="G93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>74</v>
       </c>
       <c r="H93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
       <c r="J93" s="1">
@@ -49482,11 +49858,11 @@
         <v>7784.0086120999695</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17164</v>
       </c>
       <c r="O93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7946209999999998</v>
       </c>
       <c r="Q93" s="1">
@@ -49494,24 +49870,28 @@
         <v>13969.345319455459</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" si="24"/>
-        <v>1656.8816666666667</v>
+        <f t="shared" si="26"/>
+        <v>1028.3555024276748</v>
       </c>
       <c r="T93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U93">
+        <f t="shared" si="25"/>
+        <v>0.65104166666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>140.03459396325971</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22110.504134016413</v>
       </c>
       <c r="D94" s="1">
@@ -49519,7 +49899,7 @@
         <v>1989.1824245407463</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156.66529083774171</v>
       </c>
       <c r="F94" s="1">
@@ -49527,11 +49907,11 @@
         <v>54958.455190609064</v>
       </c>
       <c r="G94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>75</v>
       </c>
       <c r="H94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="J94" s="1">
@@ -49547,11 +49927,11 @@
         <v>8024.0472773058609</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17536</v>
       </c>
       <c r="O94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.799798375</v>
       </c>
       <c r="Q94" s="1">
@@ -49559,24 +49939,28 @@
         <v>14441.667250618264</v>
       </c>
       <c r="R94" s="1">
-        <f t="shared" si="24"/>
-        <v>1695.6316666666667</v>
+        <f t="shared" si="26"/>
+        <v>1048.4332226349286</v>
       </c>
       <c r="T94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U94">
+        <f t="shared" si="25"/>
+        <v>0.64766839378238339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>144.55880503157218</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22950.9387421549</v>
       </c>
       <c r="D95" s="1">
@@ -49584,7 +49968,7 @@
         <v>2048.2350628946524</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>164.28691245936332</v>
       </c>
       <c r="F95" s="1">
@@ -49592,11 +49976,11 @@
         <v>56601.519966139997</v>
       </c>
       <c r="G95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>76</v>
       </c>
       <c r="H95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="J95" s="1">
@@ -49612,11 +49996,11 @@
         <v>8598.5582702453466</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17912</v>
       </c>
       <c r="O95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.804888</v>
       </c>
       <c r="Q95" s="1">
@@ -49624,24 +50008,28 @@
         <v>15519.434639266583</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="24"/>
-        <v>1734.7983333333334</v>
+        <f t="shared" si="26"/>
+        <v>1068.6222260713548</v>
       </c>
       <c r="T95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U95">
+        <f t="shared" si="25"/>
+        <v>0.64432989690721654</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>149.40773439350247</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23847.228674335824</v>
       </c>
       <c r="D96" s="1">
@@ -49649,7 +50037,7 @@
         <v>2111.3466799187809</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>172.42976960222046</v>
       </c>
       <c r="F96" s="1">
@@ -49657,11 +50045,11 @@
         <v>58242.843421826117</v>
       </c>
       <c r="G96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>77</v>
       </c>
       <c r="H96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="J96" s="1">
@@ -49677,11 +50065,11 @@
         <v>8809.1181823033094</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18292</v>
       </c>
       <c r="O96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.809890625</v>
       </c>
       <c r="Q96" s="1">
@@ -49689,24 +50077,28 @@
         <v>15943.540412667802</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="24"/>
-        <v>1774.3816666666667</v>
+        <f t="shared" si="26"/>
+        <v>1088.9213713705001</v>
       </c>
       <c r="T96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U96">
+        <f t="shared" si="25"/>
+        <v>0.64102564102564108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>154.60468820533237</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>24803.870094796664</v>
       </c>
       <c r="D97" s="1">
@@ -49714,7 +50106,7 @@
         <v>2178.8086025666548</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>181.15704232949318</v>
       </c>
       <c r="F97" s="1">
@@ -49722,11 +50114,11 @@
         <v>59871.942809998945</v>
       </c>
       <c r="G97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>77</v>
       </c>
       <c r="H97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="J97" s="1">
@@ -49742,11 +50134,11 @@
         <v>9115.6430137226525</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18676</v>
       </c>
       <c r="O97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8148070000000001</v>
       </c>
       <c r="Q97" s="1">
@@ -49754,24 +50146,28 @@
         <v>16543.132750804965</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="24"/>
-        <v>1814.3816666666667</v>
+        <f t="shared" si="26"/>
+        <v>1109.3295346358061</v>
       </c>
       <c r="T97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U97">
+        <f t="shared" si="25"/>
+        <v>0.63775510204081631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>160.17464538687844</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>25825.716843538095</v>
       </c>
       <c r="D98" s="1">
@@ -49779,7 +50175,7 @@
         <v>2250.9330673359805</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>190.54413910368675</v>
       </c>
       <c r="F98" s="1">
@@ -49787,11 +50183,11 @@
         <v>62614.607522961742</v>
       </c>
       <c r="G98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>78</v>
       </c>
       <c r="H98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="J98" s="1">
@@ -49807,11 +50203,11 @@
         <v>9331.0064825365898</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19064</v>
       </c>
       <c r="O98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8196378750000002</v>
       </c>
       <c r="Q98" s="1">
@@ -49819,24 +50215,28 @@
         <v>16979.052807494107</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="24"/>
-        <v>1854.7983333333334</v>
+        <f t="shared" si="26"/>
+        <v>1129.8456090858908</v>
       </c>
       <c r="T98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U98">
+        <f t="shared" si="25"/>
+        <v>0.63451776649746194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>166.14437768152311</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>26918.008617904969</v>
       </c>
       <c r="D99" s="1">
@@ -49844,7 +50244,7 @@
         <v>2328.0547210190389</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200.68207013816951</v>
       </c>
       <c r="F99" s="1">
@@ -49852,11 +50252,11 @@
         <v>71341.778431308325</v>
       </c>
       <c r="G99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>79</v>
       </c>
       <c r="H99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="J99" s="1">
@@ -49872,11 +50272,11 @@
         <v>9804.4074292492078</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19456</v>
       </c>
       <c r="O99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.824384</v>
       </c>
       <c r="Q99" s="1">
@@ -49884,24 +50284,28 @@
         <v>17887.004043403387</v>
       </c>
       <c r="R99" s="1">
-        <f t="shared" si="24"/>
-        <v>1895.6316666666667</v>
+        <f t="shared" si="26"/>
+        <v>1150.4685047087864</v>
       </c>
       <c r="T99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U99">
+        <f t="shared" si="25"/>
+        <v>0.63131313131313127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>172.54257833336908</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28086.401357004954</v>
       </c>
       <c r="D100" s="1">
@@ -49909,7 +50313,7 @@
         <v>2410.5322291671137</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>211.68207013816951</v>
       </c>
       <c r="F100" s="1">
@@ -49917,11 +50321,11 @@
         <v>94688.331813005949</v>
       </c>
       <c r="G100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>80</v>
       </c>
       <c r="H100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>34</v>
       </c>
       <c r="J100" s="1">
@@ -49937,11 +50341,11 @@
         <v>9967.4600378320556</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19852</v>
       </c>
       <c r="O100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8290461250000001</v>
       </c>
       <c r="Q100" s="1">
@@ -49949,12 +50353,16 @@
         <v>18230.944158289076</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="24"/>
-        <v>1936.8816666666667</v>
+        <f t="shared" si="26"/>
+        <v>1171.1971479248668</v>
       </c>
       <c r="T100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="25"/>
+        <v>0.62814070351758799</v>
       </c>
     </row>
   </sheetData>
@@ -49978,21 +50386,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1" t="s">
         <v>1033</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1034</v>
       </c>
-      <c r="C1" t="s">
-        <v>1035</v>
-      </c>
       <c r="E1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B2">
         <v>0.05</v>
@@ -50127,7 +50535,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B11">
         <v>7.4999999999999997E-2</v>
@@ -50167,31 +50575,31 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="O1" t="s">
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Q1" t="s">
         <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="V1" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
@@ -57935,7 +58343,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="G1" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -57961,52 +58369,52 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>1052</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
@@ -58014,19 +58422,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>1054</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1055</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1056</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -58073,7 +58481,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C4">
         <v>1.6</v>
@@ -58082,10 +58490,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F4" t="s">
         <v>1058</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1059</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -58132,7 +58540,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C5">
         <v>1.1499999999999999</v>
@@ -58141,10 +58549,10 @@
         <v>1.5</v>
       </c>
       <c r="E5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F5" t="s">
         <v>1061</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1062</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -58191,7 +58599,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C6">
         <v>1.1000000000000001</v>
@@ -58200,10 +58608,10 @@
         <v>1.8</v>
       </c>
       <c r="E6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F6" t="s">
         <v>1064</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1065</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -58250,7 +58658,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C7">
         <v>1.2</v>
@@ -58259,10 +58667,10 @@
         <v>1.6</v>
       </c>
       <c r="E7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F7" t="s">
         <v>1067</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1068</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -58309,7 +58717,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C8">
         <v>1.3</v>
@@ -58318,10 +58726,10 @@
         <v>1.3</v>
       </c>
       <c r="E8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F8" t="s">
         <v>1070</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1071</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -58368,7 +58776,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C9">
         <v>1.4</v>
@@ -58377,10 +58785,10 @@
         <v>1.4</v>
       </c>
       <c r="E9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F9" t="s">
         <v>1073</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1074</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -58427,19 +58835,19 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>1075</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>1076</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1077</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -58508,7 +58916,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -58516,7 +58924,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -58524,7 +58932,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -58532,7 +58940,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -58540,7 +58948,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -58548,7 +58956,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -58556,7 +58964,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -58564,7 +58972,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -58572,7 +58980,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -58580,7 +58988,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -58588,7 +58996,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -58596,7 +59004,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -58604,7 +59012,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -58612,7 +59020,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE167560-1B83-48D0-ADCB-6C13C49648B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F8C2C-3EA3-47B3-80FA-E04490B354CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3634" yWindow="2914" windowWidth="26932" windowHeight="13937" activeTab="1" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="3634" yWindow="2914" windowWidth="26932" windowHeight="13937" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -4022,11 +4022,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
   <dimension ref="A1:AJ316"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E198" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P213" sqref="P213"/>
+      <selection pane="bottomRight" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6434,7 +6434,7 @@
         <v>123</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -6541,7 +6541,7 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -9041,10 +9041,10 @@
         <v>70</v>
       </c>
       <c r="Q47">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R47">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="S47">
         <v>10</v>
@@ -9965,10 +9965,10 @@
         <v>242</v>
       </c>
       <c r="D56">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F56">
         <v>100</v>
@@ -10179,7 +10179,7 @@
         <v>248</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -15211,7 +15211,7 @@
         <v>402</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -15532,7 +15532,7 @@
         <v>411</v>
       </c>
       <c r="D108">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -16709,7 +16709,7 @@
         <v>446</v>
       </c>
       <c r="D119">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E119">
         <v>100</v>
@@ -16923,7 +16923,7 @@
         <v>452</v>
       </c>
       <c r="D121">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -17458,7 +17458,7 @@
         <v>468</v>
       </c>
       <c r="D126">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E126">
         <v>110</v>
@@ -17497,10 +17497,10 @@
         <v>30</v>
       </c>
       <c r="Q126">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="R126">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S126">
         <v>10</v>
@@ -17565,7 +17565,7 @@
         <v>473</v>
       </c>
       <c r="D127">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E127">
         <v>100</v>
@@ -17604,7 +17604,7 @@
         <v>70</v>
       </c>
       <c r="Q127">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R127">
         <v>94</v>
@@ -17672,7 +17672,7 @@
         <v>476</v>
       </c>
       <c r="D128">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E128">
         <v>130</v>
@@ -40007,7 +40007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19C42E-4D03-4797-B846-FB5E09BB39D3}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D795A50-C69B-4EE7-B61F-1F66F8E60E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A419BA-3480-429F-B2AD-4F490FF96816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="463" yWindow="3137" windowWidth="26931" windowHeight="13937" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="1543" yWindow="2931" windowWidth="29974" windowHeight="13938" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -4038,17 +4038,17 @@
   <dimension ref="A1:AJ317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W302" sqref="W302"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.07421875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.15234375" customWidth="1"/>
     <col min="4" max="4" width="7.61328125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="5.765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.61328125" bestFit="1" customWidth="1"/>
@@ -10004,7 +10004,7 @@
         <v>110</v>
       </c>
       <c r="L56">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M56">
         <v>10</v>
@@ -10019,10 +10019,10 @@
         <v>70</v>
       </c>
       <c r="Q56">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R56">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S56">
         <v>10</v>
@@ -17277,7 +17277,7 @@
         <v>110</v>
       </c>
       <c r="I124">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J124">
         <v>100</v>
@@ -17337,7 +17337,7 @@
         <v>41</v>
       </c>
       <c r="AC124" t="s">
-        <v>188</v>
+        <v>1114</v>
       </c>
       <c r="AD124" t="s">
         <v>1120</v>
@@ -20154,7 +20154,7 @@
         <v>33</v>
       </c>
       <c r="E151">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F151">
         <v>130</v>
@@ -20163,19 +20163,19 @@
         <v>100</v>
       </c>
       <c r="H151">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I151">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J151">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K151">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L151">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M151">
         <v>10</v>
@@ -20184,13 +20184,13 @@
         <v>1</v>
       </c>
       <c r="O151">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="P151">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="Q151">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R151">
         <v>100</v>
@@ -20368,7 +20368,7 @@
         <v>69</v>
       </c>
       <c r="E153">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F153">
         <v>100</v>
@@ -20380,34 +20380,34 @@
         <v>100</v>
       </c>
       <c r="I153">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J153">
         <v>100</v>
       </c>
       <c r="K153">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L153">
         <v>80</v>
       </c>
       <c r="M153">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N153">
         <v>1</v>
       </c>
       <c r="O153">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="P153">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="Q153">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="R153">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="S153">
         <v>10</v>
@@ -20493,7 +20493,7 @@
         <v>100</v>
       </c>
       <c r="K154">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L154">
         <v>80</v>
@@ -20505,10 +20505,10 @@
         <v>1</v>
       </c>
       <c r="O154">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P154">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q154">
         <v>104</v>
@@ -20805,19 +20805,19 @@
         <v>100</v>
       </c>
       <c r="H157">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I157">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J157">
         <v>420</v>
       </c>
       <c r="K157">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L157">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M157">
         <v>10</v>
@@ -20826,10 +20826,10 @@
         <v>1</v>
       </c>
       <c r="O157">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P157">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="Q157">
         <v>100</v>
@@ -20903,7 +20903,7 @@
         <v>59</v>
       </c>
       <c r="E158">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F158">
         <v>100</v>
@@ -20915,7 +20915,7 @@
         <v>80</v>
       </c>
       <c r="I158">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="J158">
         <v>100</v>
@@ -20924,7 +20924,7 @@
         <v>110</v>
       </c>
       <c r="L158">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M158">
         <v>10</v>
@@ -20933,16 +20933,16 @@
         <v>1</v>
       </c>
       <c r="O158">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P158">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q158">
         <v>105</v>
       </c>
       <c r="R158">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="S158">
         <v>10</v>
@@ -21016,10 +21016,10 @@
         <v>100</v>
       </c>
       <c r="G159">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H159">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I159">
         <v>100</v>
@@ -21028,7 +21028,7 @@
         <v>100</v>
       </c>
       <c r="K159">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L159">
         <v>100</v>
@@ -21120,13 +21120,13 @@
         <v>100</v>
       </c>
       <c r="F160">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G160">
         <v>100</v>
       </c>
       <c r="H160">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I160">
         <v>100</v>
@@ -21135,10 +21135,10 @@
         <v>100</v>
       </c>
       <c r="K160">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L160">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M160">
         <v>10</v>
@@ -21153,7 +21153,7 @@
         <v>100</v>
       </c>
       <c r="Q160">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R160">
         <v>100</v>
@@ -21230,22 +21230,22 @@
         <v>100</v>
       </c>
       <c r="G161">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="H161">
         <v>90</v>
       </c>
       <c r="I161">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J161">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K161">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L161">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M161">
         <v>10</v>
@@ -21254,13 +21254,13 @@
         <v>3</v>
       </c>
       <c r="O161">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="P161">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="Q161">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="R161">
         <v>120</v>
@@ -36457,10 +36457,10 @@
         <v>1</v>
       </c>
       <c r="O303">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P303">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q303">
         <v>0</v>
@@ -40137,12 +40137,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -41431,8 +41431,8 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -43129,7 +43129,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -43207,10 +43207,10 @@
         <v>100</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -43289,10 +43289,10 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -43330,10 +43330,10 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K5">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -43371,10 +43371,10 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -43412,10 +43412,10 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -43494,10 +43494,10 @@
         <v>100</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L9">
         <v>102</v>
@@ -43538,7 +43538,7 @@
         <v>100</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L10">
         <v>103</v>
@@ -43576,10 +43576,10 @@
         <v>100</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L11">
         <v>105</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A419BA-3480-429F-B2AD-4F490FF96816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F360CC4-C867-41C3-9254-5F9FAAEC098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1543" yWindow="2931" windowWidth="29974" windowHeight="13938" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="2091" yWindow="2091" windowWidth="26932" windowHeight="14323" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -4038,10 +4038,10 @@
   <dimension ref="A1:AJ317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomRight" activeCell="K310" sqref="K310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11374,7 +11374,7 @@
         <v>289</v>
       </c>
       <c r="D69">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E69">
         <v>160</v>
@@ -36534,7 +36534,7 @@
         <v>77</v>
       </c>
       <c r="D304">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E304">
         <v>100</v>
@@ -36546,7 +36546,7 @@
         <v>100</v>
       </c>
       <c r="H304">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I304">
         <v>100</v>
@@ -36641,10 +36641,10 @@
         <v>1105</v>
       </c>
       <c r="D305">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E305">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F305">
         <v>100</v>
@@ -36665,7 +36665,7 @@
         <v>100</v>
       </c>
       <c r="L305">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M305">
         <v>10</v>
@@ -37078,7 +37078,7 @@
         <v>31</v>
       </c>
       <c r="E309">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F309">
         <v>100</v>
@@ -37087,7 +37087,7 @@
         <v>100</v>
       </c>
       <c r="H309">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I309">
         <v>100</v>
@@ -37096,7 +37096,7 @@
         <v>100</v>
       </c>
       <c r="K309">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L309">
         <v>100</v>
@@ -37108,13 +37108,13 @@
         <v>1</v>
       </c>
       <c r="O309">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="P309">
         <v>100</v>
       </c>
       <c r="Q309">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R309">
         <v>100</v>
@@ -37197,10 +37197,10 @@
         <v>100</v>
       </c>
       <c r="I310">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J310">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K310">
         <v>100</v>
@@ -37221,10 +37221,10 @@
         <v>100</v>
       </c>
       <c r="Q310">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R310">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S310">
         <v>10</v>
@@ -37292,25 +37292,25 @@
         <v>36</v>
       </c>
       <c r="E311">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F311">
         <v>100</v>
       </c>
       <c r="G311">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H311">
         <v>100</v>
       </c>
       <c r="I311">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J311">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K311">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L311">
         <v>100</v>
@@ -37325,13 +37325,13 @@
         <v>100</v>
       </c>
       <c r="P311">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R311">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S311">
         <v>10</v>
@@ -40137,7 +40137,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:N20"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC33B416-8C2A-4943-847A-9E85BFE7F95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E88BB5-AACD-4E9E-81DF-EDD3D56C3277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3626" yWindow="2931" windowWidth="26931" windowHeight="13938" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -4060,10 +4060,10 @@
   <dimension ref="A1:AK317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Y265" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE286" sqref="AE286"/>
+      <selection pane="bottomRight" activeCell="O262" sqref="O262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9472,7 +9472,7 @@
         <v>39</v>
       </c>
       <c r="AD50" t="s">
-        <v>42</v>
+        <v>1118</v>
       </c>
       <c r="AF50">
         <v>288</v>
@@ -32165,7 +32165,7 @@
         <v>100</v>
       </c>
       <c r="G262">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H262">
         <v>100</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E88BB5-AACD-4E9E-81DF-EDD3D56C3277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E08F2DE-A8CD-46FB-8966-770148FD26B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3626" yWindow="2931" windowWidth="26931" windowHeight="13938" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -4060,10 +4060,10 @@
   <dimension ref="A1:AK317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E246" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O262" sqref="O262"/>
+      <selection pane="bottomRight" activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21358,7 +21358,7 @@
         <v>100</v>
       </c>
       <c r="G161">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H161">
         <v>90</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E08F2DE-A8CD-46FB-8966-770148FD26B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8433FAE-C8C6-4DC0-8383-0B4E6D10F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3626" yWindow="2931" windowWidth="26931" windowHeight="13938" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="1190">
   <si>
     <t>Id</t>
   </si>
@@ -3612,6 +3612,15 @@
   </si>
   <si>
     <t>TotalBase</t>
+  </si>
+  <si>
+    <t>GIANT_HONET</t>
+  </si>
+  <si>
+    <t>giant_honet.spr</t>
+  </si>
+  <si>
+    <t>Giant Hornet</t>
   </si>
 </sst>
 </file>
@@ -3712,10 +3721,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AE4419D-5DB5-4D1B-9713-9E17C7E1903B}" name="Table1" displayName="Table1" ref="A1:AK413" totalsRowShown="0">
-  <autoFilter ref="A1:AK413" xr:uid="{5AE4419D-5DB5-4D1B-9713-9E17C7E1903B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK317">
-    <sortCondition ref="A1:A413"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AE4419D-5DB5-4D1B-9713-9E17C7E1903B}" name="Table1" displayName="Table1" ref="A1:AK414" totalsRowShown="0">
+  <autoFilter ref="A1:AK414" xr:uid="{5AE4419D-5DB5-4D1B-9713-9E17C7E1903B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK318">
+    <sortCondition ref="A1:A414"/>
   </sortState>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{B859DFBF-EB68-4198-9FF0-FEBC6A5D6D92}" name="Id"/>
@@ -4057,13 +4066,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
-  <dimension ref="A1:AK317"/>
+  <dimension ref="A1:AK318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G161" sqref="G161"/>
+      <selection pane="bottomRight" activeCell="AB302" sqref="AB302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -15003,7 +15012,7 @@
         <v>100</v>
       </c>
       <c r="J102">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K102">
         <v>100</v>
@@ -15110,13 +15119,13 @@
         <v>100</v>
       </c>
       <c r="J103">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K103">
         <v>100</v>
       </c>
       <c r="L103">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M103">
         <v>10</v>
@@ -15125,13 +15134,13 @@
         <v>1</v>
       </c>
       <c r="O103">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P103">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R103">
         <v>95</v>
@@ -19224,7 +19233,7 @@
         <v>110</v>
       </c>
       <c r="J141">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K141">
         <v>100</v>
@@ -36445,52 +36454,52 @@
     </row>
     <row r="302" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A302">
-        <v>5000</v>
+        <v>4299</v>
       </c>
       <c r="B302" t="s">
-        <v>44</v>
+        <v>1187</v>
       </c>
       <c r="C302" t="s">
-        <v>37</v>
+        <v>1189</v>
       </c>
       <c r="D302">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E302">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F302">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G302">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H302">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I302">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J302">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K302">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L302">
         <v>100</v>
       </c>
       <c r="M302">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N302">
         <v>1</v>
       </c>
       <c r="O302">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P302">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q302">
         <v>100</v>
@@ -36505,40 +36514,40 @@
         <v>12</v>
       </c>
       <c r="U302" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V302" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="W302" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="X302">
-        <v>1872</v>
+        <v>1292</v>
       </c>
       <c r="Y302">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="Z302">
-        <v>672</v>
+        <v>792</v>
       </c>
       <c r="AA302">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="AB302" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC302" t="s">
         <v>41</v>
       </c>
-      <c r="AC302" t="s">
-        <v>39</v>
-      </c>
       <c r="AD302" t="s">
-        <v>1118</v>
+        <v>42</v>
       </c>
       <c r="AF302">
-        <v>288</v>
+        <v>825</v>
       </c>
       <c r="AG302" t="s">
-        <v>43</v>
+        <v>1188</v>
       </c>
       <c r="AH302">
         <v>0</v>
@@ -36547,63 +36556,63 @@
         <v>0.5</v>
       </c>
       <c r="AJ302">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A303">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="B303" t="s">
-        <v>1094</v>
+        <v>44</v>
       </c>
       <c r="C303" t="s">
-        <v>565</v>
+        <v>37</v>
       </c>
       <c r="D303">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E303">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F303">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G303">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H303">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I303">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J303">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K303">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L303">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M303">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N303">
         <v>1</v>
       </c>
       <c r="O303">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P303">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="Q303">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R303">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S303">
         <v>10</v>
@@ -36615,37 +36624,37 @@
         <v>38</v>
       </c>
       <c r="V303" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="W303" t="s">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="X303">
-        <v>1276</v>
+        <v>1872</v>
       </c>
       <c r="Y303">
+        <v>480</v>
+      </c>
+      <c r="Z303">
+        <v>672</v>
+      </c>
+      <c r="AA303">
+        <v>400</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD303" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AF303">
         <v>288</v>
       </c>
-      <c r="Z303">
-        <v>576</v>
-      </c>
-      <c r="AA303">
-        <v>150</v>
-      </c>
-      <c r="AB303" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC303" t="s">
-        <v>566</v>
-      </c>
-      <c r="AD303" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AF303">
-        <v>180</v>
-      </c>
       <c r="AG303" t="s">
-        <v>567</v>
+        <v>43</v>
       </c>
       <c r="AH303">
         <v>0</v>
@@ -36654,27 +36663,24 @@
         <v>0.5</v>
       </c>
       <c r="AJ303">
-        <v>1</v>
-      </c>
-      <c r="AK303" t="s">
-        <v>1095</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A304">
-        <v>6001</v>
+        <v>6000</v>
       </c>
       <c r="B304" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="C304" t="s">
-        <v>77</v>
+        <v>565</v>
       </c>
       <c r="D304">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E304">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F304">
         <v>100</v>
@@ -36683,7 +36689,7 @@
         <v>100</v>
       </c>
       <c r="H304">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I304">
         <v>100</v>
@@ -36692,22 +36698,22 @@
         <v>100</v>
       </c>
       <c r="K304">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L304">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="M304">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O304">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P304">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q304">
         <v>0</v>
@@ -36716,72 +36722,75 @@
         <v>0</v>
       </c>
       <c r="S304">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T304">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U304" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="V304" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="W304" t="s">
-        <v>619</v>
+        <v>274</v>
       </c>
       <c r="X304">
-        <v>701</v>
+        <v>1276</v>
       </c>
       <c r="Y304">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="Z304">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>150</v>
       </c>
       <c r="AB304" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AC304" t="s">
-        <v>1090</v>
+        <v>566</v>
       </c>
       <c r="AD304" t="s">
-        <v>59</v>
+        <v>1121</v>
       </c>
       <c r="AF304">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="AG304" t="s">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="AH304">
         <v>0</v>
       </c>
       <c r="AI304">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AJ304">
-        <v>1.2</v>
+        <v>1</v>
+      </c>
+      <c r="AK304" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="305" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A305">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B305" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C305" t="s">
-        <v>1105</v>
+        <v>77</v>
       </c>
       <c r="D305">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E305">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F305">
         <v>100</v>
@@ -36790,7 +36799,7 @@
         <v>100</v>
       </c>
       <c r="H305">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I305">
         <v>100</v>
@@ -36802,13 +36811,13 @@
         <v>100</v>
       </c>
       <c r="L305">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M305">
         <v>10</v>
       </c>
       <c r="N305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O305">
         <v>100</v>
@@ -36823,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="S305">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T305">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U305" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V305" t="s">
         <v>48</v>
@@ -36838,60 +36847,57 @@
         <v>619</v>
       </c>
       <c r="X305">
-        <v>500</v>
+        <v>701</v>
       </c>
       <c r="Y305">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="Z305">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="AA305">
-        <v>120</v>
+        <v>-1</v>
       </c>
       <c r="AB305" t="s">
         <v>41</v>
       </c>
       <c r="AC305" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="AD305" t="s">
-        <v>1121</v>
+        <v>59</v>
       </c>
       <c r="AF305">
-        <v>504</v>
+        <v>288</v>
       </c>
       <c r="AG305" t="s">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AH305">
         <v>0</v>
       </c>
       <c r="AI305">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AJ305">
-        <v>0.7</v>
-      </c>
-      <c r="AK305" t="s">
-        <v>1106</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="306" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A306">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B306" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="C306" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="D306">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E306">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F306">
         <v>100</v>
@@ -36912,28 +36918,28 @@
         <v>100</v>
       </c>
       <c r="L306">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M306">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N306">
         <v>1</v>
       </c>
       <c r="O306">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="P306">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R306">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S306">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T306">
         <v>12</v>
@@ -36942,37 +36948,37 @@
         <v>38</v>
       </c>
       <c r="V306" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="W306" t="s">
         <v>619</v>
       </c>
       <c r="X306">
-        <v>902</v>
+        <v>500</v>
       </c>
       <c r="Y306">
-        <v>432</v>
+        <v>288</v>
       </c>
       <c r="Z306">
-        <v>648</v>
+        <v>288</v>
       </c>
       <c r="AA306">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB306" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="AC306" t="s">
-        <v>120</v>
+        <v>1089</v>
       </c>
       <c r="AD306" t="s">
         <v>1121</v>
       </c>
       <c r="AF306">
-        <v>216</v>
+        <v>504</v>
       </c>
       <c r="AG306" t="s">
-        <v>1125</v>
+        <v>283</v>
       </c>
       <c r="AH306">
         <v>0</v>
@@ -36981,24 +36987,27 @@
         <v>0.5</v>
       </c>
       <c r="AJ306">
-        <v>1</v>
+        <v>0.7</v>
+      </c>
+      <c r="AK306" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="307" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A307">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B307" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C307" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D307">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E307">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F307">
         <v>100</v>
@@ -37022,16 +37031,16 @@
         <v>100</v>
       </c>
       <c r="M307">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O307">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="P307">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="Q307">
         <v>100</v>
@@ -37052,34 +37061,34 @@
         <v>53</v>
       </c>
       <c r="W307" t="s">
-        <v>40</v>
+        <v>619</v>
       </c>
       <c r="X307">
-        <v>1540</v>
+        <v>902</v>
       </c>
       <c r="Y307">
-        <v>576</v>
+        <v>432</v>
       </c>
       <c r="Z307">
-        <v>720</v>
+        <v>648</v>
       </c>
       <c r="AA307">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AB307" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AC307" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AD307" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="AF307">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AG307" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="AH307">
         <v>0</v>
@@ -37093,16 +37102,16 @@
     </row>
     <row r="308" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A308">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B308" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="C308" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="D308">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E308">
         <v>100</v>
@@ -37132,7 +37141,7 @@
         <v>10</v>
       </c>
       <c r="N308">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O308">
         <v>100</v>
@@ -37153,40 +37162,40 @@
         <v>12</v>
       </c>
       <c r="U308" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="V308" t="s">
         <v>53</v>
       </c>
       <c r="W308" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="X308">
-        <v>1000</v>
+        <v>1540</v>
       </c>
       <c r="Y308">
-        <v>1000</v>
+        <v>576</v>
       </c>
       <c r="Z308">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="AA308">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="AB308" t="s">
         <v>41</v>
       </c>
       <c r="AC308" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="AD308" t="s">
         <v>1120</v>
       </c>
       <c r="AF308">
-        <v>620</v>
+        <v>324</v>
       </c>
       <c r="AG308" t="s">
-        <v>103</v>
+        <v>1128</v>
       </c>
       <c r="AH308">
         <v>0</v>
@@ -37197,25 +37206,22 @@
       <c r="AJ308">
         <v>1</v>
       </c>
-      <c r="AK308" t="s">
-        <v>1133</v>
-      </c>
     </row>
     <row r="309" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A309">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B309" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C309" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D309">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E309">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F309">
         <v>100</v>
@@ -37224,7 +37230,7 @@
         <v>100</v>
       </c>
       <c r="H309">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I309">
         <v>100</v>
@@ -37233,7 +37239,7 @@
         <v>100</v>
       </c>
       <c r="K309">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L309">
         <v>100</v>
@@ -37245,13 +37251,13 @@
         <v>1</v>
       </c>
       <c r="O309">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="P309">
         <v>100</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R309">
         <v>100</v>
@@ -37266,40 +37272,37 @@
         <v>47</v>
       </c>
       <c r="V309" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W309" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="X309">
-        <v>916</v>
+        <v>1000</v>
       </c>
       <c r="Y309">
-        <v>576</v>
+        <v>1000</v>
       </c>
       <c r="Z309">
-        <v>648</v>
+        <v>500</v>
       </c>
       <c r="AA309">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="AB309" t="s">
         <v>41</v>
       </c>
       <c r="AC309" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="AD309" t="s">
         <v>1120</v>
       </c>
-      <c r="AE309" t="s">
-        <v>1184</v>
-      </c>
       <c r="AF309">
-        <v>180</v>
+        <v>620</v>
       </c>
       <c r="AG309" t="s">
-        <v>1142</v>
+        <v>103</v>
       </c>
       <c r="AH309">
         <v>0</v>
@@ -37310,22 +37313,25 @@
       <c r="AJ309">
         <v>1</v>
       </c>
+      <c r="AK309" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="310" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A310">
-        <v>6007</v>
-      </c>
-      <c r="B310" s="9" t="s">
-        <v>1137</v>
+        <v>6006</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1136</v>
       </c>
       <c r="C310" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D310">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E310">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F310">
         <v>100</v>
@@ -37334,19 +37340,19 @@
         <v>100</v>
       </c>
       <c r="H310">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I310">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="J310">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K310">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L310">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M310">
         <v>10</v>
@@ -37355,7 +37361,7 @@
         <v>1</v>
       </c>
       <c r="O310">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="P310">
         <v>100</v>
@@ -37364,7 +37370,7 @@
         <v>105</v>
       </c>
       <c r="R310">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S310">
         <v>10</v>
@@ -37382,7 +37388,7 @@
         <v>113</v>
       </c>
       <c r="X310">
-        <v>1200</v>
+        <v>916</v>
       </c>
       <c r="Y310">
         <v>576</v>
@@ -37391,7 +37397,7 @@
         <v>648</v>
       </c>
       <c r="AA310">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="AB310" t="s">
         <v>41</v>
@@ -37406,10 +37412,10 @@
         <v>1184</v>
       </c>
       <c r="AF310">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="AG310" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AH310">
         <v>0</v>
@@ -37423,40 +37429,40 @@
     </row>
     <row r="311" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A311">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C311" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D311">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E311">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F311">
         <v>100</v>
       </c>
       <c r="G311">
+        <v>100</v>
+      </c>
+      <c r="H311">
+        <v>100</v>
+      </c>
+      <c r="I311">
         <v>130</v>
       </c>
-      <c r="H311">
-        <v>100</v>
-      </c>
-      <c r="I311">
-        <v>90</v>
-      </c>
       <c r="J311">
+        <v>85</v>
+      </c>
+      <c r="K311">
+        <v>100</v>
+      </c>
+      <c r="L311">
         <v>130</v>
-      </c>
-      <c r="K311">
-        <v>110</v>
-      </c>
-      <c r="L311">
-        <v>100</v>
       </c>
       <c r="M311">
         <v>10</v>
@@ -37468,10 +37474,10 @@
         <v>100</v>
       </c>
       <c r="P311">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="Q311">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R311">
         <v>105</v>
@@ -37492,7 +37498,7 @@
         <v>113</v>
       </c>
       <c r="X311">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Y311">
         <v>576</v>
@@ -37501,7 +37507,7 @@
         <v>648</v>
       </c>
       <c r="AA311">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AB311" t="s">
         <v>41</v>
@@ -37519,7 +37525,7 @@
         <v>144</v>
       </c>
       <c r="AG311" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AH311">
         <v>0</v>
@@ -37533,40 +37539,40 @@
     </row>
     <row r="312" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A312">
-        <v>6009</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1145</v>
+        <v>6008</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="C312" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="D312">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E312">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F312">
         <v>100</v>
       </c>
       <c r="G312">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H312">
         <v>100</v>
       </c>
       <c r="I312">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J312">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K312">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L312">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M312">
         <v>10</v>
@@ -37578,13 +37584,13 @@
         <v>100</v>
       </c>
       <c r="P312">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Q312">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="R312">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="S312">
         <v>10</v>
@@ -37599,19 +37605,19 @@
         <v>48</v>
       </c>
       <c r="W312" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="X312">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Y312">
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="Z312">
-        <v>288</v>
+        <v>648</v>
       </c>
       <c r="AA312">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AB312" t="s">
         <v>41</v>
@@ -37620,22 +37626,22 @@
         <v>48</v>
       </c>
       <c r="AD312" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="AE312" t="s">
         <v>1184</v>
       </c>
       <c r="AF312">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="AG312" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="AH312">
         <v>0</v>
       </c>
       <c r="AI312">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AJ312">
         <v>1</v>
@@ -37643,16 +37649,16 @@
     </row>
     <row r="313" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A313">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="B313" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C313" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D313">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E313">
         <v>100</v>
@@ -37715,13 +37721,13 @@
         <v>600</v>
       </c>
       <c r="Y313">
-        <v>576</v>
+        <v>384</v>
       </c>
       <c r="Z313">
         <v>288</v>
       </c>
       <c r="AA313">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AB313" t="s">
         <v>41</v>
@@ -37736,10 +37742,10 @@
         <v>1184</v>
       </c>
       <c r="AF313">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="AG313" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AH313">
         <v>0</v>
@@ -37753,16 +37759,16 @@
     </row>
     <row r="314" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A314">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="B314" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C314" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D314">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E314">
         <v>100</v>
@@ -37831,7 +37837,7 @@
         <v>288</v>
       </c>
       <c r="AA314">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AB314" t="s">
         <v>41</v>
@@ -37849,7 +37855,7 @@
         <v>144</v>
       </c>
       <c r="AG314" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AH314">
         <v>0</v>
@@ -37863,16 +37869,16 @@
     </row>
     <row r="315" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A315">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="B315" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C315" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D315">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E315">
         <v>100</v>
@@ -37896,13 +37902,13 @@
         <v>100</v>
       </c>
       <c r="L315">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M315">
         <v>10</v>
       </c>
       <c r="N315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O315">
         <v>100</v>
@@ -37926,63 +37932,63 @@
         <v>47</v>
       </c>
       <c r="V315" t="s">
+        <v>48</v>
+      </c>
+      <c r="W315" t="s">
+        <v>49</v>
+      </c>
+      <c r="X315">
+        <v>600</v>
+      </c>
+      <c r="Y315">
+        <v>576</v>
+      </c>
+      <c r="Z315">
+        <v>288</v>
+      </c>
+      <c r="AA315">
         <v>140</v>
-      </c>
-      <c r="W315" t="s">
-        <v>54</v>
-      </c>
-      <c r="X315">
-        <v>1001</v>
-      </c>
-      <c r="Y315">
-        <v>1</v>
-      </c>
-      <c r="Z315">
-        <v>1</v>
-      </c>
-      <c r="AA315">
-        <v>1000</v>
       </c>
       <c r="AB315" t="s">
         <v>41</v>
       </c>
       <c r="AC315" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AD315" t="s">
-        <v>59</v>
+        <v>1119</v>
       </c>
       <c r="AE315" t="s">
         <v>1184</v>
       </c>
       <c r="AF315">
-        <v>672</v>
+        <v>144</v>
       </c>
       <c r="AG315" t="s">
-        <v>334</v>
+        <v>1155</v>
       </c>
       <c r="AH315">
         <v>0</v>
       </c>
       <c r="AI315">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AJ315">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A316">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="B316" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="C316" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="D316">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E316">
         <v>100</v>
@@ -37994,13 +38000,13 @@
         <v>100</v>
       </c>
       <c r="H316">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I316">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J316">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K316">
         <v>100</v>
@@ -38012,19 +38018,19 @@
         <v>10</v>
       </c>
       <c r="N316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O316">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="P316">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q316">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="R316">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="S316">
         <v>10</v>
@@ -38033,66 +38039,69 @@
         <v>12</v>
       </c>
       <c r="U316" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V316" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="W316" t="s">
-        <v>437</v>
+        <v>54</v>
       </c>
       <c r="X316">
-        <v>1472</v>
+        <v>1001</v>
       </c>
       <c r="Y316">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="Z316">
-        <v>672</v>
+        <v>1</v>
       </c>
       <c r="AA316">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB316" t="s">
         <v>41</v>
       </c>
       <c r="AC316" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AD316" t="s">
-        <v>99</v>
+        <v>59</v>
+      </c>
+      <c r="AE316" t="s">
+        <v>1184</v>
       </c>
       <c r="AF316">
-        <v>528</v>
+        <v>672</v>
       </c>
       <c r="AG316" t="s">
-        <v>1156</v>
+        <v>334</v>
       </c>
       <c r="AH316">
         <v>0</v>
       </c>
       <c r="AI316">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AJ316">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="317" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A317">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="B317" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C317" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D317">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E317">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F317">
         <v>100</v>
@@ -38113,7 +38122,7 @@
         <v>100</v>
       </c>
       <c r="L317">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="M317">
         <v>10</v>
@@ -38128,10 +38137,10 @@
         <v>70</v>
       </c>
       <c r="Q317">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="R317">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="S317">
         <v>10</v>
@@ -38146,10 +38155,10 @@
         <v>39</v>
       </c>
       <c r="W317" t="s">
-        <v>1027</v>
+        <v>437</v>
       </c>
       <c r="X317">
-        <v>1272</v>
+        <v>1472</v>
       </c>
       <c r="Y317">
         <v>288</v>
@@ -38158,13 +38167,13 @@
         <v>672</v>
       </c>
       <c r="AA317">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB317" t="s">
         <v>41</v>
       </c>
       <c r="AC317" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="AD317" t="s">
         <v>99</v>
@@ -38173,7 +38182,7 @@
         <v>528</v>
       </c>
       <c r="AG317" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AH317">
         <v>0</v>
@@ -38182,6 +38191,113 @@
         <v>0.5</v>
       </c>
       <c r="AJ317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A318">
+        <v>6014</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D318">
+        <v>42</v>
+      </c>
+      <c r="E318">
+        <v>85</v>
+      </c>
+      <c r="F318">
+        <v>100</v>
+      </c>
+      <c r="G318">
+        <v>100</v>
+      </c>
+      <c r="H318">
+        <v>80</v>
+      </c>
+      <c r="I318">
+        <v>110</v>
+      </c>
+      <c r="J318">
+        <v>110</v>
+      </c>
+      <c r="K318">
+        <v>100</v>
+      </c>
+      <c r="L318">
+        <v>170</v>
+      </c>
+      <c r="M318">
+        <v>10</v>
+      </c>
+      <c r="N318">
+        <v>1</v>
+      </c>
+      <c r="O318">
+        <v>70</v>
+      </c>
+      <c r="P318">
+        <v>70</v>
+      </c>
+      <c r="Q318">
+        <v>125</v>
+      </c>
+      <c r="R318">
+        <v>125</v>
+      </c>
+      <c r="S318">
+        <v>10</v>
+      </c>
+      <c r="T318">
+        <v>12</v>
+      </c>
+      <c r="U318" t="s">
+        <v>38</v>
+      </c>
+      <c r="V318" t="s">
+        <v>39</v>
+      </c>
+      <c r="W318" t="s">
+        <v>1027</v>
+      </c>
+      <c r="X318">
+        <v>1272</v>
+      </c>
+      <c r="Y318">
+        <v>288</v>
+      </c>
+      <c r="Z318">
+        <v>672</v>
+      </c>
+      <c r="AA318">
+        <v>170</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC318" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD318" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF318">
+        <v>528</v>
+      </c>
+      <c r="AG318" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AH318">
+        <v>0</v>
+      </c>
+      <c r="AI318">
+        <v>0.5</v>
+      </c>
+      <c r="AJ318">
         <v>1</v>
       </c>
     </row>
@@ -40295,7 +40411,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -41285,7 +41401,7 @@
         <v>110</v>
       </c>
       <c r="E23">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F23">
         <v>110</v>
@@ -41329,7 +41445,7 @@
         <v>120</v>
       </c>
       <c r="E24">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F24">
         <v>115</v>
@@ -41373,7 +41489,7 @@
         <v>130</v>
       </c>
       <c r="E25">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F25">
         <v>120</v>
@@ -41417,7 +41533,7 @@
         <v>140</v>
       </c>
       <c r="E26">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F26">
         <v>125</v>
@@ -41461,7 +41577,7 @@
         <v>150</v>
       </c>
       <c r="E27">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F27">
         <v>130</v>
@@ -41505,7 +41621,7 @@
         <v>160</v>
       </c>
       <c r="E28">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F28">
         <v>150</v>
@@ -41549,7 +41665,7 @@
         <v>180</v>
       </c>
       <c r="E29">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F29">
         <v>160</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F342A3-C737-4DF0-A42D-267EF6965D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91276FA-6ADA-4C40-A423-16AD8EE97A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3634" yWindow="2914" windowWidth="26932" windowHeight="13937" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="2477" yWindow="1106" windowWidth="28612" windowHeight="13457" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -10821,7 +10821,7 @@
         <v>100</v>
       </c>
       <c r="G63">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H63">
         <v>100</v>
@@ -17298,7 +17298,7 @@
         <v>120</v>
       </c>
       <c r="G123">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H123">
         <v>120</v>
@@ -18270,7 +18270,7 @@
         <v>490</v>
       </c>
       <c r="D132">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E132">
         <v>100</v>
@@ -23837,7 +23837,7 @@
         <v>659</v>
       </c>
       <c r="D184">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E184">
         <v>100</v>
@@ -23861,7 +23861,7 @@
         <v>120</v>
       </c>
       <c r="L184">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M184">
         <v>10</v>
@@ -23876,10 +23876,10 @@
         <v>120</v>
       </c>
       <c r="Q184">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R184">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S184">
         <v>10</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91276FA-6ADA-4C40-A423-16AD8EE97A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4545A7-6C05-4C64-AF2F-9B9EC572F0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2477" yWindow="1106" windowWidth="28612" windowHeight="13457" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="2820" yWindow="1449" windowWidth="28611" windowHeight="13457" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="1197">
   <si>
     <t>Id</t>
   </si>
@@ -3639,6 +3639,9 @@
   </si>
   <si>
     <t>Golem,Buff</t>
+  </si>
+  <si>
+    <t>AiAngry</t>
   </si>
 </sst>
 </file>
@@ -4087,10 +4090,10 @@
   <dimension ref="A1:AK318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G123" sqref="G123"/>
+      <selection pane="bottomRight" activeCell="AD232" sqref="AD232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13271,7 +13274,7 @@
         <v>41</v>
       </c>
       <c r="AD85" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF85">
         <v>324</v>
@@ -13806,7 +13809,7 @@
         <v>41</v>
       </c>
       <c r="AD90" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF90">
         <v>432</v>
@@ -18134,7 +18137,7 @@
         <v>1107</v>
       </c>
       <c r="AD130" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF130">
         <v>288</v>
@@ -24346,7 +24349,7 @@
         <v>41</v>
       </c>
       <c r="AD188" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF188">
         <v>720</v>
@@ -24560,7 +24563,7 @@
         <v>286</v>
       </c>
       <c r="AD190" t="s">
-        <v>1119</v>
+        <v>1196</v>
       </c>
       <c r="AF190">
         <v>432</v>
@@ -28947,7 +28950,7 @@
         <v>1085</v>
       </c>
       <c r="AD231" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF231">
         <v>432</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4545A7-6C05-4C64-AF2F-9B9EC572F0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26987204-6271-4772-B1C4-8292D0123673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1449" windowWidth="28611" windowHeight="13457" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="1620" yWindow="2734" windowWidth="27746" windowHeight="13406" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -4090,10 +4090,10 @@
   <dimension ref="A1:AK318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E214" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD232" sqref="AD232"/>
+      <selection pane="bottomRight" activeCell="AD142" sqref="AD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -19421,7 +19421,7 @@
         <v>469</v>
       </c>
       <c r="AD142" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF142">
         <v>816</v>
@@ -25847,7 +25847,7 @@
         <v>41</v>
       </c>
       <c r="AD202" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF202">
         <v>216</v>
@@ -25954,7 +25954,7 @@
         <v>41</v>
       </c>
       <c r="AD203" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF203">
         <v>192</v>
@@ -26061,7 +26061,7 @@
         <v>456</v>
       </c>
       <c r="AD204" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF204">
         <v>108</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26987204-6271-4772-B1C4-8292D0123673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB727D5-0349-45C3-9FEA-419B76C18E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2734" windowWidth="27746" windowHeight="13406" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="2443" yWindow="2211" windowWidth="27746" windowHeight="13406" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -4090,10 +4090,10 @@
   <dimension ref="A1:AK318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD142" sqref="AD142"/>
+      <selection pane="bottomRight" activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -12542,16 +12542,16 @@
         <v>320</v>
       </c>
       <c r="D79">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E79">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F79">
         <v>100</v>
       </c>
       <c r="G79">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H79">
         <v>85</v>
@@ -12560,13 +12560,13 @@
         <v>100</v>
       </c>
       <c r="J79">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K79">
         <v>140</v>
       </c>
       <c r="L79">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M79">
         <v>18</v>
@@ -12575,10 +12575,10 @@
         <v>1</v>
       </c>
       <c r="O79">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P79">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q79">
         <v>100</v>
@@ -12652,16 +12652,16 @@
         <v>324</v>
       </c>
       <c r="D80">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E80">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F80">
         <v>100</v>
       </c>
       <c r="G80">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H80">
         <v>85</v>
@@ -12670,13 +12670,13 @@
         <v>100</v>
       </c>
       <c r="J80">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K80">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L80">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="M80">
         <v>15</v>
@@ -12685,10 +12685,10 @@
         <v>2</v>
       </c>
       <c r="O80">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P80">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q80">
         <v>100</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB727D5-0349-45C3-9FEA-419B76C18E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99907911-030C-4B7F-B0B8-5644504E60A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2443" yWindow="2211" windowWidth="27746" windowHeight="13406" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="1198">
   <si>
     <t>Id</t>
   </si>
@@ -3642,6 +3642,9 @@
   </si>
   <si>
     <t>AiAngry</t>
+  </si>
+  <si>
+    <t>WeakVsSilver</t>
   </si>
 </sst>
 </file>
@@ -4090,10 +4093,10 @@
   <dimension ref="A1:AK318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L79" sqref="L79"/>
+      <selection pane="bottomRight" activeCell="I214" sqref="I214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16965,7 +16968,7 @@
         <v>74</v>
       </c>
       <c r="E120">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F120">
         <v>120</v>
@@ -27068,7 +27071,7 @@
         <v>95</v>
       </c>
       <c r="I214">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J214">
         <v>80</v>
@@ -37031,7 +37034,7 @@
         <v>48</v>
       </c>
       <c r="E307">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F307">
         <v>100</v>
@@ -37052,7 +37055,7 @@
         <v>100</v>
       </c>
       <c r="L307">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="M307">
         <v>15</v>
@@ -37061,7 +37064,7 @@
         <v>1</v>
       </c>
       <c r="O307">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="P307">
         <v>350</v>
@@ -37085,7 +37088,7 @@
         <v>53</v>
       </c>
       <c r="W307" t="s">
-        <v>619</v>
+        <v>49</v>
       </c>
       <c r="X307">
         <v>902</v>
@@ -37107,6 +37110,9 @@
       </c>
       <c r="AD307" t="s">
         <v>1120</v>
+      </c>
+      <c r="AE307" t="s">
+        <v>1197</v>
       </c>
       <c r="AF307">
         <v>216</v>

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFA1A56-2ADE-4C07-9137-CECA3347AAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49F194-1E91-4034-8054-A2AC63947802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-189" yWindow="2794" windowWidth="31192" windowHeight="13380" activeTab="6" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="283" yWindow="2503" windowWidth="31080" windowHeight="13646" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="1206">
   <si>
     <t>Id</t>
   </si>
@@ -3645,9 +3645,6 @@
     <t>AiAngry</t>
   </si>
   <si>
-    <t>WeakVsSilver</t>
-  </si>
-  <si>
     <t>Old</t>
   </si>
   <si>
@@ -3657,9 +3654,6 @@
     <t>PercentIncrease</t>
   </si>
   <si>
-    <t>FungusOrMold</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -3667,6 +3661,15 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Exp4</t>
+  </si>
+  <si>
+    <t>Slightly lower at lower levels</t>
+  </si>
+  <si>
+    <t>WeakToSilver</t>
   </si>
 </sst>
 </file>
@@ -4119,11 +4122,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A97A5-94A7-4FFA-A162-65D076B52481}">
   <dimension ref="A1:AK318"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G237" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD254" sqref="AD254"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4651,7 +4654,7 @@
         <v>105</v>
       </c>
       <c r="R5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="S5">
         <v>10</v>
@@ -5652,6 +5655,9 @@
       <c r="AD14" t="s">
         <v>59</v>
       </c>
+      <c r="AE14" t="s">
+        <v>1159</v>
+      </c>
       <c r="AF14">
         <v>0</v>
       </c>
@@ -7685,6 +7691,9 @@
       <c r="AD33" t="s">
         <v>59</v>
       </c>
+      <c r="AE33" t="s">
+        <v>1159</v>
+      </c>
       <c r="AF33">
         <v>0</v>
       </c>
@@ -9214,7 +9223,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s">
-        <v>1201</v>
+        <v>1159</v>
       </c>
       <c r="AF47">
         <v>528</v>
@@ -21067,6 +21076,9 @@
       <c r="AD157" t="s">
         <v>1119</v>
       </c>
+      <c r="AE157" t="s">
+        <v>1159</v>
+      </c>
       <c r="AF157">
         <v>900</v>
       </c>
@@ -21493,7 +21505,7 @@
         <v>181</v>
       </c>
       <c r="AD161" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF161">
         <v>720</v>
@@ -31233,7 +31245,10 @@
         <v>219</v>
       </c>
       <c r="AD252" t="s">
-        <v>99</v>
+        <v>1196</v>
+      </c>
+      <c r="AE252" t="s">
+        <v>1159</v>
       </c>
       <c r="AF252">
         <v>672</v>
@@ -31340,7 +31355,7 @@
         <v>1098</v>
       </c>
       <c r="AD253" t="s">
-        <v>99</v>
+        <v>1196</v>
       </c>
       <c r="AF253">
         <v>540</v>
@@ -32412,6 +32427,9 @@
       <c r="AD263" t="s">
         <v>1120</v>
       </c>
+      <c r="AE263" t="s">
+        <v>1180</v>
+      </c>
       <c r="AF263">
         <v>384</v>
       </c>
@@ -37145,7 +37163,7 @@
         <v>1120</v>
       </c>
       <c r="AE307" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="AF307">
         <v>216</v>
@@ -38343,7 +38361,7 @@
         <v>170</v>
       </c>
       <c r="AB318" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AC318" t="s">
         <v>225</v>
@@ -39929,7 +39947,7 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A2-1,0)</f>
-        <v>3.5</v>
+        <v>3.4999285787164571</v>
       </c>
       <c r="G2">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A2-1,0)</f>
@@ -39962,7 +39980,7 @@
       </c>
       <c r="F3" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A3-1,0)</f>
-        <v>12.255460763568353</v>
+        <v>12.25406102251104</v>
       </c>
       <c r="G3">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A3-1,0)</f>
@@ -39995,7 +40013,7 @@
       </c>
       <c r="F4" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A4-1,0)</f>
-        <v>36.107172064417071</v>
+        <v>36.122779813704462</v>
       </c>
       <c r="G4">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A4-1,0)</f>
@@ -40028,7 +40046,7 @@
       </c>
       <c r="F5" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A5-1,0)</f>
-        <v>99.177334942458586</v>
+        <v>99.294420364375753</v>
       </c>
       <c r="G5">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A5-1,0)</f>
@@ -40061,7 +40079,7 @@
       </c>
       <c r="F6" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A6-1,0)</f>
-        <v>266.88222846051758</v>
+        <v>267.3286503701591</v>
       </c>
       <c r="G6">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A6-1,0)</f>
@@ -40094,7 +40112,7 @@
       </c>
       <c r="F7" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A7-1,0)</f>
-        <v>481.93373794341005</v>
+        <v>482.03567435078105</v>
       </c>
       <c r="G7">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A7-1,0)</f>
@@ -40127,7 +40145,7 @@
       </c>
       <c r="F8" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A8-1,0)</f>
-        <v>890.69916591319759</v>
+        <v>891.78673666388045</v>
       </c>
       <c r="G8">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A8-1,0)</f>
@@ -40160,7 +40178,7 @@
       </c>
       <c r="F9" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A9-1,0)</f>
-        <v>1087.8512217579021</v>
+        <v>1091.1334044285161</v>
       </c>
       <c r="G9">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A9-1,0)</f>
@@ -40193,7 +40211,7 @@
       </c>
       <c r="F10" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A10-1,0)</f>
-        <v>1713.9664265462445</v>
+        <v>1719.3034980508569</v>
       </c>
       <c r="G10">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A10-1,0)</f>
@@ -40226,7 +40244,7 @@
       </c>
       <c r="F11" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A11-1,0)</f>
-        <v>2132.4595411275823</v>
+        <v>2130.146778768717</v>
       </c>
       <c r="G11">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A11-1,0)</f>
@@ -40259,7 +40277,7 @@
       </c>
       <c r="F12" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A12-1,0)</f>
-        <v>3401.5852274371705</v>
+        <v>3374.7918518993724</v>
       </c>
       <c r="G12">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A12-1,0)</f>
@@ -40292,7 +40310,7 @@
       </c>
       <c r="F13" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A13-1,0)</f>
-        <v>4299.9285318892425</v>
+        <v>4231.4980090590079</v>
       </c>
       <c r="G13">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A13-1,0)</f>
@@ -40325,7 +40343,7 @@
       </c>
       <c r="F14" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A14-1,0)</f>
-        <v>6448.5121549406549</v>
+        <v>6278.7576265350153</v>
       </c>
       <c r="G14">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A14-1,0)</f>
@@ -40358,7 +40376,7 @@
       </c>
       <c r="F15" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A15-1,0)</f>
-        <v>8122.9700502754104</v>
+        <v>7770.9441265463993</v>
       </c>
       <c r="G15">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A15-1,0)</f>
@@ -40391,7 +40409,7 @@
       </c>
       <c r="F16" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A16-1,0)</f>
-        <v>12291.077011196374</v>
+        <v>11607.377847105086</v>
       </c>
       <c r="G16">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A16-1,0)</f>
@@ -40424,7 +40442,7 @@
       </c>
       <c r="F17" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A17-1,0)</f>
-        <v>14090.87822290473</v>
+        <v>12985.402679284571</v>
       </c>
       <c r="G17">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A17-1,0)</f>
@@ -40457,7 +40475,7 @@
       </c>
       <c r="F18" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A18-1,0)</f>
-        <v>20710.481684454731</v>
+        <v>18472.368563779044</v>
       </c>
       <c r="G18">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A18-1,0)</f>
@@ -40490,7 +40508,7 @@
       </c>
       <c r="F19" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A19-1,0)</f>
-        <v>23626.030866027857</v>
+        <v>20451.889053888764</v>
       </c>
       <c r="G19">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A19-1,0)</f>
@@ -40523,7 +40541,7 @@
       </c>
       <c r="F20" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A20-1,0)</f>
-        <v>34127.613944805868</v>
+        <v>28286.797118279614</v>
       </c>
       <c r="G20">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A20-1,0)</f>
@@ -40556,7 +40574,7 @@
       </c>
       <c r="F21" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A21-1,0)</f>
-        <v>38045.824168138904</v>
+        <v>30389.495574219869</v>
       </c>
       <c r="G21">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A21-1,0)</f>
@@ -40589,7 +40607,7 @@
       </c>
       <c r="F22" s="1">
         <f ca="1">OFFSET(StatCharts!F$2,Sheet2!$A22-1,0)</f>
-        <v>65797.391986442817</v>
+        <v>54760.637331060898</v>
       </c>
       <c r="G22">
         <f ca="1">OFFSET(StatCharts!G$2,Sheet2!$A22-1,0)</f>
@@ -44113,13 +44131,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A7D354-8BFA-4CB0-A7D9-2F2F96892950}">
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F100"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -44134,7 +44152,7 @@
     <col min="18" max="18" width="7.23046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -44189,8 +44207,11 @@
       <c r="X1" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Z1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -44211,7 +44232,7 @@
       </c>
       <c r="F2" s="1">
         <f>VLOOKUP($A2,Exp!$AE2:$AF100,2)/$E2</f>
-        <v>3.5</v>
+        <v>3.4999285787164571</v>
       </c>
       <c r="G2">
         <f>FLOOR(A2*0.8,1)+1</f>
@@ -44256,10 +44277,17 @@
       </c>
       <c r="W2">
         <f>F2*0.6</f>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+        <v>2.0999571472298744</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>MIN(800,F2*0.8)+MAX(0,F2-1000)</f>
+        <v>2.799942862973166</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -44281,7 +44309,7 @@
       </c>
       <c r="F3" s="1">
         <f>VLOOKUP($A3,Exp!$AE3:$AF101,2)/$E3</f>
-        <v>4.8340494196428567</v>
+        <v>4.8339099326599326</v>
       </c>
       <c r="G3">
         <f>FLOOR(A3*0.8,1)+1</f>
@@ -44329,10 +44357,14 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W66" si="2">F3*0.6</f>
-        <v>2.9004296517857138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+        <v>2.9003459595959593</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z66" si="3">MIN(800,F3*0.8)+MAX(0,F3-1000)</f>
+        <v>3.8671279461279462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -44354,7 +44386,7 @@
       </c>
       <c r="F4" s="1">
         <f>VLOOKUP($A4,Exp!$AE4:$AF102,2)/$E4</f>
-        <v>6.6325259319087708</v>
+        <v>6.632206967326634</v>
       </c>
       <c r="G4">
         <f>FLOOR(A4*0.8,1)+1</f>
@@ -44393,7 +44425,7 @@
         <v>12.052874547877403</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T21" si="3">T3-0.015</f>
+        <f t="shared" ref="T4:T21" si="4">T3-0.015</f>
         <v>0.95</v>
       </c>
       <c r="U4">
@@ -44402,10 +44434,14 @@
       </c>
       <c r="W4">
         <f t="shared" si="2"/>
-        <v>3.9795155591452622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+        <v>3.97932418039598</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="3"/>
+        <v>5.3057655738613079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -44427,7 +44463,7 @@
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP($A5,Exp!$AE5:$AF103,2)/$E5</f>
-        <v>9.0421262807521909</v>
+        <v>9.0412829080477035</v>
       </c>
       <c r="G5">
         <f>FLOOR(A5*0.8,1)+1</f>
@@ -44466,7 +44502,7 @@
         <v>13.491336086338942</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93499999999999994</v>
       </c>
       <c r="U5">
@@ -44475,10 +44511,14 @@
       </c>
       <c r="W5">
         <f t="shared" si="2"/>
-        <v>5.4252757684513142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+        <v>5.4247697448286223</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2330263264381633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -44500,7 +44540,7 @@
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP($A6,Exp!$AE6:$AF104,2)/$E6</f>
-        <v>12.255460763568353</v>
+        <v>12.25406102251104</v>
       </c>
       <c r="G6">
         <f>FLOOR(A6*0.8,1)+1</f>
@@ -44539,7 +44579,7 @@
         <v>15.243717038719893</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91999999999999993</v>
       </c>
       <c r="U6">
@@ -44548,10 +44588,14 @@
       </c>
       <c r="W6">
         <f t="shared" si="2"/>
-        <v>7.3532764581410115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+        <v>7.3524366135066241</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="3"/>
+        <v>9.8032488180088322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -44573,7 +44617,7 @@
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP($A7,Exp!$AE7:$AF105,2)/$E7</f>
-        <v>15.339953558947121</v>
+        <v>15.33783236315811</v>
       </c>
       <c r="G7">
         <f>FLOOR(A7*0.8,1)+1</f>
@@ -44612,7 +44656,7 @@
         <v>17.292773642493479</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90499999999999992</v>
       </c>
       <c r="U7">
@@ -44621,10 +44665,14 @@
       </c>
       <c r="W7">
         <f t="shared" si="2"/>
-        <v>9.2039721353682715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+        <v>9.2026994178948662</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="3"/>
+        <v>12.270265890526488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -44646,7 +44694,7 @@
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP($A8,Exp!$AE8:$AF106,2)/$E8</f>
-        <v>19.106854357804131</v>
+        <v>19.104046680879591</v>
       </c>
       <c r="G8">
         <f>FLOOR(A8*0.8,1)+1</f>
@@ -44685,7 +44733,7 @@
         <v>19.621745605110302</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8899999999999999</v>
       </c>
       <c r="U8">
@@ -44694,10 +44742,14 @@
       </c>
       <c r="W8">
         <f t="shared" si="2"/>
-        <v>11.464112614682479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+        <v>11.462428008527754</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="3"/>
+        <v>15.283237344703673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -44719,7 +44771,7 @@
       </c>
       <c r="F9" s="1">
         <f>VLOOKUP($A9,Exp!$AE9:$AF107,2)/$E9</f>
-        <v>23.696130407767953</v>
+        <v>23.69306148030309</v>
       </c>
       <c r="G9">
         <f>FLOOR(A9*0.8,1)+1</f>
@@ -44758,7 +44810,7 @@
         <v>22.214338197702894</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.87499999999999989</v>
       </c>
       <c r="U9">
@@ -44767,10 +44819,14 @@
       </c>
       <c r="W9">
         <f t="shared" si="2"/>
-        <v>14.217678244660771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+        <v>14.215836888181853</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="3"/>
+        <v>18.954449184242474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -44792,7 +44848,7 @@
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP($A10,Exp!$AE10:$AF108,2)/$E10</f>
-        <v>29.330705012566046</v>
+        <v>29.345003477005346</v>
       </c>
       <c r="G10">
         <f>FLOOR(A10*0.8,1)+1</f>
@@ -44831,7 +44887,7 @@
         <v>25.054705170179957</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="U10">
@@ -44840,10 +44896,14 @@
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>17.598423007539626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+        <v>17.607002086203206</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="3"/>
+        <v>23.476002781604279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -44865,7 +44925,7 @@
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP($A11,Exp!$AE11:$AF109,2)/$E11</f>
-        <v>36.107172064417071</v>
+        <v>36.122779813704462</v>
       </c>
       <c r="G11">
         <f>FLOOR(A11*0.8,1)+1</f>
@@ -44904,7 +44964,7 @@
         <v>28.127432442907228</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84499999999999986</v>
       </c>
       <c r="U11">
@@ -44913,10 +44973,14 @@
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>21.664303238650241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+        <v>21.673667888222678</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="3"/>
+        <v>28.898223850963571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -44938,7 +45002,7 @@
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP($A12,Exp!$AE12:$AF110,2)/$E12</f>
-        <v>44.320855576273182</v>
+        <v>44.335311182211782</v>
       </c>
       <c r="G12">
         <f>FLOOR(A12*0.8,1)+1</f>
@@ -44977,7 +45041,7 @@
         <v>31.417522532997317</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82999999999999985</v>
       </c>
       <c r="U12">
@@ -44986,10 +45050,14 @@
       </c>
       <c r="W12">
         <f t="shared" si="2"/>
-        <v>26.592513345763908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+        <v>26.60118670932707</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="3"/>
+        <v>35.468248945769425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -45011,7 +45079,7 @@
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP($A13,Exp!$AE13:$AF111,2)/$E13</f>
-        <v>54.272506362866068</v>
+        <v>54.281447793638016</v>
       </c>
       <c r="G13">
         <f>FLOOR(A13*0.8,1)+1</f>
@@ -45050,7 +45118,7 @@
         <v>34.910379675854458</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.81499999999999984</v>
       </c>
       <c r="U13">
@@ -45059,10 +45127,14 @@
       </c>
       <c r="W13">
         <f t="shared" si="2"/>
-        <v>32.563503817719642</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+        <v>32.568868676182809</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="3"/>
+        <v>43.425158234910413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -45084,7 +45156,7 @@
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP($A14,Exp!$AE14:$AF112,2)/$E14</f>
-        <v>66.378056033152035</v>
+        <v>66.391045091921484</v>
       </c>
       <c r="G14">
         <f>FLOOR(A14*0.8,1)+1</f>
@@ -45123,7 +45195,7 @@
         <v>38.591795605057996</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="U14">
@@ -45132,10 +45204,14 @@
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>39.826833619891218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+        <v>39.834627055152886</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="3"/>
+        <v>53.112836073537188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -45157,7 +45233,7 @@
       </c>
       <c r="F15" s="1">
         <f>VLOOKUP($A15,Exp!$AE15:$AF113,2)/$E15</f>
-        <v>81.347730439924192</v>
+        <v>81.461751962403937</v>
       </c>
       <c r="G15">
         <f>FLOOR(A15*0.8,1)+1</f>
@@ -45196,7 +45272,7 @@
         <v>42.447935955935186</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78499999999999981</v>
       </c>
       <c r="U15">
@@ -45205,10 +45281,14 @@
       </c>
       <c r="W15">
         <f t="shared" si="2"/>
-        <v>48.808638263954514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+        <v>48.877051177442361</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="3"/>
+        <v>65.169401569923153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -45230,7 +45310,7 @@
       </c>
       <c r="F16" s="1">
         <f>VLOOKUP($A16,Exp!$AE16:$AF114,2)/$E16</f>
-        <v>99.177334942458586</v>
+        <v>99.294420364375753</v>
       </c>
       <c r="G16">
         <f>FLOOR(A16*0.8,1)+1</f>
@@ -45269,7 +45349,7 @@
         <v>46.465327260283011</v>
       </c>
       <c r="T16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7699999999999998</v>
       </c>
       <c r="U16">
@@ -45278,10 +45358,14 @@
       </c>
       <c r="W16">
         <f t="shared" si="2"/>
-        <v>59.506400965475152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+        <v>59.576652218625448</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="3"/>
+        <v>79.435536291500611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -45303,7 +45387,7 @@
       </c>
       <c r="F17" s="1">
         <f>VLOOKUP($A17,Exp!$AE17:$AF115,2)/$E17</f>
-        <v>120.80675280002626</v>
+        <v>120.91357750676941</v>
       </c>
       <c r="G17">
         <f>FLOOR(A17*0.8,1)+1</f>
@@ -45342,7 +45426,7 @@
         <v>50.630844501662324</v>
       </c>
       <c r="T17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75499999999999978</v>
       </c>
       <c r="U17">
@@ -45351,10 +45435,14 @@
       </c>
       <c r="W17">
         <f t="shared" si="2"/>
-        <v>72.484051680015753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+        <v>72.548146504061648</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="3"/>
+        <v>96.730862005415531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -45376,7 +45464,7 @@
       </c>
       <c r="F18" s="1">
         <f>VLOOKUP($A18,Exp!$AE18:$AF116,2)/$E18</f>
-        <v>147.06224866173514</v>
+        <v>147.13745568357365</v>
       </c>
       <c r="G18">
         <f>FLOOR(A18*0.8,1)+1</f>
@@ -45415,7 +45503,7 @@
         <v>54.931699202517024</v>
       </c>
       <c r="T18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73999999999999977</v>
       </c>
       <c r="U18">
@@ -45424,10 +45512,14 @@
       </c>
       <c r="W18">
         <f t="shared" si="2"/>
-        <v>88.237349197041084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+        <v>88.282473410144192</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="3"/>
+        <v>117.70996454685893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -45449,7 +45541,7 @@
       </c>
       <c r="F19" s="1">
         <f>VLOOKUP($A19,Exp!$AE19:$AF117,2)/$E19</f>
-        <v>178.95543374499897</v>
+        <v>178.96638151537496</v>
       </c>
       <c r="G19">
         <f>FLOOR(A19*0.8,1)+1</f>
@@ -45488,7 +45580,7 @@
         <v>59.355428016076345</v>
       </c>
       <c r="T19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.72499999999999976</v>
       </c>
       <c r="U19">
@@ -45497,10 +45589,14 @@
       </c>
       <c r="W19">
         <f t="shared" si="2"/>
-        <v>107.37326024699938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+        <v>107.37982890922497</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="3"/>
+        <v>143.17310521229999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -45522,7 +45618,7 @@
       </c>
       <c r="F20" s="1">
         <f>VLOOKUP($A20,Exp!$AE20:$AF118,2)/$E20</f>
-        <v>219.32602940791529</v>
+        <v>219.80728774446223</v>
       </c>
       <c r="G20">
         <f>FLOOR(A20*0.8,1)+1</f>
@@ -45561,7 +45657,7 @@
         <v>63.889881797588949</v>
       </c>
       <c r="T20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70999999999999974</v>
       </c>
       <c r="U20">
@@ -45570,10 +45666,14 @@
       </c>
       <c r="W20">
         <f t="shared" si="2"/>
-        <v>131.59561764474915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+        <v>131.88437264667732</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="3"/>
+        <v>175.84583019556979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -45595,7 +45695,7 @@
       </c>
       <c r="F21" s="1">
         <f>VLOOKUP($A21,Exp!$AE21:$AF119,2)/$E21</f>
-        <v>266.88222846051758</v>
+        <v>267.3286503701591</v>
       </c>
       <c r="G21">
         <f>FLOOR(A21*0.8,1)+1</f>
@@ -45634,7 +45734,7 @@
         <v>68.523215130922281</v>
       </c>
       <c r="T21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69499999999999973</v>
       </c>
       <c r="U21">
@@ -45643,10 +45743,14 @@
       </c>
       <c r="W21">
         <f t="shared" si="2"/>
-        <v>160.12933707631055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+        <v>160.39719022209545</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="3"/>
+        <v>213.8629202961273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -45668,7 +45772,7 @@
       </c>
       <c r="F22" s="1">
         <f>VLOOKUP($A22,Exp!$AE22:$AF120,2)/$E22</f>
-        <v>299.74388111528219</v>
+        <v>300.04241812378893</v>
       </c>
       <c r="G22">
         <f>FLOOR(A22*0.8,1)+1</f>
@@ -45716,10 +45820,14 @@
       </c>
       <c r="W22">
         <f t="shared" si="2"/>
-        <v>179.84632866916931</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+        <v>180.02545087427336</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="3"/>
+        <v>240.03393449903115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -45741,7 +45849,7 @@
       </c>
       <c r="F23" s="1">
         <f>VLOOKUP($A23,Exp!$AE23:$AF121,2)/$E23</f>
-        <v>336.72206868802914</v>
+        <v>336.79900930562815</v>
       </c>
       <c r="G23">
         <f>FLOOR(A23*0.8,1)+1</f>
@@ -45780,7 +45888,7 @@
         <v>78.574807056135668</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T31" si="4">MIN(1.2,T22+0.01)</f>
+        <f t="shared" ref="T23:T31" si="5">MIN(1.2,T22+0.01)</f>
         <v>0.71499999999999975</v>
       </c>
       <c r="U23">
@@ -45789,10 +45897,14 @@
       </c>
       <c r="W23">
         <f t="shared" si="2"/>
-        <v>202.03324121281747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+        <v>202.07940558337688</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="3"/>
+        <v>269.43920744450253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -45814,7 +45926,7 @@
       </c>
       <c r="F24" s="1">
         <f>VLOOKUP($A24,Exp!$AE24:$AF122,2)/$E24</f>
-        <v>379.26789606028683</v>
+        <v>379.36300802355402</v>
       </c>
       <c r="G24">
         <f>FLOOR(A24*0.8,1)+1</f>
@@ -45853,7 +45965,7 @@
         <v>83.997571283777944</v>
       </c>
       <c r="T24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72499999999999976</v>
       </c>
       <c r="U24">
@@ -45862,10 +45974,14 @@
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>227.56073763617209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+        <v>227.6178048141324</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="3"/>
+        <v>303.49040641884324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -45887,7 +46003,7 @@
       </c>
       <c r="F25" s="1">
         <f>VLOOKUP($A25,Exp!$AE25:$AF123,2)/$E25</f>
-        <v>428.53156586311042</v>
+        <v>429.0585206241891</v>
       </c>
       <c r="G25">
         <f>FLOOR(A25*0.8,1)+1</f>
@@ -45926,7 +46042,7 @@
         <v>89.687893864423103</v>
       </c>
       <c r="T25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73499999999999976</v>
       </c>
       <c r="U25">
@@ -45935,10 +46051,14 @@
       </c>
       <c r="W25">
         <f t="shared" si="2"/>
-        <v>257.11893951786624</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+        <v>257.43511237451344</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="3"/>
+        <v>343.24681649935133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -45960,7 +46080,7 @@
       </c>
       <c r="F26" s="1">
         <f>VLOOKUP($A26,Exp!$AE26:$AF124,2)/$E26</f>
-        <v>481.93373794341005</v>
+        <v>482.03567435078105</v>
       </c>
       <c r="G26">
         <f>FLOOR(A26*0.8,1)+1</f>
@@ -45999,7 +46119,7 @@
         <v>95.647893864423096</v>
       </c>
       <c r="T26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74499999999999977</v>
       </c>
       <c r="U26">
@@ -46008,10 +46128,14 @@
       </c>
       <c r="W26">
         <f t="shared" si="2"/>
-        <v>289.160242766046</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+        <v>289.2214046104686</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="3"/>
+        <v>385.62853948062485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -46033,7 +46157,7 @@
       </c>
       <c r="F27" s="1">
         <f>VLOOKUP($A27,Exp!$AE27:$AF125,2)/$E27</f>
-        <v>542.24995147279208</v>
+        <v>541.76283145998286</v>
       </c>
       <c r="G27">
         <f>FLOOR(A27*0.8,1)+1</f>
@@ -46072,7 +46196,7 @@
         <v>101.87963989616912</v>
       </c>
       <c r="T27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75499999999999978</v>
       </c>
       <c r="U27">
@@ -46081,10 +46205,14 @@
       </c>
       <c r="W27">
         <f t="shared" si="2"/>
-        <v>325.34997088367521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+        <v>325.05769887598973</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="3"/>
+        <v>433.41026516798632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -46106,7 +46234,7 @@
       </c>
       <c r="F28" s="1">
         <f>VLOOKUP($A28,Exp!$AE28:$AF126,2)/$E28</f>
-        <v>612.22965211382223</v>
+        <v>611.6346128000589</v>
       </c>
       <c r="G28">
         <f>FLOOR(A28*0.8,1)+1</f>
@@ -46145,7 +46273,7 @@
         <v>108.38515170719275</v>
       </c>
       <c r="T28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76499999999999979</v>
       </c>
       <c r="U28">
@@ -46154,10 +46282,14 @@
       </c>
       <c r="W28">
         <f t="shared" si="2"/>
-        <v>367.3377912682933</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+        <v>366.98076768003534</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="3"/>
+        <v>489.30769024004712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -46179,7 +46311,7 @@
       </c>
       <c r="F29" s="1">
         <f>VLOOKUP($A29,Exp!$AE29:$AF127,2)/$E29</f>
-        <v>691.74746485158948</v>
+        <v>691.02220544649174</v>
       </c>
       <c r="G29">
         <f>FLOOR(A29*0.8,1)+1</f>
@@ -46218,7 +46350,7 @@
         <v>115.16640170719275</v>
       </c>
       <c r="T29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7749999999999998</v>
       </c>
       <c r="U29">
@@ -46227,10 +46359,14 @@
       </c>
       <c r="W29">
         <f t="shared" si="2"/>
-        <v>415.04847891095369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+        <v>414.61332326789505</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="3"/>
+        <v>552.81776435719337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -46252,7 +46388,7 @@
       </c>
       <c r="F30" s="1">
         <f>VLOOKUP($A30,Exp!$AE30:$AF128,2)/$E30</f>
-        <v>790.11460563530454</v>
+        <v>792.28020559351864</v>
       </c>
       <c r="G30">
         <f>FLOOR(A30*0.8,1)+1</f>
@@ -46291,7 +46427,7 @@
         <v>122.22531643587492</v>
       </c>
       <c r="T30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78499999999999981</v>
       </c>
       <c r="U30">
@@ -46300,10 +46436,14 @@
       </c>
       <c r="W30">
         <f t="shared" si="2"/>
-        <v>474.06876338118269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+        <v>475.36812335611114</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="3"/>
+        <v>633.82416447481501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -46325,7 +46465,7 @@
       </c>
       <c r="F31" s="1">
         <f>VLOOKUP($A31,Exp!$AE31:$AF129,2)/$E31</f>
-        <v>890.69916591319759</v>
+        <v>891.78673666388045</v>
       </c>
       <c r="G31">
         <f>FLOOR(A31*0.8,1)+1</f>
@@ -46364,7 +46504,7 @@
         <v>129.56377797433646</v>
       </c>
       <c r="T31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.79499999999999982</v>
       </c>
       <c r="U31">
@@ -46373,10 +46513,14 @@
       </c>
       <c r="W31">
         <f t="shared" si="2"/>
-        <v>534.41949954791858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+        <v>535.07204199832825</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="3"/>
+        <v>713.4293893311044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -46398,7 +46542,7 @@
       </c>
       <c r="F32" s="1">
         <f>VLOOKUP($A32,Exp!$AE32:$AF130,2)/$E32</f>
-        <v>924.99526244918093</v>
+        <v>926.20384102197011</v>
       </c>
       <c r="G32">
         <f>FLOOR(A32*0.8,1)+1</f>
@@ -46437,7 +46581,7 @@
         <v>137.23095354685555</v>
       </c>
       <c r="T32">
-        <f t="shared" ref="T32:T36" si="5">MIN(1.2,T31+0.015)</f>
+        <f t="shared" ref="T32:T36" si="6">MIN(1.2,T31+0.015)</f>
         <v>0.80999999999999983</v>
       </c>
       <c r="U32">
@@ -46446,10 +46590,14 @@
       </c>
       <c r="W32">
         <f t="shared" si="2"/>
-        <v>554.99715746950858</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+        <v>555.72230461318202</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="3"/>
+        <v>740.96307281757618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -46471,7 +46619,7 @@
       </c>
       <c r="F33" s="1">
         <f>VLOOKUP($A33,Exp!$AE33:$AF131,2)/$E33</f>
-        <v>960.36870397702478</v>
+        <v>961.32950069212029</v>
       </c>
       <c r="G33">
         <f>FLOOR(A33*0.8,1)+1</f>
@@ -46510,7 +46658,7 @@
         <v>145.23095354685555</v>
       </c>
       <c r="T33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.82499999999999984</v>
       </c>
       <c r="U33">
@@ -46519,10 +46667,14 @@
       </c>
       <c r="W33">
         <f t="shared" si="2"/>
-        <v>576.22122238621489</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+        <v>576.79770041527217</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="3"/>
+        <v>769.06360055369623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -46544,7 +46696,7 @@
       </c>
       <c r="F34" s="1">
         <f>VLOOKUP($A34,Exp!$AE34:$AF132,2)/$E34</f>
-        <v>998.80942226097466</v>
+        <v>999.8741449840976</v>
       </c>
       <c r="G34">
         <f>FLOOR(A34*0.8,1)+1</f>
@@ -46583,7 +46735,7 @@
         <v>153.56779565211869</v>
       </c>
       <c r="T34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83999999999999986</v>
       </c>
       <c r="U34">
@@ -46592,10 +46744,14 @@
       </c>
       <c r="W34">
         <f t="shared" si="2"/>
-        <v>599.28565335658482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+        <v>599.92448699045849</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="3"/>
+        <v>799.8993159872781</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -46617,7 +46773,7 @@
       </c>
       <c r="F35" s="1">
         <f>VLOOKUP($A35,Exp!$AE35:$AF133,2)/$E35</f>
-        <v>1045.4400702753567</v>
+        <v>1048.9083492469567</v>
       </c>
       <c r="G35">
         <f>FLOOR(A35*0.8,1)+1</f>
@@ -46656,7 +46812,7 @@
         <v>162.24540759241719</v>
       </c>
       <c r="T35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.85499999999999987</v>
       </c>
       <c r="U35">
@@ -46665,10 +46821,14 @@
       </c>
       <c r="W35">
         <f t="shared" si="2"/>
-        <v>627.26404216521394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+        <v>629.34500954817406</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="3"/>
+        <v>848.90834924695673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -46690,7 +46850,7 @@
       </c>
       <c r="F36" s="1">
         <f>VLOOKUP($A36,Exp!$AE36:$AF134,2)/$E36</f>
-        <v>1087.8512217579021</v>
+        <v>1091.1334044285161</v>
       </c>
       <c r="G36">
         <f>FLOOR(A36*0.8,1)+1</f>
@@ -46729,7 +46889,7 @@
         <v>171.26762981463941</v>
       </c>
       <c r="T36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86999999999999988</v>
       </c>
       <c r="U36">
@@ -46738,10 +46898,14 @@
       </c>
       <c r="W36">
         <f t="shared" si="2"/>
-        <v>652.71073305474124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+        <v>654.68004265710965</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="3"/>
+        <v>891.13340442851609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -46763,7 +46927,7 @@
       </c>
       <c r="F37" s="1">
         <f>VLOOKUP($A37,Exp!$AE37:$AF135,2)/$E37</f>
-        <v>1130.3802156299107</v>
+        <v>1132.5078932590188</v>
       </c>
       <c r="G37">
         <f>FLOOR(A37*0.8,1)+1</f>
@@ -46811,10 +46975,14 @@
       </c>
       <c r="W37">
         <f t="shared" si="2"/>
-        <v>678.2281293779464</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+        <v>679.50473595541132</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="3"/>
+        <v>932.50789325901883</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -46836,7 +47004,7 @@
       </c>
       <c r="F38" s="1">
         <f>VLOOKUP($A38,Exp!$AE38:$AF136,2)/$E38</f>
-        <v>1179.1663847524119</v>
+        <v>1181.514178800114</v>
       </c>
       <c r="G38">
         <f>FLOOR(A38*0.8,1)+1</f>
@@ -46875,7 +47043,7 @@
         <v>190.68278653426154</v>
       </c>
       <c r="T38">
-        <f t="shared" ref="T38:T100" si="6">MIN(1.25,T37+0.025)</f>
+        <f t="shared" ref="T38:T100" si="7">MIN(1.25,T37+0.025)</f>
         <v>0.91999999999999993</v>
       </c>
       <c r="U38">
@@ -46884,10 +47052,14 @@
       </c>
       <c r="W38">
         <f t="shared" si="2"/>
-        <v>707.49983085144709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+        <v>708.90850728006842</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="3"/>
+        <v>981.514178800114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -46909,7 +47081,7 @@
       </c>
       <c r="F39" s="1">
         <f>VLOOKUP($A39,Exp!$AE39:$AF137,2)/$E39</f>
-        <v>1230.9127674298329</v>
+        <v>1233.5012257855492</v>
       </c>
       <c r="G39">
         <f>FLOOR(A39*0.8,1)+1</f>
@@ -46948,7 +47120,7 @@
         <v>201.09148218643546</v>
       </c>
       <c r="T39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="U39">
@@ -46957,10 +47129,14 @@
       </c>
       <c r="W39">
         <f t="shared" si="2"/>
-        <v>738.54766045789972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+        <v>740.10073547132947</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="3"/>
+        <v>1033.5012257855492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -46982,7 +47158,7 @@
       </c>
       <c r="F40" s="1">
         <f>VLOOKUP($A40,Exp!$AE40:$AF138,2)/$E40</f>
-        <v>1324.6471423473738</v>
+        <v>1342.823874556648</v>
       </c>
       <c r="G40">
         <f>FLOOR(A40*0.8,1)+1</f>
@@ -47021,7 +47197,7 @@
         <v>211.97781312168726</v>
       </c>
       <c r="T40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97</v>
       </c>
       <c r="U40">
@@ -47030,10 +47206,14 @@
       </c>
       <c r="W40">
         <f t="shared" si="2"/>
-        <v>794.78828540842426</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+        <v>805.69432473398876</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="3"/>
+        <v>1142.823874556648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -47055,7 +47235,7 @@
       </c>
       <c r="F41" s="1">
         <f>VLOOKUP($A41,Exp!$AE41:$AF139,2)/$E41</f>
-        <v>1713.9664265462445</v>
+        <v>1719.3034980508569</v>
       </c>
       <c r="G41">
         <f>FLOOR(A41*0.8,1)+1</f>
@@ -47094,7 +47274,7 @@
         <v>223.34924169311583</v>
       </c>
       <c r="T41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.995</v>
       </c>
       <c r="U41">
@@ -47103,10 +47283,14 @@
       </c>
       <c r="W41">
         <f t="shared" si="2"/>
-        <v>1028.3798559277466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1031.582098830514</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="3"/>
+        <v>1519.3034980508569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -47128,7 +47312,7 @@
       </c>
       <c r="F42" s="1">
         <f>VLOOKUP($A42,Exp!$AE42:$AF140,2)/$E42</f>
-        <v>1782.2234371187537</v>
+        <v>1783.8671551110724</v>
       </c>
       <c r="G42">
         <f>FLOOR(A42*0.8,1)+1</f>
@@ -47167,7 +47351,7 @@
         <v>235.21307148034987</v>
       </c>
       <c r="T42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.02</v>
       </c>
       <c r="U42">
@@ -47176,10 +47360,14 @@
       </c>
       <c r="W42">
         <f t="shared" si="2"/>
-        <v>1069.3340622712522</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1070.3202930666434</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="3"/>
+        <v>1583.8671551110724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -47201,7 +47389,7 @@
       </c>
       <c r="F43" s="1">
         <f>VLOOKUP($A43,Exp!$AE43:$AF141,2)/$E43</f>
-        <v>1857.0854073376099</v>
+        <v>1855.7840787539089</v>
       </c>
       <c r="G43">
         <f>FLOOR(A43*0.8,1)+1</f>
@@ -47240,7 +47428,7 @@
         <v>247.57645176203999</v>
       </c>
       <c r="T43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0449999999999999</v>
       </c>
       <c r="U43">
@@ -47249,10 +47437,14 @@
       </c>
       <c r="W43">
         <f t="shared" si="2"/>
-        <v>1114.2512444025658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1113.4704472523454</v>
+      </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="3"/>
+        <v>1655.7840787539089</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -47274,7 +47466,7 @@
       </c>
       <c r="F44" s="1">
         <f>VLOOKUP($A44,Exp!$AE44:$AF142,2)/$E44</f>
-        <v>1940.7459777451309</v>
+        <v>1938.0122171045462</v>
       </c>
       <c r="G44">
         <f>FLOOR(A44*0.8,1)+1</f>
@@ -47313,7 +47505,7 @@
         <v>260.44638183197009</v>
       </c>
       <c r="T44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0699999999999998</v>
       </c>
       <c r="U44">
@@ -47322,10 +47514,14 @@
       </c>
       <c r="W44">
         <f t="shared" si="2"/>
-        <v>1164.4475866470784</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1162.8073302627276</v>
+      </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="3"/>
+        <v>1738.0122171045462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -47347,7 +47543,7 @@
       </c>
       <c r="F45" s="1">
         <f>VLOOKUP($A45,Exp!$AE45:$AF143,2)/$E45</f>
-        <v>2050.2665926980358</v>
+        <v>2054.2939549456064</v>
       </c>
       <c r="G45">
         <f>FLOOR(A45*0.8,1)+1</f>
@@ -47386,7 +47582,7 @@
         <v>273.82971516530341</v>
       </c>
       <c r="T45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0949999999999998</v>
       </c>
       <c r="U45">
@@ -47395,10 +47591,14 @@
       </c>
       <c r="W45">
         <f t="shared" si="2"/>
-        <v>1230.1599556188214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1232.5763729673638</v>
+      </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="3"/>
+        <v>1854.2939549456064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -47420,7 +47620,7 @@
       </c>
       <c r="F46" s="1">
         <f>VLOOKUP($A46,Exp!$AE46:$AF144,2)/$E46</f>
-        <v>2132.4595411275823</v>
+        <v>2130.146778768717</v>
       </c>
       <c r="G46">
         <f>FLOOR(A46*0.8,1)+1</f>
@@ -47459,7 +47659,7 @@
         <v>287.73316344116546</v>
       </c>
       <c r="T46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1199999999999997</v>
       </c>
       <c r="U46">
@@ -47468,10 +47668,14 @@
       </c>
       <c r="W46">
         <f t="shared" si="2"/>
-        <v>1279.4757246765494</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1278.0880672612302</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" si="3"/>
+        <v>1930.146778768717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -47493,7 +47697,7 @@
       </c>
       <c r="F47" s="1">
         <f>VLOOKUP($A47,Exp!$AE47:$AF145,2)/$E47</f>
-        <v>2220.9316636812105</v>
+        <v>2212.4021878848826</v>
       </c>
       <c r="G47">
         <f>FLOOR(A47*0.8,1)+1</f>
@@ -47532,7 +47736,7 @@
         <v>302.16330042746682</v>
       </c>
       <c r="T47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1449999999999996</v>
       </c>
       <c r="U47">
@@ -47541,10 +47745,14 @@
       </c>
       <c r="W47">
         <f t="shared" si="2"/>
-        <v>1332.5589982087263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1327.4413127309294</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" si="3"/>
+        <v>2012.4021878848826</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -47566,7 +47774,7 @@
       </c>
       <c r="F48" s="1">
         <f>VLOOKUP($A48,Exp!$AE48:$AF146,2)/$E48</f>
-        <v>2318.2267886154223</v>
+        <v>2304.4802070829969</v>
       </c>
       <c r="G48">
         <f>FLOOR(A48*0.8,1)+1</f>
@@ -47605,7 +47813,7 @@
         <v>317.12656573358925</v>
       </c>
       <c r="T48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1699999999999995</v>
       </c>
       <c r="U48">
@@ -47614,10 +47822,14 @@
       </c>
       <c r="W48">
         <f t="shared" si="2"/>
-        <v>1390.9360731692534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1382.6881242497982</v>
+      </c>
+      <c r="Z48" s="1">
+        <f t="shared" si="3"/>
+        <v>2104.4802070829969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -47639,7 +47851,7 @@
       </c>
       <c r="F49" s="1">
         <f>VLOOKUP($A49,Exp!$AE49:$AF147,2)/$E49</f>
-        <v>2427.3563703574346</v>
+        <v>2410.4518912224862</v>
       </c>
       <c r="G49">
         <f>FLOOR(A49*0.8,1)+1</f>
@@ -47678,7 +47890,7 @@
         <v>332.62926843629197</v>
       </c>
       <c r="T49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1949999999999994</v>
       </c>
       <c r="U49">
@@ -47687,10 +47899,14 @@
       </c>
       <c r="W49">
         <f t="shared" si="2"/>
-        <v>1456.4138222144607</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1446.2711347334916</v>
+      </c>
+      <c r="Z49" s="1">
+        <f t="shared" si="3"/>
+        <v>2210.4518912224862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -47712,7 +47928,7 @@
       </c>
       <c r="F50" s="1">
         <f>VLOOKUP($A50,Exp!$AE50:$AF148,2)/$E50</f>
-        <v>2646.0593649633647</v>
+        <v>2667.0977417927438</v>
       </c>
       <c r="G50">
         <f>FLOOR(A50*0.8,1)+1</f>
@@ -47751,7 +47967,7 @@
         <v>348.67759058394296</v>
       </c>
       <c r="T50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2199999999999993</v>
       </c>
       <c r="U50">
@@ -47760,10 +47976,14 @@
       </c>
       <c r="W50">
         <f t="shared" si="2"/>
-        <v>1587.6356189780188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1600.2586450756462</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" si="3"/>
+        <v>2467.0977417927438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -47785,7 +48005,7 @@
       </c>
       <c r="F51" s="1">
         <f>VLOOKUP($A51,Exp!$AE51:$AF149,2)/$E51</f>
-        <v>3401.5852274371705</v>
+        <v>3374.7918518993724</v>
       </c>
       <c r="G51">
         <f>FLOOR(A51*0.8,1)+1</f>
@@ -47824,7 +48044,7 @@
         <v>365.27759058394292</v>
       </c>
       <c r="T51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2449999999999992</v>
       </c>
       <c r="U51">
@@ -47833,10 +48053,14 @@
       </c>
       <c r="W51">
         <f t="shared" si="2"/>
-        <v>2040.9511364623022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+        <v>2024.8751111396234</v>
+      </c>
+      <c r="Z51" s="1">
+        <f t="shared" si="3"/>
+        <v>3174.7918518993724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -47858,7 +48082,7 @@
       </c>
       <c r="F52" s="1">
         <f>VLOOKUP($A52,Exp!$AE52:$AF150,2)/$E52</f>
-        <v>3546.7404064220063</v>
+        <v>3506.9204821295662</v>
       </c>
       <c r="G52">
         <f>FLOOR(A52*0.8,1)+1</f>
@@ -47897,7 +48121,7 @@
         <v>382.16500780248595</v>
       </c>
       <c r="T52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U52">
@@ -47906,10 +48130,14 @@
       </c>
       <c r="W52">
         <f t="shared" si="2"/>
-        <v>2128.0442438532036</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+        <v>2104.1522892777398</v>
+      </c>
+      <c r="Z52" s="1">
+        <f t="shared" si="3"/>
+        <v>3306.9204821295662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -47931,7 +48159,7 @@
       </c>
       <c r="F53" s="1">
         <f>VLOOKUP($A53,Exp!$AE53:$AF151,2)/$E53</f>
-        <v>3706.6456942741706</v>
+        <v>3655.3969767258181</v>
       </c>
       <c r="G53">
         <f>FLOOR(A53*0.8,1)+1</f>
@@ -47970,7 +48198,7 @@
         <v>399.27027096038069</v>
       </c>
       <c r="T53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U53">
@@ -47979,10 +48207,14 @@
       </c>
       <c r="W53">
         <f t="shared" si="2"/>
-        <v>2223.9874165645024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+        <v>2193.2381860354908</v>
+      </c>
+      <c r="Z53" s="1">
+        <f t="shared" si="3"/>
+        <v>3455.3969767258181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -48004,7 +48236,7 @@
       </c>
       <c r="F54" s="1">
         <f>VLOOKUP($A54,Exp!$AE54:$AF152,2)/$E54</f>
-        <v>3886.4376991549266</v>
+        <v>3827.1757740813878</v>
       </c>
       <c r="G54">
         <f>FLOOR(A54*0.8,1)+1</f>
@@ -48043,7 +48275,7 @@
         <v>416.59053239828916</v>
       </c>
       <c r="T54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U54">
@@ -48052,10 +48284,14 @@
       </c>
       <c r="W54">
         <f t="shared" si="2"/>
-        <v>2331.8626194929557</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+        <v>2296.3054644488325</v>
+      </c>
+      <c r="Z54" s="1">
+        <f t="shared" si="3"/>
+        <v>3627.1757740813878</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -48077,7 +48313,7 @@
       </c>
       <c r="F55" s="1">
         <f>VLOOKUP($A55,Exp!$AE55:$AF153,2)/$E55</f>
-        <v>4127.1088360060894</v>
+        <v>4079.5236985537895</v>
       </c>
       <c r="G55">
         <f>FLOOR(A55*0.8,1)+1</f>
@@ -48116,7 +48352,7 @@
         <v>434.12299993075669</v>
       </c>
       <c r="T55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U55">
@@ -48125,10 +48361,14 @@
       </c>
       <c r="W55">
         <f t="shared" si="2"/>
-        <v>2476.2653016036534</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+        <v>2447.7142191322737</v>
+      </c>
+      <c r="Z55" s="1">
+        <f t="shared" si="3"/>
+        <v>3879.5236985537895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -48150,7 +48390,7 @@
       </c>
       <c r="F56" s="1">
         <f>VLOOKUP($A56,Exp!$AE56:$AF154,2)/$E56</f>
-        <v>4299.9285318892425</v>
+        <v>4231.4980090590079</v>
       </c>
       <c r="G56">
         <f>FLOOR(A56*0.8,1)+1</f>
@@ -48189,7 +48429,7 @@
         <v>451.86493541462767</v>
       </c>
       <c r="T56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U56">
@@ -48198,10 +48438,14 @@
       </c>
       <c r="W56">
         <f t="shared" si="2"/>
-        <v>2579.9571191335453</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+        <v>2538.8988054354045</v>
+      </c>
+      <c r="Z56" s="1">
+        <f t="shared" si="3"/>
+        <v>4031.4980090590079</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -48223,7 +48467,7 @@
       </c>
       <c r="F57" s="1">
         <f>VLOOKUP($A57,Exp!$AE57:$AF155,2)/$E57</f>
-        <v>4486.2350810508497</v>
+        <v>4396.9078926446891</v>
       </c>
       <c r="G57">
         <f>FLOOR(A57*0.8,1)+1</f>
@@ -48262,7 +48506,7 @@
         <v>469.81365336334562</v>
       </c>
       <c r="T57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U57">
@@ -48271,10 +48515,14 @@
       </c>
       <c r="W57">
         <f t="shared" si="2"/>
-        <v>2691.7410486305098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+        <v>2638.1447355868136</v>
+      </c>
+      <c r="Z57" s="1">
+        <f t="shared" si="3"/>
+        <v>4196.9078926446891</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -48296,7 +48544,7 @@
       </c>
       <c r="F58" s="1">
         <f>VLOOKUP($A58,Exp!$AE58:$AF156,2)/$E58</f>
-        <v>4691.9411236345522</v>
+        <v>4583.7348824240134</v>
       </c>
       <c r="G58">
         <f>FLOOR(A58*0.8,1)+1</f>
@@ -48335,7 +48583,7 @@
         <v>487.96651960538384</v>
       </c>
       <c r="T58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U58">
@@ -48344,10 +48592,14 @@
       </c>
       <c r="W58">
         <f t="shared" si="2"/>
-        <v>2815.1646741807313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
+        <v>2750.2409294544082</v>
+      </c>
+      <c r="Z58" s="1">
+        <f t="shared" si="3"/>
+        <v>4383.7348824240134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -48369,7 +48621,7 @@
       </c>
       <c r="F59" s="1">
         <f>VLOOKUP($A59,Exp!$AE59:$AF157,2)/$E59</f>
-        <v>4923.9961240113644</v>
+        <v>4801.4067406413433</v>
       </c>
       <c r="G59">
         <f>FLOOR(A59*0.8,1)+1</f>
@@ -48408,7 +48660,7 @@
         <v>506.32094998513065</v>
       </c>
       <c r="T59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U59">
@@ -48417,10 +48669,14 @@
       </c>
       <c r="W59">
         <f t="shared" si="2"/>
-        <v>2954.3976744068186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
+        <v>2880.8440443848058</v>
+      </c>
+      <c r="Z59" s="1">
+        <f t="shared" si="3"/>
+        <v>4601.4067406413433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -48442,7 +48698,7 @@
       </c>
       <c r="F60" s="1">
         <f>VLOOKUP($A60,Exp!$AE60:$AF158,2)/$E60</f>
-        <v>5355.7630897664203</v>
+        <v>5293.2204005266158</v>
       </c>
       <c r="G60">
         <f>FLOOR(A60*0.8,1)+1</f>
@@ -48481,7 +48737,7 @@
         <v>524.87440910462749</v>
       </c>
       <c r="T60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U60">
@@ -48490,10 +48746,14 @@
       </c>
       <c r="W60">
         <f t="shared" si="2"/>
-        <v>3213.4578538598521</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
+        <v>3175.9322403159695</v>
+      </c>
+      <c r="Z60" s="1">
+        <f t="shared" si="3"/>
+        <v>5093.2204005266158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -48515,7 +48775,7 @@
       </c>
       <c r="F61" s="1">
         <f>VLOOKUP($A61,Exp!$AE61:$AF159,2)/$E61</f>
-        <v>6448.5121549406549</v>
+        <v>6278.7576265350153</v>
       </c>
       <c r="G61">
         <f>FLOOR(A61*0.8,1)+1</f>
@@ -48554,7 +48814,7 @@
         <v>543.62440910462749</v>
       </c>
       <c r="T61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U61">
@@ -48563,10 +48823,14 @@
       </c>
       <c r="W61">
         <f t="shared" si="2"/>
-        <v>3869.1072929643929</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
+        <v>3767.2545759210088</v>
+      </c>
+      <c r="Z61" s="1">
+        <f t="shared" si="3"/>
+        <v>6078.7576265350153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -48588,7 +48852,7 @@
       </c>
       <c r="F62" s="1">
         <f>VLOOKUP($A62,Exp!$AE62:$AF160,2)/$E62</f>
-        <v>6745.6566259103029</v>
+        <v>6543.6133985723764</v>
       </c>
       <c r="G62">
         <f>FLOOR(A62*0.8,1)+1</f>
@@ -48627,7 +48891,7 @@
         <v>562.5685084835095</v>
       </c>
       <c r="T62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U62">
@@ -48636,10 +48900,14 @@
       </c>
       <c r="W62">
         <f t="shared" si="2"/>
-        <v>4047.3939755461815</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
+        <v>3926.1680391434256</v>
+      </c>
+      <c r="Z62" s="1">
+        <f t="shared" si="3"/>
+        <v>6343.6133985723764</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -48661,7 +48929,7 @@
       </c>
       <c r="F63" s="1">
         <f>VLOOKUP($A63,Exp!$AE63:$AF161,2)/$E63</f>
-        <v>7030.7947400214643</v>
+        <v>6782.3763935071293</v>
       </c>
       <c r="G63">
         <f>FLOOR(A63*0.8,1)+1</f>
@@ -48700,7 +48968,7 @@
         <v>581.7043109526453</v>
       </c>
       <c r="T63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U63">
@@ -48709,10 +48977,14 @@
       </c>
       <c r="W63">
         <f t="shared" si="2"/>
-        <v>4218.4768440128782</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
+        <v>4069.4258361042776</v>
+      </c>
+      <c r="Z63" s="1">
+        <f t="shared" si="3"/>
+        <v>6582.3763935071293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -48734,7 +49006,7 @@
       </c>
       <c r="F64" s="1">
         <f>VLOOKUP($A64,Exp!$AE64:$AF162,2)/$E64</f>
-        <v>7355.2222792730654</v>
+        <v>7066.645421619347</v>
       </c>
       <c r="G64">
         <f>FLOOR(A64*0.8,1)+1</f>
@@ -48773,7 +49045,7 @@
         <v>601.02946432687838</v>
       </c>
       <c r="T64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U64">
@@ -48782,10 +49054,14 @@
       </c>
       <c r="W64">
         <f t="shared" si="2"/>
-        <v>4413.1333675638389</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
+        <v>4239.9872529716076</v>
+      </c>
+      <c r="Z64" s="1">
+        <f t="shared" si="3"/>
+        <v>6866.645421619347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -48807,7 +49083,7 @@
       </c>
       <c r="F65" s="1">
         <f>VLOOKUP($A65,Exp!$AE65:$AF163,2)/$E65</f>
-        <v>7785.2291694393571</v>
+        <v>7489.156756471084</v>
       </c>
       <c r="G65">
         <f>FLOOR(A65*0.8,1)+1</f>
@@ -48846,7 +49122,7 @@
         <v>620.54165944882959</v>
       </c>
       <c r="T65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U65">
@@ -48855,10 +49131,14 @@
       </c>
       <c r="W65">
         <f t="shared" si="2"/>
-        <v>4671.1375016636139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
+        <v>4493.4940538826504</v>
+      </c>
+      <c r="Z65" s="1">
+        <f t="shared" si="3"/>
+        <v>7289.156756471084</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -48880,7 +49160,7 @@
       </c>
       <c r="F66" s="1">
         <f>VLOOKUP($A66,Exp!$AE66:$AF164,2)/$E66</f>
-        <v>8122.9700502754104</v>
+        <v>7770.9441265463993</v>
       </c>
       <c r="G66">
         <f>FLOOR(A66*0.8,1)+1</f>
@@ -48919,7 +49199,7 @@
         <v>640.23862914579934</v>
       </c>
       <c r="T66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U66">
@@ -48928,19 +49208,23 @@
       </c>
       <c r="W66">
         <f t="shared" si="2"/>
-        <v>4873.7820301652464</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
+        <v>4662.5664759278397</v>
+      </c>
+      <c r="Z66" s="1">
+        <f t="shared" si="3"/>
+        <v>7570.9441265463993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B100" si="7">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
+        <f t="shared" ref="B67:B100" si="8">FLOOR(A67/20,1)*FLOOR(A67/20,1)*MIN(2,A67/30)+FLOOR(A67/30,1)*FLOOR(A67/30,1)*5+POWER(2,A67/10)/10</f>
         <v>47.700586025666546</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:C100" si="8">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
+        <f t="shared" ref="C67:C100" si="9">(A67*20+A67*B67*2+30+(MAX(0,A67-20)*50))*0.7</f>
         <v>6962.5341487715887</v>
       </c>
       <c r="D67" s="1">
@@ -48953,7 +49237,7 @@
       </c>
       <c r="F67" s="1">
         <f>VLOOKUP($A67,Exp!$AE67:$AF165,2)/$E67</f>
-        <v>8465.1121492190105</v>
+        <v>8047.3635389931205</v>
       </c>
       <c r="G67">
         <f>FLOOR(A67*0.8,1)+1</f>
@@ -48992,7 +49276,7 @@
         <v>660.11814721808844</v>
       </c>
       <c r="T67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U67">
@@ -49000,20 +49284,24 @@
         <v>0.75301204819277101</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W100" si="9">F67*0.6</f>
-        <v>5079.0672895314065</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" ref="W67:W100" si="10">F67*0.6</f>
+        <v>4828.4181233958725</v>
+      </c>
+      <c r="Z67" s="1">
+        <f t="shared" ref="Z67:Z100" si="11">MIN(800,F67*0.8)+MAX(0,F67-1000)</f>
+        <v>7847.3635389931205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.396830673359815</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7143.6227171611508</v>
       </c>
       <c r="D68" s="1">
@@ -49026,7 +49314,7 @@
       </c>
       <c r="F68" s="1">
         <f>VLOOKUP($A68,Exp!$AE68:$AF166,2)/$E68</f>
-        <v>8854.2169713013373</v>
+        <v>8377.6767170398271</v>
       </c>
       <c r="G68">
         <f>FLOOR(A68*0.8,1)+1</f>
@@ -49065,7 +49353,7 @@
         <v>680.17802745760935</v>
       </c>
       <c r="T68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U68">
@@ -49073,20 +49361,24 @@
         <v>0.74850299401197606</v>
       </c>
       <c r="W68">
-        <f t="shared" si="9"/>
-        <v>5312.5301827808025</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>5026.6060302238957</v>
+      </c>
+      <c r="Z68" s="1">
+        <f t="shared" si="11"/>
+        <v>8177.6767170398271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49.143047210190389</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7331.4180944101245</v>
       </c>
       <c r="D69" s="1">
@@ -49099,7 +49391,7 @@
       </c>
       <c r="F69" s="1">
         <f>VLOOKUP($A69,Exp!$AE69:$AF167,2)/$E69</f>
-        <v>9293.50739596735</v>
+        <v>8765.7614641537402</v>
       </c>
       <c r="G69">
         <f>FLOOR(A69*0.8,1)+1</f>
@@ -49138,7 +49430,7 @@
         <v>700.41612269570453</v>
       </c>
       <c r="T69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U69">
@@ -49146,20 +49438,24 @@
         <v>0.74404761904761896</v>
       </c>
       <c r="W69">
-        <f t="shared" si="9"/>
-        <v>5576.1044375804095</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>5259.456878492244</v>
+      </c>
+      <c r="Z69" s="1">
+        <f t="shared" si="11"/>
+        <v>8565.7614641537402</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49.942822291671135</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7526.4766333754305</v>
       </c>
       <c r="D70" s="1">
@@ -49172,7 +49468,7 @@
       </c>
       <c r="F70" s="1">
         <f>VLOOKUP($A70,Exp!$AE70:$AF168,2)/$E70</f>
-        <v>10248.040735185969</v>
+        <v>9866.006852411525</v>
       </c>
       <c r="G70">
         <f>FLOOR(A70*0.8,1)+1</f>
@@ -49211,7 +49507,7 @@
         <v>720.83032387913647</v>
       </c>
       <c r="T70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U70">
@@ -49219,20 +49515,24 @@
         <v>0.73964497041420119</v>
       </c>
       <c r="W70">
-        <f t="shared" si="9"/>
-        <v>6148.8244411115811</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>5919.6041114469144</v>
+      </c>
+      <c r="Z70" s="1">
+        <f t="shared" si="11"/>
+        <v>9666.006852411525</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50.8</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7729.4</v>
       </c>
       <c r="D71" s="1">
@@ -49245,7 +49545,7 @@
       </c>
       <c r="F71" s="1">
         <f>VLOOKUP($A71,Exp!$AE71:$AF169,2)/$E71</f>
-        <v>12291.077011196374</v>
+        <v>11607.377847105086</v>
       </c>
       <c r="G71">
         <f>FLOOR(A71*0.8,1)+1</f>
@@ -49284,7 +49584,7 @@
         <v>741.41855917325415</v>
       </c>
       <c r="T71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U71">
@@ -49292,20 +49592,24 @@
         <v>0.73529411764705888</v>
       </c>
       <c r="W71">
-        <f t="shared" si="9"/>
-        <v>7374.6462067178236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>6964.4267082630513</v>
+      </c>
+      <c r="Z71" s="1">
+        <f t="shared" si="11"/>
+        <v>11407.377847105086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51.718700320464549</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7940.8388118541761</v>
       </c>
       <c r="D72" s="1">
@@ -49318,7 +49622,7 @@
       </c>
       <c r="F72" s="1">
         <f>VLOOKUP($A72,Exp!$AE72:$AF170,2)/$E72</f>
-        <v>12612.474338761756</v>
+        <v>11846.152749543155</v>
       </c>
       <c r="G72">
         <f>FLOOR(A72*0.8,1)+1</f>
@@ -49357,7 +49661,7 @@
         <v>762.17879309138277</v>
       </c>
       <c r="T72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U72">
@@ -49365,20 +49669,24 @@
         <v>0.73099415204678364</v>
       </c>
       <c r="W72">
-        <f t="shared" si="9"/>
-        <v>7567.4846032570531</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>7107.6916497258926</v>
+      </c>
+      <c r="Z72" s="1">
+        <f t="shared" si="11"/>
+        <v>11646.152749543155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52.703338943962045</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8161.4965655513734</v>
       </c>
       <c r="D73" s="1">
@@ -49391,7 +49699,7 @@
       </c>
       <c r="F73" s="1">
         <f>VLOOKUP($A73,Exp!$AE73:$AF171,2)/$E73</f>
-        <v>12940.138417198754</v>
+        <v>12085.219733061815</v>
       </c>
       <c r="G73">
         <f>FLOOR(A73*0.8,1)+1</f>
@@ -49430,7 +49738,7 @@
         <v>783.10902564952232</v>
       </c>
       <c r="T73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U73">
@@ -49438,20 +49746,24 @@
         <v>0.72674418604651159</v>
       </c>
       <c r="W73">
-        <f t="shared" si="9"/>
-        <v>7764.0830503192519</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>7251.1318398370886</v>
+      </c>
+      <c r="Z73" s="1">
+        <f t="shared" si="11"/>
+        <v>11885.219733061815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53.758648490814927</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8392.1338757612848</v>
       </c>
       <c r="D74" s="1">
@@ -49464,7 +49776,7 @@
       </c>
       <c r="F74" s="1">
         <f>VLOOKUP($A74,Exp!$AE74:$AF172,2)/$E74</f>
-        <v>13273.826344772107</v>
+        <v>12324.003059422419</v>
       </c>
       <c r="G74">
         <f>FLOOR(A74*0.8,1)+1</f>
@@ -49503,7 +49815,7 @@
         <v>804.2072915454761</v>
       </c>
       <c r="T74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U74">
@@ -49511,20 +49823,24 @@
         <v>0.7225433526011561</v>
       </c>
       <c r="W74">
-        <f t="shared" si="9"/>
-        <v>7964.2958068632643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>7394.4018356534507</v>
+      </c>
+      <c r="Z74" s="1">
+        <f t="shared" si="11"/>
+        <v>12124.003059422419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54.889701257893044</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8633.5730503177183</v>
       </c>
       <c r="D75" s="1">
@@ -49537,7 +49853,7 @@
       </c>
       <c r="F75" s="1">
         <f>VLOOKUP($A75,Exp!$AE75:$AF173,2)/$E75</f>
-        <v>13743.92678096009</v>
+        <v>12746.109956104219</v>
       </c>
       <c r="G75">
         <f>FLOOR(A75*0.8,1)+1</f>
@@ -49576,7 +49892,7 @@
         <v>825.47165936156807</v>
       </c>
       <c r="T75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U75">
@@ -49584,20 +49900,24 @@
         <v>0.7183908045977011</v>
       </c>
       <c r="W75">
-        <f t="shared" si="9"/>
-        <v>8246.3560685760531</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>7647.6659736625315</v>
+      </c>
+      <c r="Z75" s="1">
+        <f t="shared" si="11"/>
+        <v>12546.109956104219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56.101933598375609</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8886.7030278294387</v>
       </c>
       <c r="D76" s="1">
@@ -49610,7 +49930,7 @@
       </c>
       <c r="F76" s="1">
         <f>VLOOKUP($A76,Exp!$AE76:$AF174,2)/$E76</f>
-        <v>14090.87822290473</v>
+        <v>12985.402679284571</v>
       </c>
       <c r="G76">
         <f>FLOOR(A76*0.8,1)+1</f>
@@ -49649,7 +49969,7 @@
         <v>846.90023079013952</v>
       </c>
       <c r="T76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U76">
@@ -49657,20 +49977,24 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="W76">
-        <f t="shared" si="9"/>
-        <v>8454.5269337428381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>7791.2416075707424</v>
+      </c>
+      <c r="Z76" s="1">
+        <f t="shared" si="11"/>
+        <v>12785.402679284571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57.401172051333091</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9152.484706261841</v>
       </c>
       <c r="D77" s="1">
@@ -49683,7 +50007,7 @@
       </c>
       <c r="F77" s="1">
         <f>VLOOKUP($A77,Exp!$AE77:$AF175,2)/$E77</f>
-        <v>14442.820729334369</v>
+        <v>13222.308936585365</v>
       </c>
       <c r="G77">
         <f>FLOOR(A77*0.8,1)+1</f>
@@ -49722,7 +50046,7 @@
         <v>868.49113988104864</v>
       </c>
       <c r="T77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U77">
@@ -49730,20 +50054,24 @@
         <v>0.71022727272727271</v>
       </c>
       <c r="W77">
-        <f t="shared" si="9"/>
-        <v>8665.6924376006209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>7933.3853619512183</v>
+      </c>
+      <c r="Z77" s="1">
+        <f t="shared" si="11"/>
+        <v>13022.308936585365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58.793661346719624</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9431.9566931763748</v>
       </c>
       <c r="D78" s="1">
@@ -49756,7 +50084,7 @@
       </c>
       <c r="F78" s="1">
         <f>VLOOKUP($A78,Exp!$AE78:$AF176,2)/$E78</f>
-        <v>14799.297927644368</v>
+        <v>13455.996994612286</v>
       </c>
       <c r="G78">
         <f>FLOOR(A78*0.8,1)+1</f>
@@ -49795,7 +50123,7 @@
         <v>890.24255231042719</v>
       </c>
       <c r="T78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U78">
@@ -49803,20 +50131,24 @@
         <v>0.70621468926553677</v>
       </c>
       <c r="W78">
-        <f t="shared" si="9"/>
-        <v>8879.5787565866194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>8073.5981967673706</v>
+      </c>
+      <c r="Z78" s="1">
+        <f t="shared" si="11"/>
+        <v>13255.996994612286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60.286094420380778</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9726.2415107055804</v>
       </c>
       <c r="D79" s="1">
@@ -49829,7 +50161,7 @@
       </c>
       <c r="F79" s="1">
         <f>VLOOKUP($A79,Exp!$AE79:$AF177,2)/$E79</f>
-        <v>15159.787282524632</v>
+        <v>13685.561527092972</v>
       </c>
       <c r="G79">
         <f>FLOOR(A79*0.8,1)+1</f>
@@ -49868,7 +50200,7 @@
         <v>912.15266466997775</v>
       </c>
       <c r="T79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U79">
@@ -49876,20 +50208,24 @@
         <v>0.70224719101123589</v>
       </c>
       <c r="W79">
-        <f t="shared" si="9"/>
-        <v>9095.8723695147783</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>8211.3369162557829</v>
+      </c>
+      <c r="Z79" s="1">
+        <f t="shared" si="11"/>
+        <v>13485.561527092972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61.885644583342263</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10036.552290917652</v>
       </c>
       <c r="D80" s="1">
@@ -49902,7 +50238,7 @@
       </c>
       <c r="F80" s="1">
         <f>VLOOKUP($A80,Exp!$AE80:$AF178,2)/$E80</f>
-        <v>16320.49450115428</v>
+        <v>15034.318429105602</v>
       </c>
       <c r="G80">
         <f>FLOOR(A80*0.8,1)+1</f>
@@ -49941,7 +50277,7 @@
         <v>934.21970377612297</v>
       </c>
       <c r="T80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U80">
@@ -49949,20 +50285,24 @@
         <v>0.6983240223463687</v>
       </c>
       <c r="W80">
-        <f t="shared" si="9"/>
-        <v>9792.2967006925683</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>9020.5910574633617</v>
+      </c>
+      <c r="Z80" s="1">
+        <f t="shared" si="11"/>
+        <v>14834.318429105602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>77.599999999999994</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11932.199999999999</v>
       </c>
       <c r="D81" s="1">
@@ -49975,7 +50315,7 @@
       </c>
       <c r="F81" s="1">
         <f>VLOOKUP($A81,Exp!$AE81:$AF179,2)/$E81</f>
-        <v>20710.481684454731</v>
+        <v>18472.368563779044</v>
       </c>
       <c r="G81">
         <f>FLOOR(A81*0.8,1)+1</f>
@@ -50014,7 +50354,7 @@
         <v>956.44192599834514</v>
       </c>
       <c r="T81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U81">
@@ -50022,20 +50362,24 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="W81">
-        <f t="shared" si="9"/>
-        <v>12426.289010672839</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>11083.421138267426</v>
+      </c>
+      <c r="Z81" s="1">
+        <f t="shared" si="11"/>
+        <v>18272.368563779044</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>79.437400640929098</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12298.20123268136</v>
       </c>
       <c r="D82" s="1">
@@ -50048,7 +50392,7 @@
       </c>
       <c r="F82" s="1">
         <f>VLOOKUP($A82,Exp!$AE82:$AF180,2)/$E82</f>
-        <v>21189.8888081392</v>
+        <v>18748.047521026972</v>
       </c>
       <c r="G82">
         <f>FLOOR(A82*0.8,1)+1</f>
@@ -50087,7 +50431,7 @@
         <v>978.81761660607992</v>
       </c>
       <c r="T82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U82">
@@ -50095,20 +50439,24 @@
         <v>0.69060773480662985</v>
       </c>
       <c r="W82">
-        <f t="shared" si="9"/>
-        <v>12713.93328488352</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>11248.828512616183</v>
+      </c>
+      <c r="Z82" s="1">
+        <f t="shared" si="11"/>
+        <v>18548.047521026972</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>81.406677887924062</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12684.486621533682</v>
       </c>
       <c r="D83" s="1">
@@ -50121,7 +50469,7 @@
       </c>
       <c r="F83" s="1">
         <f>VLOOKUP($A83,Exp!$AE83:$AF181,2)/$E83</f>
-        <v>21670.721839092555</v>
+        <v>19012.569526875228</v>
       </c>
       <c r="G83">
         <f>FLOOR(A83*0.8,1)+1</f>
@@ -50160,7 +50508,7 @@
         <v>1001.3450891335525</v>
       </c>
       <c r="T83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U83">
@@ -50168,20 +50516,24 @@
         <v>0.68681318681318693</v>
       </c>
       <c r="W83">
-        <f t="shared" si="9"/>
-        <v>13002.433103455533</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>11407.541716125137</v>
+      </c>
+      <c r="Z83" s="1">
+        <f t="shared" si="11"/>
+        <v>18812.569526875228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>83.517296981629883</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13092.70990926539</v>
       </c>
       <c r="D84" s="1">
@@ -50194,7 +50546,7 @@
       </c>
       <c r="F84" s="1">
         <f>VLOOKUP($A84,Exp!$AE84:$AF182,2)/$E84</f>
-        <v>22212.931025325848</v>
+        <v>19350.592040789819</v>
       </c>
       <c r="G84">
         <f>FLOOR(A84*0.8,1)+1</f>
@@ -50233,7 +50585,7 @@
         <v>1024.0226847619679</v>
       </c>
       <c r="T84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U84">
@@ -50241,20 +50593,24 @@
         <v>0.68306010928961747</v>
       </c>
       <c r="W84">
-        <f t="shared" si="9"/>
-        <v>13327.758615195509</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>11610.355224473891</v>
+      </c>
+      <c r="Z84" s="1">
+        <f t="shared" si="11"/>
+        <v>19150.592040789819</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>85.779402515786089</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13524.657735856443</v>
       </c>
       <c r="D85" s="1">
@@ -50267,7 +50623,7 @@
       </c>
       <c r="F85" s="1">
         <f>VLOOKUP($A85,Exp!$AE85:$AF183,2)/$E85</f>
-        <v>23072.45064595915</v>
+        <v>20123.628887152401</v>
       </c>
       <c r="G85">
         <f>FLOOR(A85*0.8,1)+1</f>
@@ -50306,7 +50662,7 @@
         <v>1046.8487717184896</v>
       </c>
       <c r="T85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U85">
@@ -50314,20 +50670,24 @@
         <v>0.67934782608695654</v>
       </c>
       <c r="W85">
-        <f t="shared" si="9"/>
-        <v>13843.470387575489</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>12074.17733229144</v>
+      </c>
+      <c r="Z85" s="1">
+        <f t="shared" si="11"/>
+        <v>19923.628887152401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>88.203867196751233</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13982.260196413396</v>
       </c>
       <c r="D86" s="1">
@@ -50340,7 +50700,7 @@
       </c>
       <c r="F86" s="1">
         <f>VLOOKUP($A86,Exp!$AE86:$AF184,2)/$E86</f>
-        <v>23626.030866027857</v>
+        <v>20451.889053888764</v>
       </c>
       <c r="G86">
         <f>FLOOR(A86*0.8,1)+1</f>
@@ -50379,7 +50739,7 @@
         <v>1069.8217446914625</v>
       </c>
       <c r="T86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U86">
@@ -50387,20 +50747,24 @@
         <v>0.67567567567567566</v>
       </c>
       <c r="W86">
-        <f t="shared" si="9"/>
-        <v>14175.618519616713</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>12271.133432333258</v>
+      </c>
+      <c r="Z86" s="1">
+        <f t="shared" si="11"/>
+        <v>20251.889053888764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90.802344102666183</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14467.602229961009</v>
       </c>
       <c r="D87" s="1">
@@ -50413,7 +50777,7 @@
       </c>
       <c r="F87" s="1">
         <f>VLOOKUP($A87,Exp!$AE87:$AF185,2)/$E87</f>
-        <v>24177.894880046253</v>
+        <v>20765.176494648433</v>
       </c>
       <c r="G87">
         <f>FLOOR(A87*0.8,1)+1</f>
@@ -50452,7 +50816,7 @@
         <v>1092.9400242613549</v>
       </c>
       <c r="T87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U87">
@@ -50460,20 +50824,24 @@
         <v>0.67204301075268824</v>
       </c>
       <c r="W87">
-        <f t="shared" si="9"/>
-        <v>14506.736928027751</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>12459.105896789059</v>
+      </c>
+      <c r="Z87" s="1">
+        <f t="shared" si="11"/>
+        <v>20565.176494648433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>93.587322693439219</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14982.935904060896</v>
       </c>
       <c r="D88" s="1">
@@ -50486,7 +50854,7 @@
       </c>
       <c r="F88" s="1">
         <f>VLOOKUP($A88,Exp!$AE88:$AF186,2)/$E88</f>
-        <v>24726.045313017668</v>
+        <v>21061.090914333552</v>
       </c>
       <c r="G88">
         <f>FLOOR(A88*0.8,1)+1</f>
@@ -50525,7 +50893,7 @@
         <v>1116.2020563469164</v>
       </c>
       <c r="T88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U88">
@@ -50533,20 +50901,24 @@
         <v>0.66844919786096257</v>
       </c>
       <c r="W88">
-        <f t="shared" si="9"/>
-        <v>14835.6271878106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>12636.654548600131</v>
+      </c>
+      <c r="Z88" s="1">
+        <f t="shared" si="11"/>
+        <v>20861.090914333552</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>96.572188840761555</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15530.693665181823</v>
       </c>
       <c r="D89" s="1">
@@ -50559,7 +50931,7 @@
       </c>
       <c r="F89" s="1">
         <f>VLOOKUP($A89,Exp!$AE89:$AF187,2)/$E89</f>
-        <v>25268.245312430488</v>
+        <v>21337.041708722158</v>
       </c>
       <c r="G89">
         <f>FLOOR(A89*0.8,1)+1</f>
@@ -50598,7 +50970,7 @@
         <v>1139.6063116660653</v>
       </c>
       <c r="T89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U89">
@@ -50606,20 +50978,24 @@
         <v>0.66489361702127658</v>
       </c>
       <c r="W89">
-        <f t="shared" si="9"/>
-        <v>15160.947187458292</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>12802.225025233294</v>
+      </c>
+      <c r="Z89" s="1">
+        <f t="shared" si="11"/>
+        <v>21137.041708722158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>99.771289166684539</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16113.502630168892</v>
       </c>
       <c r="D90" s="1">
@@ -50632,7 +51008,7 @@
       </c>
       <c r="F90" s="1">
         <f>VLOOKUP($A90,Exp!$AE90:$AF188,2)/$E90</f>
-        <v>26002.709112714834</v>
+        <v>21873.830953000139</v>
       </c>
       <c r="G90">
         <f>FLOOR(A90*0.8,1)+1</f>
@@ -50671,7 +51047,7 @@
         <v>1163.1512852110388</v>
       </c>
       <c r="T90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U90">
@@ -50679,20 +51055,24 @@
         <v>0.66137566137566128</v>
       </c>
       <c r="W90">
-        <f t="shared" si="9"/>
-        <v>15601.625467628899</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>13124.298571800084</v>
+      </c>
+      <c r="Z90" s="1">
+        <f t="shared" si="11"/>
+        <v>21673.830953000139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>128.19999999999999</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19884.199999999997</v>
       </c>
       <c r="D91" s="1">
@@ -50705,7 +51085,7 @@
       </c>
       <c r="F91" s="1">
         <f>VLOOKUP($A91,Exp!$AE91:$AF189,2)/$E91</f>
-        <v>34127.613944805868</v>
+        <v>28286.797118279614</v>
       </c>
       <c r="G91">
         <f>FLOOR(A91*0.8,1)+1</f>
@@ -50744,7 +51124,7 @@
         <v>1186.8354957373547</v>
       </c>
       <c r="T91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U91">
@@ -50752,20 +51132,24 @@
         <v>0.65789473684210531</v>
       </c>
       <c r="W91">
-        <f t="shared" si="9"/>
-        <v>20476.568366883519</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>16972.078270967766</v>
+      </c>
+      <c r="Z91" s="1">
+        <f t="shared" si="11"/>
+        <v>28086.797118279614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>131.8748012818582</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20580.849683308734</v>
       </c>
       <c r="D92" s="1">
@@ -50778,7 +51162,7 @@
       </c>
       <c r="F92" s="1">
         <f>VLOOKUP($A92,Exp!$AE92:$AF190,2)/$E92</f>
-        <v>34786.377726832026</v>
+        <v>28544.17053838944</v>
       </c>
       <c r="G92">
         <f>FLOOR(A92*0.8,1)+1</f>
@@ -50817,7 +51201,7 @@
         <v>1210.6574852661504</v>
       </c>
       <c r="T92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U92">
@@ -50825,20 +51209,24 @@
         <v>0.65445026178010468</v>
       </c>
       <c r="W92">
-        <f t="shared" si="9"/>
-        <v>20871.826636099217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>17126.502323033663</v>
+      </c>
+      <c r="Z92" s="1">
+        <f t="shared" si="11"/>
+        <v>28344.17053838944</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>135.81335577584815</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21321.760223929239</v>
       </c>
       <c r="D93" s="1">
@@ -50851,7 +51239,7 @@
       </c>
       <c r="F93" s="1">
         <f>VLOOKUP($A93,Exp!$AE93:$AF191,2)/$E93</f>
-        <v>35421.973264446482</v>
+        <v>28759.472774787908</v>
       </c>
       <c r="G93">
         <f>FLOOR(A93*0.8,1)+1</f>
@@ -50890,7 +51278,7 @@
         <v>1234.6158185994836</v>
       </c>
       <c r="T93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U93">
@@ -50898,20 +51286,24 @@
         <v>0.65104166666666674</v>
       </c>
       <c r="W93">
-        <f t="shared" si="9"/>
-        <v>21253.183958667887</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>17255.683664872744</v>
+      </c>
+      <c r="Z93" s="1">
+        <f t="shared" si="11"/>
+        <v>28559.472774787908</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>140.03459396325971</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22110.504134016413</v>
       </c>
       <c r="D94" s="1">
@@ -50924,7 +51316,7 @@
       </c>
       <c r="F94" s="1">
         <f>VLOOKUP($A94,Exp!$AE94:$AF192,2)/$E94</f>
-        <v>36029.330779957279</v>
+        <v>28927.885079004769</v>
       </c>
       <c r="G94">
         <f>FLOOR(A94*0.8,1)+1</f>
@@ -50963,7 +51355,7 @@
         <v>1258.7090828481882</v>
       </c>
       <c r="T94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U94">
@@ -50971,20 +51363,24 @@
         <v>0.64766839378238339</v>
       </c>
       <c r="W94">
-        <f t="shared" si="9"/>
-        <v>21617.598467974367</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>17356.73104740286</v>
+      </c>
+      <c r="Z94" s="1">
+        <f t="shared" si="11"/>
+        <v>28727.885079004769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>144.55880503157218</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22950.9387421549</v>
       </c>
       <c r="D95" s="1">
@@ -50997,7 +51393,7 @@
       </c>
       <c r="F95" s="1">
         <f>VLOOKUP($A95,Exp!$AE95:$AF193,2)/$E95</f>
-        <v>36602.770594785943</v>
+        <v>29044.243674108588</v>
       </c>
       <c r="G95">
         <f>FLOOR(A95*0.8,1)+1</f>
@@ -51036,7 +51432,7 @@
         <v>1282.9358869718997</v>
       </c>
       <c r="T95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U95">
@@ -51044,20 +51440,24 @@
         <v>0.64432989690721654</v>
       </c>
       <c r="W95">
-        <f t="shared" si="9"/>
-        <v>21961.662356871566</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>17426.54620446515</v>
+      </c>
+      <c r="Z95" s="1">
+        <f t="shared" si="11"/>
+        <v>28844.243674108588</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>149.40773439350247</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23847.228674335824</v>
       </c>
       <c r="D96" s="1">
@@ -51070,7 +51470,7 @@
       </c>
       <c r="F96" s="1">
         <f>VLOOKUP($A96,Exp!$AE96:$AF194,2)/$E96</f>
-        <v>38045.824168138904</v>
+        <v>30389.495574219869</v>
       </c>
       <c r="G96">
         <f>FLOOR(A96*0.8,1)+1</f>
@@ -51109,7 +51509,7 @@
         <v>1307.294861330874</v>
       </c>
       <c r="T96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U96">
@@ -51117,20 +51517,24 @@
         <v>0.64102564102564108</v>
       </c>
       <c r="W96">
-        <f t="shared" si="9"/>
-        <v>22827.494500883342</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>18233.69734453192</v>
+      </c>
+      <c r="Z96" s="1">
+        <f t="shared" si="11"/>
+        <v>30189.495574219869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>154.60468820533237</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24803.870094796664</v>
       </c>
       <c r="D97" s="1">
@@ -51143,7 +51547,7 @@
       </c>
       <c r="F97" s="1">
         <f>VLOOKUP($A97,Exp!$AE97:$AF195,2)/$E97</f>
-        <v>38551.422398664938</v>
+        <v>30413.064759879751</v>
       </c>
       <c r="G97">
         <f>FLOOR(A97*0.8,1)+1</f>
@@ -51182,7 +51586,7 @@
         <v>1331.7846572492413</v>
       </c>
       <c r="T97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U97">
@@ -51190,20 +51594,24 @@
         <v>0.63775510204081631</v>
       </c>
       <c r="W97">
-        <f t="shared" si="9"/>
-        <v>23130.853439198963</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>18247.83885592785</v>
+      </c>
+      <c r="Z97" s="1">
+        <f t="shared" si="11"/>
+        <v>30213.064759879751</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160.17464538687844</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25825.716843538095</v>
       </c>
       <c r="D98" s="1">
@@ -51216,7 +51624,7 @@
       </c>
       <c r="F98" s="1">
         <f>VLOOKUP($A98,Exp!$AE98:$AF196,2)/$E98</f>
-        <v>41028.098045074221</v>
+        <v>32773.753231555456</v>
       </c>
       <c r="G98">
         <f>FLOOR(A98*0.8,1)+1</f>
@@ -51255,7 +51663,7 @@
         <v>1356.4039465893427</v>
       </c>
       <c r="T98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U98">
@@ -51263,20 +51671,24 @@
         <v>0.63451776649746194</v>
       </c>
       <c r="W98">
-        <f t="shared" si="9"/>
-        <v>24616.858827044533</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>19664.251938933274</v>
+      </c>
+      <c r="Z98" s="1">
+        <f t="shared" si="11"/>
+        <v>32573.753231555456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>166.14437768152311</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26918.008617904969</v>
       </c>
       <c r="D99" s="1">
@@ -51289,7 +51701,7 @@
       </c>
       <c r="F99" s="1">
         <f>VLOOKUP($A99,Exp!$AE99:$AF197,2)/$E99</f>
-        <v>48970.817586043864</v>
+        <v>40445.780386402766</v>
       </c>
       <c r="G99">
         <f>FLOOR(A99*0.8,1)+1</f>
@@ -51328,7 +51740,7 @@
         <v>1381.1514213368175</v>
       </c>
       <c r="T99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U99">
@@ -51336,20 +51748,24 @@
         <v>0.63131313131313127</v>
       </c>
       <c r="W99">
-        <f t="shared" si="9"/>
-        <v>29382.490551626317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+        <f t="shared" si="10"/>
+        <v>24267.46823184166</v>
+      </c>
+      <c r="Z99" s="1">
+        <f t="shared" si="11"/>
+        <v>40245.780386402766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>172.54257833336908</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28086.401357004954</v>
       </c>
       <c r="D100" s="1">
@@ -51362,7 +51778,7 @@
       </c>
       <c r="F100" s="1">
         <f>VLOOKUP($A100,Exp!$AE100:$AF198,2)/$E100</f>
-        <v>65797.391986442817</v>
+        <v>54760.637331060898</v>
       </c>
       <c r="G100">
         <f>FLOOR(A100*0.8,1)+1</f>
@@ -51401,7 +51817,7 @@
         <v>1406.0257931961139</v>
       </c>
       <c r="T100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="U100">
@@ -51409,8 +51825,12 @@
         <v>0.62814070351758799</v>
       </c>
       <c r="W100">
-        <f t="shared" si="9"/>
-        <v>39478.43519186569</v>
+        <f t="shared" si="10"/>
+        <v>32856.382398636539</v>
+      </c>
+      <c r="Z100" s="1">
+        <f t="shared" si="11"/>
+        <v>54560.637331060898</v>
       </c>
     </row>
   </sheetData>
@@ -51605,8 +52025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CCB73E-E5CD-449F-AA09-CCF4B08E4898}">
   <dimension ref="A1:AG100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E72" workbookViewId="0">
-      <selection activeCell="AF100" sqref="AF100"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -51616,6 +52036,7 @@
     <col min="25" max="25" width="9.23046875" style="10"/>
     <col min="27" max="27" width="9.765625" style="8" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
@@ -51657,16 +52078,16 @@
         <v>3</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AE1" t="s">
         <v>3</v>
       </c>
       <c r="AF1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="AG1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
@@ -51763,10 +52184,11 @@
       </c>
       <c r="AF2">
         <f>W2*AG2+AC2*(1-AG2)</f>
-        <v>7</v>
+        <v>6.9998571574329143</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <f>(AE2/99)*(AE2/99)*0.7</f>
+        <v>7.1421283542495668E-5</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
@@ -51865,11 +52287,11 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" si="11">W3*AG3+AC3*(1-AG3)</f>
-        <v>9.7993399999999991</v>
+        <v>9.7990572390572392</v>
       </c>
       <c r="AG3">
-        <f>AG2+AE3/10000</f>
-        <v>2.0000000000000001E-4</v>
+        <f t="shared" ref="AG3:AG66" si="12">(AE3/99)*(AE3/99)*0.7</f>
+        <v>2.8568513416998267E-4</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
@@ -51968,11 +52390,11 @@
       </c>
       <c r="AF4">
         <f t="shared" si="11"/>
-        <v>13.717689999999997</v>
+        <v>13.717030303030299</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG67" si="12">AG3+AE4/10000</f>
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.4279155188246104E-4</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
@@ -52071,11 +52493,11 @@
       </c>
       <c r="AF5">
         <f t="shared" si="11"/>
-        <v>19.201359799999992</v>
+        <v>19.199568860320369</v>
       </c>
       <c r="AG5">
         <f t="shared" si="12"/>
-        <v>8.9999999999999998E-4</v>
+        <v>1.1427405366799307E-3</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
@@ -52174,11 +52596,11 @@
       </c>
       <c r="AF6">
         <f t="shared" si="11"/>
-        <v>26.880051519999991</v>
+        <v>26.87698145087235</v>
       </c>
       <c r="AG6">
         <f t="shared" si="12"/>
-        <v>1.4E-3</v>
+        <v>1.7855320885623914E-3</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
@@ -52277,11 +52699,11 @@
       </c>
       <c r="AF7">
         <f t="shared" si="11"/>
-        <v>34.941641279999992</v>
+        <v>34.936809579430665</v>
       </c>
       <c r="AG7">
         <f t="shared" si="12"/>
-        <v>2E-3</v>
+        <v>2.5711662075298442E-3</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
@@ -52380,11 +52802,11 @@
       </c>
       <c r="AF8">
         <f t="shared" si="11"/>
-        <v>45.423590430399983</v>
+        <v>45.416915612855817</v>
       </c>
       <c r="AG8">
         <f t="shared" si="12"/>
-        <v>2.7000000000000001E-3</v>
+        <v>3.499642893582287E-3</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
@@ -52483,11 +52905,11 @@
       </c>
       <c r="AF9">
         <f t="shared" si="11"/>
-        <v>59.054971029599983</v>
+        <v>59.047322716588084</v>
       </c>
       <c r="AG9">
         <f t="shared" si="12"/>
-        <v>3.5000000000000001E-3</v>
+        <v>4.5709621467197228E-3</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
@@ -52586,11 +53008,11 @@
       </c>
       <c r="AF10">
         <f t="shared" si="11"/>
-        <v>76.92307711379199</v>
+        <v>76.960576447074359</v>
       </c>
       <c r="AG10">
         <f t="shared" si="12"/>
-        <v>4.4000000000000003E-3</v>
+        <v>5.7851239669421484E-3</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
@@ -52689,11 +53111,11 @@
       </c>
       <c r="AF11">
         <f t="shared" si="11"/>
-        <v>99.979101521353584</v>
+        <v>100.0223186624728</v>
       </c>
       <c r="AG11">
         <f t="shared" si="12"/>
-        <v>5.4000000000000003E-3</v>
+        <v>7.1421283542495656E-3</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
@@ -52792,11 +53214,11 @@
       </c>
       <c r="AF12">
         <f t="shared" si="11"/>
-        <v>129.9272821676648</v>
+        <v>129.96965900284246</v>
       </c>
       <c r="AG12">
         <f t="shared" si="12"/>
-        <v>6.5000000000000006E-3</v>
+        <v>8.6419753086419745E-3</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
@@ -52895,11 +53317,11 @@
       </c>
       <c r="AF13">
         <f t="shared" si="11"/>
-        <v>168.82115118800857</v>
+        <v>168.84896458262307</v>
       </c>
       <c r="AG13">
         <f t="shared" si="12"/>
-        <v>7.7000000000000002E-3</v>
+        <v>1.0284664830119377E-2</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
@@ -52998,11 +53420,11 @@
       </c>
       <c r="AF14">
         <f t="shared" si="11"/>
-        <v>219.48568251434841</v>
+        <v>219.52863213655198</v>
       </c>
       <c r="AG14">
         <f t="shared" si="12"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.207019691868177E-2</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
@@ -53101,11 +53523,11 @@
       </c>
       <c r="AF15">
         <f t="shared" si="11"/>
-        <v>286.32757941368988</v>
+        <v>286.72891214118124</v>
       </c>
       <c r="AG15">
         <f t="shared" si="12"/>
-        <v>1.0400000000000001E-2</v>
+        <v>1.3998571574329148E-2</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
@@ -53204,11 +53626,11 @@
       </c>
       <c r="AF16">
         <f t="shared" si="11"/>
-        <v>371.97126308797345</v>
+        <v>372.41039983534608</v>
       </c>
       <c r="AG16">
         <f t="shared" si="12"/>
-        <v>1.1900000000000001E-2</v>
+        <v>1.6069788797061526E-2</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
@@ -53307,11 +53729,11 @@
       </c>
       <c r="AF17">
         <f t="shared" si="11"/>
-        <v>483.13905182882718</v>
+        <v>483.56627287675332</v>
       </c>
       <c r="AG17">
         <f t="shared" si="12"/>
-        <v>1.3500000000000002E-2</v>
+        <v>1.8283848586878891E-2</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
@@ -53410,11 +53832,11 @@
       </c>
       <c r="AF18">
         <f t="shared" si="11"/>
-        <v>627.40984892558834</v>
+        <v>627.73070371081872</v>
       </c>
       <c r="AG18">
         <f t="shared" si="12"/>
-        <v>1.5200000000000002E-2</v>
+        <v>2.0640750943781244E-2</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
@@ -53513,11 +53935,11 @@
       </c>
       <c r="AF19">
         <f t="shared" si="11"/>
-        <v>814.60547312175356</v>
+        <v>814.65530739322617</v>
       </c>
       <c r="AG19">
         <f t="shared" si="12"/>
-        <v>1.7000000000000001E-2</v>
+        <v>2.3140495867768594E-2</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
@@ -53616,11 +54038,11 @@
       </c>
       <c r="AF20">
         <f t="shared" si="11"/>
-        <v>1065.2258896330857</v>
+        <v>1067.563272209497</v>
       </c>
       <c r="AG20">
         <f t="shared" si="12"/>
-        <v>1.89E-2</v>
+        <v>2.5783083358840928E-2</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
@@ -53719,11 +54141,11 @@
       </c>
       <c r="AF21">
         <f t="shared" si="11"/>
-        <v>1382.7539359694292</v>
+        <v>1385.0669099588201</v>
       </c>
       <c r="AG21">
         <f t="shared" si="12"/>
-        <v>2.0900000000000002E-2</v>
+        <v>2.8568513416998263E-2</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
@@ -53822,11 +54244,11 @@
       </c>
       <c r="AF22">
         <f t="shared" si="11"/>
-        <v>1656.2052442781542</v>
+        <v>1657.8547810668961</v>
       </c>
       <c r="AG22">
         <f t="shared" si="12"/>
-        <v>2.3000000000000003E-2</v>
+        <v>3.1496786042240592E-2</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
@@ -53925,11 +54347,11 @@
       </c>
       <c r="AF23">
         <f t="shared" si="11"/>
-        <v>1983.3072044599073</v>
+        <v>1983.7603879467938</v>
       </c>
       <c r="AG23">
         <f t="shared" si="12"/>
-        <v>2.5200000000000004E-2</v>
+        <v>3.4567901234567898E-2</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
@@ -54028,11 +54450,11 @@
       </c>
       <c r="AF24">
         <f t="shared" si="11"/>
-        <v>2380.1021636707192</v>
+        <v>2380.6990404217299</v>
       </c>
       <c r="AG24">
         <f t="shared" si="12"/>
-        <v>2.7500000000000004E-2</v>
+        <v>3.7781858993980205E-2</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
@@ -54131,11 +54553,11 @@
       </c>
       <c r="AF25">
         <f t="shared" si="11"/>
-        <v>2863.5750905645718</v>
+        <v>2867.0963586528169</v>
       </c>
       <c r="AG25">
         <f t="shared" si="12"/>
-        <v>2.9900000000000003E-2</v>
+        <v>4.1138659320477507E-2</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
@@ -54234,11 +54656,11 @@
       </c>
       <c r="AF26">
         <f t="shared" si="11"/>
-        <v>3426.9672821372342</v>
+        <v>3427.6921384928191</v>
       </c>
       <c r="AG26">
         <f t="shared" si="12"/>
-        <v>3.2400000000000005E-2</v>
+        <v>4.4638302214059795E-2</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
@@ -54337,11 +54759,11 @@
       </c>
       <c r="AF27">
         <f t="shared" si="11"/>
-        <v>4100.3505627575132</v>
+        <v>4096.6670901943016</v>
       </c>
       <c r="AG27">
         <f t="shared" si="12"/>
-        <v>3.5000000000000003E-2</v>
+        <v>4.8280787674727078E-2</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
@@ -54440,11 +54862,11 @@
       </c>
       <c r="AF28">
         <f t="shared" si="11"/>
-        <v>4919.5220500619971</v>
+        <v>4914.7406595909451</v>
       </c>
       <c r="AG28">
         <f t="shared" si="12"/>
-        <v>3.7700000000000004E-2</v>
+        <v>5.2066115702479328E-2</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
@@ -54543,11 +54965,11 @@
       </c>
       <c r="AF29">
         <f t="shared" si="11"/>
-        <v>5902.3081708781065</v>
+        <v>5896.1199233886373</v>
       </c>
       <c r="AG29">
         <f t="shared" si="12"/>
-        <v>4.0500000000000001E-2</v>
+        <v>5.5994286297316592E-2</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
@@ -54646,11 +55068,11 @@
       </c>
       <c r="AF30">
         <f t="shared" si="11"/>
-        <v>7153.2385407733145</v>
+        <v>7172.84462446612</v>
       </c>
       <c r="AG30">
         <f t="shared" si="12"/>
-        <v>4.3400000000000001E-2</v>
+        <v>6.0065299459238844E-2</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
@@ -54749,11 +55171,11 @@
       </c>
       <c r="AF31">
         <f t="shared" si="11"/>
-        <v>8549.7086132250024</v>
+        <v>8560.1480672746438</v>
       </c>
       <c r="AG31">
         <f t="shared" si="12"/>
-        <v>4.6400000000000004E-2</v>
+        <v>6.4279155188246104E-2</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
@@ -54852,11 +55274,11 @@
       </c>
       <c r="AF32">
         <f t="shared" si="11"/>
-        <v>9406.6705383273329</v>
+        <v>9418.9610882527541</v>
       </c>
       <c r="AG32">
         <f t="shared" si="12"/>
-        <v>4.9500000000000002E-2</v>
+        <v>6.863585348433833E-2</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
@@ -54955,11 +55377,11 @@
       </c>
       <c r="AF33">
         <f t="shared" si="11"/>
-        <v>10339.040330139009</v>
+        <v>10349.383978307989</v>
       </c>
       <c r="AG33">
         <f t="shared" si="12"/>
-        <v>5.2700000000000004E-2</v>
+        <v>7.3135394347515564E-2</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
@@ -55058,11 +55480,11 @@
       </c>
       <c r="AF34">
         <f t="shared" si="11"/>
-        <v>11374.781736203555</v>
+        <v>11386.907161049552</v>
       </c>
       <c r="AG34">
         <f t="shared" si="12"/>
-        <v>5.6000000000000001E-2</v>
+        <v>7.7777777777777765E-2</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
@@ -55161,11 +55583,11 @@
       </c>
       <c r="AF35">
         <f t="shared" si="11"/>
-        <v>12585.030533748677</v>
+        <v>12626.781752205083</v>
       </c>
       <c r="AG35">
         <f t="shared" si="12"/>
-        <v>5.9400000000000001E-2</v>
+        <v>8.2563003775124974E-2</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
@@ -55264,11 +55686,11 @@
       </c>
       <c r="AF36">
         <f t="shared" si="11"/>
-        <v>13832.508379850211</v>
+        <v>13874.242781014098</v>
       </c>
       <c r="AG36">
         <f t="shared" si="12"/>
-        <v>6.2899999999999998E-2</v>
+        <v>8.7491072339557177E-2</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
@@ -55367,11 +55789,11 @@
       </c>
       <c r="AF37">
         <f t="shared" si="11"/>
-        <v>15171.198752339013</v>
+        <v>15199.755002480135</v>
       </c>
       <c r="AG37">
         <f t="shared" si="12"/>
-        <v>6.6500000000000004E-2</v>
+        <v>9.2561983471074374E-2</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.4">
@@ -55470,11 +55892,11 @@
       </c>
       <c r="AF38">
         <f t="shared" si="11"/>
-        <v>16692.778147632212</v>
+        <v>16726.0145133236</v>
       </c>
       <c r="AG38">
         <f t="shared" si="12"/>
-        <v>7.0199999999999999E-2</v>
+        <v>9.7775737169676566E-2</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.4">
@@ -55573,11 +55995,11 @@
       </c>
       <c r="AF39">
         <f t="shared" si="11"/>
-        <v>18367.094014786755</v>
+        <v>18405.717757452185</v>
       </c>
       <c r="AG39">
         <f t="shared" si="12"/>
-        <v>7.3999999999999996E-2</v>
+        <v>0.10313233343536371</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.4">
@@ -55676,11 +56098,11 @@
       </c>
       <c r="AF40">
         <f t="shared" si="11"/>
-        <v>20820.064701173069</v>
+        <v>21105.75643639424</v>
       </c>
       <c r="AG40">
         <f t="shared" si="12"/>
-        <v>7.7899999999999997E-2</v>
+        <v>0.10863177226813589</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
@@ -55779,11 +56201,11 @@
       </c>
       <c r="AF41">
         <f t="shared" si="11"/>
-        <v>28357.622964570553</v>
+        <v>28445.924963442099</v>
       </c>
       <c r="AG41">
         <f t="shared" si="12"/>
-        <v>8.1900000000000001E-2</v>
+        <v>0.11427405366799305</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
@@ -55882,11 +56304,11 @@
       </c>
       <c r="AF42">
         <f t="shared" si="11"/>
-        <v>31019.898551403894</v>
+        <v>31048.507739402943</v>
       </c>
       <c r="AG42">
         <f t="shared" si="12"/>
-        <v>8.6000000000000007E-2</v>
+        <v>0.12005917763493519</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
@@ -55985,11 +56407,11 @@
       </c>
       <c r="AF43">
         <f t="shared" si="11"/>
-        <v>33982.406858858601</v>
+        <v>33958.594126706565</v>
       </c>
       <c r="AG43">
         <f t="shared" si="12"/>
-        <v>9.0200000000000002E-2</v>
+        <v>0.12598714416896237</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
@@ -56088,11 +56510,11 @@
       </c>
       <c r="AF44">
         <f t="shared" si="11"/>
-        <v>37314.417626544666</v>
+        <v>37261.856040740269</v>
       </c>
       <c r="AG44">
         <f t="shared" si="12"/>
-        <v>9.4500000000000001E-2</v>
+        <v>0.1320579532700745</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
@@ -56191,11 +56613,11 @@
       </c>
       <c r="AF45">
         <f t="shared" si="11"/>
-        <v>41395.592606976992</v>
+        <v>41476.906445613829</v>
       </c>
       <c r="AG45">
         <f t="shared" si="12"/>
-        <v>9.8900000000000002E-2</v>
+        <v>0.13827160493827159</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
@@ -56294,11 +56716,11 @@
       </c>
       <c r="AF46">
         <f t="shared" si="11"/>
-        <v>45187.55624404674</v>
+        <v>45138.548008647776</v>
       </c>
       <c r="AG46">
         <f t="shared" si="12"/>
-        <v>0.10340000000000001</v>
+        <v>0.14462809917355368</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.4">
@@ -56397,11 +56819,11 @@
       </c>
       <c r="AF47">
         <f t="shared" si="11"/>
-        <v>49366.736498118982</v>
+        <v>49177.143819068937</v>
       </c>
       <c r="AG47">
         <f t="shared" si="12"/>
-        <v>0.10800000000000001</v>
+        <v>0.15112743597592082</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.4">
@@ -56500,11 +56922,11 @@
       </c>
       <c r="AF48">
         <f t="shared" si="11"/>
-        <v>54024.597395200784</v>
+        <v>53704.243262250253</v>
       </c>
       <c r="AG48">
         <f t="shared" si="12"/>
-        <v>0.11270000000000001</v>
+        <v>0.1577696153453729</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.4">
@@ -56603,11 +57025,11 @@
       </c>
       <c r="AF49">
         <f t="shared" si="11"/>
-        <v>59277.390421701399</v>
+        <v>58864.573654540727</v>
       </c>
       <c r="AG49">
         <f t="shared" si="12"/>
-        <v>0.11750000000000001</v>
+        <v>0.16455463728191003</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.4">
@@ -56706,11 +57128,11 @@
       </c>
       <c r="AF50">
         <f t="shared" si="11"/>
-        <v>67681.00061810037</v>
+        <v>68219.1209694602</v>
       </c>
       <c r="AG50">
         <f t="shared" si="12"/>
-        <v>0.12240000000000001</v>
+        <v>0.17148250178553209</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.4">
@@ -56809,11 +57231,11 @@
       </c>
       <c r="AF51">
         <f t="shared" si="11"/>
-        <v>91087.770292776724</v>
+        <v>90370.296328970202</v>
       </c>
       <c r="AG51">
         <f t="shared" si="12"/>
-        <v>0.12740000000000001</v>
+        <v>0.17855320885623918</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.4">
@@ -56912,11 +57334,11 @@
       </c>
       <c r="AF52">
         <f t="shared" si="11"/>
-        <v>99386.539884268859</v>
+        <v>98270.708433308057</v>
       </c>
       <c r="AG52">
         <f t="shared" si="12"/>
-        <v>0.13250000000000001</v>
+        <v>0.18576675849403121</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.4">
@@ -57015,11 +57437,11 @@
       </c>
       <c r="AF53">
         <f t="shared" si="11"/>
-        <v>108646.21188786735</v>
+        <v>107144.05077375253</v>
       </c>
       <c r="AG53">
         <f t="shared" si="12"/>
-        <v>0.13770000000000002</v>
+        <v>0.19312315069890831</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.4">
@@ -57118,11 +57540,11 @@
       </c>
       <c r="AF54">
         <f t="shared" si="11"/>
-        <v>119108.93357630294</v>
+        <v>117292.71388012132</v>
       </c>
       <c r="AG54">
         <f t="shared" si="12"/>
-        <v>0.14300000000000002</v>
+        <v>0.2006223854708703</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.4">
@@ -57221,11 +57643,11 @@
       </c>
       <c r="AF55">
         <f t="shared" si="11"/>
-        <v>132199.31940047417</v>
+        <v>130675.07493909966</v>
       </c>
       <c r="AG55">
         <f t="shared" si="12"/>
-        <v>0.1484</v>
+        <v>0.20826446280991731</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.4">
@@ -57324,11 +57746,11 @@
       </c>
       <c r="AF56">
         <f t="shared" si="11"/>
-        <v>143904.53290916572</v>
+        <v>141614.38730521349</v>
       </c>
       <c r="AG56">
         <f t="shared" si="12"/>
-        <v>0.15390000000000001</v>
+        <v>0.2160493827160494</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.4">
@@ -57427,11 +57849,11 @@
       </c>
       <c r="AF57">
         <f t="shared" si="11"/>
-        <v>156809.40409663503</v>
+        <v>153687.11047391276</v>
       </c>
       <c r="AG57">
         <f t="shared" si="12"/>
-        <v>0.1595</v>
+        <v>0.22397714518926637</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.4">
@@ -57530,11 +57952,11 @@
       </c>
       <c r="AF58">
         <f t="shared" si="11"/>
-        <v>171227.66596715615</v>
+        <v>167278.78817066597</v>
       </c>
       <c r="AG58">
         <f t="shared" si="12"/>
-        <v>0.16520000000000001</v>
+        <v>0.23204775022956844</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.4">
@@ -57633,11 +58055,11 @@
       </c>
       <c r="AF59">
         <f t="shared" si="11"/>
-        <v>187556.6035869359</v>
+        <v>182887.13435876617</v>
       </c>
       <c r="AG59">
         <f t="shared" si="12"/>
-        <v>0.17100000000000001</v>
+        <v>0.24026119783695538</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.4">
@@ -57736,11 +58158,11 @@
       </c>
       <c r="AF60">
         <f t="shared" si="11"/>
-        <v>212862.28017642989</v>
+        <v>210376.55046493674</v>
       </c>
       <c r="AG60">
         <f t="shared" si="12"/>
-        <v>0.1769</v>
+        <v>0.24861748801142733</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.4">
@@ -57839,11 +58261,11 @@
       </c>
       <c r="AF61">
         <f t="shared" si="11"/>
-        <v>267347.66909510992</v>
+        <v>260309.84759502701</v>
       </c>
       <c r="AG61">
         <f t="shared" si="12"/>
-        <v>0.18290000000000001</v>
+        <v>0.25711662075298441</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
@@ -57942,11 +58364,11 @@
       </c>
       <c r="AF62">
         <f t="shared" si="11"/>
-        <v>291651.92816847569</v>
+        <v>282916.48548374872</v>
       </c>
       <c r="AG62">
         <f t="shared" si="12"/>
-        <v>0.189</v>
+        <v>0.26575859606162633</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.4">
@@ -58045,11 +58467,11 @@
       </c>
       <c r="AF63">
         <f t="shared" si="11"/>
-        <v>316927.82116701227</v>
+        <v>305729.84309910756</v>
       </c>
       <c r="AG63">
         <f t="shared" si="12"/>
-        <v>0.19520000000000001</v>
+        <v>0.27454341393735332</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.4">
@@ -58148,11 +58570,11 @@
       </c>
       <c r="AF64">
         <f t="shared" si="11"/>
-        <v>345593.86102716747</v>
+        <v>332034.73437498254</v>
       </c>
       <c r="AG64">
         <f t="shared" si="12"/>
-        <v>0.20150000000000001</v>
+        <v>0.28347107438016528</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.4">
@@ -58251,11 +58673,11 @@
       </c>
       <c r="AF65">
         <f t="shared" si="11"/>
-        <v>381208.184007017</v>
+        <v>366710.82953924366</v>
       </c>
       <c r="AG65">
         <f t="shared" si="12"/>
-        <v>0.2079</v>
+        <v>0.29254157739006226</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.4">
@@ -58354,11 +58776,11 @@
       </c>
       <c r="AF66">
         <f t="shared" si="11"/>
-        <v>414419.32359577686</v>
+        <v>396459.59405140794</v>
       </c>
       <c r="AG66">
         <f t="shared" si="12"/>
-        <v>0.21440000000000001</v>
+        <v>0.30175492296704415</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
@@ -58457,11 +58879,11 @@
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF100" si="24">W67*AG67+AC67*(1-AG67)</f>
-        <v>449897.29500851006</v>
+        <v>427695.11192797846</v>
       </c>
       <c r="AG67">
-        <f t="shared" si="12"/>
-        <v>0.221</v>
+        <f t="shared" ref="AG67:AG100" si="25">(AE67/99)*(AE67/99)*0.7</f>
+        <v>0.31111111111111106</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.4">
@@ -58560,11 +58982,11 @@
       </c>
       <c r="AF68">
         <f t="shared" si="24"/>
-        <v>490134.25658900535</v>
+        <v>463754.88232990901</v>
       </c>
       <c r="AG68">
-        <f t="shared" ref="AG68:AG100" si="25">AG67+AE68/10000</f>
-        <v>0.22770000000000001</v>
+        <f t="shared" si="25"/>
+        <v>0.32061014182226305</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
@@ -58663,11 +59085,11 @@
       </c>
       <c r="AF69">
         <f t="shared" si="24"/>
-        <v>535753.60035610292</v>
+        <v>505330.01849452115</v>
       </c>
       <c r="AG69">
         <f t="shared" si="25"/>
-        <v>0.23450000000000001</v>
+        <v>0.3302520151004999</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.4">
@@ -58766,11 +59188,11 @@
       </c>
       <c r="AF70">
         <f t="shared" si="24"/>
-        <v>615163.96025675151</v>
+        <v>592231.43272757344</v>
       </c>
       <c r="AG70">
         <f t="shared" si="25"/>
-        <v>0.2414</v>
+        <v>0.34003673094582187</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.4">
@@ -58869,11 +59291,11 @@
       </c>
       <c r="AF71">
         <f t="shared" si="24"/>
-        <v>768168.44977857126</v>
+        <v>725438.57944121282</v>
       </c>
       <c r="AG71">
         <f t="shared" si="25"/>
-        <v>0.24840000000000001</v>
+        <v>0.34996428935822871</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.4">
@@ -58972,11 +59394,11 @@
       </c>
       <c r="AF72">
         <f t="shared" si="24"/>
-        <v>820622.11096952762</v>
+        <v>770761.91515581449</v>
       </c>
       <c r="AG72">
         <f t="shared" si="25"/>
-        <v>0.2555</v>
+        <v>0.36003469033772062</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.4">
@@ -59075,11 +59497,11 @@
       </c>
       <c r="AF73">
         <f t="shared" si="24"/>
-        <v>876448.38835934806</v>
+        <v>818543.89933980012</v>
       </c>
       <c r="AG73">
         <f t="shared" si="25"/>
-        <v>0.26269999999999999</v>
+        <v>0.3702479338842975</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.4">
@@ -59178,11 +59600,11 @@
       </c>
       <c r="AF74">
         <f t="shared" si="24"/>
-        <v>935846.46501776983</v>
+        <v>868880.93895932776</v>
       </c>
       <c r="AG74">
         <f t="shared" si="25"/>
-        <v>0.26999999999999996</v>
+        <v>0.3806040199979594</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.4">
@@ -59281,11 +59703,11 @@
       </c>
       <c r="AF75">
         <f t="shared" si="24"/>
-        <v>1008615.3702148756</v>
+        <v>935389.32628666924</v>
       </c>
       <c r="AG75">
         <f t="shared" si="25"/>
-        <v>0.27739999999999998</v>
+        <v>0.39110294867870626</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.4">
@@ -59384,11 +59806,11 @@
       </c>
       <c r="AF76">
         <f t="shared" si="24"/>
-        <v>1076349.473257269</v>
+        <v>991906.33208100055</v>
       </c>
       <c r="AG76">
         <f t="shared" si="25"/>
-        <v>0.28489999999999999</v>
+        <v>0.40174471992653804</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.4">
@@ -59487,11 +59909,11 @@
       </c>
       <c r="AF77">
         <f t="shared" si="24"/>
-        <v>1148342.1286228995</v>
+        <v>1051299.7892931544</v>
       </c>
       <c r="AG77">
         <f t="shared" si="25"/>
-        <v>0.29249999999999998</v>
+        <v>0.41252933374145484</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.4">
@@ -59590,11 +60012,11 @@
       </c>
       <c r="AF78">
         <f t="shared" si="24"/>
-        <v>1224835.2975225344</v>
+        <v>1113659.5913493878</v>
       </c>
       <c r="AG78">
         <f t="shared" si="25"/>
-        <v>0.30019999999999997</v>
+        <v>0.42345679012345677</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.4">
@@ -59693,11 +60115,11 @@
       </c>
       <c r="AF79">
         <f t="shared" si="24"/>
-        <v>1306081.9549587891</v>
+        <v>1179070.9606208708</v>
       </c>
       <c r="AG79">
         <f t="shared" si="25"/>
-        <v>0.30799999999999994</v>
+        <v>0.43452708907254356</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.4">
@@ -59796,11 +60218,11 @@
       </c>
       <c r="AF80">
         <f t="shared" si="24"/>
-        <v>1463812.6610366935</v>
+        <v>1348453.3612033373</v>
       </c>
       <c r="AG80">
         <f t="shared" si="25"/>
-        <v>0.31589999999999996</v>
+        <v>0.44574023058871542</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.4">
@@ -59899,11 +60321,11 @@
       </c>
       <c r="AF81">
         <f t="shared" si="24"/>
-        <v>1934027.4819435338</v>
+        <v>1725023.5413768494</v>
       </c>
       <c r="AG81">
         <f t="shared" si="25"/>
-        <v>0.32389999999999997</v>
+        <v>0.4570962146719722</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.4">
@@ -60002,11 +60424,11 @@
       </c>
       <c r="AF82">
         <f t="shared" si="24"/>
-        <v>2060528.8618083871</v>
+        <v>1823081.4408423342</v>
       </c>
       <c r="AG82">
         <f t="shared" si="25"/>
-        <v>0.33199999999999996</v>
+        <v>0.46859504132231411</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.4">
@@ -60105,11 +60527,11 @@
       </c>
       <c r="AF83">
         <f t="shared" si="24"/>
-        <v>2194679.0148453801</v>
+        <v>1925477.5022606761</v>
       </c>
       <c r="AG83">
         <f t="shared" si="25"/>
-        <v>0.34019999999999995</v>
+        <v>0.48023671053974076</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.4">
@@ -60208,11 +60630,11 @@
       </c>
       <c r="AF84">
         <f t="shared" si="24"/>
-        <v>2343336.7649548324</v>
+        <v>2041376.4262413434</v>
       </c>
       <c r="AG84">
         <f t="shared" si="25"/>
-        <v>0.34849999999999992</v>
+        <v>0.49202122232425249</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.4">
@@ -60311,11 +60733,11 @@
       </c>
       <c r="AF85">
         <f t="shared" si="24"/>
-        <v>2536015.6716371495</v>
+        <v>2211895.0002810592</v>
       </c>
       <c r="AG85">
         <f t="shared" si="25"/>
-        <v>0.35689999999999994</v>
+        <v>0.50394857667584947</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.4">
@@ -60414,11 +60836,11 @@
       </c>
       <c r="AF86">
         <f t="shared" si="24"/>
-        <v>2706401.486068239</v>
+        <v>2342798.2144871051</v>
       </c>
       <c r="AG86">
         <f t="shared" si="25"/>
-        <v>0.36539999999999995</v>
+        <v>0.51601877359453108</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.4">
@@ -60517,11 +60939,11 @@
       </c>
       <c r="AF87">
         <f t="shared" si="24"/>
-        <v>2887314.6025686059</v>
+        <v>2479769.1285933037</v>
       </c>
       <c r="AG87">
         <f t="shared" si="25"/>
-        <v>0.37399999999999994</v>
+        <v>0.52823181308029798</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.4">
@@ -60620,11 +61042,11 @@
       </c>
       <c r="AF88">
         <f t="shared" si="24"/>
-        <v>3079313.6826088089</v>
+        <v>2622890.3410215569</v>
       </c>
       <c r="AG88">
         <f t="shared" si="25"/>
-        <v>0.38269999999999993</v>
+        <v>0.54058769513314964</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.4">
@@ -60723,11 +61145,11 @@
       </c>
       <c r="AF89">
         <f t="shared" si="24"/>
-        <v>3282976.8969985442</v>
+        <v>2772215.2493734574</v>
       </c>
       <c r="AG89">
         <f t="shared" si="25"/>
-        <v>0.3914999999999999</v>
+        <v>0.55308641975308637</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.4">
@@ -60826,11 +61248,11 @@
       </c>
       <c r="AF90">
         <f t="shared" si="24"/>
-        <v>3526119.627602879</v>
+        <v>2966219.5704264594</v>
       </c>
       <c r="AG90">
         <f t="shared" si="25"/>
-        <v>0.40039999999999992</v>
+        <v>0.56572798694010817</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.4">
@@ -60929,11 +61351,11 @@
       </c>
       <c r="AF91">
         <f t="shared" si="24"/>
-        <v>4832669.9859628854</v>
+        <v>4005576.1194912605</v>
       </c>
       <c r="AG91">
         <f t="shared" si="25"/>
-        <v>0.40939999999999993</v>
+        <v>0.57851239669421473</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.4">
@@ -61032,11 +61454,11 @@
       </c>
       <c r="AF92">
         <f t="shared" si="24"/>
-        <v>5146807.8445088267</v>
+        <v>4223243.994980895</v>
       </c>
       <c r="AG92">
         <f t="shared" si="25"/>
-        <v>0.41849999999999993</v>
+        <v>0.59143964901540658</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.4">
@@ -61135,11 +61557,11 @@
       </c>
       <c r="AF93">
         <f t="shared" si="24"/>
-        <v>5479297.5438925438</v>
+        <v>4448699.3246281613</v>
       </c>
       <c r="AG93">
         <f t="shared" si="25"/>
-        <v>0.42769999999999991</v>
+        <v>0.60450974390368328</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.4">
@@ -61238,11 +61660,11 @@
       </c>
       <c r="AF94">
         <f t="shared" si="24"/>
-        <v>5830995.7812266648</v>
+        <v>4681696.0571835134</v>
       </c>
       <c r="AG94">
         <f t="shared" si="25"/>
-        <v>0.43699999999999989</v>
+        <v>0.61772268135904496</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.4">
@@ -61341,11 +61763,11 @@
       </c>
       <c r="AF95">
         <f t="shared" si="24"/>
-        <v>6202773.8900924679</v>
+        <v>4921891.7964889547</v>
       </c>
       <c r="AG95">
         <f t="shared" si="25"/>
-        <v>0.44639999999999991</v>
+        <v>0.6310784613814916</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.4">
@@ -61444,11 +61866,11 @@
       </c>
       <c r="AF96">
         <f t="shared" si="24"/>
-        <v>6757118.1557789352</v>
+        <v>5397318.0179255819</v>
       </c>
       <c r="AG96">
         <f t="shared" si="25"/>
-        <v>0.45589999999999992</v>
+        <v>0.64457708397102331</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.4">
@@ -61547,11 +61969,11 @@
       </c>
       <c r="AF97">
         <f t="shared" si="24"/>
-        <v>7183363.5679953313</v>
+        <v>5666927.1273053875</v>
       </c>
       <c r="AG97">
         <f t="shared" si="25"/>
-        <v>0.46549999999999991</v>
+        <v>0.65821854912764011</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.4">
@@ -61650,11 +62072,11 @@
       </c>
       <c r="AF98">
         <f t="shared" si="24"/>
-        <v>8029982.2168300096</v>
+        <v>6414449.3205373324</v>
       </c>
       <c r="AG98">
         <f t="shared" si="25"/>
-        <v>0.4751999999999999</v>
+        <v>0.67200285685134165</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.4">
@@ -61753,11 +62175,11 @@
       </c>
       <c r="AF99">
         <f t="shared" si="24"/>
-        <v>10080986.86820592</v>
+        <v>8326048.0638956353</v>
       </c>
       <c r="AG99">
         <f t="shared" si="25"/>
-        <v>0.48499999999999988</v>
+        <v>0.68593000714212837</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.4">
@@ -61856,11 +62278,11 @@
       </c>
       <c r="AF100">
         <f t="shared" si="24"/>
-        <v>14268626.743600111</v>
+        <v>11875228.952532902</v>
       </c>
       <c r="AG100">
         <f t="shared" si="25"/>
-        <v>0.4948999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -61890,13 +62312,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1198</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>1199</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">

--- a/Other/RoStatProcessing.xlsx
+++ b/Other/RoStatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectsSSD\RagnarokRebuildTcp\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C80D109-6F6A-4AAB-A371-B9D8DAF86523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811D747-237D-4816-8B05-64381433CC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7637" yWindow="2314" windowWidth="23152" windowHeight="14829" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
+    <workbookView xWindow="4971" yWindow="2117" windowWidth="23606" windowHeight="14829" xr2:uid="{1C41742B-2950-4FF8-AA39-6557869B44EA}"/>
   </bookViews>
   <sheets>
     <sheet name="StatDef" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1213">
   <si>
     <t>Id</t>
   </si>
@@ -3682,6 +3682,15 @@
   </si>
   <si>
     <t>poring_.spr</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>Goblin,Flying</t>
+  </si>
+  <si>
+    <t>Fungus,Flying</t>
   </si>
 </sst>
 </file>
@@ -4135,10 +4144,10 @@
   <dimension ref="A1:AK319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E307" sqref="E307"/>
+      <selection pane="bottomRight" activeCell="Q158" sqref="Q158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4918,6 +4927,9 @@
       <c r="AD7" t="s">
         <v>42</v>
       </c>
+      <c r="AE7" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF7">
         <v>432</v>
       </c>
@@ -5453,6 +5465,9 @@
       <c r="AD12" t="s">
         <v>74</v>
       </c>
+      <c r="AE12" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF12">
         <v>576</v>
       </c>
@@ -5991,6 +6006,9 @@
       <c r="AD17" t="s">
         <v>99</v>
       </c>
+      <c r="AE17" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF17">
         <v>360</v>
       </c>
@@ -7382,6 +7400,9 @@
       <c r="AD30" t="s">
         <v>74</v>
       </c>
+      <c r="AE30" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF30">
         <v>360</v>
       </c>
@@ -8474,7 +8495,7 @@
         <v>1120</v>
       </c>
       <c r="AE40" t="s">
-        <v>1180</v>
+        <v>1211</v>
       </c>
       <c r="AF40">
         <v>324</v>
@@ -8584,7 +8605,7 @@
         <v>1112</v>
       </c>
       <c r="AE41" t="s">
-        <v>1180</v>
+        <v>1211</v>
       </c>
       <c r="AF41">
         <v>324</v>
@@ -8694,7 +8715,7 @@
         <v>99</v>
       </c>
       <c r="AE42" t="s">
-        <v>1180</v>
+        <v>1211</v>
       </c>
       <c r="AF42">
         <v>1008</v>
@@ -9665,6 +9686,9 @@
       <c r="AD51" t="s">
         <v>1120</v>
       </c>
+      <c r="AE51" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF51">
         <v>336</v>
       </c>
@@ -10093,6 +10117,9 @@
       <c r="AD55" t="s">
         <v>1120</v>
       </c>
+      <c r="AE55" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF55">
         <v>360</v>
       </c>
@@ -10738,6 +10765,9 @@
       <c r="AD61" t="s">
         <v>1112</v>
       </c>
+      <c r="AE61" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF61">
         <v>324</v>
       </c>
@@ -11059,6 +11089,9 @@
       <c r="AD64" t="s">
         <v>1097</v>
       </c>
+      <c r="AE64" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF64">
         <v>552</v>
       </c>
@@ -13975,6 +14008,9 @@
       <c r="AD91" t="s">
         <v>1118</v>
       </c>
+      <c r="AE91" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF91">
         <v>288</v>
       </c>
@@ -14082,6 +14118,9 @@
       <c r="AD92" t="s">
         <v>1120</v>
       </c>
+      <c r="AE92" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF92">
         <v>288</v>
       </c>
@@ -14189,6 +14228,9 @@
       <c r="AD93" t="s">
         <v>99</v>
       </c>
+      <c r="AE93" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF93">
         <v>288</v>
       </c>
@@ -14296,6 +14338,9 @@
       <c r="AD94" t="s">
         <v>42</v>
       </c>
+      <c r="AE94" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF94">
         <v>288</v>
       </c>
@@ -14831,6 +14876,9 @@
       <c r="AD99" t="s">
         <v>1119</v>
       </c>
+      <c r="AE99" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF99">
         <v>336</v>
       </c>
@@ -15366,6 +15414,9 @@
       <c r="AD104" t="s">
         <v>1120</v>
       </c>
+      <c r="AE104" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF104">
         <v>288</v>
       </c>
@@ -15690,6 +15741,9 @@
       <c r="AD107" t="s">
         <v>1112</v>
       </c>
+      <c r="AE107" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF107">
         <v>252</v>
       </c>
@@ -18089,6 +18143,9 @@
       <c r="AD129" t="s">
         <v>1119</v>
       </c>
+      <c r="AE129" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF129">
         <v>288</v>
       </c>
@@ -20125,6 +20182,9 @@
       <c r="AD148" t="s">
         <v>1119</v>
       </c>
+      <c r="AE148" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF148">
         <v>720</v>
       </c>
@@ -20232,6 +20292,9 @@
       <c r="AD149" t="s">
         <v>59</v>
       </c>
+      <c r="AE149" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF149">
         <v>720</v>
       </c>
@@ -20339,6 +20402,9 @@
       <c r="AD150" t="s">
         <v>1120</v>
       </c>
+      <c r="AE150" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF150">
         <v>1152</v>
       </c>
@@ -21089,7 +21155,7 @@
         <v>1119</v>
       </c>
       <c r="AE157" t="s">
-        <v>1159</v>
+        <v>1212</v>
       </c>
       <c r="AF157">
         <v>900</v>
@@ -21136,7 +21202,7 @@
         <v>200</v>
       </c>
       <c r="J158">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K158">
         <v>110</v>
@@ -21197,6 +21263,9 @@
       </c>
       <c r="AD158" t="s">
         <v>1120</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>1210</v>
       </c>
       <c r="AF158">
         <v>468</v>
@@ -21305,6 +21374,9 @@
       <c r="AD159" t="s">
         <v>1120</v>
       </c>
+      <c r="AE159" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF159">
         <v>288</v>
       </c>
@@ -21412,6 +21484,9 @@
       <c r="AD160" t="s">
         <v>1112</v>
       </c>
+      <c r="AE160" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF160">
         <v>384</v>
       </c>
@@ -22054,6 +22129,9 @@
       <c r="AD166" t="s">
         <v>1112</v>
       </c>
+      <c r="AE166" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF166">
         <v>432</v>
       </c>
@@ -22524,19 +22602,19 @@
         <v>100</v>
       </c>
       <c r="I171">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="J171">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K171">
         <v>100</v>
       </c>
       <c r="L171">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M171">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N171">
         <v>1</v>
@@ -23698,19 +23776,19 @@
         <v>100</v>
       </c>
       <c r="H182">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I182">
         <v>115</v>
       </c>
       <c r="J182">
+        <v>175</v>
+      </c>
+      <c r="K182">
+        <v>100</v>
+      </c>
+      <c r="L182">
         <v>125</v>
-      </c>
-      <c r="K182">
-        <v>100</v>
-      </c>
-      <c r="L182">
-        <v>112</v>
       </c>
       <c r="M182">
         <v>30</v>
@@ -23725,10 +23803,10 @@
         <v>200</v>
       </c>
       <c r="Q182">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R182">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="S182">
         <v>10</v>
@@ -23765,6 +23843,9 @@
       </c>
       <c r="AD182" t="s">
         <v>99</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>1210</v>
       </c>
       <c r="AF182">
         <v>780</v>
@@ -23873,6 +23954,9 @@
       <c r="AD183" t="s">
         <v>1119</v>
       </c>
+      <c r="AE183" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF183">
         <v>240</v>
       </c>
@@ -26016,6 +26100,9 @@
       <c r="AD203" t="s">
         <v>1196</v>
       </c>
+      <c r="AE203" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF203">
         <v>192</v>
       </c>
@@ -26230,6 +26317,9 @@
       <c r="AD205" t="s">
         <v>1112</v>
       </c>
+      <c r="AE205" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF205">
         <v>288</v>
       </c>
@@ -26551,6 +26641,9 @@
       <c r="AD208" t="s">
         <v>1120</v>
       </c>
+      <c r="AE208" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF208">
         <v>360</v>
       </c>
@@ -27086,6 +27179,9 @@
       <c r="AD213" t="s">
         <v>1120</v>
       </c>
+      <c r="AE213" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF213">
         <v>168</v>
       </c>
@@ -27407,6 +27503,9 @@
       <c r="AD216" t="s">
         <v>1120</v>
       </c>
+      <c r="AE216" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF216">
         <v>384</v>
       </c>
@@ -27514,6 +27613,9 @@
       <c r="AD217" t="s">
         <v>1120</v>
       </c>
+      <c r="AE217" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF217">
         <v>269</v>
       </c>
@@ -27621,6 +27723,9 @@
       <c r="AD218" t="s">
         <v>1120</v>
       </c>
+      <c r="AE218" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF218">
         <v>408</v>
       </c>
@@ -28156,6 +28261,9 @@
       <c r="AD223" t="s">
         <v>99</v>
       </c>
+      <c r="AE223" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF223">
         <v>600</v>
       </c>
@@ -28905,6 +29013,9 @@
       <c r="AD230" t="s">
         <v>1120</v>
       </c>
+      <c r="AE230" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF230">
         <v>720</v>
       </c>
@@ -30510,6 +30621,9 @@
       <c r="AD245" t="s">
         <v>1097</v>
       </c>
+      <c r="AE245" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF245">
         <v>336</v>
       </c>
@@ -31476,6 +31590,9 @@
       <c r="AD254" t="s">
         <v>1196</v>
       </c>
+      <c r="AE254" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF254">
         <v>384</v>
       </c>
@@ -32977,6 +33094,9 @@
       <c r="AD268" t="s">
         <v>1120</v>
       </c>
+      <c r="AE268" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF268">
         <v>720</v>
       </c>
@@ -34154,6 +34274,9 @@
       <c r="AD279" t="s">
         <v>1120</v>
       </c>
+      <c r="AE279" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF279">
         <v>288</v>
       </c>
@@ -35129,6 +35252,9 @@
       <c r="AD288" t="s">
         <v>984</v>
       </c>
+      <c r="AE288" t="s">
+        <v>1210</v>
+      </c>
       <c r="AF288"